--- a/doc/D4_ドキュメント/予実管理表(最新版)_D4.xlsx
+++ b/doc/D4_ドキュメント/予実管理表(最新版)_D4.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23530"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D67933F8-08DF-4086-9FE1-026FCA85CB02}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F6BBCDB-97EC-477C-827F-DBFE7A3C8C04}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="工数予実管理表" sheetId="5" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="529" uniqueCount="154">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="529" uniqueCount="156">
   <si>
     <t>プロジェクト名</t>
     <rPh sb="6" eb="7">
@@ -947,6 +947,14 @@
     <rPh sb="6" eb="7">
       <t>ヨウ</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Memo.java</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>User.java</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1047,7 +1055,7 @@
       <charset val="128"/>
     </font>
   </fonts>
-  <fills count="18">
+  <fills count="19">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1147,6 +1155,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1640,7 +1654,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="163">
+  <cellXfs count="164">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1968,6 +1982,87 @@
     <xf numFmtId="9" fontId="2" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="178" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2028,51 +2123,6 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="16" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
@@ -2082,53 +2132,20 @@
     <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="178" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2177,8 +2194,8 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FFFEFFD5"/>
       <color rgb="FFCC99FF"/>
-      <color rgb="FFFEFFD5"/>
       <color rgb="FFFF5050"/>
       <color rgb="FF7C505F"/>
       <color rgb="FFF8BAF1"/>
@@ -2367,7 +2384,7 @@
                   <c:v>0.28428571428571425</c:v>
                 </c:pt>
                 <c:pt idx="4" formatCode="0.0%">
-                  <c:v>0</c:v>
+                  <c:v>0.32032142857142859</c:v>
                 </c:pt>
                 <c:pt idx="5" formatCode="0.0%">
                   <c:v>0</c:v>
@@ -3590,8 +3607,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA4A6EF2-62B9-43FE-BFFD-0A328B128D1B}">
   <dimension ref="A1:BL111"/>
   <sheetViews>
-    <sheetView topLeftCell="A31" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="AC53" sqref="AC53"/>
+    <sheetView tabSelected="1" topLeftCell="B13" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G61" sqref="G61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
@@ -3625,54 +3642,54 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:64" ht="16" x14ac:dyDescent="0.3">
-      <c r="A1" s="119" t="s">
+      <c r="A1" s="146" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="120"/>
-      <c r="C1" s="120"/>
-      <c r="D1" s="120"/>
-      <c r="E1" s="120"/>
-      <c r="F1" s="120"/>
-      <c r="G1" s="120"/>
-      <c r="H1" s="123" t="s">
+      <c r="B1" s="147"/>
+      <c r="C1" s="147"/>
+      <c r="D1" s="147"/>
+      <c r="E1" s="147"/>
+      <c r="F1" s="147"/>
+      <c r="G1" s="147"/>
+      <c r="H1" s="150" t="s">
         <v>1</v>
       </c>
-      <c r="I1" s="124"/>
-      <c r="J1" s="124"/>
-      <c r="K1" s="124"/>
-      <c r="L1" s="124"/>
-      <c r="M1" s="124"/>
-      <c r="N1" s="124"/>
-      <c r="O1" s="124"/>
-      <c r="P1" s="124"/>
-      <c r="Q1" s="124"/>
-      <c r="R1" s="124"/>
-      <c r="S1" s="124"/>
-      <c r="T1" s="124"/>
-      <c r="U1" s="124"/>
-      <c r="V1" s="124"/>
-      <c r="W1" s="124"/>
-      <c r="X1" s="124"/>
-      <c r="Y1" s="124"/>
-      <c r="Z1" s="124"/>
-      <c r="AA1" s="124"/>
-      <c r="AB1" s="124"/>
-      <c r="AC1" s="125"/>
-      <c r="AD1" s="129" t="s">
+      <c r="I1" s="151"/>
+      <c r="J1" s="151"/>
+      <c r="K1" s="151"/>
+      <c r="L1" s="151"/>
+      <c r="M1" s="151"/>
+      <c r="N1" s="151"/>
+      <c r="O1" s="151"/>
+      <c r="P1" s="151"/>
+      <c r="Q1" s="151"/>
+      <c r="R1" s="151"/>
+      <c r="S1" s="151"/>
+      <c r="T1" s="151"/>
+      <c r="U1" s="151"/>
+      <c r="V1" s="151"/>
+      <c r="W1" s="151"/>
+      <c r="X1" s="151"/>
+      <c r="Y1" s="151"/>
+      <c r="Z1" s="151"/>
+      <c r="AA1" s="151"/>
+      <c r="AB1" s="151"/>
+      <c r="AC1" s="152"/>
+      <c r="AD1" s="120" t="s">
         <v>2</v>
       </c>
-      <c r="AE1" s="130"/>
-      <c r="AF1" s="130"/>
-      <c r="AG1" s="131"/>
-      <c r="AH1" s="132">
+      <c r="AE1" s="121"/>
+      <c r="AF1" s="121"/>
+      <c r="AG1" s="122"/>
+      <c r="AH1" s="123">
         <v>45078</v>
       </c>
-      <c r="AI1" s="133"/>
-      <c r="AJ1" s="133"/>
-      <c r="AK1" s="133"/>
-      <c r="AL1" s="133"/>
-      <c r="AM1" s="133"/>
-      <c r="AN1" s="134"/>
+      <c r="AI1" s="124"/>
+      <c r="AJ1" s="124"/>
+      <c r="AK1" s="124"/>
+      <c r="AL1" s="124"/>
+      <c r="AM1" s="124"/>
+      <c r="AN1" s="125"/>
       <c r="AO1" s="1"/>
       <c r="AP1" s="1"/>
       <c r="AQ1" s="1"/>
@@ -3694,50 +3711,50 @@
       <c r="BG1" s="1"/>
     </row>
     <row r="2" spans="1:64" ht="16" x14ac:dyDescent="0.3">
-      <c r="A2" s="121"/>
-      <c r="B2" s="122"/>
-      <c r="C2" s="122"/>
-      <c r="D2" s="122"/>
-      <c r="E2" s="122"/>
-      <c r="F2" s="122"/>
-      <c r="G2" s="122"/>
-      <c r="H2" s="126"/>
-      <c r="I2" s="127"/>
-      <c r="J2" s="127"/>
-      <c r="K2" s="127"/>
-      <c r="L2" s="127"/>
-      <c r="M2" s="127"/>
-      <c r="N2" s="127"/>
-      <c r="O2" s="127"/>
-      <c r="P2" s="127"/>
-      <c r="Q2" s="127"/>
-      <c r="R2" s="127"/>
-      <c r="S2" s="127"/>
-      <c r="T2" s="127"/>
-      <c r="U2" s="127"/>
-      <c r="V2" s="127"/>
-      <c r="W2" s="127"/>
-      <c r="X2" s="127"/>
-      <c r="Y2" s="127"/>
-      <c r="Z2" s="127"/>
-      <c r="AA2" s="127"/>
-      <c r="AB2" s="127"/>
-      <c r="AC2" s="128"/>
-      <c r="AD2" s="129" t="s">
+      <c r="A2" s="148"/>
+      <c r="B2" s="149"/>
+      <c r="C2" s="149"/>
+      <c r="D2" s="149"/>
+      <c r="E2" s="149"/>
+      <c r="F2" s="149"/>
+      <c r="G2" s="149"/>
+      <c r="H2" s="153"/>
+      <c r="I2" s="154"/>
+      <c r="J2" s="154"/>
+      <c r="K2" s="154"/>
+      <c r="L2" s="154"/>
+      <c r="M2" s="154"/>
+      <c r="N2" s="154"/>
+      <c r="O2" s="154"/>
+      <c r="P2" s="154"/>
+      <c r="Q2" s="154"/>
+      <c r="R2" s="154"/>
+      <c r="S2" s="154"/>
+      <c r="T2" s="154"/>
+      <c r="U2" s="154"/>
+      <c r="V2" s="154"/>
+      <c r="W2" s="154"/>
+      <c r="X2" s="154"/>
+      <c r="Y2" s="154"/>
+      <c r="Z2" s="154"/>
+      <c r="AA2" s="154"/>
+      <c r="AB2" s="154"/>
+      <c r="AC2" s="155"/>
+      <c r="AD2" s="120" t="s">
         <v>3</v>
       </c>
-      <c r="AE2" s="130"/>
-      <c r="AF2" s="130"/>
-      <c r="AG2" s="131"/>
-      <c r="AH2" s="132">
+      <c r="AE2" s="121"/>
+      <c r="AF2" s="121"/>
+      <c r="AG2" s="122"/>
+      <c r="AH2" s="123">
         <v>45107</v>
       </c>
-      <c r="AI2" s="133"/>
-      <c r="AJ2" s="133"/>
-      <c r="AK2" s="133"/>
-      <c r="AL2" s="133"/>
-      <c r="AM2" s="133"/>
-      <c r="AN2" s="134"/>
+      <c r="AI2" s="124"/>
+      <c r="AJ2" s="124"/>
+      <c r="AK2" s="124"/>
+      <c r="AL2" s="124"/>
+      <c r="AM2" s="124"/>
+      <c r="AN2" s="125"/>
       <c r="AO2" s="1"/>
       <c r="AP2" s="1"/>
       <c r="AQ2" s="1"/>
@@ -3820,43 +3837,43 @@
       <c r="BG3" s="1"/>
     </row>
     <row r="4" spans="1:64" ht="16" x14ac:dyDescent="0.3">
-      <c r="A4" s="135" t="s">
+      <c r="A4" s="126" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="136"/>
-      <c r="C4" s="139" t="s">
+      <c r="B4" s="127"/>
+      <c r="C4" s="130" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="139"/>
-      <c r="E4" s="139"/>
-      <c r="F4" s="139"/>
-      <c r="G4" s="139"/>
-      <c r="H4" s="139"/>
-      <c r="I4" s="139"/>
-      <c r="J4" s="139"/>
-      <c r="K4" s="139"/>
-      <c r="L4" s="139"/>
-      <c r="M4" s="139"/>
-      <c r="N4" s="139"/>
-      <c r="O4" s="139"/>
-      <c r="P4" s="136" t="s">
+      <c r="D4" s="130"/>
+      <c r="E4" s="130"/>
+      <c r="F4" s="130"/>
+      <c r="G4" s="130"/>
+      <c r="H4" s="130"/>
+      <c r="I4" s="130"/>
+      <c r="J4" s="130"/>
+      <c r="K4" s="130"/>
+      <c r="L4" s="130"/>
+      <c r="M4" s="130"/>
+      <c r="N4" s="130"/>
+      <c r="O4" s="130"/>
+      <c r="P4" s="127" t="s">
         <v>6</v>
       </c>
-      <c r="Q4" s="136"/>
-      <c r="R4" s="136"/>
-      <c r="S4" s="136" t="s">
+      <c r="Q4" s="127"/>
+      <c r="R4" s="127"/>
+      <c r="S4" s="127" t="s">
         <v>7</v>
       </c>
-      <c r="T4" s="136"/>
-      <c r="U4" s="136"/>
-      <c r="V4" s="136"/>
-      <c r="W4" s="136"/>
-      <c r="X4" s="157"/>
-      <c r="Y4" s="153" t="s">
+      <c r="T4" s="127"/>
+      <c r="U4" s="127"/>
+      <c r="V4" s="127"/>
+      <c r="W4" s="127"/>
+      <c r="X4" s="135"/>
+      <c r="Y4" s="131" t="s">
         <v>8</v>
       </c>
-      <c r="Z4" s="153"/>
-      <c r="AA4" s="154"/>
+      <c r="Z4" s="131"/>
+      <c r="AA4" s="132"/>
       <c r="AB4" s="49"/>
       <c r="AC4" s="49"/>
       <c r="AD4" s="5">
@@ -3981,43 +3998,43 @@
       </c>
     </row>
     <row r="5" spans="1:64" ht="16" x14ac:dyDescent="0.3">
-      <c r="A5" s="137"/>
-      <c r="B5" s="138"/>
-      <c r="C5" s="138" t="s">
+      <c r="A5" s="128"/>
+      <c r="B5" s="129"/>
+      <c r="C5" s="129" t="s">
         <v>9</v>
       </c>
-      <c r="D5" s="138"/>
-      <c r="E5" s="138"/>
-      <c r="F5" s="138"/>
-      <c r="G5" s="138"/>
-      <c r="H5" s="115" t="s">
+      <c r="D5" s="129"/>
+      <c r="E5" s="129"/>
+      <c r="F5" s="129"/>
+      <c r="G5" s="129"/>
+      <c r="H5" s="142" t="s">
         <v>116</v>
       </c>
-      <c r="I5" s="116"/>
-      <c r="J5" s="115" t="s">
+      <c r="I5" s="143"/>
+      <c r="J5" s="142" t="s">
         <v>89</v>
       </c>
-      <c r="K5" s="116"/>
+      <c r="K5" s="143"/>
       <c r="L5" s="53"/>
       <c r="M5" s="53"/>
       <c r="N5" s="53"/>
       <c r="O5" s="53"/>
-      <c r="P5" s="138"/>
-      <c r="Q5" s="138"/>
-      <c r="R5" s="138"/>
-      <c r="S5" s="138" t="s">
+      <c r="P5" s="129"/>
+      <c r="Q5" s="129"/>
+      <c r="R5" s="129"/>
+      <c r="S5" s="129" t="s">
         <v>2</v>
       </c>
-      <c r="T5" s="138"/>
-      <c r="U5" s="138"/>
-      <c r="V5" s="138" t="s">
+      <c r="T5" s="129"/>
+      <c r="U5" s="129"/>
+      <c r="V5" s="129" t="s">
         <v>3</v>
       </c>
-      <c r="W5" s="138"/>
-      <c r="X5" s="129"/>
-      <c r="Y5" s="155"/>
-      <c r="Z5" s="155"/>
-      <c r="AA5" s="156"/>
+      <c r="W5" s="129"/>
+      <c r="X5" s="120"/>
+      <c r="Y5" s="133"/>
+      <c r="Z5" s="133"/>
+      <c r="AA5" s="134"/>
       <c r="AB5" s="45" t="s">
         <v>87</v>
       </c>
@@ -4146,33 +4163,33 @@
       </c>
     </row>
     <row r="6" spans="1:64" ht="16" x14ac:dyDescent="0.3">
-      <c r="A6" s="137"/>
-      <c r="B6" s="138"/>
-      <c r="C6" s="138"/>
-      <c r="D6" s="138"/>
-      <c r="E6" s="138"/>
-      <c r="F6" s="138"/>
-      <c r="G6" s="138"/>
-      <c r="H6" s="117"/>
-      <c r="I6" s="118"/>
-      <c r="J6" s="117"/>
-      <c r="K6" s="118"/>
+      <c r="A6" s="128"/>
+      <c r="B6" s="129"/>
+      <c r="C6" s="129"/>
+      <c r="D6" s="129"/>
+      <c r="E6" s="129"/>
+      <c r="F6" s="129"/>
+      <c r="G6" s="129"/>
+      <c r="H6" s="144"/>
+      <c r="I6" s="145"/>
+      <c r="J6" s="144"/>
+      <c r="K6" s="145"/>
       <c r="L6" s="53"/>
       <c r="M6" s="53"/>
       <c r="N6" s="53"/>
       <c r="O6" s="53"/>
-      <c r="P6" s="138"/>
-      <c r="Q6" s="138"/>
-      <c r="R6" s="138"/>
-      <c r="S6" s="138"/>
-      <c r="T6" s="138"/>
-      <c r="U6" s="138"/>
-      <c r="V6" s="138"/>
-      <c r="W6" s="138"/>
-      <c r="X6" s="129"/>
-      <c r="Y6" s="155"/>
-      <c r="Z6" s="155"/>
-      <c r="AA6" s="156"/>
+      <c r="P6" s="129"/>
+      <c r="Q6" s="129"/>
+      <c r="R6" s="129"/>
+      <c r="S6" s="129"/>
+      <c r="T6" s="129"/>
+      <c r="U6" s="129"/>
+      <c r="V6" s="129"/>
+      <c r="W6" s="129"/>
+      <c r="X6" s="120"/>
+      <c r="Y6" s="133"/>
+      <c r="Z6" s="133"/>
+      <c r="AA6" s="134"/>
       <c r="AB6" s="45"/>
       <c r="AC6" s="45"/>
       <c r="AD6" s="11" t="str">
@@ -5465,11 +5482,11 @@
       <c r="E22" s="19"/>
       <c r="F22" s="19"/>
       <c r="G22" s="19"/>
-      <c r="H22" s="23" t="s">
+      <c r="H22" s="162" t="s">
         <v>101</v>
       </c>
-      <c r="I22" s="23"/>
-      <c r="J22" s="23" t="s">
+      <c r="I22" s="162"/>
+      <c r="J22" s="162" t="s">
         <v>33</v>
       </c>
       <c r="K22" s="23"/>
@@ -5620,11 +5637,11 @@
       <c r="E24" s="19"/>
       <c r="F24" s="19"/>
       <c r="G24" s="19"/>
-      <c r="H24" s="19" t="s">
+      <c r="H24" s="23" t="s">
         <v>103</v>
       </c>
-      <c r="I24" s="19"/>
-      <c r="J24" s="19" t="s">
+      <c r="I24" s="23"/>
+      <c r="J24" s="23" t="s">
         <v>35</v>
       </c>
       <c r="K24" s="19"/>
@@ -5697,11 +5714,11 @@
       <c r="E25" s="19"/>
       <c r="F25" s="19"/>
       <c r="G25" s="19"/>
-      <c r="H25" s="23" t="s">
+      <c r="H25" s="162" t="s">
         <v>104</v>
       </c>
-      <c r="I25" s="23"/>
-      <c r="J25" s="23" t="s">
+      <c r="I25" s="162"/>
+      <c r="J25" s="162" t="s">
         <v>36</v>
       </c>
       <c r="K25" s="23"/>
@@ -5852,11 +5869,11 @@
       <c r="E27" s="19"/>
       <c r="F27" s="19"/>
       <c r="G27" s="19"/>
-      <c r="H27" s="19" t="s">
+      <c r="H27" s="163" t="s">
         <v>106</v>
       </c>
-      <c r="I27" s="19"/>
-      <c r="J27" s="19" t="s">
+      <c r="I27" s="163"/>
+      <c r="J27" s="163" t="s">
         <v>38</v>
       </c>
       <c r="K27" s="19"/>
@@ -5880,7 +5897,7 @@
       <c r="W27" s="21"/>
       <c r="X27" s="21"/>
       <c r="Y27" s="55" t="s">
-        <v>118</v>
+        <v>76</v>
       </c>
       <c r="Z27" s="4"/>
       <c r="AA27" s="43"/>
@@ -5888,8 +5905,8 @@
         <v>1</v>
       </c>
       <c r="AC27" s="59">
-        <f t="shared" ref="AC27:AC40" si="5">VLOOKUP(Y27,$BI$7:$BL$8,4,FALSE)</f>
-        <v>0</v>
+        <f>VLOOKUP(Y27,$BI$7:$BL$8,4,FALSE)</f>
+        <v>1</v>
       </c>
       <c r="AD27" s="44"/>
       <c r="AE27" s="2"/>
@@ -5930,11 +5947,11 @@
       <c r="E28" s="19"/>
       <c r="F28" s="19"/>
       <c r="G28" s="19"/>
-      <c r="H28" s="19" t="s">
+      <c r="H28" s="163" t="s">
         <v>100</v>
       </c>
-      <c r="I28" s="19"/>
-      <c r="J28" s="19" t="s">
+      <c r="I28" s="163"/>
+      <c r="J28" s="163" t="s">
         <v>39</v>
       </c>
       <c r="K28" s="19"/>
@@ -5958,7 +5975,7 @@
       <c r="W28" s="21"/>
       <c r="X28" s="21"/>
       <c r="Y28" s="55" t="s">
-        <v>118</v>
+        <v>76</v>
       </c>
       <c r="Z28" s="4"/>
       <c r="AA28" s="43"/>
@@ -5966,8 +5983,8 @@
         <v>1</v>
       </c>
       <c r="AC28" s="59">
-        <f t="shared" si="5"/>
-        <v>0</v>
+        <f t="shared" ref="AC27:AC40" si="5">VLOOKUP(Y28,$BI$7:$BL$8,4,FALSE)</f>
+        <v>1</v>
       </c>
       <c r="AD28" s="44"/>
       <c r="AE28" s="2"/>
@@ -6008,11 +6025,11 @@
       <c r="E29" s="19"/>
       <c r="F29" s="19"/>
       <c r="G29" s="19"/>
-      <c r="H29" s="19" t="s">
+      <c r="H29" s="163" t="s">
         <v>101</v>
       </c>
-      <c r="I29" s="19"/>
-      <c r="J29" s="19" t="s">
+      <c r="I29" s="163"/>
+      <c r="J29" s="163" t="s">
         <v>40</v>
       </c>
       <c r="K29" s="19"/>
@@ -6036,7 +6053,7 @@
       <c r="W29" s="21"/>
       <c r="X29" s="21"/>
       <c r="Y29" s="55" t="s">
-        <v>118</v>
+        <v>76</v>
       </c>
       <c r="Z29" s="4"/>
       <c r="AA29" s="43"/>
@@ -6045,7 +6062,7 @@
       </c>
       <c r="AC29" s="59">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD29" s="44"/>
       <c r="AE29" s="2"/>
@@ -6086,11 +6103,11 @@
       <c r="E30" s="19"/>
       <c r="F30" s="19"/>
       <c r="G30" s="19"/>
-      <c r="H30" s="19" t="s">
+      <c r="H30" s="163" t="s">
         <v>102</v>
       </c>
-      <c r="I30" s="19"/>
-      <c r="J30" s="19" t="s">
+      <c r="I30" s="163"/>
+      <c r="J30" s="163" t="s">
         <v>41</v>
       </c>
       <c r="K30" s="19"/>
@@ -6114,7 +6131,7 @@
       <c r="W30" s="21"/>
       <c r="X30" s="21"/>
       <c r="Y30" s="55" t="s">
-        <v>118</v>
+        <v>76</v>
       </c>
       <c r="Z30" s="4"/>
       <c r="AA30" s="43"/>
@@ -6123,7 +6140,7 @@
       </c>
       <c r="AC30" s="59">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD30" s="44"/>
       <c r="AE30" s="2"/>
@@ -6164,11 +6181,11 @@
       <c r="E31" s="19"/>
       <c r="F31" s="19"/>
       <c r="G31" s="19"/>
-      <c r="H31" s="19" t="s">
+      <c r="H31" s="163" t="s">
         <v>97</v>
       </c>
-      <c r="I31" s="19"/>
-      <c r="J31" s="19" t="s">
+      <c r="I31" s="163"/>
+      <c r="J31" s="163" t="s">
         <v>42</v>
       </c>
       <c r="K31" s="19"/>
@@ -6192,7 +6209,7 @@
       <c r="W31" s="21"/>
       <c r="X31" s="21"/>
       <c r="Y31" s="55" t="s">
-        <v>118</v>
+        <v>76</v>
       </c>
       <c r="Z31" s="4"/>
       <c r="AA31" s="43"/>
@@ -6201,7 +6218,7 @@
       </c>
       <c r="AC31" s="59">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD31" s="44"/>
       <c r="AE31" s="2"/>
@@ -6242,11 +6259,11 @@
       <c r="E32" s="19"/>
       <c r="F32" s="19"/>
       <c r="G32" s="19"/>
-      <c r="H32" s="19" t="s">
+      <c r="H32" s="163" t="s">
         <v>107</v>
       </c>
-      <c r="I32" s="19"/>
-      <c r="J32" s="19" t="s">
+      <c r="I32" s="163"/>
+      <c r="J32" s="163" t="s">
         <v>43</v>
       </c>
       <c r="K32" s="19"/>
@@ -6270,7 +6287,7 @@
       <c r="W32" s="21"/>
       <c r="X32" s="21"/>
       <c r="Y32" s="55" t="s">
-        <v>118</v>
+        <v>76</v>
       </c>
       <c r="Z32" s="4"/>
       <c r="AA32" s="43"/>
@@ -6279,7 +6296,7 @@
       </c>
       <c r="AC32" s="59">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD32" s="44"/>
       <c r="AE32" s="2"/>
@@ -6320,12 +6337,12 @@
       <c r="E33" s="19"/>
       <c r="F33" s="19"/>
       <c r="G33" s="19"/>
-      <c r="H33" s="19" t="s">
+      <c r="H33" s="163" t="s">
         <v>108</v>
       </c>
-      <c r="I33" s="19"/>
-      <c r="J33" s="19" t="s">
-        <v>44</v>
+      <c r="I33" s="163"/>
+      <c r="J33" s="163" t="s">
+        <v>154</v>
       </c>
       <c r="K33" s="19"/>
       <c r="L33" s="19"/>
@@ -6348,7 +6365,7 @@
       <c r="W33" s="21"/>
       <c r="X33" s="21"/>
       <c r="Y33" s="55" t="s">
-        <v>118</v>
+        <v>76</v>
       </c>
       <c r="Z33" s="4"/>
       <c r="AA33" s="43"/>
@@ -6357,7 +6374,7 @@
       </c>
       <c r="AC33" s="59">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD33" s="44"/>
       <c r="AE33" s="2"/>
@@ -6398,12 +6415,12 @@
       <c r="E34" s="19"/>
       <c r="F34" s="19"/>
       <c r="G34" s="19"/>
-      <c r="H34" s="19" t="s">
+      <c r="H34" s="163" t="s">
         <v>109</v>
       </c>
-      <c r="I34" s="19"/>
-      <c r="J34" s="19" t="s">
-        <v>45</v>
+      <c r="I34" s="163"/>
+      <c r="J34" s="163" t="s">
+        <v>155</v>
       </c>
       <c r="K34" s="19"/>
       <c r="L34" s="19"/>
@@ -6426,7 +6443,7 @@
       <c r="W34" s="21"/>
       <c r="X34" s="21"/>
       <c r="Y34" s="55" t="s">
-        <v>118</v>
+        <v>76</v>
       </c>
       <c r="Z34" s="4"/>
       <c r="AA34" s="43"/>
@@ -6435,7 +6452,7 @@
       </c>
       <c r="AC34" s="59">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD34" s="44"/>
       <c r="AE34" s="2"/>
@@ -6476,11 +6493,11 @@
       <c r="E35" s="19"/>
       <c r="F35" s="19"/>
       <c r="G35" s="19"/>
-      <c r="H35" s="19" t="s">
+      <c r="H35" s="163" t="s">
         <v>124</v>
       </c>
-      <c r="I35" s="19"/>
-      <c r="J35" s="19" t="s">
+      <c r="I35" s="163"/>
+      <c r="J35" s="163" t="s">
         <v>46</v>
       </c>
       <c r="K35" s="19"/>
@@ -6504,7 +6521,7 @@
       <c r="W35" s="21"/>
       <c r="X35" s="21"/>
       <c r="Y35" s="55" t="s">
-        <v>118</v>
+        <v>76</v>
       </c>
       <c r="Z35" s="4"/>
       <c r="AA35" s="43"/>
@@ -6513,7 +6530,7 @@
       </c>
       <c r="AC35" s="59">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD35" s="44"/>
       <c r="AE35" s="2"/>
@@ -6554,11 +6571,11 @@
       <c r="E36" s="19"/>
       <c r="F36" s="19"/>
       <c r="G36" s="19"/>
-      <c r="H36" s="19" t="s">
+      <c r="H36" s="163" t="s">
         <v>110</v>
       </c>
-      <c r="I36" s="19"/>
-      <c r="J36" s="19" t="s">
+      <c r="I36" s="163"/>
+      <c r="J36" s="163" t="s">
         <v>47</v>
       </c>
       <c r="K36" s="19"/>
@@ -6582,7 +6599,7 @@
       <c r="W36" s="21"/>
       <c r="X36" s="21"/>
       <c r="Y36" s="55" t="s">
-        <v>118</v>
+        <v>76</v>
       </c>
       <c r="Z36" s="4"/>
       <c r="AA36" s="43"/>
@@ -6591,7 +6608,7 @@
       </c>
       <c r="AC36" s="59">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD36" s="44"/>
       <c r="AE36" s="2"/>
@@ -8769,7 +8786,7 @@
         <v>7</v>
       </c>
       <c r="AC64" s="59">
-        <f t="shared" ref="AC64:AC69" si="6">VLOOKUP(Y64,$BI$7:$BL$8,4,FALSE)</f>
+        <f t="shared" ref="AC64:AC68" si="6">VLOOKUP(Y64,$BI$7:$BL$8,4,FALSE)</f>
         <v>0</v>
       </c>
       <c r="AD64" s="44"/>
@@ -8804,13 +8821,13 @@
       <c r="BG64" s="9"/>
     </row>
     <row r="65" spans="1:59" ht="16" x14ac:dyDescent="0.3">
-      <c r="A65" s="143"/>
-      <c r="B65" s="141"/>
-      <c r="C65" s="149"/>
-      <c r="D65" s="149"/>
-      <c r="E65" s="149"/>
-      <c r="F65" s="149"/>
-      <c r="G65" s="150"/>
+      <c r="A65" s="113"/>
+      <c r="B65" s="111"/>
+      <c r="C65" s="114"/>
+      <c r="D65" s="114"/>
+      <c r="E65" s="114"/>
+      <c r="F65" s="114"/>
+      <c r="G65" s="115"/>
       <c r="H65" s="70" t="s">
         <v>130</v>
       </c>
@@ -8823,26 +8840,26 @@
       <c r="M65" s="2"/>
       <c r="N65" s="2"/>
       <c r="O65" s="2"/>
-      <c r="P65" s="152" t="s">
+      <c r="P65" s="116" t="s">
         <v>11</v>
       </c>
-      <c r="Q65" s="152"/>
-      <c r="R65" s="152"/>
-      <c r="S65" s="147">
+      <c r="Q65" s="116"/>
+      <c r="R65" s="116"/>
+      <c r="S65" s="117">
         <v>45092</v>
       </c>
-      <c r="T65" s="147"/>
-      <c r="U65" s="147"/>
-      <c r="V65" s="147">
+      <c r="T65" s="117"/>
+      <c r="U65" s="117"/>
+      <c r="V65" s="117">
         <v>45100</v>
       </c>
-      <c r="W65" s="147"/>
-      <c r="X65" s="147"/>
-      <c r="Y65" s="141" t="s">
+      <c r="W65" s="117"/>
+      <c r="X65" s="117"/>
+      <c r="Y65" s="111" t="s">
         <v>118</v>
       </c>
-      <c r="Z65" s="141"/>
-      <c r="AA65" s="142"/>
+      <c r="Z65" s="111"/>
+      <c r="AA65" s="112"/>
       <c r="AB65" s="45">
         <v>7</v>
       </c>
@@ -8882,13 +8899,13 @@
       <c r="BG65" s="9"/>
     </row>
     <row r="66" spans="1:59" ht="16" x14ac:dyDescent="0.3">
-      <c r="A66" s="143"/>
-      <c r="B66" s="141"/>
-      <c r="C66" s="149"/>
-      <c r="D66" s="149"/>
-      <c r="E66" s="149"/>
-      <c r="F66" s="149"/>
-      <c r="G66" s="150"/>
+      <c r="A66" s="113"/>
+      <c r="B66" s="111"/>
+      <c r="C66" s="114"/>
+      <c r="D66" s="114"/>
+      <c r="E66" s="114"/>
+      <c r="F66" s="114"/>
+      <c r="G66" s="115"/>
       <c r="H66" s="70" t="s">
         <v>129</v>
       </c>
@@ -8901,21 +8918,21 @@
       <c r="M66" s="2"/>
       <c r="N66" s="2"/>
       <c r="O66" s="2"/>
-      <c r="P66" s="152" t="s">
+      <c r="P66" s="116" t="s">
         <v>11</v>
       </c>
-      <c r="Q66" s="152"/>
-      <c r="R66" s="152"/>
-      <c r="S66" s="147">
+      <c r="Q66" s="116"/>
+      <c r="R66" s="116"/>
+      <c r="S66" s="117">
         <v>45092</v>
       </c>
-      <c r="T66" s="147"/>
-      <c r="U66" s="147"/>
-      <c r="V66" s="147">
+      <c r="T66" s="117"/>
+      <c r="U66" s="117"/>
+      <c r="V66" s="117">
         <v>45100</v>
       </c>
-      <c r="W66" s="147"/>
-      <c r="X66" s="147"/>
+      <c r="W66" s="117"/>
+      <c r="X66" s="117"/>
       <c r="Y66" s="55" t="s">
         <v>118</v>
       </c>
@@ -8964,13 +8981,13 @@
       <c r="BG66" s="9"/>
     </row>
     <row r="67" spans="1:59" ht="16" x14ac:dyDescent="0.3">
-      <c r="A67" s="143"/>
-      <c r="B67" s="141"/>
-      <c r="C67" s="149"/>
-      <c r="D67" s="149"/>
-      <c r="E67" s="149"/>
-      <c r="F67" s="149"/>
-      <c r="G67" s="150"/>
+      <c r="A67" s="113"/>
+      <c r="B67" s="111"/>
+      <c r="C67" s="114"/>
+      <c r="D67" s="114"/>
+      <c r="E67" s="114"/>
+      <c r="F67" s="114"/>
+      <c r="G67" s="115"/>
       <c r="H67" s="70" t="s">
         <v>126</v>
       </c>
@@ -8983,21 +9000,21 @@
       <c r="M67" s="2"/>
       <c r="N67" s="2"/>
       <c r="O67" s="2"/>
-      <c r="P67" s="151" t="s">
+      <c r="P67" s="119" t="s">
         <v>19</v>
       </c>
-      <c r="Q67" s="151"/>
-      <c r="R67" s="151"/>
-      <c r="S67" s="147">
+      <c r="Q67" s="119"/>
+      <c r="R67" s="119"/>
+      <c r="S67" s="117">
         <v>45096</v>
       </c>
-      <c r="T67" s="147"/>
-      <c r="U67" s="147"/>
-      <c r="V67" s="147">
+      <c r="T67" s="117"/>
+      <c r="U67" s="117"/>
+      <c r="V67" s="117">
         <v>45100</v>
       </c>
-      <c r="W67" s="147"/>
-      <c r="X67" s="147"/>
+      <c r="W67" s="117"/>
+      <c r="X67" s="117"/>
       <c r="Y67" s="55" t="s">
         <v>118</v>
       </c>
@@ -9046,15 +9063,15 @@
       <c r="BG67" s="9"/>
     </row>
     <row r="68" spans="1:59" ht="16" x14ac:dyDescent="0.3">
-      <c r="A68" s="143"/>
-      <c r="B68" s="141"/>
-      <c r="C68" s="144" t="s">
+      <c r="A68" s="113"/>
+      <c r="B68" s="111"/>
+      <c r="C68" s="156" t="s">
         <v>83</v>
       </c>
-      <c r="D68" s="144"/>
-      <c r="E68" s="144"/>
-      <c r="F68" s="144"/>
-      <c r="G68" s="145"/>
+      <c r="D68" s="156"/>
+      <c r="E68" s="156"/>
+      <c r="F68" s="156"/>
+      <c r="G68" s="157"/>
       <c r="H68" s="70" t="s">
         <v>115</v>
       </c>
@@ -9067,26 +9084,26 @@
       <c r="M68" s="72"/>
       <c r="N68" s="72"/>
       <c r="O68" s="72"/>
-      <c r="P68" s="148" t="s">
+      <c r="P68" s="159" t="s">
         <v>30</v>
       </c>
-      <c r="Q68" s="148"/>
-      <c r="R68" s="148"/>
-      <c r="S68" s="147">
+      <c r="Q68" s="159"/>
+      <c r="R68" s="159"/>
+      <c r="S68" s="117">
         <v>45091</v>
       </c>
-      <c r="T68" s="147"/>
-      <c r="U68" s="147"/>
-      <c r="V68" s="147">
+      <c r="T68" s="117"/>
+      <c r="U68" s="117"/>
+      <c r="V68" s="117">
         <v>45100</v>
       </c>
-      <c r="W68" s="147"/>
-      <c r="X68" s="147"/>
-      <c r="Y68" s="140" t="s">
+      <c r="W68" s="117"/>
+      <c r="X68" s="117"/>
+      <c r="Y68" s="118" t="s">
         <v>118</v>
       </c>
-      <c r="Z68" s="141"/>
-      <c r="AA68" s="142"/>
+      <c r="Z68" s="111"/>
+      <c r="AA68" s="112"/>
       <c r="AB68" s="45">
         <v>8</v>
       </c>
@@ -9126,15 +9143,15 @@
       <c r="BG68" s="9"/>
     </row>
     <row r="69" spans="1:59" ht="16" x14ac:dyDescent="0.3">
-      <c r="A69" s="143"/>
-      <c r="B69" s="141"/>
-      <c r="C69" s="144" t="s">
+      <c r="A69" s="113"/>
+      <c r="B69" s="111"/>
+      <c r="C69" s="156" t="s">
         <v>83</v>
       </c>
-      <c r="D69" s="144"/>
-      <c r="E69" s="144"/>
-      <c r="F69" s="144"/>
-      <c r="G69" s="145"/>
+      <c r="D69" s="156"/>
+      <c r="E69" s="156"/>
+      <c r="F69" s="156"/>
+      <c r="G69" s="157"/>
       <c r="H69" s="78" t="s">
         <v>131</v>
       </c>
@@ -9147,34 +9164,34 @@
       <c r="M69" s="72"/>
       <c r="N69" s="72"/>
       <c r="O69" s="72"/>
-      <c r="P69" s="146" t="s">
+      <c r="P69" s="158" t="s">
         <v>29</v>
       </c>
-      <c r="Q69" s="146"/>
-      <c r="R69" s="146"/>
-      <c r="S69" s="147">
+      <c r="Q69" s="158"/>
+      <c r="R69" s="158"/>
+      <c r="S69" s="117">
         <v>45091</v>
       </c>
-      <c r="T69" s="147"/>
-      <c r="U69" s="147"/>
-      <c r="V69" s="147">
+      <c r="T69" s="117"/>
+      <c r="U69" s="117"/>
+      <c r="V69" s="117">
         <v>45100</v>
       </c>
-      <c r="W69" s="147"/>
-      <c r="X69" s="147"/>
-      <c r="Y69" s="140">
+      <c r="W69" s="117"/>
+      <c r="X69" s="117"/>
+      <c r="Y69" s="118">
         <v>0.6</v>
       </c>
-      <c r="Z69" s="141"/>
-      <c r="AA69" s="142"/>
+      <c r="Z69" s="111"/>
+      <c r="AA69" s="112"/>
       <c r="AB69" s="45">
         <v>8</v>
       </c>
-      <c r="AC69" s="160">
+      <c r="AC69" s="109">
         <v>0.6</v>
       </c>
-      <c r="AD69" s="161"/>
-      <c r="AE69" s="162"/>
+      <c r="AD69" s="2"/>
+      <c r="AE69" s="110"/>
       <c r="AF69" s="2"/>
       <c r="AG69" s="2"/>
       <c r="AH69" s="2"/>
@@ -9207,13 +9224,13 @@
     <row r="70" spans="1:59" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A70" s="18"/>
       <c r="B70" s="4"/>
-      <c r="C70" s="109" t="s">
+      <c r="C70" s="136" t="s">
         <v>15</v>
       </c>
-      <c r="D70" s="109"/>
-      <c r="E70" s="109"/>
-      <c r="F70" s="109"/>
-      <c r="G70" s="110"/>
+      <c r="D70" s="136"/>
+      <c r="E70" s="136"/>
+      <c r="F70" s="136"/>
+      <c r="G70" s="137"/>
       <c r="H70" s="77" t="s">
         <v>20</v>
       </c>
@@ -9294,11 +9311,11 @@
     <row r="71" spans="1:59" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A71" s="18"/>
       <c r="B71" s="43"/>
-      <c r="C71" s="111"/>
-      <c r="D71" s="111"/>
-      <c r="E71" s="111"/>
-      <c r="F71" s="111"/>
-      <c r="G71" s="112"/>
+      <c r="C71" s="138"/>
+      <c r="D71" s="138"/>
+      <c r="E71" s="138"/>
+      <c r="F71" s="138"/>
+      <c r="G71" s="139"/>
       <c r="H71" s="77" t="s">
         <v>21</v>
       </c>
@@ -9379,11 +9396,11 @@
     <row r="72" spans="1:59" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A72" s="18"/>
       <c r="B72" s="43"/>
-      <c r="C72" s="111"/>
-      <c r="D72" s="111"/>
-      <c r="E72" s="111"/>
-      <c r="F72" s="111"/>
-      <c r="G72" s="112"/>
+      <c r="C72" s="138"/>
+      <c r="D72" s="138"/>
+      <c r="E72" s="138"/>
+      <c r="F72" s="138"/>
+      <c r="G72" s="139"/>
       <c r="H72" s="77" t="s">
         <v>22</v>
       </c>
@@ -9464,11 +9481,11 @@
     <row r="73" spans="1:59" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A73" s="18"/>
       <c r="B73" s="43"/>
-      <c r="C73" s="111"/>
-      <c r="D73" s="111"/>
-      <c r="E73" s="111"/>
-      <c r="F73" s="111"/>
-      <c r="G73" s="112"/>
+      <c r="C73" s="138"/>
+      <c r="D73" s="138"/>
+      <c r="E73" s="138"/>
+      <c r="F73" s="138"/>
+      <c r="G73" s="139"/>
       <c r="H73" s="77" t="s">
         <v>23</v>
       </c>
@@ -9549,11 +9566,11 @@
     <row r="74" spans="1:59" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A74" s="18"/>
       <c r="B74" s="43"/>
-      <c r="C74" s="111"/>
-      <c r="D74" s="111"/>
-      <c r="E74" s="111"/>
-      <c r="F74" s="111"/>
-      <c r="G74" s="112"/>
+      <c r="C74" s="138"/>
+      <c r="D74" s="138"/>
+      <c r="E74" s="138"/>
+      <c r="F74" s="138"/>
+      <c r="G74" s="139"/>
       <c r="H74" s="77" t="s">
         <v>24</v>
       </c>
@@ -9634,11 +9651,11 @@
     <row r="75" spans="1:59" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A75" s="18"/>
       <c r="B75" s="43"/>
-      <c r="C75" s="111"/>
-      <c r="D75" s="111"/>
-      <c r="E75" s="111"/>
-      <c r="F75" s="111"/>
-      <c r="G75" s="112"/>
+      <c r="C75" s="138"/>
+      <c r="D75" s="138"/>
+      <c r="E75" s="138"/>
+      <c r="F75" s="138"/>
+      <c r="G75" s="139"/>
       <c r="H75" s="77" t="s">
         <v>25</v>
       </c>
@@ -9719,11 +9736,11 @@
     <row r="76" spans="1:59" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A76" s="18"/>
       <c r="B76" s="43"/>
-      <c r="C76" s="111"/>
-      <c r="D76" s="111"/>
-      <c r="E76" s="111"/>
-      <c r="F76" s="111"/>
-      <c r="G76" s="112"/>
+      <c r="C76" s="138"/>
+      <c r="D76" s="138"/>
+      <c r="E76" s="138"/>
+      <c r="F76" s="138"/>
+      <c r="G76" s="139"/>
       <c r="H76" s="77" t="s">
         <v>26</v>
       </c>
@@ -9804,11 +9821,11 @@
     <row r="77" spans="1:59" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A77" s="18"/>
       <c r="B77" s="43"/>
-      <c r="C77" s="111"/>
-      <c r="D77" s="111"/>
-      <c r="E77" s="111"/>
-      <c r="F77" s="111"/>
-      <c r="G77" s="112"/>
+      <c r="C77" s="138"/>
+      <c r="D77" s="138"/>
+      <c r="E77" s="138"/>
+      <c r="F77" s="138"/>
+      <c r="G77" s="139"/>
       <c r="H77" s="77" t="s">
         <v>27</v>
       </c>
@@ -9889,11 +9906,11 @@
     <row r="78" spans="1:59" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A78" s="38"/>
       <c r="B78" s="52"/>
-      <c r="C78" s="111"/>
-      <c r="D78" s="111"/>
-      <c r="E78" s="111"/>
-      <c r="F78" s="111"/>
-      <c r="G78" s="112"/>
+      <c r="C78" s="138"/>
+      <c r="D78" s="138"/>
+      <c r="E78" s="138"/>
+      <c r="F78" s="138"/>
+      <c r="G78" s="139"/>
       <c r="H78" s="77" t="s">
         <v>28</v>
       </c>
@@ -9972,11 +9989,11 @@
       <c r="BG78" s="84"/>
     </row>
     <row r="79" spans="1:59" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C79" s="111"/>
-      <c r="D79" s="111"/>
-      <c r="E79" s="111"/>
-      <c r="F79" s="111"/>
-      <c r="G79" s="112"/>
+      <c r="C79" s="138"/>
+      <c r="D79" s="138"/>
+      <c r="E79" s="138"/>
+      <c r="F79" s="138"/>
+      <c r="G79" s="139"/>
       <c r="H79" s="77" t="s">
         <v>79</v>
       </c>
@@ -10051,11 +10068,11 @@
       <c r="BG79" s="58"/>
     </row>
     <row r="80" spans="1:59" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C80" s="111"/>
-      <c r="D80" s="111"/>
-      <c r="E80" s="111"/>
-      <c r="F80" s="111"/>
-      <c r="G80" s="112"/>
+      <c r="C80" s="138"/>
+      <c r="D80" s="138"/>
+      <c r="E80" s="138"/>
+      <c r="F80" s="138"/>
+      <c r="G80" s="139"/>
       <c r="H80" s="77" t="s">
         <v>80</v>
       </c>
@@ -10130,11 +10147,11 @@
       <c r="BG80" s="58"/>
     </row>
     <row r="81" spans="3:59" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C81" s="111"/>
-      <c r="D81" s="111"/>
-      <c r="E81" s="111"/>
-      <c r="F81" s="111"/>
-      <c r="G81" s="112"/>
+      <c r="C81" s="138"/>
+      <c r="D81" s="138"/>
+      <c r="E81" s="138"/>
+      <c r="F81" s="138"/>
+      <c r="G81" s="139"/>
       <c r="H81" s="77" t="s">
         <v>31</v>
       </c>
@@ -10188,11 +10205,11 @@
       <c r="BG81" s="58"/>
     </row>
     <row r="82" spans="3:59" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C82" s="111"/>
-      <c r="D82" s="111"/>
-      <c r="E82" s="111"/>
-      <c r="F82" s="111"/>
-      <c r="G82" s="112"/>
+      <c r="C82" s="138"/>
+      <c r="D82" s="138"/>
+      <c r="E82" s="138"/>
+      <c r="F82" s="138"/>
+      <c r="G82" s="139"/>
       <c r="H82" s="77" t="s">
         <v>32</v>
       </c>
@@ -10246,11 +10263,11 @@
       <c r="BG82" s="58"/>
     </row>
     <row r="83" spans="3:59" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C83" s="111"/>
-      <c r="D83" s="111"/>
-      <c r="E83" s="111"/>
-      <c r="F83" s="111"/>
-      <c r="G83" s="112"/>
+      <c r="C83" s="138"/>
+      <c r="D83" s="138"/>
+      <c r="E83" s="138"/>
+      <c r="F83" s="138"/>
+      <c r="G83" s="139"/>
       <c r="H83" s="76" t="s">
         <v>33</v>
       </c>
@@ -10304,11 +10321,11 @@
       <c r="BG83" s="58"/>
     </row>
     <row r="84" spans="3:59" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C84" s="111"/>
-      <c r="D84" s="111"/>
-      <c r="E84" s="111"/>
-      <c r="F84" s="111"/>
-      <c r="G84" s="112"/>
+      <c r="C84" s="138"/>
+      <c r="D84" s="138"/>
+      <c r="E84" s="138"/>
+      <c r="F84" s="138"/>
+      <c r="G84" s="139"/>
       <c r="H84" s="77" t="s">
         <v>34</v>
       </c>
@@ -10362,11 +10379,11 @@
       <c r="BG84" s="58"/>
     </row>
     <row r="85" spans="3:59" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C85" s="111"/>
-      <c r="D85" s="111"/>
-      <c r="E85" s="111"/>
-      <c r="F85" s="111"/>
-      <c r="G85" s="112"/>
+      <c r="C85" s="138"/>
+      <c r="D85" s="138"/>
+      <c r="E85" s="138"/>
+      <c r="F85" s="138"/>
+      <c r="G85" s="139"/>
       <c r="H85" s="77" t="s">
         <v>35</v>
       </c>
@@ -10420,11 +10437,11 @@
       <c r="BG85" s="58"/>
     </row>
     <row r="86" spans="3:59" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C86" s="111"/>
-      <c r="D86" s="111"/>
-      <c r="E86" s="111"/>
-      <c r="F86" s="111"/>
-      <c r="G86" s="112"/>
+      <c r="C86" s="138"/>
+      <c r="D86" s="138"/>
+      <c r="E86" s="138"/>
+      <c r="F86" s="138"/>
+      <c r="G86" s="139"/>
       <c r="H86" s="76" t="s">
         <v>36</v>
       </c>
@@ -10478,11 +10495,11 @@
       <c r="BG86" s="58"/>
     </row>
     <row r="87" spans="3:59" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C87" s="111"/>
-      <c r="D87" s="111"/>
-      <c r="E87" s="111"/>
-      <c r="F87" s="111"/>
-      <c r="G87" s="112"/>
+      <c r="C87" s="138"/>
+      <c r="D87" s="138"/>
+      <c r="E87" s="138"/>
+      <c r="F87" s="138"/>
+      <c r="G87" s="139"/>
       <c r="H87" s="77" t="s">
         <v>37</v>
       </c>
@@ -10536,13 +10553,13 @@
       <c r="BG87" s="58"/>
     </row>
     <row r="88" spans="3:59" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C88" s="113" t="s">
+      <c r="C88" s="140" t="s">
         <v>16</v>
       </c>
-      <c r="D88" s="113"/>
-      <c r="E88" s="113"/>
-      <c r="F88" s="113"/>
-      <c r="G88" s="113"/>
+      <c r="D88" s="140"/>
+      <c r="E88" s="140"/>
+      <c r="F88" s="140"/>
+      <c r="G88" s="140"/>
       <c r="H88" s="62" t="s">
         <v>49</v>
       </c>
@@ -10596,11 +10613,11 @@
       <c r="BG88" s="58"/>
     </row>
     <row r="89" spans="3:59" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C89" s="111"/>
-      <c r="D89" s="111"/>
-      <c r="E89" s="111"/>
-      <c r="F89" s="111"/>
-      <c r="G89" s="111"/>
+      <c r="C89" s="138"/>
+      <c r="D89" s="138"/>
+      <c r="E89" s="138"/>
+      <c r="F89" s="138"/>
+      <c r="G89" s="138"/>
       <c r="H89" s="62" t="s">
         <v>50</v>
       </c>
@@ -10654,11 +10671,11 @@
       <c r="BG89" s="58"/>
     </row>
     <row r="90" spans="3:59" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C90" s="111"/>
-      <c r="D90" s="111"/>
-      <c r="E90" s="111"/>
-      <c r="F90" s="111"/>
-      <c r="G90" s="111"/>
+      <c r="C90" s="138"/>
+      <c r="D90" s="138"/>
+      <c r="E90" s="138"/>
+      <c r="F90" s="138"/>
+      <c r="G90" s="138"/>
       <c r="H90" s="62" t="s">
         <v>51</v>
       </c>
@@ -10712,11 +10729,11 @@
       <c r="BG90" s="58"/>
     </row>
     <row r="91" spans="3:59" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C91" s="111"/>
-      <c r="D91" s="111"/>
-      <c r="E91" s="111"/>
-      <c r="F91" s="111"/>
-      <c r="G91" s="111"/>
+      <c r="C91" s="138"/>
+      <c r="D91" s="138"/>
+      <c r="E91" s="138"/>
+      <c r="F91" s="138"/>
+      <c r="G91" s="138"/>
       <c r="H91" s="62" t="s">
         <v>52</v>
       </c>
@@ -10770,11 +10787,11 @@
       <c r="BG91" s="58"/>
     </row>
     <row r="92" spans="3:59" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C92" s="111"/>
-      <c r="D92" s="111"/>
-      <c r="E92" s="111"/>
-      <c r="F92" s="111"/>
-      <c r="G92" s="111"/>
+      <c r="C92" s="138"/>
+      <c r="D92" s="138"/>
+      <c r="E92" s="138"/>
+      <c r="F92" s="138"/>
+      <c r="G92" s="138"/>
       <c r="H92" s="105" t="s">
         <v>53</v>
       </c>
@@ -10828,11 +10845,11 @@
       <c r="BG92" s="58"/>
     </row>
     <row r="93" spans="3:59" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C93" s="111"/>
-      <c r="D93" s="111"/>
-      <c r="E93" s="111"/>
-      <c r="F93" s="111"/>
-      <c r="G93" s="111"/>
+      <c r="C93" s="138"/>
+      <c r="D93" s="138"/>
+      <c r="E93" s="138"/>
+      <c r="F93" s="138"/>
+      <c r="G93" s="138"/>
       <c r="H93" s="62" t="s">
         <v>54</v>
       </c>
@@ -10886,11 +10903,11 @@
       <c r="BG93" s="58"/>
     </row>
     <row r="94" spans="3:59" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C94" s="111"/>
-      <c r="D94" s="111"/>
-      <c r="E94" s="111"/>
-      <c r="F94" s="111"/>
-      <c r="G94" s="111"/>
+      <c r="C94" s="138"/>
+      <c r="D94" s="138"/>
+      <c r="E94" s="138"/>
+      <c r="F94" s="138"/>
+      <c r="G94" s="138"/>
       <c r="H94" s="62" t="s">
         <v>55</v>
       </c>
@@ -10944,11 +10961,11 @@
       <c r="BG94" s="58"/>
     </row>
     <row r="95" spans="3:59" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C95" s="111"/>
-      <c r="D95" s="111"/>
-      <c r="E95" s="111"/>
-      <c r="F95" s="111"/>
-      <c r="G95" s="111"/>
+      <c r="C95" s="138"/>
+      <c r="D95" s="138"/>
+      <c r="E95" s="138"/>
+      <c r="F95" s="138"/>
+      <c r="G95" s="138"/>
       <c r="H95" s="62" t="s">
         <v>56</v>
       </c>
@@ -11002,11 +11019,11 @@
       <c r="BG95" s="58"/>
     </row>
     <row r="96" spans="3:59" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C96" s="111"/>
-      <c r="D96" s="111"/>
-      <c r="E96" s="111"/>
-      <c r="F96" s="111"/>
-      <c r="G96" s="111"/>
+      <c r="C96" s="138"/>
+      <c r="D96" s="138"/>
+      <c r="E96" s="138"/>
+      <c r="F96" s="138"/>
+      <c r="G96" s="138"/>
       <c r="H96" s="62" t="s">
         <v>57</v>
       </c>
@@ -11060,11 +11077,11 @@
       <c r="BG96" s="58"/>
     </row>
     <row r="97" spans="3:59" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C97" s="111"/>
-      <c r="D97" s="111"/>
-      <c r="E97" s="111"/>
-      <c r="F97" s="111"/>
-      <c r="G97" s="111"/>
+      <c r="C97" s="138"/>
+      <c r="D97" s="138"/>
+      <c r="E97" s="138"/>
+      <c r="F97" s="138"/>
+      <c r="G97" s="138"/>
       <c r="H97" s="62" t="s">
         <v>81</v>
       </c>
@@ -11118,11 +11135,11 @@
       <c r="BG97" s="58"/>
     </row>
     <row r="98" spans="3:59" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C98" s="114"/>
-      <c r="D98" s="114"/>
-      <c r="E98" s="114"/>
-      <c r="F98" s="114"/>
-      <c r="G98" s="114"/>
+      <c r="C98" s="141"/>
+      <c r="D98" s="141"/>
+      <c r="E98" s="141"/>
+      <c r="F98" s="141"/>
+      <c r="G98" s="141"/>
       <c r="H98" s="62" t="s">
         <v>82</v>
       </c>
@@ -11360,61 +11377,7 @@
       <c r="G111" s="69"/>
     </row>
   </sheetData>
-  <autoFilter ref="A4:BG102" xr:uid="{28597839-923C-47F8-A428-804EC81C39D0}">
-    <filterColumn colId="0" showButton="0"/>
-    <filterColumn colId="2" showButton="0"/>
-    <filterColumn colId="3" showButton="0"/>
-    <filterColumn colId="4" showButton="0"/>
-    <filterColumn colId="5" showButton="0"/>
-    <filterColumn colId="6" showButton="0"/>
-    <filterColumn colId="7" showButton="0"/>
-    <filterColumn colId="8" showButton="0"/>
-    <filterColumn colId="9" showButton="0"/>
-    <filterColumn colId="10" showButton="0"/>
-    <filterColumn colId="11" showButton="0"/>
-    <filterColumn colId="12" showButton="0"/>
-    <filterColumn colId="13" showButton="0"/>
-    <filterColumn colId="15" showButton="0"/>
-    <filterColumn colId="16" showButton="0"/>
-    <filterColumn colId="18" showButton="0"/>
-    <filterColumn colId="19" showButton="0"/>
-    <filterColumn colId="20" showButton="0"/>
-    <filterColumn colId="21" showButton="0"/>
-    <filterColumn colId="22" showButton="0"/>
-    <filterColumn colId="24" showButton="0"/>
-    <filterColumn colId="25" showButton="0"/>
-  </autoFilter>
   <mergeCells count="46">
-    <mergeCell ref="Y65:AA65"/>
-    <mergeCell ref="A66:B66"/>
-    <mergeCell ref="C66:G66"/>
-    <mergeCell ref="P66:R66"/>
-    <mergeCell ref="S66:U66"/>
-    <mergeCell ref="V66:X66"/>
-    <mergeCell ref="A65:B65"/>
-    <mergeCell ref="C65:G65"/>
-    <mergeCell ref="P65:R65"/>
-    <mergeCell ref="S65:U65"/>
-    <mergeCell ref="V65:X65"/>
-    <mergeCell ref="V68:X68"/>
-    <mergeCell ref="Y68:AA68"/>
-    <mergeCell ref="A67:B67"/>
-    <mergeCell ref="C67:G67"/>
-    <mergeCell ref="P67:R67"/>
-    <mergeCell ref="S67:U67"/>
-    <mergeCell ref="V67:X67"/>
-    <mergeCell ref="AD1:AG1"/>
-    <mergeCell ref="AH1:AN1"/>
-    <mergeCell ref="AD2:AG2"/>
-    <mergeCell ref="AH2:AN2"/>
-    <mergeCell ref="A4:B6"/>
-    <mergeCell ref="C4:O4"/>
-    <mergeCell ref="P4:R6"/>
-    <mergeCell ref="Y4:AA6"/>
-    <mergeCell ref="C5:G6"/>
-    <mergeCell ref="S5:U6"/>
-    <mergeCell ref="V5:X6"/>
-    <mergeCell ref="S4:X4"/>
     <mergeCell ref="C70:G87"/>
     <mergeCell ref="C88:G98"/>
     <mergeCell ref="H5:I6"/>
@@ -11431,6 +11394,36 @@
     <mergeCell ref="C68:G68"/>
     <mergeCell ref="P68:R68"/>
     <mergeCell ref="S68:U68"/>
+    <mergeCell ref="AD1:AG1"/>
+    <mergeCell ref="AH1:AN1"/>
+    <mergeCell ref="AD2:AG2"/>
+    <mergeCell ref="AH2:AN2"/>
+    <mergeCell ref="A4:B6"/>
+    <mergeCell ref="C4:O4"/>
+    <mergeCell ref="P4:R6"/>
+    <mergeCell ref="Y4:AA6"/>
+    <mergeCell ref="C5:G6"/>
+    <mergeCell ref="S5:U6"/>
+    <mergeCell ref="V5:X6"/>
+    <mergeCell ref="S4:X4"/>
+    <mergeCell ref="V68:X68"/>
+    <mergeCell ref="Y68:AA68"/>
+    <mergeCell ref="A67:B67"/>
+    <mergeCell ref="C67:G67"/>
+    <mergeCell ref="P67:R67"/>
+    <mergeCell ref="S67:U67"/>
+    <mergeCell ref="V67:X67"/>
+    <mergeCell ref="Y65:AA65"/>
+    <mergeCell ref="A66:B66"/>
+    <mergeCell ref="C66:G66"/>
+    <mergeCell ref="P66:R66"/>
+    <mergeCell ref="S66:U66"/>
+    <mergeCell ref="V66:X66"/>
+    <mergeCell ref="A65:B65"/>
+    <mergeCell ref="C65:G65"/>
+    <mergeCell ref="P65:R65"/>
+    <mergeCell ref="S65:U65"/>
+    <mergeCell ref="V65:X65"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="AD5:AD6">
@@ -11463,8 +11456,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7BC30043-DC99-4AC1-B9B7-184E5B4C9BD6}">
   <dimension ref="A1:T21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
@@ -11608,7 +11601,7 @@
       </c>
       <c r="F3" s="89">
         <f>F7/F5</f>
-        <v>0</v>
+        <v>0.32032142857142859</v>
       </c>
       <c r="G3" s="89">
         <f>G7/G5</f>
@@ -11849,7 +11842,9 @@
       <c r="E7" s="93">
         <v>79.599999999999994</v>
       </c>
-      <c r="F7" s="93"/>
+      <c r="F7" s="93">
+        <v>89.69</v>
+      </c>
       <c r="G7" s="93"/>
       <c r="H7" s="92"/>
       <c r="I7" s="92"/>
@@ -11927,7 +11922,7 @@
   <dimension ref="C2:F100"/>
   <sheetViews>
     <sheetView topLeftCell="A85" workbookViewId="0">
-      <selection activeCell="F95" sqref="F95"/>
+      <selection activeCell="F96" sqref="F96"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
@@ -11938,15 +11933,15 @@
   <sheetData>
     <row r="2" spans="4:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D2" s="1"/>
-      <c r="E2" s="115" t="s">
+      <c r="E2" s="142" t="s">
         <v>89</v>
       </c>
-      <c r="F2" s="116"/>
+      <c r="F2" s="143"/>
     </row>
     <row r="3" spans="4:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D3" s="1"/>
-      <c r="E3" s="158"/>
-      <c r="F3" s="159"/>
+      <c r="E3" s="160"/>
+      <c r="F3" s="161"/>
     </row>
     <row r="4" spans="4:6" ht="16" x14ac:dyDescent="0.3">
       <c r="D4" s="69"/>
@@ -12135,7 +12130,7 @@
       </c>
       <c r="F22" s="70">
         <f>工数予実管理表!AB27*工数予実管理表!AC27</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23" spans="4:6" ht="16" x14ac:dyDescent="0.3">
@@ -12145,7 +12140,7 @@
       </c>
       <c r="F23" s="70">
         <f>工数予実管理表!AB28*工数予実管理表!AC28</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="24" spans="4:6" ht="16" x14ac:dyDescent="0.3">
@@ -12155,7 +12150,7 @@
       </c>
       <c r="F24" s="70">
         <f>工数予実管理表!AB29*工数予実管理表!AC29</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25" spans="4:6" ht="16" x14ac:dyDescent="0.3">
@@ -12165,7 +12160,7 @@
       </c>
       <c r="F25" s="70">
         <f>工数予実管理表!AB30*工数予実管理表!AC30</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="26" spans="4:6" ht="16" x14ac:dyDescent="0.3">
@@ -12175,7 +12170,7 @@
       </c>
       <c r="F26" s="70">
         <f>工数予実管理表!AB31*工数予実管理表!AC31</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="27" spans="4:6" ht="16" x14ac:dyDescent="0.3">
@@ -12185,7 +12180,7 @@
       </c>
       <c r="F27" s="70">
         <f>工数予実管理表!AB32*工数予実管理表!AC32</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28" spans="4:6" ht="16" x14ac:dyDescent="0.3">
@@ -12195,7 +12190,7 @@
       </c>
       <c r="F28" s="70">
         <f>工数予実管理表!AB33*工数予実管理表!AC33</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="29" spans="4:6" ht="16" x14ac:dyDescent="0.3">
@@ -12205,7 +12200,7 @@
       </c>
       <c r="F29" s="70">
         <f>工数予実管理表!AB34*工数予実管理表!AC34</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30" spans="4:6" ht="16" x14ac:dyDescent="0.3">
@@ -12215,7 +12210,7 @@
       </c>
       <c r="F30" s="70">
         <f>工数予実管理表!AB35*工数予実管理表!AC35</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="31" spans="4:6" ht="16" x14ac:dyDescent="0.3">
@@ -12225,7 +12220,7 @@
       </c>
       <c r="F31" s="70">
         <f>工数予実管理表!AB36*工数予実管理表!AC36</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="32" spans="4:6" ht="16" x14ac:dyDescent="0.3">
@@ -12289,8 +12284,8 @@
       </c>
     </row>
     <row r="38" spans="3:6" ht="16" x14ac:dyDescent="0.3">
-      <c r="C38" s="111"/>
-      <c r="D38" s="111"/>
+      <c r="C38" s="138"/>
+      <c r="D38" s="138"/>
       <c r="E38" s="70" t="s">
         <v>55</v>
       </c>
@@ -12300,8 +12295,8 @@
       </c>
     </row>
     <row r="39" spans="3:6" ht="16" x14ac:dyDescent="0.3">
-      <c r="C39" s="111"/>
-      <c r="D39" s="111"/>
+      <c r="C39" s="138"/>
+      <c r="D39" s="138"/>
       <c r="E39" s="70" t="s">
         <v>56</v>
       </c>
@@ -12920,7 +12915,7 @@
       <c r="D95" s="69"/>
       <c r="F95">
         <f>SUM(F4:F94)</f>
-        <v>79.690000000000012</v>
+        <v>89.690000000000012</v>
       </c>
     </row>
     <row r="96" spans="3:6" ht="16" x14ac:dyDescent="0.3">
@@ -12955,9 +12950,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -13075,19 +13073,15 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{658D790C-F48A-4541-BBAC-37C510A1270D}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4F999A99-14E0-4A35-8552-0D0111146846}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -13109,9 +13103,10 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4F999A99-14E0-4A35-8552-0D0111146846}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{658D790C-F48A-4541-BBAC-37C510A1270D}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/doc/D4_ドキュメント/予実管理表(最新版)_D4.xlsx
+++ b/doc/D4_ドキュメント/予実管理表(最新版)_D4.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F6BBCDB-97EC-477C-827F-DBFE7A3C8C04}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A3D5AD8-982C-496A-94CE-55F20DDD4951}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="529" uniqueCount="156">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="530" uniqueCount="156">
   <si>
     <t>プロジェクト名</t>
     <rPh sb="6" eb="7">
@@ -1988,6 +1988,72 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1997,155 +2063,89 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="178" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="178" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2384,7 +2384,7 @@
                   <c:v>0.28428571428571425</c:v>
                 </c:pt>
                 <c:pt idx="4" formatCode="0.0%">
-                  <c:v>0.32032142857142859</c:v>
+                  <c:v>0.43321428571428572</c:v>
                 </c:pt>
                 <c:pt idx="5" formatCode="0.0%">
                   <c:v>0</c:v>
@@ -3607,8 +3607,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA4A6EF2-62B9-43FE-BFFD-0A328B128D1B}">
   <dimension ref="A1:BL111"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B13" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G61" sqref="G61"/>
+    <sheetView tabSelected="1" topLeftCell="B58" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AC9" sqref="AC9:AC69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
@@ -3642,54 +3642,54 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:64" ht="16" x14ac:dyDescent="0.3">
-      <c r="A1" s="146" t="s">
+      <c r="A1" s="122" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="147"/>
-      <c r="C1" s="147"/>
-      <c r="D1" s="147"/>
-      <c r="E1" s="147"/>
-      <c r="F1" s="147"/>
-      <c r="G1" s="147"/>
-      <c r="H1" s="150" t="s">
+      <c r="B1" s="123"/>
+      <c r="C1" s="123"/>
+      <c r="D1" s="123"/>
+      <c r="E1" s="123"/>
+      <c r="F1" s="123"/>
+      <c r="G1" s="123"/>
+      <c r="H1" s="126" t="s">
         <v>1</v>
       </c>
-      <c r="I1" s="151"/>
-      <c r="J1" s="151"/>
-      <c r="K1" s="151"/>
-      <c r="L1" s="151"/>
-      <c r="M1" s="151"/>
-      <c r="N1" s="151"/>
-      <c r="O1" s="151"/>
-      <c r="P1" s="151"/>
-      <c r="Q1" s="151"/>
-      <c r="R1" s="151"/>
-      <c r="S1" s="151"/>
-      <c r="T1" s="151"/>
-      <c r="U1" s="151"/>
-      <c r="V1" s="151"/>
-      <c r="W1" s="151"/>
-      <c r="X1" s="151"/>
-      <c r="Y1" s="151"/>
-      <c r="Z1" s="151"/>
-      <c r="AA1" s="151"/>
-      <c r="AB1" s="151"/>
-      <c r="AC1" s="152"/>
-      <c r="AD1" s="120" t="s">
+      <c r="I1" s="127"/>
+      <c r="J1" s="127"/>
+      <c r="K1" s="127"/>
+      <c r="L1" s="127"/>
+      <c r="M1" s="127"/>
+      <c r="N1" s="127"/>
+      <c r="O1" s="127"/>
+      <c r="P1" s="127"/>
+      <c r="Q1" s="127"/>
+      <c r="R1" s="127"/>
+      <c r="S1" s="127"/>
+      <c r="T1" s="127"/>
+      <c r="U1" s="127"/>
+      <c r="V1" s="127"/>
+      <c r="W1" s="127"/>
+      <c r="X1" s="127"/>
+      <c r="Y1" s="127"/>
+      <c r="Z1" s="127"/>
+      <c r="AA1" s="127"/>
+      <c r="AB1" s="127"/>
+      <c r="AC1" s="128"/>
+      <c r="AD1" s="141" t="s">
         <v>2</v>
       </c>
-      <c r="AE1" s="121"/>
-      <c r="AF1" s="121"/>
-      <c r="AG1" s="122"/>
-      <c r="AH1" s="123">
+      <c r="AE1" s="142"/>
+      <c r="AF1" s="142"/>
+      <c r="AG1" s="143"/>
+      <c r="AH1" s="144">
         <v>45078</v>
       </c>
-      <c r="AI1" s="124"/>
-      <c r="AJ1" s="124"/>
-      <c r="AK1" s="124"/>
-      <c r="AL1" s="124"/>
-      <c r="AM1" s="124"/>
-      <c r="AN1" s="125"/>
+      <c r="AI1" s="145"/>
+      <c r="AJ1" s="145"/>
+      <c r="AK1" s="145"/>
+      <c r="AL1" s="145"/>
+      <c r="AM1" s="145"/>
+      <c r="AN1" s="146"/>
       <c r="AO1" s="1"/>
       <c r="AP1" s="1"/>
       <c r="AQ1" s="1"/>
@@ -3711,50 +3711,50 @@
       <c r="BG1" s="1"/>
     </row>
     <row r="2" spans="1:64" ht="16" x14ac:dyDescent="0.3">
-      <c r="A2" s="148"/>
-      <c r="B2" s="149"/>
-      <c r="C2" s="149"/>
-      <c r="D2" s="149"/>
-      <c r="E2" s="149"/>
-      <c r="F2" s="149"/>
-      <c r="G2" s="149"/>
-      <c r="H2" s="153"/>
-      <c r="I2" s="154"/>
-      <c r="J2" s="154"/>
-      <c r="K2" s="154"/>
-      <c r="L2" s="154"/>
-      <c r="M2" s="154"/>
-      <c r="N2" s="154"/>
-      <c r="O2" s="154"/>
-      <c r="P2" s="154"/>
-      <c r="Q2" s="154"/>
-      <c r="R2" s="154"/>
-      <c r="S2" s="154"/>
-      <c r="T2" s="154"/>
-      <c r="U2" s="154"/>
-      <c r="V2" s="154"/>
-      <c r="W2" s="154"/>
-      <c r="X2" s="154"/>
-      <c r="Y2" s="154"/>
-      <c r="Z2" s="154"/>
-      <c r="AA2" s="154"/>
-      <c r="AB2" s="154"/>
-      <c r="AC2" s="155"/>
-      <c r="AD2" s="120" t="s">
+      <c r="A2" s="124"/>
+      <c r="B2" s="125"/>
+      <c r="C2" s="125"/>
+      <c r="D2" s="125"/>
+      <c r="E2" s="125"/>
+      <c r="F2" s="125"/>
+      <c r="G2" s="125"/>
+      <c r="H2" s="129"/>
+      <c r="I2" s="130"/>
+      <c r="J2" s="130"/>
+      <c r="K2" s="130"/>
+      <c r="L2" s="130"/>
+      <c r="M2" s="130"/>
+      <c r="N2" s="130"/>
+      <c r="O2" s="130"/>
+      <c r="P2" s="130"/>
+      <c r="Q2" s="130"/>
+      <c r="R2" s="130"/>
+      <c r="S2" s="130"/>
+      <c r="T2" s="130"/>
+      <c r="U2" s="130"/>
+      <c r="V2" s="130"/>
+      <c r="W2" s="130"/>
+      <c r="X2" s="130"/>
+      <c r="Y2" s="130"/>
+      <c r="Z2" s="130"/>
+      <c r="AA2" s="130"/>
+      <c r="AB2" s="130"/>
+      <c r="AC2" s="131"/>
+      <c r="AD2" s="141" t="s">
         <v>3</v>
       </c>
-      <c r="AE2" s="121"/>
-      <c r="AF2" s="121"/>
-      <c r="AG2" s="122"/>
-      <c r="AH2" s="123">
+      <c r="AE2" s="142"/>
+      <c r="AF2" s="142"/>
+      <c r="AG2" s="143"/>
+      <c r="AH2" s="144">
         <v>45107</v>
       </c>
-      <c r="AI2" s="124"/>
-      <c r="AJ2" s="124"/>
-      <c r="AK2" s="124"/>
-      <c r="AL2" s="124"/>
-      <c r="AM2" s="124"/>
-      <c r="AN2" s="125"/>
+      <c r="AI2" s="145"/>
+      <c r="AJ2" s="145"/>
+      <c r="AK2" s="145"/>
+      <c r="AL2" s="145"/>
+      <c r="AM2" s="145"/>
+      <c r="AN2" s="146"/>
       <c r="AO2" s="1"/>
       <c r="AP2" s="1"/>
       <c r="AQ2" s="1"/>
@@ -3837,43 +3837,43 @@
       <c r="BG3" s="1"/>
     </row>
     <row r="4" spans="1:64" ht="16" x14ac:dyDescent="0.3">
-      <c r="A4" s="126" t="s">
+      <c r="A4" s="147" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="127"/>
-      <c r="C4" s="130" t="s">
+      <c r="B4" s="148"/>
+      <c r="C4" s="151" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="130"/>
-      <c r="E4" s="130"/>
-      <c r="F4" s="130"/>
-      <c r="G4" s="130"/>
-      <c r="H4" s="130"/>
-      <c r="I4" s="130"/>
-      <c r="J4" s="130"/>
-      <c r="K4" s="130"/>
-      <c r="L4" s="130"/>
-      <c r="M4" s="130"/>
-      <c r="N4" s="130"/>
-      <c r="O4" s="130"/>
-      <c r="P4" s="127" t="s">
+      <c r="D4" s="151"/>
+      <c r="E4" s="151"/>
+      <c r="F4" s="151"/>
+      <c r="G4" s="151"/>
+      <c r="H4" s="151"/>
+      <c r="I4" s="151"/>
+      <c r="J4" s="151"/>
+      <c r="K4" s="151"/>
+      <c r="L4" s="151"/>
+      <c r="M4" s="151"/>
+      <c r="N4" s="151"/>
+      <c r="O4" s="151"/>
+      <c r="P4" s="148" t="s">
         <v>6</v>
       </c>
-      <c r="Q4" s="127"/>
-      <c r="R4" s="127"/>
-      <c r="S4" s="127" t="s">
+      <c r="Q4" s="148"/>
+      <c r="R4" s="148"/>
+      <c r="S4" s="148" t="s">
         <v>7</v>
       </c>
-      <c r="T4" s="127"/>
-      <c r="U4" s="127"/>
-      <c r="V4" s="127"/>
-      <c r="W4" s="127"/>
-      <c r="X4" s="135"/>
-      <c r="Y4" s="131" t="s">
+      <c r="T4" s="148"/>
+      <c r="U4" s="148"/>
+      <c r="V4" s="148"/>
+      <c r="W4" s="148"/>
+      <c r="X4" s="156"/>
+      <c r="Y4" s="152" t="s">
         <v>8</v>
       </c>
-      <c r="Z4" s="131"/>
-      <c r="AA4" s="132"/>
+      <c r="Z4" s="152"/>
+      <c r="AA4" s="153"/>
       <c r="AB4" s="49"/>
       <c r="AC4" s="49"/>
       <c r="AD4" s="5">
@@ -3998,43 +3998,43 @@
       </c>
     </row>
     <row r="5" spans="1:64" ht="16" x14ac:dyDescent="0.3">
-      <c r="A5" s="128"/>
-      <c r="B5" s="129"/>
-      <c r="C5" s="129" t="s">
+      <c r="A5" s="149"/>
+      <c r="B5" s="150"/>
+      <c r="C5" s="150" t="s">
         <v>9</v>
       </c>
-      <c r="D5" s="129"/>
-      <c r="E5" s="129"/>
-      <c r="F5" s="129"/>
-      <c r="G5" s="129"/>
-      <c r="H5" s="142" t="s">
+      <c r="D5" s="150"/>
+      <c r="E5" s="150"/>
+      <c r="F5" s="150"/>
+      <c r="G5" s="150"/>
+      <c r="H5" s="118" t="s">
         <v>116</v>
       </c>
-      <c r="I5" s="143"/>
-      <c r="J5" s="142" t="s">
+      <c r="I5" s="119"/>
+      <c r="J5" s="118" t="s">
         <v>89</v>
       </c>
-      <c r="K5" s="143"/>
+      <c r="K5" s="119"/>
       <c r="L5" s="53"/>
       <c r="M5" s="53"/>
       <c r="N5" s="53"/>
       <c r="O5" s="53"/>
-      <c r="P5" s="129"/>
-      <c r="Q5" s="129"/>
-      <c r="R5" s="129"/>
-      <c r="S5" s="129" t="s">
+      <c r="P5" s="150"/>
+      <c r="Q5" s="150"/>
+      <c r="R5" s="150"/>
+      <c r="S5" s="150" t="s">
         <v>2</v>
       </c>
-      <c r="T5" s="129"/>
-      <c r="U5" s="129"/>
-      <c r="V5" s="129" t="s">
+      <c r="T5" s="150"/>
+      <c r="U5" s="150"/>
+      <c r="V5" s="150" t="s">
         <v>3</v>
       </c>
-      <c r="W5" s="129"/>
-      <c r="X5" s="120"/>
-      <c r="Y5" s="133"/>
-      <c r="Z5" s="133"/>
-      <c r="AA5" s="134"/>
+      <c r="W5" s="150"/>
+      <c r="X5" s="141"/>
+      <c r="Y5" s="154"/>
+      <c r="Z5" s="154"/>
+      <c r="AA5" s="155"/>
       <c r="AB5" s="45" t="s">
         <v>87</v>
       </c>
@@ -4163,33 +4163,33 @@
       </c>
     </row>
     <row r="6" spans="1:64" ht="16" x14ac:dyDescent="0.3">
-      <c r="A6" s="128"/>
-      <c r="B6" s="129"/>
-      <c r="C6" s="129"/>
-      <c r="D6" s="129"/>
-      <c r="E6" s="129"/>
-      <c r="F6" s="129"/>
-      <c r="G6" s="129"/>
-      <c r="H6" s="144"/>
-      <c r="I6" s="145"/>
-      <c r="J6" s="144"/>
-      <c r="K6" s="145"/>
+      <c r="A6" s="149"/>
+      <c r="B6" s="150"/>
+      <c r="C6" s="150"/>
+      <c r="D6" s="150"/>
+      <c r="E6" s="150"/>
+      <c r="F6" s="150"/>
+      <c r="G6" s="150"/>
+      <c r="H6" s="120"/>
+      <c r="I6" s="121"/>
+      <c r="J6" s="120"/>
+      <c r="K6" s="121"/>
       <c r="L6" s="53"/>
       <c r="M6" s="53"/>
       <c r="N6" s="53"/>
       <c r="O6" s="53"/>
-      <c r="P6" s="129"/>
-      <c r="Q6" s="129"/>
-      <c r="R6" s="129"/>
-      <c r="S6" s="129"/>
-      <c r="T6" s="129"/>
-      <c r="U6" s="129"/>
-      <c r="V6" s="129"/>
-      <c r="W6" s="129"/>
-      <c r="X6" s="120"/>
-      <c r="Y6" s="133"/>
-      <c r="Z6" s="133"/>
-      <c r="AA6" s="134"/>
+      <c r="P6" s="150"/>
+      <c r="Q6" s="150"/>
+      <c r="R6" s="150"/>
+      <c r="S6" s="150"/>
+      <c r="T6" s="150"/>
+      <c r="U6" s="150"/>
+      <c r="V6" s="150"/>
+      <c r="W6" s="150"/>
+      <c r="X6" s="141"/>
+      <c r="Y6" s="154"/>
+      <c r="Z6" s="154"/>
+      <c r="AA6" s="155"/>
       <c r="AB6" s="45"/>
       <c r="AC6" s="45"/>
       <c r="AD6" s="11" t="str">
@@ -5197,15 +5197,15 @@
       <c r="W18" s="21"/>
       <c r="X18" s="21"/>
       <c r="Y18" s="40">
-        <v>0.6</v>
+        <v>0.8</v>
       </c>
       <c r="Z18" s="32"/>
       <c r="AA18" s="51"/>
       <c r="AB18" s="45">
         <v>2</v>
       </c>
-      <c r="AC18" s="40">
-        <v>0.6</v>
+      <c r="AC18" s="25">
+        <v>0.8</v>
       </c>
       <c r="AD18" s="44"/>
       <c r="AE18" s="2"/>
@@ -5482,11 +5482,11 @@
       <c r="E22" s="19"/>
       <c r="F22" s="19"/>
       <c r="G22" s="19"/>
-      <c r="H22" s="162" t="s">
+      <c r="H22" s="19" t="s">
         <v>101</v>
       </c>
-      <c r="I22" s="162"/>
-      <c r="J22" s="162" t="s">
+      <c r="I22" s="19"/>
+      <c r="J22" s="19" t="s">
         <v>33</v>
       </c>
       <c r="K22" s="23"/>
@@ -5714,11 +5714,11 @@
       <c r="E25" s="19"/>
       <c r="F25" s="19"/>
       <c r="G25" s="19"/>
-      <c r="H25" s="162" t="s">
+      <c r="H25" s="19" t="s">
         <v>104</v>
       </c>
-      <c r="I25" s="162"/>
-      <c r="J25" s="162" t="s">
+      <c r="I25" s="19"/>
+      <c r="J25" s="19" t="s">
         <v>36</v>
       </c>
       <c r="K25" s="23"/>
@@ -5869,11 +5869,11 @@
       <c r="E27" s="19"/>
       <c r="F27" s="19"/>
       <c r="G27" s="19"/>
-      <c r="H27" s="163" t="s">
+      <c r="H27" s="111" t="s">
         <v>106</v>
       </c>
-      <c r="I27" s="163"/>
-      <c r="J27" s="163" t="s">
+      <c r="I27" s="111"/>
+      <c r="J27" s="111" t="s">
         <v>38</v>
       </c>
       <c r="K27" s="19"/>
@@ -5947,11 +5947,11 @@
       <c r="E28" s="19"/>
       <c r="F28" s="19"/>
       <c r="G28" s="19"/>
-      <c r="H28" s="163" t="s">
+      <c r="H28" s="111" t="s">
         <v>100</v>
       </c>
-      <c r="I28" s="163"/>
-      <c r="J28" s="163" t="s">
+      <c r="I28" s="111"/>
+      <c r="J28" s="111" t="s">
         <v>39</v>
       </c>
       <c r="K28" s="19"/>
@@ -5983,7 +5983,7 @@
         <v>1</v>
       </c>
       <c r="AC28" s="59">
-        <f t="shared" ref="AC27:AC40" si="5">VLOOKUP(Y28,$BI$7:$BL$8,4,FALSE)</f>
+        <f t="shared" ref="AC28:AC40" si="5">VLOOKUP(Y28,$BI$7:$BL$8,4,FALSE)</f>
         <v>1</v>
       </c>
       <c r="AD28" s="44"/>
@@ -6025,11 +6025,11 @@
       <c r="E29" s="19"/>
       <c r="F29" s="19"/>
       <c r="G29" s="19"/>
-      <c r="H29" s="163" t="s">
+      <c r="H29" s="111" t="s">
         <v>101</v>
       </c>
-      <c r="I29" s="163"/>
-      <c r="J29" s="163" t="s">
+      <c r="I29" s="111"/>
+      <c r="J29" s="111" t="s">
         <v>40</v>
       </c>
       <c r="K29" s="19"/>
@@ -6103,11 +6103,11 @@
       <c r="E30" s="19"/>
       <c r="F30" s="19"/>
       <c r="G30" s="19"/>
-      <c r="H30" s="163" t="s">
+      <c r="H30" s="111" t="s">
         <v>102</v>
       </c>
-      <c r="I30" s="163"/>
-      <c r="J30" s="163" t="s">
+      <c r="I30" s="111"/>
+      <c r="J30" s="111" t="s">
         <v>41</v>
       </c>
       <c r="K30" s="19"/>
@@ -6181,11 +6181,11 @@
       <c r="E31" s="19"/>
       <c r="F31" s="19"/>
       <c r="G31" s="19"/>
-      <c r="H31" s="163" t="s">
+      <c r="H31" s="111" t="s">
         <v>97</v>
       </c>
-      <c r="I31" s="163"/>
-      <c r="J31" s="163" t="s">
+      <c r="I31" s="111"/>
+      <c r="J31" s="111" t="s">
         <v>42</v>
       </c>
       <c r="K31" s="19"/>
@@ -6259,11 +6259,11 @@
       <c r="E32" s="19"/>
       <c r="F32" s="19"/>
       <c r="G32" s="19"/>
-      <c r="H32" s="163" t="s">
+      <c r="H32" s="111" t="s">
         <v>107</v>
       </c>
-      <c r="I32" s="163"/>
-      <c r="J32" s="163" t="s">
+      <c r="I32" s="111"/>
+      <c r="J32" s="111" t="s">
         <v>43</v>
       </c>
       <c r="K32" s="19"/>
@@ -6337,11 +6337,11 @@
       <c r="E33" s="19"/>
       <c r="F33" s="19"/>
       <c r="G33" s="19"/>
-      <c r="H33" s="163" t="s">
+      <c r="H33" s="111" t="s">
         <v>108</v>
       </c>
-      <c r="I33" s="163"/>
-      <c r="J33" s="163" t="s">
+      <c r="I33" s="111"/>
+      <c r="J33" s="111" t="s">
         <v>154</v>
       </c>
       <c r="K33" s="19"/>
@@ -6415,11 +6415,11 @@
       <c r="E34" s="19"/>
       <c r="F34" s="19"/>
       <c r="G34" s="19"/>
-      <c r="H34" s="163" t="s">
+      <c r="H34" s="111" t="s">
         <v>109</v>
       </c>
-      <c r="I34" s="163"/>
-      <c r="J34" s="163" t="s">
+      <c r="I34" s="111"/>
+      <c r="J34" s="111" t="s">
         <v>155</v>
       </c>
       <c r="K34" s="19"/>
@@ -6493,11 +6493,11 @@
       <c r="E35" s="19"/>
       <c r="F35" s="19"/>
       <c r="G35" s="19"/>
-      <c r="H35" s="163" t="s">
+      <c r="H35" s="111" t="s">
         <v>124</v>
       </c>
-      <c r="I35" s="163"/>
-      <c r="J35" s="163" t="s">
+      <c r="I35" s="111"/>
+      <c r="J35" s="111" t="s">
         <v>46</v>
       </c>
       <c r="K35" s="19"/>
@@ -6571,11 +6571,11 @@
       <c r="E36" s="19"/>
       <c r="F36" s="19"/>
       <c r="G36" s="19"/>
-      <c r="H36" s="163" t="s">
+      <c r="H36" s="111" t="s">
         <v>110</v>
       </c>
-      <c r="I36" s="163"/>
-      <c r="J36" s="163" t="s">
+      <c r="I36" s="111"/>
+      <c r="J36" s="111" t="s">
         <v>47</v>
       </c>
       <c r="K36" s="19"/>
@@ -6988,8 +6988,8 @@
       </c>
       <c r="W41" s="21"/>
       <c r="X41" s="21"/>
-      <c r="Y41" s="25">
-        <v>0.8</v>
+      <c r="Y41" s="25" t="s">
+        <v>76</v>
       </c>
       <c r="Z41" s="4"/>
       <c r="AA41" s="43"/>
@@ -6997,7 +6997,7 @@
         <v>3</v>
       </c>
       <c r="AC41" s="59">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="AD41" s="44"/>
       <c r="AE41" s="2"/>
@@ -7379,8 +7379,8 @@
       </c>
       <c r="W46" s="21"/>
       <c r="X46" s="21"/>
-      <c r="Y46" s="25">
-        <v>0.8</v>
+      <c r="Y46" s="25" t="s">
+        <v>76</v>
       </c>
       <c r="Z46" s="4"/>
       <c r="AA46" s="43"/>
@@ -7388,7 +7388,7 @@
         <v>6</v>
       </c>
       <c r="AC46" s="59">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="AD46" s="44"/>
       <c r="AE46" s="2"/>
@@ -7458,8 +7458,8 @@
       </c>
       <c r="W47" s="21"/>
       <c r="X47" s="21"/>
-      <c r="Y47" s="25">
-        <v>0.8</v>
+      <c r="Y47" s="25" t="s">
+        <v>76</v>
       </c>
       <c r="Z47" s="4"/>
       <c r="AA47" s="43"/>
@@ -7467,7 +7467,7 @@
         <v>6</v>
       </c>
       <c r="AC47" s="59">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="AD47" s="44"/>
       <c r="AE47" s="2"/>
@@ -7676,8 +7676,8 @@
       <c r="M50" s="19"/>
       <c r="N50" s="19"/>
       <c r="O50" s="19"/>
-      <c r="P50" s="20" t="s">
-        <v>19</v>
+      <c r="P50" s="24" t="s">
+        <v>29</v>
       </c>
       <c r="Q50" s="20"/>
       <c r="R50" s="20"/>
@@ -7691,17 +7691,16 @@
       </c>
       <c r="W50" s="21"/>
       <c r="X50" s="21"/>
-      <c r="Y50" s="55" t="s">
-        <v>118</v>
+      <c r="Y50" s="40">
+        <v>0.8</v>
       </c>
       <c r="Z50" s="4"/>
       <c r="AA50" s="43"/>
       <c r="AB50" s="45">
         <v>7</v>
       </c>
-      <c r="AC50" s="59">
-        <f>VLOOKUP(Y50,$BI$7:$BL$8,4,FALSE)</f>
-        <v>0</v>
+      <c r="AC50" s="40">
+        <v>0.8</v>
       </c>
       <c r="AD50" s="44"/>
       <c r="AE50" s="2"/>
@@ -7754,8 +7753,8 @@
       <c r="M51" s="19"/>
       <c r="N51" s="19"/>
       <c r="O51" s="19"/>
-      <c r="P51" s="20" t="s">
-        <v>19</v>
+      <c r="P51" s="24" t="s">
+        <v>29</v>
       </c>
       <c r="Q51" s="20"/>
       <c r="R51" s="20"/>
@@ -7770,7 +7769,7 @@
       <c r="W51" s="21"/>
       <c r="X51" s="21"/>
       <c r="Y51" s="25">
-        <v>0.3</v>
+        <v>0.8</v>
       </c>
       <c r="Z51" s="4"/>
       <c r="AA51" s="43"/>
@@ -7778,7 +7777,7 @@
         <v>7</v>
       </c>
       <c r="AC51" s="25">
-        <v>0.3</v>
+        <v>0.8</v>
       </c>
       <c r="AD51" s="44"/>
       <c r="AE51" s="2"/>
@@ -7908,8 +7907,8 @@
       <c r="M53" s="28"/>
       <c r="N53" s="28"/>
       <c r="O53" s="29"/>
-      <c r="P53" s="26" t="s">
-        <v>30</v>
+      <c r="P53" s="20" t="s">
+        <v>19</v>
       </c>
       <c r="Q53" s="26"/>
       <c r="R53" s="26"/>
@@ -8002,7 +8001,7 @@
       <c r="W54" s="21"/>
       <c r="X54" s="21"/>
       <c r="Y54" s="25">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="Z54" s="4"/>
       <c r="AA54" s="43"/>
@@ -8010,7 +8009,7 @@
         <v>10</v>
       </c>
       <c r="AC54" s="25">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="AD54" s="44"/>
       <c r="AE54" s="2"/>
@@ -8238,8 +8237,8 @@
       </c>
       <c r="Z57" s="4"/>
       <c r="AA57" s="43"/>
-      <c r="AB57" s="108">
-        <v>0.1</v>
+      <c r="AB57" s="163">
+        <v>7</v>
       </c>
       <c r="AC57" s="25">
         <v>0.9</v>
@@ -8313,7 +8312,7 @@
       <c r="W58" s="21"/>
       <c r="X58" s="21"/>
       <c r="Y58" s="55" t="s">
-        <v>118</v>
+        <v>76</v>
       </c>
       <c r="Z58" s="4"/>
       <c r="AA58" s="43"/>
@@ -8322,7 +8321,7 @@
       </c>
       <c r="AC58" s="59">
         <f>VLOOKUP(Y58,$BI$7:$BL$8,4,FALSE)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD58" s="44"/>
       <c r="AE58" s="2"/>
@@ -8391,7 +8390,7 @@
       <c r="W59" s="21"/>
       <c r="X59" s="21"/>
       <c r="Y59" s="40">
-        <v>0.5</v>
+        <v>0.9</v>
       </c>
       <c r="Z59" s="4"/>
       <c r="AA59" s="43"/>
@@ -8777,17 +8776,16 @@
       </c>
       <c r="W64" s="21"/>
       <c r="X64" s="21"/>
-      <c r="Y64" s="55" t="s">
-        <v>118</v>
+      <c r="Y64" s="40">
+        <v>0.7</v>
       </c>
       <c r="Z64" s="4"/>
       <c r="AA64" s="43"/>
       <c r="AB64" s="45">
         <v>7</v>
       </c>
-      <c r="AC64" s="59">
-        <f t="shared" ref="AC64:AC68" si="6">VLOOKUP(Y64,$BI$7:$BL$8,4,FALSE)</f>
-        <v>0</v>
+      <c r="AC64" s="40">
+        <v>0.7</v>
       </c>
       <c r="AD64" s="44"/>
       <c r="AE64" s="2"/>
@@ -8821,13 +8819,13 @@
       <c r="BG64" s="9"/>
     </row>
     <row r="65" spans="1:59" ht="16" x14ac:dyDescent="0.3">
-      <c r="A65" s="113"/>
-      <c r="B65" s="111"/>
-      <c r="C65" s="114"/>
-      <c r="D65" s="114"/>
-      <c r="E65" s="114"/>
-      <c r="F65" s="114"/>
-      <c r="G65" s="115"/>
+      <c r="A65" s="135"/>
+      <c r="B65" s="133"/>
+      <c r="C65" s="157"/>
+      <c r="D65" s="157"/>
+      <c r="E65" s="157"/>
+      <c r="F65" s="157"/>
+      <c r="G65" s="158"/>
       <c r="H65" s="70" t="s">
         <v>130</v>
       </c>
@@ -8840,31 +8838,31 @@
       <c r="M65" s="2"/>
       <c r="N65" s="2"/>
       <c r="O65" s="2"/>
-      <c r="P65" s="116" t="s">
+      <c r="P65" s="160" t="s">
         <v>11</v>
       </c>
-      <c r="Q65" s="116"/>
-      <c r="R65" s="116"/>
-      <c r="S65" s="117">
+      <c r="Q65" s="160"/>
+      <c r="R65" s="160"/>
+      <c r="S65" s="139">
         <v>45092</v>
       </c>
-      <c r="T65" s="117"/>
-      <c r="U65" s="117"/>
-      <c r="V65" s="117">
+      <c r="T65" s="139"/>
+      <c r="U65" s="139"/>
+      <c r="V65" s="139">
         <v>45100</v>
       </c>
-      <c r="W65" s="117"/>
-      <c r="X65" s="117"/>
-      <c r="Y65" s="111" t="s">
+      <c r="W65" s="139"/>
+      <c r="X65" s="139"/>
+      <c r="Y65" s="133" t="s">
         <v>118</v>
       </c>
-      <c r="Z65" s="111"/>
-      <c r="AA65" s="112"/>
+      <c r="Z65" s="133"/>
+      <c r="AA65" s="134"/>
       <c r="AB65" s="45">
         <v>7</v>
       </c>
       <c r="AC65" s="59">
-        <f t="shared" si="6"/>
+        <f t="shared" ref="AC64:AC68" si="6">VLOOKUP(Y65,$BI$7:$BL$8,4,FALSE)</f>
         <v>0</v>
       </c>
       <c r="AD65" s="44"/>
@@ -8899,13 +8897,13 @@
       <c r="BG65" s="9"/>
     </row>
     <row r="66" spans="1:59" ht="16" x14ac:dyDescent="0.3">
-      <c r="A66" s="113"/>
-      <c r="B66" s="111"/>
-      <c r="C66" s="114"/>
-      <c r="D66" s="114"/>
-      <c r="E66" s="114"/>
-      <c r="F66" s="114"/>
-      <c r="G66" s="115"/>
+      <c r="A66" s="135"/>
+      <c r="B66" s="133"/>
+      <c r="C66" s="157"/>
+      <c r="D66" s="157"/>
+      <c r="E66" s="157"/>
+      <c r="F66" s="157"/>
+      <c r="G66" s="158"/>
       <c r="H66" s="70" t="s">
         <v>129</v>
       </c>
@@ -8918,21 +8916,21 @@
       <c r="M66" s="2"/>
       <c r="N66" s="2"/>
       <c r="O66" s="2"/>
-      <c r="P66" s="116" t="s">
+      <c r="P66" s="160" t="s">
         <v>11</v>
       </c>
-      <c r="Q66" s="116"/>
-      <c r="R66" s="116"/>
-      <c r="S66" s="117">
+      <c r="Q66" s="160"/>
+      <c r="R66" s="160"/>
+      <c r="S66" s="139">
         <v>45092</v>
       </c>
-      <c r="T66" s="117"/>
-      <c r="U66" s="117"/>
-      <c r="V66" s="117">
+      <c r="T66" s="139"/>
+      <c r="U66" s="139"/>
+      <c r="V66" s="139">
         <v>45100</v>
       </c>
-      <c r="W66" s="117"/>
-      <c r="X66" s="117"/>
+      <c r="W66" s="139"/>
+      <c r="X66" s="139"/>
       <c r="Y66" s="55" t="s">
         <v>118</v>
       </c>
@@ -8981,13 +8979,13 @@
       <c r="BG66" s="9"/>
     </row>
     <row r="67" spans="1:59" ht="16" x14ac:dyDescent="0.3">
-      <c r="A67" s="113"/>
-      <c r="B67" s="111"/>
-      <c r="C67" s="114"/>
-      <c r="D67" s="114"/>
-      <c r="E67" s="114"/>
-      <c r="F67" s="114"/>
-      <c r="G67" s="115"/>
+      <c r="A67" s="135"/>
+      <c r="B67" s="133"/>
+      <c r="C67" s="157"/>
+      <c r="D67" s="157"/>
+      <c r="E67" s="157"/>
+      <c r="F67" s="157"/>
+      <c r="G67" s="158"/>
       <c r="H67" s="70" t="s">
         <v>126</v>
       </c>
@@ -9000,21 +8998,21 @@
       <c r="M67" s="2"/>
       <c r="N67" s="2"/>
       <c r="O67" s="2"/>
-      <c r="P67" s="119" t="s">
+      <c r="P67" s="159" t="s">
         <v>19</v>
       </c>
-      <c r="Q67" s="119"/>
-      <c r="R67" s="119"/>
-      <c r="S67" s="117">
+      <c r="Q67" s="159"/>
+      <c r="R67" s="159"/>
+      <c r="S67" s="139">
         <v>45096</v>
       </c>
-      <c r="T67" s="117"/>
-      <c r="U67" s="117"/>
-      <c r="V67" s="117">
+      <c r="T67" s="139"/>
+      <c r="U67" s="139"/>
+      <c r="V67" s="139">
         <v>45100</v>
       </c>
-      <c r="W67" s="117"/>
-      <c r="X67" s="117"/>
+      <c r="W67" s="139"/>
+      <c r="X67" s="139"/>
       <c r="Y67" s="55" t="s">
         <v>118</v>
       </c>
@@ -9063,15 +9061,15 @@
       <c r="BG67" s="9"/>
     </row>
     <row r="68" spans="1:59" ht="16" x14ac:dyDescent="0.3">
-      <c r="A68" s="113"/>
-      <c r="B68" s="111"/>
-      <c r="C68" s="156" t="s">
+      <c r="A68" s="135"/>
+      <c r="B68" s="133"/>
+      <c r="C68" s="136" t="s">
         <v>83</v>
       </c>
-      <c r="D68" s="156"/>
-      <c r="E68" s="156"/>
-      <c r="F68" s="156"/>
-      <c r="G68" s="157"/>
+      <c r="D68" s="136"/>
+      <c r="E68" s="136"/>
+      <c r="F68" s="136"/>
+      <c r="G68" s="137"/>
       <c r="H68" s="70" t="s">
         <v>115</v>
       </c>
@@ -9084,26 +9082,26 @@
       <c r="M68" s="72"/>
       <c r="N68" s="72"/>
       <c r="O68" s="72"/>
-      <c r="P68" s="159" t="s">
+      <c r="P68" s="140" t="s">
         <v>30</v>
       </c>
-      <c r="Q68" s="159"/>
-      <c r="R68" s="159"/>
-      <c r="S68" s="117">
+      <c r="Q68" s="140"/>
+      <c r="R68" s="140"/>
+      <c r="S68" s="139">
         <v>45091</v>
       </c>
-      <c r="T68" s="117"/>
-      <c r="U68" s="117"/>
-      <c r="V68" s="117">
+      <c r="T68" s="139"/>
+      <c r="U68" s="139"/>
+      <c r="V68" s="139">
         <v>45100</v>
       </c>
-      <c r="W68" s="117"/>
-      <c r="X68" s="117"/>
-      <c r="Y68" s="118" t="s">
+      <c r="W68" s="139"/>
+      <c r="X68" s="139"/>
+      <c r="Y68" s="132" t="s">
         <v>118</v>
       </c>
-      <c r="Z68" s="111"/>
-      <c r="AA68" s="112"/>
+      <c r="Z68" s="133"/>
+      <c r="AA68" s="134"/>
       <c r="AB68" s="45">
         <v>8</v>
       </c>
@@ -9143,15 +9141,15 @@
       <c r="BG68" s="9"/>
     </row>
     <row r="69" spans="1:59" ht="16" x14ac:dyDescent="0.3">
-      <c r="A69" s="113"/>
-      <c r="B69" s="111"/>
-      <c r="C69" s="156" t="s">
+      <c r="A69" s="135"/>
+      <c r="B69" s="133"/>
+      <c r="C69" s="136" t="s">
         <v>83</v>
       </c>
-      <c r="D69" s="156"/>
-      <c r="E69" s="156"/>
-      <c r="F69" s="156"/>
-      <c r="G69" s="157"/>
+      <c r="D69" s="136"/>
+      <c r="E69" s="136"/>
+      <c r="F69" s="136"/>
+      <c r="G69" s="137"/>
       <c r="H69" s="78" t="s">
         <v>131</v>
       </c>
@@ -9164,26 +9162,26 @@
       <c r="M69" s="72"/>
       <c r="N69" s="72"/>
       <c r="O69" s="72"/>
-      <c r="P69" s="158" t="s">
+      <c r="P69" s="138" t="s">
         <v>29</v>
       </c>
-      <c r="Q69" s="158"/>
-      <c r="R69" s="158"/>
-      <c r="S69" s="117">
+      <c r="Q69" s="138"/>
+      <c r="R69" s="138"/>
+      <c r="S69" s="139">
         <v>45091</v>
       </c>
-      <c r="T69" s="117"/>
-      <c r="U69" s="117"/>
-      <c r="V69" s="117">
+      <c r="T69" s="139"/>
+      <c r="U69" s="139"/>
+      <c r="V69" s="139">
         <v>45100</v>
       </c>
-      <c r="W69" s="117"/>
-      <c r="X69" s="117"/>
-      <c r="Y69" s="118">
+      <c r="W69" s="139"/>
+      <c r="X69" s="139"/>
+      <c r="Y69" s="132">
         <v>0.6</v>
       </c>
-      <c r="Z69" s="111"/>
-      <c r="AA69" s="112"/>
+      <c r="Z69" s="133"/>
+      <c r="AA69" s="134"/>
       <c r="AB69" s="45">
         <v>8</v>
       </c>
@@ -9224,13 +9222,13 @@
     <row r="70" spans="1:59" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A70" s="18"/>
       <c r="B70" s="4"/>
-      <c r="C70" s="136" t="s">
+      <c r="C70" s="112" t="s">
         <v>15</v>
       </c>
-      <c r="D70" s="136"/>
-      <c r="E70" s="136"/>
-      <c r="F70" s="136"/>
-      <c r="G70" s="137"/>
+      <c r="D70" s="112"/>
+      <c r="E70" s="112"/>
+      <c r="F70" s="112"/>
+      <c r="G70" s="113"/>
       <c r="H70" s="77" t="s">
         <v>20</v>
       </c>
@@ -9311,11 +9309,11 @@
     <row r="71" spans="1:59" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A71" s="18"/>
       <c r="B71" s="43"/>
-      <c r="C71" s="138"/>
-      <c r="D71" s="138"/>
-      <c r="E71" s="138"/>
-      <c r="F71" s="138"/>
-      <c r="G71" s="139"/>
+      <c r="C71" s="114"/>
+      <c r="D71" s="114"/>
+      <c r="E71" s="114"/>
+      <c r="F71" s="114"/>
+      <c r="G71" s="115"/>
       <c r="H71" s="77" t="s">
         <v>21</v>
       </c>
@@ -9396,11 +9394,11 @@
     <row r="72" spans="1:59" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A72" s="18"/>
       <c r="B72" s="43"/>
-      <c r="C72" s="138"/>
-      <c r="D72" s="138"/>
-      <c r="E72" s="138"/>
-      <c r="F72" s="138"/>
-      <c r="G72" s="139"/>
+      <c r="C72" s="114"/>
+      <c r="D72" s="114"/>
+      <c r="E72" s="114"/>
+      <c r="F72" s="114"/>
+      <c r="G72" s="115"/>
       <c r="H72" s="77" t="s">
         <v>22</v>
       </c>
@@ -9481,11 +9479,11 @@
     <row r="73" spans="1:59" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A73" s="18"/>
       <c r="B73" s="43"/>
-      <c r="C73" s="138"/>
-      <c r="D73" s="138"/>
-      <c r="E73" s="138"/>
-      <c r="F73" s="138"/>
-      <c r="G73" s="139"/>
+      <c r="C73" s="114"/>
+      <c r="D73" s="114"/>
+      <c r="E73" s="114"/>
+      <c r="F73" s="114"/>
+      <c r="G73" s="115"/>
       <c r="H73" s="77" t="s">
         <v>23</v>
       </c>
@@ -9566,11 +9564,11 @@
     <row r="74" spans="1:59" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A74" s="18"/>
       <c r="B74" s="43"/>
-      <c r="C74" s="138"/>
-      <c r="D74" s="138"/>
-      <c r="E74" s="138"/>
-      <c r="F74" s="138"/>
-      <c r="G74" s="139"/>
+      <c r="C74" s="114"/>
+      <c r="D74" s="114"/>
+      <c r="E74" s="114"/>
+      <c r="F74" s="114"/>
+      <c r="G74" s="115"/>
       <c r="H74" s="77" t="s">
         <v>24</v>
       </c>
@@ -9651,11 +9649,11 @@
     <row r="75" spans="1:59" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A75" s="18"/>
       <c r="B75" s="43"/>
-      <c r="C75" s="138"/>
-      <c r="D75" s="138"/>
-      <c r="E75" s="138"/>
-      <c r="F75" s="138"/>
-      <c r="G75" s="139"/>
+      <c r="C75" s="114"/>
+      <c r="D75" s="114"/>
+      <c r="E75" s="114"/>
+      <c r="F75" s="114"/>
+      <c r="G75" s="115"/>
       <c r="H75" s="77" t="s">
         <v>25</v>
       </c>
@@ -9736,11 +9734,11 @@
     <row r="76" spans="1:59" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A76" s="18"/>
       <c r="B76" s="43"/>
-      <c r="C76" s="138"/>
-      <c r="D76" s="138"/>
-      <c r="E76" s="138"/>
-      <c r="F76" s="138"/>
-      <c r="G76" s="139"/>
+      <c r="C76" s="114"/>
+      <c r="D76" s="114"/>
+      <c r="E76" s="114"/>
+      <c r="F76" s="114"/>
+      <c r="G76" s="115"/>
       <c r="H76" s="77" t="s">
         <v>26</v>
       </c>
@@ -9821,11 +9819,11 @@
     <row r="77" spans="1:59" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A77" s="18"/>
       <c r="B77" s="43"/>
-      <c r="C77" s="138"/>
-      <c r="D77" s="138"/>
-      <c r="E77" s="138"/>
-      <c r="F77" s="138"/>
-      <c r="G77" s="139"/>
+      <c r="C77" s="114"/>
+      <c r="D77" s="114"/>
+      <c r="E77" s="114"/>
+      <c r="F77" s="114"/>
+      <c r="G77" s="115"/>
       <c r="H77" s="77" t="s">
         <v>27</v>
       </c>
@@ -9906,11 +9904,11 @@
     <row r="78" spans="1:59" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A78" s="38"/>
       <c r="B78" s="52"/>
-      <c r="C78" s="138"/>
-      <c r="D78" s="138"/>
-      <c r="E78" s="138"/>
-      <c r="F78" s="138"/>
-      <c r="G78" s="139"/>
+      <c r="C78" s="114"/>
+      <c r="D78" s="114"/>
+      <c r="E78" s="114"/>
+      <c r="F78" s="114"/>
+      <c r="G78" s="115"/>
       <c r="H78" s="77" t="s">
         <v>28</v>
       </c>
@@ -9989,11 +9987,11 @@
       <c r="BG78" s="84"/>
     </row>
     <row r="79" spans="1:59" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C79" s="138"/>
-      <c r="D79" s="138"/>
-      <c r="E79" s="138"/>
-      <c r="F79" s="138"/>
-      <c r="G79" s="139"/>
+      <c r="C79" s="114"/>
+      <c r="D79" s="114"/>
+      <c r="E79" s="114"/>
+      <c r="F79" s="114"/>
+      <c r="G79" s="115"/>
       <c r="H79" s="77" t="s">
         <v>79</v>
       </c>
@@ -10068,11 +10066,11 @@
       <c r="BG79" s="58"/>
     </row>
     <row r="80" spans="1:59" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C80" s="138"/>
-      <c r="D80" s="138"/>
-      <c r="E80" s="138"/>
-      <c r="F80" s="138"/>
-      <c r="G80" s="139"/>
+      <c r="C80" s="114"/>
+      <c r="D80" s="114"/>
+      <c r="E80" s="114"/>
+      <c r="F80" s="114"/>
+      <c r="G80" s="115"/>
       <c r="H80" s="77" t="s">
         <v>80</v>
       </c>
@@ -10147,11 +10145,11 @@
       <c r="BG80" s="58"/>
     </row>
     <row r="81" spans="3:59" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C81" s="138"/>
-      <c r="D81" s="138"/>
-      <c r="E81" s="138"/>
-      <c r="F81" s="138"/>
-      <c r="G81" s="139"/>
+      <c r="C81" s="114"/>
+      <c r="D81" s="114"/>
+      <c r="E81" s="114"/>
+      <c r="F81" s="114"/>
+      <c r="G81" s="115"/>
       <c r="H81" s="77" t="s">
         <v>31</v>
       </c>
@@ -10205,11 +10203,11 @@
       <c r="BG81" s="58"/>
     </row>
     <row r="82" spans="3:59" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C82" s="138"/>
-      <c r="D82" s="138"/>
-      <c r="E82" s="138"/>
-      <c r="F82" s="138"/>
-      <c r="G82" s="139"/>
+      <c r="C82" s="114"/>
+      <c r="D82" s="114"/>
+      <c r="E82" s="114"/>
+      <c r="F82" s="114"/>
+      <c r="G82" s="115"/>
       <c r="H82" s="77" t="s">
         <v>32</v>
       </c>
@@ -10263,11 +10261,11 @@
       <c r="BG82" s="58"/>
     </row>
     <row r="83" spans="3:59" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C83" s="138"/>
-      <c r="D83" s="138"/>
-      <c r="E83" s="138"/>
-      <c r="F83" s="138"/>
-      <c r="G83" s="139"/>
+      <c r="C83" s="114"/>
+      <c r="D83" s="114"/>
+      <c r="E83" s="114"/>
+      <c r="F83" s="114"/>
+      <c r="G83" s="115"/>
       <c r="H83" s="76" t="s">
         <v>33</v>
       </c>
@@ -10321,11 +10319,11 @@
       <c r="BG83" s="58"/>
     </row>
     <row r="84" spans="3:59" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C84" s="138"/>
-      <c r="D84" s="138"/>
-      <c r="E84" s="138"/>
-      <c r="F84" s="138"/>
-      <c r="G84" s="139"/>
+      <c r="C84" s="114"/>
+      <c r="D84" s="114"/>
+      <c r="E84" s="114"/>
+      <c r="F84" s="114"/>
+      <c r="G84" s="115"/>
       <c r="H84" s="77" t="s">
         <v>34</v>
       </c>
@@ -10379,11 +10377,11 @@
       <c r="BG84" s="58"/>
     </row>
     <row r="85" spans="3:59" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C85" s="138"/>
-      <c r="D85" s="138"/>
-      <c r="E85" s="138"/>
-      <c r="F85" s="138"/>
-      <c r="G85" s="139"/>
+      <c r="C85" s="114"/>
+      <c r="D85" s="114"/>
+      <c r="E85" s="114"/>
+      <c r="F85" s="114"/>
+      <c r="G85" s="115"/>
       <c r="H85" s="77" t="s">
         <v>35</v>
       </c>
@@ -10437,11 +10435,11 @@
       <c r="BG85" s="58"/>
     </row>
     <row r="86" spans="3:59" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C86" s="138"/>
-      <c r="D86" s="138"/>
-      <c r="E86" s="138"/>
-      <c r="F86" s="138"/>
-      <c r="G86" s="139"/>
+      <c r="C86" s="114"/>
+      <c r="D86" s="114"/>
+      <c r="E86" s="114"/>
+      <c r="F86" s="114"/>
+      <c r="G86" s="115"/>
       <c r="H86" s="76" t="s">
         <v>36</v>
       </c>
@@ -10495,11 +10493,11 @@
       <c r="BG86" s="58"/>
     </row>
     <row r="87" spans="3:59" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C87" s="138"/>
-      <c r="D87" s="138"/>
-      <c r="E87" s="138"/>
-      <c r="F87" s="138"/>
-      <c r="G87" s="139"/>
+      <c r="C87" s="114"/>
+      <c r="D87" s="114"/>
+      <c r="E87" s="114"/>
+      <c r="F87" s="114"/>
+      <c r="G87" s="115"/>
       <c r="H87" s="77" t="s">
         <v>37</v>
       </c>
@@ -10553,13 +10551,13 @@
       <c r="BG87" s="58"/>
     </row>
     <row r="88" spans="3:59" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C88" s="140" t="s">
+      <c r="C88" s="116" t="s">
         <v>16</v>
       </c>
-      <c r="D88" s="140"/>
-      <c r="E88" s="140"/>
-      <c r="F88" s="140"/>
-      <c r="G88" s="140"/>
+      <c r="D88" s="116"/>
+      <c r="E88" s="116"/>
+      <c r="F88" s="116"/>
+      <c r="G88" s="116"/>
       <c r="H88" s="62" t="s">
         <v>49</v>
       </c>
@@ -10613,11 +10611,11 @@
       <c r="BG88" s="58"/>
     </row>
     <row r="89" spans="3:59" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C89" s="138"/>
-      <c r="D89" s="138"/>
-      <c r="E89" s="138"/>
-      <c r="F89" s="138"/>
-      <c r="G89" s="138"/>
+      <c r="C89" s="114"/>
+      <c r="D89" s="114"/>
+      <c r="E89" s="114"/>
+      <c r="F89" s="114"/>
+      <c r="G89" s="114"/>
       <c r="H89" s="62" t="s">
         <v>50</v>
       </c>
@@ -10671,11 +10669,11 @@
       <c r="BG89" s="58"/>
     </row>
     <row r="90" spans="3:59" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C90" s="138"/>
-      <c r="D90" s="138"/>
-      <c r="E90" s="138"/>
-      <c r="F90" s="138"/>
-      <c r="G90" s="138"/>
+      <c r="C90" s="114"/>
+      <c r="D90" s="114"/>
+      <c r="E90" s="114"/>
+      <c r="F90" s="114"/>
+      <c r="G90" s="114"/>
       <c r="H90" s="62" t="s">
         <v>51</v>
       </c>
@@ -10729,11 +10727,11 @@
       <c r="BG90" s="58"/>
     </row>
     <row r="91" spans="3:59" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C91" s="138"/>
-      <c r="D91" s="138"/>
-      <c r="E91" s="138"/>
-      <c r="F91" s="138"/>
-      <c r="G91" s="138"/>
+      <c r="C91" s="114"/>
+      <c r="D91" s="114"/>
+      <c r="E91" s="114"/>
+      <c r="F91" s="114"/>
+      <c r="G91" s="114"/>
       <c r="H91" s="62" t="s">
         <v>52</v>
       </c>
@@ -10787,11 +10785,11 @@
       <c r="BG91" s="58"/>
     </row>
     <row r="92" spans="3:59" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C92" s="138"/>
-      <c r="D92" s="138"/>
-      <c r="E92" s="138"/>
-      <c r="F92" s="138"/>
-      <c r="G92" s="138"/>
+      <c r="C92" s="114"/>
+      <c r="D92" s="114"/>
+      <c r="E92" s="114"/>
+      <c r="F92" s="114"/>
+      <c r="G92" s="114"/>
       <c r="H92" s="105" t="s">
         <v>53</v>
       </c>
@@ -10845,11 +10843,11 @@
       <c r="BG92" s="58"/>
     </row>
     <row r="93" spans="3:59" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C93" s="138"/>
-      <c r="D93" s="138"/>
-      <c r="E93" s="138"/>
-      <c r="F93" s="138"/>
-      <c r="G93" s="138"/>
+      <c r="C93" s="114"/>
+      <c r="D93" s="114"/>
+      <c r="E93" s="114"/>
+      <c r="F93" s="114"/>
+      <c r="G93" s="114"/>
       <c r="H93" s="62" t="s">
         <v>54</v>
       </c>
@@ -10903,11 +10901,11 @@
       <c r="BG93" s="58"/>
     </row>
     <row r="94" spans="3:59" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C94" s="138"/>
-      <c r="D94" s="138"/>
-      <c r="E94" s="138"/>
-      <c r="F94" s="138"/>
-      <c r="G94" s="138"/>
+      <c r="C94" s="114"/>
+      <c r="D94" s="114"/>
+      <c r="E94" s="114"/>
+      <c r="F94" s="114"/>
+      <c r="G94" s="114"/>
       <c r="H94" s="62" t="s">
         <v>55</v>
       </c>
@@ -10961,11 +10959,11 @@
       <c r="BG94" s="58"/>
     </row>
     <row r="95" spans="3:59" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C95" s="138"/>
-      <c r="D95" s="138"/>
-      <c r="E95" s="138"/>
-      <c r="F95" s="138"/>
-      <c r="G95" s="138"/>
+      <c r="C95" s="114"/>
+      <c r="D95" s="114"/>
+      <c r="E95" s="114"/>
+      <c r="F95" s="114"/>
+      <c r="G95" s="114"/>
       <c r="H95" s="62" t="s">
         <v>56</v>
       </c>
@@ -11019,11 +11017,11 @@
       <c r="BG95" s="58"/>
     </row>
     <row r="96" spans="3:59" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C96" s="138"/>
-      <c r="D96" s="138"/>
-      <c r="E96" s="138"/>
-      <c r="F96" s="138"/>
-      <c r="G96" s="138"/>
+      <c r="C96" s="114"/>
+      <c r="D96" s="114"/>
+      <c r="E96" s="114"/>
+      <c r="F96" s="114"/>
+      <c r="G96" s="114"/>
       <c r="H96" s="62" t="s">
         <v>57</v>
       </c>
@@ -11077,11 +11075,11 @@
       <c r="BG96" s="58"/>
     </row>
     <row r="97" spans="3:59" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C97" s="138"/>
-      <c r="D97" s="138"/>
-      <c r="E97" s="138"/>
-      <c r="F97" s="138"/>
-      <c r="G97" s="138"/>
+      <c r="C97" s="114"/>
+      <c r="D97" s="114"/>
+      <c r="E97" s="114"/>
+      <c r="F97" s="114"/>
+      <c r="G97" s="114"/>
       <c r="H97" s="62" t="s">
         <v>81</v>
       </c>
@@ -11135,11 +11133,11 @@
       <c r="BG97" s="58"/>
     </row>
     <row r="98" spans="3:59" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C98" s="141"/>
-      <c r="D98" s="141"/>
-      <c r="E98" s="141"/>
-      <c r="F98" s="141"/>
-      <c r="G98" s="141"/>
+      <c r="C98" s="117"/>
+      <c r="D98" s="117"/>
+      <c r="E98" s="117"/>
+      <c r="F98" s="117"/>
+      <c r="G98" s="117"/>
       <c r="H98" s="62" t="s">
         <v>82</v>
       </c>
@@ -11352,7 +11350,7 @@
       <c r="G102" s="69"/>
       <c r="AB102">
         <f>SUM(AB9:AB100)</f>
-        <v>279.10000000000002</v>
+        <v>286</v>
       </c>
     </row>
     <row r="109" spans="3:59" ht="16" x14ac:dyDescent="0.3">
@@ -11378,6 +11376,36 @@
     </row>
   </sheetData>
   <mergeCells count="46">
+    <mergeCell ref="Y65:AA65"/>
+    <mergeCell ref="A66:B66"/>
+    <mergeCell ref="C66:G66"/>
+    <mergeCell ref="P66:R66"/>
+    <mergeCell ref="S66:U66"/>
+    <mergeCell ref="V66:X66"/>
+    <mergeCell ref="A65:B65"/>
+    <mergeCell ref="C65:G65"/>
+    <mergeCell ref="P65:R65"/>
+    <mergeCell ref="S65:U65"/>
+    <mergeCell ref="V65:X65"/>
+    <mergeCell ref="V68:X68"/>
+    <mergeCell ref="Y68:AA68"/>
+    <mergeCell ref="A67:B67"/>
+    <mergeCell ref="C67:G67"/>
+    <mergeCell ref="P67:R67"/>
+    <mergeCell ref="S67:U67"/>
+    <mergeCell ref="V67:X67"/>
+    <mergeCell ref="AD1:AG1"/>
+    <mergeCell ref="AH1:AN1"/>
+    <mergeCell ref="AD2:AG2"/>
+    <mergeCell ref="AH2:AN2"/>
+    <mergeCell ref="A4:B6"/>
+    <mergeCell ref="C4:O4"/>
+    <mergeCell ref="P4:R6"/>
+    <mergeCell ref="Y4:AA6"/>
+    <mergeCell ref="C5:G6"/>
+    <mergeCell ref="S5:U6"/>
+    <mergeCell ref="V5:X6"/>
+    <mergeCell ref="S4:X4"/>
     <mergeCell ref="C70:G87"/>
     <mergeCell ref="C88:G98"/>
     <mergeCell ref="H5:I6"/>
@@ -11394,36 +11422,6 @@
     <mergeCell ref="C68:G68"/>
     <mergeCell ref="P68:R68"/>
     <mergeCell ref="S68:U68"/>
-    <mergeCell ref="AD1:AG1"/>
-    <mergeCell ref="AH1:AN1"/>
-    <mergeCell ref="AD2:AG2"/>
-    <mergeCell ref="AH2:AN2"/>
-    <mergeCell ref="A4:B6"/>
-    <mergeCell ref="C4:O4"/>
-    <mergeCell ref="P4:R6"/>
-    <mergeCell ref="Y4:AA6"/>
-    <mergeCell ref="C5:G6"/>
-    <mergeCell ref="S5:U6"/>
-    <mergeCell ref="V5:X6"/>
-    <mergeCell ref="S4:X4"/>
-    <mergeCell ref="V68:X68"/>
-    <mergeCell ref="Y68:AA68"/>
-    <mergeCell ref="A67:B67"/>
-    <mergeCell ref="C67:G67"/>
-    <mergeCell ref="P67:R67"/>
-    <mergeCell ref="S67:U67"/>
-    <mergeCell ref="V67:X67"/>
-    <mergeCell ref="Y65:AA65"/>
-    <mergeCell ref="A66:B66"/>
-    <mergeCell ref="C66:G66"/>
-    <mergeCell ref="P66:R66"/>
-    <mergeCell ref="S66:U66"/>
-    <mergeCell ref="V66:X66"/>
-    <mergeCell ref="A65:B65"/>
-    <mergeCell ref="C65:G65"/>
-    <mergeCell ref="P65:R65"/>
-    <mergeCell ref="S65:U65"/>
-    <mergeCell ref="V65:X65"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="AD5:AD6">
@@ -11457,7 +11455,7 @@
   <dimension ref="A1:T21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
@@ -11601,7 +11599,7 @@
       </c>
       <c r="F3" s="89">
         <f>F7/F5</f>
-        <v>0.32032142857142859</v>
+        <v>0.43321428571428572</v>
       </c>
       <c r="G3" s="89">
         <f>G7/G5</f>
@@ -11843,7 +11841,7 @@
         <v>79.599999999999994</v>
       </c>
       <c r="F7" s="93">
-        <v>89.69</v>
+        <v>121.3</v>
       </c>
       <c r="G7" s="93"/>
       <c r="H7" s="92"/>
@@ -11922,7 +11920,7 @@
   <dimension ref="C2:F100"/>
   <sheetViews>
     <sheetView topLeftCell="A85" workbookViewId="0">
-      <selection activeCell="F96" sqref="F96"/>
+      <selection activeCell="F95" sqref="F95"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
@@ -11933,15 +11931,15 @@
   <sheetData>
     <row r="2" spans="4:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D2" s="1"/>
-      <c r="E2" s="142" t="s">
+      <c r="E2" s="118" t="s">
         <v>89</v>
       </c>
-      <c r="F2" s="143"/>
+      <c r="F2" s="119"/>
     </row>
     <row r="3" spans="4:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D3" s="1"/>
-      <c r="E3" s="160"/>
-      <c r="F3" s="161"/>
+      <c r="E3" s="161"/>
+      <c r="F3" s="162"/>
     </row>
     <row r="4" spans="4:6" ht="16" x14ac:dyDescent="0.3">
       <c r="D4" s="69"/>
@@ -12040,7 +12038,7 @@
       </c>
       <c r="F13" s="70">
         <f>工数予実管理表!AB18*工数予実管理表!AC18</f>
-        <v>1.2</v>
+        <v>1.6</v>
       </c>
     </row>
     <row r="14" spans="4:6" ht="16" x14ac:dyDescent="0.3">
@@ -12270,7 +12268,7 @@
       </c>
       <c r="F36" s="70">
         <f>工数予実管理表!AB41*工数予実管理表!AC41</f>
-        <v>2.4000000000000004</v>
+        <v>3</v>
       </c>
     </row>
     <row r="37" spans="3:6" ht="16" x14ac:dyDescent="0.3">
@@ -12284,8 +12282,8 @@
       </c>
     </row>
     <row r="38" spans="3:6" ht="16" x14ac:dyDescent="0.3">
-      <c r="C38" s="138"/>
-      <c r="D38" s="138"/>
+      <c r="C38" s="114"/>
+      <c r="D38" s="114"/>
       <c r="E38" s="70" t="s">
         <v>55</v>
       </c>
@@ -12295,8 +12293,8 @@
       </c>
     </row>
     <row r="39" spans="3:6" ht="16" x14ac:dyDescent="0.3">
-      <c r="C39" s="138"/>
-      <c r="D39" s="138"/>
+      <c r="C39" s="114"/>
+      <c r="D39" s="114"/>
       <c r="E39" s="70" t="s">
         <v>56</v>
       </c>
@@ -12324,7 +12322,7 @@
       </c>
       <c r="F41" s="70">
         <f>工数予実管理表!AB46*工数予実管理表!AC46</f>
-        <v>4.8000000000000007</v>
+        <v>6</v>
       </c>
     </row>
     <row r="42" spans="3:6" ht="16" x14ac:dyDescent="0.3">
@@ -12335,7 +12333,7 @@
       </c>
       <c r="F42" s="70">
         <f>工数予実管理表!AB47*工数予実管理表!AC47</f>
-        <v>4.8000000000000007</v>
+        <v>6</v>
       </c>
     </row>
     <row r="43" spans="3:6" ht="16" x14ac:dyDescent="0.3">
@@ -12368,7 +12366,7 @@
       </c>
       <c r="F45" s="70">
         <f>工数予実管理表!AB50*工数予実管理表!AC50</f>
-        <v>0</v>
+        <v>5.6000000000000005</v>
       </c>
     </row>
     <row r="46" spans="3:6" ht="16" x14ac:dyDescent="0.3">
@@ -12379,7 +12377,7 @@
       </c>
       <c r="F46" s="70">
         <f>工数予実管理表!AB51*工数予実管理表!AC51</f>
-        <v>2.1</v>
+        <v>5.6000000000000005</v>
       </c>
     </row>
     <row r="47" spans="3:6" ht="16" x14ac:dyDescent="0.3">
@@ -12412,7 +12410,7 @@
       </c>
       <c r="F49" s="70">
         <f>工数予実管理表!AB54*工数予実管理表!AC54</f>
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="50" spans="3:6" ht="16" x14ac:dyDescent="0.3">
@@ -12445,7 +12443,7 @@
       </c>
       <c r="F52" s="70">
         <f>工数予実管理表!AB57*工数予実管理表!AC57</f>
-        <v>9.0000000000000011E-2</v>
+        <v>6.3</v>
       </c>
     </row>
     <row r="53" spans="3:6" ht="16" x14ac:dyDescent="0.3">
@@ -12456,7 +12454,7 @@
       </c>
       <c r="F53" s="70">
         <f>工数予実管理表!AB58*工数予実管理表!AC58</f>
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="54" spans="3:6" ht="16" x14ac:dyDescent="0.3">
@@ -12522,7 +12520,7 @@
       </c>
       <c r="F59" s="70">
         <f>工数予実管理表!AB64*工数予実管理表!AC64</f>
-        <v>0</v>
+        <v>4.8999999999999995</v>
       </c>
     </row>
     <row r="60" spans="3:6" ht="16" x14ac:dyDescent="0.3">
@@ -12915,7 +12913,7 @@
       <c r="D95" s="69"/>
       <c r="F95">
         <f>SUM(F4:F94)</f>
-        <v>89.690000000000012</v>
+        <v>121.30000000000001</v>
       </c>
     </row>
     <row r="96" spans="3:6" ht="16" x14ac:dyDescent="0.3">
@@ -12959,6 +12957,12 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x010100364AEC801DCCFF4C9A7CD82776573E34" ma:contentTypeVersion="0" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="9a90bd606c73e53fbdca164192b510d5">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="86e6f6c817e23f4348afe6a544d017da">
     <xsd:element name="properties">
@@ -13072,12 +13076,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4F999A99-14E0-4A35-8552-0D0111146846}">
   <ds:schemaRefs>
@@ -13087,6 +13085,15 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{658D790C-F48A-4541-BBAC-37C510A1270D}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E8C7E73E-37A8-4119-AD2E-81AFBFD39544}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -13100,13 +13107,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{658D790C-F48A-4541-BBAC-37C510A1270D}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/doc/D4_ドキュメント/予実管理表(最新版)_D4.xlsx
+++ b/doc/D4_ドキュメント/予実管理表(最新版)_D4.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23530"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A3D5AD8-982C-496A-94CE-55F20DDD4951}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15150F9E-0133-45E9-9D53-4575EB13926D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="19090" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="工数予実管理表" sheetId="5" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="530" uniqueCount="156">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="530" uniqueCount="155">
   <si>
     <t>プロジェクト名</t>
     <rPh sb="6" eb="7">
@@ -790,28 +790,6 @@
     </rPh>
     <rPh sb="2" eb="4">
       <t>セキサン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>※修正が出たためやり直し工数積算が下がった</t>
-    <rPh sb="1" eb="3">
-      <t>シュウセイ</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>デ</t>
-    </rPh>
-    <rPh sb="10" eb="11">
-      <t>ナオ</t>
-    </rPh>
-    <rPh sb="12" eb="14">
-      <t>コウスウ</t>
-    </rPh>
-    <rPh sb="14" eb="16">
-      <t>セキサン</t>
-    </rPh>
-    <rPh sb="17" eb="18">
-      <t>サ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -969,7 +947,7 @@
     <numFmt numFmtId="179" formatCode="m"/>
     <numFmt numFmtId="180" formatCode="0.0%"/>
   </numFmts>
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color theme="1"/>
@@ -1053,6 +1031,12 @@
       <name val="Meiryo UI"/>
       <family val="2"/>
       <charset val="128"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF1D1C1D"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="19">
@@ -1654,7 +1638,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="164">
+  <cellXfs count="166">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1823,9 +1807,6 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
@@ -1982,15 +1963,87 @@
     <xf numFmtId="9" fontId="2" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="18" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="178" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2051,18 +2104,6 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="16" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
@@ -2072,79 +2113,28 @@
     <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="178" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+    <xf numFmtId="9" fontId="12" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="17" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="17" borderId="22" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -2384,7 +2374,7 @@
                   <c:v>0.28428571428571425</c:v>
                 </c:pt>
                 <c:pt idx="4" formatCode="0.0%">
-                  <c:v>0.43321428571428572</c:v>
+                  <c:v>0.43892857142857145</c:v>
                 </c:pt>
                 <c:pt idx="5" formatCode="0.0%">
                   <c:v>0</c:v>
@@ -3607,8 +3597,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA4A6EF2-62B9-43FE-BFFD-0A328B128D1B}">
   <dimension ref="A1:BL111"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B58" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AC9" sqref="AC9:AC69"/>
+    <sheetView topLeftCell="Y1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="BH13" sqref="BH13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
@@ -3636,60 +3626,60 @@
     <col min="26" max="26" width="0.83203125" hidden="1" customWidth="1"/>
     <col min="27" max="27" width="8.6640625" hidden="1" customWidth="1"/>
     <col min="28" max="28" width="6" customWidth="1"/>
-    <col min="29" max="29" width="6.5" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="6.9140625" bestFit="1" customWidth="1"/>
     <col min="30" max="38" width="2.83203125" bestFit="1" customWidth="1"/>
     <col min="39" max="59" width="3" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:64" ht="16" x14ac:dyDescent="0.3">
-      <c r="A1" s="122" t="s">
+      <c r="A1" s="145" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="123"/>
-      <c r="C1" s="123"/>
-      <c r="D1" s="123"/>
-      <c r="E1" s="123"/>
-      <c r="F1" s="123"/>
-      <c r="G1" s="123"/>
-      <c r="H1" s="126" t="s">
+      <c r="B1" s="146"/>
+      <c r="C1" s="146"/>
+      <c r="D1" s="146"/>
+      <c r="E1" s="146"/>
+      <c r="F1" s="146"/>
+      <c r="G1" s="146"/>
+      <c r="H1" s="149" t="s">
         <v>1</v>
       </c>
-      <c r="I1" s="127"/>
-      <c r="J1" s="127"/>
-      <c r="K1" s="127"/>
-      <c r="L1" s="127"/>
-      <c r="M1" s="127"/>
-      <c r="N1" s="127"/>
-      <c r="O1" s="127"/>
-      <c r="P1" s="127"/>
-      <c r="Q1" s="127"/>
-      <c r="R1" s="127"/>
-      <c r="S1" s="127"/>
-      <c r="T1" s="127"/>
-      <c r="U1" s="127"/>
-      <c r="V1" s="127"/>
-      <c r="W1" s="127"/>
-      <c r="X1" s="127"/>
-      <c r="Y1" s="127"/>
-      <c r="Z1" s="127"/>
-      <c r="AA1" s="127"/>
-      <c r="AB1" s="127"/>
-      <c r="AC1" s="128"/>
-      <c r="AD1" s="141" t="s">
+      <c r="I1" s="150"/>
+      <c r="J1" s="150"/>
+      <c r="K1" s="150"/>
+      <c r="L1" s="150"/>
+      <c r="M1" s="150"/>
+      <c r="N1" s="150"/>
+      <c r="O1" s="150"/>
+      <c r="P1" s="150"/>
+      <c r="Q1" s="150"/>
+      <c r="R1" s="150"/>
+      <c r="S1" s="150"/>
+      <c r="T1" s="150"/>
+      <c r="U1" s="150"/>
+      <c r="V1" s="150"/>
+      <c r="W1" s="150"/>
+      <c r="X1" s="150"/>
+      <c r="Y1" s="150"/>
+      <c r="Z1" s="150"/>
+      <c r="AA1" s="150"/>
+      <c r="AB1" s="150"/>
+      <c r="AC1" s="151"/>
+      <c r="AD1" s="119" t="s">
         <v>2</v>
       </c>
-      <c r="AE1" s="142"/>
-      <c r="AF1" s="142"/>
-      <c r="AG1" s="143"/>
-      <c r="AH1" s="144">
+      <c r="AE1" s="120"/>
+      <c r="AF1" s="120"/>
+      <c r="AG1" s="121"/>
+      <c r="AH1" s="122">
         <v>45078</v>
       </c>
-      <c r="AI1" s="145"/>
-      <c r="AJ1" s="145"/>
-      <c r="AK1" s="145"/>
-      <c r="AL1" s="145"/>
-      <c r="AM1" s="145"/>
-      <c r="AN1" s="146"/>
+      <c r="AI1" s="123"/>
+      <c r="AJ1" s="123"/>
+      <c r="AK1" s="123"/>
+      <c r="AL1" s="123"/>
+      <c r="AM1" s="123"/>
+      <c r="AN1" s="124"/>
       <c r="AO1" s="1"/>
       <c r="AP1" s="1"/>
       <c r="AQ1" s="1"/>
@@ -3711,50 +3701,50 @@
       <c r="BG1" s="1"/>
     </row>
     <row r="2" spans="1:64" ht="16" x14ac:dyDescent="0.3">
-      <c r="A2" s="124"/>
-      <c r="B2" s="125"/>
-      <c r="C2" s="125"/>
-      <c r="D2" s="125"/>
-      <c r="E2" s="125"/>
-      <c r="F2" s="125"/>
-      <c r="G2" s="125"/>
-      <c r="H2" s="129"/>
-      <c r="I2" s="130"/>
-      <c r="J2" s="130"/>
-      <c r="K2" s="130"/>
-      <c r="L2" s="130"/>
-      <c r="M2" s="130"/>
-      <c r="N2" s="130"/>
-      <c r="O2" s="130"/>
-      <c r="P2" s="130"/>
-      <c r="Q2" s="130"/>
-      <c r="R2" s="130"/>
-      <c r="S2" s="130"/>
-      <c r="T2" s="130"/>
-      <c r="U2" s="130"/>
-      <c r="V2" s="130"/>
-      <c r="W2" s="130"/>
-      <c r="X2" s="130"/>
-      <c r="Y2" s="130"/>
-      <c r="Z2" s="130"/>
-      <c r="AA2" s="130"/>
-      <c r="AB2" s="130"/>
-      <c r="AC2" s="131"/>
-      <c r="AD2" s="141" t="s">
+      <c r="A2" s="147"/>
+      <c r="B2" s="148"/>
+      <c r="C2" s="148"/>
+      <c r="D2" s="148"/>
+      <c r="E2" s="148"/>
+      <c r="F2" s="148"/>
+      <c r="G2" s="148"/>
+      <c r="H2" s="152"/>
+      <c r="I2" s="153"/>
+      <c r="J2" s="153"/>
+      <c r="K2" s="153"/>
+      <c r="L2" s="153"/>
+      <c r="M2" s="153"/>
+      <c r="N2" s="153"/>
+      <c r="O2" s="153"/>
+      <c r="P2" s="153"/>
+      <c r="Q2" s="153"/>
+      <c r="R2" s="153"/>
+      <c r="S2" s="153"/>
+      <c r="T2" s="153"/>
+      <c r="U2" s="153"/>
+      <c r="V2" s="153"/>
+      <c r="W2" s="153"/>
+      <c r="X2" s="153"/>
+      <c r="Y2" s="153"/>
+      <c r="Z2" s="153"/>
+      <c r="AA2" s="153"/>
+      <c r="AB2" s="153"/>
+      <c r="AC2" s="154"/>
+      <c r="AD2" s="119" t="s">
         <v>3</v>
       </c>
-      <c r="AE2" s="142"/>
-      <c r="AF2" s="142"/>
-      <c r="AG2" s="143"/>
-      <c r="AH2" s="144">
+      <c r="AE2" s="120"/>
+      <c r="AF2" s="120"/>
+      <c r="AG2" s="121"/>
+      <c r="AH2" s="122">
         <v>45107</v>
       </c>
-      <c r="AI2" s="145"/>
-      <c r="AJ2" s="145"/>
-      <c r="AK2" s="145"/>
-      <c r="AL2" s="145"/>
-      <c r="AM2" s="145"/>
-      <c r="AN2" s="146"/>
+      <c r="AI2" s="123"/>
+      <c r="AJ2" s="123"/>
+      <c r="AK2" s="123"/>
+      <c r="AL2" s="123"/>
+      <c r="AM2" s="123"/>
+      <c r="AN2" s="124"/>
       <c r="AO2" s="1"/>
       <c r="AP2" s="1"/>
       <c r="AQ2" s="1"/>
@@ -3837,43 +3827,43 @@
       <c r="BG3" s="1"/>
     </row>
     <row r="4" spans="1:64" ht="16" x14ac:dyDescent="0.3">
-      <c r="A4" s="147" t="s">
+      <c r="A4" s="125" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="148"/>
-      <c r="C4" s="151" t="s">
+      <c r="B4" s="126"/>
+      <c r="C4" s="129" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="151"/>
-      <c r="E4" s="151"/>
-      <c r="F4" s="151"/>
-      <c r="G4" s="151"/>
-      <c r="H4" s="151"/>
-      <c r="I4" s="151"/>
-      <c r="J4" s="151"/>
-      <c r="K4" s="151"/>
-      <c r="L4" s="151"/>
-      <c r="M4" s="151"/>
-      <c r="N4" s="151"/>
-      <c r="O4" s="151"/>
-      <c r="P4" s="148" t="s">
+      <c r="D4" s="129"/>
+      <c r="E4" s="129"/>
+      <c r="F4" s="129"/>
+      <c r="G4" s="129"/>
+      <c r="H4" s="129"/>
+      <c r="I4" s="129"/>
+      <c r="J4" s="129"/>
+      <c r="K4" s="129"/>
+      <c r="L4" s="129"/>
+      <c r="M4" s="129"/>
+      <c r="N4" s="129"/>
+      <c r="O4" s="129"/>
+      <c r="P4" s="126" t="s">
         <v>6</v>
       </c>
-      <c r="Q4" s="148"/>
-      <c r="R4" s="148"/>
-      <c r="S4" s="148" t="s">
+      <c r="Q4" s="126"/>
+      <c r="R4" s="126"/>
+      <c r="S4" s="126" t="s">
         <v>7</v>
       </c>
-      <c r="T4" s="148"/>
-      <c r="U4" s="148"/>
-      <c r="V4" s="148"/>
-      <c r="W4" s="148"/>
-      <c r="X4" s="156"/>
-      <c r="Y4" s="152" t="s">
+      <c r="T4" s="126"/>
+      <c r="U4" s="126"/>
+      <c r="V4" s="126"/>
+      <c r="W4" s="126"/>
+      <c r="X4" s="134"/>
+      <c r="Y4" s="130" t="s">
         <v>8</v>
       </c>
-      <c r="Z4" s="152"/>
-      <c r="AA4" s="153"/>
+      <c r="Z4" s="130"/>
+      <c r="AA4" s="131"/>
       <c r="AB4" s="49"/>
       <c r="AC4" s="49"/>
       <c r="AD4" s="5">
@@ -3998,43 +3988,43 @@
       </c>
     </row>
     <row r="5" spans="1:64" ht="16" x14ac:dyDescent="0.3">
-      <c r="A5" s="149"/>
-      <c r="B5" s="150"/>
-      <c r="C5" s="150" t="s">
+      <c r="A5" s="127"/>
+      <c r="B5" s="128"/>
+      <c r="C5" s="128" t="s">
         <v>9</v>
       </c>
-      <c r="D5" s="150"/>
-      <c r="E5" s="150"/>
-      <c r="F5" s="150"/>
-      <c r="G5" s="150"/>
-      <c r="H5" s="118" t="s">
+      <c r="D5" s="128"/>
+      <c r="E5" s="128"/>
+      <c r="F5" s="128"/>
+      <c r="G5" s="128"/>
+      <c r="H5" s="141" t="s">
         <v>116</v>
       </c>
-      <c r="I5" s="119"/>
-      <c r="J5" s="118" t="s">
+      <c r="I5" s="142"/>
+      <c r="J5" s="141" t="s">
         <v>89</v>
       </c>
-      <c r="K5" s="119"/>
+      <c r="K5" s="142"/>
       <c r="L5" s="53"/>
       <c r="M5" s="53"/>
       <c r="N5" s="53"/>
       <c r="O5" s="53"/>
-      <c r="P5" s="150"/>
-      <c r="Q5" s="150"/>
-      <c r="R5" s="150"/>
-      <c r="S5" s="150" t="s">
+      <c r="P5" s="128"/>
+      <c r="Q5" s="128"/>
+      <c r="R5" s="128"/>
+      <c r="S5" s="128" t="s">
         <v>2</v>
       </c>
-      <c r="T5" s="150"/>
-      <c r="U5" s="150"/>
-      <c r="V5" s="150" t="s">
+      <c r="T5" s="128"/>
+      <c r="U5" s="128"/>
+      <c r="V5" s="128" t="s">
         <v>3</v>
       </c>
-      <c r="W5" s="150"/>
-      <c r="X5" s="141"/>
-      <c r="Y5" s="154"/>
-      <c r="Z5" s="154"/>
-      <c r="AA5" s="155"/>
+      <c r="W5" s="128"/>
+      <c r="X5" s="119"/>
+      <c r="Y5" s="132"/>
+      <c r="Z5" s="132"/>
+      <c r="AA5" s="133"/>
       <c r="AB5" s="45" t="s">
         <v>87</v>
       </c>
@@ -4161,35 +4151,41 @@
         <f t="shared" si="1"/>
         <v>45107</v>
       </c>
+      <c r="BI5" s="80" t="s">
+        <v>8</v>
+      </c>
+      <c r="BJ5" s="80" t="s">
+        <v>88</v>
+      </c>
     </row>
     <row r="6" spans="1:64" ht="16" x14ac:dyDescent="0.3">
-      <c r="A6" s="149"/>
-      <c r="B6" s="150"/>
-      <c r="C6" s="150"/>
-      <c r="D6" s="150"/>
-      <c r="E6" s="150"/>
-      <c r="F6" s="150"/>
-      <c r="G6" s="150"/>
-      <c r="H6" s="120"/>
-      <c r="I6" s="121"/>
-      <c r="J6" s="120"/>
-      <c r="K6" s="121"/>
+      <c r="A6" s="127"/>
+      <c r="B6" s="128"/>
+      <c r="C6" s="128"/>
+      <c r="D6" s="128"/>
+      <c r="E6" s="128"/>
+      <c r="F6" s="128"/>
+      <c r="G6" s="128"/>
+      <c r="H6" s="143"/>
+      <c r="I6" s="144"/>
+      <c r="J6" s="143"/>
+      <c r="K6" s="144"/>
       <c r="L6" s="53"/>
       <c r="M6" s="53"/>
       <c r="N6" s="53"/>
       <c r="O6" s="53"/>
-      <c r="P6" s="150"/>
-      <c r="Q6" s="150"/>
-      <c r="R6" s="150"/>
-      <c r="S6" s="150"/>
-      <c r="T6" s="150"/>
-      <c r="U6" s="150"/>
-      <c r="V6" s="150"/>
-      <c r="W6" s="150"/>
-      <c r="X6" s="141"/>
-      <c r="Y6" s="154"/>
-      <c r="Z6" s="154"/>
-      <c r="AA6" s="155"/>
+      <c r="P6" s="128"/>
+      <c r="Q6" s="128"/>
+      <c r="R6" s="128"/>
+      <c r="S6" s="128"/>
+      <c r="T6" s="128"/>
+      <c r="U6" s="128"/>
+      <c r="V6" s="128"/>
+      <c r="W6" s="128"/>
+      <c r="X6" s="119"/>
+      <c r="Y6" s="132"/>
+      <c r="Z6" s="132"/>
+      <c r="AA6" s="133"/>
       <c r="AB6" s="45"/>
       <c r="AC6" s="45"/>
       <c r="AD6" s="11" t="str">
@@ -4312,8 +4308,11 @@
         <f t="shared" si="3"/>
         <v>金</v>
       </c>
-      <c r="BI6" t="s">
-        <v>8</v>
+      <c r="BI6" s="162" t="s">
+        <v>117</v>
+      </c>
+      <c r="BJ6" s="163">
+        <v>1</v>
       </c>
       <c r="BL6" t="s">
         <v>88</v>
@@ -4381,10 +4380,13 @@
       <c r="BE7" s="2"/>
       <c r="BF7" s="2"/>
       <c r="BG7" s="9"/>
-      <c r="BI7" s="56" t="s">
-        <v>117</v>
-      </c>
-      <c r="BL7" s="57">
+      <c r="BI7" s="80" t="s">
+        <v>118</v>
+      </c>
+      <c r="BJ7" s="164">
+        <v>0</v>
+      </c>
+      <c r="BL7" s="56">
         <v>1</v>
       </c>
     </row>
@@ -4419,7 +4421,7 @@
       <c r="Z8" s="4"/>
       <c r="AA8" s="43"/>
       <c r="AB8" s="45"/>
-      <c r="AC8" s="59"/>
+      <c r="AC8" s="58"/>
       <c r="AD8" s="44"/>
       <c r="AE8" s="2"/>
       <c r="AF8" s="2"/>
@@ -4450,8 +4452,11 @@
       <c r="BE8" s="2"/>
       <c r="BF8" s="2"/>
       <c r="BG8" s="9"/>
-      <c r="BI8" t="s">
-        <v>118</v>
+      <c r="BI8" s="164">
+        <v>0.01</v>
+      </c>
+      <c r="BJ8" s="164">
+        <v>0.01</v>
       </c>
       <c r="BL8" s="54">
         <v>0</v>
@@ -4500,8 +4505,8 @@
       <c r="AB9" s="45">
         <v>1</v>
       </c>
-      <c r="AC9" s="59">
-        <f t="shared" ref="AC9:AC22" si="4">VLOOKUP(Y9,$BI$7:$BL$8,4,FALSE)</f>
+      <c r="AC9" s="161">
+        <f>VLOOKUP(Y9,$BI$6:$BJ$107,2,FALSE)</f>
         <v>1</v>
       </c>
       <c r="AD9" s="44"/>
@@ -4534,6 +4539,12 @@
       <c r="BE9" s="2"/>
       <c r="BF9" s="2"/>
       <c r="BG9" s="9"/>
+      <c r="BI9" s="164">
+        <v>0.02</v>
+      </c>
+      <c r="BJ9" s="164">
+        <v>0.02</v>
+      </c>
     </row>
     <row r="10" spans="1:64" ht="16" x14ac:dyDescent="0.3">
       <c r="A10" s="18"/>
@@ -4578,8 +4589,8 @@
       <c r="AB10" s="45">
         <v>1</v>
       </c>
-      <c r="AC10" s="59">
-        <f t="shared" si="4"/>
+      <c r="AC10" s="161">
+        <f t="shared" ref="AC10:AC69" si="4">VLOOKUP(Y10,$BI$6:$BJ$107,2,FALSE)</f>
         <v>1</v>
       </c>
       <c r="AD10" s="44"/>
@@ -4612,6 +4623,12 @@
       <c r="BE10" s="2"/>
       <c r="BF10" s="2"/>
       <c r="BG10" s="9"/>
+      <c r="BI10" s="164">
+        <v>0.03</v>
+      </c>
+      <c r="BJ10" s="164">
+        <v>0.03</v>
+      </c>
     </row>
     <row r="11" spans="1:64" ht="16" x14ac:dyDescent="0.3">
       <c r="A11" s="18"/>
@@ -4656,7 +4673,7 @@
       <c r="AB11" s="45">
         <v>1</v>
       </c>
-      <c r="AC11" s="59">
+      <c r="AC11" s="161">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
@@ -4690,6 +4707,12 @@
       <c r="BE11" s="2"/>
       <c r="BF11" s="2"/>
       <c r="BG11" s="9"/>
+      <c r="BI11" s="164">
+        <v>0.04</v>
+      </c>
+      <c r="BJ11" s="164">
+        <v>0.04</v>
+      </c>
     </row>
     <row r="12" spans="1:64" ht="16" x14ac:dyDescent="0.3">
       <c r="A12" s="18"/>
@@ -4734,7 +4757,7 @@
       <c r="AB12" s="45">
         <v>2</v>
       </c>
-      <c r="AC12" s="59">
+      <c r="AC12" s="161">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
@@ -4768,6 +4791,12 @@
       <c r="BE12" s="2"/>
       <c r="BF12" s="2"/>
       <c r="BG12" s="9"/>
+      <c r="BI12" s="164">
+        <v>0.05</v>
+      </c>
+      <c r="BJ12" s="164">
+        <v>0.05</v>
+      </c>
     </row>
     <row r="13" spans="1:64" ht="16" x14ac:dyDescent="0.3">
       <c r="A13" s="18"/>
@@ -4812,7 +4841,7 @@
       <c r="AB13" s="45">
         <v>2</v>
       </c>
-      <c r="AC13" s="59">
+      <c r="AC13" s="161">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
@@ -4846,6 +4875,12 @@
       <c r="BE13" s="2"/>
       <c r="BF13" s="2"/>
       <c r="BG13" s="9"/>
+      <c r="BI13" s="164">
+        <v>0.06</v>
+      </c>
+      <c r="BJ13" s="164">
+        <v>0.06</v>
+      </c>
     </row>
     <row r="14" spans="1:64" ht="16" x14ac:dyDescent="0.3">
       <c r="A14" s="18"/>
@@ -4890,7 +4925,7 @@
       <c r="AB14" s="45">
         <v>2</v>
       </c>
-      <c r="AC14" s="59">
+      <c r="AC14" s="161">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
@@ -4924,6 +4959,12 @@
       <c r="BE14" s="2"/>
       <c r="BF14" s="2"/>
       <c r="BG14" s="9"/>
+      <c r="BI14" s="164">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="BJ14" s="164">
+        <v>7.0000000000000007E-2</v>
+      </c>
     </row>
     <row r="15" spans="1:64" ht="16" x14ac:dyDescent="0.3">
       <c r="A15" s="18"/>
@@ -4968,7 +5009,7 @@
       <c r="AB15" s="45">
         <v>2</v>
       </c>
-      <c r="AC15" s="59">
+      <c r="AC15" s="161">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
@@ -5002,6 +5043,12 @@
       <c r="BE15" s="2"/>
       <c r="BF15" s="2"/>
       <c r="BG15" s="9"/>
+      <c r="BI15" s="164">
+        <v>0.08</v>
+      </c>
+      <c r="BJ15" s="164">
+        <v>0.08</v>
+      </c>
     </row>
     <row r="16" spans="1:64" ht="16" x14ac:dyDescent="0.3">
       <c r="A16" s="18"/>
@@ -5046,7 +5093,7 @@
       <c r="AB16" s="45">
         <v>2</v>
       </c>
-      <c r="AC16" s="59">
+      <c r="AC16" s="161">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
@@ -5080,8 +5127,14 @@
       <c r="BE16" s="2"/>
       <c r="BF16" s="2"/>
       <c r="BG16" s="9"/>
-    </row>
-    <row r="17" spans="1:59" ht="16" x14ac:dyDescent="0.3">
+      <c r="BI16" s="164">
+        <v>0.09</v>
+      </c>
+      <c r="BJ16" s="164">
+        <v>0.09</v>
+      </c>
+    </row>
+    <row r="17" spans="1:62" ht="16" x14ac:dyDescent="0.3">
       <c r="A17" s="18"/>
       <c r="B17" s="4"/>
       <c r="C17" s="19"/>
@@ -5124,7 +5177,7 @@
       <c r="AB17" s="45">
         <v>1</v>
       </c>
-      <c r="AC17" s="59">
+      <c r="AC17" s="161">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
@@ -5158,8 +5211,14 @@
       <c r="BE17" s="2"/>
       <c r="BF17" s="2"/>
       <c r="BG17" s="9"/>
-    </row>
-    <row r="18" spans="1:59" ht="16" x14ac:dyDescent="0.3">
+      <c r="BI17" s="164">
+        <v>0.1</v>
+      </c>
+      <c r="BJ17" s="164">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:62" ht="16" x14ac:dyDescent="0.3">
       <c r="A18" s="18"/>
       <c r="B18" s="4"/>
       <c r="C18" s="30" t="s">
@@ -5204,7 +5263,8 @@
       <c r="AB18" s="45">
         <v>2</v>
       </c>
-      <c r="AC18" s="25">
+      <c r="AC18" s="161">
+        <f t="shared" si="4"/>
         <v>0.8</v>
       </c>
       <c r="AD18" s="44"/>
@@ -5237,8 +5297,14 @@
       <c r="BE18" s="2"/>
       <c r="BF18" s="2"/>
       <c r="BG18" s="9"/>
-    </row>
-    <row r="19" spans="1:59" ht="16" x14ac:dyDescent="0.3">
+      <c r="BI18" s="164">
+        <v>0.11</v>
+      </c>
+      <c r="BJ18" s="164">
+        <v>0.11</v>
+      </c>
+    </row>
+    <row r="19" spans="1:62" ht="16" x14ac:dyDescent="0.3">
       <c r="A19" s="18"/>
       <c r="B19" s="4"/>
       <c r="C19" s="30" t="s">
@@ -5283,7 +5349,7 @@
       <c r="AB19" s="45">
         <v>1</v>
       </c>
-      <c r="AC19" s="59">
+      <c r="AC19" s="161">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
@@ -5317,8 +5383,14 @@
       <c r="BE19" s="2"/>
       <c r="BF19" s="2"/>
       <c r="BG19" s="9"/>
-    </row>
-    <row r="20" spans="1:59" ht="16" x14ac:dyDescent="0.3">
+      <c r="BI19" s="164">
+        <v>0.12</v>
+      </c>
+      <c r="BJ19" s="164">
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="20" spans="1:62" ht="16" x14ac:dyDescent="0.3">
       <c r="A20" s="18"/>
       <c r="B20" s="4"/>
       <c r="C20" s="19"/>
@@ -5361,7 +5433,7 @@
       <c r="AB20" s="45">
         <v>1</v>
       </c>
-      <c r="AC20" s="59">
+      <c r="AC20" s="161">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
@@ -5395,8 +5467,14 @@
       <c r="BE20" s="2"/>
       <c r="BF20" s="2"/>
       <c r="BG20" s="9"/>
-    </row>
-    <row r="21" spans="1:59" ht="16" x14ac:dyDescent="0.3">
+      <c r="BI20" s="164">
+        <v>0.13</v>
+      </c>
+      <c r="BJ20" s="164">
+        <v>0.13</v>
+      </c>
+    </row>
+    <row r="21" spans="1:62" ht="16" x14ac:dyDescent="0.3">
       <c r="A21" s="18"/>
       <c r="B21" s="4"/>
       <c r="C21" s="19"/>
@@ -5439,7 +5517,7 @@
       <c r="AB21" s="45">
         <v>1</v>
       </c>
-      <c r="AC21" s="59">
+      <c r="AC21" s="161">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
@@ -5473,8 +5551,14 @@
       <c r="BE21" s="2"/>
       <c r="BF21" s="2"/>
       <c r="BG21" s="9"/>
-    </row>
-    <row r="22" spans="1:59" ht="16" x14ac:dyDescent="0.3">
+      <c r="BI21" s="164">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="BJ21" s="164">
+        <v>0.14000000000000001</v>
+      </c>
+    </row>
+    <row r="22" spans="1:62" ht="16" x14ac:dyDescent="0.3">
       <c r="A22" s="18"/>
       <c r="B22" s="4"/>
       <c r="C22" s="19"/>
@@ -5517,7 +5601,7 @@
       <c r="AB22" s="45">
         <v>1</v>
       </c>
-      <c r="AC22" s="59">
+      <c r="AC22" s="161">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
@@ -5551,8 +5635,14 @@
       <c r="BE22" s="2"/>
       <c r="BF22" s="2"/>
       <c r="BG22" s="9"/>
-    </row>
-    <row r="23" spans="1:59" ht="16" x14ac:dyDescent="0.3">
+      <c r="BI22" s="164">
+        <v>0.15</v>
+      </c>
+      <c r="BJ22" s="164">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="23" spans="1:62" ht="16" x14ac:dyDescent="0.3">
       <c r="A23" s="18"/>
       <c r="B23" s="4"/>
       <c r="C23" s="19"/>
@@ -5595,7 +5685,8 @@
       <c r="AB23" s="45">
         <v>1</v>
       </c>
-      <c r="AC23" s="59">
+      <c r="AC23" s="161">
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="AD23" s="44"/>
@@ -5628,8 +5719,14 @@
       <c r="BE23" s="2"/>
       <c r="BF23" s="2"/>
       <c r="BG23" s="9"/>
-    </row>
-    <row r="24" spans="1:59" ht="16" x14ac:dyDescent="0.3">
+      <c r="BI23" s="164">
+        <v>0.16</v>
+      </c>
+      <c r="BJ23" s="164">
+        <v>0.16</v>
+      </c>
+    </row>
+    <row r="24" spans="1:62" ht="16" x14ac:dyDescent="0.3">
       <c r="A24" s="18"/>
       <c r="B24" s="4"/>
       <c r="C24" s="19"/>
@@ -5672,7 +5769,8 @@
       <c r="AB24" s="45">
         <v>1</v>
       </c>
-      <c r="AC24" s="25">
+      <c r="AC24" s="161">
+        <f t="shared" si="4"/>
         <v>0.5</v>
       </c>
       <c r="AD24" s="44"/>
@@ -5705,8 +5803,14 @@
       <c r="BE24" s="2"/>
       <c r="BF24" s="2"/>
       <c r="BG24" s="9"/>
-    </row>
-    <row r="25" spans="1:59" ht="16" x14ac:dyDescent="0.3">
+      <c r="BI24" s="164">
+        <v>0.17</v>
+      </c>
+      <c r="BJ24" s="164">
+        <v>0.17</v>
+      </c>
+    </row>
+    <row r="25" spans="1:62" ht="16" x14ac:dyDescent="0.3">
       <c r="A25" s="18"/>
       <c r="B25" s="4"/>
       <c r="C25" s="19"/>
@@ -5749,8 +5853,8 @@
       <c r="AB25" s="45">
         <v>1</v>
       </c>
-      <c r="AC25" s="59">
-        <f>VLOOKUP(Y25,$BI$7:$BL$8,4,FALSE)</f>
+      <c r="AC25" s="161">
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="AD25" s="44"/>
@@ -5783,8 +5887,14 @@
       <c r="BE25" s="2"/>
       <c r="BF25" s="2"/>
       <c r="BG25" s="9"/>
-    </row>
-    <row r="26" spans="1:59" ht="16" x14ac:dyDescent="0.3">
+      <c r="BI25" s="164">
+        <v>0.18</v>
+      </c>
+      <c r="BJ25" s="164">
+        <v>0.18</v>
+      </c>
+    </row>
+    <row r="26" spans="1:62" ht="16" x14ac:dyDescent="0.3">
       <c r="A26" s="18"/>
       <c r="B26" s="4"/>
       <c r="C26" s="19"/>
@@ -5827,7 +5937,8 @@
       <c r="AB26" s="45">
         <v>1</v>
       </c>
-      <c r="AC26" s="59">
+      <c r="AC26" s="161">
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="AD26" s="44"/>
@@ -5860,8 +5971,14 @@
       <c r="BE26" s="2"/>
       <c r="BF26" s="2"/>
       <c r="BG26" s="9"/>
-    </row>
-    <row r="27" spans="1:59" ht="16" x14ac:dyDescent="0.3">
+      <c r="BI26" s="164">
+        <v>0.19</v>
+      </c>
+      <c r="BJ26" s="164">
+        <v>0.19</v>
+      </c>
+    </row>
+    <row r="27" spans="1:62" ht="16" x14ac:dyDescent="0.3">
       <c r="A27" s="18"/>
       <c r="B27" s="4"/>
       <c r="C27" s="19"/>
@@ -5869,11 +5986,11 @@
       <c r="E27" s="19"/>
       <c r="F27" s="19"/>
       <c r="G27" s="19"/>
-      <c r="H27" s="111" t="s">
+      <c r="H27" s="109" t="s">
         <v>106</v>
       </c>
-      <c r="I27" s="111"/>
-      <c r="J27" s="111" t="s">
+      <c r="I27" s="109"/>
+      <c r="J27" s="109" t="s">
         <v>38</v>
       </c>
       <c r="K27" s="19"/>
@@ -5904,8 +6021,8 @@
       <c r="AB27" s="45">
         <v>1</v>
       </c>
-      <c r="AC27" s="59">
-        <f>VLOOKUP(Y27,$BI$7:$BL$8,4,FALSE)</f>
+      <c r="AC27" s="161">
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="AD27" s="44"/>
@@ -5938,8 +6055,14 @@
       <c r="BE27" s="2"/>
       <c r="BF27" s="2"/>
       <c r="BG27" s="9"/>
-    </row>
-    <row r="28" spans="1:59" ht="16" x14ac:dyDescent="0.3">
+      <c r="BI27" s="164">
+        <v>0.2</v>
+      </c>
+      <c r="BJ27" s="164">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:62" ht="16" x14ac:dyDescent="0.3">
       <c r="A28" s="18"/>
       <c r="B28" s="4"/>
       <c r="C28" s="19"/>
@@ -5947,11 +6070,11 @@
       <c r="E28" s="19"/>
       <c r="F28" s="19"/>
       <c r="G28" s="19"/>
-      <c r="H28" s="111" t="s">
+      <c r="H28" s="109" t="s">
         <v>100</v>
       </c>
-      <c r="I28" s="111"/>
-      <c r="J28" s="111" t="s">
+      <c r="I28" s="109"/>
+      <c r="J28" s="109" t="s">
         <v>39</v>
       </c>
       <c r="K28" s="19"/>
@@ -5982,8 +6105,8 @@
       <c r="AB28" s="47">
         <v>1</v>
       </c>
-      <c r="AC28" s="59">
-        <f t="shared" ref="AC28:AC40" si="5">VLOOKUP(Y28,$BI$7:$BL$8,4,FALSE)</f>
+      <c r="AC28" s="161">
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="AD28" s="44"/>
@@ -6016,8 +6139,14 @@
       <c r="BE28" s="2"/>
       <c r="BF28" s="2"/>
       <c r="BG28" s="9"/>
-    </row>
-    <row r="29" spans="1:59" ht="16" x14ac:dyDescent="0.3">
+      <c r="BI28" s="164">
+        <v>0.21</v>
+      </c>
+      <c r="BJ28" s="164">
+        <v>0.21</v>
+      </c>
+    </row>
+    <row r="29" spans="1:62" ht="16" x14ac:dyDescent="0.3">
       <c r="A29" s="18"/>
       <c r="B29" s="4"/>
       <c r="C29" s="19"/>
@@ -6025,11 +6154,11 @@
       <c r="E29" s="19"/>
       <c r="F29" s="19"/>
       <c r="G29" s="19"/>
-      <c r="H29" s="111" t="s">
+      <c r="H29" s="109" t="s">
         <v>101</v>
       </c>
-      <c r="I29" s="111"/>
-      <c r="J29" s="111" t="s">
+      <c r="I29" s="109"/>
+      <c r="J29" s="109" t="s">
         <v>40</v>
       </c>
       <c r="K29" s="19"/>
@@ -6060,8 +6189,8 @@
       <c r="AB29" s="47">
         <v>1</v>
       </c>
-      <c r="AC29" s="59">
-        <f t="shared" si="5"/>
+      <c r="AC29" s="161">
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="AD29" s="44"/>
@@ -6094,8 +6223,14 @@
       <c r="BE29" s="2"/>
       <c r="BF29" s="2"/>
       <c r="BG29" s="9"/>
-    </row>
-    <row r="30" spans="1:59" ht="16" x14ac:dyDescent="0.3">
+      <c r="BI29" s="164">
+        <v>0.22</v>
+      </c>
+      <c r="BJ29" s="164">
+        <v>0.22</v>
+      </c>
+    </row>
+    <row r="30" spans="1:62" ht="16" x14ac:dyDescent="0.3">
       <c r="A30" s="18"/>
       <c r="B30" s="4"/>
       <c r="C30" s="19"/>
@@ -6103,11 +6238,11 @@
       <c r="E30" s="19"/>
       <c r="F30" s="19"/>
       <c r="G30" s="19"/>
-      <c r="H30" s="111" t="s">
+      <c r="H30" s="109" t="s">
         <v>102</v>
       </c>
-      <c r="I30" s="111"/>
-      <c r="J30" s="111" t="s">
+      <c r="I30" s="109"/>
+      <c r="J30" s="109" t="s">
         <v>41</v>
       </c>
       <c r="K30" s="19"/>
@@ -6138,8 +6273,8 @@
       <c r="AB30" s="47">
         <v>1</v>
       </c>
-      <c r="AC30" s="59">
-        <f t="shared" si="5"/>
+      <c r="AC30" s="161">
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="AD30" s="44"/>
@@ -6172,8 +6307,14 @@
       <c r="BE30" s="2"/>
       <c r="BF30" s="2"/>
       <c r="BG30" s="9"/>
-    </row>
-    <row r="31" spans="1:59" ht="16" x14ac:dyDescent="0.3">
+      <c r="BI30" s="164">
+        <v>0.23</v>
+      </c>
+      <c r="BJ30" s="164">
+        <v>0.23</v>
+      </c>
+    </row>
+    <row r="31" spans="1:62" ht="16" x14ac:dyDescent="0.3">
       <c r="A31" s="18"/>
       <c r="B31" s="4"/>
       <c r="C31" s="19"/>
@@ -6181,11 +6322,11 @@
       <c r="E31" s="19"/>
       <c r="F31" s="19"/>
       <c r="G31" s="19"/>
-      <c r="H31" s="111" t="s">
+      <c r="H31" s="109" t="s">
         <v>97</v>
       </c>
-      <c r="I31" s="111"/>
-      <c r="J31" s="111" t="s">
+      <c r="I31" s="109"/>
+      <c r="J31" s="109" t="s">
         <v>42</v>
       </c>
       <c r="K31" s="19"/>
@@ -6216,8 +6357,8 @@
       <c r="AB31" s="47">
         <v>1</v>
       </c>
-      <c r="AC31" s="59">
-        <f t="shared" si="5"/>
+      <c r="AC31" s="161">
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="AD31" s="44"/>
@@ -6250,8 +6391,14 @@
       <c r="BE31" s="2"/>
       <c r="BF31" s="2"/>
       <c r="BG31" s="9"/>
-    </row>
-    <row r="32" spans="1:59" ht="16" x14ac:dyDescent="0.3">
+      <c r="BI31" s="164">
+        <v>0.24</v>
+      </c>
+      <c r="BJ31" s="164">
+        <v>0.24</v>
+      </c>
+    </row>
+    <row r="32" spans="1:62" ht="16" x14ac:dyDescent="0.3">
       <c r="A32" s="18"/>
       <c r="B32" s="4"/>
       <c r="C32" s="19"/>
@@ -6259,11 +6406,11 @@
       <c r="E32" s="19"/>
       <c r="F32" s="19"/>
       <c r="G32" s="19"/>
-      <c r="H32" s="111" t="s">
+      <c r="H32" s="109" t="s">
         <v>107</v>
       </c>
-      <c r="I32" s="111"/>
-      <c r="J32" s="111" t="s">
+      <c r="I32" s="109"/>
+      <c r="J32" s="109" t="s">
         <v>43</v>
       </c>
       <c r="K32" s="19"/>
@@ -6294,8 +6441,8 @@
       <c r="AB32" s="47">
         <v>1</v>
       </c>
-      <c r="AC32" s="59">
-        <f t="shared" si="5"/>
+      <c r="AC32" s="161">
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="AD32" s="44"/>
@@ -6328,8 +6475,14 @@
       <c r="BE32" s="2"/>
       <c r="BF32" s="2"/>
       <c r="BG32" s="9"/>
-    </row>
-    <row r="33" spans="1:59" ht="16" x14ac:dyDescent="0.3">
+      <c r="BI32" s="164">
+        <v>0.25</v>
+      </c>
+      <c r="BJ32" s="164">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="33" spans="1:62" ht="16" x14ac:dyDescent="0.3">
       <c r="A33" s="18"/>
       <c r="B33" s="4"/>
       <c r="C33" s="19"/>
@@ -6337,12 +6490,12 @@
       <c r="E33" s="19"/>
       <c r="F33" s="19"/>
       <c r="G33" s="19"/>
-      <c r="H33" s="111" t="s">
+      <c r="H33" s="109" t="s">
         <v>108</v>
       </c>
-      <c r="I33" s="111"/>
-      <c r="J33" s="111" t="s">
-        <v>154</v>
+      <c r="I33" s="109"/>
+      <c r="J33" s="109" t="s">
+        <v>153</v>
       </c>
       <c r="K33" s="19"/>
       <c r="L33" s="19"/>
@@ -6372,8 +6525,8 @@
       <c r="AB33" s="47">
         <v>1</v>
       </c>
-      <c r="AC33" s="59">
-        <f t="shared" si="5"/>
+      <c r="AC33" s="161">
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="AD33" s="44"/>
@@ -6406,8 +6559,14 @@
       <c r="BE33" s="2"/>
       <c r="BF33" s="2"/>
       <c r="BG33" s="9"/>
-    </row>
-    <row r="34" spans="1:59" ht="16" x14ac:dyDescent="0.3">
+      <c r="BI33" s="164">
+        <v>0.26</v>
+      </c>
+      <c r="BJ33" s="164">
+        <v>0.26</v>
+      </c>
+    </row>
+    <row r="34" spans="1:62" ht="16" x14ac:dyDescent="0.3">
       <c r="A34" s="18"/>
       <c r="B34" s="4"/>
       <c r="C34" s="19"/>
@@ -6415,12 +6574,12 @@
       <c r="E34" s="19"/>
       <c r="F34" s="19"/>
       <c r="G34" s="19"/>
-      <c r="H34" s="111" t="s">
+      <c r="H34" s="109" t="s">
         <v>109</v>
       </c>
-      <c r="I34" s="111"/>
-      <c r="J34" s="111" t="s">
-        <v>155</v>
+      <c r="I34" s="109"/>
+      <c r="J34" s="109" t="s">
+        <v>154</v>
       </c>
       <c r="K34" s="19"/>
       <c r="L34" s="19"/>
@@ -6450,8 +6609,8 @@
       <c r="AB34" s="47">
         <v>1</v>
       </c>
-      <c r="AC34" s="59">
-        <f t="shared" si="5"/>
+      <c r="AC34" s="161">
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="AD34" s="44"/>
@@ -6484,8 +6643,14 @@
       <c r="BE34" s="2"/>
       <c r="BF34" s="2"/>
       <c r="BG34" s="9"/>
-    </row>
-    <row r="35" spans="1:59" ht="16" x14ac:dyDescent="0.3">
+      <c r="BI34" s="164">
+        <v>0.27</v>
+      </c>
+      <c r="BJ34" s="164">
+        <v>0.27</v>
+      </c>
+    </row>
+    <row r="35" spans="1:62" ht="16" x14ac:dyDescent="0.3">
       <c r="A35" s="18"/>
       <c r="B35" s="4"/>
       <c r="C35" s="19"/>
@@ -6493,11 +6658,11 @@
       <c r="E35" s="19"/>
       <c r="F35" s="19"/>
       <c r="G35" s="19"/>
-      <c r="H35" s="111" t="s">
+      <c r="H35" s="109" t="s">
         <v>124</v>
       </c>
-      <c r="I35" s="111"/>
-      <c r="J35" s="111" t="s">
+      <c r="I35" s="109"/>
+      <c r="J35" s="109" t="s">
         <v>46</v>
       </c>
       <c r="K35" s="19"/>
@@ -6528,8 +6693,8 @@
       <c r="AB35" s="45">
         <v>1</v>
       </c>
-      <c r="AC35" s="59">
-        <f t="shared" si="5"/>
+      <c r="AC35" s="161">
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="AD35" s="44"/>
@@ -6562,8 +6727,14 @@
       <c r="BE35" s="2"/>
       <c r="BF35" s="2"/>
       <c r="BG35" s="9"/>
-    </row>
-    <row r="36" spans="1:59" ht="16" x14ac:dyDescent="0.3">
+      <c r="BI35" s="164">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="BJ35" s="164">
+        <v>0.28000000000000003</v>
+      </c>
+    </row>
+    <row r="36" spans="1:62" ht="16" x14ac:dyDescent="0.3">
       <c r="A36" s="18"/>
       <c r="B36" s="4"/>
       <c r="C36" s="19"/>
@@ -6571,11 +6742,11 @@
       <c r="E36" s="19"/>
       <c r="F36" s="19"/>
       <c r="G36" s="19"/>
-      <c r="H36" s="111" t="s">
+      <c r="H36" s="109" t="s">
         <v>110</v>
       </c>
-      <c r="I36" s="111"/>
-      <c r="J36" s="111" t="s">
+      <c r="I36" s="109"/>
+      <c r="J36" s="109" t="s">
         <v>47</v>
       </c>
       <c r="K36" s="19"/>
@@ -6606,8 +6777,8 @@
       <c r="AB36" s="45">
         <v>1</v>
       </c>
-      <c r="AC36" s="59">
-        <f t="shared" si="5"/>
+      <c r="AC36" s="161">
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="AD36" s="44"/>
@@ -6640,8 +6811,14 @@
       <c r="BE36" s="2"/>
       <c r="BF36" s="2"/>
       <c r="BG36" s="9"/>
-    </row>
-    <row r="37" spans="1:59" ht="16" x14ac:dyDescent="0.3">
+      <c r="BI36" s="164">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="BJ36" s="164">
+        <v>0.28999999999999998</v>
+      </c>
+    </row>
+    <row r="37" spans="1:62" ht="16" x14ac:dyDescent="0.3">
       <c r="A37" s="18"/>
       <c r="B37" s="4"/>
       <c r="C37" s="19"/>
@@ -6684,8 +6861,8 @@
       <c r="AB37" s="45">
         <v>3</v>
       </c>
-      <c r="AC37" s="59">
-        <f t="shared" si="5"/>
+      <c r="AC37" s="161">
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="AD37" s="44"/>
@@ -6718,8 +6895,14 @@
       <c r="BE37" s="2"/>
       <c r="BF37" s="2"/>
       <c r="BG37" s="9"/>
-    </row>
-    <row r="38" spans="1:59" ht="16" x14ac:dyDescent="0.3">
+      <c r="BI37" s="164">
+        <v>0.3</v>
+      </c>
+      <c r="BJ37" s="164">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="38" spans="1:62" ht="16" x14ac:dyDescent="0.3">
       <c r="A38" s="18"/>
       <c r="B38" s="4"/>
       <c r="C38" s="19"/>
@@ -6762,8 +6945,8 @@
       <c r="AB38" s="45">
         <v>3</v>
       </c>
-      <c r="AC38" s="59">
-        <f t="shared" si="5"/>
+      <c r="AC38" s="161">
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="AD38" s="44"/>
@@ -6796,8 +6979,14 @@
       <c r="BE38" s="2"/>
       <c r="BF38" s="2"/>
       <c r="BG38" s="9"/>
-    </row>
-    <row r="39" spans="1:59" ht="16" x14ac:dyDescent="0.3">
+      <c r="BI38" s="164">
+        <v>0.31</v>
+      </c>
+      <c r="BJ38" s="164">
+        <v>0.31</v>
+      </c>
+    </row>
+    <row r="39" spans="1:62" ht="16" x14ac:dyDescent="0.3">
       <c r="A39" s="18"/>
       <c r="B39" s="4"/>
       <c r="C39" s="19"/>
@@ -6840,8 +7029,8 @@
       <c r="AB39" s="45">
         <v>3</v>
       </c>
-      <c r="AC39" s="59">
-        <f t="shared" si="5"/>
+      <c r="AC39" s="161">
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="AD39" s="44"/>
@@ -6874,8 +7063,14 @@
       <c r="BE39" s="2"/>
       <c r="BF39" s="2"/>
       <c r="BG39" s="9"/>
-    </row>
-    <row r="40" spans="1:59" ht="16" x14ac:dyDescent="0.3">
+      <c r="BI39" s="164">
+        <v>0.32</v>
+      </c>
+      <c r="BJ39" s="164">
+        <v>0.32</v>
+      </c>
+    </row>
+    <row r="40" spans="1:62" ht="16" x14ac:dyDescent="0.3">
       <c r="A40" s="18"/>
       <c r="B40" s="4"/>
       <c r="C40" s="19"/>
@@ -6918,8 +7113,8 @@
       <c r="AB40" s="45">
         <v>3</v>
       </c>
-      <c r="AC40" s="59">
-        <f t="shared" si="5"/>
+      <c r="AC40" s="161">
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="AD40" s="44"/>
@@ -6952,8 +7147,14 @@
       <c r="BE40" s="2"/>
       <c r="BF40" s="2"/>
       <c r="BG40" s="9"/>
-    </row>
-    <row r="41" spans="1:59" ht="16" x14ac:dyDescent="0.3">
+      <c r="BI40" s="164">
+        <v>0.33</v>
+      </c>
+      <c r="BJ40" s="164">
+        <v>0.33</v>
+      </c>
+    </row>
+    <row r="41" spans="1:62" ht="16" x14ac:dyDescent="0.3">
       <c r="A41" s="18"/>
       <c r="B41" s="4"/>
       <c r="C41" s="19"/>
@@ -6996,7 +7197,8 @@
       <c r="AB41" s="45">
         <v>3</v>
       </c>
-      <c r="AC41" s="59">
+      <c r="AC41" s="161">
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="AD41" s="44"/>
@@ -7029,8 +7231,14 @@
       <c r="BE41" s="2"/>
       <c r="BF41" s="2"/>
       <c r="BG41" s="9"/>
-    </row>
-    <row r="42" spans="1:59" ht="16" x14ac:dyDescent="0.3">
+      <c r="BI41" s="164">
+        <v>0.34</v>
+      </c>
+      <c r="BJ41" s="164">
+        <v>0.34</v>
+      </c>
+    </row>
+    <row r="42" spans="1:62" ht="16" x14ac:dyDescent="0.3">
       <c r="A42" s="18"/>
       <c r="B42" s="4"/>
       <c r="C42" s="19"/>
@@ -7073,8 +7281,8 @@
       <c r="AB42" s="45">
         <v>3</v>
       </c>
-      <c r="AC42" s="59">
-        <f>VLOOKUP(Y42,$BI$7:$BL$8,4,FALSE)</f>
+      <c r="AC42" s="161">
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="AD42" s="44"/>
@@ -7107,8 +7315,14 @@
       <c r="BE42" s="2"/>
       <c r="BF42" s="2"/>
       <c r="BG42" s="9"/>
-    </row>
-    <row r="43" spans="1:59" ht="16" x14ac:dyDescent="0.3">
+      <c r="BI42" s="164">
+        <v>0.35</v>
+      </c>
+      <c r="BJ42" s="164">
+        <v>0.35</v>
+      </c>
+    </row>
+    <row r="43" spans="1:62" ht="16" x14ac:dyDescent="0.3">
       <c r="A43" s="18"/>
       <c r="B43" s="4"/>
       <c r="C43" s="19"/>
@@ -7151,8 +7365,8 @@
       <c r="AB43" s="45">
         <v>3</v>
       </c>
-      <c r="AC43" s="59">
-        <f>VLOOKUP(Y43,$BI$7:$BL$8,4,FALSE)</f>
+      <c r="AC43" s="161">
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="AD43" s="44"/>
@@ -7185,8 +7399,14 @@
       <c r="BE43" s="2"/>
       <c r="BF43" s="2"/>
       <c r="BG43" s="9"/>
-    </row>
-    <row r="44" spans="1:59" ht="16" x14ac:dyDescent="0.3">
+      <c r="BI43" s="164">
+        <v>0.36</v>
+      </c>
+      <c r="BJ43" s="164">
+        <v>0.36</v>
+      </c>
+    </row>
+    <row r="44" spans="1:62" ht="16" x14ac:dyDescent="0.3">
       <c r="A44" s="18"/>
       <c r="B44" s="4"/>
       <c r="C44" s="19"/>
@@ -7229,8 +7449,8 @@
       <c r="AB44" s="45">
         <v>3</v>
       </c>
-      <c r="AC44" s="59">
-        <f>VLOOKUP(Y44,$BI$7:$BL$8,4,FALSE)</f>
+      <c r="AC44" s="161">
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="AD44" s="44"/>
@@ -7263,8 +7483,14 @@
       <c r="BE44" s="2"/>
       <c r="BF44" s="2"/>
       <c r="BG44" s="9"/>
-    </row>
-    <row r="45" spans="1:59" ht="16" x14ac:dyDescent="0.3">
+      <c r="BI44" s="164">
+        <v>0.37</v>
+      </c>
+      <c r="BJ44" s="164">
+        <v>0.37</v>
+      </c>
+    </row>
+    <row r="45" spans="1:62" ht="16" x14ac:dyDescent="0.3">
       <c r="A45" s="18"/>
       <c r="B45" s="4"/>
       <c r="C45" s="19"/>
@@ -7307,8 +7533,8 @@
       <c r="AB45" s="45">
         <v>3</v>
       </c>
-      <c r="AC45" s="59">
-        <f>VLOOKUP(Y45,$BI$7:$BL$8,4,FALSE)</f>
+      <c r="AC45" s="161">
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="AD45" s="44"/>
@@ -7341,8 +7567,14 @@
       <c r="BE45" s="2"/>
       <c r="BF45" s="2"/>
       <c r="BG45" s="9"/>
-    </row>
-    <row r="46" spans="1:59" ht="16" x14ac:dyDescent="0.3">
+      <c r="BI45" s="164">
+        <v>0.38</v>
+      </c>
+      <c r="BJ45" s="164">
+        <v>0.38</v>
+      </c>
+    </row>
+    <row r="46" spans="1:62" ht="16" x14ac:dyDescent="0.3">
       <c r="A46" s="18"/>
       <c r="B46" s="4"/>
       <c r="C46" s="19" t="s">
@@ -7387,7 +7619,8 @@
       <c r="AB46" s="45">
         <v>6</v>
       </c>
-      <c r="AC46" s="59">
+      <c r="AC46" s="161">
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="AD46" s="44"/>
@@ -7420,8 +7653,14 @@
       <c r="BE46" s="2"/>
       <c r="BF46" s="2"/>
       <c r="BG46" s="9"/>
-    </row>
-    <row r="47" spans="1:59" ht="16" x14ac:dyDescent="0.3">
+      <c r="BI46" s="164">
+        <v>0.39</v>
+      </c>
+      <c r="BJ46" s="164">
+        <v>0.39</v>
+      </c>
+    </row>
+    <row r="47" spans="1:62" ht="16" x14ac:dyDescent="0.3">
       <c r="A47" s="18"/>
       <c r="B47" s="4"/>
       <c r="C47" s="19" t="s">
@@ -7466,7 +7705,8 @@
       <c r="AB47" s="45">
         <v>6</v>
       </c>
-      <c r="AC47" s="59">
+      <c r="AC47" s="161">
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="AD47" s="44"/>
@@ -7499,8 +7739,14 @@
       <c r="BE47" s="2"/>
       <c r="BF47" s="2"/>
       <c r="BG47" s="9"/>
-    </row>
-    <row r="48" spans="1:59" ht="16" x14ac:dyDescent="0.3">
+      <c r="BI47" s="164">
+        <v>0.4</v>
+      </c>
+      <c r="BJ47" s="164">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="48" spans="1:62" ht="16" x14ac:dyDescent="0.3">
       <c r="A48" s="18"/>
       <c r="B48" s="4"/>
       <c r="C48" s="19"/>
@@ -7543,8 +7789,8 @@
       <c r="AB48" s="45">
         <v>4</v>
       </c>
-      <c r="AC48" s="59">
-        <f>VLOOKUP(Y48,$BI$7:$BL$8,4,FALSE)</f>
+      <c r="AC48" s="161">
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="AD48" s="44"/>
@@ -7577,8 +7823,14 @@
       <c r="BE48" s="2"/>
       <c r="BF48" s="2"/>
       <c r="BG48" s="9"/>
-    </row>
-    <row r="49" spans="1:59" ht="16" x14ac:dyDescent="0.3">
+      <c r="BI48" s="164">
+        <v>0.41</v>
+      </c>
+      <c r="BJ48" s="164">
+        <v>0.41</v>
+      </c>
+    </row>
+    <row r="49" spans="1:62" ht="16" x14ac:dyDescent="0.3">
       <c r="A49" s="18"/>
       <c r="B49" s="4"/>
       <c r="C49" s="19"/>
@@ -7621,8 +7873,8 @@
       <c r="AB49" s="45">
         <v>7</v>
       </c>
-      <c r="AC49" s="59">
-        <f>VLOOKUP(Y49,$BI$7:$BL$8,4,FALSE)</f>
+      <c r="AC49" s="161">
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="AD49" s="44"/>
@@ -7655,8 +7907,14 @@
       <c r="BE49" s="2"/>
       <c r="BF49" s="2"/>
       <c r="BG49" s="9"/>
-    </row>
-    <row r="50" spans="1:59" ht="16" x14ac:dyDescent="0.3">
+      <c r="BI49" s="164">
+        <v>0.42</v>
+      </c>
+      <c r="BJ49" s="164">
+        <v>0.42</v>
+      </c>
+    </row>
+    <row r="50" spans="1:62" ht="16" x14ac:dyDescent="0.3">
       <c r="A50" s="18"/>
       <c r="B50" s="4"/>
       <c r="C50" s="19"/>
@@ -7699,7 +7957,8 @@
       <c r="AB50" s="45">
         <v>7</v>
       </c>
-      <c r="AC50" s="40">
+      <c r="AC50" s="161">
+        <f t="shared" si="4"/>
         <v>0.8</v>
       </c>
       <c r="AD50" s="44"/>
@@ -7732,8 +7991,14 @@
       <c r="BE50" s="2"/>
       <c r="BF50" s="2"/>
       <c r="BG50" s="9"/>
-    </row>
-    <row r="51" spans="1:59" ht="16" x14ac:dyDescent="0.3">
+      <c r="BI50" s="164">
+        <v>0.43</v>
+      </c>
+      <c r="BJ50" s="164">
+        <v>0.43</v>
+      </c>
+    </row>
+    <row r="51" spans="1:62" ht="16" x14ac:dyDescent="0.3">
       <c r="A51" s="18"/>
       <c r="B51" s="4"/>
       <c r="C51" s="19"/>
@@ -7776,7 +8041,8 @@
       <c r="AB51" s="45">
         <v>7</v>
       </c>
-      <c r="AC51" s="25">
+      <c r="AC51" s="161">
+        <f t="shared" si="4"/>
         <v>0.8</v>
       </c>
       <c r="AD51" s="44"/>
@@ -7809,8 +8075,14 @@
       <c r="BE51" s="2"/>
       <c r="BF51" s="2"/>
       <c r="BG51" s="9"/>
-    </row>
-    <row r="52" spans="1:59" ht="16" x14ac:dyDescent="0.3">
+      <c r="BI51" s="164">
+        <v>0.44</v>
+      </c>
+      <c r="BJ51" s="164">
+        <v>0.44</v>
+      </c>
+    </row>
+    <row r="52" spans="1:62" ht="16" x14ac:dyDescent="0.3">
       <c r="A52" s="18"/>
       <c r="B52" s="4"/>
       <c r="C52" s="19"/>
@@ -7853,7 +8125,8 @@
       <c r="AB52" s="45">
         <v>10</v>
       </c>
-      <c r="AC52" s="25">
+      <c r="AC52" s="161">
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="AD52" s="44"/>
@@ -7886,8 +8159,14 @@
       <c r="BE52" s="2"/>
       <c r="BF52" s="2"/>
       <c r="BG52" s="9"/>
-    </row>
-    <row r="53" spans="1:59" ht="16" x14ac:dyDescent="0.3">
+      <c r="BI52" s="164">
+        <v>0.45</v>
+      </c>
+      <c r="BJ52" s="164">
+        <v>0.45</v>
+      </c>
+    </row>
+    <row r="53" spans="1:62" ht="16" x14ac:dyDescent="0.3">
       <c r="A53" s="18"/>
       <c r="B53" s="4"/>
       <c r="C53" s="19"/>
@@ -7930,8 +8209,8 @@
       <c r="AB53" s="45">
         <v>7</v>
       </c>
-      <c r="AC53" s="59">
-        <f>VLOOKUP(Y53,$BI$7:$BL$8,4,FALSE)</f>
+      <c r="AC53" s="161">
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="AD53" s="44"/>
@@ -7964,8 +8243,14 @@
       <c r="BE53" s="2"/>
       <c r="BF53" s="2"/>
       <c r="BG53" s="9"/>
-    </row>
-    <row r="54" spans="1:59" ht="16" x14ac:dyDescent="0.3">
+      <c r="BI53" s="164">
+        <v>0.46</v>
+      </c>
+      <c r="BJ53" s="164">
+        <v>0.46</v>
+      </c>
+    </row>
+    <row r="54" spans="1:62" ht="16" x14ac:dyDescent="0.3">
       <c r="A54" s="18"/>
       <c r="B54" s="4"/>
       <c r="C54" s="19"/>
@@ -7974,7 +8259,7 @@
       <c r="F54" s="19"/>
       <c r="G54" s="19"/>
       <c r="H54" s="23" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="I54" s="23"/>
       <c r="J54" s="23" t="s">
@@ -8008,7 +8293,8 @@
       <c r="AB54" s="45">
         <v>10</v>
       </c>
-      <c r="AC54" s="25">
+      <c r="AC54" s="161">
+        <f t="shared" si="4"/>
         <v>0.8</v>
       </c>
       <c r="AD54" s="44"/>
@@ -8041,8 +8327,14 @@
       <c r="BE54" s="2"/>
       <c r="BF54" s="2"/>
       <c r="BG54" s="9"/>
-    </row>
-    <row r="55" spans="1:59" ht="16" x14ac:dyDescent="0.3">
+      <c r="BI54" s="164">
+        <v>0.47</v>
+      </c>
+      <c r="BJ54" s="164">
+        <v>0.47</v>
+      </c>
+    </row>
+    <row r="55" spans="1:62" ht="16" x14ac:dyDescent="0.3">
       <c r="A55" s="18"/>
       <c r="B55" s="4"/>
       <c r="C55" s="19"/>
@@ -8085,7 +8377,8 @@
       <c r="AB55" s="45">
         <v>10</v>
       </c>
-      <c r="AC55" s="25">
+      <c r="AC55" s="161">
+        <f t="shared" si="4"/>
         <v>0.7</v>
       </c>
       <c r="AD55" s="44"/>
@@ -8118,8 +8411,14 @@
       <c r="BE55" s="2"/>
       <c r="BF55" s="2"/>
       <c r="BG55" s="9"/>
-    </row>
-    <row r="56" spans="1:59" ht="16" x14ac:dyDescent="0.3">
+      <c r="BI55" s="164">
+        <v>0.48</v>
+      </c>
+      <c r="BJ55" s="164">
+        <v>0.48</v>
+      </c>
+    </row>
+    <row r="56" spans="1:62" ht="16" x14ac:dyDescent="0.3">
       <c r="A56" s="18"/>
       <c r="B56" s="4"/>
       <c r="C56" s="19"/>
@@ -8162,8 +8461,8 @@
       <c r="AB56" s="45">
         <v>7</v>
       </c>
-      <c r="AC56" s="59">
-        <f>VLOOKUP(Y56,$BI$7:$BL$8,4,FALSE)</f>
+      <c r="AC56" s="161">
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="AD56" s="44"/>
@@ -8196,8 +8495,14 @@
       <c r="BE56" s="2"/>
       <c r="BF56" s="2"/>
       <c r="BG56" s="9"/>
-    </row>
-    <row r="57" spans="1:59" ht="16" x14ac:dyDescent="0.3">
+      <c r="BI56" s="164">
+        <v>0.49</v>
+      </c>
+      <c r="BJ56" s="164">
+        <v>0.49</v>
+      </c>
+    </row>
+    <row r="57" spans="1:62" ht="16" x14ac:dyDescent="0.3">
       <c r="A57" s="18"/>
       <c r="B57" s="4"/>
       <c r="C57" s="19"/>
@@ -8237,10 +8542,11 @@
       </c>
       <c r="Z57" s="4"/>
       <c r="AA57" s="43"/>
-      <c r="AB57" s="163">
+      <c r="AB57" s="45">
         <v>7</v>
       </c>
-      <c r="AC57" s="25">
+      <c r="AC57" s="161">
+        <f t="shared" si="4"/>
         <v>0.9</v>
       </c>
       <c r="AD57" s="44"/>
@@ -8273,8 +8579,14 @@
       <c r="BE57" s="2"/>
       <c r="BF57" s="2"/>
       <c r="BG57" s="9"/>
-    </row>
-    <row r="58" spans="1:59" ht="16" x14ac:dyDescent="0.3">
+      <c r="BI57" s="164">
+        <v>0.5</v>
+      </c>
+      <c r="BJ57" s="164">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="58" spans="1:62" ht="16" x14ac:dyDescent="0.3">
       <c r="A58" s="18"/>
       <c r="B58" s="4"/>
       <c r="C58" s="30" t="s">
@@ -8319,8 +8631,8 @@
       <c r="AB58" s="45">
         <v>7</v>
       </c>
-      <c r="AC58" s="59">
-        <f>VLOOKUP(Y58,$BI$7:$BL$8,4,FALSE)</f>
+      <c r="AC58" s="161">
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="AD58" s="44"/>
@@ -8353,8 +8665,14 @@
       <c r="BE58" s="2"/>
       <c r="BF58" s="2"/>
       <c r="BG58" s="9"/>
-    </row>
-    <row r="59" spans="1:59" ht="16" x14ac:dyDescent="0.3">
+      <c r="BI58" s="164">
+        <v>0.51</v>
+      </c>
+      <c r="BJ58" s="164">
+        <v>0.51</v>
+      </c>
+    </row>
+    <row r="59" spans="1:62" ht="16" x14ac:dyDescent="0.3">
       <c r="A59" s="18"/>
       <c r="B59" s="4"/>
       <c r="C59" s="19"/>
@@ -8397,8 +8715,9 @@
       <c r="AB59" s="45">
         <v>4</v>
       </c>
-      <c r="AC59" s="59">
-        <v>0.5</v>
+      <c r="AC59" s="161">
+        <f t="shared" si="4"/>
+        <v>0.9</v>
       </c>
       <c r="AD59" s="44"/>
       <c r="AE59" s="2"/>
@@ -8430,8 +8749,14 @@
       <c r="BE59" s="2"/>
       <c r="BF59" s="2"/>
       <c r="BG59" s="9"/>
-    </row>
-    <row r="60" spans="1:59" ht="16" x14ac:dyDescent="0.3">
+      <c r="BI59" s="164">
+        <v>0.52</v>
+      </c>
+      <c r="BJ59" s="164">
+        <v>0.52</v>
+      </c>
+    </row>
+    <row r="60" spans="1:62" ht="16" x14ac:dyDescent="0.3">
       <c r="A60" s="18"/>
       <c r="B60" s="4"/>
       <c r="C60" s="19"/>
@@ -8474,7 +8799,8 @@
       <c r="AB60" s="45">
         <v>8</v>
       </c>
-      <c r="AC60" s="25">
+      <c r="AC60" s="161">
+        <f t="shared" si="4"/>
         <v>0.7</v>
       </c>
       <c r="AD60" s="44"/>
@@ -8507,8 +8833,14 @@
       <c r="BE60" s="2"/>
       <c r="BF60" s="2"/>
       <c r="BG60" s="9"/>
-    </row>
-    <row r="61" spans="1:59" ht="16" x14ac:dyDescent="0.3">
+      <c r="BI60" s="164">
+        <v>0.53</v>
+      </c>
+      <c r="BJ60" s="164">
+        <v>0.53</v>
+      </c>
+    </row>
+    <row r="61" spans="1:62" ht="16" x14ac:dyDescent="0.3">
       <c r="A61" s="18"/>
       <c r="B61" s="4"/>
       <c r="C61" s="19"/>
@@ -8551,8 +8883,8 @@
       <c r="AB61" s="45">
         <v>6</v>
       </c>
-      <c r="AC61" s="59">
-        <f>VLOOKUP(Y61,$BI$7:$BL$8,4,FALSE)</f>
+      <c r="AC61" s="161">
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="AD61" s="44"/>
@@ -8585,8 +8917,14 @@
       <c r="BE61" s="2"/>
       <c r="BF61" s="2"/>
       <c r="BG61" s="9"/>
-    </row>
-    <row r="62" spans="1:59" ht="16" x14ac:dyDescent="0.3">
+      <c r="BI61" s="164">
+        <v>0.54</v>
+      </c>
+      <c r="BJ61" s="164">
+        <v>0.54</v>
+      </c>
+    </row>
+    <row r="62" spans="1:62" ht="16" x14ac:dyDescent="0.3">
       <c r="A62" s="18"/>
       <c r="B62" s="4"/>
       <c r="C62" s="19"/>
@@ -8629,8 +8967,8 @@
       <c r="AB62" s="45">
         <v>6</v>
       </c>
-      <c r="AC62" s="59">
-        <f>VLOOKUP(Y62,$BI$7:$BL$8,4,FALSE)</f>
+      <c r="AC62" s="161">
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="AD62" s="44"/>
@@ -8663,8 +9001,14 @@
       <c r="BE62" s="2"/>
       <c r="BF62" s="2"/>
       <c r="BG62" s="9"/>
-    </row>
-    <row r="63" spans="1:59" ht="16" x14ac:dyDescent="0.3">
+      <c r="BI62" s="164">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="BJ62" s="164">
+        <v>0.55000000000000004</v>
+      </c>
+    </row>
+    <row r="63" spans="1:62" ht="16" x14ac:dyDescent="0.3">
       <c r="A63" s="18"/>
       <c r="B63" s="4"/>
       <c r="C63" s="19"/>
@@ -8672,7 +9016,7 @@
       <c r="E63" s="19"/>
       <c r="F63" s="19"/>
       <c r="G63" s="19"/>
-      <c r="H63" s="74" t="s">
+      <c r="H63" s="73" t="s">
         <v>92</v>
       </c>
       <c r="I63" s="23"/>
@@ -8707,7 +9051,8 @@
       <c r="AB63" s="45">
         <v>8</v>
       </c>
-      <c r="AC63" s="25">
+      <c r="AC63" s="161">
+        <f t="shared" si="4"/>
         <v>0.8</v>
       </c>
       <c r="AD63" s="44"/>
@@ -8740,8 +9085,14 @@
       <c r="BE63" s="2"/>
       <c r="BF63" s="2"/>
       <c r="BG63" s="9"/>
-    </row>
-    <row r="64" spans="1:59" ht="16" x14ac:dyDescent="0.3">
+      <c r="BI63" s="164">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="BJ63" s="164">
+        <v>0.56000000000000005</v>
+      </c>
+    </row>
+    <row r="64" spans="1:62" ht="16" x14ac:dyDescent="0.3">
       <c r="A64" s="18"/>
       <c r="B64" s="4"/>
       <c r="C64" s="19"/>
@@ -8749,7 +9100,7 @@
       <c r="E64" s="19"/>
       <c r="F64" s="19"/>
       <c r="G64" s="27"/>
-      <c r="H64" s="70" t="s">
+      <c r="H64" s="69" t="s">
         <v>93</v>
       </c>
       <c r="I64" s="29"/>
@@ -8784,7 +9135,8 @@
       <c r="AB64" s="45">
         <v>7</v>
       </c>
-      <c r="AC64" s="40">
+      <c r="AC64" s="161">
+        <f t="shared" si="4"/>
         <v>0.7</v>
       </c>
       <c r="AD64" s="44"/>
@@ -8817,16 +9169,22 @@
       <c r="BE64" s="2"/>
       <c r="BF64" s="2"/>
       <c r="BG64" s="9"/>
-    </row>
-    <row r="65" spans="1:59" ht="16" x14ac:dyDescent="0.3">
-      <c r="A65" s="135"/>
-      <c r="B65" s="133"/>
-      <c r="C65" s="157"/>
-      <c r="D65" s="157"/>
-      <c r="E65" s="157"/>
-      <c r="F65" s="157"/>
-      <c r="G65" s="158"/>
-      <c r="H65" s="70" t="s">
+      <c r="BI64" s="164">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="BJ64" s="164">
+        <v>0.56999999999999995</v>
+      </c>
+    </row>
+    <row r="65" spans="1:62" ht="16" x14ac:dyDescent="0.3">
+      <c r="A65" s="112"/>
+      <c r="B65" s="110"/>
+      <c r="C65" s="113"/>
+      <c r="D65" s="113"/>
+      <c r="E65" s="113"/>
+      <c r="F65" s="113"/>
+      <c r="G65" s="114"/>
+      <c r="H65" s="69" t="s">
         <v>130</v>
       </c>
       <c r="I65" s="44"/>
@@ -8838,31 +9196,31 @@
       <c r="M65" s="2"/>
       <c r="N65" s="2"/>
       <c r="O65" s="2"/>
-      <c r="P65" s="160" t="s">
+      <c r="P65" s="115" t="s">
         <v>11</v>
       </c>
-      <c r="Q65" s="160"/>
-      <c r="R65" s="160"/>
-      <c r="S65" s="139">
+      <c r="Q65" s="115"/>
+      <c r="R65" s="115"/>
+      <c r="S65" s="116">
         <v>45092</v>
       </c>
-      <c r="T65" s="139"/>
-      <c r="U65" s="139"/>
-      <c r="V65" s="139">
+      <c r="T65" s="116"/>
+      <c r="U65" s="116"/>
+      <c r="V65" s="116">
         <v>45100</v>
       </c>
-      <c r="W65" s="139"/>
-      <c r="X65" s="139"/>
-      <c r="Y65" s="133" t="s">
+      <c r="W65" s="116"/>
+      <c r="X65" s="116"/>
+      <c r="Y65" s="110" t="s">
         <v>118</v>
       </c>
-      <c r="Z65" s="133"/>
-      <c r="AA65" s="134"/>
+      <c r="Z65" s="110"/>
+      <c r="AA65" s="111"/>
       <c r="AB65" s="45">
         <v>7</v>
       </c>
-      <c r="AC65" s="59">
-        <f t="shared" ref="AC64:AC68" si="6">VLOOKUP(Y65,$BI$7:$BL$8,4,FALSE)</f>
+      <c r="AC65" s="161">
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="AD65" s="44"/>
@@ -8895,16 +9253,22 @@
       <c r="BE65" s="2"/>
       <c r="BF65" s="2"/>
       <c r="BG65" s="9"/>
-    </row>
-    <row r="66" spans="1:59" ht="16" x14ac:dyDescent="0.3">
-      <c r="A66" s="135"/>
-      <c r="B66" s="133"/>
-      <c r="C66" s="157"/>
-      <c r="D66" s="157"/>
-      <c r="E66" s="157"/>
-      <c r="F66" s="157"/>
-      <c r="G66" s="158"/>
-      <c r="H66" s="70" t="s">
+      <c r="BI65" s="164">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="BJ65" s="164">
+        <v>0.57999999999999996</v>
+      </c>
+    </row>
+    <row r="66" spans="1:62" ht="16" x14ac:dyDescent="0.3">
+      <c r="A66" s="112"/>
+      <c r="B66" s="110"/>
+      <c r="C66" s="113"/>
+      <c r="D66" s="113"/>
+      <c r="E66" s="113"/>
+      <c r="F66" s="113"/>
+      <c r="G66" s="114"/>
+      <c r="H66" s="69" t="s">
         <v>129</v>
       </c>
       <c r="I66" s="44"/>
@@ -8916,21 +9280,21 @@
       <c r="M66" s="2"/>
       <c r="N66" s="2"/>
       <c r="O66" s="2"/>
-      <c r="P66" s="160" t="s">
+      <c r="P66" s="115" t="s">
         <v>11</v>
       </c>
-      <c r="Q66" s="160"/>
-      <c r="R66" s="160"/>
-      <c r="S66" s="139">
+      <c r="Q66" s="115"/>
+      <c r="R66" s="115"/>
+      <c r="S66" s="116">
         <v>45092</v>
       </c>
-      <c r="T66" s="139"/>
-      <c r="U66" s="139"/>
-      <c r="V66" s="139">
+      <c r="T66" s="116"/>
+      <c r="U66" s="116"/>
+      <c r="V66" s="116">
         <v>45100</v>
       </c>
-      <c r="W66" s="139"/>
-      <c r="X66" s="139"/>
+      <c r="W66" s="116"/>
+      <c r="X66" s="116"/>
       <c r="Y66" s="55" t="s">
         <v>118</v>
       </c>
@@ -8943,8 +9307,8 @@
       <c r="AB66" s="45">
         <v>7</v>
       </c>
-      <c r="AC66" s="59">
-        <f t="shared" si="6"/>
+      <c r="AC66" s="161">
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="AD66" s="44"/>
@@ -8977,16 +9341,22 @@
       <c r="BE66" s="2"/>
       <c r="BF66" s="2"/>
       <c r="BG66" s="9"/>
-    </row>
-    <row r="67" spans="1:59" ht="16" x14ac:dyDescent="0.3">
-      <c r="A67" s="135"/>
-      <c r="B67" s="133"/>
-      <c r="C67" s="157"/>
-      <c r="D67" s="157"/>
-      <c r="E67" s="157"/>
-      <c r="F67" s="157"/>
-      <c r="G67" s="158"/>
-      <c r="H67" s="70" t="s">
+      <c r="BI66" s="164">
+        <v>0.59</v>
+      </c>
+      <c r="BJ66" s="164">
+        <v>0.59</v>
+      </c>
+    </row>
+    <row r="67" spans="1:62" ht="16" x14ac:dyDescent="0.3">
+      <c r="A67" s="112"/>
+      <c r="B67" s="110"/>
+      <c r="C67" s="113"/>
+      <c r="D67" s="113"/>
+      <c r="E67" s="113"/>
+      <c r="F67" s="113"/>
+      <c r="G67" s="114"/>
+      <c r="H67" s="69" t="s">
         <v>126</v>
       </c>
       <c r="I67" s="44"/>
@@ -8998,21 +9368,21 @@
       <c r="M67" s="2"/>
       <c r="N67" s="2"/>
       <c r="O67" s="2"/>
-      <c r="P67" s="159" t="s">
+      <c r="P67" s="118" t="s">
         <v>19</v>
       </c>
-      <c r="Q67" s="159"/>
-      <c r="R67" s="159"/>
-      <c r="S67" s="139">
+      <c r="Q67" s="118"/>
+      <c r="R67" s="118"/>
+      <c r="S67" s="116">
         <v>45096</v>
       </c>
-      <c r="T67" s="139"/>
-      <c r="U67" s="139"/>
-      <c r="V67" s="139">
+      <c r="T67" s="116"/>
+      <c r="U67" s="116"/>
+      <c r="V67" s="116">
         <v>45100</v>
       </c>
-      <c r="W67" s="139"/>
-      <c r="X67" s="139"/>
+      <c r="W67" s="116"/>
+      <c r="X67" s="116"/>
       <c r="Y67" s="55" t="s">
         <v>118</v>
       </c>
@@ -9025,8 +9395,8 @@
       <c r="AB67" s="45">
         <v>5</v>
       </c>
-      <c r="AC67" s="59">
-        <f t="shared" si="6"/>
+      <c r="AC67" s="161">
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="AD67" s="44"/>
@@ -9059,54 +9429,60 @@
       <c r="BE67" s="2"/>
       <c r="BF67" s="2"/>
       <c r="BG67" s="9"/>
-    </row>
-    <row r="68" spans="1:59" ht="16" x14ac:dyDescent="0.3">
-      <c r="A68" s="135"/>
-      <c r="B68" s="133"/>
-      <c r="C68" s="136" t="s">
+      <c r="BI67" s="164">
+        <v>0.6</v>
+      </c>
+      <c r="BJ67" s="164">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="68" spans="1:62" ht="16" x14ac:dyDescent="0.3">
+      <c r="A68" s="112"/>
+      <c r="B68" s="110"/>
+      <c r="C68" s="155" t="s">
         <v>83</v>
       </c>
-      <c r="D68" s="136"/>
-      <c r="E68" s="136"/>
-      <c r="F68" s="136"/>
-      <c r="G68" s="137"/>
-      <c r="H68" s="70" t="s">
+      <c r="D68" s="155"/>
+      <c r="E68" s="155"/>
+      <c r="F68" s="155"/>
+      <c r="G68" s="156"/>
+      <c r="H68" s="69" t="s">
         <v>115</v>
       </c>
-      <c r="I68" s="73"/>
-      <c r="J68" s="72" t="s">
+      <c r="I68" s="72"/>
+      <c r="J68" s="71" t="s">
         <v>85</v>
       </c>
-      <c r="K68" s="72"/>
-      <c r="L68" s="72"/>
-      <c r="M68" s="72"/>
-      <c r="N68" s="72"/>
-      <c r="O68" s="72"/>
-      <c r="P68" s="140" t="s">
+      <c r="K68" s="71"/>
+      <c r="L68" s="71"/>
+      <c r="M68" s="71"/>
+      <c r="N68" s="71"/>
+      <c r="O68" s="71"/>
+      <c r="P68" s="158" t="s">
         <v>30</v>
       </c>
-      <c r="Q68" s="140"/>
-      <c r="R68" s="140"/>
-      <c r="S68" s="139">
+      <c r="Q68" s="158"/>
+      <c r="R68" s="158"/>
+      <c r="S68" s="116">
         <v>45091</v>
       </c>
-      <c r="T68" s="139"/>
-      <c r="U68" s="139"/>
-      <c r="V68" s="139">
+      <c r="T68" s="116"/>
+      <c r="U68" s="116"/>
+      <c r="V68" s="116">
         <v>45100</v>
       </c>
-      <c r="W68" s="139"/>
-      <c r="X68" s="139"/>
-      <c r="Y68" s="132" t="s">
+      <c r="W68" s="116"/>
+      <c r="X68" s="116"/>
+      <c r="Y68" s="117" t="s">
         <v>118</v>
       </c>
-      <c r="Z68" s="133"/>
-      <c r="AA68" s="134"/>
+      <c r="Z68" s="110"/>
+      <c r="AA68" s="111"/>
       <c r="AB68" s="45">
         <v>8</v>
       </c>
-      <c r="AC68" s="59">
-        <f t="shared" si="6"/>
+      <c r="AC68" s="161">
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="AD68" s="44"/>
@@ -9139,57 +9515,64 @@
       <c r="BE68" s="2"/>
       <c r="BF68" s="2"/>
       <c r="BG68" s="9"/>
-    </row>
-    <row r="69" spans="1:59" ht="16" x14ac:dyDescent="0.3">
-      <c r="A69" s="135"/>
-      <c r="B69" s="133"/>
-      <c r="C69" s="136" t="s">
+      <c r="BI68" s="164">
+        <v>0.61</v>
+      </c>
+      <c r="BJ68" s="164">
+        <v>0.61</v>
+      </c>
+    </row>
+    <row r="69" spans="1:62" ht="16" x14ac:dyDescent="0.3">
+      <c r="A69" s="112"/>
+      <c r="B69" s="110"/>
+      <c r="C69" s="155" t="s">
         <v>83</v>
       </c>
-      <c r="D69" s="136"/>
-      <c r="E69" s="136"/>
-      <c r="F69" s="136"/>
-      <c r="G69" s="137"/>
-      <c r="H69" s="78" t="s">
+      <c r="D69" s="155"/>
+      <c r="E69" s="155"/>
+      <c r="F69" s="155"/>
+      <c r="G69" s="156"/>
+      <c r="H69" s="77" t="s">
         <v>131</v>
       </c>
-      <c r="I69" s="79"/>
-      <c r="J69" s="80" t="s">
+      <c r="I69" s="78"/>
+      <c r="J69" s="79" t="s">
         <v>86</v>
       </c>
-      <c r="K69" s="72"/>
-      <c r="L69" s="72"/>
-      <c r="M69" s="72"/>
-      <c r="N69" s="72"/>
-      <c r="O69" s="72"/>
-      <c r="P69" s="138" t="s">
+      <c r="K69" s="71"/>
+      <c r="L69" s="71"/>
+      <c r="M69" s="71"/>
+      <c r="N69" s="71"/>
+      <c r="O69" s="71"/>
+      <c r="P69" s="157" t="s">
         <v>29</v>
       </c>
-      <c r="Q69" s="138"/>
-      <c r="R69" s="138"/>
-      <c r="S69" s="139">
+      <c r="Q69" s="157"/>
+      <c r="R69" s="157"/>
+      <c r="S69" s="116">
         <v>45091</v>
       </c>
-      <c r="T69" s="139"/>
-      <c r="U69" s="139"/>
-      <c r="V69" s="139">
+      <c r="T69" s="116"/>
+      <c r="U69" s="116"/>
+      <c r="V69" s="116">
         <v>45100</v>
       </c>
-      <c r="W69" s="139"/>
-      <c r="X69" s="139"/>
-      <c r="Y69" s="132">
+      <c r="W69" s="116"/>
+      <c r="X69" s="116"/>
+      <c r="Y69" s="117">
         <v>0.6</v>
       </c>
-      <c r="Z69" s="133"/>
-      <c r="AA69" s="134"/>
+      <c r="Z69" s="110"/>
+      <c r="AA69" s="111"/>
       <c r="AB69" s="45">
         <v>8</v>
       </c>
-      <c r="AC69" s="109">
+      <c r="AC69" s="161">
+        <f t="shared" si="4"/>
         <v>0.6</v>
       </c>
       <c r="AD69" s="2"/>
-      <c r="AE69" s="110"/>
+      <c r="AE69" s="108"/>
       <c r="AF69" s="2"/>
       <c r="AG69" s="2"/>
       <c r="AH69" s="2"/>
@@ -9218,22 +9601,28 @@
       <c r="BE69" s="2"/>
       <c r="BF69" s="2"/>
       <c r="BG69" s="9"/>
-    </row>
-    <row r="70" spans="1:59" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="BI69" s="164">
+        <v>0.62</v>
+      </c>
+      <c r="BJ69" s="164">
+        <v>0.62</v>
+      </c>
+    </row>
+    <row r="70" spans="1:62" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A70" s="18"/>
       <c r="B70" s="4"/>
-      <c r="C70" s="112" t="s">
+      <c r="C70" s="135" t="s">
         <v>15</v>
       </c>
-      <c r="D70" s="112"/>
-      <c r="E70" s="112"/>
-      <c r="F70" s="112"/>
-      <c r="G70" s="113"/>
-      <c r="H70" s="77" t="s">
+      <c r="D70" s="135"/>
+      <c r="E70" s="135"/>
+      <c r="F70" s="135"/>
+      <c r="G70" s="136"/>
+      <c r="H70" s="76" t="s">
         <v>20</v>
       </c>
-      <c r="I70" s="77"/>
-      <c r="J70" s="77"/>
+      <c r="I70" s="76"/>
+      <c r="J70" s="76"/>
       <c r="K70" s="29" t="s">
         <v>20</v>
       </c>
@@ -9274,7 +9663,7 @@
       <c r="AB70" s="45">
         <v>1</v>
       </c>
-      <c r="AC70" s="108"/>
+      <c r="AC70" s="107"/>
       <c r="AD70" s="44"/>
       <c r="AE70" s="2"/>
       <c r="AF70" s="2"/>
@@ -9300,25 +9689,31 @@
       <c r="AZ70" s="2"/>
       <c r="BA70" s="2"/>
       <c r="BB70" s="2"/>
-      <c r="BC70" s="98"/>
+      <c r="BC70" s="97"/>
       <c r="BD70" s="2"/>
       <c r="BE70" s="2"/>
       <c r="BF70" s="2"/>
       <c r="BG70" s="9"/>
-    </row>
-    <row r="71" spans="1:59" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="BI70" s="164">
+        <v>0.63</v>
+      </c>
+      <c r="BJ70" s="164">
+        <v>0.63</v>
+      </c>
+    </row>
+    <row r="71" spans="1:62" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A71" s="18"/>
       <c r="B71" s="43"/>
-      <c r="C71" s="114"/>
-      <c r="D71" s="114"/>
-      <c r="E71" s="114"/>
-      <c r="F71" s="114"/>
-      <c r="G71" s="115"/>
-      <c r="H71" s="77" t="s">
+      <c r="C71" s="137"/>
+      <c r="D71" s="137"/>
+      <c r="E71" s="137"/>
+      <c r="F71" s="137"/>
+      <c r="G71" s="138"/>
+      <c r="H71" s="76" t="s">
         <v>21</v>
       </c>
-      <c r="I71" s="77"/>
-      <c r="J71" s="77"/>
+      <c r="I71" s="76"/>
+      <c r="J71" s="76"/>
       <c r="K71" s="29" t="s">
         <v>21</v>
       </c>
@@ -9385,25 +9780,31 @@
       <c r="AZ71" s="2"/>
       <c r="BA71" s="2"/>
       <c r="BB71" s="2"/>
-      <c r="BC71" s="98"/>
+      <c r="BC71" s="97"/>
       <c r="BD71" s="2"/>
       <c r="BE71" s="2"/>
       <c r="BF71" s="2"/>
       <c r="BG71" s="9"/>
-    </row>
-    <row r="72" spans="1:59" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="BI71" s="164">
+        <v>0.64</v>
+      </c>
+      <c r="BJ71" s="164">
+        <v>0.64</v>
+      </c>
+    </row>
+    <row r="72" spans="1:62" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A72" s="18"/>
       <c r="B72" s="43"/>
-      <c r="C72" s="114"/>
-      <c r="D72" s="114"/>
-      <c r="E72" s="114"/>
-      <c r="F72" s="114"/>
-      <c r="G72" s="115"/>
-      <c r="H72" s="77" t="s">
+      <c r="C72" s="137"/>
+      <c r="D72" s="137"/>
+      <c r="E72" s="137"/>
+      <c r="F72" s="137"/>
+      <c r="G72" s="138"/>
+      <c r="H72" s="76" t="s">
         <v>22</v>
       </c>
-      <c r="I72" s="77"/>
-      <c r="J72" s="77"/>
+      <c r="I72" s="76"/>
+      <c r="J72" s="76"/>
       <c r="K72" s="29" t="s">
         <v>22</v>
       </c>
@@ -9470,25 +9871,31 @@
       <c r="AZ72" s="2"/>
       <c r="BA72" s="2"/>
       <c r="BB72" s="2"/>
-      <c r="BC72" s="98"/>
+      <c r="BC72" s="97"/>
       <c r="BD72" s="2"/>
       <c r="BE72" s="2"/>
       <c r="BF72" s="2"/>
       <c r="BG72" s="9"/>
-    </row>
-    <row r="73" spans="1:59" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="BI72" s="164">
+        <v>0.65</v>
+      </c>
+      <c r="BJ72" s="164">
+        <v>0.65</v>
+      </c>
+    </row>
+    <row r="73" spans="1:62" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A73" s="18"/>
       <c r="B73" s="43"/>
-      <c r="C73" s="114"/>
-      <c r="D73" s="114"/>
-      <c r="E73" s="114"/>
-      <c r="F73" s="114"/>
-      <c r="G73" s="115"/>
-      <c r="H73" s="77" t="s">
+      <c r="C73" s="137"/>
+      <c r="D73" s="137"/>
+      <c r="E73" s="137"/>
+      <c r="F73" s="137"/>
+      <c r="G73" s="138"/>
+      <c r="H73" s="76" t="s">
         <v>23</v>
       </c>
-      <c r="I73" s="77"/>
-      <c r="J73" s="77"/>
+      <c r="I73" s="76"/>
+      <c r="J73" s="76"/>
       <c r="K73" s="29" t="s">
         <v>23</v>
       </c>
@@ -9555,25 +9962,31 @@
       <c r="AZ73" s="2"/>
       <c r="BA73" s="2"/>
       <c r="BB73" s="2"/>
-      <c r="BC73" s="98"/>
+      <c r="BC73" s="97"/>
       <c r="BD73" s="2"/>
       <c r="BE73" s="2"/>
       <c r="BF73" s="2"/>
       <c r="BG73" s="9"/>
-    </row>
-    <row r="74" spans="1:59" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="BI73" s="164">
+        <v>0.66</v>
+      </c>
+      <c r="BJ73" s="164">
+        <v>0.66</v>
+      </c>
+    </row>
+    <row r="74" spans="1:62" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A74" s="18"/>
       <c r="B74" s="43"/>
-      <c r="C74" s="114"/>
-      <c r="D74" s="114"/>
-      <c r="E74" s="114"/>
-      <c r="F74" s="114"/>
-      <c r="G74" s="115"/>
-      <c r="H74" s="77" t="s">
+      <c r="C74" s="137"/>
+      <c r="D74" s="137"/>
+      <c r="E74" s="137"/>
+      <c r="F74" s="137"/>
+      <c r="G74" s="138"/>
+      <c r="H74" s="76" t="s">
         <v>24</v>
       </c>
-      <c r="I74" s="77"/>
-      <c r="J74" s="77"/>
+      <c r="I74" s="76"/>
+      <c r="J74" s="76"/>
       <c r="K74" s="29" t="s">
         <v>24</v>
       </c>
@@ -9640,25 +10053,31 @@
       <c r="AZ74" s="2"/>
       <c r="BA74" s="2"/>
       <c r="BB74" s="2"/>
-      <c r="BC74" s="98"/>
+      <c r="BC74" s="97"/>
       <c r="BD74" s="2"/>
       <c r="BE74" s="2"/>
       <c r="BF74" s="2"/>
       <c r="BG74" s="9"/>
-    </row>
-    <row r="75" spans="1:59" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="BI74" s="164">
+        <v>0.67</v>
+      </c>
+      <c r="BJ74" s="164">
+        <v>0.67</v>
+      </c>
+    </row>
+    <row r="75" spans="1:62" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A75" s="18"/>
       <c r="B75" s="43"/>
-      <c r="C75" s="114"/>
-      <c r="D75" s="114"/>
-      <c r="E75" s="114"/>
-      <c r="F75" s="114"/>
-      <c r="G75" s="115"/>
-      <c r="H75" s="77" t="s">
+      <c r="C75" s="137"/>
+      <c r="D75" s="137"/>
+      <c r="E75" s="137"/>
+      <c r="F75" s="137"/>
+      <c r="G75" s="138"/>
+      <c r="H75" s="76" t="s">
         <v>25</v>
       </c>
-      <c r="I75" s="77"/>
-      <c r="J75" s="77"/>
+      <c r="I75" s="76"/>
+      <c r="J75" s="76"/>
       <c r="K75" s="29" t="s">
         <v>25</v>
       </c>
@@ -9725,25 +10144,31 @@
       <c r="AZ75" s="2"/>
       <c r="BA75" s="2"/>
       <c r="BB75" s="2"/>
-      <c r="BC75" s="98"/>
+      <c r="BC75" s="97"/>
       <c r="BD75" s="2"/>
       <c r="BE75" s="2"/>
       <c r="BF75" s="2"/>
       <c r="BG75" s="9"/>
-    </row>
-    <row r="76" spans="1:59" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="BI75" s="164">
+        <v>0.68</v>
+      </c>
+      <c r="BJ75" s="164">
+        <v>0.68</v>
+      </c>
+    </row>
+    <row r="76" spans="1:62" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A76" s="18"/>
       <c r="B76" s="43"/>
-      <c r="C76" s="114"/>
-      <c r="D76" s="114"/>
-      <c r="E76" s="114"/>
-      <c r="F76" s="114"/>
-      <c r="G76" s="115"/>
-      <c r="H76" s="77" t="s">
+      <c r="C76" s="137"/>
+      <c r="D76" s="137"/>
+      <c r="E76" s="137"/>
+      <c r="F76" s="137"/>
+      <c r="G76" s="138"/>
+      <c r="H76" s="76" t="s">
         <v>26</v>
       </c>
-      <c r="I76" s="77"/>
-      <c r="J76" s="77"/>
+      <c r="I76" s="76"/>
+      <c r="J76" s="76"/>
       <c r="K76" s="29" t="s">
         <v>26</v>
       </c>
@@ -9810,25 +10235,31 @@
       <c r="AZ76" s="2"/>
       <c r="BA76" s="2"/>
       <c r="BB76" s="2"/>
-      <c r="BC76" s="98"/>
+      <c r="BC76" s="97"/>
       <c r="BD76" s="2"/>
       <c r="BE76" s="2"/>
       <c r="BF76" s="2"/>
       <c r="BG76" s="9"/>
-    </row>
-    <row r="77" spans="1:59" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="BI76" s="164">
+        <v>0.69</v>
+      </c>
+      <c r="BJ76" s="164">
+        <v>0.69</v>
+      </c>
+    </row>
+    <row r="77" spans="1:62" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A77" s="18"/>
       <c r="B77" s="43"/>
-      <c r="C77" s="114"/>
-      <c r="D77" s="114"/>
-      <c r="E77" s="114"/>
-      <c r="F77" s="114"/>
-      <c r="G77" s="115"/>
-      <c r="H77" s="77" t="s">
+      <c r="C77" s="137"/>
+      <c r="D77" s="137"/>
+      <c r="E77" s="137"/>
+      <c r="F77" s="137"/>
+      <c r="G77" s="138"/>
+      <c r="H77" s="76" t="s">
         <v>27</v>
       </c>
-      <c r="I77" s="77"/>
-      <c r="J77" s="77"/>
+      <c r="I77" s="76"/>
+      <c r="J77" s="76"/>
       <c r="K77" s="29" t="s">
         <v>27</v>
       </c>
@@ -9853,16 +10284,16 @@
       <c r="R77" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="S77" s="100">
+      <c r="S77" s="99">
         <v>45103</v>
       </c>
-      <c r="T77" s="101"/>
-      <c r="U77" s="102"/>
-      <c r="V77" s="100">
+      <c r="T77" s="100"/>
+      <c r="U77" s="101"/>
+      <c r="V77" s="99">
         <v>45103</v>
       </c>
-      <c r="W77" s="101"/>
-      <c r="X77" s="102"/>
+      <c r="W77" s="100"/>
+      <c r="X77" s="101"/>
       <c r="Y77" s="4"/>
       <c r="Z77" s="4"/>
       <c r="AA77" s="43"/>
@@ -9895,25 +10326,31 @@
       <c r="AZ77" s="2"/>
       <c r="BA77" s="2"/>
       <c r="BB77" s="2"/>
-      <c r="BC77" s="98"/>
+      <c r="BC77" s="97"/>
       <c r="BD77" s="2"/>
       <c r="BE77" s="2"/>
       <c r="BF77" s="2"/>
       <c r="BG77" s="9"/>
-    </row>
-    <row r="78" spans="1:59" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="BI77" s="164">
+        <v>0.7</v>
+      </c>
+      <c r="BJ77" s="164">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="78" spans="1:62" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A78" s="38"/>
       <c r="B78" s="52"/>
-      <c r="C78" s="114"/>
-      <c r="D78" s="114"/>
-      <c r="E78" s="114"/>
-      <c r="F78" s="114"/>
-      <c r="G78" s="115"/>
-      <c r="H78" s="77" t="s">
+      <c r="C78" s="137"/>
+      <c r="D78" s="137"/>
+      <c r="E78" s="137"/>
+      <c r="F78" s="137"/>
+      <c r="G78" s="138"/>
+      <c r="H78" s="76" t="s">
         <v>28</v>
       </c>
-      <c r="I78" s="77"/>
-      <c r="J78" s="77"/>
+      <c r="I78" s="76"/>
+      <c r="J78" s="76"/>
       <c r="K78" s="29" t="s">
         <v>28</v>
       </c>
@@ -9935,68 +10372,74 @@
       <c r="Q78" s="26" t="s">
         <v>30</v>
       </c>
-      <c r="R78" s="63" t="s">
+      <c r="R78" s="62" t="s">
         <v>30</v>
       </c>
-      <c r="S78" s="66">
+      <c r="S78" s="65">
         <v>45103</v>
       </c>
-      <c r="T78" s="66"/>
-      <c r="U78" s="66"/>
-      <c r="V78" s="66">
+      <c r="T78" s="65"/>
+      <c r="U78" s="65"/>
+      <c r="V78" s="65">
         <v>45103</v>
       </c>
-      <c r="W78" s="66"/>
-      <c r="X78" s="66"/>
-      <c r="Y78" s="103"/>
+      <c r="W78" s="65"/>
+      <c r="X78" s="65"/>
+      <c r="Y78" s="102"/>
       <c r="Z78" s="39"/>
       <c r="AA78" s="52"/>
       <c r="AB78" s="48">
         <v>1</v>
       </c>
       <c r="AC78" s="48"/>
-      <c r="AD78" s="83"/>
-      <c r="AE78" s="82"/>
-      <c r="AF78" s="82"/>
-      <c r="AG78" s="82"/>
-      <c r="AH78" s="82"/>
-      <c r="AI78" s="82"/>
-      <c r="AJ78" s="82"/>
-      <c r="AK78" s="82"/>
-      <c r="AL78" s="82"/>
-      <c r="AM78" s="82"/>
-      <c r="AN78" s="82"/>
-      <c r="AO78" s="82"/>
-      <c r="AP78" s="82"/>
-      <c r="AQ78" s="82"/>
-      <c r="AR78" s="82"/>
-      <c r="AS78" s="82"/>
-      <c r="AT78" s="82"/>
-      <c r="AU78" s="82"/>
-      <c r="AV78" s="82"/>
-      <c r="AW78" s="82"/>
-      <c r="AX78" s="82"/>
-      <c r="AY78" s="82"/>
-      <c r="AZ78" s="82"/>
-      <c r="BA78" s="82"/>
-      <c r="BB78" s="82"/>
-      <c r="BC78" s="99"/>
-      <c r="BD78" s="82"/>
-      <c r="BE78" s="82"/>
-      <c r="BF78" s="82"/>
-      <c r="BG78" s="84"/>
-    </row>
-    <row r="79" spans="1:59" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C79" s="114"/>
-      <c r="D79" s="114"/>
-      <c r="E79" s="114"/>
-      <c r="F79" s="114"/>
-      <c r="G79" s="115"/>
-      <c r="H79" s="77" t="s">
+      <c r="AD78" s="82"/>
+      <c r="AE78" s="81"/>
+      <c r="AF78" s="81"/>
+      <c r="AG78" s="81"/>
+      <c r="AH78" s="81"/>
+      <c r="AI78" s="81"/>
+      <c r="AJ78" s="81"/>
+      <c r="AK78" s="81"/>
+      <c r="AL78" s="81"/>
+      <c r="AM78" s="81"/>
+      <c r="AN78" s="81"/>
+      <c r="AO78" s="81"/>
+      <c r="AP78" s="81"/>
+      <c r="AQ78" s="81"/>
+      <c r="AR78" s="81"/>
+      <c r="AS78" s="81"/>
+      <c r="AT78" s="81"/>
+      <c r="AU78" s="81"/>
+      <c r="AV78" s="81"/>
+      <c r="AW78" s="81"/>
+      <c r="AX78" s="81"/>
+      <c r="AY78" s="81"/>
+      <c r="AZ78" s="81"/>
+      <c r="BA78" s="81"/>
+      <c r="BB78" s="81"/>
+      <c r="BC78" s="98"/>
+      <c r="BD78" s="81"/>
+      <c r="BE78" s="81"/>
+      <c r="BF78" s="81"/>
+      <c r="BG78" s="83"/>
+      <c r="BI78" s="164">
+        <v>0.71</v>
+      </c>
+      <c r="BJ78" s="164">
+        <v>0.71</v>
+      </c>
+    </row>
+    <row r="79" spans="1:62" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C79" s="137"/>
+      <c r="D79" s="137"/>
+      <c r="E79" s="137"/>
+      <c r="F79" s="137"/>
+      <c r="G79" s="138"/>
+      <c r="H79" s="76" t="s">
         <v>79</v>
       </c>
-      <c r="I79" s="77"/>
-      <c r="J79" s="77"/>
+      <c r="I79" s="76"/>
+      <c r="J79" s="76"/>
       <c r="K79" s="42" t="s">
         <v>79</v>
       </c>
@@ -10018,64 +10461,71 @@
       <c r="Q79" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="R79" s="65" t="s">
+      <c r="R79" s="64" t="s">
         <v>11</v>
       </c>
-      <c r="S79" s="66">
+      <c r="S79" s="65">
         <v>45103</v>
       </c>
-      <c r="T79" s="66"/>
-      <c r="U79" s="66"/>
-      <c r="V79" s="66">
+      <c r="T79" s="65"/>
+      <c r="U79" s="65"/>
+      <c r="V79" s="65">
         <v>45103</v>
       </c>
-      <c r="W79" s="66"/>
-      <c r="X79" s="66"/>
+      <c r="W79" s="65"/>
+      <c r="X79" s="65"/>
       <c r="AB79">
         <v>1</v>
       </c>
-      <c r="AD79" s="58"/>
-      <c r="AE79" s="58"/>
-      <c r="AF79" s="58"/>
-      <c r="AG79" s="58"/>
-      <c r="AH79" s="58"/>
-      <c r="AI79" s="58"/>
-      <c r="AJ79" s="58"/>
-      <c r="AK79" s="58"/>
-      <c r="AL79" s="58"/>
-      <c r="AM79" s="58"/>
-      <c r="AN79" s="58"/>
-      <c r="AO79" s="58"/>
-      <c r="AP79" s="58"/>
-      <c r="AQ79" s="58"/>
-      <c r="AR79" s="58"/>
-      <c r="AS79" s="58"/>
-      <c r="AT79" s="58"/>
-      <c r="AU79" s="58"/>
-      <c r="AV79" s="58"/>
-      <c r="AW79" s="58"/>
-      <c r="AX79" s="58"/>
-      <c r="AY79" s="58"/>
-      <c r="AZ79" s="58"/>
-      <c r="BA79" s="58"/>
-      <c r="BB79" s="58"/>
-      <c r="BC79" s="81"/>
-      <c r="BD79" s="58"/>
-      <c r="BE79" s="58"/>
-      <c r="BF79" s="58"/>
-      <c r="BG79" s="58"/>
-    </row>
-    <row r="80" spans="1:59" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C80" s="114"/>
-      <c r="D80" s="114"/>
-      <c r="E80" s="114"/>
-      <c r="F80" s="114"/>
-      <c r="G80" s="115"/>
-      <c r="H80" s="77" t="s">
+      <c r="AC79" s="54"/>
+      <c r="AD79" s="57"/>
+      <c r="AE79" s="57"/>
+      <c r="AF79" s="57"/>
+      <c r="AG79" s="57"/>
+      <c r="AH79" s="57"/>
+      <c r="AI79" s="57"/>
+      <c r="AJ79" s="57"/>
+      <c r="AK79" s="57"/>
+      <c r="AL79" s="57"/>
+      <c r="AM79" s="57"/>
+      <c r="AN79" s="57"/>
+      <c r="AO79" s="57"/>
+      <c r="AP79" s="57"/>
+      <c r="AQ79" s="57"/>
+      <c r="AR79" s="57"/>
+      <c r="AS79" s="57"/>
+      <c r="AT79" s="57"/>
+      <c r="AU79" s="57"/>
+      <c r="AV79" s="57"/>
+      <c r="AW79" s="57"/>
+      <c r="AX79" s="57"/>
+      <c r="AY79" s="57"/>
+      <c r="AZ79" s="57"/>
+      <c r="BA79" s="57"/>
+      <c r="BB79" s="57"/>
+      <c r="BC79" s="80"/>
+      <c r="BD79" s="57"/>
+      <c r="BE79" s="57"/>
+      <c r="BF79" s="57"/>
+      <c r="BG79" s="57"/>
+      <c r="BI79" s="164">
+        <v>0.72</v>
+      </c>
+      <c r="BJ79" s="164">
+        <v>0.72</v>
+      </c>
+    </row>
+    <row r="80" spans="1:62" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C80" s="137"/>
+      <c r="D80" s="137"/>
+      <c r="E80" s="137"/>
+      <c r="F80" s="137"/>
+      <c r="G80" s="138"/>
+      <c r="H80" s="76" t="s">
         <v>80</v>
       </c>
-      <c r="I80" s="77"/>
-      <c r="J80" s="77"/>
+      <c r="I80" s="76"/>
+      <c r="J80" s="76"/>
       <c r="K80" s="42" t="s">
         <v>80</v>
       </c>
@@ -10097,1315 +10547,1455 @@
       <c r="Q80" s="24" t="s">
         <v>29</v>
       </c>
-      <c r="R80" s="64" t="s">
+      <c r="R80" s="63" t="s">
         <v>29</v>
       </c>
-      <c r="S80" s="66">
+      <c r="S80" s="65">
         <v>45103</v>
       </c>
-      <c r="T80" s="66"/>
-      <c r="U80" s="66"/>
-      <c r="V80" s="66">
+      <c r="T80" s="65"/>
+      <c r="U80" s="65"/>
+      <c r="V80" s="65">
         <v>45103</v>
       </c>
-      <c r="W80" s="66"/>
-      <c r="X80" s="66"/>
+      <c r="W80" s="65"/>
+      <c r="X80" s="65"/>
       <c r="AB80">
         <v>1</v>
       </c>
-      <c r="AD80" s="58"/>
-      <c r="AE80" s="58"/>
-      <c r="AF80" s="58"/>
-      <c r="AG80" s="58"/>
-      <c r="AH80" s="58"/>
-      <c r="AI80" s="58"/>
-      <c r="AJ80" s="58"/>
-      <c r="AK80" s="58"/>
-      <c r="AL80" s="58"/>
-      <c r="AM80" s="58"/>
-      <c r="AN80" s="58"/>
-      <c r="AO80" s="58"/>
-      <c r="AP80" s="58"/>
-      <c r="AQ80" s="58"/>
-      <c r="AR80" s="58"/>
-      <c r="AS80" s="58"/>
-      <c r="AT80" s="58"/>
-      <c r="AU80" s="58"/>
-      <c r="AV80" s="58"/>
-      <c r="AW80" s="58"/>
-      <c r="AX80" s="58"/>
-      <c r="AY80" s="58"/>
-      <c r="AZ80" s="58"/>
-      <c r="BA80" s="58"/>
-      <c r="BB80" s="58"/>
-      <c r="BC80" s="81"/>
-      <c r="BD80" s="58"/>
-      <c r="BE80" s="58"/>
-      <c r="BF80" s="58"/>
-      <c r="BG80" s="58"/>
-    </row>
-    <row r="81" spans="3:59" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C81" s="114"/>
-      <c r="D81" s="114"/>
-      <c r="E81" s="114"/>
-      <c r="F81" s="114"/>
-      <c r="G81" s="115"/>
-      <c r="H81" s="77" t="s">
+      <c r="AD80" s="57"/>
+      <c r="AE80" s="57"/>
+      <c r="AF80" s="57"/>
+      <c r="AG80" s="57"/>
+      <c r="AH80" s="57"/>
+      <c r="AI80" s="57"/>
+      <c r="AJ80" s="57"/>
+      <c r="AK80" s="57"/>
+      <c r="AL80" s="57"/>
+      <c r="AM80" s="57"/>
+      <c r="AN80" s="57"/>
+      <c r="AO80" s="57"/>
+      <c r="AP80" s="57"/>
+      <c r="AQ80" s="57"/>
+      <c r="AR80" s="57"/>
+      <c r="AS80" s="57"/>
+      <c r="AT80" s="57"/>
+      <c r="AU80" s="57"/>
+      <c r="AV80" s="57"/>
+      <c r="AW80" s="57"/>
+      <c r="AX80" s="57"/>
+      <c r="AY80" s="57"/>
+      <c r="AZ80" s="57"/>
+      <c r="BA80" s="57"/>
+      <c r="BB80" s="57"/>
+      <c r="BC80" s="80"/>
+      <c r="BD80" s="57"/>
+      <c r="BE80" s="57"/>
+      <c r="BF80" s="57"/>
+      <c r="BG80" s="57"/>
+      <c r="BI80" s="164">
+        <v>0.73</v>
+      </c>
+      <c r="BJ80" s="164">
+        <v>0.73</v>
+      </c>
+    </row>
+    <row r="81" spans="3:62" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C81" s="137"/>
+      <c r="D81" s="137"/>
+      <c r="E81" s="137"/>
+      <c r="F81" s="137"/>
+      <c r="G81" s="138"/>
+      <c r="H81" s="76" t="s">
         <v>31</v>
       </c>
-      <c r="I81" s="77"/>
-      <c r="J81" s="77"/>
+      <c r="I81" s="76"/>
+      <c r="J81" s="76"/>
       <c r="P81" s="31" t="s">
         <v>14</v>
       </c>
-      <c r="S81" s="68">
+      <c r="S81" s="67">
         <v>45096</v>
       </c>
-      <c r="T81" s="68"/>
-      <c r="U81" s="68"/>
-      <c r="V81" s="68">
+      <c r="T81" s="67"/>
+      <c r="U81" s="67"/>
+      <c r="V81" s="67">
         <v>45098</v>
       </c>
-      <c r="W81" s="68"/>
-      <c r="X81" s="68"/>
+      <c r="W81" s="67"/>
+      <c r="X81" s="67"/>
       <c r="AB81">
         <v>3</v>
       </c>
-      <c r="AD81" s="58"/>
-      <c r="AE81" s="58"/>
-      <c r="AF81" s="58"/>
-      <c r="AG81" s="58"/>
-      <c r="AH81" s="58"/>
-      <c r="AI81" s="58"/>
-      <c r="AJ81" s="58"/>
-      <c r="AK81" s="58"/>
-      <c r="AL81" s="58"/>
-      <c r="AM81" s="58"/>
-      <c r="AN81" s="58"/>
-      <c r="AO81" s="58"/>
-      <c r="AP81" s="58"/>
-      <c r="AQ81" s="58"/>
-      <c r="AR81" s="58"/>
-      <c r="AS81" s="58"/>
-      <c r="AT81" s="58"/>
-      <c r="AU81" s="58"/>
-      <c r="AV81" s="81"/>
-      <c r="AW81" s="81"/>
-      <c r="AX81" s="81"/>
-      <c r="AY81" s="58"/>
-      <c r="AZ81" s="58"/>
-      <c r="BA81" s="58"/>
-      <c r="BB81" s="58"/>
-      <c r="BC81" s="58"/>
-      <c r="BD81" s="58"/>
-      <c r="BE81" s="58"/>
-      <c r="BF81" s="58"/>
-      <c r="BG81" s="58"/>
-    </row>
-    <row r="82" spans="3:59" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C82" s="114"/>
-      <c r="D82" s="114"/>
-      <c r="E82" s="114"/>
-      <c r="F82" s="114"/>
-      <c r="G82" s="115"/>
-      <c r="H82" s="77" t="s">
+      <c r="AD81" s="57"/>
+      <c r="AE81" s="57"/>
+      <c r="AF81" s="57"/>
+      <c r="AG81" s="57"/>
+      <c r="AH81" s="57"/>
+      <c r="AI81" s="57"/>
+      <c r="AJ81" s="57"/>
+      <c r="AK81" s="57"/>
+      <c r="AL81" s="57"/>
+      <c r="AM81" s="57"/>
+      <c r="AN81" s="57"/>
+      <c r="AO81" s="57"/>
+      <c r="AP81" s="57"/>
+      <c r="AQ81" s="57"/>
+      <c r="AR81" s="57"/>
+      <c r="AS81" s="57"/>
+      <c r="AT81" s="57"/>
+      <c r="AU81" s="57"/>
+      <c r="AV81" s="80"/>
+      <c r="AW81" s="80"/>
+      <c r="AX81" s="80"/>
+      <c r="AY81" s="57"/>
+      <c r="AZ81" s="57"/>
+      <c r="BA81" s="57"/>
+      <c r="BB81" s="57"/>
+      <c r="BC81" s="57"/>
+      <c r="BD81" s="57"/>
+      <c r="BE81" s="57"/>
+      <c r="BF81" s="57"/>
+      <c r="BG81" s="57"/>
+      <c r="BI81" s="164">
+        <v>0.74</v>
+      </c>
+      <c r="BJ81" s="164">
+        <v>0.74</v>
+      </c>
+    </row>
+    <row r="82" spans="3:62" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C82" s="137"/>
+      <c r="D82" s="137"/>
+      <c r="E82" s="137"/>
+      <c r="F82" s="137"/>
+      <c r="G82" s="138"/>
+      <c r="H82" s="76" t="s">
         <v>32</v>
       </c>
-      <c r="I82" s="77"/>
-      <c r="J82" s="77"/>
+      <c r="I82" s="76"/>
+      <c r="J82" s="76"/>
       <c r="P82" s="31" t="s">
         <v>14</v>
       </c>
-      <c r="S82" s="66">
+      <c r="S82" s="65">
         <v>45096</v>
       </c>
-      <c r="T82" s="66"/>
-      <c r="U82" s="66"/>
-      <c r="V82" s="66">
+      <c r="T82" s="65"/>
+      <c r="U82" s="65"/>
+      <c r="V82" s="65">
         <v>45098</v>
       </c>
-      <c r="W82" s="66"/>
-      <c r="X82" s="66"/>
+      <c r="W82" s="65"/>
+      <c r="X82" s="65"/>
       <c r="AB82">
         <v>3</v>
       </c>
-      <c r="AD82" s="58"/>
-      <c r="AE82" s="58"/>
-      <c r="AF82" s="58"/>
-      <c r="AG82" s="58"/>
-      <c r="AH82" s="58"/>
-      <c r="AI82" s="58"/>
-      <c r="AJ82" s="58"/>
-      <c r="AK82" s="58"/>
-      <c r="AL82" s="58"/>
-      <c r="AM82" s="58"/>
-      <c r="AN82" s="58"/>
-      <c r="AO82" s="58"/>
-      <c r="AP82" s="58"/>
-      <c r="AQ82" s="58"/>
-      <c r="AR82" s="58"/>
-      <c r="AS82" s="58"/>
-      <c r="AT82" s="58"/>
-      <c r="AU82" s="58"/>
-      <c r="AV82" s="81"/>
-      <c r="AW82" s="81"/>
-      <c r="AX82" s="81"/>
-      <c r="AY82" s="58"/>
-      <c r="AZ82" s="58"/>
-      <c r="BA82" s="58"/>
-      <c r="BB82" s="58"/>
-      <c r="BC82" s="58"/>
-      <c r="BD82" s="58"/>
-      <c r="BE82" s="58"/>
-      <c r="BF82" s="58"/>
-      <c r="BG82" s="58"/>
-    </row>
-    <row r="83" spans="3:59" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C83" s="114"/>
-      <c r="D83" s="114"/>
-      <c r="E83" s="114"/>
-      <c r="F83" s="114"/>
-      <c r="G83" s="115"/>
-      <c r="H83" s="76" t="s">
+      <c r="AD82" s="57"/>
+      <c r="AE82" s="57"/>
+      <c r="AF82" s="57"/>
+      <c r="AG82" s="57"/>
+      <c r="AH82" s="57"/>
+      <c r="AI82" s="57"/>
+      <c r="AJ82" s="57"/>
+      <c r="AK82" s="57"/>
+      <c r="AL82" s="57"/>
+      <c r="AM82" s="57"/>
+      <c r="AN82" s="57"/>
+      <c r="AO82" s="57"/>
+      <c r="AP82" s="57"/>
+      <c r="AQ82" s="57"/>
+      <c r="AR82" s="57"/>
+      <c r="AS82" s="57"/>
+      <c r="AT82" s="57"/>
+      <c r="AU82" s="57"/>
+      <c r="AV82" s="80"/>
+      <c r="AW82" s="80"/>
+      <c r="AX82" s="80"/>
+      <c r="AY82" s="57"/>
+      <c r="AZ82" s="57"/>
+      <c r="BA82" s="57"/>
+      <c r="BB82" s="57"/>
+      <c r="BC82" s="57"/>
+      <c r="BD82" s="57"/>
+      <c r="BE82" s="57"/>
+      <c r="BF82" s="57"/>
+      <c r="BG82" s="57"/>
+      <c r="BI82" s="164">
+        <v>0.75</v>
+      </c>
+      <c r="BJ82" s="164">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="83" spans="3:62" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C83" s="137"/>
+      <c r="D83" s="137"/>
+      <c r="E83" s="137"/>
+      <c r="F83" s="137"/>
+      <c r="G83" s="138"/>
+      <c r="H83" s="75" t="s">
         <v>33</v>
       </c>
-      <c r="I83" s="76"/>
-      <c r="J83" s="76"/>
+      <c r="I83" s="75"/>
+      <c r="J83" s="75"/>
       <c r="P83" s="31" t="s">
         <v>14</v>
       </c>
-      <c r="S83" s="66">
+      <c r="S83" s="65">
         <v>45096</v>
       </c>
-      <c r="T83" s="66"/>
-      <c r="U83" s="66"/>
-      <c r="V83" s="66">
+      <c r="T83" s="65"/>
+      <c r="U83" s="65"/>
+      <c r="V83" s="65">
         <v>45098</v>
       </c>
-      <c r="W83" s="66"/>
-      <c r="X83" s="66"/>
+      <c r="W83" s="65"/>
+      <c r="X83" s="65"/>
       <c r="AB83">
         <v>3</v>
       </c>
-      <c r="AD83" s="58"/>
-      <c r="AE83" s="58"/>
-      <c r="AF83" s="58"/>
-      <c r="AG83" s="58"/>
-      <c r="AH83" s="58"/>
-      <c r="AI83" s="58"/>
-      <c r="AJ83" s="58"/>
-      <c r="AK83" s="58"/>
-      <c r="AL83" s="58"/>
-      <c r="AM83" s="58"/>
-      <c r="AN83" s="58"/>
-      <c r="AO83" s="58"/>
-      <c r="AP83" s="58"/>
-      <c r="AQ83" s="58"/>
-      <c r="AR83" s="58"/>
-      <c r="AS83" s="58"/>
-      <c r="AT83" s="58"/>
-      <c r="AU83" s="58"/>
-      <c r="AV83" s="81"/>
-      <c r="AW83" s="81"/>
-      <c r="AX83" s="81"/>
-      <c r="AY83" s="58"/>
-      <c r="AZ83" s="58"/>
-      <c r="BA83" s="58"/>
-      <c r="BB83" s="58"/>
-      <c r="BC83" s="58"/>
-      <c r="BD83" s="58"/>
-      <c r="BE83" s="58"/>
-      <c r="BF83" s="58"/>
-      <c r="BG83" s="58"/>
-    </row>
-    <row r="84" spans="3:59" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C84" s="114"/>
-      <c r="D84" s="114"/>
-      <c r="E84" s="114"/>
-      <c r="F84" s="114"/>
-      <c r="G84" s="115"/>
-      <c r="H84" s="77" t="s">
+      <c r="AD83" s="57"/>
+      <c r="AE83" s="57"/>
+      <c r="AF83" s="57"/>
+      <c r="AG83" s="57"/>
+      <c r="AH83" s="57"/>
+      <c r="AI83" s="57"/>
+      <c r="AJ83" s="57"/>
+      <c r="AK83" s="57"/>
+      <c r="AL83" s="57"/>
+      <c r="AM83" s="57"/>
+      <c r="AN83" s="57"/>
+      <c r="AO83" s="57"/>
+      <c r="AP83" s="57"/>
+      <c r="AQ83" s="57"/>
+      <c r="AR83" s="57"/>
+      <c r="AS83" s="57"/>
+      <c r="AT83" s="57"/>
+      <c r="AU83" s="57"/>
+      <c r="AV83" s="80"/>
+      <c r="AW83" s="80"/>
+      <c r="AX83" s="80"/>
+      <c r="AY83" s="57"/>
+      <c r="AZ83" s="57"/>
+      <c r="BA83" s="57"/>
+      <c r="BB83" s="57"/>
+      <c r="BC83" s="57"/>
+      <c r="BD83" s="57"/>
+      <c r="BE83" s="57"/>
+      <c r="BF83" s="57"/>
+      <c r="BG83" s="57"/>
+      <c r="BI83" s="164">
+        <v>0.76</v>
+      </c>
+      <c r="BJ83" s="164">
+        <v>0.76</v>
+      </c>
+    </row>
+    <row r="84" spans="3:62" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C84" s="137"/>
+      <c r="D84" s="137"/>
+      <c r="E84" s="137"/>
+      <c r="F84" s="137"/>
+      <c r="G84" s="138"/>
+      <c r="H84" s="76" t="s">
         <v>34</v>
       </c>
-      <c r="I84" s="77"/>
-      <c r="J84" s="77"/>
+      <c r="I84" s="76"/>
+      <c r="J84" s="76"/>
       <c r="P84" s="31" t="s">
         <v>14</v>
       </c>
-      <c r="S84" s="66">
+      <c r="S84" s="65">
         <v>45096</v>
       </c>
-      <c r="T84" s="66"/>
-      <c r="U84" s="66"/>
-      <c r="V84" s="66">
+      <c r="T84" s="65"/>
+      <c r="U84" s="65"/>
+      <c r="V84" s="65">
         <v>45098</v>
       </c>
-      <c r="W84" s="66"/>
-      <c r="X84" s="66"/>
+      <c r="W84" s="65"/>
+      <c r="X84" s="65"/>
       <c r="AB84">
         <v>3</v>
       </c>
-      <c r="AD84" s="58"/>
-      <c r="AE84" s="58"/>
-      <c r="AF84" s="58"/>
-      <c r="AG84" s="58"/>
-      <c r="AH84" s="58"/>
-      <c r="AI84" s="58"/>
-      <c r="AJ84" s="58"/>
-      <c r="AK84" s="58"/>
-      <c r="AL84" s="58"/>
-      <c r="AM84" s="58"/>
-      <c r="AN84" s="58"/>
-      <c r="AO84" s="58"/>
-      <c r="AP84" s="58"/>
-      <c r="AQ84" s="58"/>
-      <c r="AR84" s="58"/>
-      <c r="AS84" s="58"/>
-      <c r="AT84" s="58"/>
-      <c r="AU84" s="58"/>
-      <c r="AV84" s="81"/>
-      <c r="AW84" s="81"/>
-      <c r="AX84" s="81"/>
-      <c r="AY84" s="58"/>
-      <c r="AZ84" s="58"/>
-      <c r="BA84" s="58"/>
-      <c r="BB84" s="58"/>
-      <c r="BC84" s="58"/>
-      <c r="BD84" s="58"/>
-      <c r="BE84" s="58"/>
-      <c r="BF84" s="58"/>
-      <c r="BG84" s="58"/>
-    </row>
-    <row r="85" spans="3:59" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C85" s="114"/>
-      <c r="D85" s="114"/>
-      <c r="E85" s="114"/>
-      <c r="F85" s="114"/>
-      <c r="G85" s="115"/>
-      <c r="H85" s="77" t="s">
+      <c r="AD84" s="57"/>
+      <c r="AE84" s="57"/>
+      <c r="AF84" s="57"/>
+      <c r="AG84" s="57"/>
+      <c r="AH84" s="57"/>
+      <c r="AI84" s="57"/>
+      <c r="AJ84" s="57"/>
+      <c r="AK84" s="57"/>
+      <c r="AL84" s="57"/>
+      <c r="AM84" s="57"/>
+      <c r="AN84" s="57"/>
+      <c r="AO84" s="57"/>
+      <c r="AP84" s="57"/>
+      <c r="AQ84" s="57"/>
+      <c r="AR84" s="57"/>
+      <c r="AS84" s="57"/>
+      <c r="AT84" s="57"/>
+      <c r="AU84" s="57"/>
+      <c r="AV84" s="80"/>
+      <c r="AW84" s="80"/>
+      <c r="AX84" s="80"/>
+      <c r="AY84" s="57"/>
+      <c r="AZ84" s="57"/>
+      <c r="BA84" s="57"/>
+      <c r="BB84" s="57"/>
+      <c r="BC84" s="57"/>
+      <c r="BD84" s="57"/>
+      <c r="BE84" s="57"/>
+      <c r="BF84" s="57"/>
+      <c r="BG84" s="57"/>
+      <c r="BI84" s="164">
+        <v>0.77</v>
+      </c>
+      <c r="BJ84" s="164">
+        <v>0.77</v>
+      </c>
+    </row>
+    <row r="85" spans="3:62" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C85" s="137"/>
+      <c r="D85" s="137"/>
+      <c r="E85" s="137"/>
+      <c r="F85" s="137"/>
+      <c r="G85" s="138"/>
+      <c r="H85" s="76" t="s">
         <v>35</v>
       </c>
-      <c r="I85" s="77"/>
-      <c r="J85" s="77"/>
+      <c r="I85" s="76"/>
+      <c r="J85" s="76"/>
       <c r="P85" s="31" t="s">
         <v>14</v>
       </c>
-      <c r="S85" s="66">
+      <c r="S85" s="65">
         <v>45096</v>
       </c>
-      <c r="T85" s="66"/>
-      <c r="U85" s="66"/>
-      <c r="V85" s="66">
+      <c r="T85" s="65"/>
+      <c r="U85" s="65"/>
+      <c r="V85" s="65">
         <v>45098</v>
       </c>
-      <c r="W85" s="66"/>
-      <c r="X85" s="66"/>
+      <c r="W85" s="65"/>
+      <c r="X85" s="65"/>
       <c r="AB85">
         <v>3</v>
       </c>
-      <c r="AD85" s="58"/>
-      <c r="AE85" s="58"/>
-      <c r="AF85" s="58"/>
-      <c r="AG85" s="58"/>
-      <c r="AH85" s="58"/>
-      <c r="AI85" s="58"/>
-      <c r="AJ85" s="58"/>
-      <c r="AK85" s="58"/>
-      <c r="AL85" s="58"/>
-      <c r="AM85" s="58"/>
-      <c r="AN85" s="58"/>
-      <c r="AO85" s="58"/>
-      <c r="AP85" s="58"/>
-      <c r="AQ85" s="58"/>
-      <c r="AR85" s="58"/>
-      <c r="AS85" s="58"/>
-      <c r="AT85" s="58"/>
-      <c r="AU85" s="58"/>
-      <c r="AV85" s="81"/>
-      <c r="AW85" s="81"/>
-      <c r="AX85" s="81"/>
-      <c r="AY85" s="58"/>
-      <c r="AZ85" s="58"/>
-      <c r="BA85" s="58"/>
-      <c r="BB85" s="58"/>
-      <c r="BC85" s="58"/>
-      <c r="BD85" s="58"/>
-      <c r="BE85" s="58"/>
-      <c r="BF85" s="58"/>
-      <c r="BG85" s="58"/>
-    </row>
-    <row r="86" spans="3:59" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C86" s="114"/>
-      <c r="D86" s="114"/>
-      <c r="E86" s="114"/>
-      <c r="F86" s="114"/>
-      <c r="G86" s="115"/>
-      <c r="H86" s="76" t="s">
+      <c r="AD85" s="57"/>
+      <c r="AE85" s="57"/>
+      <c r="AF85" s="57"/>
+      <c r="AG85" s="57"/>
+      <c r="AH85" s="57"/>
+      <c r="AI85" s="57"/>
+      <c r="AJ85" s="57"/>
+      <c r="AK85" s="57"/>
+      <c r="AL85" s="57"/>
+      <c r="AM85" s="57"/>
+      <c r="AN85" s="57"/>
+      <c r="AO85" s="57"/>
+      <c r="AP85" s="57"/>
+      <c r="AQ85" s="57"/>
+      <c r="AR85" s="57"/>
+      <c r="AS85" s="57"/>
+      <c r="AT85" s="57"/>
+      <c r="AU85" s="57"/>
+      <c r="AV85" s="80"/>
+      <c r="AW85" s="80"/>
+      <c r="AX85" s="80"/>
+      <c r="AY85" s="57"/>
+      <c r="AZ85" s="57"/>
+      <c r="BA85" s="57"/>
+      <c r="BB85" s="57"/>
+      <c r="BC85" s="57"/>
+      <c r="BD85" s="57"/>
+      <c r="BE85" s="57"/>
+      <c r="BF85" s="57"/>
+      <c r="BG85" s="57"/>
+      <c r="BI85" s="164">
+        <v>0.78</v>
+      </c>
+      <c r="BJ85" s="164">
+        <v>0.78</v>
+      </c>
+    </row>
+    <row r="86" spans="3:62" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C86" s="137"/>
+      <c r="D86" s="137"/>
+      <c r="E86" s="137"/>
+      <c r="F86" s="137"/>
+      <c r="G86" s="138"/>
+      <c r="H86" s="75" t="s">
         <v>36</v>
       </c>
-      <c r="I86" s="76"/>
-      <c r="J86" s="76"/>
+      <c r="I86" s="75"/>
+      <c r="J86" s="75"/>
       <c r="P86" s="31" t="s">
         <v>14</v>
       </c>
-      <c r="S86" s="66">
+      <c r="S86" s="65">
         <v>45096</v>
       </c>
-      <c r="T86" s="66"/>
-      <c r="U86" s="66"/>
-      <c r="V86" s="66">
+      <c r="T86" s="65"/>
+      <c r="U86" s="65"/>
+      <c r="V86" s="65">
         <v>45098</v>
       </c>
-      <c r="W86" s="66"/>
-      <c r="X86" s="66"/>
+      <c r="W86" s="65"/>
+      <c r="X86" s="65"/>
       <c r="AB86">
         <v>3</v>
       </c>
-      <c r="AD86" s="58"/>
-      <c r="AE86" s="58"/>
-      <c r="AF86" s="58"/>
-      <c r="AG86" s="58"/>
-      <c r="AH86" s="58"/>
-      <c r="AI86" s="58"/>
-      <c r="AJ86" s="58"/>
-      <c r="AK86" s="58"/>
-      <c r="AL86" s="58"/>
-      <c r="AM86" s="58"/>
-      <c r="AN86" s="58"/>
-      <c r="AO86" s="58"/>
-      <c r="AP86" s="58"/>
-      <c r="AQ86" s="58"/>
-      <c r="AR86" s="58"/>
-      <c r="AS86" s="58"/>
-      <c r="AT86" s="58"/>
-      <c r="AU86" s="58"/>
-      <c r="AV86" s="81"/>
-      <c r="AW86" s="81"/>
-      <c r="AX86" s="81"/>
-      <c r="AY86" s="58"/>
-      <c r="AZ86" s="58"/>
-      <c r="BA86" s="58"/>
-      <c r="BB86" s="58"/>
-      <c r="BC86" s="58"/>
-      <c r="BD86" s="58"/>
-      <c r="BE86" s="58"/>
-      <c r="BF86" s="58"/>
-      <c r="BG86" s="58"/>
-    </row>
-    <row r="87" spans="3:59" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C87" s="114"/>
-      <c r="D87" s="114"/>
-      <c r="E87" s="114"/>
-      <c r="F87" s="114"/>
-      <c r="G87" s="115"/>
-      <c r="H87" s="77" t="s">
+      <c r="AD86" s="57"/>
+      <c r="AE86" s="57"/>
+      <c r="AF86" s="57"/>
+      <c r="AG86" s="57"/>
+      <c r="AH86" s="57"/>
+      <c r="AI86" s="57"/>
+      <c r="AJ86" s="57"/>
+      <c r="AK86" s="57"/>
+      <c r="AL86" s="57"/>
+      <c r="AM86" s="57"/>
+      <c r="AN86" s="57"/>
+      <c r="AO86" s="57"/>
+      <c r="AP86" s="57"/>
+      <c r="AQ86" s="57"/>
+      <c r="AR86" s="57"/>
+      <c r="AS86" s="57"/>
+      <c r="AT86" s="57"/>
+      <c r="AU86" s="57"/>
+      <c r="AV86" s="80"/>
+      <c r="AW86" s="80"/>
+      <c r="AX86" s="80"/>
+      <c r="AY86" s="57"/>
+      <c r="AZ86" s="57"/>
+      <c r="BA86" s="57"/>
+      <c r="BB86" s="57"/>
+      <c r="BC86" s="57"/>
+      <c r="BD86" s="57"/>
+      <c r="BE86" s="57"/>
+      <c r="BF86" s="57"/>
+      <c r="BG86" s="57"/>
+      <c r="BI86" s="164">
+        <v>0.79</v>
+      </c>
+      <c r="BJ86" s="164">
+        <v>0.79</v>
+      </c>
+    </row>
+    <row r="87" spans="3:62" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C87" s="137"/>
+      <c r="D87" s="137"/>
+      <c r="E87" s="137"/>
+      <c r="F87" s="137"/>
+      <c r="G87" s="138"/>
+      <c r="H87" s="76" t="s">
         <v>37</v>
       </c>
-      <c r="I87" s="77"/>
-      <c r="J87" s="77"/>
+      <c r="I87" s="76"/>
+      <c r="J87" s="76"/>
       <c r="P87" s="31" t="s">
         <v>14</v>
       </c>
-      <c r="S87" s="104">
+      <c r="S87" s="103">
         <v>45096</v>
       </c>
-      <c r="T87" s="104"/>
-      <c r="U87" s="104"/>
-      <c r="V87" s="66">
+      <c r="T87" s="103"/>
+      <c r="U87" s="103"/>
+      <c r="V87" s="65">
         <v>45098</v>
       </c>
-      <c r="W87" s="66"/>
-      <c r="X87" s="66"/>
+      <c r="W87" s="65"/>
+      <c r="X87" s="65"/>
       <c r="AB87">
         <v>3</v>
       </c>
-      <c r="AD87" s="58"/>
-      <c r="AE87" s="58"/>
-      <c r="AF87" s="58"/>
-      <c r="AG87" s="58"/>
-      <c r="AH87" s="58"/>
-      <c r="AI87" s="58"/>
-      <c r="AJ87" s="58"/>
-      <c r="AK87" s="58"/>
-      <c r="AL87" s="58"/>
-      <c r="AM87" s="58"/>
-      <c r="AN87" s="58"/>
-      <c r="AO87" s="58"/>
-      <c r="AP87" s="58"/>
-      <c r="AQ87" s="58"/>
-      <c r="AR87" s="58"/>
-      <c r="AS87" s="58"/>
-      <c r="AT87" s="58"/>
-      <c r="AU87" s="58"/>
-      <c r="AV87" s="81"/>
-      <c r="AW87" s="81"/>
-      <c r="AX87" s="81"/>
-      <c r="AY87" s="58"/>
-      <c r="AZ87" s="58"/>
-      <c r="BA87" s="58"/>
-      <c r="BB87" s="58"/>
-      <c r="BC87" s="58"/>
-      <c r="BD87" s="58"/>
-      <c r="BE87" s="58"/>
-      <c r="BF87" s="58"/>
-      <c r="BG87" s="58"/>
-    </row>
-    <row r="88" spans="3:59" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C88" s="116" t="s">
+      <c r="AD87" s="57"/>
+      <c r="AE87" s="57"/>
+      <c r="AF87" s="57"/>
+      <c r="AG87" s="57"/>
+      <c r="AH87" s="57"/>
+      <c r="AI87" s="57"/>
+      <c r="AJ87" s="57"/>
+      <c r="AK87" s="57"/>
+      <c r="AL87" s="57"/>
+      <c r="AM87" s="57"/>
+      <c r="AN87" s="57"/>
+      <c r="AO87" s="57"/>
+      <c r="AP87" s="57"/>
+      <c r="AQ87" s="57"/>
+      <c r="AR87" s="57"/>
+      <c r="AS87" s="57"/>
+      <c r="AT87" s="57"/>
+      <c r="AU87" s="57"/>
+      <c r="AV87" s="80"/>
+      <c r="AW87" s="80"/>
+      <c r="AX87" s="80"/>
+      <c r="AY87" s="57"/>
+      <c r="AZ87" s="57"/>
+      <c r="BA87" s="57"/>
+      <c r="BB87" s="57"/>
+      <c r="BC87" s="57"/>
+      <c r="BD87" s="57"/>
+      <c r="BE87" s="57"/>
+      <c r="BF87" s="57"/>
+      <c r="BG87" s="57"/>
+      <c r="BI87" s="164">
+        <v>0.8</v>
+      </c>
+      <c r="BJ87" s="164">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="88" spans="3:62" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C88" s="139" t="s">
         <v>16</v>
       </c>
-      <c r="D88" s="116"/>
-      <c r="E88" s="116"/>
-      <c r="F88" s="116"/>
-      <c r="G88" s="116"/>
-      <c r="H88" s="62" t="s">
+      <c r="D88" s="139"/>
+      <c r="E88" s="139"/>
+      <c r="F88" s="139"/>
+      <c r="G88" s="139"/>
+      <c r="H88" s="61" t="s">
         <v>49</v>
       </c>
-      <c r="I88" s="62"/>
-      <c r="J88" s="75"/>
+      <c r="I88" s="61"/>
+      <c r="J88" s="74"/>
       <c r="P88" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="S88" s="68">
+      <c r="S88" s="67">
         <v>45103</v>
       </c>
-      <c r="T88" s="68"/>
-      <c r="U88" s="68"/>
-      <c r="V88" s="68">
+      <c r="T88" s="67"/>
+      <c r="U88" s="67"/>
+      <c r="V88" s="67">
         <v>45104</v>
       </c>
-      <c r="W88" s="68"/>
-      <c r="X88" s="68"/>
+      <c r="W88" s="67"/>
+      <c r="X88" s="67"/>
       <c r="AB88">
         <v>2</v>
       </c>
-      <c r="AD88" s="58"/>
-      <c r="AE88" s="58"/>
-      <c r="AF88" s="58"/>
-      <c r="AG88" s="58"/>
-      <c r="AH88" s="58"/>
-      <c r="AI88" s="58"/>
-      <c r="AJ88" s="58"/>
-      <c r="AK88" s="58"/>
-      <c r="AL88" s="58"/>
-      <c r="AM88" s="58"/>
-      <c r="AN88" s="58"/>
-      <c r="AO88" s="58"/>
-      <c r="AP88" s="58"/>
-      <c r="AQ88" s="58"/>
-      <c r="AR88" s="58"/>
-      <c r="AS88" s="58"/>
-      <c r="AT88" s="58"/>
-      <c r="AU88" s="58"/>
-      <c r="AV88" s="58"/>
-      <c r="AW88" s="58"/>
-      <c r="AX88" s="58"/>
-      <c r="AY88" s="58"/>
-      <c r="AZ88" s="58"/>
-      <c r="BA88" s="58"/>
-      <c r="BB88" s="58"/>
-      <c r="BC88" s="81"/>
-      <c r="BD88" s="81"/>
-      <c r="BE88" s="58"/>
-      <c r="BF88" s="58"/>
-      <c r="BG88" s="58"/>
-    </row>
-    <row r="89" spans="3:59" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C89" s="114"/>
-      <c r="D89" s="114"/>
-      <c r="E89" s="114"/>
-      <c r="F89" s="114"/>
-      <c r="G89" s="114"/>
-      <c r="H89" s="62" t="s">
+      <c r="AD88" s="57"/>
+      <c r="AE88" s="57"/>
+      <c r="AF88" s="57"/>
+      <c r="AG88" s="57"/>
+      <c r="AH88" s="57"/>
+      <c r="AI88" s="57"/>
+      <c r="AJ88" s="57"/>
+      <c r="AK88" s="57"/>
+      <c r="AL88" s="57"/>
+      <c r="AM88" s="57"/>
+      <c r="AN88" s="57"/>
+      <c r="AO88" s="57"/>
+      <c r="AP88" s="57"/>
+      <c r="AQ88" s="57"/>
+      <c r="AR88" s="57"/>
+      <c r="AS88" s="57"/>
+      <c r="AT88" s="57"/>
+      <c r="AU88" s="57"/>
+      <c r="AV88" s="57"/>
+      <c r="AW88" s="57"/>
+      <c r="AX88" s="57"/>
+      <c r="AY88" s="57"/>
+      <c r="AZ88" s="57"/>
+      <c r="BA88" s="57"/>
+      <c r="BB88" s="57"/>
+      <c r="BC88" s="80"/>
+      <c r="BD88" s="80"/>
+      <c r="BE88" s="57"/>
+      <c r="BF88" s="57"/>
+      <c r="BG88" s="57"/>
+      <c r="BI88" s="164">
+        <v>0.81</v>
+      </c>
+      <c r="BJ88" s="164">
+        <v>0.81</v>
+      </c>
+    </row>
+    <row r="89" spans="3:62" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C89" s="137"/>
+      <c r="D89" s="137"/>
+      <c r="E89" s="137"/>
+      <c r="F89" s="137"/>
+      <c r="G89" s="137"/>
+      <c r="H89" s="61" t="s">
         <v>50</v>
       </c>
-      <c r="I89" s="62"/>
-      <c r="J89" s="75"/>
+      <c r="I89" s="61"/>
+      <c r="J89" s="74"/>
       <c r="P89" s="31" t="s">
         <v>14</v>
       </c>
-      <c r="S89" s="68">
+      <c r="S89" s="67">
         <v>45103</v>
       </c>
-      <c r="T89" s="68"/>
-      <c r="U89" s="68"/>
-      <c r="V89" s="68">
+      <c r="T89" s="67"/>
+      <c r="U89" s="67"/>
+      <c r="V89" s="67">
         <v>45104</v>
       </c>
-      <c r="W89" s="68"/>
-      <c r="X89" s="68"/>
+      <c r="W89" s="67"/>
+      <c r="X89" s="67"/>
       <c r="AB89">
         <v>2</v>
       </c>
-      <c r="AD89" s="58"/>
-      <c r="AE89" s="58"/>
-      <c r="AF89" s="58"/>
-      <c r="AG89" s="58"/>
-      <c r="AH89" s="58"/>
-      <c r="AI89" s="58"/>
-      <c r="AJ89" s="58"/>
-      <c r="AK89" s="58"/>
-      <c r="AL89" s="58"/>
-      <c r="AM89" s="58"/>
-      <c r="AN89" s="58"/>
-      <c r="AO89" s="58"/>
-      <c r="AP89" s="58"/>
-      <c r="AQ89" s="58"/>
-      <c r="AR89" s="58"/>
-      <c r="AS89" s="58"/>
-      <c r="AT89" s="58"/>
-      <c r="AU89" s="58"/>
-      <c r="AV89" s="58"/>
-      <c r="AW89" s="58"/>
-      <c r="AX89" s="58"/>
-      <c r="AY89" s="58"/>
-      <c r="AZ89" s="58"/>
-      <c r="BA89" s="58"/>
-      <c r="BB89" s="58"/>
-      <c r="BC89" s="81"/>
-      <c r="BD89" s="81"/>
-      <c r="BE89" s="58"/>
-      <c r="BF89" s="58"/>
-      <c r="BG89" s="58"/>
-    </row>
-    <row r="90" spans="3:59" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C90" s="114"/>
-      <c r="D90" s="114"/>
-      <c r="E90" s="114"/>
-      <c r="F90" s="114"/>
-      <c r="G90" s="114"/>
-      <c r="H90" s="62" t="s">
+      <c r="AD89" s="57"/>
+      <c r="AE89" s="57"/>
+      <c r="AF89" s="57"/>
+      <c r="AG89" s="57"/>
+      <c r="AH89" s="57"/>
+      <c r="AI89" s="57"/>
+      <c r="AJ89" s="57"/>
+      <c r="AK89" s="57"/>
+      <c r="AL89" s="57"/>
+      <c r="AM89" s="57"/>
+      <c r="AN89" s="57"/>
+      <c r="AO89" s="57"/>
+      <c r="AP89" s="57"/>
+      <c r="AQ89" s="57"/>
+      <c r="AR89" s="57"/>
+      <c r="AS89" s="57"/>
+      <c r="AT89" s="57"/>
+      <c r="AU89" s="57"/>
+      <c r="AV89" s="57"/>
+      <c r="AW89" s="57"/>
+      <c r="AX89" s="57"/>
+      <c r="AY89" s="57"/>
+      <c r="AZ89" s="57"/>
+      <c r="BA89" s="57"/>
+      <c r="BB89" s="57"/>
+      <c r="BC89" s="80"/>
+      <c r="BD89" s="80"/>
+      <c r="BE89" s="57"/>
+      <c r="BF89" s="57"/>
+      <c r="BG89" s="57"/>
+      <c r="BI89" s="164">
+        <v>0.82</v>
+      </c>
+      <c r="BJ89" s="164">
+        <v>0.82</v>
+      </c>
+    </row>
+    <row r="90" spans="3:62" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C90" s="137"/>
+      <c r="D90" s="137"/>
+      <c r="E90" s="137"/>
+      <c r="F90" s="137"/>
+      <c r="G90" s="137"/>
+      <c r="H90" s="61" t="s">
         <v>51</v>
       </c>
-      <c r="I90" s="62"/>
-      <c r="J90" s="75"/>
+      <c r="I90" s="61"/>
+      <c r="J90" s="74"/>
       <c r="P90" s="31" t="s">
         <v>14</v>
       </c>
-      <c r="S90" s="68">
+      <c r="S90" s="67">
         <v>45103</v>
       </c>
-      <c r="T90" s="68"/>
-      <c r="U90" s="68"/>
-      <c r="V90" s="68">
+      <c r="T90" s="67"/>
+      <c r="U90" s="67"/>
+      <c r="V90" s="67">
         <v>45104</v>
       </c>
-      <c r="W90" s="68"/>
-      <c r="X90" s="68"/>
+      <c r="W90" s="67"/>
+      <c r="X90" s="67"/>
       <c r="AB90">
         <v>2</v>
       </c>
-      <c r="AD90" s="58"/>
-      <c r="AE90" s="58"/>
-      <c r="AF90" s="58"/>
-      <c r="AG90" s="58"/>
-      <c r="AH90" s="58"/>
-      <c r="AI90" s="58"/>
-      <c r="AJ90" s="58"/>
-      <c r="AK90" s="58"/>
-      <c r="AL90" s="58"/>
-      <c r="AM90" s="58"/>
-      <c r="AN90" s="58"/>
-      <c r="AO90" s="58"/>
-      <c r="AP90" s="58"/>
-      <c r="AQ90" s="58"/>
-      <c r="AR90" s="58"/>
-      <c r="AS90" s="58"/>
-      <c r="AT90" s="58"/>
-      <c r="AU90" s="58"/>
-      <c r="AV90" s="58"/>
-      <c r="AW90" s="58"/>
-      <c r="AX90" s="58"/>
-      <c r="AY90" s="58"/>
-      <c r="AZ90" s="58"/>
-      <c r="BA90" s="58"/>
-      <c r="BB90" s="58"/>
-      <c r="BC90" s="81"/>
-      <c r="BD90" s="81"/>
-      <c r="BE90" s="58"/>
-      <c r="BF90" s="58"/>
-      <c r="BG90" s="58"/>
-    </row>
-    <row r="91" spans="3:59" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C91" s="114"/>
-      <c r="D91" s="114"/>
-      <c r="E91" s="114"/>
-      <c r="F91" s="114"/>
-      <c r="G91" s="114"/>
-      <c r="H91" s="62" t="s">
+      <c r="AD90" s="57"/>
+      <c r="AE90" s="57"/>
+      <c r="AF90" s="57"/>
+      <c r="AG90" s="57"/>
+      <c r="AH90" s="57"/>
+      <c r="AI90" s="57"/>
+      <c r="AJ90" s="57"/>
+      <c r="AK90" s="57"/>
+      <c r="AL90" s="57"/>
+      <c r="AM90" s="57"/>
+      <c r="AN90" s="57"/>
+      <c r="AO90" s="57"/>
+      <c r="AP90" s="57"/>
+      <c r="AQ90" s="57"/>
+      <c r="AR90" s="57"/>
+      <c r="AS90" s="57"/>
+      <c r="AT90" s="57"/>
+      <c r="AU90" s="57"/>
+      <c r="AV90" s="57"/>
+      <c r="AW90" s="57"/>
+      <c r="AX90" s="57"/>
+      <c r="AY90" s="57"/>
+      <c r="AZ90" s="57"/>
+      <c r="BA90" s="57"/>
+      <c r="BB90" s="57"/>
+      <c r="BC90" s="80"/>
+      <c r="BD90" s="80"/>
+      <c r="BE90" s="57"/>
+      <c r="BF90" s="57"/>
+      <c r="BG90" s="57"/>
+      <c r="BI90" s="164">
+        <v>0.83</v>
+      </c>
+      <c r="BJ90" s="164">
+        <v>0.83</v>
+      </c>
+    </row>
+    <row r="91" spans="3:62" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C91" s="137"/>
+      <c r="D91" s="137"/>
+      <c r="E91" s="137"/>
+      <c r="F91" s="137"/>
+      <c r="G91" s="137"/>
+      <c r="H91" s="61" t="s">
         <v>52</v>
       </c>
-      <c r="I91" s="62"/>
-      <c r="J91" s="75"/>
+      <c r="I91" s="61"/>
+      <c r="J91" s="74"/>
       <c r="P91" s="24" t="s">
         <v>29</v>
       </c>
-      <c r="S91" s="68">
+      <c r="S91" s="67">
         <v>45103</v>
       </c>
-      <c r="T91" s="68"/>
-      <c r="U91" s="68"/>
-      <c r="V91" s="68">
+      <c r="T91" s="67"/>
+      <c r="U91" s="67"/>
+      <c r="V91" s="67">
         <v>45104</v>
       </c>
-      <c r="W91" s="68"/>
-      <c r="X91" s="68"/>
+      <c r="W91" s="67"/>
+      <c r="X91" s="67"/>
       <c r="AB91">
         <v>2</v>
       </c>
-      <c r="AD91" s="58"/>
-      <c r="AE91" s="58"/>
-      <c r="AF91" s="58"/>
-      <c r="AG91" s="58"/>
-      <c r="AH91" s="58"/>
-      <c r="AI91" s="58"/>
-      <c r="AJ91" s="58"/>
-      <c r="AK91" s="58"/>
-      <c r="AL91" s="58"/>
-      <c r="AM91" s="58"/>
-      <c r="AN91" s="58"/>
-      <c r="AO91" s="58"/>
-      <c r="AP91" s="58"/>
-      <c r="AQ91" s="58"/>
-      <c r="AR91" s="58"/>
-      <c r="AS91" s="58"/>
-      <c r="AT91" s="58"/>
-      <c r="AU91" s="58"/>
-      <c r="AV91" s="58"/>
-      <c r="AW91" s="58"/>
-      <c r="AX91" s="58"/>
-      <c r="AY91" s="58"/>
-      <c r="AZ91" s="58"/>
-      <c r="BA91" s="58"/>
-      <c r="BB91" s="58"/>
-      <c r="BC91" s="81"/>
-      <c r="BD91" s="81"/>
-      <c r="BE91" s="58"/>
-      <c r="BF91" s="58"/>
-      <c r="BG91" s="58"/>
-    </row>
-    <row r="92" spans="3:59" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C92" s="114"/>
-      <c r="D92" s="114"/>
-      <c r="E92" s="114"/>
-      <c r="F92" s="114"/>
-      <c r="G92" s="114"/>
-      <c r="H92" s="105" t="s">
+      <c r="AD91" s="57"/>
+      <c r="AE91" s="57"/>
+      <c r="AF91" s="57"/>
+      <c r="AG91" s="57"/>
+      <c r="AH91" s="57"/>
+      <c r="AI91" s="57"/>
+      <c r="AJ91" s="57"/>
+      <c r="AK91" s="57"/>
+      <c r="AL91" s="57"/>
+      <c r="AM91" s="57"/>
+      <c r="AN91" s="57"/>
+      <c r="AO91" s="57"/>
+      <c r="AP91" s="57"/>
+      <c r="AQ91" s="57"/>
+      <c r="AR91" s="57"/>
+      <c r="AS91" s="57"/>
+      <c r="AT91" s="57"/>
+      <c r="AU91" s="57"/>
+      <c r="AV91" s="57"/>
+      <c r="AW91" s="57"/>
+      <c r="AX91" s="57"/>
+      <c r="AY91" s="57"/>
+      <c r="AZ91" s="57"/>
+      <c r="BA91" s="57"/>
+      <c r="BB91" s="57"/>
+      <c r="BC91" s="80"/>
+      <c r="BD91" s="80"/>
+      <c r="BE91" s="57"/>
+      <c r="BF91" s="57"/>
+      <c r="BG91" s="57"/>
+      <c r="BI91" s="164">
+        <v>0.84</v>
+      </c>
+      <c r="BJ91" s="164">
+        <v>0.84</v>
+      </c>
+    </row>
+    <row r="92" spans="3:62" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C92" s="137"/>
+      <c r="D92" s="137"/>
+      <c r="E92" s="137"/>
+      <c r="F92" s="137"/>
+      <c r="G92" s="137"/>
+      <c r="H92" s="104" t="s">
         <v>53</v>
       </c>
-      <c r="I92" s="105"/>
-      <c r="J92" s="106"/>
+      <c r="I92" s="104"/>
+      <c r="J92" s="105"/>
       <c r="P92" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="S92" s="68">
+      <c r="S92" s="67">
         <v>45103</v>
       </c>
-      <c r="T92" s="68"/>
-      <c r="U92" s="68"/>
-      <c r="V92" s="68">
+      <c r="T92" s="67"/>
+      <c r="U92" s="67"/>
+      <c r="V92" s="67">
         <v>45104</v>
       </c>
-      <c r="W92" s="68"/>
-      <c r="X92" s="68"/>
+      <c r="W92" s="67"/>
+      <c r="X92" s="67"/>
       <c r="AB92">
         <v>2</v>
       </c>
-      <c r="AD92" s="58"/>
-      <c r="AE92" s="58"/>
-      <c r="AF92" s="58"/>
-      <c r="AG92" s="58"/>
-      <c r="AH92" s="58"/>
-      <c r="AI92" s="58"/>
-      <c r="AJ92" s="58"/>
-      <c r="AK92" s="58"/>
-      <c r="AL92" s="58"/>
-      <c r="AM92" s="58"/>
-      <c r="AN92" s="58"/>
-      <c r="AO92" s="58"/>
-      <c r="AP92" s="58"/>
-      <c r="AQ92" s="58"/>
-      <c r="AR92" s="58"/>
-      <c r="AS92" s="58"/>
-      <c r="AT92" s="58"/>
-      <c r="AU92" s="58"/>
-      <c r="AV92" s="58"/>
-      <c r="AW92" s="58"/>
-      <c r="AX92" s="58"/>
-      <c r="AY92" s="58"/>
-      <c r="AZ92" s="58"/>
-      <c r="BA92" s="58"/>
-      <c r="BB92" s="58"/>
-      <c r="BC92" s="81"/>
-      <c r="BD92" s="81"/>
-      <c r="BE92" s="58"/>
-      <c r="BF92" s="58"/>
-      <c r="BG92" s="58"/>
-    </row>
-    <row r="93" spans="3:59" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C93" s="114"/>
-      <c r="D93" s="114"/>
-      <c r="E93" s="114"/>
-      <c r="F93" s="114"/>
-      <c r="G93" s="114"/>
-      <c r="H93" s="62" t="s">
+      <c r="AD92" s="57"/>
+      <c r="AE92" s="57"/>
+      <c r="AF92" s="57"/>
+      <c r="AG92" s="57"/>
+      <c r="AH92" s="57"/>
+      <c r="AI92" s="57"/>
+      <c r="AJ92" s="57"/>
+      <c r="AK92" s="57"/>
+      <c r="AL92" s="57"/>
+      <c r="AM92" s="57"/>
+      <c r="AN92" s="57"/>
+      <c r="AO92" s="57"/>
+      <c r="AP92" s="57"/>
+      <c r="AQ92" s="57"/>
+      <c r="AR92" s="57"/>
+      <c r="AS92" s="57"/>
+      <c r="AT92" s="57"/>
+      <c r="AU92" s="57"/>
+      <c r="AV92" s="57"/>
+      <c r="AW92" s="57"/>
+      <c r="AX92" s="57"/>
+      <c r="AY92" s="57"/>
+      <c r="AZ92" s="57"/>
+      <c r="BA92" s="57"/>
+      <c r="BB92" s="57"/>
+      <c r="BC92" s="80"/>
+      <c r="BD92" s="80"/>
+      <c r="BE92" s="57"/>
+      <c r="BF92" s="57"/>
+      <c r="BG92" s="57"/>
+      <c r="BI92" s="164">
+        <v>0.85</v>
+      </c>
+      <c r="BJ92" s="164">
+        <v>0.85</v>
+      </c>
+    </row>
+    <row r="93" spans="3:62" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C93" s="137"/>
+      <c r="D93" s="137"/>
+      <c r="E93" s="137"/>
+      <c r="F93" s="137"/>
+      <c r="G93" s="137"/>
+      <c r="H93" s="61" t="s">
         <v>54</v>
       </c>
-      <c r="I93" s="62"/>
-      <c r="J93" s="75"/>
+      <c r="I93" s="61"/>
+      <c r="J93" s="74"/>
       <c r="P93" s="22" t="s">
         <v>48</v>
       </c>
-      <c r="S93" s="68">
+      <c r="S93" s="67">
         <v>45103</v>
       </c>
-      <c r="T93" s="68"/>
-      <c r="U93" s="68"/>
-      <c r="V93" s="68">
+      <c r="T93" s="67"/>
+      <c r="U93" s="67"/>
+      <c r="V93" s="67">
         <v>45104</v>
       </c>
-      <c r="W93" s="68"/>
-      <c r="X93" s="68"/>
+      <c r="W93" s="67"/>
+      <c r="X93" s="67"/>
       <c r="AB93">
         <v>2</v>
       </c>
-      <c r="AD93" s="58"/>
-      <c r="AE93" s="58"/>
-      <c r="AF93" s="58"/>
-      <c r="AG93" s="58"/>
-      <c r="AH93" s="58"/>
-      <c r="AI93" s="58"/>
-      <c r="AJ93" s="58"/>
-      <c r="AK93" s="58"/>
-      <c r="AL93" s="58"/>
-      <c r="AM93" s="58"/>
-      <c r="AN93" s="58"/>
-      <c r="AO93" s="58"/>
-      <c r="AP93" s="58"/>
-      <c r="AQ93" s="58"/>
-      <c r="AR93" s="58"/>
-      <c r="AS93" s="58"/>
-      <c r="AT93" s="58"/>
-      <c r="AU93" s="58"/>
-      <c r="AV93" s="58"/>
-      <c r="AW93" s="58"/>
-      <c r="AX93" s="58"/>
-      <c r="AY93" s="58"/>
-      <c r="AZ93" s="58"/>
-      <c r="BA93" s="58"/>
-      <c r="BB93" s="58"/>
-      <c r="BC93" s="81"/>
-      <c r="BD93" s="81"/>
-      <c r="BE93" s="58"/>
-      <c r="BF93" s="58"/>
-      <c r="BG93" s="58"/>
-    </row>
-    <row r="94" spans="3:59" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C94" s="114"/>
-      <c r="D94" s="114"/>
-      <c r="E94" s="114"/>
-      <c r="F94" s="114"/>
-      <c r="G94" s="114"/>
-      <c r="H94" s="62" t="s">
+      <c r="AD93" s="57"/>
+      <c r="AE93" s="57"/>
+      <c r="AF93" s="57"/>
+      <c r="AG93" s="57"/>
+      <c r="AH93" s="57"/>
+      <c r="AI93" s="57"/>
+      <c r="AJ93" s="57"/>
+      <c r="AK93" s="57"/>
+      <c r="AL93" s="57"/>
+      <c r="AM93" s="57"/>
+      <c r="AN93" s="57"/>
+      <c r="AO93" s="57"/>
+      <c r="AP93" s="57"/>
+      <c r="AQ93" s="57"/>
+      <c r="AR93" s="57"/>
+      <c r="AS93" s="57"/>
+      <c r="AT93" s="57"/>
+      <c r="AU93" s="57"/>
+      <c r="AV93" s="57"/>
+      <c r="AW93" s="57"/>
+      <c r="AX93" s="57"/>
+      <c r="AY93" s="57"/>
+      <c r="AZ93" s="57"/>
+      <c r="BA93" s="57"/>
+      <c r="BB93" s="57"/>
+      <c r="BC93" s="80"/>
+      <c r="BD93" s="80"/>
+      <c r="BE93" s="57"/>
+      <c r="BF93" s="57"/>
+      <c r="BG93" s="57"/>
+      <c r="BI93" s="164">
+        <v>0.86</v>
+      </c>
+      <c r="BJ93" s="164">
+        <v>0.86</v>
+      </c>
+    </row>
+    <row r="94" spans="3:62" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C94" s="137"/>
+      <c r="D94" s="137"/>
+      <c r="E94" s="137"/>
+      <c r="F94" s="137"/>
+      <c r="G94" s="137"/>
+      <c r="H94" s="61" t="s">
         <v>55</v>
       </c>
-      <c r="I94" s="62"/>
-      <c r="J94" s="75"/>
+      <c r="I94" s="61"/>
+      <c r="J94" s="74"/>
       <c r="P94" s="22" t="s">
         <v>48</v>
       </c>
-      <c r="S94" s="68">
+      <c r="S94" s="67">
         <v>45103</v>
       </c>
-      <c r="T94" s="68"/>
-      <c r="U94" s="68"/>
-      <c r="V94" s="68">
+      <c r="T94" s="67"/>
+      <c r="U94" s="67"/>
+      <c r="V94" s="67">
         <v>45104</v>
       </c>
-      <c r="W94" s="68"/>
-      <c r="X94" s="68"/>
+      <c r="W94" s="67"/>
+      <c r="X94" s="67"/>
       <c r="AB94">
         <v>2</v>
       </c>
-      <c r="AD94" s="58"/>
-      <c r="AE94" s="58"/>
-      <c r="AF94" s="58"/>
-      <c r="AG94" s="58"/>
-      <c r="AH94" s="58"/>
-      <c r="AI94" s="58"/>
-      <c r="AJ94" s="58"/>
-      <c r="AK94" s="58"/>
-      <c r="AL94" s="58"/>
-      <c r="AM94" s="58"/>
-      <c r="AN94" s="58"/>
-      <c r="AO94" s="58"/>
-      <c r="AP94" s="58"/>
-      <c r="AQ94" s="58"/>
-      <c r="AR94" s="58"/>
-      <c r="AS94" s="58"/>
-      <c r="AT94" s="58"/>
-      <c r="AU94" s="58"/>
-      <c r="AV94" s="58"/>
-      <c r="AW94" s="58"/>
-      <c r="AX94" s="58"/>
-      <c r="AY94" s="58"/>
-      <c r="AZ94" s="58"/>
-      <c r="BA94" s="58"/>
-      <c r="BB94" s="58"/>
-      <c r="BC94" s="81"/>
-      <c r="BD94" s="81"/>
-      <c r="BE94" s="58"/>
-      <c r="BF94" s="58"/>
-      <c r="BG94" s="58"/>
-    </row>
-    <row r="95" spans="3:59" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C95" s="114"/>
-      <c r="D95" s="114"/>
-      <c r="E95" s="114"/>
-      <c r="F95" s="114"/>
-      <c r="G95" s="114"/>
-      <c r="H95" s="62" t="s">
+      <c r="AD94" s="57"/>
+      <c r="AE94" s="57"/>
+      <c r="AF94" s="57"/>
+      <c r="AG94" s="57"/>
+      <c r="AH94" s="57"/>
+      <c r="AI94" s="57"/>
+      <c r="AJ94" s="57"/>
+      <c r="AK94" s="57"/>
+      <c r="AL94" s="57"/>
+      <c r="AM94" s="57"/>
+      <c r="AN94" s="57"/>
+      <c r="AO94" s="57"/>
+      <c r="AP94" s="57"/>
+      <c r="AQ94" s="57"/>
+      <c r="AR94" s="57"/>
+      <c r="AS94" s="57"/>
+      <c r="AT94" s="57"/>
+      <c r="AU94" s="57"/>
+      <c r="AV94" s="57"/>
+      <c r="AW94" s="57"/>
+      <c r="AX94" s="57"/>
+      <c r="AY94" s="57"/>
+      <c r="AZ94" s="57"/>
+      <c r="BA94" s="57"/>
+      <c r="BB94" s="57"/>
+      <c r="BC94" s="80"/>
+      <c r="BD94" s="80"/>
+      <c r="BE94" s="57"/>
+      <c r="BF94" s="57"/>
+      <c r="BG94" s="57"/>
+      <c r="BI94" s="164">
+        <v>0.87</v>
+      </c>
+      <c r="BJ94" s="164">
+        <v>0.87</v>
+      </c>
+    </row>
+    <row r="95" spans="3:62" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C95" s="137"/>
+      <c r="D95" s="137"/>
+      <c r="E95" s="137"/>
+      <c r="F95" s="137"/>
+      <c r="G95" s="137"/>
+      <c r="H95" s="61" t="s">
         <v>56</v>
       </c>
-      <c r="I95" s="62"/>
-      <c r="J95" s="75"/>
+      <c r="I95" s="61"/>
+      <c r="J95" s="74"/>
       <c r="P95" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="S95" s="68">
+      <c r="S95" s="67">
         <v>45103</v>
       </c>
-      <c r="T95" s="68"/>
-      <c r="U95" s="68"/>
-      <c r="V95" s="68">
+      <c r="T95" s="67"/>
+      <c r="U95" s="67"/>
+      <c r="V95" s="67">
         <v>45104</v>
       </c>
-      <c r="W95" s="68"/>
-      <c r="X95" s="68"/>
+      <c r="W95" s="67"/>
+      <c r="X95" s="67"/>
       <c r="AB95">
         <v>2</v>
       </c>
-      <c r="AD95" s="58"/>
-      <c r="AE95" s="58"/>
-      <c r="AF95" s="58"/>
-      <c r="AG95" s="58"/>
-      <c r="AH95" s="58"/>
-      <c r="AI95" s="58"/>
-      <c r="AJ95" s="58"/>
-      <c r="AK95" s="58"/>
-      <c r="AL95" s="58"/>
-      <c r="AM95" s="58"/>
-      <c r="AN95" s="58"/>
-      <c r="AO95" s="58"/>
-      <c r="AP95" s="58"/>
-      <c r="AQ95" s="58"/>
-      <c r="AR95" s="58"/>
-      <c r="AS95" s="58"/>
-      <c r="AT95" s="58"/>
-      <c r="AU95" s="58"/>
-      <c r="AV95" s="58"/>
-      <c r="AW95" s="58"/>
-      <c r="AX95" s="58"/>
-      <c r="AY95" s="58"/>
-      <c r="AZ95" s="58"/>
-      <c r="BA95" s="58"/>
-      <c r="BB95" s="58"/>
-      <c r="BC95" s="81"/>
-      <c r="BD95" s="81"/>
-      <c r="BE95" s="58"/>
-      <c r="BF95" s="58"/>
-      <c r="BG95" s="58"/>
-    </row>
-    <row r="96" spans="3:59" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C96" s="114"/>
-      <c r="D96" s="114"/>
-      <c r="E96" s="114"/>
-      <c r="F96" s="114"/>
-      <c r="G96" s="114"/>
-      <c r="H96" s="62" t="s">
+      <c r="AD95" s="57"/>
+      <c r="AE95" s="57"/>
+      <c r="AF95" s="57"/>
+      <c r="AG95" s="57"/>
+      <c r="AH95" s="57"/>
+      <c r="AI95" s="57"/>
+      <c r="AJ95" s="57"/>
+      <c r="AK95" s="57"/>
+      <c r="AL95" s="57"/>
+      <c r="AM95" s="57"/>
+      <c r="AN95" s="57"/>
+      <c r="AO95" s="57"/>
+      <c r="AP95" s="57"/>
+      <c r="AQ95" s="57"/>
+      <c r="AR95" s="57"/>
+      <c r="AS95" s="57"/>
+      <c r="AT95" s="57"/>
+      <c r="AU95" s="57"/>
+      <c r="AV95" s="57"/>
+      <c r="AW95" s="57"/>
+      <c r="AX95" s="57"/>
+      <c r="AY95" s="57"/>
+      <c r="AZ95" s="57"/>
+      <c r="BA95" s="57"/>
+      <c r="BB95" s="57"/>
+      <c r="BC95" s="80"/>
+      <c r="BD95" s="80"/>
+      <c r="BE95" s="57"/>
+      <c r="BF95" s="57"/>
+      <c r="BG95" s="57"/>
+      <c r="BI95" s="164">
+        <v>0.88</v>
+      </c>
+      <c r="BJ95" s="164">
+        <v>0.88</v>
+      </c>
+    </row>
+    <row r="96" spans="3:62" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C96" s="137"/>
+      <c r="D96" s="137"/>
+      <c r="E96" s="137"/>
+      <c r="F96" s="137"/>
+      <c r="G96" s="137"/>
+      <c r="H96" s="61" t="s">
         <v>57</v>
       </c>
-      <c r="I96" s="62"/>
-      <c r="J96" s="75"/>
+      <c r="I96" s="61"/>
+      <c r="J96" s="74"/>
       <c r="P96" s="31" t="s">
         <v>14</v>
       </c>
-      <c r="S96" s="68">
+      <c r="S96" s="67">
         <v>45103</v>
       </c>
-      <c r="T96" s="68"/>
-      <c r="U96" s="68"/>
-      <c r="V96" s="68">
+      <c r="T96" s="67"/>
+      <c r="U96" s="67"/>
+      <c r="V96" s="67">
         <v>45104</v>
       </c>
-      <c r="W96" s="68"/>
-      <c r="X96" s="68"/>
+      <c r="W96" s="67"/>
+      <c r="X96" s="67"/>
       <c r="AB96">
         <v>2</v>
       </c>
-      <c r="AD96" s="58"/>
-      <c r="AE96" s="58"/>
-      <c r="AF96" s="58"/>
-      <c r="AG96" s="58"/>
-      <c r="AH96" s="58"/>
-      <c r="AI96" s="58"/>
-      <c r="AJ96" s="58"/>
-      <c r="AK96" s="58"/>
-      <c r="AL96" s="58"/>
-      <c r="AM96" s="58"/>
-      <c r="AN96" s="58"/>
-      <c r="AO96" s="58"/>
-      <c r="AP96" s="58"/>
-      <c r="AQ96" s="58"/>
-      <c r="AR96" s="58"/>
-      <c r="AS96" s="58"/>
-      <c r="AT96" s="58"/>
-      <c r="AU96" s="58"/>
-      <c r="AV96" s="58"/>
-      <c r="AW96" s="58"/>
-      <c r="AX96" s="58"/>
-      <c r="AY96" s="58"/>
-      <c r="AZ96" s="58"/>
-      <c r="BA96" s="58"/>
-      <c r="BB96" s="58"/>
-      <c r="BC96" s="81"/>
-      <c r="BD96" s="81"/>
-      <c r="BE96" s="58"/>
-      <c r="BF96" s="58"/>
-      <c r="BG96" s="58"/>
-    </row>
-    <row r="97" spans="3:59" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C97" s="114"/>
-      <c r="D97" s="114"/>
-      <c r="E97" s="114"/>
-      <c r="F97" s="114"/>
-      <c r="G97" s="114"/>
-      <c r="H97" s="62" t="s">
+      <c r="AD96" s="57"/>
+      <c r="AE96" s="57"/>
+      <c r="AF96" s="57"/>
+      <c r="AG96" s="57"/>
+      <c r="AH96" s="57"/>
+      <c r="AI96" s="57"/>
+      <c r="AJ96" s="57"/>
+      <c r="AK96" s="57"/>
+      <c r="AL96" s="57"/>
+      <c r="AM96" s="57"/>
+      <c r="AN96" s="57"/>
+      <c r="AO96" s="57"/>
+      <c r="AP96" s="57"/>
+      <c r="AQ96" s="57"/>
+      <c r="AR96" s="57"/>
+      <c r="AS96" s="57"/>
+      <c r="AT96" s="57"/>
+      <c r="AU96" s="57"/>
+      <c r="AV96" s="57"/>
+      <c r="AW96" s="57"/>
+      <c r="AX96" s="57"/>
+      <c r="AY96" s="57"/>
+      <c r="AZ96" s="57"/>
+      <c r="BA96" s="57"/>
+      <c r="BB96" s="57"/>
+      <c r="BC96" s="80"/>
+      <c r="BD96" s="80"/>
+      <c r="BE96" s="57"/>
+      <c r="BF96" s="57"/>
+      <c r="BG96" s="57"/>
+      <c r="BI96" s="164">
+        <v>0.89</v>
+      </c>
+      <c r="BJ96" s="164">
+        <v>0.89</v>
+      </c>
+    </row>
+    <row r="97" spans="3:62" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C97" s="137"/>
+      <c r="D97" s="137"/>
+      <c r="E97" s="137"/>
+      <c r="F97" s="137"/>
+      <c r="G97" s="137"/>
+      <c r="H97" s="61" t="s">
         <v>81</v>
       </c>
-      <c r="I97" s="62"/>
-      <c r="J97" s="75"/>
+      <c r="I97" s="61"/>
+      <c r="J97" s="74"/>
       <c r="P97" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="S97" s="68">
+      <c r="S97" s="67">
         <v>45103</v>
       </c>
-      <c r="T97" s="68"/>
-      <c r="U97" s="68"/>
-      <c r="V97" s="68">
+      <c r="T97" s="67"/>
+      <c r="U97" s="67"/>
+      <c r="V97" s="67">
         <v>45104</v>
       </c>
-      <c r="W97" s="68"/>
-      <c r="X97" s="68"/>
+      <c r="W97" s="67"/>
+      <c r="X97" s="67"/>
       <c r="AB97">
         <v>2</v>
       </c>
-      <c r="AD97" s="58"/>
-      <c r="AE97" s="58"/>
-      <c r="AF97" s="58"/>
-      <c r="AG97" s="58"/>
-      <c r="AH97" s="58"/>
-      <c r="AI97" s="58"/>
-      <c r="AJ97" s="58"/>
-      <c r="AK97" s="58"/>
-      <c r="AL97" s="58"/>
-      <c r="AM97" s="58"/>
-      <c r="AN97" s="58"/>
-      <c r="AO97" s="58"/>
-      <c r="AP97" s="58"/>
-      <c r="AQ97" s="58"/>
-      <c r="AR97" s="58"/>
-      <c r="AS97" s="58"/>
-      <c r="AT97" s="58"/>
-      <c r="AU97" s="58"/>
-      <c r="AV97" s="58"/>
-      <c r="AW97" s="58"/>
-      <c r="AX97" s="58"/>
-      <c r="AY97" s="58"/>
-      <c r="AZ97" s="58"/>
-      <c r="BA97" s="58"/>
-      <c r="BB97" s="58"/>
-      <c r="BC97" s="81"/>
-      <c r="BD97" s="81"/>
-      <c r="BE97" s="58"/>
-      <c r="BF97" s="58"/>
-      <c r="BG97" s="58"/>
-    </row>
-    <row r="98" spans="3:59" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C98" s="117"/>
-      <c r="D98" s="117"/>
-      <c r="E98" s="117"/>
-      <c r="F98" s="117"/>
-      <c r="G98" s="117"/>
-      <c r="H98" s="62" t="s">
+      <c r="AD97" s="57"/>
+      <c r="AE97" s="57"/>
+      <c r="AF97" s="57"/>
+      <c r="AG97" s="57"/>
+      <c r="AH97" s="57"/>
+      <c r="AI97" s="57"/>
+      <c r="AJ97" s="57"/>
+      <c r="AK97" s="57"/>
+      <c r="AL97" s="57"/>
+      <c r="AM97" s="57"/>
+      <c r="AN97" s="57"/>
+      <c r="AO97" s="57"/>
+      <c r="AP97" s="57"/>
+      <c r="AQ97" s="57"/>
+      <c r="AR97" s="57"/>
+      <c r="AS97" s="57"/>
+      <c r="AT97" s="57"/>
+      <c r="AU97" s="57"/>
+      <c r="AV97" s="57"/>
+      <c r="AW97" s="57"/>
+      <c r="AX97" s="57"/>
+      <c r="AY97" s="57"/>
+      <c r="AZ97" s="57"/>
+      <c r="BA97" s="57"/>
+      <c r="BB97" s="57"/>
+      <c r="BC97" s="80"/>
+      <c r="BD97" s="80"/>
+      <c r="BE97" s="57"/>
+      <c r="BF97" s="57"/>
+      <c r="BG97" s="57"/>
+      <c r="BI97" s="164">
+        <v>0.9</v>
+      </c>
+      <c r="BJ97" s="164">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="98" spans="3:62" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C98" s="140"/>
+      <c r="D98" s="140"/>
+      <c r="E98" s="140"/>
+      <c r="F98" s="140"/>
+      <c r="G98" s="140"/>
+      <c r="H98" s="61" t="s">
         <v>82</v>
       </c>
-      <c r="I98" s="62"/>
-      <c r="J98" s="75"/>
+      <c r="I98" s="61"/>
+      <c r="J98" s="74"/>
       <c r="P98" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="S98" s="68">
+      <c r="S98" s="67">
         <v>45103</v>
       </c>
-      <c r="T98" s="68"/>
-      <c r="U98" s="68"/>
-      <c r="V98" s="68">
+      <c r="T98" s="67"/>
+      <c r="U98" s="67"/>
+      <c r="V98" s="67">
         <v>45104</v>
       </c>
-      <c r="W98" s="68"/>
-      <c r="X98" s="68"/>
+      <c r="W98" s="67"/>
+      <c r="X98" s="67"/>
       <c r="AB98">
         <v>2</v>
       </c>
-      <c r="AD98" s="58"/>
-      <c r="AE98" s="58"/>
-      <c r="AF98" s="58"/>
-      <c r="AG98" s="58"/>
-      <c r="AH98" s="58"/>
-      <c r="AI98" s="58"/>
-      <c r="AJ98" s="58"/>
-      <c r="AK98" s="58"/>
-      <c r="AL98" s="58"/>
-      <c r="AM98" s="58"/>
-      <c r="AN98" s="58"/>
-      <c r="AO98" s="58"/>
-      <c r="AP98" s="58"/>
-      <c r="AQ98" s="58"/>
-      <c r="AR98" s="58"/>
-      <c r="AS98" s="58"/>
-      <c r="AT98" s="58"/>
-      <c r="AU98" s="58"/>
-      <c r="AV98" s="58"/>
-      <c r="AW98" s="58"/>
-      <c r="AX98" s="58"/>
-      <c r="AY98" s="58"/>
-      <c r="AZ98" s="58"/>
-      <c r="BA98" s="58"/>
-      <c r="BB98" s="58"/>
-      <c r="BC98" s="81"/>
-      <c r="BD98" s="81"/>
-      <c r="BE98" s="58"/>
-      <c r="BF98" s="58"/>
-      <c r="BG98" s="58"/>
-    </row>
-    <row r="99" spans="3:59" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C99" s="60" t="s">
+      <c r="AD98" s="57"/>
+      <c r="AE98" s="57"/>
+      <c r="AF98" s="57"/>
+      <c r="AG98" s="57"/>
+      <c r="AH98" s="57"/>
+      <c r="AI98" s="57"/>
+      <c r="AJ98" s="57"/>
+      <c r="AK98" s="57"/>
+      <c r="AL98" s="57"/>
+      <c r="AM98" s="57"/>
+      <c r="AN98" s="57"/>
+      <c r="AO98" s="57"/>
+      <c r="AP98" s="57"/>
+      <c r="AQ98" s="57"/>
+      <c r="AR98" s="57"/>
+      <c r="AS98" s="57"/>
+      <c r="AT98" s="57"/>
+      <c r="AU98" s="57"/>
+      <c r="AV98" s="57"/>
+      <c r="AW98" s="57"/>
+      <c r="AX98" s="57"/>
+      <c r="AY98" s="57"/>
+      <c r="AZ98" s="57"/>
+      <c r="BA98" s="57"/>
+      <c r="BB98" s="57"/>
+      <c r="BC98" s="80"/>
+      <c r="BD98" s="80"/>
+      <c r="BE98" s="57"/>
+      <c r="BF98" s="57"/>
+      <c r="BG98" s="57"/>
+      <c r="BI98" s="164">
+        <v>0.91</v>
+      </c>
+      <c r="BJ98" s="164">
+        <v>0.91</v>
+      </c>
+    </row>
+    <row r="99" spans="3:62" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C99" s="59" t="s">
         <v>17</v>
       </c>
-      <c r="D99" s="60"/>
-      <c r="E99" s="60"/>
-      <c r="F99" s="60"/>
-      <c r="G99" s="60"/>
-      <c r="H99" s="107" t="s">
+      <c r="D99" s="59"/>
+      <c r="E99" s="59"/>
+      <c r="F99" s="59"/>
+      <c r="G99" s="59"/>
+      <c r="H99" s="106" t="s">
         <v>119</v>
       </c>
-      <c r="I99" s="62"/>
-      <c r="J99" s="75"/>
-      <c r="S99" s="68">
+      <c r="I99" s="61"/>
+      <c r="J99" s="74"/>
+      <c r="S99" s="67">
         <v>45104</v>
       </c>
-      <c r="T99" s="68"/>
-      <c r="U99" s="68"/>
-      <c r="V99" s="68">
+      <c r="T99" s="67"/>
+      <c r="U99" s="67"/>
+      <c r="V99" s="67">
         <v>45105</v>
       </c>
-      <c r="W99" s="68"/>
-      <c r="X99" s="68"/>
+      <c r="W99" s="67"/>
+      <c r="X99" s="67"/>
       <c r="AB99">
         <v>2</v>
       </c>
-      <c r="AD99" s="58"/>
-      <c r="AE99" s="58"/>
-      <c r="AF99" s="58"/>
-      <c r="AG99" s="58"/>
-      <c r="AH99" s="58"/>
-      <c r="AI99" s="58"/>
-      <c r="AJ99" s="58"/>
-      <c r="AK99" s="58"/>
-      <c r="AL99" s="58"/>
-      <c r="AM99" s="58"/>
-      <c r="AN99" s="58"/>
-      <c r="AO99" s="58"/>
-      <c r="AP99" s="58"/>
-      <c r="AQ99" s="58"/>
-      <c r="AR99" s="58"/>
-      <c r="AS99" s="58"/>
-      <c r="AT99" s="58"/>
-      <c r="AU99" s="58"/>
-      <c r="AV99" s="58"/>
-      <c r="AW99" s="58"/>
-      <c r="AX99" s="58"/>
-      <c r="AY99" s="58"/>
-      <c r="AZ99" s="58"/>
-      <c r="BA99" s="58"/>
-      <c r="BB99" s="58"/>
-      <c r="BC99" s="58"/>
-      <c r="BD99" s="81"/>
-      <c r="BE99" s="81"/>
-      <c r="BF99" s="58"/>
-      <c r="BG99" s="58"/>
-    </row>
-    <row r="100" spans="3:59" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C100" s="61" t="s">
+      <c r="AD99" s="57"/>
+      <c r="AE99" s="57"/>
+      <c r="AF99" s="57"/>
+      <c r="AG99" s="57"/>
+      <c r="AH99" s="57"/>
+      <c r="AI99" s="57"/>
+      <c r="AJ99" s="57"/>
+      <c r="AK99" s="57"/>
+      <c r="AL99" s="57"/>
+      <c r="AM99" s="57"/>
+      <c r="AN99" s="57"/>
+      <c r="AO99" s="57"/>
+      <c r="AP99" s="57"/>
+      <c r="AQ99" s="57"/>
+      <c r="AR99" s="57"/>
+      <c r="AS99" s="57"/>
+      <c r="AT99" s="57"/>
+      <c r="AU99" s="57"/>
+      <c r="AV99" s="57"/>
+      <c r="AW99" s="57"/>
+      <c r="AX99" s="57"/>
+      <c r="AY99" s="57"/>
+      <c r="AZ99" s="57"/>
+      <c r="BA99" s="57"/>
+      <c r="BB99" s="57"/>
+      <c r="BC99" s="57"/>
+      <c r="BD99" s="80"/>
+      <c r="BE99" s="80"/>
+      <c r="BF99" s="57"/>
+      <c r="BG99" s="57"/>
+      <c r="BI99" s="164">
+        <v>0.92</v>
+      </c>
+      <c r="BJ99" s="164">
+        <v>0.92</v>
+      </c>
+    </row>
+    <row r="100" spans="3:62" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C100" s="60" t="s">
         <v>121</v>
       </c>
-      <c r="D100" s="61"/>
-      <c r="E100" s="61"/>
-      <c r="F100" s="61"/>
-      <c r="G100" s="61"/>
-      <c r="S100" s="68">
+      <c r="D100" s="60"/>
+      <c r="E100" s="60"/>
+      <c r="F100" s="60"/>
+      <c r="G100" s="60"/>
+      <c r="S100" s="67">
         <v>45096</v>
       </c>
-      <c r="T100" s="68"/>
-      <c r="U100" s="68"/>
-      <c r="V100" s="68">
+      <c r="T100" s="67"/>
+      <c r="U100" s="67"/>
+      <c r="V100" s="67">
         <v>45105</v>
       </c>
-      <c r="W100" s="68"/>
-      <c r="X100" s="68"/>
-      <c r="AD100" s="58"/>
-      <c r="AE100" s="58"/>
-      <c r="AF100" s="58"/>
-      <c r="AG100" s="58"/>
-      <c r="AH100" s="58"/>
-      <c r="AI100" s="58"/>
-      <c r="AJ100" s="58"/>
-      <c r="AK100" s="58"/>
-      <c r="AL100" s="58"/>
-      <c r="AM100" s="58"/>
-      <c r="AN100" s="58"/>
-      <c r="AO100" s="58"/>
-      <c r="AP100" s="58"/>
-      <c r="AQ100" s="58"/>
-      <c r="AR100" s="58"/>
-      <c r="AS100" s="58"/>
-      <c r="AT100" s="58"/>
-      <c r="AU100" s="58"/>
-      <c r="AV100" s="58"/>
-      <c r="AW100" s="58"/>
-      <c r="AX100" s="58"/>
-      <c r="AY100" s="58"/>
-      <c r="AZ100" s="58"/>
-      <c r="BA100" s="58"/>
-      <c r="BB100" s="58"/>
-      <c r="BC100" s="58"/>
-      <c r="BD100" s="58"/>
-      <c r="BE100" s="58"/>
-      <c r="BF100" s="58"/>
-      <c r="BG100" s="58"/>
-    </row>
-    <row r="101" spans="3:59" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C101" s="77" t="s">
+      <c r="W100" s="67"/>
+      <c r="X100" s="67"/>
+      <c r="AD100" s="57"/>
+      <c r="AE100" s="57"/>
+      <c r="AF100" s="57"/>
+      <c r="AG100" s="57"/>
+      <c r="AH100" s="57"/>
+      <c r="AI100" s="57"/>
+      <c r="AJ100" s="57"/>
+      <c r="AK100" s="57"/>
+      <c r="AL100" s="57"/>
+      <c r="AM100" s="57"/>
+      <c r="AN100" s="57"/>
+      <c r="AO100" s="57"/>
+      <c r="AP100" s="57"/>
+      <c r="AQ100" s="57"/>
+      <c r="AR100" s="57"/>
+      <c r="AS100" s="57"/>
+      <c r="AT100" s="57"/>
+      <c r="AU100" s="57"/>
+      <c r="AV100" s="57"/>
+      <c r="AW100" s="57"/>
+      <c r="AX100" s="57"/>
+      <c r="AY100" s="57"/>
+      <c r="AZ100" s="57"/>
+      <c r="BA100" s="57"/>
+      <c r="BB100" s="57"/>
+      <c r="BC100" s="57"/>
+      <c r="BD100" s="57"/>
+      <c r="BE100" s="57"/>
+      <c r="BF100" s="57"/>
+      <c r="BG100" s="57"/>
+      <c r="BI100" s="164">
+        <v>0.93</v>
+      </c>
+      <c r="BJ100" s="164">
+        <v>0.93</v>
+      </c>
+    </row>
+    <row r="101" spans="3:62" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C101" s="76" t="s">
         <v>120</v>
       </c>
-      <c r="D101" s="77"/>
-      <c r="E101" s="77"/>
-      <c r="F101" s="77"/>
-      <c r="G101" s="77"/>
-      <c r="S101" s="67"/>
-      <c r="T101" s="67"/>
-      <c r="U101" s="67"/>
-      <c r="V101" s="68">
+      <c r="D101" s="76"/>
+      <c r="E101" s="76"/>
+      <c r="F101" s="76"/>
+      <c r="G101" s="76"/>
+      <c r="S101" s="66"/>
+      <c r="T101" s="66"/>
+      <c r="U101" s="66"/>
+      <c r="V101" s="67">
         <v>45107</v>
       </c>
-      <c r="W101" s="68"/>
-      <c r="X101" s="68"/>
-      <c r="AD101" s="58"/>
-      <c r="AE101" s="58"/>
-      <c r="AF101" s="58"/>
-      <c r="AG101" s="58"/>
-      <c r="AH101" s="58"/>
-      <c r="AI101" s="58"/>
-      <c r="AJ101" s="58"/>
-      <c r="AK101" s="58"/>
-      <c r="AL101" s="58"/>
-      <c r="AM101" s="58"/>
-      <c r="AN101" s="58"/>
-      <c r="AO101" s="58"/>
-      <c r="AP101" s="58"/>
-      <c r="AQ101" s="58"/>
-      <c r="AR101" s="58"/>
-      <c r="AS101" s="58"/>
-      <c r="AT101" s="58"/>
-      <c r="AU101" s="58"/>
-      <c r="AV101" s="58"/>
-      <c r="AW101" s="58"/>
-      <c r="AX101" s="58"/>
-      <c r="AY101" s="58"/>
-      <c r="AZ101" s="58"/>
-      <c r="BA101" s="58"/>
-      <c r="BB101" s="58"/>
-      <c r="BC101" s="58"/>
-      <c r="BD101" s="58"/>
-      <c r="BE101" s="58"/>
-      <c r="BF101" s="58"/>
-      <c r="BG101" s="58"/>
-    </row>
-    <row r="102" spans="3:59" ht="16" x14ac:dyDescent="0.3">
-      <c r="D102" s="69"/>
-      <c r="E102" s="69"/>
-      <c r="F102" s="69"/>
-      <c r="G102" s="69"/>
+      <c r="W101" s="67"/>
+      <c r="X101" s="67"/>
+      <c r="AD101" s="57"/>
+      <c r="AE101" s="57"/>
+      <c r="AF101" s="57"/>
+      <c r="AG101" s="57"/>
+      <c r="AH101" s="57"/>
+      <c r="AI101" s="57"/>
+      <c r="AJ101" s="57"/>
+      <c r="AK101" s="57"/>
+      <c r="AL101" s="57"/>
+      <c r="AM101" s="57"/>
+      <c r="AN101" s="57"/>
+      <c r="AO101" s="57"/>
+      <c r="AP101" s="57"/>
+      <c r="AQ101" s="57"/>
+      <c r="AR101" s="57"/>
+      <c r="AS101" s="57"/>
+      <c r="AT101" s="57"/>
+      <c r="AU101" s="57"/>
+      <c r="AV101" s="57"/>
+      <c r="AW101" s="57"/>
+      <c r="AX101" s="57"/>
+      <c r="AY101" s="57"/>
+      <c r="AZ101" s="57"/>
+      <c r="BA101" s="57"/>
+      <c r="BB101" s="57"/>
+      <c r="BC101" s="57"/>
+      <c r="BD101" s="57"/>
+      <c r="BE101" s="57"/>
+      <c r="BF101" s="57"/>
+      <c r="BG101" s="57"/>
+      <c r="BI101" s="164">
+        <v>0.94</v>
+      </c>
+      <c r="BJ101" s="164">
+        <v>0.94</v>
+      </c>
+    </row>
+    <row r="102" spans="3:62" ht="16" x14ac:dyDescent="0.3">
+      <c r="D102" s="68"/>
+      <c r="E102" s="68"/>
+      <c r="F102" s="68"/>
+      <c r="G102" s="68"/>
       <c r="AB102">
         <f>SUM(AB9:AB100)</f>
         <v>286</v>
       </c>
-    </row>
-    <row r="109" spans="3:59" ht="16" x14ac:dyDescent="0.3">
-      <c r="C109" s="69"/>
-      <c r="D109" s="69"/>
-      <c r="E109" s="69"/>
-      <c r="F109" s="69"/>
-      <c r="G109" s="69"/>
-    </row>
-    <row r="110" spans="3:59" ht="16" x14ac:dyDescent="0.3">
-      <c r="C110" s="69"/>
-      <c r="D110" s="69"/>
-      <c r="E110" s="69"/>
-      <c r="F110" s="69"/>
-      <c r="G110" s="69"/>
-    </row>
-    <row r="111" spans="3:59" ht="16" x14ac:dyDescent="0.3">
-      <c r="C111" s="69"/>
-      <c r="D111" s="69"/>
-      <c r="E111" s="69"/>
-      <c r="F111" s="69"/>
-      <c r="G111" s="69"/>
+      <c r="BI102" s="164">
+        <v>0.95</v>
+      </c>
+      <c r="BJ102" s="164">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="103" spans="3:62" x14ac:dyDescent="0.3">
+      <c r="BI103" s="164">
+        <v>0.96</v>
+      </c>
+      <c r="BJ103" s="164">
+        <v>0.96</v>
+      </c>
+    </row>
+    <row r="104" spans="3:62" x14ac:dyDescent="0.3">
+      <c r="BI104" s="164">
+        <v>0.97</v>
+      </c>
+      <c r="BJ104" s="164">
+        <v>0.97</v>
+      </c>
+    </row>
+    <row r="105" spans="3:62" x14ac:dyDescent="0.3">
+      <c r="BI105" s="164">
+        <v>0.98</v>
+      </c>
+      <c r="BJ105" s="164">
+        <v>0.98</v>
+      </c>
+    </row>
+    <row r="106" spans="3:62" x14ac:dyDescent="0.3">
+      <c r="BI106" s="164">
+        <v>0.99</v>
+      </c>
+      <c r="BJ106" s="164">
+        <v>0.99</v>
+      </c>
+    </row>
+    <row r="109" spans="3:62" ht="16" x14ac:dyDescent="0.3">
+      <c r="C109" s="68"/>
+      <c r="D109" s="68"/>
+      <c r="E109" s="68"/>
+      <c r="F109" s="68"/>
+      <c r="G109" s="68"/>
+    </row>
+    <row r="110" spans="3:62" ht="16" x14ac:dyDescent="0.3">
+      <c r="C110" s="68"/>
+      <c r="D110" s="68"/>
+      <c r="E110" s="68"/>
+      <c r="F110" s="68"/>
+      <c r="G110" s="68"/>
+    </row>
+    <row r="111" spans="3:62" ht="16" x14ac:dyDescent="0.3">
+      <c r="C111" s="68"/>
+      <c r="D111" s="68"/>
+      <c r="E111" s="68"/>
+      <c r="F111" s="68"/>
+      <c r="G111" s="68"/>
     </row>
   </sheetData>
   <mergeCells count="46">
-    <mergeCell ref="Y65:AA65"/>
-    <mergeCell ref="A66:B66"/>
-    <mergeCell ref="C66:G66"/>
-    <mergeCell ref="P66:R66"/>
-    <mergeCell ref="S66:U66"/>
-    <mergeCell ref="V66:X66"/>
-    <mergeCell ref="A65:B65"/>
-    <mergeCell ref="C65:G65"/>
-    <mergeCell ref="P65:R65"/>
-    <mergeCell ref="S65:U65"/>
-    <mergeCell ref="V65:X65"/>
-    <mergeCell ref="V68:X68"/>
-    <mergeCell ref="Y68:AA68"/>
-    <mergeCell ref="A67:B67"/>
-    <mergeCell ref="C67:G67"/>
-    <mergeCell ref="P67:R67"/>
-    <mergeCell ref="S67:U67"/>
-    <mergeCell ref="V67:X67"/>
-    <mergeCell ref="AD1:AG1"/>
-    <mergeCell ref="AH1:AN1"/>
-    <mergeCell ref="AD2:AG2"/>
-    <mergeCell ref="AH2:AN2"/>
-    <mergeCell ref="A4:B6"/>
-    <mergeCell ref="C4:O4"/>
-    <mergeCell ref="P4:R6"/>
-    <mergeCell ref="Y4:AA6"/>
-    <mergeCell ref="C5:G6"/>
-    <mergeCell ref="S5:U6"/>
-    <mergeCell ref="V5:X6"/>
-    <mergeCell ref="S4:X4"/>
     <mergeCell ref="C70:G87"/>
     <mergeCell ref="C88:G98"/>
     <mergeCell ref="H5:I6"/>
@@ -11422,6 +12012,36 @@
     <mergeCell ref="C68:G68"/>
     <mergeCell ref="P68:R68"/>
     <mergeCell ref="S68:U68"/>
+    <mergeCell ref="AD1:AG1"/>
+    <mergeCell ref="AH1:AN1"/>
+    <mergeCell ref="AD2:AG2"/>
+    <mergeCell ref="AH2:AN2"/>
+    <mergeCell ref="A4:B6"/>
+    <mergeCell ref="C4:O4"/>
+    <mergeCell ref="P4:R6"/>
+    <mergeCell ref="Y4:AA6"/>
+    <mergeCell ref="C5:G6"/>
+    <mergeCell ref="S5:U6"/>
+    <mergeCell ref="V5:X6"/>
+    <mergeCell ref="S4:X4"/>
+    <mergeCell ref="V68:X68"/>
+    <mergeCell ref="Y68:AA68"/>
+    <mergeCell ref="A67:B67"/>
+    <mergeCell ref="C67:G67"/>
+    <mergeCell ref="P67:R67"/>
+    <mergeCell ref="S67:U67"/>
+    <mergeCell ref="V67:X67"/>
+    <mergeCell ref="Y65:AA65"/>
+    <mergeCell ref="A66:B66"/>
+    <mergeCell ref="C66:G66"/>
+    <mergeCell ref="P66:R66"/>
+    <mergeCell ref="S66:U66"/>
+    <mergeCell ref="V66:X66"/>
+    <mergeCell ref="A65:B65"/>
+    <mergeCell ref="C65:G65"/>
+    <mergeCell ref="P65:R65"/>
+    <mergeCell ref="S65:U65"/>
+    <mergeCell ref="V65:X65"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="AD5:AD6">
@@ -11455,412 +12075,469 @@
   <dimension ref="A1:T21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="7" width="5.6640625" customWidth="1"/>
-    <col min="8" max="9" width="5.6640625" style="94" customWidth="1"/>
+    <col min="8" max="9" width="5.6640625" style="93" customWidth="1"/>
     <col min="10" max="12" width="5.6640625" customWidth="1"/>
     <col min="13" max="13" width="5.9140625" customWidth="1"/>
-    <col min="14" max="15" width="6.4140625" style="94" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="6.4140625" style="93" bestFit="1" customWidth="1"/>
     <col min="16" max="20" width="5.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="B1" s="85" t="s">
+      <c r="B1" s="84" t="s">
         <v>132</v>
       </c>
-      <c r="C1" s="85" t="s">
+      <c r="C1" s="84" t="s">
         <v>133</v>
       </c>
-      <c r="D1" s="85" t="s">
+      <c r="D1" s="84" t="s">
         <v>134</v>
       </c>
-      <c r="E1" s="85" t="s">
+      <c r="E1" s="84" t="s">
         <v>135</v>
       </c>
-      <c r="F1" s="85" t="s">
+      <c r="F1" s="84" t="s">
         <v>136</v>
       </c>
-      <c r="G1" s="85" t="s">
+      <c r="G1" s="84" t="s">
         <v>137</v>
       </c>
-      <c r="H1" s="86" t="s">
+      <c r="H1" s="85" t="s">
         <v>138</v>
       </c>
-      <c r="I1" s="86" t="s">
+      <c r="I1" s="85" t="s">
         <v>139</v>
       </c>
-      <c r="J1" s="85" t="s">
+      <c r="J1" s="84" t="s">
         <v>140</v>
       </c>
-      <c r="K1" s="85" t="s">
+      <c r="K1" s="84" t="s">
         <v>134</v>
       </c>
-      <c r="L1" s="85" t="s">
+      <c r="L1" s="84" t="s">
         <v>135</v>
       </c>
-      <c r="M1" s="85" t="s">
+      <c r="M1" s="84" t="s">
         <v>136</v>
       </c>
-      <c r="N1" s="86" t="s">
+      <c r="N1" s="85" t="s">
         <v>137</v>
       </c>
-      <c r="O1" s="86" t="s">
+      <c r="O1" s="85" t="s">
         <v>138</v>
       </c>
-      <c r="P1" s="85" t="s">
+      <c r="P1" s="84" t="s">
         <v>139</v>
       </c>
-      <c r="Q1" s="85" t="s">
+      <c r="Q1" s="84" t="s">
         <v>140</v>
       </c>
-      <c r="R1" s="85" t="s">
+      <c r="R1" s="84" t="s">
         <v>134</v>
       </c>
-      <c r="S1" s="85" t="s">
+      <c r="S1" s="84" t="s">
         <v>135</v>
       </c>
-      <c r="T1" s="85" t="s">
+      <c r="T1" s="84" t="s">
         <v>136</v>
       </c>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="B2" s="61">
+      <c r="B2" s="60">
         <v>12</v>
       </c>
-      <c r="C2" s="61">
+      <c r="C2" s="60">
         <v>13</v>
       </c>
-      <c r="D2" s="61">
+      <c r="D2" s="60">
         <v>14</v>
       </c>
-      <c r="E2" s="61">
+      <c r="E2" s="60">
         <v>15</v>
       </c>
-      <c r="F2" s="61">
+      <c r="F2" s="60">
         <v>16</v>
       </c>
-      <c r="G2" s="61">
+      <c r="G2" s="60">
         <v>17</v>
       </c>
-      <c r="H2" s="87">
+      <c r="H2" s="86">
         <v>18</v>
       </c>
-      <c r="I2" s="87">
+      <c r="I2" s="86">
         <v>19</v>
       </c>
-      <c r="J2" s="61">
+      <c r="J2" s="60">
         <v>20</v>
       </c>
-      <c r="K2" s="61">
+      <c r="K2" s="60">
         <v>21</v>
       </c>
-      <c r="L2" s="61">
+      <c r="L2" s="60">
         <v>22</v>
       </c>
-      <c r="M2" s="61">
+      <c r="M2" s="60">
         <v>23</v>
       </c>
-      <c r="N2" s="87">
+      <c r="N2" s="86">
         <v>24</v>
       </c>
-      <c r="O2" s="87">
+      <c r="O2" s="86">
         <v>25</v>
       </c>
-      <c r="P2" s="61">
+      <c r="P2" s="60">
         <v>26</v>
       </c>
-      <c r="Q2" s="61">
+      <c r="Q2" s="60">
         <v>27</v>
       </c>
-      <c r="R2" s="61">
+      <c r="R2" s="60">
         <v>28</v>
       </c>
-      <c r="S2" s="61">
+      <c r="S2" s="60">
         <v>29</v>
       </c>
-      <c r="T2" s="61">
+      <c r="T2" s="60">
         <v>30</v>
       </c>
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A3" s="58" t="s">
+      <c r="A3" s="57" t="s">
         <v>88</v>
       </c>
-      <c r="B3" s="88"/>
-      <c r="C3" s="88"/>
-      <c r="D3" s="89"/>
-      <c r="E3" s="89">
+      <c r="B3" s="87"/>
+      <c r="C3" s="87"/>
+      <c r="D3" s="88"/>
+      <c r="E3" s="88">
         <f>E7/E5</f>
         <v>0.28428571428571425</v>
       </c>
-      <c r="F3" s="89">
+      <c r="F3" s="88">
         <f>F7/F5</f>
-        <v>0.43321428571428572</v>
-      </c>
-      <c r="G3" s="89">
+        <v>0.43892857142857145</v>
+      </c>
+      <c r="G3" s="88">
         <f>G7/G5</f>
         <v>0</v>
       </c>
-      <c r="H3" s="90">
+      <c r="H3" s="89">
         <f>G3</f>
         <v>0</v>
       </c>
-      <c r="I3" s="90">
+      <c r="I3" s="89">
         <f>G3</f>
         <v>0</v>
       </c>
-      <c r="J3" s="89">
+      <c r="J3" s="88">
         <f>J7/J5</f>
         <v>0</v>
       </c>
-      <c r="K3" s="89">
+      <c r="K3" s="88">
         <f>K7/K5</f>
         <v>0</v>
       </c>
-      <c r="L3" s="89">
+      <c r="L3" s="88">
         <f>L7/L5</f>
         <v>0</v>
       </c>
-      <c r="M3" s="89">
+      <c r="M3" s="88">
         <f>M7/M5</f>
         <v>0</v>
       </c>
-      <c r="N3" s="90">
+      <c r="N3" s="89">
         <f>M3</f>
         <v>0</v>
       </c>
-      <c r="O3" s="90">
+      <c r="O3" s="89">
         <f>M3</f>
         <v>0</v>
       </c>
-      <c r="P3" s="89">
+      <c r="P3" s="88">
         <f>P7/P5</f>
         <v>0</v>
       </c>
-      <c r="Q3" s="89">
+      <c r="Q3" s="88">
         <f>Q7/Q5</f>
         <v>0</v>
       </c>
-      <c r="R3" s="89">
+      <c r="R3" s="88">
         <f>R7/R5</f>
         <v>0</v>
       </c>
-      <c r="S3" s="89">
+      <c r="S3" s="88">
         <f>S7/S5</f>
         <v>0</v>
       </c>
-      <c r="T3" s="89">
+      <c r="T3" s="88">
         <f>T7/T5</f>
         <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A4" s="58" t="s">
+      <c r="A4" s="57" t="s">
         <v>141</v>
       </c>
-      <c r="B4" s="88">
+      <c r="B4" s="87">
         <v>0.1</v>
       </c>
-      <c r="C4" s="88">
+      <c r="C4" s="87">
         <v>0.2</v>
       </c>
-      <c r="D4" s="88">
+      <c r="D4" s="87">
         <v>0.3</v>
       </c>
-      <c r="E4" s="88">
+      <c r="E4" s="87">
         <v>0.35</v>
       </c>
-      <c r="F4" s="88">
+      <c r="F4" s="87">
         <v>0.4</v>
       </c>
-      <c r="G4" s="88">
+      <c r="G4" s="87">
         <v>0.5</v>
       </c>
-      <c r="H4" s="91">
+      <c r="H4" s="90">
         <v>0.5</v>
       </c>
-      <c r="I4" s="91">
+      <c r="I4" s="90">
         <v>0.5</v>
       </c>
-      <c r="J4" s="88">
+      <c r="J4" s="87">
         <v>0.6</v>
       </c>
-      <c r="K4" s="88">
+      <c r="K4" s="87">
         <v>0.7</v>
       </c>
-      <c r="L4" s="88">
+      <c r="L4" s="87">
         <v>0.8</v>
       </c>
-      <c r="M4" s="88">
+      <c r="M4" s="87">
         <v>1</v>
       </c>
-      <c r="N4" s="92"/>
-      <c r="O4" s="92"/>
-      <c r="P4" s="93"/>
-      <c r="Q4" s="93"/>
-      <c r="R4" s="93"/>
-      <c r="S4" s="93"/>
-      <c r="T4" s="93"/>
+      <c r="N4" s="91"/>
+      <c r="O4" s="91"/>
+      <c r="P4" s="92"/>
+      <c r="Q4" s="92"/>
+      <c r="R4" s="92"/>
+      <c r="S4" s="92"/>
+      <c r="T4" s="92"/>
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A5" s="58" t="s">
+      <c r="A5" s="57" t="s">
         <v>142</v>
       </c>
-      <c r="B5" s="93">
+      <c r="B5" s="92">
         <v>280</v>
       </c>
-      <c r="C5" s="93">
+      <c r="C5" s="92">
         <v>280</v>
       </c>
-      <c r="D5" s="93">
+      <c r="D5" s="92">
         <v>280</v>
       </c>
-      <c r="E5" s="93">
+      <c r="E5" s="92">
         <v>280</v>
       </c>
-      <c r="F5" s="93">
+      <c r="F5" s="92">
         <v>280</v>
       </c>
-      <c r="G5" s="93">
+      <c r="G5" s="92">
         <v>280</v>
       </c>
-      <c r="H5" s="93">
+      <c r="H5" s="92">
         <v>280</v>
       </c>
-      <c r="I5" s="93">
+      <c r="I5" s="92">
         <v>280</v>
       </c>
-      <c r="J5" s="93">
+      <c r="J5" s="92">
         <v>280</v>
       </c>
-      <c r="K5" s="93">
+      <c r="K5" s="92">
         <v>280</v>
       </c>
-      <c r="L5" s="93">
+      <c r="L5" s="92">
         <v>280</v>
       </c>
-      <c r="M5" s="93">
+      <c r="M5" s="92">
         <v>280</v>
       </c>
-      <c r="N5" s="93">
+      <c r="N5" s="92">
         <v>280</v>
       </c>
-      <c r="O5" s="93">
+      <c r="O5" s="92">
         <v>280</v>
       </c>
-      <c r="P5" s="93">
+      <c r="P5" s="92">
         <v>280</v>
       </c>
-      <c r="Q5" s="93">
+      <c r="Q5" s="92">
         <v>280</v>
       </c>
-      <c r="R5" s="93">
+      <c r="R5" s="92">
         <v>280</v>
       </c>
-      <c r="S5" s="93">
+      <c r="S5" s="92">
         <v>280</v>
       </c>
-      <c r="T5" s="93">
+      <c r="T5" s="92">
         <v>280</v>
       </c>
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A6" s="58" t="s">
+      <c r="A6" s="57" t="s">
         <v>143</v>
       </c>
-      <c r="B6" s="93">
+      <c r="B6" s="92">
         <v>11</v>
       </c>
-      <c r="C6" s="93">
+      <c r="C6" s="92">
         <v>13</v>
       </c>
-      <c r="D6" s="93">
+      <c r="D6" s="92">
         <v>13</v>
       </c>
-      <c r="E6" s="93">
+      <c r="E6" s="92">
         <v>23</v>
       </c>
-      <c r="F6" s="93">
+      <c r="F6" s="92">
         <v>25</v>
       </c>
-      <c r="G6" s="93">
+      <c r="G6" s="92">
         <v>0</v>
       </c>
-      <c r="H6" s="92">
+      <c r="H6" s="91">
         <v>0</v>
       </c>
-      <c r="I6" s="92">
+      <c r="I6" s="91">
         <v>0</v>
       </c>
-      <c r="J6" s="93">
+      <c r="J6" s="92">
         <v>0</v>
       </c>
-      <c r="K6" s="93">
+      <c r="K6" s="92">
         <v>0</v>
       </c>
-      <c r="L6" s="93">
+      <c r="L6" s="92">
         <v>0</v>
       </c>
-      <c r="M6" s="93">
+      <c r="M6" s="92">
         <v>0</v>
       </c>
-      <c r="N6" s="92">
+      <c r="N6" s="91">
         <v>0</v>
       </c>
-      <c r="O6" s="92">
+      <c r="O6" s="91">
         <v>0</v>
       </c>
-      <c r="P6" s="93">
+      <c r="P6" s="92">
         <v>0</v>
       </c>
-      <c r="Q6" s="93">
+      <c r="Q6" s="92">
         <v>0</v>
       </c>
-      <c r="R6" s="93">
+      <c r="R6" s="92">
         <v>0</v>
       </c>
-      <c r="S6" s="93">
+      <c r="S6" s="92">
         <v>0</v>
       </c>
-      <c r="T6" s="93">
+      <c r="T6" s="92">
         <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A7" s="58" t="s">
+      <c r="A7" s="57" t="s">
         <v>144</v>
       </c>
-      <c r="B7" s="93"/>
-      <c r="C7" s="93"/>
-      <c r="D7" s="93"/>
-      <c r="E7" s="93">
+      <c r="B7" s="92"/>
+      <c r="C7" s="92"/>
+      <c r="D7" s="92"/>
+      <c r="E7" s="92">
         <v>79.599999999999994</v>
       </c>
-      <c r="F7" s="93">
-        <v>121.3</v>
-      </c>
-      <c r="G7" s="93"/>
-      <c r="H7" s="92"/>
-      <c r="I7" s="92"/>
-      <c r="J7" s="93"/>
-      <c r="K7" s="93"/>
-      <c r="L7" s="93"/>
-      <c r="M7" s="93"/>
-      <c r="N7" s="92"/>
-      <c r="O7" s="92"/>
-      <c r="P7" s="93"/>
-      <c r="Q7" s="93"/>
-      <c r="R7" s="93"/>
-      <c r="S7" s="93"/>
-      <c r="T7" s="93"/>
+      <c r="F7" s="92">
+        <v>122.9</v>
+      </c>
+      <c r="G7" s="92"/>
+      <c r="H7" s="91"/>
+      <c r="I7" s="91"/>
+      <c r="J7" s="92"/>
+      <c r="K7" s="92"/>
+      <c r="L7" s="92"/>
+      <c r="M7" s="92"/>
+      <c r="N7" s="91"/>
+      <c r="O7" s="91"/>
+      <c r="P7" s="92"/>
+      <c r="Q7" s="92"/>
+      <c r="R7" s="92"/>
+      <c r="S7" s="92"/>
+      <c r="T7" s="92"/>
     </row>
     <row r="8" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="J8" t="s">
-        <v>145</v>
+      <c r="F8">
+        <f>Sheet3!$F$95</f>
+        <v>122.9</v>
+      </c>
+      <c r="G8">
+        <f>Sheet3!$F$95</f>
+        <v>122.9</v>
+      </c>
+      <c r="H8">
+        <f>Sheet3!$F$95</f>
+        <v>122.9</v>
+      </c>
+      <c r="I8">
+        <f>Sheet3!$F$95</f>
+        <v>122.9</v>
+      </c>
+      <c r="J8">
+        <f>Sheet3!$F$95</f>
+        <v>122.9</v>
+      </c>
+      <c r="K8">
+        <f>Sheet3!$F$95</f>
+        <v>122.9</v>
+      </c>
+      <c r="L8">
+        <f>Sheet3!$F$95</f>
+        <v>122.9</v>
+      </c>
+      <c r="M8">
+        <f>Sheet3!$F$95</f>
+        <v>122.9</v>
+      </c>
+      <c r="N8">
+        <f>Sheet3!$F$95</f>
+        <v>122.9</v>
+      </c>
+      <c r="O8">
+        <f>Sheet3!$F$95</f>
+        <v>122.9</v>
+      </c>
+      <c r="P8">
+        <f>Sheet3!$F$95</f>
+        <v>122.9</v>
+      </c>
+      <c r="Q8">
+        <f>Sheet3!$F$95</f>
+        <v>122.9</v>
+      </c>
+      <c r="R8">
+        <f>Sheet3!$F$95</f>
+        <v>122.9</v>
+      </c>
+      <c r="S8">
+        <f>Sheet3!$F$95</f>
+        <v>122.9</v>
+      </c>
+      <c r="T8">
+        <f>Sheet3!$F$95</f>
+        <v>122.9</v>
       </c>
     </row>
     <row r="9" spans="1:20" x14ac:dyDescent="0.3">
@@ -11871,41 +12548,41 @@
     </row>
     <row r="12" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="13" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="14" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="15" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A21" s="95"/>
+      <c r="A21" s="94"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
@@ -11919,7 +12596,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{403F8652-4296-415E-A6A0-53C23B18A84C}">
   <dimension ref="C2:F100"/>
   <sheetViews>
-    <sheetView topLeftCell="A85" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A85" workbookViewId="0">
       <selection activeCell="F95" sqref="F95"/>
     </sheetView>
   </sheetViews>
@@ -11931,989 +12608,989 @@
   <sheetData>
     <row r="2" spans="4:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D2" s="1"/>
-      <c r="E2" s="118" t="s">
+      <c r="E2" s="141" t="s">
         <v>89</v>
       </c>
-      <c r="F2" s="119"/>
+      <c r="F2" s="142"/>
     </row>
     <row r="3" spans="4:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D3" s="1"/>
-      <c r="E3" s="161"/>
-      <c r="F3" s="162"/>
+      <c r="E3" s="159"/>
+      <c r="F3" s="160"/>
     </row>
     <row r="4" spans="4:6" ht="16" x14ac:dyDescent="0.3">
-      <c r="D4" s="69"/>
-      <c r="E4" s="70" t="s">
+      <c r="D4" s="68"/>
+      <c r="E4" s="69" t="s">
         <v>20</v>
       </c>
-      <c r="F4" s="70">
+      <c r="F4" s="69">
         <f>工数予実管理表!AB9*工数予実管理表!AC9</f>
         <v>1</v>
       </c>
     </row>
     <row r="5" spans="4:6" ht="16" x14ac:dyDescent="0.3">
-      <c r="D5" s="69"/>
-      <c r="E5" s="70" t="s">
+      <c r="D5" s="68"/>
+      <c r="E5" s="69" t="s">
         <v>21</v>
       </c>
-      <c r="F5" s="70">
+      <c r="F5" s="69">
         <f>工数予実管理表!AB10*工数予実管理表!AC10</f>
         <v>1</v>
       </c>
     </row>
     <row r="6" spans="4:6" ht="16" x14ac:dyDescent="0.3">
-      <c r="D6" s="69"/>
-      <c r="E6" s="70" t="s">
+      <c r="D6" s="68"/>
+      <c r="E6" s="69" t="s">
         <v>22</v>
       </c>
-      <c r="F6" s="70">
+      <c r="F6" s="69">
         <f>工数予実管理表!AB11*工数予実管理表!AC11</f>
         <v>1</v>
       </c>
     </row>
     <row r="7" spans="4:6" ht="16" x14ac:dyDescent="0.3">
-      <c r="D7" s="69"/>
-      <c r="E7" s="70" t="s">
+      <c r="D7" s="68"/>
+      <c r="E7" s="69" t="s">
         <v>23</v>
       </c>
-      <c r="F7" s="70">
+      <c r="F7" s="69">
         <f>工数予実管理表!AB12*工数予実管理表!AC12</f>
         <v>2</v>
       </c>
     </row>
     <row r="8" spans="4:6" ht="16" x14ac:dyDescent="0.3">
-      <c r="D8" s="69"/>
-      <c r="E8" s="70" t="s">
+      <c r="D8" s="68"/>
+      <c r="E8" s="69" t="s">
         <v>24</v>
       </c>
-      <c r="F8" s="70">
+      <c r="F8" s="69">
         <f>工数予実管理表!AB13*工数予実管理表!AC13</f>
         <v>2</v>
       </c>
     </row>
     <row r="9" spans="4:6" ht="16" x14ac:dyDescent="0.3">
-      <c r="D9" s="69"/>
-      <c r="E9" s="70" t="s">
+      <c r="D9" s="68"/>
+      <c r="E9" s="69" t="s">
         <v>25</v>
       </c>
-      <c r="F9" s="70">
+      <c r="F9" s="69">
         <f>工数予実管理表!AB14*工数予実管理表!AC14</f>
         <v>2</v>
       </c>
     </row>
     <row r="10" spans="4:6" ht="16" x14ac:dyDescent="0.3">
-      <c r="D10" s="69"/>
-      <c r="E10" s="70" t="s">
+      <c r="D10" s="68"/>
+      <c r="E10" s="69" t="s">
         <v>26</v>
       </c>
-      <c r="F10" s="70">
+      <c r="F10" s="69">
         <f>工数予実管理表!AB15*工数予実管理表!AC15</f>
         <v>2</v>
       </c>
     </row>
     <row r="11" spans="4:6" ht="16" x14ac:dyDescent="0.3">
-      <c r="D11" s="69"/>
-      <c r="E11" s="70" t="s">
+      <c r="D11" s="68"/>
+      <c r="E11" s="69" t="s">
         <v>27</v>
       </c>
-      <c r="F11" s="70">
+      <c r="F11" s="69">
         <f>工数予実管理表!AB16*工数予実管理表!AC16</f>
         <v>2</v>
       </c>
     </row>
     <row r="12" spans="4:6" ht="16" x14ac:dyDescent="0.3">
-      <c r="D12" s="69"/>
-      <c r="E12" s="70" t="s">
+      <c r="D12" s="68"/>
+      <c r="E12" s="69" t="s">
         <v>28</v>
       </c>
-      <c r="F12" s="70">
+      <c r="F12" s="69">
         <f>工数予実管理表!AB17*工数予実管理表!AC17</f>
         <v>1</v>
       </c>
     </row>
     <row r="13" spans="4:6" ht="16" x14ac:dyDescent="0.3">
-      <c r="D13" s="69"/>
-      <c r="E13" s="96" t="s">
+      <c r="D13" s="68"/>
+      <c r="E13" s="95" t="s">
         <v>79</v>
       </c>
-      <c r="F13" s="70">
+      <c r="F13" s="69">
         <f>工数予実管理表!AB18*工数予実管理表!AC18</f>
         <v>1.6</v>
       </c>
     </row>
     <row r="14" spans="4:6" ht="16" x14ac:dyDescent="0.3">
-      <c r="D14" s="69"/>
-      <c r="E14" s="96" t="s">
+      <c r="D14" s="68"/>
+      <c r="E14" s="95" t="s">
         <v>80</v>
       </c>
-      <c r="F14" s="70">
+      <c r="F14" s="69">
         <f>工数予実管理表!AB19*工数予実管理表!AC19</f>
         <v>1</v>
       </c>
     </row>
     <row r="15" spans="4:6" ht="16" x14ac:dyDescent="0.3">
-      <c r="D15" s="69"/>
-      <c r="E15" s="70" t="s">
+      <c r="D15" s="68"/>
+      <c r="E15" s="69" t="s">
         <v>31</v>
       </c>
-      <c r="F15" s="70">
+      <c r="F15" s="69">
         <f>工数予実管理表!AB20*工数予実管理表!AC20</f>
         <v>1</v>
       </c>
     </row>
     <row r="16" spans="4:6" ht="16" x14ac:dyDescent="0.3">
-      <c r="D16" s="69"/>
-      <c r="E16" s="70" t="s">
+      <c r="D16" s="68"/>
+      <c r="E16" s="69" t="s">
         <v>32</v>
       </c>
-      <c r="F16" s="70">
+      <c r="F16" s="69">
         <f>工数予実管理表!AB21*工数予実管理表!AC21</f>
         <v>1</v>
       </c>
     </row>
     <row r="17" spans="4:6" ht="16" x14ac:dyDescent="0.3">
-      <c r="D17" s="69"/>
-      <c r="E17" s="71" t="s">
+      <c r="D17" s="68"/>
+      <c r="E17" s="70" t="s">
         <v>33</v>
       </c>
-      <c r="F17" s="70">
+      <c r="F17" s="69">
         <f>工数予実管理表!AB22*工数予実管理表!AC22</f>
         <v>1</v>
       </c>
     </row>
     <row r="18" spans="4:6" ht="16" x14ac:dyDescent="0.3">
-      <c r="D18" s="69"/>
-      <c r="E18" s="70" t="s">
+      <c r="D18" s="68"/>
+      <c r="E18" s="69" t="s">
         <v>34</v>
       </c>
-      <c r="F18" s="70">
+      <c r="F18" s="69">
         <f>工数予実管理表!AB23*工数予実管理表!AC23</f>
         <v>1</v>
       </c>
     </row>
     <row r="19" spans="4:6" ht="16" x14ac:dyDescent="0.3">
-      <c r="D19" s="69"/>
-      <c r="E19" s="70" t="s">
+      <c r="D19" s="68"/>
+      <c r="E19" s="69" t="s">
         <v>35</v>
       </c>
-      <c r="F19" s="70">
+      <c r="F19" s="69">
         <f>工数予実管理表!AB24*工数予実管理表!AC24</f>
         <v>0.5</v>
       </c>
     </row>
     <row r="20" spans="4:6" ht="16" x14ac:dyDescent="0.3">
-      <c r="D20" s="69"/>
-      <c r="E20" s="71" t="s">
+      <c r="D20" s="68"/>
+      <c r="E20" s="70" t="s">
         <v>36</v>
       </c>
-      <c r="F20" s="70">
+      <c r="F20" s="69">
         <f>工数予実管理表!AB25*工数予実管理表!AC25</f>
         <v>1</v>
       </c>
     </row>
     <row r="21" spans="4:6" ht="16" x14ac:dyDescent="0.3">
-      <c r="D21" s="69"/>
-      <c r="E21" s="70" t="s">
+      <c r="D21" s="68"/>
+      <c r="E21" s="69" t="s">
         <v>37</v>
       </c>
-      <c r="F21" s="70">
+      <c r="F21" s="69">
         <f>工数予実管理表!AB26*工数予実管理表!AC26</f>
         <v>1</v>
       </c>
     </row>
     <row r="22" spans="4:6" ht="16" x14ac:dyDescent="0.3">
-      <c r="D22" s="69"/>
-      <c r="E22" s="70" t="s">
+      <c r="D22" s="68"/>
+      <c r="E22" s="69" t="s">
         <v>38</v>
       </c>
-      <c r="F22" s="70">
+      <c r="F22" s="69">
         <f>工数予実管理表!AB27*工数予実管理表!AC27</f>
         <v>1</v>
       </c>
     </row>
     <row r="23" spans="4:6" ht="16" x14ac:dyDescent="0.3">
-      <c r="D23" s="69"/>
-      <c r="E23" s="70" t="s">
+      <c r="D23" s="68"/>
+      <c r="E23" s="69" t="s">
         <v>39</v>
       </c>
-      <c r="F23" s="70">
+      <c r="F23" s="69">
         <f>工数予実管理表!AB28*工数予実管理表!AC28</f>
         <v>1</v>
       </c>
     </row>
     <row r="24" spans="4:6" ht="16" x14ac:dyDescent="0.3">
-      <c r="D24" s="69"/>
-      <c r="E24" s="70" t="s">
+      <c r="D24" s="68"/>
+      <c r="E24" s="69" t="s">
         <v>40</v>
       </c>
-      <c r="F24" s="70">
+      <c r="F24" s="69">
         <f>工数予実管理表!AB29*工数予実管理表!AC29</f>
         <v>1</v>
       </c>
     </row>
     <row r="25" spans="4:6" ht="16" x14ac:dyDescent="0.3">
-      <c r="D25" s="69"/>
-      <c r="E25" s="70" t="s">
+      <c r="D25" s="68"/>
+      <c r="E25" s="69" t="s">
         <v>41</v>
       </c>
-      <c r="F25" s="70">
+      <c r="F25" s="69">
         <f>工数予実管理表!AB30*工数予実管理表!AC30</f>
         <v>1</v>
       </c>
     </row>
     <row r="26" spans="4:6" ht="16" x14ac:dyDescent="0.3">
-      <c r="D26" s="69"/>
-      <c r="E26" s="70" t="s">
+      <c r="D26" s="68"/>
+      <c r="E26" s="69" t="s">
         <v>42</v>
       </c>
-      <c r="F26" s="70">
+      <c r="F26" s="69">
         <f>工数予実管理表!AB31*工数予実管理表!AC31</f>
         <v>1</v>
       </c>
     </row>
     <row r="27" spans="4:6" ht="16" x14ac:dyDescent="0.3">
-      <c r="D27" s="69"/>
-      <c r="E27" s="70" t="s">
+      <c r="D27" s="68"/>
+      <c r="E27" s="69" t="s">
         <v>43</v>
       </c>
-      <c r="F27" s="70">
+      <c r="F27" s="69">
         <f>工数予実管理表!AB32*工数予実管理表!AC32</f>
         <v>1</v>
       </c>
     </row>
     <row r="28" spans="4:6" ht="16" x14ac:dyDescent="0.3">
-      <c r="D28" s="69"/>
-      <c r="E28" s="70" t="s">
+      <c r="D28" s="68"/>
+      <c r="E28" s="69" t="s">
         <v>44</v>
       </c>
-      <c r="F28" s="70">
+      <c r="F28" s="69">
         <f>工数予実管理表!AB33*工数予実管理表!AC33</f>
         <v>1</v>
       </c>
     </row>
     <row r="29" spans="4:6" ht="16" x14ac:dyDescent="0.3">
-      <c r="D29" s="69"/>
-      <c r="E29" s="70" t="s">
+      <c r="D29" s="68"/>
+      <c r="E29" s="69" t="s">
         <v>45</v>
       </c>
-      <c r="F29" s="70">
+      <c r="F29" s="69">
         <f>工数予実管理表!AB34*工数予実管理表!AC34</f>
         <v>1</v>
       </c>
     </row>
     <row r="30" spans="4:6" ht="16" x14ac:dyDescent="0.3">
-      <c r="D30" s="69"/>
-      <c r="E30" s="70" t="s">
+      <c r="D30" s="68"/>
+      <c r="E30" s="69" t="s">
         <v>46</v>
       </c>
-      <c r="F30" s="70">
+      <c r="F30" s="69">
         <f>工数予実管理表!AB35*工数予実管理表!AC35</f>
         <v>1</v>
       </c>
     </row>
     <row r="31" spans="4:6" ht="16" x14ac:dyDescent="0.3">
-      <c r="D31" s="69"/>
-      <c r="E31" s="70" t="s">
+      <c r="D31" s="68"/>
+      <c r="E31" s="69" t="s">
         <v>47</v>
       </c>
-      <c r="F31" s="70">
+      <c r="F31" s="69">
         <f>工数予実管理表!AB36*工数予実管理表!AC36</f>
         <v>1</v>
       </c>
     </row>
     <row r="32" spans="4:6" ht="16" x14ac:dyDescent="0.3">
-      <c r="D32" s="69"/>
-      <c r="E32" s="70" t="s">
+      <c r="D32" s="68"/>
+      <c r="E32" s="69" t="s">
         <v>49</v>
       </c>
-      <c r="F32" s="70">
+      <c r="F32" s="69">
         <f>工数予実管理表!AB37*工数予実管理表!AC37</f>
         <v>0</v>
       </c>
     </row>
     <row r="33" spans="3:6" ht="16" x14ac:dyDescent="0.3">
-      <c r="D33" s="69"/>
-      <c r="E33" s="70" t="s">
+      <c r="D33" s="68"/>
+      <c r="E33" s="69" t="s">
         <v>50</v>
       </c>
-      <c r="F33" s="70">
+      <c r="F33" s="69">
         <f>工数予実管理表!AB38*工数予実管理表!AC38</f>
         <v>0</v>
       </c>
     </row>
     <row r="34" spans="3:6" ht="16" x14ac:dyDescent="0.3">
-      <c r="D34" s="69"/>
-      <c r="E34" s="70" t="s">
+      <c r="D34" s="68"/>
+      <c r="E34" s="69" t="s">
         <v>51</v>
       </c>
-      <c r="F34" s="70">
+      <c r="F34" s="69">
         <f>工数予実管理表!AB39*工数予実管理表!AC39</f>
         <v>0</v>
       </c>
     </row>
     <row r="35" spans="3:6" ht="16" x14ac:dyDescent="0.3">
-      <c r="D35" s="69"/>
-      <c r="E35" s="70" t="s">
+      <c r="D35" s="68"/>
+      <c r="E35" s="69" t="s">
         <v>52</v>
       </c>
-      <c r="F35" s="70">
+      <c r="F35" s="69">
         <f>工数予実管理表!AB40*工数予実管理表!AC40</f>
         <v>0</v>
       </c>
     </row>
     <row r="36" spans="3:6" ht="16" x14ac:dyDescent="0.3">
-      <c r="D36" s="69"/>
-      <c r="E36" s="71" t="s">
+      <c r="D36" s="68"/>
+      <c r="E36" s="70" t="s">
         <v>53</v>
       </c>
-      <c r="F36" s="70">
+      <c r="F36" s="69">
         <f>工数予実管理表!AB41*工数予実管理表!AC41</f>
         <v>3</v>
       </c>
     </row>
     <row r="37" spans="3:6" ht="16" x14ac:dyDescent="0.3">
-      <c r="D37" s="69"/>
-      <c r="E37" s="70" t="s">
+      <c r="D37" s="68"/>
+      <c r="E37" s="69" t="s">
         <v>54</v>
       </c>
-      <c r="F37" s="70">
+      <c r="F37" s="69">
         <f>工数予実管理表!AB42*工数予実管理表!AC42</f>
         <v>0</v>
       </c>
     </row>
     <row r="38" spans="3:6" ht="16" x14ac:dyDescent="0.3">
-      <c r="C38" s="114"/>
-      <c r="D38" s="114"/>
-      <c r="E38" s="70" t="s">
+      <c r="C38" s="137"/>
+      <c r="D38" s="137"/>
+      <c r="E38" s="69" t="s">
         <v>55</v>
       </c>
-      <c r="F38" s="70">
+      <c r="F38" s="69">
         <f>工数予実管理表!AB43*工数予実管理表!AC43</f>
         <v>0</v>
       </c>
     </row>
     <row r="39" spans="3:6" ht="16" x14ac:dyDescent="0.3">
-      <c r="C39" s="114"/>
-      <c r="D39" s="114"/>
-      <c r="E39" s="70" t="s">
+      <c r="C39" s="137"/>
+      <c r="D39" s="137"/>
+      <c r="E39" s="69" t="s">
         <v>56</v>
       </c>
-      <c r="F39" s="70">
+      <c r="F39" s="69">
         <f>工数予実管理表!AB44*工数予実管理表!AC44</f>
         <v>0</v>
       </c>
     </row>
     <row r="40" spans="3:6" ht="16" x14ac:dyDescent="0.3">
-      <c r="C40" s="69"/>
-      <c r="D40" s="69"/>
-      <c r="E40" s="70" t="s">
+      <c r="C40" s="68"/>
+      <c r="D40" s="68"/>
+      <c r="E40" s="69" t="s">
         <v>57</v>
       </c>
-      <c r="F40" s="70">
+      <c r="F40" s="69">
         <f>工数予実管理表!AB45*工数予実管理表!AC45</f>
         <v>0</v>
       </c>
     </row>
     <row r="41" spans="3:6" ht="16" x14ac:dyDescent="0.3">
-      <c r="C41" s="69"/>
-      <c r="D41" s="69"/>
-      <c r="E41" s="70" t="s">
+      <c r="C41" s="68"/>
+      <c r="D41" s="68"/>
+      <c r="E41" s="69" t="s">
         <v>81</v>
       </c>
-      <c r="F41" s="70">
+      <c r="F41" s="69">
         <f>工数予実管理表!AB46*工数予実管理表!AC46</f>
         <v>6</v>
       </c>
     </row>
     <row r="42" spans="3:6" ht="16" x14ac:dyDescent="0.3">
-      <c r="C42" s="69"/>
-      <c r="D42" s="69"/>
-      <c r="E42" s="70" t="s">
+      <c r="C42" s="68"/>
+      <c r="D42" s="68"/>
+      <c r="E42" s="69" t="s">
         <v>82</v>
       </c>
-      <c r="F42" s="70">
+      <c r="F42" s="69">
         <f>工数予実管理表!AB47*工数予実管理表!AC47</f>
         <v>6</v>
       </c>
     </row>
     <row r="43" spans="3:6" ht="16" x14ac:dyDescent="0.3">
-      <c r="C43" s="69"/>
-      <c r="D43" s="69"/>
-      <c r="E43" s="70" t="s">
+      <c r="C43" s="68"/>
+      <c r="D43" s="68"/>
+      <c r="E43" s="69" t="s">
         <v>58</v>
       </c>
-      <c r="F43" s="70">
+      <c r="F43" s="69">
         <f>工数予実管理表!AB48*工数予実管理表!AC48</f>
         <v>0</v>
       </c>
     </row>
     <row r="44" spans="3:6" ht="16" x14ac:dyDescent="0.3">
-      <c r="C44" s="69"/>
-      <c r="D44" s="69"/>
-      <c r="E44" s="70" t="s">
+      <c r="C44" s="68"/>
+      <c r="D44" s="68"/>
+      <c r="E44" s="69" t="s">
         <v>59</v>
       </c>
-      <c r="F44" s="70">
+      <c r="F44" s="69">
         <f>工数予実管理表!AB49*工数予実管理表!AC49</f>
         <v>0</v>
       </c>
     </row>
     <row r="45" spans="3:6" ht="16" x14ac:dyDescent="0.3">
-      <c r="C45" s="69"/>
-      <c r="D45" s="69"/>
-      <c r="E45" s="70" t="s">
+      <c r="C45" s="68"/>
+      <c r="D45" s="68"/>
+      <c r="E45" s="69" t="s">
         <v>60</v>
       </c>
-      <c r="F45" s="70">
+      <c r="F45" s="69">
         <f>工数予実管理表!AB50*工数予実管理表!AC50</f>
         <v>5.6000000000000005</v>
       </c>
     </row>
     <row r="46" spans="3:6" ht="16" x14ac:dyDescent="0.3">
-      <c r="C46" s="69"/>
-      <c r="D46" s="69"/>
-      <c r="E46" s="70" t="s">
+      <c r="C46" s="68"/>
+      <c r="D46" s="68"/>
+      <c r="E46" s="69" t="s">
         <v>61</v>
       </c>
-      <c r="F46" s="70">
+      <c r="F46" s="69">
         <f>工数予実管理表!AB51*工数予実管理表!AC51</f>
         <v>5.6000000000000005</v>
       </c>
     </row>
     <row r="47" spans="3:6" ht="16" x14ac:dyDescent="0.3">
-      <c r="C47" s="69"/>
-      <c r="D47" s="69"/>
-      <c r="E47" s="70" t="s">
+      <c r="C47" s="68"/>
+      <c r="D47" s="68"/>
+      <c r="E47" s="69" t="s">
         <v>62</v>
       </c>
-      <c r="F47" s="70">
+      <c r="F47" s="69">
         <f>工数予実管理表!AB52*工数予実管理表!AC52</f>
         <v>10</v>
       </c>
     </row>
     <row r="48" spans="3:6" ht="16" x14ac:dyDescent="0.3">
-      <c r="C48" s="69"/>
-      <c r="D48" s="69"/>
-      <c r="E48" s="70" t="s">
+      <c r="C48" s="68"/>
+      <c r="D48" s="68"/>
+      <c r="E48" s="69" t="s">
         <v>77</v>
       </c>
-      <c r="F48" s="70">
+      <c r="F48" s="69">
         <f>工数予実管理表!AB53*工数予実管理表!AC53</f>
         <v>0</v>
       </c>
     </row>
     <row r="49" spans="3:6" ht="16" x14ac:dyDescent="0.3">
-      <c r="C49" s="69"/>
-      <c r="D49" s="69"/>
-      <c r="E49" s="71" t="s">
+      <c r="C49" s="68"/>
+      <c r="D49" s="68"/>
+      <c r="E49" s="70" t="s">
         <v>63</v>
       </c>
-      <c r="F49" s="70">
+      <c r="F49" s="69">
         <f>工数予実管理表!AB54*工数予実管理表!AC54</f>
         <v>8</v>
       </c>
     </row>
     <row r="50" spans="3:6" ht="16" x14ac:dyDescent="0.3">
-      <c r="C50" s="69"/>
-      <c r="D50" s="69"/>
-      <c r="E50" s="71" t="s">
+      <c r="C50" s="68"/>
+      <c r="D50" s="68"/>
+      <c r="E50" s="70" t="s">
         <v>64</v>
       </c>
-      <c r="F50" s="70">
+      <c r="F50" s="69">
         <f>工数予実管理表!AB55*工数予実管理表!AC55</f>
         <v>7</v>
       </c>
     </row>
     <row r="51" spans="3:6" ht="16" x14ac:dyDescent="0.3">
-      <c r="C51" s="69"/>
-      <c r="D51" s="69"/>
-      <c r="E51" s="70" t="s">
+      <c r="C51" s="68"/>
+      <c r="D51" s="68"/>
+      <c r="E51" s="69" t="s">
         <v>65</v>
       </c>
-      <c r="F51" s="70">
+      <c r="F51" s="69">
         <f>工数予実管理表!AB56*工数予実管理表!AC56</f>
         <v>0</v>
       </c>
     </row>
     <row r="52" spans="3:6" ht="16" x14ac:dyDescent="0.3">
-      <c r="C52" s="69"/>
-      <c r="D52" s="69"/>
-      <c r="E52" s="71" t="s">
+      <c r="C52" s="68"/>
+      <c r="D52" s="68"/>
+      <c r="E52" s="70" t="s">
         <v>66</v>
       </c>
-      <c r="F52" s="70">
+      <c r="F52" s="69">
         <f>工数予実管理表!AB57*工数予実管理表!AC57</f>
         <v>6.3</v>
       </c>
     </row>
     <row r="53" spans="3:6" ht="16" x14ac:dyDescent="0.3">
-      <c r="C53" s="69"/>
-      <c r="D53" s="69"/>
-      <c r="E53" s="96" t="s">
+      <c r="C53" s="68"/>
+      <c r="D53" s="68"/>
+      <c r="E53" s="95" t="s">
         <v>84</v>
       </c>
-      <c r="F53" s="70">
+      <c r="F53" s="69">
         <f>工数予実管理表!AB58*工数予実管理表!AC58</f>
         <v>7</v>
       </c>
     </row>
     <row r="54" spans="3:6" ht="16" x14ac:dyDescent="0.3">
-      <c r="C54" s="69"/>
-      <c r="D54" s="69"/>
-      <c r="E54" s="70" t="s">
+      <c r="C54" s="68"/>
+      <c r="D54" s="68"/>
+      <c r="E54" s="69" t="s">
         <v>67</v>
       </c>
-      <c r="F54" s="70">
+      <c r="F54" s="69">
         <f>工数予実管理表!AB59*工数予実管理表!AC59</f>
-        <v>2</v>
+        <v>3.6</v>
       </c>
     </row>
     <row r="55" spans="3:6" ht="16" x14ac:dyDescent="0.3">
-      <c r="C55" s="69"/>
-      <c r="D55" s="69"/>
-      <c r="E55" s="71" t="s">
+      <c r="C55" s="68"/>
+      <c r="D55" s="68"/>
+      <c r="E55" s="70" t="s">
         <v>68</v>
       </c>
-      <c r="F55" s="70">
+      <c r="F55" s="69">
         <f>工数予実管理表!AB60*工数予実管理表!AC60</f>
         <v>5.6</v>
       </c>
     </row>
     <row r="56" spans="3:6" ht="16" x14ac:dyDescent="0.3">
-      <c r="C56" s="69"/>
-      <c r="D56" s="69"/>
-      <c r="E56" s="70" t="s">
+      <c r="C56" s="68"/>
+      <c r="D56" s="68"/>
+      <c r="E56" s="69" t="s">
         <v>69</v>
       </c>
-      <c r="F56" s="70">
+      <c r="F56" s="69">
         <f>工数予実管理表!AB61*工数予実管理表!AC61</f>
         <v>0</v>
       </c>
     </row>
     <row r="57" spans="3:6" ht="16" x14ac:dyDescent="0.3">
-      <c r="C57" s="69"/>
-      <c r="D57" s="69"/>
-      <c r="E57" s="70" t="s">
+      <c r="C57" s="68"/>
+      <c r="D57" s="68"/>
+      <c r="E57" s="69" t="s">
         <v>70</v>
       </c>
-      <c r="F57" s="70">
+      <c r="F57" s="69">
         <f>工数予実管理表!AB62*工数予実管理表!AC62</f>
         <v>0</v>
       </c>
     </row>
     <row r="58" spans="3:6" ht="16" x14ac:dyDescent="0.3">
-      <c r="C58" s="69"/>
-      <c r="D58" s="69"/>
-      <c r="E58" s="71" t="s">
+      <c r="C58" s="68"/>
+      <c r="D58" s="68"/>
+      <c r="E58" s="70" t="s">
         <v>71</v>
       </c>
-      <c r="F58" s="70">
+      <c r="F58" s="69">
         <f>工数予実管理表!AB63*工数予実管理表!AC63</f>
         <v>6.4</v>
       </c>
     </row>
     <row r="59" spans="3:6" ht="16" x14ac:dyDescent="0.3">
-      <c r="C59" s="69"/>
-      <c r="D59" s="69"/>
-      <c r="E59" s="70" t="s">
+      <c r="C59" s="68"/>
+      <c r="D59" s="68"/>
+      <c r="E59" s="69" t="s">
         <v>72</v>
       </c>
-      <c r="F59" s="70">
+      <c r="F59" s="69">
         <f>工数予実管理表!AB64*工数予実管理表!AC64</f>
         <v>4.8999999999999995</v>
       </c>
     </row>
     <row r="60" spans="3:6" ht="16" x14ac:dyDescent="0.3">
-      <c r="C60" s="69"/>
-      <c r="D60" s="69"/>
+      <c r="C60" s="68"/>
+      <c r="D60" s="68"/>
       <c r="E60" s="45" t="s">
         <v>73</v>
       </c>
-      <c r="F60" s="70">
+      <c r="F60" s="69">
         <f>工数予実管理表!AB65*工数予実管理表!AC65</f>
         <v>0</v>
       </c>
     </row>
     <row r="61" spans="3:6" ht="16" x14ac:dyDescent="0.3">
-      <c r="C61" s="69"/>
-      <c r="D61" s="69"/>
+      <c r="C61" s="68"/>
+      <c r="D61" s="68"/>
       <c r="E61" s="45" t="s">
         <v>74</v>
       </c>
-      <c r="F61" s="70">
+      <c r="F61" s="69">
         <f>工数予実管理表!AB66*工数予実管理表!AC66</f>
         <v>0</v>
       </c>
     </row>
     <row r="62" spans="3:6" ht="16" x14ac:dyDescent="0.3">
-      <c r="C62" s="69"/>
-      <c r="D62" s="69"/>
+      <c r="C62" s="68"/>
+      <c r="D62" s="68"/>
       <c r="E62" s="45" t="s">
         <v>75</v>
       </c>
-      <c r="F62" s="70">
+      <c r="F62" s="69">
         <f>工数予実管理表!AB67*工数予実管理表!AC67</f>
         <v>0</v>
       </c>
     </row>
     <row r="63" spans="3:6" ht="16" x14ac:dyDescent="0.3">
-      <c r="C63" s="69"/>
-      <c r="D63" s="69"/>
-      <c r="E63" s="97" t="s">
+      <c r="C63" s="68"/>
+      <c r="D63" s="68"/>
+      <c r="E63" s="96" t="s">
         <v>85</v>
       </c>
-      <c r="F63" s="70">
+      <c r="F63" s="69">
         <f>工数予実管理表!AB68*工数予実管理表!AC68</f>
         <v>0</v>
       </c>
     </row>
     <row r="64" spans="3:6" ht="16" x14ac:dyDescent="0.3">
-      <c r="C64" s="69"/>
-      <c r="D64" s="69"/>
-      <c r="E64" s="97" t="s">
+      <c r="C64" s="68"/>
+      <c r="D64" s="68"/>
+      <c r="E64" s="96" t="s">
         <v>86</v>
       </c>
-      <c r="F64" s="70">
+      <c r="F64" s="69">
         <f>工数予実管理表!AB69*工数予実管理表!AC69</f>
         <v>4.8</v>
       </c>
     </row>
     <row r="65" spans="3:6" ht="16" x14ac:dyDescent="0.3">
-      <c r="C65" s="69"/>
-      <c r="D65" s="69"/>
-      <c r="E65" s="77" t="s">
+      <c r="C65" s="68"/>
+      <c r="D65" s="68"/>
+      <c r="E65" s="76" t="s">
         <v>20</v>
       </c>
-      <c r="F65" s="70">
+      <c r="F65" s="69">
         <f>工数予実管理表!AB70*工数予実管理表!AC70</f>
         <v>0</v>
       </c>
     </row>
     <row r="66" spans="3:6" ht="16" x14ac:dyDescent="0.3">
-      <c r="C66" s="69"/>
-      <c r="D66" s="69"/>
-      <c r="E66" s="77" t="s">
+      <c r="C66" s="68"/>
+      <c r="D66" s="68"/>
+      <c r="E66" s="76" t="s">
         <v>21</v>
       </c>
-      <c r="F66" s="70">
+      <c r="F66" s="69">
         <f>工数予実管理表!AB71*工数予実管理表!AC71</f>
         <v>0</v>
       </c>
     </row>
     <row r="67" spans="3:6" ht="16" x14ac:dyDescent="0.3">
-      <c r="C67" s="69"/>
-      <c r="D67" s="69"/>
-      <c r="E67" s="77" t="s">
+      <c r="C67" s="68"/>
+      <c r="D67" s="68"/>
+      <c r="E67" s="76" t="s">
         <v>22</v>
       </c>
-      <c r="F67" s="70">
+      <c r="F67" s="69">
         <f>工数予実管理表!AB72*工数予実管理表!AC72</f>
         <v>0</v>
       </c>
     </row>
     <row r="68" spans="3:6" ht="16" x14ac:dyDescent="0.3">
-      <c r="C68" s="69"/>
-      <c r="D68" s="69"/>
-      <c r="E68" s="77" t="s">
+      <c r="C68" s="68"/>
+      <c r="D68" s="68"/>
+      <c r="E68" s="76" t="s">
         <v>23</v>
       </c>
-      <c r="F68" s="70">
+      <c r="F68" s="69">
         <f>工数予実管理表!AB73*工数予実管理表!AC73</f>
         <v>0</v>
       </c>
     </row>
     <row r="69" spans="3:6" ht="16" x14ac:dyDescent="0.3">
-      <c r="C69" s="69"/>
-      <c r="D69" s="69"/>
-      <c r="E69" s="77" t="s">
+      <c r="C69" s="68"/>
+      <c r="D69" s="68"/>
+      <c r="E69" s="76" t="s">
         <v>24</v>
       </c>
-      <c r="F69" s="70">
+      <c r="F69" s="69">
         <f>工数予実管理表!AB74*工数予実管理表!AC74</f>
         <v>0</v>
       </c>
     </row>
     <row r="70" spans="3:6" ht="16" x14ac:dyDescent="0.3">
-      <c r="C70" s="69"/>
-      <c r="D70" s="69"/>
-      <c r="E70" s="77" t="s">
+      <c r="C70" s="68"/>
+      <c r="D70" s="68"/>
+      <c r="E70" s="76" t="s">
         <v>25</v>
       </c>
-      <c r="F70" s="70">
+      <c r="F70" s="69">
         <f>工数予実管理表!AB75*工数予実管理表!AC75</f>
         <v>0</v>
       </c>
     </row>
     <row r="71" spans="3:6" ht="16" x14ac:dyDescent="0.3">
-      <c r="C71" s="69"/>
-      <c r="D71" s="69"/>
-      <c r="E71" s="77" t="s">
+      <c r="C71" s="68"/>
+      <c r="D71" s="68"/>
+      <c r="E71" s="76" t="s">
         <v>26</v>
       </c>
-      <c r="F71" s="70">
+      <c r="F71" s="69">
         <f>工数予実管理表!AB76*工数予実管理表!AC76</f>
         <v>0</v>
       </c>
     </row>
     <row r="72" spans="3:6" ht="16" x14ac:dyDescent="0.3">
-      <c r="C72" s="69"/>
-      <c r="D72" s="69"/>
-      <c r="E72" s="77" t="s">
+      <c r="C72" s="68"/>
+      <c r="D72" s="68"/>
+      <c r="E72" s="76" t="s">
         <v>27</v>
       </c>
-      <c r="F72" s="70">
+      <c r="F72" s="69">
         <f>工数予実管理表!AB77*工数予実管理表!AC77</f>
         <v>0</v>
       </c>
     </row>
     <row r="73" spans="3:6" ht="16" x14ac:dyDescent="0.3">
-      <c r="C73" s="69"/>
-      <c r="D73" s="69"/>
-      <c r="E73" s="77" t="s">
+      <c r="C73" s="68"/>
+      <c r="D73" s="68"/>
+      <c r="E73" s="76" t="s">
         <v>28</v>
       </c>
-      <c r="F73" s="70">
+      <c r="F73" s="69">
         <f>工数予実管理表!AB78*工数予実管理表!AC78</f>
         <v>0</v>
       </c>
     </row>
     <row r="74" spans="3:6" ht="16" x14ac:dyDescent="0.3">
-      <c r="C74" s="69"/>
-      <c r="D74" s="69"/>
-      <c r="E74" s="77" t="s">
+      <c r="C74" s="68"/>
+      <c r="D74" s="68"/>
+      <c r="E74" s="76" t="s">
         <v>79</v>
       </c>
-      <c r="F74" s="70">
+      <c r="F74" s="69">
         <f>工数予実管理表!AB79*工数予実管理表!AC79</f>
         <v>0</v>
       </c>
     </row>
     <row r="75" spans="3:6" ht="16" x14ac:dyDescent="0.3">
-      <c r="C75" s="69"/>
-      <c r="D75" s="69"/>
-      <c r="E75" s="77" t="s">
+      <c r="C75" s="68"/>
+      <c r="D75" s="68"/>
+      <c r="E75" s="76" t="s">
         <v>80</v>
       </c>
-      <c r="F75" s="70">
+      <c r="F75" s="69">
         <f>工数予実管理表!AB80*工数予実管理表!AC80</f>
         <v>0</v>
       </c>
     </row>
     <row r="76" spans="3:6" ht="16" x14ac:dyDescent="0.3">
-      <c r="C76" s="69"/>
-      <c r="D76" s="69"/>
-      <c r="E76" s="77" t="s">
+      <c r="C76" s="68"/>
+      <c r="D76" s="68"/>
+      <c r="E76" s="76" t="s">
         <v>31</v>
       </c>
-      <c r="F76" s="70">
+      <c r="F76" s="69">
         <f>工数予実管理表!AB81*工数予実管理表!AC81</f>
         <v>0</v>
       </c>
     </row>
     <row r="77" spans="3:6" ht="16" x14ac:dyDescent="0.3">
-      <c r="C77" s="69"/>
-      <c r="D77" s="69"/>
-      <c r="E77" s="77" t="s">
+      <c r="C77" s="68"/>
+      <c r="D77" s="68"/>
+      <c r="E77" s="76" t="s">
         <v>32</v>
       </c>
-      <c r="F77" s="70">
+      <c r="F77" s="69">
         <f>工数予実管理表!AB82*工数予実管理表!AC82</f>
         <v>0</v>
       </c>
     </row>
     <row r="78" spans="3:6" ht="16" x14ac:dyDescent="0.3">
-      <c r="C78" s="69"/>
-      <c r="D78" s="69"/>
-      <c r="E78" s="76" t="s">
+      <c r="C78" s="68"/>
+      <c r="D78" s="68"/>
+      <c r="E78" s="75" t="s">
         <v>33</v>
       </c>
-      <c r="F78" s="70">
+      <c r="F78" s="69">
         <f>工数予実管理表!AB83*工数予実管理表!AC83</f>
         <v>0</v>
       </c>
     </row>
     <row r="79" spans="3:6" ht="16" x14ac:dyDescent="0.3">
-      <c r="C79" s="69"/>
-      <c r="D79" s="69"/>
-      <c r="E79" s="77" t="s">
+      <c r="C79" s="68"/>
+      <c r="D79" s="68"/>
+      <c r="E79" s="76" t="s">
         <v>34</v>
       </c>
-      <c r="F79" s="70">
+      <c r="F79" s="69">
         <f>工数予実管理表!AB84*工数予実管理表!AC84</f>
         <v>0</v>
       </c>
     </row>
     <row r="80" spans="3:6" ht="16" x14ac:dyDescent="0.3">
-      <c r="C80" s="69"/>
-      <c r="D80" s="69"/>
-      <c r="E80" s="77" t="s">
+      <c r="C80" s="68"/>
+      <c r="D80" s="68"/>
+      <c r="E80" s="76" t="s">
         <v>35</v>
       </c>
-      <c r="F80" s="70">
+      <c r="F80" s="69">
         <f>工数予実管理表!AB85*工数予実管理表!AC85</f>
         <v>0</v>
       </c>
     </row>
     <row r="81" spans="3:6" ht="16" x14ac:dyDescent="0.3">
-      <c r="C81" s="69"/>
-      <c r="D81" s="69"/>
-      <c r="E81" s="76" t="s">
+      <c r="C81" s="68"/>
+      <c r="D81" s="68"/>
+      <c r="E81" s="75" t="s">
         <v>36</v>
       </c>
-      <c r="F81" s="70">
+      <c r="F81" s="69">
         <f>工数予実管理表!AB86*工数予実管理表!AC86</f>
         <v>0</v>
       </c>
     </row>
     <row r="82" spans="3:6" ht="16" x14ac:dyDescent="0.3">
-      <c r="C82" s="69"/>
-      <c r="D82" s="69"/>
-      <c r="E82" s="77" t="s">
+      <c r="C82" s="68"/>
+      <c r="D82" s="68"/>
+      <c r="E82" s="76" t="s">
         <v>37</v>
       </c>
-      <c r="F82" s="70">
+      <c r="F82" s="69">
         <f>工数予実管理表!AB87*工数予実管理表!AC87</f>
         <v>0</v>
       </c>
     </row>
     <row r="83" spans="3:6" ht="16" x14ac:dyDescent="0.3">
-      <c r="C83" s="69"/>
-      <c r="D83" s="69"/>
-      <c r="E83" s="62" t="s">
+      <c r="C83" s="68"/>
+      <c r="D83" s="68"/>
+      <c r="E83" s="61" t="s">
         <v>49</v>
       </c>
-      <c r="F83" s="70">
+      <c r="F83" s="69">
         <f>工数予実管理表!AB88*工数予実管理表!AC88</f>
         <v>0</v>
       </c>
     </row>
     <row r="84" spans="3:6" ht="16" x14ac:dyDescent="0.3">
-      <c r="C84" s="69"/>
-      <c r="D84" s="69"/>
-      <c r="E84" s="62" t="s">
+      <c r="C84" s="68"/>
+      <c r="D84" s="68"/>
+      <c r="E84" s="61" t="s">
         <v>50</v>
       </c>
-      <c r="F84" s="70">
+      <c r="F84" s="69">
         <f>工数予実管理表!AB89*工数予実管理表!AC89</f>
         <v>0</v>
       </c>
     </row>
     <row r="85" spans="3:6" ht="16" x14ac:dyDescent="0.3">
-      <c r="C85" s="69"/>
-      <c r="D85" s="69"/>
-      <c r="E85" s="62" t="s">
+      <c r="C85" s="68"/>
+      <c r="D85" s="68"/>
+      <c r="E85" s="61" t="s">
         <v>51</v>
       </c>
-      <c r="F85" s="70">
+      <c r="F85" s="69">
         <f>工数予実管理表!AB90*工数予実管理表!AC90</f>
         <v>0</v>
       </c>
     </row>
     <row r="86" spans="3:6" ht="16" x14ac:dyDescent="0.3">
-      <c r="C86" s="69"/>
-      <c r="D86" s="69"/>
-      <c r="E86" s="62" t="s">
+      <c r="C86" s="68"/>
+      <c r="D86" s="68"/>
+      <c r="E86" s="61" t="s">
         <v>52</v>
       </c>
-      <c r="F86" s="70">
+      <c r="F86" s="69">
         <f>工数予実管理表!AB91*工数予実管理表!AC91</f>
         <v>0</v>
       </c>
     </row>
     <row r="87" spans="3:6" ht="16" x14ac:dyDescent="0.3">
-      <c r="C87" s="69"/>
-      <c r="D87" s="69"/>
-      <c r="E87" s="105" t="s">
+      <c r="C87" s="68"/>
+      <c r="D87" s="68"/>
+      <c r="E87" s="104" t="s">
         <v>53</v>
       </c>
-      <c r="F87" s="70">
+      <c r="F87" s="69">
         <f>工数予実管理表!AB92*工数予実管理表!AC92</f>
         <v>0</v>
       </c>
     </row>
     <row r="88" spans="3:6" ht="16" x14ac:dyDescent="0.3">
-      <c r="C88" s="69"/>
-      <c r="D88" s="69"/>
-      <c r="E88" s="62" t="s">
+      <c r="C88" s="68"/>
+      <c r="D88" s="68"/>
+      <c r="E88" s="61" t="s">
         <v>54</v>
       </c>
-      <c r="F88" s="70">
+      <c r="F88" s="69">
         <f>工数予実管理表!AB93*工数予実管理表!AC93</f>
         <v>0</v>
       </c>
     </row>
     <row r="89" spans="3:6" ht="16" x14ac:dyDescent="0.3">
-      <c r="C89" s="69"/>
-      <c r="D89" s="69"/>
-      <c r="E89" s="62" t="s">
+      <c r="C89" s="68"/>
+      <c r="D89" s="68"/>
+      <c r="E89" s="61" t="s">
         <v>55</v>
       </c>
-      <c r="F89" s="70">
+      <c r="F89" s="69">
         <f>工数予実管理表!AB94*工数予実管理表!AC94</f>
         <v>0</v>
       </c>
     </row>
     <row r="90" spans="3:6" ht="16" x14ac:dyDescent="0.3">
-      <c r="C90" s="69"/>
-      <c r="D90" s="69"/>
-      <c r="E90" s="62" t="s">
+      <c r="C90" s="68"/>
+      <c r="D90" s="68"/>
+      <c r="E90" s="61" t="s">
         <v>56</v>
       </c>
-      <c r="F90" s="70">
+      <c r="F90" s="69">
         <f>工数予実管理表!AB95*工数予実管理表!AC95</f>
         <v>0</v>
       </c>
     </row>
     <row r="91" spans="3:6" ht="16" x14ac:dyDescent="0.3">
-      <c r="C91" s="69"/>
-      <c r="D91" s="69"/>
-      <c r="E91" s="62" t="s">
+      <c r="C91" s="68"/>
+      <c r="D91" s="68"/>
+      <c r="E91" s="61" t="s">
         <v>57</v>
       </c>
-      <c r="F91" s="70">
+      <c r="F91" s="69">
         <f>工数予実管理表!AB96*工数予実管理表!AC96</f>
         <v>0</v>
       </c>
     </row>
     <row r="92" spans="3:6" ht="16" x14ac:dyDescent="0.3">
-      <c r="C92" s="69"/>
-      <c r="D92" s="69"/>
-      <c r="E92" s="62" t="s">
+      <c r="C92" s="68"/>
+      <c r="D92" s="68"/>
+      <c r="E92" s="61" t="s">
         <v>81</v>
       </c>
-      <c r="F92" s="70">
+      <c r="F92" s="69">
         <f>工数予実管理表!AB97*工数予実管理表!AC97</f>
         <v>0</v>
       </c>
     </row>
     <row r="93" spans="3:6" ht="16" x14ac:dyDescent="0.3">
-      <c r="C93" s="69"/>
-      <c r="D93" s="69"/>
-      <c r="E93" s="62" t="s">
+      <c r="C93" s="68"/>
+      <c r="D93" s="68"/>
+      <c r="E93" s="61" t="s">
         <v>82</v>
       </c>
-      <c r="F93" s="70">
+      <c r="F93" s="69">
         <f>工数予実管理表!AB98*工数予実管理表!AC98</f>
         <v>0</v>
       </c>
     </row>
     <row r="94" spans="3:6" ht="16" x14ac:dyDescent="0.3">
-      <c r="C94" s="69"/>
-      <c r="D94" s="69"/>
-      <c r="E94" s="107" t="s">
+      <c r="C94" s="68"/>
+      <c r="D94" s="68"/>
+      <c r="E94" s="106" t="s">
         <v>119</v>
       </c>
-      <c r="F94" s="70">
+      <c r="F94" s="69">
         <f>工数予実管理表!AB99*工数予実管理表!AC99</f>
         <v>0</v>
       </c>
     </row>
     <row r="95" spans="3:6" ht="16" x14ac:dyDescent="0.3">
-      <c r="C95" s="69"/>
-      <c r="D95" s="69"/>
-      <c r="F95">
+      <c r="C95" s="68"/>
+      <c r="D95" s="68"/>
+      <c r="F95" s="165">
         <f>SUM(F4:F94)</f>
-        <v>121.30000000000001</v>
+        <v>122.9</v>
       </c>
     </row>
     <row r="96" spans="3:6" ht="16" x14ac:dyDescent="0.3">
@@ -12948,21 +13625,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x010100364AEC801DCCFF4C9A7CD82776573E34" ma:contentTypeVersion="0" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="9a90bd606c73e53fbdca164192b510d5">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="86e6f6c817e23f4348afe6a544d017da">
     <xsd:element name="properties">
@@ -13076,10 +13738,33 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4F999A99-14E0-4A35-8552-0D0111146846}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E8C7E73E-37A8-4119-AD2E-81AFBFD39544}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -13094,17 +13779,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E8C7E73E-37A8-4119-AD2E-81AFBFD39544}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4F999A99-14E0-4A35-8552-0D0111146846}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/doc/D4_ドキュメント/予実管理表(最新版)_D4.xlsx
+++ b/doc/D4_ドキュメント/予実管理表(最新版)_D4.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23530"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15150F9E-0133-45E9-9D53-4575EB13926D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9CCE9FF4-5409-44A0-A3A4-ACA0898F81E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19090" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="工数予実管理表" sheetId="5" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="530" uniqueCount="155">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="529" uniqueCount="155">
   <si>
     <t>プロジェクト名</t>
     <rPh sb="6" eb="7">
@@ -1638,7 +1638,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="166">
+  <cellXfs count="165">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1906,9 +1906,6 @@
     <xf numFmtId="180" fontId="11" fillId="0" borderId="22" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="11" fillId="2" borderId="22" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="9" fontId="11" fillId="2" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -1969,6 +1966,84 @@
     <xf numFmtId="0" fontId="2" fillId="18" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
+    <xf numFmtId="9" fontId="12" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="17" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="17" borderId="22" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1978,164 +2053,86 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="178" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="178" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="12" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="17" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="17" borderId="22" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2377,13 +2374,13 @@
                   <c:v>0.43892857142857145</c:v>
                 </c:pt>
                 <c:pt idx="5" formatCode="0.0%">
-                  <c:v>0</c:v>
+                  <c:v>0.43892857142857145</c:v>
                 </c:pt>
                 <c:pt idx="6" formatCode="0.0%">
-                  <c:v>0</c:v>
+                  <c:v>0.43892857142857145</c:v>
                 </c:pt>
                 <c:pt idx="7" formatCode="0.0%">
-                  <c:v>0</c:v>
+                  <c:v>0.54142857142857137</c:v>
                 </c:pt>
                 <c:pt idx="8" formatCode="0.0%">
                   <c:v>0</c:v>
@@ -3597,8 +3594,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA4A6EF2-62B9-43FE-BFFD-0A328B128D1B}">
   <dimension ref="A1:BL111"/>
   <sheetViews>
-    <sheetView topLeftCell="Y1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="BH13" sqref="BH13"/>
+    <sheetView topLeftCell="E51" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="Y64" sqref="Y64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
@@ -3632,54 +3629,54 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:64" ht="16" x14ac:dyDescent="0.3">
-      <c r="A1" s="145" t="s">
+      <c r="A1" s="124" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="146"/>
-      <c r="C1" s="146"/>
-      <c r="D1" s="146"/>
-      <c r="E1" s="146"/>
-      <c r="F1" s="146"/>
-      <c r="G1" s="146"/>
-      <c r="H1" s="149" t="s">
+      <c r="B1" s="125"/>
+      <c r="C1" s="125"/>
+      <c r="D1" s="125"/>
+      <c r="E1" s="125"/>
+      <c r="F1" s="125"/>
+      <c r="G1" s="125"/>
+      <c r="H1" s="128" t="s">
         <v>1</v>
       </c>
-      <c r="I1" s="150"/>
-      <c r="J1" s="150"/>
-      <c r="K1" s="150"/>
-      <c r="L1" s="150"/>
-      <c r="M1" s="150"/>
-      <c r="N1" s="150"/>
-      <c r="O1" s="150"/>
-      <c r="P1" s="150"/>
-      <c r="Q1" s="150"/>
-      <c r="R1" s="150"/>
-      <c r="S1" s="150"/>
-      <c r="T1" s="150"/>
-      <c r="U1" s="150"/>
-      <c r="V1" s="150"/>
-      <c r="W1" s="150"/>
-      <c r="X1" s="150"/>
-      <c r="Y1" s="150"/>
-      <c r="Z1" s="150"/>
-      <c r="AA1" s="150"/>
-      <c r="AB1" s="150"/>
-      <c r="AC1" s="151"/>
-      <c r="AD1" s="119" t="s">
+      <c r="I1" s="129"/>
+      <c r="J1" s="129"/>
+      <c r="K1" s="129"/>
+      <c r="L1" s="129"/>
+      <c r="M1" s="129"/>
+      <c r="N1" s="129"/>
+      <c r="O1" s="129"/>
+      <c r="P1" s="129"/>
+      <c r="Q1" s="129"/>
+      <c r="R1" s="129"/>
+      <c r="S1" s="129"/>
+      <c r="T1" s="129"/>
+      <c r="U1" s="129"/>
+      <c r="V1" s="129"/>
+      <c r="W1" s="129"/>
+      <c r="X1" s="129"/>
+      <c r="Y1" s="129"/>
+      <c r="Z1" s="129"/>
+      <c r="AA1" s="129"/>
+      <c r="AB1" s="129"/>
+      <c r="AC1" s="130"/>
+      <c r="AD1" s="143" t="s">
         <v>2</v>
       </c>
-      <c r="AE1" s="120"/>
-      <c r="AF1" s="120"/>
-      <c r="AG1" s="121"/>
-      <c r="AH1" s="122">
+      <c r="AE1" s="144"/>
+      <c r="AF1" s="144"/>
+      <c r="AG1" s="145"/>
+      <c r="AH1" s="146">
         <v>45078</v>
       </c>
-      <c r="AI1" s="123"/>
-      <c r="AJ1" s="123"/>
-      <c r="AK1" s="123"/>
-      <c r="AL1" s="123"/>
-      <c r="AM1" s="123"/>
-      <c r="AN1" s="124"/>
+      <c r="AI1" s="147"/>
+      <c r="AJ1" s="147"/>
+      <c r="AK1" s="147"/>
+      <c r="AL1" s="147"/>
+      <c r="AM1" s="147"/>
+      <c r="AN1" s="148"/>
       <c r="AO1" s="1"/>
       <c r="AP1" s="1"/>
       <c r="AQ1" s="1"/>
@@ -3701,50 +3698,50 @@
       <c r="BG1" s="1"/>
     </row>
     <row r="2" spans="1:64" ht="16" x14ac:dyDescent="0.3">
-      <c r="A2" s="147"/>
-      <c r="B2" s="148"/>
-      <c r="C2" s="148"/>
-      <c r="D2" s="148"/>
-      <c r="E2" s="148"/>
-      <c r="F2" s="148"/>
-      <c r="G2" s="148"/>
-      <c r="H2" s="152"/>
-      <c r="I2" s="153"/>
-      <c r="J2" s="153"/>
-      <c r="K2" s="153"/>
-      <c r="L2" s="153"/>
-      <c r="M2" s="153"/>
-      <c r="N2" s="153"/>
-      <c r="O2" s="153"/>
-      <c r="P2" s="153"/>
-      <c r="Q2" s="153"/>
-      <c r="R2" s="153"/>
-      <c r="S2" s="153"/>
-      <c r="T2" s="153"/>
-      <c r="U2" s="153"/>
-      <c r="V2" s="153"/>
-      <c r="W2" s="153"/>
-      <c r="X2" s="153"/>
-      <c r="Y2" s="153"/>
-      <c r="Z2" s="153"/>
-      <c r="AA2" s="153"/>
-      <c r="AB2" s="153"/>
-      <c r="AC2" s="154"/>
-      <c r="AD2" s="119" t="s">
+      <c r="A2" s="126"/>
+      <c r="B2" s="127"/>
+      <c r="C2" s="127"/>
+      <c r="D2" s="127"/>
+      <c r="E2" s="127"/>
+      <c r="F2" s="127"/>
+      <c r="G2" s="127"/>
+      <c r="H2" s="131"/>
+      <c r="I2" s="132"/>
+      <c r="J2" s="132"/>
+      <c r="K2" s="132"/>
+      <c r="L2" s="132"/>
+      <c r="M2" s="132"/>
+      <c r="N2" s="132"/>
+      <c r="O2" s="132"/>
+      <c r="P2" s="132"/>
+      <c r="Q2" s="132"/>
+      <c r="R2" s="132"/>
+      <c r="S2" s="132"/>
+      <c r="T2" s="132"/>
+      <c r="U2" s="132"/>
+      <c r="V2" s="132"/>
+      <c r="W2" s="132"/>
+      <c r="X2" s="132"/>
+      <c r="Y2" s="132"/>
+      <c r="Z2" s="132"/>
+      <c r="AA2" s="132"/>
+      <c r="AB2" s="132"/>
+      <c r="AC2" s="133"/>
+      <c r="AD2" s="143" t="s">
         <v>3</v>
       </c>
-      <c r="AE2" s="120"/>
-      <c r="AF2" s="120"/>
-      <c r="AG2" s="121"/>
-      <c r="AH2" s="122">
+      <c r="AE2" s="144"/>
+      <c r="AF2" s="144"/>
+      <c r="AG2" s="145"/>
+      <c r="AH2" s="146">
         <v>45107</v>
       </c>
-      <c r="AI2" s="123"/>
-      <c r="AJ2" s="123"/>
-      <c r="AK2" s="123"/>
-      <c r="AL2" s="123"/>
-      <c r="AM2" s="123"/>
-      <c r="AN2" s="124"/>
+      <c r="AI2" s="147"/>
+      <c r="AJ2" s="147"/>
+      <c r="AK2" s="147"/>
+      <c r="AL2" s="147"/>
+      <c r="AM2" s="147"/>
+      <c r="AN2" s="148"/>
       <c r="AO2" s="1"/>
       <c r="AP2" s="1"/>
       <c r="AQ2" s="1"/>
@@ -3827,43 +3824,43 @@
       <c r="BG3" s="1"/>
     </row>
     <row r="4" spans="1:64" ht="16" x14ac:dyDescent="0.3">
-      <c r="A4" s="125" t="s">
+      <c r="A4" s="149" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="126"/>
-      <c r="C4" s="129" t="s">
+      <c r="B4" s="150"/>
+      <c r="C4" s="153" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="129"/>
-      <c r="E4" s="129"/>
-      <c r="F4" s="129"/>
-      <c r="G4" s="129"/>
-      <c r="H4" s="129"/>
-      <c r="I4" s="129"/>
-      <c r="J4" s="129"/>
-      <c r="K4" s="129"/>
-      <c r="L4" s="129"/>
-      <c r="M4" s="129"/>
-      <c r="N4" s="129"/>
-      <c r="O4" s="129"/>
-      <c r="P4" s="126" t="s">
+      <c r="D4" s="153"/>
+      <c r="E4" s="153"/>
+      <c r="F4" s="153"/>
+      <c r="G4" s="153"/>
+      <c r="H4" s="153"/>
+      <c r="I4" s="153"/>
+      <c r="J4" s="153"/>
+      <c r="K4" s="153"/>
+      <c r="L4" s="153"/>
+      <c r="M4" s="153"/>
+      <c r="N4" s="153"/>
+      <c r="O4" s="153"/>
+      <c r="P4" s="150" t="s">
         <v>6</v>
       </c>
-      <c r="Q4" s="126"/>
-      <c r="R4" s="126"/>
-      <c r="S4" s="126" t="s">
+      <c r="Q4" s="150"/>
+      <c r="R4" s="150"/>
+      <c r="S4" s="150" t="s">
         <v>7</v>
       </c>
-      <c r="T4" s="126"/>
-      <c r="U4" s="126"/>
-      <c r="V4" s="126"/>
-      <c r="W4" s="126"/>
-      <c r="X4" s="134"/>
-      <c r="Y4" s="130" t="s">
+      <c r="T4" s="150"/>
+      <c r="U4" s="150"/>
+      <c r="V4" s="150"/>
+      <c r="W4" s="150"/>
+      <c r="X4" s="158"/>
+      <c r="Y4" s="154" t="s">
         <v>8</v>
       </c>
-      <c r="Z4" s="130"/>
-      <c r="AA4" s="131"/>
+      <c r="Z4" s="154"/>
+      <c r="AA4" s="155"/>
       <c r="AB4" s="49"/>
       <c r="AC4" s="49"/>
       <c r="AD4" s="5">
@@ -3988,43 +3985,43 @@
       </c>
     </row>
     <row r="5" spans="1:64" ht="16" x14ac:dyDescent="0.3">
-      <c r="A5" s="127"/>
-      <c r="B5" s="128"/>
-      <c r="C5" s="128" t="s">
+      <c r="A5" s="151"/>
+      <c r="B5" s="152"/>
+      <c r="C5" s="152" t="s">
         <v>9</v>
       </c>
-      <c r="D5" s="128"/>
-      <c r="E5" s="128"/>
-      <c r="F5" s="128"/>
-      <c r="G5" s="128"/>
-      <c r="H5" s="141" t="s">
+      <c r="D5" s="152"/>
+      <c r="E5" s="152"/>
+      <c r="F5" s="152"/>
+      <c r="G5" s="152"/>
+      <c r="H5" s="120" t="s">
         <v>116</v>
       </c>
-      <c r="I5" s="142"/>
-      <c r="J5" s="141" t="s">
+      <c r="I5" s="121"/>
+      <c r="J5" s="120" t="s">
         <v>89</v>
       </c>
-      <c r="K5" s="142"/>
+      <c r="K5" s="121"/>
       <c r="L5" s="53"/>
       <c r="M5" s="53"/>
       <c r="N5" s="53"/>
       <c r="O5" s="53"/>
-      <c r="P5" s="128"/>
-      <c r="Q5" s="128"/>
-      <c r="R5" s="128"/>
-      <c r="S5" s="128" t="s">
+      <c r="P5" s="152"/>
+      <c r="Q5" s="152"/>
+      <c r="R5" s="152"/>
+      <c r="S5" s="152" t="s">
         <v>2</v>
       </c>
-      <c r="T5" s="128"/>
-      <c r="U5" s="128"/>
-      <c r="V5" s="128" t="s">
+      <c r="T5" s="152"/>
+      <c r="U5" s="152"/>
+      <c r="V5" s="152" t="s">
         <v>3</v>
       </c>
-      <c r="W5" s="128"/>
-      <c r="X5" s="119"/>
-      <c r="Y5" s="132"/>
-      <c r="Z5" s="132"/>
-      <c r="AA5" s="133"/>
+      <c r="W5" s="152"/>
+      <c r="X5" s="143"/>
+      <c r="Y5" s="156"/>
+      <c r="Z5" s="156"/>
+      <c r="AA5" s="157"/>
       <c r="AB5" s="45" t="s">
         <v>87</v>
       </c>
@@ -4159,33 +4156,33 @@
       </c>
     </row>
     <row r="6" spans="1:64" ht="16" x14ac:dyDescent="0.3">
-      <c r="A6" s="127"/>
-      <c r="B6" s="128"/>
-      <c r="C6" s="128"/>
-      <c r="D6" s="128"/>
-      <c r="E6" s="128"/>
-      <c r="F6" s="128"/>
-      <c r="G6" s="128"/>
-      <c r="H6" s="143"/>
-      <c r="I6" s="144"/>
-      <c r="J6" s="143"/>
-      <c r="K6" s="144"/>
+      <c r="A6" s="151"/>
+      <c r="B6" s="152"/>
+      <c r="C6" s="152"/>
+      <c r="D6" s="152"/>
+      <c r="E6" s="152"/>
+      <c r="F6" s="152"/>
+      <c r="G6" s="152"/>
+      <c r="H6" s="122"/>
+      <c r="I6" s="123"/>
+      <c r="J6" s="122"/>
+      <c r="K6" s="123"/>
       <c r="L6" s="53"/>
       <c r="M6" s="53"/>
       <c r="N6" s="53"/>
       <c r="O6" s="53"/>
-      <c r="P6" s="128"/>
-      <c r="Q6" s="128"/>
-      <c r="R6" s="128"/>
-      <c r="S6" s="128"/>
-      <c r="T6" s="128"/>
-      <c r="U6" s="128"/>
-      <c r="V6" s="128"/>
-      <c r="W6" s="128"/>
-      <c r="X6" s="119"/>
-      <c r="Y6" s="132"/>
-      <c r="Z6" s="132"/>
-      <c r="AA6" s="133"/>
+      <c r="P6" s="152"/>
+      <c r="Q6" s="152"/>
+      <c r="R6" s="152"/>
+      <c r="S6" s="152"/>
+      <c r="T6" s="152"/>
+      <c r="U6" s="152"/>
+      <c r="V6" s="152"/>
+      <c r="W6" s="152"/>
+      <c r="X6" s="143"/>
+      <c r="Y6" s="156"/>
+      <c r="Z6" s="156"/>
+      <c r="AA6" s="157"/>
       <c r="AB6" s="45"/>
       <c r="AC6" s="45"/>
       <c r="AD6" s="11" t="str">
@@ -4308,10 +4305,10 @@
         <f t="shared" si="3"/>
         <v>金</v>
       </c>
-      <c r="BI6" s="162" t="s">
+      <c r="BI6" s="110" t="s">
         <v>117</v>
       </c>
-      <c r="BJ6" s="163">
+      <c r="BJ6" s="111">
         <v>1</v>
       </c>
       <c r="BL6" t="s">
@@ -4383,7 +4380,7 @@
       <c r="BI7" s="80" t="s">
         <v>118</v>
       </c>
-      <c r="BJ7" s="164">
+      <c r="BJ7" s="112">
         <v>0</v>
       </c>
       <c r="BL7" s="56">
@@ -4452,10 +4449,10 @@
       <c r="BE8" s="2"/>
       <c r="BF8" s="2"/>
       <c r="BG8" s="9"/>
-      <c r="BI8" s="164">
+      <c r="BI8" s="112">
         <v>0.01</v>
       </c>
-      <c r="BJ8" s="164">
+      <c r="BJ8" s="112">
         <v>0.01</v>
       </c>
       <c r="BL8" s="54">
@@ -4505,7 +4502,7 @@
       <c r="AB9" s="45">
         <v>1</v>
       </c>
-      <c r="AC9" s="161">
+      <c r="AC9" s="109">
         <f>VLOOKUP(Y9,$BI$6:$BJ$107,2,FALSE)</f>
         <v>1</v>
       </c>
@@ -4539,10 +4536,10 @@
       <c r="BE9" s="2"/>
       <c r="BF9" s="2"/>
       <c r="BG9" s="9"/>
-      <c r="BI9" s="164">
+      <c r="BI9" s="112">
         <v>0.02</v>
       </c>
-      <c r="BJ9" s="164">
+      <c r="BJ9" s="112">
         <v>0.02</v>
       </c>
     </row>
@@ -4589,7 +4586,7 @@
       <c r="AB10" s="45">
         <v>1</v>
       </c>
-      <c r="AC10" s="161">
+      <c r="AC10" s="109">
         <f t="shared" ref="AC10:AC69" si="4">VLOOKUP(Y10,$BI$6:$BJ$107,2,FALSE)</f>
         <v>1</v>
       </c>
@@ -4623,10 +4620,10 @@
       <c r="BE10" s="2"/>
       <c r="BF10" s="2"/>
       <c r="BG10" s="9"/>
-      <c r="BI10" s="164">
+      <c r="BI10" s="112">
         <v>0.03</v>
       </c>
-      <c r="BJ10" s="164">
+      <c r="BJ10" s="112">
         <v>0.03</v>
       </c>
     </row>
@@ -4673,7 +4670,7 @@
       <c r="AB11" s="45">
         <v>1</v>
       </c>
-      <c r="AC11" s="161">
+      <c r="AC11" s="109">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
@@ -4707,10 +4704,10 @@
       <c r="BE11" s="2"/>
       <c r="BF11" s="2"/>
       <c r="BG11" s="9"/>
-      <c r="BI11" s="164">
+      <c r="BI11" s="112">
         <v>0.04</v>
       </c>
-      <c r="BJ11" s="164">
+      <c r="BJ11" s="112">
         <v>0.04</v>
       </c>
     </row>
@@ -4757,7 +4754,7 @@
       <c r="AB12" s="45">
         <v>2</v>
       </c>
-      <c r="AC12" s="161">
+      <c r="AC12" s="109">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
@@ -4791,10 +4788,10 @@
       <c r="BE12" s="2"/>
       <c r="BF12" s="2"/>
       <c r="BG12" s="9"/>
-      <c r="BI12" s="164">
+      <c r="BI12" s="112">
         <v>0.05</v>
       </c>
-      <c r="BJ12" s="164">
+      <c r="BJ12" s="112">
         <v>0.05</v>
       </c>
     </row>
@@ -4841,7 +4838,7 @@
       <c r="AB13" s="45">
         <v>2</v>
       </c>
-      <c r="AC13" s="161">
+      <c r="AC13" s="109">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
@@ -4875,10 +4872,10 @@
       <c r="BE13" s="2"/>
       <c r="BF13" s="2"/>
       <c r="BG13" s="9"/>
-      <c r="BI13" s="164">
+      <c r="BI13" s="112">
         <v>0.06</v>
       </c>
-      <c r="BJ13" s="164">
+      <c r="BJ13" s="112">
         <v>0.06</v>
       </c>
     </row>
@@ -4925,7 +4922,7 @@
       <c r="AB14" s="45">
         <v>2</v>
       </c>
-      <c r="AC14" s="161">
+      <c r="AC14" s="109">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
@@ -4959,10 +4956,10 @@
       <c r="BE14" s="2"/>
       <c r="BF14" s="2"/>
       <c r="BG14" s="9"/>
-      <c r="BI14" s="164">
+      <c r="BI14" s="112">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="BJ14" s="164">
+      <c r="BJ14" s="112">
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
@@ -5009,7 +5006,7 @@
       <c r="AB15" s="45">
         <v>2</v>
       </c>
-      <c r="AC15" s="161">
+      <c r="AC15" s="109">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
@@ -5043,10 +5040,10 @@
       <c r="BE15" s="2"/>
       <c r="BF15" s="2"/>
       <c r="BG15" s="9"/>
-      <c r="BI15" s="164">
+      <c r="BI15" s="112">
         <v>0.08</v>
       </c>
-      <c r="BJ15" s="164">
+      <c r="BJ15" s="112">
         <v>0.08</v>
       </c>
     </row>
@@ -5093,7 +5090,7 @@
       <c r="AB16" s="45">
         <v>2</v>
       </c>
-      <c r="AC16" s="161">
+      <c r="AC16" s="109">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
@@ -5127,10 +5124,10 @@
       <c r="BE16" s="2"/>
       <c r="BF16" s="2"/>
       <c r="BG16" s="9"/>
-      <c r="BI16" s="164">
+      <c r="BI16" s="112">
         <v>0.09</v>
       </c>
-      <c r="BJ16" s="164">
+      <c r="BJ16" s="112">
         <v>0.09</v>
       </c>
     </row>
@@ -5177,7 +5174,7 @@
       <c r="AB17" s="45">
         <v>1</v>
       </c>
-      <c r="AC17" s="161">
+      <c r="AC17" s="109">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
@@ -5211,10 +5208,10 @@
       <c r="BE17" s="2"/>
       <c r="BF17" s="2"/>
       <c r="BG17" s="9"/>
-      <c r="BI17" s="164">
+      <c r="BI17" s="112">
         <v>0.1</v>
       </c>
-      <c r="BJ17" s="164">
+      <c r="BJ17" s="112">
         <v>0.1</v>
       </c>
     </row>
@@ -5255,17 +5252,17 @@
       </c>
       <c r="W18" s="21"/>
       <c r="X18" s="21"/>
-      <c r="Y18" s="40">
-        <v>0.8</v>
+      <c r="Y18" s="40" t="s">
+        <v>76</v>
       </c>
       <c r="Z18" s="32"/>
       <c r="AA18" s="51"/>
       <c r="AB18" s="45">
         <v>2</v>
       </c>
-      <c r="AC18" s="161">
+      <c r="AC18" s="109">
         <f t="shared" si="4"/>
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="AD18" s="44"/>
       <c r="AE18" s="2"/>
@@ -5297,10 +5294,10 @@
       <c r="BE18" s="2"/>
       <c r="BF18" s="2"/>
       <c r="BG18" s="9"/>
-      <c r="BI18" s="164">
+      <c r="BI18" s="112">
         <v>0.11</v>
       </c>
-      <c r="BJ18" s="164">
+      <c r="BJ18" s="112">
         <v>0.11</v>
       </c>
     </row>
@@ -5349,7 +5346,7 @@
       <c r="AB19" s="45">
         <v>1</v>
       </c>
-      <c r="AC19" s="161">
+      <c r="AC19" s="109">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
@@ -5383,10 +5380,10 @@
       <c r="BE19" s="2"/>
       <c r="BF19" s="2"/>
       <c r="BG19" s="9"/>
-      <c r="BI19" s="164">
+      <c r="BI19" s="112">
         <v>0.12</v>
       </c>
-      <c r="BJ19" s="164">
+      <c r="BJ19" s="112">
         <v>0.12</v>
       </c>
     </row>
@@ -5433,7 +5430,7 @@
       <c r="AB20" s="45">
         <v>1</v>
       </c>
-      <c r="AC20" s="161">
+      <c r="AC20" s="109">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
@@ -5467,10 +5464,10 @@
       <c r="BE20" s="2"/>
       <c r="BF20" s="2"/>
       <c r="BG20" s="9"/>
-      <c r="BI20" s="164">
+      <c r="BI20" s="112">
         <v>0.13</v>
       </c>
-      <c r="BJ20" s="164">
+      <c r="BJ20" s="112">
         <v>0.13</v>
       </c>
     </row>
@@ -5517,7 +5514,7 @@
       <c r="AB21" s="45">
         <v>1</v>
       </c>
-      <c r="AC21" s="161">
+      <c r="AC21" s="109">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
@@ -5551,10 +5548,10 @@
       <c r="BE21" s="2"/>
       <c r="BF21" s="2"/>
       <c r="BG21" s="9"/>
-      <c r="BI21" s="164">
+      <c r="BI21" s="112">
         <v>0.14000000000000001</v>
       </c>
-      <c r="BJ21" s="164">
+      <c r="BJ21" s="112">
         <v>0.14000000000000001</v>
       </c>
     </row>
@@ -5601,7 +5598,7 @@
       <c r="AB22" s="45">
         <v>1</v>
       </c>
-      <c r="AC22" s="161">
+      <c r="AC22" s="109">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
@@ -5635,10 +5632,10 @@
       <c r="BE22" s="2"/>
       <c r="BF22" s="2"/>
       <c r="BG22" s="9"/>
-      <c r="BI22" s="164">
+      <c r="BI22" s="112">
         <v>0.15</v>
       </c>
-      <c r="BJ22" s="164">
+      <c r="BJ22" s="112">
         <v>0.15</v>
       </c>
     </row>
@@ -5685,7 +5682,7 @@
       <c r="AB23" s="45">
         <v>1</v>
       </c>
-      <c r="AC23" s="161">
+      <c r="AC23" s="109">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
@@ -5719,10 +5716,10 @@
       <c r="BE23" s="2"/>
       <c r="BF23" s="2"/>
       <c r="BG23" s="9"/>
-      <c r="BI23" s="164">
+      <c r="BI23" s="112">
         <v>0.16</v>
       </c>
-      <c r="BJ23" s="164">
+      <c r="BJ23" s="112">
         <v>0.16</v>
       </c>
     </row>
@@ -5769,7 +5766,7 @@
       <c r="AB24" s="45">
         <v>1</v>
       </c>
-      <c r="AC24" s="161">
+      <c r="AC24" s="109">
         <f t="shared" si="4"/>
         <v>0.5</v>
       </c>
@@ -5803,10 +5800,10 @@
       <c r="BE24" s="2"/>
       <c r="BF24" s="2"/>
       <c r="BG24" s="9"/>
-      <c r="BI24" s="164">
+      <c r="BI24" s="112">
         <v>0.17</v>
       </c>
-      <c r="BJ24" s="164">
+      <c r="BJ24" s="112">
         <v>0.17</v>
       </c>
     </row>
@@ -5853,7 +5850,7 @@
       <c r="AB25" s="45">
         <v>1</v>
       </c>
-      <c r="AC25" s="161">
+      <c r="AC25" s="109">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
@@ -5887,10 +5884,10 @@
       <c r="BE25" s="2"/>
       <c r="BF25" s="2"/>
       <c r="BG25" s="9"/>
-      <c r="BI25" s="164">
+      <c r="BI25" s="112">
         <v>0.18</v>
       </c>
-      <c r="BJ25" s="164">
+      <c r="BJ25" s="112">
         <v>0.18</v>
       </c>
     </row>
@@ -5937,7 +5934,7 @@
       <c r="AB26" s="45">
         <v>1</v>
       </c>
-      <c r="AC26" s="161">
+      <c r="AC26" s="109">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
@@ -5971,10 +5968,10 @@
       <c r="BE26" s="2"/>
       <c r="BF26" s="2"/>
       <c r="BG26" s="9"/>
-      <c r="BI26" s="164">
+      <c r="BI26" s="112">
         <v>0.19</v>
       </c>
-      <c r="BJ26" s="164">
+      <c r="BJ26" s="112">
         <v>0.19</v>
       </c>
     </row>
@@ -5986,11 +5983,11 @@
       <c r="E27" s="19"/>
       <c r="F27" s="19"/>
       <c r="G27" s="19"/>
-      <c r="H27" s="109" t="s">
+      <c r="H27" s="108" t="s">
         <v>106</v>
       </c>
-      <c r="I27" s="109"/>
-      <c r="J27" s="109" t="s">
+      <c r="I27" s="108"/>
+      <c r="J27" s="108" t="s">
         <v>38</v>
       </c>
       <c r="K27" s="19"/>
@@ -6021,7 +6018,7 @@
       <c r="AB27" s="45">
         <v>1</v>
       </c>
-      <c r="AC27" s="161">
+      <c r="AC27" s="109">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
@@ -6055,10 +6052,10 @@
       <c r="BE27" s="2"/>
       <c r="BF27" s="2"/>
       <c r="BG27" s="9"/>
-      <c r="BI27" s="164">
+      <c r="BI27" s="112">
         <v>0.2</v>
       </c>
-      <c r="BJ27" s="164">
+      <c r="BJ27" s="112">
         <v>0.2</v>
       </c>
     </row>
@@ -6070,11 +6067,11 @@
       <c r="E28" s="19"/>
       <c r="F28" s="19"/>
       <c r="G28" s="19"/>
-      <c r="H28" s="109" t="s">
+      <c r="H28" s="108" t="s">
         <v>100</v>
       </c>
-      <c r="I28" s="109"/>
-      <c r="J28" s="109" t="s">
+      <c r="I28" s="108"/>
+      <c r="J28" s="108" t="s">
         <v>39</v>
       </c>
       <c r="K28" s="19"/>
@@ -6105,7 +6102,7 @@
       <c r="AB28" s="47">
         <v>1</v>
       </c>
-      <c r="AC28" s="161">
+      <c r="AC28" s="109">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
@@ -6139,10 +6136,10 @@
       <c r="BE28" s="2"/>
       <c r="BF28" s="2"/>
       <c r="BG28" s="9"/>
-      <c r="BI28" s="164">
+      <c r="BI28" s="112">
         <v>0.21</v>
       </c>
-      <c r="BJ28" s="164">
+      <c r="BJ28" s="112">
         <v>0.21</v>
       </c>
     </row>
@@ -6154,11 +6151,11 @@
       <c r="E29" s="19"/>
       <c r="F29" s="19"/>
       <c r="G29" s="19"/>
-      <c r="H29" s="109" t="s">
+      <c r="H29" s="108" t="s">
         <v>101</v>
       </c>
-      <c r="I29" s="109"/>
-      <c r="J29" s="109" t="s">
+      <c r="I29" s="108"/>
+      <c r="J29" s="108" t="s">
         <v>40</v>
       </c>
       <c r="K29" s="19"/>
@@ -6189,7 +6186,7 @@
       <c r="AB29" s="47">
         <v>1</v>
       </c>
-      <c r="AC29" s="161">
+      <c r="AC29" s="109">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
@@ -6223,10 +6220,10 @@
       <c r="BE29" s="2"/>
       <c r="BF29" s="2"/>
       <c r="BG29" s="9"/>
-      <c r="BI29" s="164">
+      <c r="BI29" s="112">
         <v>0.22</v>
       </c>
-      <c r="BJ29" s="164">
+      <c r="BJ29" s="112">
         <v>0.22</v>
       </c>
     </row>
@@ -6238,11 +6235,11 @@
       <c r="E30" s="19"/>
       <c r="F30" s="19"/>
       <c r="G30" s="19"/>
-      <c r="H30" s="109" t="s">
+      <c r="H30" s="108" t="s">
         <v>102</v>
       </c>
-      <c r="I30" s="109"/>
-      <c r="J30" s="109" t="s">
+      <c r="I30" s="108"/>
+      <c r="J30" s="108" t="s">
         <v>41</v>
       </c>
       <c r="K30" s="19"/>
@@ -6273,7 +6270,7 @@
       <c r="AB30" s="47">
         <v>1</v>
       </c>
-      <c r="AC30" s="161">
+      <c r="AC30" s="109">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
@@ -6307,10 +6304,10 @@
       <c r="BE30" s="2"/>
       <c r="BF30" s="2"/>
       <c r="BG30" s="9"/>
-      <c r="BI30" s="164">
+      <c r="BI30" s="112">
         <v>0.23</v>
       </c>
-      <c r="BJ30" s="164">
+      <c r="BJ30" s="112">
         <v>0.23</v>
       </c>
     </row>
@@ -6322,11 +6319,11 @@
       <c r="E31" s="19"/>
       <c r="F31" s="19"/>
       <c r="G31" s="19"/>
-      <c r="H31" s="109" t="s">
+      <c r="H31" s="108" t="s">
         <v>97</v>
       </c>
-      <c r="I31" s="109"/>
-      <c r="J31" s="109" t="s">
+      <c r="I31" s="108"/>
+      <c r="J31" s="108" t="s">
         <v>42</v>
       </c>
       <c r="K31" s="19"/>
@@ -6357,7 +6354,7 @@
       <c r="AB31" s="47">
         <v>1</v>
       </c>
-      <c r="AC31" s="161">
+      <c r="AC31" s="109">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
@@ -6391,10 +6388,10 @@
       <c r="BE31" s="2"/>
       <c r="BF31" s="2"/>
       <c r="BG31" s="9"/>
-      <c r="BI31" s="164">
+      <c r="BI31" s="112">
         <v>0.24</v>
       </c>
-      <c r="BJ31" s="164">
+      <c r="BJ31" s="112">
         <v>0.24</v>
       </c>
     </row>
@@ -6406,11 +6403,11 @@
       <c r="E32" s="19"/>
       <c r="F32" s="19"/>
       <c r="G32" s="19"/>
-      <c r="H32" s="109" t="s">
+      <c r="H32" s="108" t="s">
         <v>107</v>
       </c>
-      <c r="I32" s="109"/>
-      <c r="J32" s="109" t="s">
+      <c r="I32" s="108"/>
+      <c r="J32" s="108" t="s">
         <v>43</v>
       </c>
       <c r="K32" s="19"/>
@@ -6441,7 +6438,7 @@
       <c r="AB32" s="47">
         <v>1</v>
       </c>
-      <c r="AC32" s="161">
+      <c r="AC32" s="109">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
@@ -6475,10 +6472,10 @@
       <c r="BE32" s="2"/>
       <c r="BF32" s="2"/>
       <c r="BG32" s="9"/>
-      <c r="BI32" s="164">
+      <c r="BI32" s="112">
         <v>0.25</v>
       </c>
-      <c r="BJ32" s="164">
+      <c r="BJ32" s="112">
         <v>0.25</v>
       </c>
     </row>
@@ -6490,11 +6487,11 @@
       <c r="E33" s="19"/>
       <c r="F33" s="19"/>
       <c r="G33" s="19"/>
-      <c r="H33" s="109" t="s">
+      <c r="H33" s="108" t="s">
         <v>108</v>
       </c>
-      <c r="I33" s="109"/>
-      <c r="J33" s="109" t="s">
+      <c r="I33" s="108"/>
+      <c r="J33" s="108" t="s">
         <v>153</v>
       </c>
       <c r="K33" s="19"/>
@@ -6525,7 +6522,7 @@
       <c r="AB33" s="47">
         <v>1</v>
       </c>
-      <c r="AC33" s="161">
+      <c r="AC33" s="109">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
@@ -6559,10 +6556,10 @@
       <c r="BE33" s="2"/>
       <c r="BF33" s="2"/>
       <c r="BG33" s="9"/>
-      <c r="BI33" s="164">
+      <c r="BI33" s="112">
         <v>0.26</v>
       </c>
-      <c r="BJ33" s="164">
+      <c r="BJ33" s="112">
         <v>0.26</v>
       </c>
     </row>
@@ -6574,11 +6571,11 @@
       <c r="E34" s="19"/>
       <c r="F34" s="19"/>
       <c r="G34" s="19"/>
-      <c r="H34" s="109" t="s">
+      <c r="H34" s="108" t="s">
         <v>109</v>
       </c>
-      <c r="I34" s="109"/>
-      <c r="J34" s="109" t="s">
+      <c r="I34" s="108"/>
+      <c r="J34" s="108" t="s">
         <v>154</v>
       </c>
       <c r="K34" s="19"/>
@@ -6609,7 +6606,7 @@
       <c r="AB34" s="47">
         <v>1</v>
       </c>
-      <c r="AC34" s="161">
+      <c r="AC34" s="109">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
@@ -6643,10 +6640,10 @@
       <c r="BE34" s="2"/>
       <c r="BF34" s="2"/>
       <c r="BG34" s="9"/>
-      <c r="BI34" s="164">
+      <c r="BI34" s="112">
         <v>0.27</v>
       </c>
-      <c r="BJ34" s="164">
+      <c r="BJ34" s="112">
         <v>0.27</v>
       </c>
     </row>
@@ -6658,11 +6655,11 @@
       <c r="E35" s="19"/>
       <c r="F35" s="19"/>
       <c r="G35" s="19"/>
-      <c r="H35" s="109" t="s">
+      <c r="H35" s="108" t="s">
         <v>124</v>
       </c>
-      <c r="I35" s="109"/>
-      <c r="J35" s="109" t="s">
+      <c r="I35" s="108"/>
+      <c r="J35" s="108" t="s">
         <v>46</v>
       </c>
       <c r="K35" s="19"/>
@@ -6693,7 +6690,7 @@
       <c r="AB35" s="45">
         <v>1</v>
       </c>
-      <c r="AC35" s="161">
+      <c r="AC35" s="109">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
@@ -6727,10 +6724,10 @@
       <c r="BE35" s="2"/>
       <c r="BF35" s="2"/>
       <c r="BG35" s="9"/>
-      <c r="BI35" s="164">
+      <c r="BI35" s="112">
         <v>0.28000000000000003</v>
       </c>
-      <c r="BJ35" s="164">
+      <c r="BJ35" s="112">
         <v>0.28000000000000003</v>
       </c>
     </row>
@@ -6742,11 +6739,11 @@
       <c r="E36" s="19"/>
       <c r="F36" s="19"/>
       <c r="G36" s="19"/>
-      <c r="H36" s="109" t="s">
+      <c r="H36" s="108" t="s">
         <v>110</v>
       </c>
-      <c r="I36" s="109"/>
-      <c r="J36" s="109" t="s">
+      <c r="I36" s="108"/>
+      <c r="J36" s="108" t="s">
         <v>47</v>
       </c>
       <c r="K36" s="19"/>
@@ -6777,7 +6774,7 @@
       <c r="AB36" s="45">
         <v>1</v>
       </c>
-      <c r="AC36" s="161">
+      <c r="AC36" s="109">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
@@ -6811,10 +6808,10 @@
       <c r="BE36" s="2"/>
       <c r="BF36" s="2"/>
       <c r="BG36" s="9"/>
-      <c r="BI36" s="164">
+      <c r="BI36" s="112">
         <v>0.28999999999999998</v>
       </c>
-      <c r="BJ36" s="164">
+      <c r="BJ36" s="112">
         <v>0.28999999999999998</v>
       </c>
     </row>
@@ -6861,7 +6858,7 @@
       <c r="AB37" s="45">
         <v>3</v>
       </c>
-      <c r="AC37" s="161">
+      <c r="AC37" s="109">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
@@ -6895,10 +6892,10 @@
       <c r="BE37" s="2"/>
       <c r="BF37" s="2"/>
       <c r="BG37" s="9"/>
-      <c r="BI37" s="164">
+      <c r="BI37" s="112">
         <v>0.3</v>
       </c>
-      <c r="BJ37" s="164">
+      <c r="BJ37" s="112">
         <v>0.3</v>
       </c>
     </row>
@@ -6938,16 +6935,16 @@
       <c r="W38" s="21"/>
       <c r="X38" s="21"/>
       <c r="Y38" s="55" t="s">
-        <v>118</v>
+        <v>76</v>
       </c>
       <c r="Z38" s="4"/>
       <c r="AA38" s="43"/>
       <c r="AB38" s="45">
         <v>3</v>
       </c>
-      <c r="AC38" s="161">
+      <c r="AC38" s="109">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD38" s="44"/>
       <c r="AE38" s="2"/>
@@ -6979,10 +6976,10 @@
       <c r="BE38" s="2"/>
       <c r="BF38" s="2"/>
       <c r="BG38" s="9"/>
-      <c r="BI38" s="164">
+      <c r="BI38" s="112">
         <v>0.31</v>
       </c>
-      <c r="BJ38" s="164">
+      <c r="BJ38" s="112">
         <v>0.31</v>
       </c>
     </row>
@@ -7022,16 +7019,16 @@
       <c r="W39" s="21"/>
       <c r="X39" s="21"/>
       <c r="Y39" s="55" t="s">
-        <v>118</v>
+        <v>76</v>
       </c>
       <c r="Z39" s="4"/>
       <c r="AA39" s="43"/>
       <c r="AB39" s="45">
         <v>3</v>
       </c>
-      <c r="AC39" s="161">
+      <c r="AC39" s="109">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD39" s="44"/>
       <c r="AE39" s="2"/>
@@ -7063,10 +7060,10 @@
       <c r="BE39" s="2"/>
       <c r="BF39" s="2"/>
       <c r="BG39" s="9"/>
-      <c r="BI39" s="164">
+      <c r="BI39" s="112">
         <v>0.32</v>
       </c>
-      <c r="BJ39" s="164">
+      <c r="BJ39" s="112">
         <v>0.32</v>
       </c>
     </row>
@@ -7106,16 +7103,16 @@
       <c r="W40" s="21"/>
       <c r="X40" s="21"/>
       <c r="Y40" s="55" t="s">
-        <v>118</v>
+        <v>76</v>
       </c>
       <c r="Z40" s="4"/>
       <c r="AA40" s="43"/>
       <c r="AB40" s="45">
         <v>3</v>
       </c>
-      <c r="AC40" s="161">
+      <c r="AC40" s="109">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD40" s="44"/>
       <c r="AE40" s="2"/>
@@ -7147,10 +7144,10 @@
       <c r="BE40" s="2"/>
       <c r="BF40" s="2"/>
       <c r="BG40" s="9"/>
-      <c r="BI40" s="164">
+      <c r="BI40" s="112">
         <v>0.33</v>
       </c>
-      <c r="BJ40" s="164">
+      <c r="BJ40" s="112">
         <v>0.33</v>
       </c>
     </row>
@@ -7189,17 +7186,17 @@
       </c>
       <c r="W41" s="21"/>
       <c r="X41" s="21"/>
-      <c r="Y41" s="25" t="s">
-        <v>76</v>
+      <c r="Y41" s="25">
+        <v>0.8</v>
       </c>
       <c r="Z41" s="4"/>
       <c r="AA41" s="43"/>
       <c r="AB41" s="45">
         <v>3</v>
       </c>
-      <c r="AC41" s="161">
+      <c r="AC41" s="109">
         <f t="shared" si="4"/>
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AD41" s="44"/>
       <c r="AE41" s="2"/>
@@ -7231,10 +7228,10 @@
       <c r="BE41" s="2"/>
       <c r="BF41" s="2"/>
       <c r="BG41" s="9"/>
-      <c r="BI41" s="164">
+      <c r="BI41" s="112">
         <v>0.34</v>
       </c>
-      <c r="BJ41" s="164">
+      <c r="BJ41" s="112">
         <v>0.34</v>
       </c>
     </row>
@@ -7274,16 +7271,16 @@
       <c r="W42" s="21"/>
       <c r="X42" s="21"/>
       <c r="Y42" s="55" t="s">
-        <v>118</v>
+        <v>76</v>
       </c>
       <c r="Z42" s="4"/>
       <c r="AA42" s="43"/>
       <c r="AB42" s="45">
         <v>3</v>
       </c>
-      <c r="AC42" s="161">
+      <c r="AC42" s="109">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD42" s="44"/>
       <c r="AE42" s="2"/>
@@ -7315,10 +7312,10 @@
       <c r="BE42" s="2"/>
       <c r="BF42" s="2"/>
       <c r="BG42" s="9"/>
-      <c r="BI42" s="164">
+      <c r="BI42" s="112">
         <v>0.35</v>
       </c>
-      <c r="BJ42" s="164">
+      <c r="BJ42" s="112">
         <v>0.35</v>
       </c>
     </row>
@@ -7365,7 +7362,7 @@
       <c r="AB43" s="45">
         <v>3</v>
       </c>
-      <c r="AC43" s="161">
+      <c r="AC43" s="109">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
@@ -7399,10 +7396,10 @@
       <c r="BE43" s="2"/>
       <c r="BF43" s="2"/>
       <c r="BG43" s="9"/>
-      <c r="BI43" s="164">
+      <c r="BI43" s="112">
         <v>0.36</v>
       </c>
-      <c r="BJ43" s="164">
+      <c r="BJ43" s="112">
         <v>0.36</v>
       </c>
     </row>
@@ -7441,17 +7438,17 @@
       </c>
       <c r="W44" s="21"/>
       <c r="X44" s="21"/>
-      <c r="Y44" s="55" t="s">
-        <v>118</v>
+      <c r="Y44" s="40">
+        <v>0.5</v>
       </c>
       <c r="Z44" s="4"/>
       <c r="AA44" s="43"/>
       <c r="AB44" s="45">
         <v>3</v>
       </c>
-      <c r="AC44" s="161">
+      <c r="AC44" s="109">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="AD44" s="44"/>
       <c r="AE44" s="2"/>
@@ -7483,10 +7480,10 @@
       <c r="BE44" s="2"/>
       <c r="BF44" s="2"/>
       <c r="BG44" s="9"/>
-      <c r="BI44" s="164">
+      <c r="BI44" s="112">
         <v>0.37</v>
       </c>
-      <c r="BJ44" s="164">
+      <c r="BJ44" s="112">
         <v>0.37</v>
       </c>
     </row>
@@ -7525,17 +7522,17 @@
       </c>
       <c r="W45" s="21"/>
       <c r="X45" s="21"/>
-      <c r="Y45" s="55" t="s">
-        <v>118</v>
+      <c r="Y45" s="40" t="s">
+        <v>76</v>
       </c>
       <c r="Z45" s="4"/>
       <c r="AA45" s="43"/>
       <c r="AB45" s="45">
         <v>3</v>
       </c>
-      <c r="AC45" s="161">
+      <c r="AC45" s="109">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD45" s="44"/>
       <c r="AE45" s="2"/>
@@ -7567,10 +7564,10 @@
       <c r="BE45" s="2"/>
       <c r="BF45" s="2"/>
       <c r="BG45" s="9"/>
-      <c r="BI45" s="164">
+      <c r="BI45" s="112">
         <v>0.38</v>
       </c>
-      <c r="BJ45" s="164">
+      <c r="BJ45" s="112">
         <v>0.38</v>
       </c>
     </row>
@@ -7611,17 +7608,17 @@
       </c>
       <c r="W46" s="21"/>
       <c r="X46" s="21"/>
-      <c r="Y46" s="25" t="s">
-        <v>76</v>
+      <c r="Y46" s="25">
+        <v>0.8</v>
       </c>
       <c r="Z46" s="4"/>
       <c r="AA46" s="43"/>
       <c r="AB46" s="45">
         <v>6</v>
       </c>
-      <c r="AC46" s="161">
+      <c r="AC46" s="109">
         <f t="shared" si="4"/>
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AD46" s="44"/>
       <c r="AE46" s="2"/>
@@ -7653,10 +7650,10 @@
       <c r="BE46" s="2"/>
       <c r="BF46" s="2"/>
       <c r="BG46" s="9"/>
-      <c r="BI46" s="164">
+      <c r="BI46" s="112">
         <v>0.39</v>
       </c>
-      <c r="BJ46" s="164">
+      <c r="BJ46" s="112">
         <v>0.39</v>
       </c>
     </row>
@@ -7697,17 +7694,17 @@
       </c>
       <c r="W47" s="21"/>
       <c r="X47" s="21"/>
-      <c r="Y47" s="25" t="s">
-        <v>76</v>
+      <c r="Y47" s="25">
+        <v>0.8</v>
       </c>
       <c r="Z47" s="4"/>
       <c r="AA47" s="43"/>
       <c r="AB47" s="45">
         <v>6</v>
       </c>
-      <c r="AC47" s="161">
+      <c r="AC47" s="109">
         <f t="shared" si="4"/>
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AD47" s="44"/>
       <c r="AE47" s="2"/>
@@ -7739,10 +7736,10 @@
       <c r="BE47" s="2"/>
       <c r="BF47" s="2"/>
       <c r="BG47" s="9"/>
-      <c r="BI47" s="164">
+      <c r="BI47" s="112">
         <v>0.4</v>
       </c>
-      <c r="BJ47" s="164">
+      <c r="BJ47" s="112">
         <v>0.4</v>
       </c>
     </row>
@@ -7789,7 +7786,7 @@
       <c r="AB48" s="45">
         <v>4</v>
       </c>
-      <c r="AC48" s="161">
+      <c r="AC48" s="109">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
@@ -7823,10 +7820,10 @@
       <c r="BE48" s="2"/>
       <c r="BF48" s="2"/>
       <c r="BG48" s="9"/>
-      <c r="BI48" s="164">
+      <c r="BI48" s="112">
         <v>0.41</v>
       </c>
-      <c r="BJ48" s="164">
+      <c r="BJ48" s="112">
         <v>0.41</v>
       </c>
     </row>
@@ -7873,7 +7870,7 @@
       <c r="AB49" s="45">
         <v>7</v>
       </c>
-      <c r="AC49" s="161">
+      <c r="AC49" s="109">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
@@ -7907,10 +7904,10 @@
       <c r="BE49" s="2"/>
       <c r="BF49" s="2"/>
       <c r="BG49" s="9"/>
-      <c r="BI49" s="164">
+      <c r="BI49" s="112">
         <v>0.42</v>
       </c>
-      <c r="BJ49" s="164">
+      <c r="BJ49" s="112">
         <v>0.42</v>
       </c>
     </row>
@@ -7949,17 +7946,17 @@
       </c>
       <c r="W50" s="21"/>
       <c r="X50" s="21"/>
-      <c r="Y50" s="40">
-        <v>0.8</v>
+      <c r="Y50" s="40" t="s">
+        <v>76</v>
       </c>
       <c r="Z50" s="4"/>
       <c r="AA50" s="43"/>
       <c r="AB50" s="45">
         <v>7</v>
       </c>
-      <c r="AC50" s="161">
+      <c r="AC50" s="109">
         <f t="shared" si="4"/>
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="AD50" s="44"/>
       <c r="AE50" s="2"/>
@@ -7991,10 +7988,10 @@
       <c r="BE50" s="2"/>
       <c r="BF50" s="2"/>
       <c r="BG50" s="9"/>
-      <c r="BI50" s="164">
+      <c r="BI50" s="112">
         <v>0.43</v>
       </c>
-      <c r="BJ50" s="164">
+      <c r="BJ50" s="112">
         <v>0.43</v>
       </c>
     </row>
@@ -8033,17 +8030,17 @@
       </c>
       <c r="W51" s="21"/>
       <c r="X51" s="21"/>
-      <c r="Y51" s="25">
-        <v>0.8</v>
+      <c r="Y51" s="25" t="s">
+        <v>76</v>
       </c>
       <c r="Z51" s="4"/>
       <c r="AA51" s="43"/>
       <c r="AB51" s="45">
         <v>7</v>
       </c>
-      <c r="AC51" s="161">
+      <c r="AC51" s="109">
         <f t="shared" si="4"/>
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="AD51" s="44"/>
       <c r="AE51" s="2"/>
@@ -8075,10 +8072,10 @@
       <c r="BE51" s="2"/>
       <c r="BF51" s="2"/>
       <c r="BG51" s="9"/>
-      <c r="BI51" s="164">
+      <c r="BI51" s="112">
         <v>0.44</v>
       </c>
-      <c r="BJ51" s="164">
+      <c r="BJ51" s="112">
         <v>0.44</v>
       </c>
     </row>
@@ -8125,7 +8122,7 @@
       <c r="AB52" s="45">
         <v>10</v>
       </c>
-      <c r="AC52" s="161">
+      <c r="AC52" s="109">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
@@ -8159,10 +8156,10 @@
       <c r="BE52" s="2"/>
       <c r="BF52" s="2"/>
       <c r="BG52" s="9"/>
-      <c r="BI52" s="164">
+      <c r="BI52" s="112">
         <v>0.45</v>
       </c>
-      <c r="BJ52" s="164">
+      <c r="BJ52" s="112">
         <v>0.45</v>
       </c>
     </row>
@@ -8209,7 +8206,7 @@
       <c r="AB53" s="45">
         <v>7</v>
       </c>
-      <c r="AC53" s="161">
+      <c r="AC53" s="109">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
@@ -8243,10 +8240,10 @@
       <c r="BE53" s="2"/>
       <c r="BF53" s="2"/>
       <c r="BG53" s="9"/>
-      <c r="BI53" s="164">
+      <c r="BI53" s="112">
         <v>0.46</v>
       </c>
-      <c r="BJ53" s="164">
+      <c r="BJ53" s="112">
         <v>0.46</v>
       </c>
     </row>
@@ -8293,7 +8290,7 @@
       <c r="AB54" s="45">
         <v>10</v>
       </c>
-      <c r="AC54" s="161">
+      <c r="AC54" s="109">
         <f t="shared" si="4"/>
         <v>0.8</v>
       </c>
@@ -8327,10 +8324,10 @@
       <c r="BE54" s="2"/>
       <c r="BF54" s="2"/>
       <c r="BG54" s="9"/>
-      <c r="BI54" s="164">
+      <c r="BI54" s="112">
         <v>0.47</v>
       </c>
-      <c r="BJ54" s="164">
+      <c r="BJ54" s="112">
         <v>0.47</v>
       </c>
     </row>
@@ -8377,7 +8374,7 @@
       <c r="AB55" s="45">
         <v>10</v>
       </c>
-      <c r="AC55" s="161">
+      <c r="AC55" s="109">
         <f t="shared" si="4"/>
         <v>0.7</v>
       </c>
@@ -8411,10 +8408,10 @@
       <c r="BE55" s="2"/>
       <c r="BF55" s="2"/>
       <c r="BG55" s="9"/>
-      <c r="BI55" s="164">
+      <c r="BI55" s="112">
         <v>0.48</v>
       </c>
-      <c r="BJ55" s="164">
+      <c r="BJ55" s="112">
         <v>0.48</v>
       </c>
     </row>
@@ -8461,7 +8458,7 @@
       <c r="AB56" s="45">
         <v>7</v>
       </c>
-      <c r="AC56" s="161">
+      <c r="AC56" s="109">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
@@ -8495,10 +8492,10 @@
       <c r="BE56" s="2"/>
       <c r="BF56" s="2"/>
       <c r="BG56" s="9"/>
-      <c r="BI56" s="164">
+      <c r="BI56" s="112">
         <v>0.49</v>
       </c>
-      <c r="BJ56" s="164">
+      <c r="BJ56" s="112">
         <v>0.49</v>
       </c>
     </row>
@@ -8545,7 +8542,7 @@
       <c r="AB57" s="45">
         <v>7</v>
       </c>
-      <c r="AC57" s="161">
+      <c r="AC57" s="109">
         <f t="shared" si="4"/>
         <v>0.9</v>
       </c>
@@ -8579,10 +8576,10 @@
       <c r="BE57" s="2"/>
       <c r="BF57" s="2"/>
       <c r="BG57" s="9"/>
-      <c r="BI57" s="164">
+      <c r="BI57" s="112">
         <v>0.5</v>
       </c>
-      <c r="BJ57" s="164">
+      <c r="BJ57" s="112">
         <v>0.5</v>
       </c>
     </row>
@@ -8631,7 +8628,7 @@
       <c r="AB58" s="45">
         <v>7</v>
       </c>
-      <c r="AC58" s="161">
+      <c r="AC58" s="109">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
@@ -8665,10 +8662,10 @@
       <c r="BE58" s="2"/>
       <c r="BF58" s="2"/>
       <c r="BG58" s="9"/>
-      <c r="BI58" s="164">
+      <c r="BI58" s="112">
         <v>0.51</v>
       </c>
-      <c r="BJ58" s="164">
+      <c r="BJ58" s="112">
         <v>0.51</v>
       </c>
     </row>
@@ -8715,7 +8712,7 @@
       <c r="AB59" s="45">
         <v>4</v>
       </c>
-      <c r="AC59" s="161">
+      <c r="AC59" s="109">
         <f t="shared" si="4"/>
         <v>0.9</v>
       </c>
@@ -8749,10 +8746,10 @@
       <c r="BE59" s="2"/>
       <c r="BF59" s="2"/>
       <c r="BG59" s="9"/>
-      <c r="BI59" s="164">
+      <c r="BI59" s="112">
         <v>0.52</v>
       </c>
-      <c r="BJ59" s="164">
+      <c r="BJ59" s="112">
         <v>0.52</v>
       </c>
     </row>
@@ -8799,7 +8796,7 @@
       <c r="AB60" s="45">
         <v>8</v>
       </c>
-      <c r="AC60" s="161">
+      <c r="AC60" s="109">
         <f t="shared" si="4"/>
         <v>0.7</v>
       </c>
@@ -8833,10 +8830,10 @@
       <c r="BE60" s="2"/>
       <c r="BF60" s="2"/>
       <c r="BG60" s="9"/>
-      <c r="BI60" s="164">
+      <c r="BI60" s="112">
         <v>0.53</v>
       </c>
-      <c r="BJ60" s="164">
+      <c r="BJ60" s="112">
         <v>0.53</v>
       </c>
     </row>
@@ -8876,16 +8873,16 @@
       <c r="W61" s="21"/>
       <c r="X61" s="21"/>
       <c r="Y61" s="55" t="s">
-        <v>118</v>
+        <v>76</v>
       </c>
       <c r="Z61" s="4"/>
       <c r="AA61" s="43"/>
       <c r="AB61" s="45">
         <v>6</v>
       </c>
-      <c r="AC61" s="161">
+      <c r="AC61" s="109">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD61" s="44"/>
       <c r="AE61" s="2"/>
@@ -8917,10 +8914,10 @@
       <c r="BE61" s="2"/>
       <c r="BF61" s="2"/>
       <c r="BG61" s="9"/>
-      <c r="BI61" s="164">
+      <c r="BI61" s="112">
         <v>0.54</v>
       </c>
-      <c r="BJ61" s="164">
+      <c r="BJ61" s="112">
         <v>0.54</v>
       </c>
     </row>
@@ -8960,16 +8957,16 @@
       <c r="W62" s="21"/>
       <c r="X62" s="21"/>
       <c r="Y62" s="55" t="s">
-        <v>118</v>
+        <v>76</v>
       </c>
       <c r="Z62" s="4"/>
       <c r="AA62" s="43"/>
       <c r="AB62" s="45">
         <v>6</v>
       </c>
-      <c r="AC62" s="161">
+      <c r="AC62" s="109">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD62" s="44"/>
       <c r="AE62" s="2"/>
@@ -9001,10 +8998,10 @@
       <c r="BE62" s="2"/>
       <c r="BF62" s="2"/>
       <c r="BG62" s="9"/>
-      <c r="BI62" s="164">
+      <c r="BI62" s="112">
         <v>0.55000000000000004</v>
       </c>
-      <c r="BJ62" s="164">
+      <c r="BJ62" s="112">
         <v>0.55000000000000004</v>
       </c>
     </row>
@@ -9051,7 +9048,7 @@
       <c r="AB63" s="45">
         <v>8</v>
       </c>
-      <c r="AC63" s="161">
+      <c r="AC63" s="109">
         <f t="shared" si="4"/>
         <v>0.8</v>
       </c>
@@ -9085,10 +9082,10 @@
       <c r="BE63" s="2"/>
       <c r="BF63" s="2"/>
       <c r="BG63" s="9"/>
-      <c r="BI63" s="164">
+      <c r="BI63" s="112">
         <v>0.56000000000000005</v>
       </c>
-      <c r="BJ63" s="164">
+      <c r="BJ63" s="112">
         <v>0.56000000000000005</v>
       </c>
     </row>
@@ -9135,7 +9132,7 @@
       <c r="AB64" s="45">
         <v>7</v>
       </c>
-      <c r="AC64" s="161">
+      <c r="AC64" s="109">
         <f t="shared" si="4"/>
         <v>0.7</v>
       </c>
@@ -9169,21 +9166,21 @@
       <c r="BE64" s="2"/>
       <c r="BF64" s="2"/>
       <c r="BG64" s="9"/>
-      <c r="BI64" s="164">
+      <c r="BI64" s="112">
         <v>0.56999999999999995</v>
       </c>
-      <c r="BJ64" s="164">
+      <c r="BJ64" s="112">
         <v>0.56999999999999995</v>
       </c>
     </row>
     <row r="65" spans="1:62" ht="16" x14ac:dyDescent="0.3">
-      <c r="A65" s="112"/>
-      <c r="B65" s="110"/>
-      <c r="C65" s="113"/>
-      <c r="D65" s="113"/>
-      <c r="E65" s="113"/>
-      <c r="F65" s="113"/>
-      <c r="G65" s="114"/>
+      <c r="A65" s="137"/>
+      <c r="B65" s="135"/>
+      <c r="C65" s="159"/>
+      <c r="D65" s="159"/>
+      <c r="E65" s="159"/>
+      <c r="F65" s="159"/>
+      <c r="G65" s="160"/>
       <c r="H65" s="69" t="s">
         <v>130</v>
       </c>
@@ -9196,30 +9193,30 @@
       <c r="M65" s="2"/>
       <c r="N65" s="2"/>
       <c r="O65" s="2"/>
-      <c r="P65" s="115" t="s">
+      <c r="P65" s="162" t="s">
         <v>11</v>
       </c>
-      <c r="Q65" s="115"/>
-      <c r="R65" s="115"/>
-      <c r="S65" s="116">
+      <c r="Q65" s="162"/>
+      <c r="R65" s="162"/>
+      <c r="S65" s="141">
         <v>45092</v>
       </c>
-      <c r="T65" s="116"/>
-      <c r="U65" s="116"/>
-      <c r="V65" s="116">
+      <c r="T65" s="141"/>
+      <c r="U65" s="141"/>
+      <c r="V65" s="141">
         <v>45100</v>
       </c>
-      <c r="W65" s="116"/>
-      <c r="X65" s="116"/>
-      <c r="Y65" s="110" t="s">
+      <c r="W65" s="141"/>
+      <c r="X65" s="141"/>
+      <c r="Y65" s="135" t="s">
         <v>118</v>
       </c>
-      <c r="Z65" s="110"/>
-      <c r="AA65" s="111"/>
+      <c r="Z65" s="135"/>
+      <c r="AA65" s="136"/>
       <c r="AB65" s="45">
         <v>7</v>
       </c>
-      <c r="AC65" s="161">
+      <c r="AC65" s="109">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
@@ -9253,21 +9250,21 @@
       <c r="BE65" s="2"/>
       <c r="BF65" s="2"/>
       <c r="BG65" s="9"/>
-      <c r="BI65" s="164">
+      <c r="BI65" s="112">
         <v>0.57999999999999996</v>
       </c>
-      <c r="BJ65" s="164">
+      <c r="BJ65" s="112">
         <v>0.57999999999999996</v>
       </c>
     </row>
     <row r="66" spans="1:62" ht="16" x14ac:dyDescent="0.3">
-      <c r="A66" s="112"/>
-      <c r="B66" s="110"/>
-      <c r="C66" s="113"/>
-      <c r="D66" s="113"/>
-      <c r="E66" s="113"/>
-      <c r="F66" s="113"/>
-      <c r="G66" s="114"/>
+      <c r="A66" s="137"/>
+      <c r="B66" s="135"/>
+      <c r="C66" s="159"/>
+      <c r="D66" s="159"/>
+      <c r="E66" s="159"/>
+      <c r="F66" s="159"/>
+      <c r="G66" s="160"/>
       <c r="H66" s="69" t="s">
         <v>129</v>
       </c>
@@ -9280,21 +9277,21 @@
       <c r="M66" s="2"/>
       <c r="N66" s="2"/>
       <c r="O66" s="2"/>
-      <c r="P66" s="115" t="s">
+      <c r="P66" s="162" t="s">
         <v>11</v>
       </c>
-      <c r="Q66" s="115"/>
-      <c r="R66" s="115"/>
-      <c r="S66" s="116">
+      <c r="Q66" s="162"/>
+      <c r="R66" s="162"/>
+      <c r="S66" s="141">
         <v>45092</v>
       </c>
-      <c r="T66" s="116"/>
-      <c r="U66" s="116"/>
-      <c r="V66" s="116">
+      <c r="T66" s="141"/>
+      <c r="U66" s="141"/>
+      <c r="V66" s="141">
         <v>45100</v>
       </c>
-      <c r="W66" s="116"/>
-      <c r="X66" s="116"/>
+      <c r="W66" s="141"/>
+      <c r="X66" s="141"/>
       <c r="Y66" s="55" t="s">
         <v>118</v>
       </c>
@@ -9307,7 +9304,7 @@
       <c r="AB66" s="45">
         <v>7</v>
       </c>
-      <c r="AC66" s="161">
+      <c r="AC66" s="109">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
@@ -9341,21 +9338,21 @@
       <c r="BE66" s="2"/>
       <c r="BF66" s="2"/>
       <c r="BG66" s="9"/>
-      <c r="BI66" s="164">
+      <c r="BI66" s="112">
         <v>0.59</v>
       </c>
-      <c r="BJ66" s="164">
+      <c r="BJ66" s="112">
         <v>0.59</v>
       </c>
     </row>
     <row r="67" spans="1:62" ht="16" x14ac:dyDescent="0.3">
-      <c r="A67" s="112"/>
-      <c r="B67" s="110"/>
-      <c r="C67" s="113"/>
-      <c r="D67" s="113"/>
-      <c r="E67" s="113"/>
-      <c r="F67" s="113"/>
-      <c r="G67" s="114"/>
+      <c r="A67" s="137"/>
+      <c r="B67" s="135"/>
+      <c r="C67" s="159"/>
+      <c r="D67" s="159"/>
+      <c r="E67" s="159"/>
+      <c r="F67" s="159"/>
+      <c r="G67" s="160"/>
       <c r="H67" s="69" t="s">
         <v>126</v>
       </c>
@@ -9368,21 +9365,21 @@
       <c r="M67" s="2"/>
       <c r="N67" s="2"/>
       <c r="O67" s="2"/>
-      <c r="P67" s="118" t="s">
+      <c r="P67" s="161" t="s">
         <v>19</v>
       </c>
-      <c r="Q67" s="118"/>
-      <c r="R67" s="118"/>
-      <c r="S67" s="116">
+      <c r="Q67" s="161"/>
+      <c r="R67" s="161"/>
+      <c r="S67" s="141">
         <v>45096</v>
       </c>
-      <c r="T67" s="116"/>
-      <c r="U67" s="116"/>
-      <c r="V67" s="116">
+      <c r="T67" s="141"/>
+      <c r="U67" s="141"/>
+      <c r="V67" s="141">
         <v>45100</v>
       </c>
-      <c r="W67" s="116"/>
-      <c r="X67" s="116"/>
+      <c r="W67" s="141"/>
+      <c r="X67" s="141"/>
       <c r="Y67" s="55" t="s">
         <v>118</v>
       </c>
@@ -9395,7 +9392,7 @@
       <c r="AB67" s="45">
         <v>5</v>
       </c>
-      <c r="AC67" s="161">
+      <c r="AC67" s="109">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
@@ -9429,23 +9426,23 @@
       <c r="BE67" s="2"/>
       <c r="BF67" s="2"/>
       <c r="BG67" s="9"/>
-      <c r="BI67" s="164">
+      <c r="BI67" s="112">
         <v>0.6</v>
       </c>
-      <c r="BJ67" s="164">
+      <c r="BJ67" s="112">
         <v>0.6</v>
       </c>
     </row>
     <row r="68" spans="1:62" ht="16" x14ac:dyDescent="0.3">
-      <c r="A68" s="112"/>
-      <c r="B68" s="110"/>
-      <c r="C68" s="155" t="s">
+      <c r="A68" s="137"/>
+      <c r="B68" s="135"/>
+      <c r="C68" s="138" t="s">
         <v>83</v>
       </c>
-      <c r="D68" s="155"/>
-      <c r="E68" s="155"/>
-      <c r="F68" s="155"/>
-      <c r="G68" s="156"/>
+      <c r="D68" s="138"/>
+      <c r="E68" s="138"/>
+      <c r="F68" s="138"/>
+      <c r="G68" s="139"/>
       <c r="H68" s="69" t="s">
         <v>115</v>
       </c>
@@ -9458,30 +9455,30 @@
       <c r="M68" s="71"/>
       <c r="N68" s="71"/>
       <c r="O68" s="71"/>
-      <c r="P68" s="158" t="s">
+      <c r="P68" s="142" t="s">
         <v>30</v>
       </c>
-      <c r="Q68" s="158"/>
-      <c r="R68" s="158"/>
-      <c r="S68" s="116">
+      <c r="Q68" s="142"/>
+      <c r="R68" s="142"/>
+      <c r="S68" s="141">
         <v>45091</v>
       </c>
-      <c r="T68" s="116"/>
-      <c r="U68" s="116"/>
-      <c r="V68" s="116">
+      <c r="T68" s="141"/>
+      <c r="U68" s="141"/>
+      <c r="V68" s="141">
         <v>45100</v>
       </c>
-      <c r="W68" s="116"/>
-      <c r="X68" s="116"/>
-      <c r="Y68" s="117" t="s">
+      <c r="W68" s="141"/>
+      <c r="X68" s="141"/>
+      <c r="Y68" s="134" t="s">
         <v>118</v>
       </c>
-      <c r="Z68" s="110"/>
-      <c r="AA68" s="111"/>
+      <c r="Z68" s="135"/>
+      <c r="AA68" s="136"/>
       <c r="AB68" s="45">
         <v>8</v>
       </c>
-      <c r="AC68" s="161">
+      <c r="AC68" s="109">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
@@ -9515,23 +9512,23 @@
       <c r="BE68" s="2"/>
       <c r="BF68" s="2"/>
       <c r="BG68" s="9"/>
-      <c r="BI68" s="164">
+      <c r="BI68" s="112">
         <v>0.61</v>
       </c>
-      <c r="BJ68" s="164">
+      <c r="BJ68" s="112">
         <v>0.61</v>
       </c>
     </row>
     <row r="69" spans="1:62" ht="16" x14ac:dyDescent="0.3">
-      <c r="A69" s="112"/>
-      <c r="B69" s="110"/>
-      <c r="C69" s="155" t="s">
+      <c r="A69" s="137"/>
+      <c r="B69" s="135"/>
+      <c r="C69" s="138" t="s">
         <v>83</v>
       </c>
-      <c r="D69" s="155"/>
-      <c r="E69" s="155"/>
-      <c r="F69" s="155"/>
-      <c r="G69" s="156"/>
+      <c r="D69" s="138"/>
+      <c r="E69" s="138"/>
+      <c r="F69" s="138"/>
+      <c r="G69" s="139"/>
       <c r="H69" s="77" t="s">
         <v>131</v>
       </c>
@@ -9544,35 +9541,35 @@
       <c r="M69" s="71"/>
       <c r="N69" s="71"/>
       <c r="O69" s="71"/>
-      <c r="P69" s="157" t="s">
+      <c r="P69" s="140" t="s">
         <v>29</v>
       </c>
-      <c r="Q69" s="157"/>
-      <c r="R69" s="157"/>
-      <c r="S69" s="116">
+      <c r="Q69" s="140"/>
+      <c r="R69" s="140"/>
+      <c r="S69" s="141">
         <v>45091</v>
       </c>
-      <c r="T69" s="116"/>
-      <c r="U69" s="116"/>
-      <c r="V69" s="116">
+      <c r="T69" s="141"/>
+      <c r="U69" s="141"/>
+      <c r="V69" s="141">
         <v>45100</v>
       </c>
-      <c r="W69" s="116"/>
-      <c r="X69" s="116"/>
-      <c r="Y69" s="117">
+      <c r="W69" s="141"/>
+      <c r="X69" s="141"/>
+      <c r="Y69" s="134">
         <v>0.6</v>
       </c>
-      <c r="Z69" s="110"/>
-      <c r="AA69" s="111"/>
+      <c r="Z69" s="135"/>
+      <c r="AA69" s="136"/>
       <c r="AB69" s="45">
         <v>8</v>
       </c>
-      <c r="AC69" s="161">
+      <c r="AC69" s="109">
         <f t="shared" si="4"/>
         <v>0.6</v>
       </c>
       <c r="AD69" s="2"/>
-      <c r="AE69" s="108"/>
+      <c r="AE69" s="107"/>
       <c r="AF69" s="2"/>
       <c r="AG69" s="2"/>
       <c r="AH69" s="2"/>
@@ -9601,23 +9598,23 @@
       <c r="BE69" s="2"/>
       <c r="BF69" s="2"/>
       <c r="BG69" s="9"/>
-      <c r="BI69" s="164">
+      <c r="BI69" s="112">
         <v>0.62</v>
       </c>
-      <c r="BJ69" s="164">
+      <c r="BJ69" s="112">
         <v>0.62</v>
       </c>
     </row>
     <row r="70" spans="1:62" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A70" s="18"/>
       <c r="B70" s="4"/>
-      <c r="C70" s="135" t="s">
+      <c r="C70" s="114" t="s">
         <v>15</v>
       </c>
-      <c r="D70" s="135"/>
-      <c r="E70" s="135"/>
-      <c r="F70" s="135"/>
-      <c r="G70" s="136"/>
+      <c r="D70" s="114"/>
+      <c r="E70" s="114"/>
+      <c r="F70" s="114"/>
+      <c r="G70" s="115"/>
       <c r="H70" s="76" t="s">
         <v>20</v>
       </c>
@@ -9663,7 +9660,7 @@
       <c r="AB70" s="45">
         <v>1</v>
       </c>
-      <c r="AC70" s="107"/>
+      <c r="AC70" s="106"/>
       <c r="AD70" s="44"/>
       <c r="AE70" s="2"/>
       <c r="AF70" s="2"/>
@@ -9689,26 +9686,26 @@
       <c r="AZ70" s="2"/>
       <c r="BA70" s="2"/>
       <c r="BB70" s="2"/>
-      <c r="BC70" s="97"/>
+      <c r="BC70" s="96"/>
       <c r="BD70" s="2"/>
       <c r="BE70" s="2"/>
       <c r="BF70" s="2"/>
       <c r="BG70" s="9"/>
-      <c r="BI70" s="164">
+      <c r="BI70" s="112">
         <v>0.63</v>
       </c>
-      <c r="BJ70" s="164">
+      <c r="BJ70" s="112">
         <v>0.63</v>
       </c>
     </row>
     <row r="71" spans="1:62" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A71" s="18"/>
       <c r="B71" s="43"/>
-      <c r="C71" s="137"/>
-      <c r="D71" s="137"/>
-      <c r="E71" s="137"/>
-      <c r="F71" s="137"/>
-      <c r="G71" s="138"/>
+      <c r="C71" s="116"/>
+      <c r="D71" s="116"/>
+      <c r="E71" s="116"/>
+      <c r="F71" s="116"/>
+      <c r="G71" s="117"/>
       <c r="H71" s="76" t="s">
         <v>21</v>
       </c>
@@ -9780,26 +9777,26 @@
       <c r="AZ71" s="2"/>
       <c r="BA71" s="2"/>
       <c r="BB71" s="2"/>
-      <c r="BC71" s="97"/>
+      <c r="BC71" s="96"/>
       <c r="BD71" s="2"/>
       <c r="BE71" s="2"/>
       <c r="BF71" s="2"/>
       <c r="BG71" s="9"/>
-      <c r="BI71" s="164">
+      <c r="BI71" s="112">
         <v>0.64</v>
       </c>
-      <c r="BJ71" s="164">
+      <c r="BJ71" s="112">
         <v>0.64</v>
       </c>
     </row>
     <row r="72" spans="1:62" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A72" s="18"/>
       <c r="B72" s="43"/>
-      <c r="C72" s="137"/>
-      <c r="D72" s="137"/>
-      <c r="E72" s="137"/>
-      <c r="F72" s="137"/>
-      <c r="G72" s="138"/>
+      <c r="C72" s="116"/>
+      <c r="D72" s="116"/>
+      <c r="E72" s="116"/>
+      <c r="F72" s="116"/>
+      <c r="G72" s="117"/>
       <c r="H72" s="76" t="s">
         <v>22</v>
       </c>
@@ -9871,26 +9868,26 @@
       <c r="AZ72" s="2"/>
       <c r="BA72" s="2"/>
       <c r="BB72" s="2"/>
-      <c r="BC72" s="97"/>
+      <c r="BC72" s="96"/>
       <c r="BD72" s="2"/>
       <c r="BE72" s="2"/>
       <c r="BF72" s="2"/>
       <c r="BG72" s="9"/>
-      <c r="BI72" s="164">
+      <c r="BI72" s="112">
         <v>0.65</v>
       </c>
-      <c r="BJ72" s="164">
+      <c r="BJ72" s="112">
         <v>0.65</v>
       </c>
     </row>
     <row r="73" spans="1:62" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A73" s="18"/>
       <c r="B73" s="43"/>
-      <c r="C73" s="137"/>
-      <c r="D73" s="137"/>
-      <c r="E73" s="137"/>
-      <c r="F73" s="137"/>
-      <c r="G73" s="138"/>
+      <c r="C73" s="116"/>
+      <c r="D73" s="116"/>
+      <c r="E73" s="116"/>
+      <c r="F73" s="116"/>
+      <c r="G73" s="117"/>
       <c r="H73" s="76" t="s">
         <v>23</v>
       </c>
@@ -9962,26 +9959,26 @@
       <c r="AZ73" s="2"/>
       <c r="BA73" s="2"/>
       <c r="BB73" s="2"/>
-      <c r="BC73" s="97"/>
+      <c r="BC73" s="96"/>
       <c r="BD73" s="2"/>
       <c r="BE73" s="2"/>
       <c r="BF73" s="2"/>
       <c r="BG73" s="9"/>
-      <c r="BI73" s="164">
+      <c r="BI73" s="112">
         <v>0.66</v>
       </c>
-      <c r="BJ73" s="164">
+      <c r="BJ73" s="112">
         <v>0.66</v>
       </c>
     </row>
     <row r="74" spans="1:62" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A74" s="18"/>
       <c r="B74" s="43"/>
-      <c r="C74" s="137"/>
-      <c r="D74" s="137"/>
-      <c r="E74" s="137"/>
-      <c r="F74" s="137"/>
-      <c r="G74" s="138"/>
+      <c r="C74" s="116"/>
+      <c r="D74" s="116"/>
+      <c r="E74" s="116"/>
+      <c r="F74" s="116"/>
+      <c r="G74" s="117"/>
       <c r="H74" s="76" t="s">
         <v>24</v>
       </c>
@@ -10053,26 +10050,26 @@
       <c r="AZ74" s="2"/>
       <c r="BA74" s="2"/>
       <c r="BB74" s="2"/>
-      <c r="BC74" s="97"/>
+      <c r="BC74" s="96"/>
       <c r="BD74" s="2"/>
       <c r="BE74" s="2"/>
       <c r="BF74" s="2"/>
       <c r="BG74" s="9"/>
-      <c r="BI74" s="164">
+      <c r="BI74" s="112">
         <v>0.67</v>
       </c>
-      <c r="BJ74" s="164">
+      <c r="BJ74" s="112">
         <v>0.67</v>
       </c>
     </row>
     <row r="75" spans="1:62" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A75" s="18"/>
       <c r="B75" s="43"/>
-      <c r="C75" s="137"/>
-      <c r="D75" s="137"/>
-      <c r="E75" s="137"/>
-      <c r="F75" s="137"/>
-      <c r="G75" s="138"/>
+      <c r="C75" s="116"/>
+      <c r="D75" s="116"/>
+      <c r="E75" s="116"/>
+      <c r="F75" s="116"/>
+      <c r="G75" s="117"/>
       <c r="H75" s="76" t="s">
         <v>25</v>
       </c>
@@ -10144,26 +10141,26 @@
       <c r="AZ75" s="2"/>
       <c r="BA75" s="2"/>
       <c r="BB75" s="2"/>
-      <c r="BC75" s="97"/>
+      <c r="BC75" s="96"/>
       <c r="BD75" s="2"/>
       <c r="BE75" s="2"/>
       <c r="BF75" s="2"/>
       <c r="BG75" s="9"/>
-      <c r="BI75" s="164">
+      <c r="BI75" s="112">
         <v>0.68</v>
       </c>
-      <c r="BJ75" s="164">
+      <c r="BJ75" s="112">
         <v>0.68</v>
       </c>
     </row>
     <row r="76" spans="1:62" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A76" s="18"/>
       <c r="B76" s="43"/>
-      <c r="C76" s="137"/>
-      <c r="D76" s="137"/>
-      <c r="E76" s="137"/>
-      <c r="F76" s="137"/>
-      <c r="G76" s="138"/>
+      <c r="C76" s="116"/>
+      <c r="D76" s="116"/>
+      <c r="E76" s="116"/>
+      <c r="F76" s="116"/>
+      <c r="G76" s="117"/>
       <c r="H76" s="76" t="s">
         <v>26</v>
       </c>
@@ -10235,26 +10232,26 @@
       <c r="AZ76" s="2"/>
       <c r="BA76" s="2"/>
       <c r="BB76" s="2"/>
-      <c r="BC76" s="97"/>
+      <c r="BC76" s="96"/>
       <c r="BD76" s="2"/>
       <c r="BE76" s="2"/>
       <c r="BF76" s="2"/>
       <c r="BG76" s="9"/>
-      <c r="BI76" s="164">
+      <c r="BI76" s="112">
         <v>0.69</v>
       </c>
-      <c r="BJ76" s="164">
+      <c r="BJ76" s="112">
         <v>0.69</v>
       </c>
     </row>
     <row r="77" spans="1:62" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A77" s="18"/>
       <c r="B77" s="43"/>
-      <c r="C77" s="137"/>
-      <c r="D77" s="137"/>
-      <c r="E77" s="137"/>
-      <c r="F77" s="137"/>
-      <c r="G77" s="138"/>
+      <c r="C77" s="116"/>
+      <c r="D77" s="116"/>
+      <c r="E77" s="116"/>
+      <c r="F77" s="116"/>
+      <c r="G77" s="117"/>
       <c r="H77" s="76" t="s">
         <v>27</v>
       </c>
@@ -10284,16 +10281,16 @@
       <c r="R77" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="S77" s="99">
+      <c r="S77" s="98">
         <v>45103</v>
       </c>
-      <c r="T77" s="100"/>
-      <c r="U77" s="101"/>
-      <c r="V77" s="99">
+      <c r="T77" s="99"/>
+      <c r="U77" s="100"/>
+      <c r="V77" s="98">
         <v>45103</v>
       </c>
-      <c r="W77" s="100"/>
-      <c r="X77" s="101"/>
+      <c r="W77" s="99"/>
+      <c r="X77" s="100"/>
       <c r="Y77" s="4"/>
       <c r="Z77" s="4"/>
       <c r="AA77" s="43"/>
@@ -10326,26 +10323,26 @@
       <c r="AZ77" s="2"/>
       <c r="BA77" s="2"/>
       <c r="BB77" s="2"/>
-      <c r="BC77" s="97"/>
+      <c r="BC77" s="96"/>
       <c r="BD77" s="2"/>
       <c r="BE77" s="2"/>
       <c r="BF77" s="2"/>
       <c r="BG77" s="9"/>
-      <c r="BI77" s="164">
+      <c r="BI77" s="112">
         <v>0.7</v>
       </c>
-      <c r="BJ77" s="164">
+      <c r="BJ77" s="112">
         <v>0.7</v>
       </c>
     </row>
     <row r="78" spans="1:62" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A78" s="38"/>
       <c r="B78" s="52"/>
-      <c r="C78" s="137"/>
-      <c r="D78" s="137"/>
-      <c r="E78" s="137"/>
-      <c r="F78" s="137"/>
-      <c r="G78" s="138"/>
+      <c r="C78" s="116"/>
+      <c r="D78" s="116"/>
+      <c r="E78" s="116"/>
+      <c r="F78" s="116"/>
+      <c r="G78" s="117"/>
       <c r="H78" s="76" t="s">
         <v>28</v>
       </c>
@@ -10385,7 +10382,7 @@
       </c>
       <c r="W78" s="65"/>
       <c r="X78" s="65"/>
-      <c r="Y78" s="102"/>
+      <c r="Y78" s="101"/>
       <c r="Z78" s="39"/>
       <c r="AA78" s="52"/>
       <c r="AB78" s="48">
@@ -10417,24 +10414,24 @@
       <c r="AZ78" s="81"/>
       <c r="BA78" s="81"/>
       <c r="BB78" s="81"/>
-      <c r="BC78" s="98"/>
+      <c r="BC78" s="97"/>
       <c r="BD78" s="81"/>
       <c r="BE78" s="81"/>
       <c r="BF78" s="81"/>
       <c r="BG78" s="83"/>
-      <c r="BI78" s="164">
+      <c r="BI78" s="112">
         <v>0.71</v>
       </c>
-      <c r="BJ78" s="164">
+      <c r="BJ78" s="112">
         <v>0.71</v>
       </c>
     </row>
     <row r="79" spans="1:62" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C79" s="137"/>
-      <c r="D79" s="137"/>
-      <c r="E79" s="137"/>
-      <c r="F79" s="137"/>
-      <c r="G79" s="138"/>
+      <c r="C79" s="116"/>
+      <c r="D79" s="116"/>
+      <c r="E79" s="116"/>
+      <c r="F79" s="116"/>
+      <c r="G79" s="117"/>
       <c r="H79" s="76" t="s">
         <v>79</v>
       </c>
@@ -10508,19 +10505,19 @@
       <c r="BE79" s="57"/>
       <c r="BF79" s="57"/>
       <c r="BG79" s="57"/>
-      <c r="BI79" s="164">
+      <c r="BI79" s="112">
         <v>0.72</v>
       </c>
-      <c r="BJ79" s="164">
+      <c r="BJ79" s="112">
         <v>0.72</v>
       </c>
     </row>
     <row r="80" spans="1:62" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C80" s="137"/>
-      <c r="D80" s="137"/>
-      <c r="E80" s="137"/>
-      <c r="F80" s="137"/>
-      <c r="G80" s="138"/>
+      <c r="C80" s="116"/>
+      <c r="D80" s="116"/>
+      <c r="E80" s="116"/>
+      <c r="F80" s="116"/>
+      <c r="G80" s="117"/>
       <c r="H80" s="76" t="s">
         <v>80</v>
       </c>
@@ -10593,19 +10590,19 @@
       <c r="BE80" s="57"/>
       <c r="BF80" s="57"/>
       <c r="BG80" s="57"/>
-      <c r="BI80" s="164">
+      <c r="BI80" s="112">
         <v>0.73</v>
       </c>
-      <c r="BJ80" s="164">
+      <c r="BJ80" s="112">
         <v>0.73</v>
       </c>
     </row>
     <row r="81" spans="3:62" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C81" s="137"/>
-      <c r="D81" s="137"/>
-      <c r="E81" s="137"/>
-      <c r="F81" s="137"/>
-      <c r="G81" s="138"/>
+      <c r="C81" s="116"/>
+      <c r="D81" s="116"/>
+      <c r="E81" s="116"/>
+      <c r="F81" s="116"/>
+      <c r="G81" s="117"/>
       <c r="H81" s="76" t="s">
         <v>31</v>
       </c>
@@ -10657,19 +10654,19 @@
       <c r="BE81" s="57"/>
       <c r="BF81" s="57"/>
       <c r="BG81" s="57"/>
-      <c r="BI81" s="164">
+      <c r="BI81" s="112">
         <v>0.74</v>
       </c>
-      <c r="BJ81" s="164">
+      <c r="BJ81" s="112">
         <v>0.74</v>
       </c>
     </row>
     <row r="82" spans="3:62" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C82" s="137"/>
-      <c r="D82" s="137"/>
-      <c r="E82" s="137"/>
-      <c r="F82" s="137"/>
-      <c r="G82" s="138"/>
+      <c r="C82" s="116"/>
+      <c r="D82" s="116"/>
+      <c r="E82" s="116"/>
+      <c r="F82" s="116"/>
+      <c r="G82" s="117"/>
       <c r="H82" s="76" t="s">
         <v>32</v>
       </c>
@@ -10721,19 +10718,19 @@
       <c r="BE82" s="57"/>
       <c r="BF82" s="57"/>
       <c r="BG82" s="57"/>
-      <c r="BI82" s="164">
+      <c r="BI82" s="112">
         <v>0.75</v>
       </c>
-      <c r="BJ82" s="164">
+      <c r="BJ82" s="112">
         <v>0.75</v>
       </c>
     </row>
     <row r="83" spans="3:62" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C83" s="137"/>
-      <c r="D83" s="137"/>
-      <c r="E83" s="137"/>
-      <c r="F83" s="137"/>
-      <c r="G83" s="138"/>
+      <c r="C83" s="116"/>
+      <c r="D83" s="116"/>
+      <c r="E83" s="116"/>
+      <c r="F83" s="116"/>
+      <c r="G83" s="117"/>
       <c r="H83" s="75" t="s">
         <v>33</v>
       </c>
@@ -10785,19 +10782,19 @@
       <c r="BE83" s="57"/>
       <c r="BF83" s="57"/>
       <c r="BG83" s="57"/>
-      <c r="BI83" s="164">
+      <c r="BI83" s="112">
         <v>0.76</v>
       </c>
-      <c r="BJ83" s="164">
+      <c r="BJ83" s="112">
         <v>0.76</v>
       </c>
     </row>
     <row r="84" spans="3:62" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C84" s="137"/>
-      <c r="D84" s="137"/>
-      <c r="E84" s="137"/>
-      <c r="F84" s="137"/>
-      <c r="G84" s="138"/>
+      <c r="C84" s="116"/>
+      <c r="D84" s="116"/>
+      <c r="E84" s="116"/>
+      <c r="F84" s="116"/>
+      <c r="G84" s="117"/>
       <c r="H84" s="76" t="s">
         <v>34</v>
       </c>
@@ -10849,19 +10846,19 @@
       <c r="BE84" s="57"/>
       <c r="BF84" s="57"/>
       <c r="BG84" s="57"/>
-      <c r="BI84" s="164">
+      <c r="BI84" s="112">
         <v>0.77</v>
       </c>
-      <c r="BJ84" s="164">
+      <c r="BJ84" s="112">
         <v>0.77</v>
       </c>
     </row>
     <row r="85" spans="3:62" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C85" s="137"/>
-      <c r="D85" s="137"/>
-      <c r="E85" s="137"/>
-      <c r="F85" s="137"/>
-      <c r="G85" s="138"/>
+      <c r="C85" s="116"/>
+      <c r="D85" s="116"/>
+      <c r="E85" s="116"/>
+      <c r="F85" s="116"/>
+      <c r="G85" s="117"/>
       <c r="H85" s="76" t="s">
         <v>35</v>
       </c>
@@ -10913,19 +10910,19 @@
       <c r="BE85" s="57"/>
       <c r="BF85" s="57"/>
       <c r="BG85" s="57"/>
-      <c r="BI85" s="164">
+      <c r="BI85" s="112">
         <v>0.78</v>
       </c>
-      <c r="BJ85" s="164">
+      <c r="BJ85" s="112">
         <v>0.78</v>
       </c>
     </row>
     <row r="86" spans="3:62" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C86" s="137"/>
-      <c r="D86" s="137"/>
-      <c r="E86" s="137"/>
-      <c r="F86" s="137"/>
-      <c r="G86" s="138"/>
+      <c r="C86" s="116"/>
+      <c r="D86" s="116"/>
+      <c r="E86" s="116"/>
+      <c r="F86" s="116"/>
+      <c r="G86" s="117"/>
       <c r="H86" s="75" t="s">
         <v>36</v>
       </c>
@@ -10977,19 +10974,19 @@
       <c r="BE86" s="57"/>
       <c r="BF86" s="57"/>
       <c r="BG86" s="57"/>
-      <c r="BI86" s="164">
+      <c r="BI86" s="112">
         <v>0.79</v>
       </c>
-      <c r="BJ86" s="164">
+      <c r="BJ86" s="112">
         <v>0.79</v>
       </c>
     </row>
     <row r="87" spans="3:62" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C87" s="137"/>
-      <c r="D87" s="137"/>
-      <c r="E87" s="137"/>
-      <c r="F87" s="137"/>
-      <c r="G87" s="138"/>
+      <c r="C87" s="116"/>
+      <c r="D87" s="116"/>
+      <c r="E87" s="116"/>
+      <c r="F87" s="116"/>
+      <c r="G87" s="117"/>
       <c r="H87" s="76" t="s">
         <v>37</v>
       </c>
@@ -10998,11 +10995,11 @@
       <c r="P87" s="31" t="s">
         <v>14</v>
       </c>
-      <c r="S87" s="103">
+      <c r="S87" s="102">
         <v>45096</v>
       </c>
-      <c r="T87" s="103"/>
-      <c r="U87" s="103"/>
+      <c r="T87" s="102"/>
+      <c r="U87" s="102"/>
       <c r="V87" s="65">
         <v>45098</v>
       </c>
@@ -11041,21 +11038,21 @@
       <c r="BE87" s="57"/>
       <c r="BF87" s="57"/>
       <c r="BG87" s="57"/>
-      <c r="BI87" s="164">
+      <c r="BI87" s="112">
         <v>0.8</v>
       </c>
-      <c r="BJ87" s="164">
+      <c r="BJ87" s="112">
         <v>0.8</v>
       </c>
     </row>
     <row r="88" spans="3:62" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C88" s="139" t="s">
+      <c r="C88" s="118" t="s">
         <v>16</v>
       </c>
-      <c r="D88" s="139"/>
-      <c r="E88" s="139"/>
-      <c r="F88" s="139"/>
-      <c r="G88" s="139"/>
+      <c r="D88" s="118"/>
+      <c r="E88" s="118"/>
+      <c r="F88" s="118"/>
+      <c r="G88" s="118"/>
       <c r="H88" s="61" t="s">
         <v>49</v>
       </c>
@@ -11107,19 +11104,19 @@
       <c r="BE88" s="57"/>
       <c r="BF88" s="57"/>
       <c r="BG88" s="57"/>
-      <c r="BI88" s="164">
+      <c r="BI88" s="112">
         <v>0.81</v>
       </c>
-      <c r="BJ88" s="164">
+      <c r="BJ88" s="112">
         <v>0.81</v>
       </c>
     </row>
     <row r="89" spans="3:62" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C89" s="137"/>
-      <c r="D89" s="137"/>
-      <c r="E89" s="137"/>
-      <c r="F89" s="137"/>
-      <c r="G89" s="137"/>
+      <c r="C89" s="116"/>
+      <c r="D89" s="116"/>
+      <c r="E89" s="116"/>
+      <c r="F89" s="116"/>
+      <c r="G89" s="116"/>
       <c r="H89" s="61" t="s">
         <v>50</v>
       </c>
@@ -11171,19 +11168,19 @@
       <c r="BE89" s="57"/>
       <c r="BF89" s="57"/>
       <c r="BG89" s="57"/>
-      <c r="BI89" s="164">
+      <c r="BI89" s="112">
         <v>0.82</v>
       </c>
-      <c r="BJ89" s="164">
+      <c r="BJ89" s="112">
         <v>0.82</v>
       </c>
     </row>
     <row r="90" spans="3:62" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C90" s="137"/>
-      <c r="D90" s="137"/>
-      <c r="E90" s="137"/>
-      <c r="F90" s="137"/>
-      <c r="G90" s="137"/>
+      <c r="C90" s="116"/>
+      <c r="D90" s="116"/>
+      <c r="E90" s="116"/>
+      <c r="F90" s="116"/>
+      <c r="G90" s="116"/>
       <c r="H90" s="61" t="s">
         <v>51</v>
       </c>
@@ -11235,19 +11232,19 @@
       <c r="BE90" s="57"/>
       <c r="BF90" s="57"/>
       <c r="BG90" s="57"/>
-      <c r="BI90" s="164">
+      <c r="BI90" s="112">
         <v>0.83</v>
       </c>
-      <c r="BJ90" s="164">
+      <c r="BJ90" s="112">
         <v>0.83</v>
       </c>
     </row>
     <row r="91" spans="3:62" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C91" s="137"/>
-      <c r="D91" s="137"/>
-      <c r="E91" s="137"/>
-      <c r="F91" s="137"/>
-      <c r="G91" s="137"/>
+      <c r="C91" s="116"/>
+      <c r="D91" s="116"/>
+      <c r="E91" s="116"/>
+      <c r="F91" s="116"/>
+      <c r="G91" s="116"/>
       <c r="H91" s="61" t="s">
         <v>52</v>
       </c>
@@ -11299,24 +11296,24 @@
       <c r="BE91" s="57"/>
       <c r="BF91" s="57"/>
       <c r="BG91" s="57"/>
-      <c r="BI91" s="164">
+      <c r="BI91" s="112">
         <v>0.84</v>
       </c>
-      <c r="BJ91" s="164">
+      <c r="BJ91" s="112">
         <v>0.84</v>
       </c>
     </row>
     <row r="92" spans="3:62" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C92" s="137"/>
-      <c r="D92" s="137"/>
-      <c r="E92" s="137"/>
-      <c r="F92" s="137"/>
-      <c r="G92" s="137"/>
-      <c r="H92" s="104" t="s">
+      <c r="C92" s="116"/>
+      <c r="D92" s="116"/>
+      <c r="E92" s="116"/>
+      <c r="F92" s="116"/>
+      <c r="G92" s="116"/>
+      <c r="H92" s="103" t="s">
         <v>53</v>
       </c>
-      <c r="I92" s="104"/>
-      <c r="J92" s="105"/>
+      <c r="I92" s="103"/>
+      <c r="J92" s="104"/>
       <c r="P92" s="20" t="s">
         <v>19</v>
       </c>
@@ -11363,19 +11360,19 @@
       <c r="BE92" s="57"/>
       <c r="BF92" s="57"/>
       <c r="BG92" s="57"/>
-      <c r="BI92" s="164">
+      <c r="BI92" s="112">
         <v>0.85</v>
       </c>
-      <c r="BJ92" s="164">
+      <c r="BJ92" s="112">
         <v>0.85</v>
       </c>
     </row>
     <row r="93" spans="3:62" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C93" s="137"/>
-      <c r="D93" s="137"/>
-      <c r="E93" s="137"/>
-      <c r="F93" s="137"/>
-      <c r="G93" s="137"/>
+      <c r="C93" s="116"/>
+      <c r="D93" s="116"/>
+      <c r="E93" s="116"/>
+      <c r="F93" s="116"/>
+      <c r="G93" s="116"/>
       <c r="H93" s="61" t="s">
         <v>54</v>
       </c>
@@ -11427,19 +11424,19 @@
       <c r="BE93" s="57"/>
       <c r="BF93" s="57"/>
       <c r="BG93" s="57"/>
-      <c r="BI93" s="164">
+      <c r="BI93" s="112">
         <v>0.86</v>
       </c>
-      <c r="BJ93" s="164">
+      <c r="BJ93" s="112">
         <v>0.86</v>
       </c>
     </row>
     <row r="94" spans="3:62" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C94" s="137"/>
-      <c r="D94" s="137"/>
-      <c r="E94" s="137"/>
-      <c r="F94" s="137"/>
-      <c r="G94" s="137"/>
+      <c r="C94" s="116"/>
+      <c r="D94" s="116"/>
+      <c r="E94" s="116"/>
+      <c r="F94" s="116"/>
+      <c r="G94" s="116"/>
       <c r="H94" s="61" t="s">
         <v>55</v>
       </c>
@@ -11491,19 +11488,19 @@
       <c r="BE94" s="57"/>
       <c r="BF94" s="57"/>
       <c r="BG94" s="57"/>
-      <c r="BI94" s="164">
+      <c r="BI94" s="112">
         <v>0.87</v>
       </c>
-      <c r="BJ94" s="164">
+      <c r="BJ94" s="112">
         <v>0.87</v>
       </c>
     </row>
     <row r="95" spans="3:62" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C95" s="137"/>
-      <c r="D95" s="137"/>
-      <c r="E95" s="137"/>
-      <c r="F95" s="137"/>
-      <c r="G95" s="137"/>
+      <c r="C95" s="116"/>
+      <c r="D95" s="116"/>
+      <c r="E95" s="116"/>
+      <c r="F95" s="116"/>
+      <c r="G95" s="116"/>
       <c r="H95" s="61" t="s">
         <v>56</v>
       </c>
@@ -11555,19 +11552,19 @@
       <c r="BE95" s="57"/>
       <c r="BF95" s="57"/>
       <c r="BG95" s="57"/>
-      <c r="BI95" s="164">
+      <c r="BI95" s="112">
         <v>0.88</v>
       </c>
-      <c r="BJ95" s="164">
+      <c r="BJ95" s="112">
         <v>0.88</v>
       </c>
     </row>
     <row r="96" spans="3:62" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C96" s="137"/>
-      <c r="D96" s="137"/>
-      <c r="E96" s="137"/>
-      <c r="F96" s="137"/>
-      <c r="G96" s="137"/>
+      <c r="C96" s="116"/>
+      <c r="D96" s="116"/>
+      <c r="E96" s="116"/>
+      <c r="F96" s="116"/>
+      <c r="G96" s="116"/>
       <c r="H96" s="61" t="s">
         <v>57</v>
       </c>
@@ -11619,19 +11616,19 @@
       <c r="BE96" s="57"/>
       <c r="BF96" s="57"/>
       <c r="BG96" s="57"/>
-      <c r="BI96" s="164">
+      <c r="BI96" s="112">
         <v>0.89</v>
       </c>
-      <c r="BJ96" s="164">
+      <c r="BJ96" s="112">
         <v>0.89</v>
       </c>
     </row>
     <row r="97" spans="3:62" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C97" s="137"/>
-      <c r="D97" s="137"/>
-      <c r="E97" s="137"/>
-      <c r="F97" s="137"/>
-      <c r="G97" s="137"/>
+      <c r="C97" s="116"/>
+      <c r="D97" s="116"/>
+      <c r="E97" s="116"/>
+      <c r="F97" s="116"/>
+      <c r="G97" s="116"/>
       <c r="H97" s="61" t="s">
         <v>81</v>
       </c>
@@ -11683,19 +11680,19 @@
       <c r="BE97" s="57"/>
       <c r="BF97" s="57"/>
       <c r="BG97" s="57"/>
-      <c r="BI97" s="164">
+      <c r="BI97" s="112">
         <v>0.9</v>
       </c>
-      <c r="BJ97" s="164">
+      <c r="BJ97" s="112">
         <v>0.9</v>
       </c>
     </row>
     <row r="98" spans="3:62" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C98" s="140"/>
-      <c r="D98" s="140"/>
-      <c r="E98" s="140"/>
-      <c r="F98" s="140"/>
-      <c r="G98" s="140"/>
+      <c r="C98" s="119"/>
+      <c r="D98" s="119"/>
+      <c r="E98" s="119"/>
+      <c r="F98" s="119"/>
+      <c r="G98" s="119"/>
       <c r="H98" s="61" t="s">
         <v>82</v>
       </c>
@@ -11747,10 +11744,10 @@
       <c r="BE98" s="57"/>
       <c r="BF98" s="57"/>
       <c r="BG98" s="57"/>
-      <c r="BI98" s="164">
+      <c r="BI98" s="112">
         <v>0.91</v>
       </c>
-      <c r="BJ98" s="164">
+      <c r="BJ98" s="112">
         <v>0.91</v>
       </c>
     </row>
@@ -11762,7 +11759,7 @@
       <c r="E99" s="59"/>
       <c r="F99" s="59"/>
       <c r="G99" s="59"/>
-      <c r="H99" s="106" t="s">
+      <c r="H99" s="105" t="s">
         <v>119</v>
       </c>
       <c r="I99" s="61"/>
@@ -11810,10 +11807,10 @@
       <c r="BE99" s="80"/>
       <c r="BF99" s="57"/>
       <c r="BG99" s="57"/>
-      <c r="BI99" s="164">
+      <c r="BI99" s="112">
         <v>0.92</v>
       </c>
-      <c r="BJ99" s="164">
+      <c r="BJ99" s="112">
         <v>0.92</v>
       </c>
     </row>
@@ -11865,10 +11862,10 @@
       <c r="BE100" s="57"/>
       <c r="BF100" s="57"/>
       <c r="BG100" s="57"/>
-      <c r="BI100" s="164">
+      <c r="BI100" s="112">
         <v>0.93</v>
       </c>
-      <c r="BJ100" s="164">
+      <c r="BJ100" s="112">
         <v>0.93</v>
       </c>
     </row>
@@ -11918,10 +11915,10 @@
       <c r="BE101" s="57"/>
       <c r="BF101" s="57"/>
       <c r="BG101" s="57"/>
-      <c r="BI101" s="164">
+      <c r="BI101" s="112">
         <v>0.94</v>
       </c>
-      <c r="BJ101" s="164">
+      <c r="BJ101" s="112">
         <v>0.94</v>
       </c>
     </row>
@@ -11934,42 +11931,42 @@
         <f>SUM(AB9:AB100)</f>
         <v>286</v>
       </c>
-      <c r="BI102" s="164">
+      <c r="BI102" s="112">
         <v>0.95</v>
       </c>
-      <c r="BJ102" s="164">
+      <c r="BJ102" s="112">
         <v>0.95</v>
       </c>
     </row>
     <row r="103" spans="3:62" x14ac:dyDescent="0.3">
-      <c r="BI103" s="164">
+      <c r="BI103" s="112">
         <v>0.96</v>
       </c>
-      <c r="BJ103" s="164">
+      <c r="BJ103" s="112">
         <v>0.96</v>
       </c>
     </row>
     <row r="104" spans="3:62" x14ac:dyDescent="0.3">
-      <c r="BI104" s="164">
+      <c r="BI104" s="112">
         <v>0.97</v>
       </c>
-      <c r="BJ104" s="164">
+      <c r="BJ104" s="112">
         <v>0.97</v>
       </c>
     </row>
     <row r="105" spans="3:62" x14ac:dyDescent="0.3">
-      <c r="BI105" s="164">
+      <c r="BI105" s="112">
         <v>0.98</v>
       </c>
-      <c r="BJ105" s="164">
+      <c r="BJ105" s="112">
         <v>0.98</v>
       </c>
     </row>
     <row r="106" spans="3:62" x14ac:dyDescent="0.3">
-      <c r="BI106" s="164">
+      <c r="BI106" s="112">
         <v>0.99</v>
       </c>
-      <c r="BJ106" s="164">
+      <c r="BJ106" s="112">
         <v>0.99</v>
       </c>
     </row>
@@ -11996,6 +11993,36 @@
     </row>
   </sheetData>
   <mergeCells count="46">
+    <mergeCell ref="Y65:AA65"/>
+    <mergeCell ref="A66:B66"/>
+    <mergeCell ref="C66:G66"/>
+    <mergeCell ref="P66:R66"/>
+    <mergeCell ref="S66:U66"/>
+    <mergeCell ref="V66:X66"/>
+    <mergeCell ref="A65:B65"/>
+    <mergeCell ref="C65:G65"/>
+    <mergeCell ref="P65:R65"/>
+    <mergeCell ref="S65:U65"/>
+    <mergeCell ref="V65:X65"/>
+    <mergeCell ref="V68:X68"/>
+    <mergeCell ref="Y68:AA68"/>
+    <mergeCell ref="A67:B67"/>
+    <mergeCell ref="C67:G67"/>
+    <mergeCell ref="P67:R67"/>
+    <mergeCell ref="S67:U67"/>
+    <mergeCell ref="V67:X67"/>
+    <mergeCell ref="AD1:AG1"/>
+    <mergeCell ref="AH1:AN1"/>
+    <mergeCell ref="AD2:AG2"/>
+    <mergeCell ref="AH2:AN2"/>
+    <mergeCell ref="A4:B6"/>
+    <mergeCell ref="C4:O4"/>
+    <mergeCell ref="P4:R6"/>
+    <mergeCell ref="Y4:AA6"/>
+    <mergeCell ref="C5:G6"/>
+    <mergeCell ref="S5:U6"/>
+    <mergeCell ref="V5:X6"/>
+    <mergeCell ref="S4:X4"/>
     <mergeCell ref="C70:G87"/>
     <mergeCell ref="C88:G98"/>
     <mergeCell ref="H5:I6"/>
@@ -12012,36 +12039,6 @@
     <mergeCell ref="C68:G68"/>
     <mergeCell ref="P68:R68"/>
     <mergeCell ref="S68:U68"/>
-    <mergeCell ref="AD1:AG1"/>
-    <mergeCell ref="AH1:AN1"/>
-    <mergeCell ref="AD2:AG2"/>
-    <mergeCell ref="AH2:AN2"/>
-    <mergeCell ref="A4:B6"/>
-    <mergeCell ref="C4:O4"/>
-    <mergeCell ref="P4:R6"/>
-    <mergeCell ref="Y4:AA6"/>
-    <mergeCell ref="C5:G6"/>
-    <mergeCell ref="S5:U6"/>
-    <mergeCell ref="V5:X6"/>
-    <mergeCell ref="S4:X4"/>
-    <mergeCell ref="V68:X68"/>
-    <mergeCell ref="Y68:AA68"/>
-    <mergeCell ref="A67:B67"/>
-    <mergeCell ref="C67:G67"/>
-    <mergeCell ref="P67:R67"/>
-    <mergeCell ref="S67:U67"/>
-    <mergeCell ref="V67:X67"/>
-    <mergeCell ref="Y65:AA65"/>
-    <mergeCell ref="A66:B66"/>
-    <mergeCell ref="C66:G66"/>
-    <mergeCell ref="P66:R66"/>
-    <mergeCell ref="S66:U66"/>
-    <mergeCell ref="V66:X66"/>
-    <mergeCell ref="A65:B65"/>
-    <mergeCell ref="C65:G65"/>
-    <mergeCell ref="P65:R65"/>
-    <mergeCell ref="S65:U65"/>
-    <mergeCell ref="V65:X65"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="AD5:AD6">
@@ -12074,17 +12071,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7BC30043-DC99-4AC1-B9B7-184E5B4C9BD6}">
   <dimension ref="A1:T21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J8" sqref="J8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J6" sqref="J6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="7" width="5.6640625" customWidth="1"/>
-    <col min="8" max="9" width="5.6640625" style="93" customWidth="1"/>
+    <col min="8" max="9" width="5.6640625" style="92" customWidth="1"/>
     <col min="10" max="12" width="5.6640625" customWidth="1"/>
     <col min="13" max="13" width="5.9140625" customWidth="1"/>
-    <col min="14" max="15" width="6.4140625" style="93" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="6.4140625" style="92" bestFit="1" customWidth="1"/>
     <col min="16" max="20" width="5.6640625" customWidth="1"/>
   </cols>
   <sheetData>
@@ -12223,58 +12220,58 @@
       </c>
       <c r="G3" s="88">
         <f>G7/G5</f>
+        <v>0.43892857142857145</v>
+      </c>
+      <c r="H3" s="88">
+        <f t="shared" ref="H3:T3" si="0">H7/H5</f>
+        <v>0.43892857142857145</v>
+      </c>
+      <c r="I3" s="88">
+        <f t="shared" si="0"/>
+        <v>0.54142857142857137</v>
+      </c>
+      <c r="J3" s="88">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H3" s="89">
-        <f>G3</f>
+      <c r="K3" s="88">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I3" s="89">
-        <f>G3</f>
+      <c r="L3" s="88">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="J3" s="88">
-        <f>J7/J5</f>
+      <c r="M3" s="88">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="K3" s="88">
-        <f>K7/K5</f>
+      <c r="N3" s="88">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="L3" s="88">
-        <f>L7/L5</f>
+      <c r="O3" s="88">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="M3" s="88">
-        <f>M7/M5</f>
+      <c r="P3" s="88">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="N3" s="89">
-        <f>M3</f>
+      <c r="Q3" s="88">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="O3" s="89">
-        <f>M3</f>
+      <c r="R3" s="88">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="P3" s="88">
-        <f>P7/P5</f>
+      <c r="S3" s="88">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="Q3" s="88">
-        <f>Q7/Q5</f>
-        <v>0</v>
-      </c>
-      <c r="R3" s="88">
-        <f>R7/R5</f>
-        <v>0</v>
-      </c>
-      <c r="S3" s="88">
-        <f>S7/S5</f>
-        <v>0</v>
-      </c>
       <c r="T3" s="88">
-        <f>T7/T5</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -12300,10 +12297,10 @@
       <c r="G4" s="87">
         <v>0.5</v>
       </c>
-      <c r="H4" s="90">
+      <c r="H4" s="89">
         <v>0.5</v>
       </c>
-      <c r="I4" s="90">
+      <c r="I4" s="89">
         <v>0.5</v>
       </c>
       <c r="J4" s="87">
@@ -12318,73 +12315,73 @@
       <c r="M4" s="87">
         <v>1</v>
       </c>
-      <c r="N4" s="91"/>
-      <c r="O4" s="91"/>
-      <c r="P4" s="92"/>
-      <c r="Q4" s="92"/>
-      <c r="R4" s="92"/>
-      <c r="S4" s="92"/>
-      <c r="T4" s="92"/>
+      <c r="N4" s="90"/>
+      <c r="O4" s="90"/>
+      <c r="P4" s="91"/>
+      <c r="Q4" s="91"/>
+      <c r="R4" s="91"/>
+      <c r="S4" s="91"/>
+      <c r="T4" s="91"/>
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A5" s="57" t="s">
         <v>142</v>
       </c>
-      <c r="B5" s="92">
+      <c r="B5" s="91">
         <v>280</v>
       </c>
-      <c r="C5" s="92">
+      <c r="C5" s="91">
         <v>280</v>
       </c>
-      <c r="D5" s="92">
+      <c r="D5" s="91">
         <v>280</v>
       </c>
-      <c r="E5" s="92">
+      <c r="E5" s="91">
         <v>280</v>
       </c>
-      <c r="F5" s="92">
+      <c r="F5" s="91">
         <v>280</v>
       </c>
-      <c r="G5" s="92">
+      <c r="G5" s="91">
         <v>280</v>
       </c>
-      <c r="H5" s="92">
+      <c r="H5" s="91">
         <v>280</v>
       </c>
-      <c r="I5" s="92">
+      <c r="I5" s="91">
         <v>280</v>
       </c>
-      <c r="J5" s="92">
+      <c r="J5" s="91">
         <v>280</v>
       </c>
-      <c r="K5" s="92">
+      <c r="K5" s="91">
         <v>280</v>
       </c>
-      <c r="L5" s="92">
+      <c r="L5" s="91">
         <v>280</v>
       </c>
-      <c r="M5" s="92">
+      <c r="M5" s="91">
         <v>280</v>
       </c>
-      <c r="N5" s="92">
+      <c r="N5" s="91">
         <v>280</v>
       </c>
-      <c r="O5" s="92">
+      <c r="O5" s="91">
         <v>280</v>
       </c>
-      <c r="P5" s="92">
+      <c r="P5" s="91">
         <v>280</v>
       </c>
-      <c r="Q5" s="92">
+      <c r="Q5" s="91">
         <v>280</v>
       </c>
-      <c r="R5" s="92">
+      <c r="R5" s="91">
         <v>280</v>
       </c>
-      <c r="S5" s="92">
+      <c r="S5" s="91">
         <v>280</v>
       </c>
-      <c r="T5" s="92">
+      <c r="T5" s="91">
         <v>280</v>
       </c>
     </row>
@@ -12392,61 +12389,61 @@
       <c r="A6" s="57" t="s">
         <v>143</v>
       </c>
-      <c r="B6" s="92">
+      <c r="B6" s="91">
         <v>11</v>
       </c>
-      <c r="C6" s="92">
+      <c r="C6" s="91">
         <v>13</v>
       </c>
-      <c r="D6" s="92">
+      <c r="D6" s="91">
         <v>13</v>
       </c>
-      <c r="E6" s="92">
+      <c r="E6" s="91">
         <v>23</v>
       </c>
-      <c r="F6" s="92">
+      <c r="F6" s="91">
         <v>25</v>
       </c>
-      <c r="G6" s="92">
+      <c r="G6" s="91">
         <v>0</v>
       </c>
-      <c r="H6" s="91">
+      <c r="H6" s="90">
         <v>0</v>
       </c>
-      <c r="I6" s="91">
+      <c r="I6" s="90">
         <v>0</v>
       </c>
-      <c r="J6" s="92">
+      <c r="J6" s="91">
         <v>0</v>
       </c>
-      <c r="K6" s="92">
+      <c r="K6" s="91">
         <v>0</v>
       </c>
-      <c r="L6" s="92">
+      <c r="L6" s="91">
         <v>0</v>
       </c>
-      <c r="M6" s="92">
+      <c r="M6" s="91">
         <v>0</v>
       </c>
-      <c r="N6" s="91">
+      <c r="N6" s="90">
         <v>0</v>
       </c>
-      <c r="O6" s="91">
+      <c r="O6" s="90">
         <v>0</v>
       </c>
-      <c r="P6" s="92">
+      <c r="P6" s="91">
         <v>0</v>
       </c>
-      <c r="Q6" s="92">
+      <c r="Q6" s="91">
         <v>0</v>
       </c>
-      <c r="R6" s="92">
+      <c r="R6" s="91">
         <v>0</v>
       </c>
-      <c r="S6" s="92">
+      <c r="S6" s="91">
         <v>0</v>
       </c>
-      <c r="T6" s="92">
+      <c r="T6" s="91">
         <v>0</v>
       </c>
     </row>
@@ -12454,90 +12451,96 @@
       <c r="A7" s="57" t="s">
         <v>144</v>
       </c>
-      <c r="B7" s="92"/>
-      <c r="C7" s="92"/>
-      <c r="D7" s="92"/>
-      <c r="E7" s="92">
+      <c r="B7" s="91"/>
+      <c r="C7" s="91"/>
+      <c r="D7" s="91"/>
+      <c r="E7" s="91">
         <v>79.599999999999994</v>
       </c>
-      <c r="F7" s="92">
+      <c r="F7" s="91">
         <v>122.9</v>
       </c>
-      <c r="G7" s="92"/>
-      <c r="H7" s="91"/>
-      <c r="I7" s="91"/>
-      <c r="J7" s="92"/>
-      <c r="K7" s="92"/>
-      <c r="L7" s="92"/>
-      <c r="M7" s="92"/>
-      <c r="N7" s="91"/>
-      <c r="O7" s="91"/>
-      <c r="P7" s="92"/>
-      <c r="Q7" s="92"/>
-      <c r="R7" s="92"/>
-      <c r="S7" s="92"/>
-      <c r="T7" s="92"/>
+      <c r="G7" s="91">
+        <v>122.9</v>
+      </c>
+      <c r="H7" s="90">
+        <v>122.9</v>
+      </c>
+      <c r="I7" s="90">
+        <v>151.6</v>
+      </c>
+      <c r="J7" s="91"/>
+      <c r="K7" s="91"/>
+      <c r="L7" s="91"/>
+      <c r="M7" s="91"/>
+      <c r="N7" s="90"/>
+      <c r="O7" s="90"/>
+      <c r="P7" s="91"/>
+      <c r="Q7" s="91"/>
+      <c r="R7" s="91"/>
+      <c r="S7" s="91"/>
+      <c r="T7" s="91"/>
     </row>
     <row r="8" spans="1:20" x14ac:dyDescent="0.3">
       <c r="F8">
         <f>Sheet3!$F$95</f>
-        <v>122.9</v>
+        <v>151.60000000000002</v>
       </c>
       <c r="G8">
         <f>Sheet3!$F$95</f>
-        <v>122.9</v>
+        <v>151.60000000000002</v>
       </c>
       <c r="H8">
         <f>Sheet3!$F$95</f>
-        <v>122.9</v>
+        <v>151.60000000000002</v>
       </c>
       <c r="I8">
         <f>Sheet3!$F$95</f>
-        <v>122.9</v>
+        <v>151.60000000000002</v>
       </c>
       <c r="J8">
         <f>Sheet3!$F$95</f>
-        <v>122.9</v>
+        <v>151.60000000000002</v>
       </c>
       <c r="K8">
         <f>Sheet3!$F$95</f>
-        <v>122.9</v>
+        <v>151.60000000000002</v>
       </c>
       <c r="L8">
         <f>Sheet3!$F$95</f>
-        <v>122.9</v>
+        <v>151.60000000000002</v>
       </c>
       <c r="M8">
         <f>Sheet3!$F$95</f>
-        <v>122.9</v>
+        <v>151.60000000000002</v>
       </c>
       <c r="N8">
         <f>Sheet3!$F$95</f>
-        <v>122.9</v>
+        <v>151.60000000000002</v>
       </c>
       <c r="O8">
         <f>Sheet3!$F$95</f>
-        <v>122.9</v>
+        <v>151.60000000000002</v>
       </c>
       <c r="P8">
         <f>Sheet3!$F$95</f>
-        <v>122.9</v>
+        <v>151.60000000000002</v>
       </c>
       <c r="Q8">
         <f>Sheet3!$F$95</f>
-        <v>122.9</v>
+        <v>151.60000000000002</v>
       </c>
       <c r="R8">
         <f>Sheet3!$F$95</f>
-        <v>122.9</v>
+        <v>151.60000000000002</v>
       </c>
       <c r="S8">
         <f>Sheet3!$F$95</f>
-        <v>122.9</v>
+        <v>151.60000000000002</v>
       </c>
       <c r="T8">
         <f>Sheet3!$F$95</f>
-        <v>122.9</v>
+        <v>151.60000000000002</v>
       </c>
     </row>
     <row r="9" spans="1:20" x14ac:dyDescent="0.3">
@@ -12582,7 +12585,7 @@
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A21" s="94"/>
+      <c r="A21" s="93"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
@@ -12596,7 +12599,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{403F8652-4296-415E-A6A0-53C23B18A84C}">
   <dimension ref="C2:F100"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A85" workbookViewId="0">
+    <sheetView topLeftCell="A85" workbookViewId="0">
       <selection activeCell="F95" sqref="F95"/>
     </sheetView>
   </sheetViews>
@@ -12608,15 +12611,15 @@
   <sheetData>
     <row r="2" spans="4:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D2" s="1"/>
-      <c r="E2" s="141" t="s">
+      <c r="E2" s="120" t="s">
         <v>89</v>
       </c>
-      <c r="F2" s="142"/>
+      <c r="F2" s="121"/>
     </row>
     <row r="3" spans="4:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D3" s="1"/>
-      <c r="E3" s="159"/>
-      <c r="F3" s="160"/>
+      <c r="E3" s="163"/>
+      <c r="F3" s="164"/>
     </row>
     <row r="4" spans="4:6" ht="16" x14ac:dyDescent="0.3">
       <c r="D4" s="68"/>
@@ -12710,17 +12713,17 @@
     </row>
     <row r="13" spans="4:6" ht="16" x14ac:dyDescent="0.3">
       <c r="D13" s="68"/>
-      <c r="E13" s="95" t="s">
+      <c r="E13" s="94" t="s">
         <v>79</v>
       </c>
       <c r="F13" s="69">
         <f>工数予実管理表!AB18*工数予実管理表!AC18</f>
-        <v>1.6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="14" spans="4:6" ht="16" x14ac:dyDescent="0.3">
       <c r="D14" s="68"/>
-      <c r="E14" s="95" t="s">
+      <c r="E14" s="94" t="s">
         <v>80</v>
       </c>
       <c r="F14" s="69">
@@ -12915,7 +12918,7 @@
       </c>
       <c r="F33" s="69">
         <f>工数予実管理表!AB38*工数予実管理表!AC38</f>
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="34" spans="3:6" ht="16" x14ac:dyDescent="0.3">
@@ -12925,7 +12928,7 @@
       </c>
       <c r="F34" s="69">
         <f>工数予実管理表!AB39*工数予実管理表!AC39</f>
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="35" spans="3:6" ht="16" x14ac:dyDescent="0.3">
@@ -12935,7 +12938,7 @@
       </c>
       <c r="F35" s="69">
         <f>工数予実管理表!AB40*工数予実管理表!AC40</f>
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="36" spans="3:6" ht="16" x14ac:dyDescent="0.3">
@@ -12945,7 +12948,7 @@
       </c>
       <c r="F36" s="69">
         <f>工数予実管理表!AB41*工数予実管理表!AC41</f>
-        <v>3</v>
+        <v>2.4000000000000004</v>
       </c>
     </row>
     <row r="37" spans="3:6" ht="16" x14ac:dyDescent="0.3">
@@ -12955,12 +12958,12 @@
       </c>
       <c r="F37" s="69">
         <f>工数予実管理表!AB42*工数予実管理表!AC42</f>
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="38" spans="3:6" ht="16" x14ac:dyDescent="0.3">
-      <c r="C38" s="137"/>
-      <c r="D38" s="137"/>
+      <c r="C38" s="116"/>
+      <c r="D38" s="116"/>
       <c r="E38" s="69" t="s">
         <v>55</v>
       </c>
@@ -12970,14 +12973,14 @@
       </c>
     </row>
     <row r="39" spans="3:6" ht="16" x14ac:dyDescent="0.3">
-      <c r="C39" s="137"/>
-      <c r="D39" s="137"/>
+      <c r="C39" s="116"/>
+      <c r="D39" s="116"/>
       <c r="E39" s="69" t="s">
         <v>56</v>
       </c>
       <c r="F39" s="69">
         <f>工数予実管理表!AB44*工数予実管理表!AC44</f>
-        <v>0</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="40" spans="3:6" ht="16" x14ac:dyDescent="0.3">
@@ -12988,7 +12991,7 @@
       </c>
       <c r="F40" s="69">
         <f>工数予実管理表!AB45*工数予実管理表!AC45</f>
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="41" spans="3:6" ht="16" x14ac:dyDescent="0.3">
@@ -12999,7 +13002,7 @@
       </c>
       <c r="F41" s="69">
         <f>工数予実管理表!AB46*工数予実管理表!AC46</f>
-        <v>6</v>
+        <v>4.8000000000000007</v>
       </c>
     </row>
     <row r="42" spans="3:6" ht="16" x14ac:dyDescent="0.3">
@@ -13010,7 +13013,7 @@
       </c>
       <c r="F42" s="69">
         <f>工数予実管理表!AB47*工数予実管理表!AC47</f>
-        <v>6</v>
+        <v>4.8000000000000007</v>
       </c>
     </row>
     <row r="43" spans="3:6" ht="16" x14ac:dyDescent="0.3">
@@ -13043,7 +13046,7 @@
       </c>
       <c r="F45" s="69">
         <f>工数予実管理表!AB50*工数予実管理表!AC50</f>
-        <v>5.6000000000000005</v>
+        <v>7</v>
       </c>
     </row>
     <row r="46" spans="3:6" ht="16" x14ac:dyDescent="0.3">
@@ -13054,7 +13057,7 @@
       </c>
       <c r="F46" s="69">
         <f>工数予実管理表!AB51*工数予実管理表!AC51</f>
-        <v>5.6000000000000005</v>
+        <v>7</v>
       </c>
     </row>
     <row r="47" spans="3:6" ht="16" x14ac:dyDescent="0.3">
@@ -13126,7 +13129,7 @@
     <row r="53" spans="3:6" ht="16" x14ac:dyDescent="0.3">
       <c r="C53" s="68"/>
       <c r="D53" s="68"/>
-      <c r="E53" s="95" t="s">
+      <c r="E53" s="94" t="s">
         <v>84</v>
       </c>
       <c r="F53" s="69">
@@ -13164,7 +13167,7 @@
       </c>
       <c r="F56" s="69">
         <f>工数予実管理表!AB61*工数予実管理表!AC61</f>
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="57" spans="3:6" ht="16" x14ac:dyDescent="0.3">
@@ -13175,7 +13178,7 @@
       </c>
       <c r="F57" s="69">
         <f>工数予実管理表!AB62*工数予実管理表!AC62</f>
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="58" spans="3:6" ht="16" x14ac:dyDescent="0.3">
@@ -13236,7 +13239,7 @@
     <row r="63" spans="3:6" ht="16" x14ac:dyDescent="0.3">
       <c r="C63" s="68"/>
       <c r="D63" s="68"/>
-      <c r="E63" s="96" t="s">
+      <c r="E63" s="95" t="s">
         <v>85</v>
       </c>
       <c r="F63" s="69">
@@ -13247,7 +13250,7 @@
     <row r="64" spans="3:6" ht="16" x14ac:dyDescent="0.3">
       <c r="C64" s="68"/>
       <c r="D64" s="68"/>
-      <c r="E64" s="96" t="s">
+      <c r="E64" s="95" t="s">
         <v>86</v>
       </c>
       <c r="F64" s="69">
@@ -13500,7 +13503,7 @@
     <row r="87" spans="3:6" ht="16" x14ac:dyDescent="0.3">
       <c r="C87" s="68"/>
       <c r="D87" s="68"/>
-      <c r="E87" s="104" t="s">
+      <c r="E87" s="103" t="s">
         <v>53</v>
       </c>
       <c r="F87" s="69">
@@ -13577,7 +13580,7 @@
     <row r="94" spans="3:6" ht="16" x14ac:dyDescent="0.3">
       <c r="C94" s="68"/>
       <c r="D94" s="68"/>
-      <c r="E94" s="106" t="s">
+      <c r="E94" s="105" t="s">
         <v>119</v>
       </c>
       <c r="F94" s="69">
@@ -13588,9 +13591,9 @@
     <row r="95" spans="3:6" ht="16" x14ac:dyDescent="0.3">
       <c r="C95" s="68"/>
       <c r="D95" s="68"/>
-      <c r="F95" s="165">
+      <c r="F95" s="113">
         <f>SUM(F4:F94)</f>
-        <v>122.9</v>
+        <v>151.60000000000002</v>
       </c>
     </row>
     <row r="96" spans="3:6" ht="16" x14ac:dyDescent="0.3">
@@ -13739,18 +13742,18 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -13770,18 +13773,18 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4F999A99-14E0-4A35-8552-0D0111146846}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{658D790C-F48A-4541-BBAC-37C510A1270D}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4F999A99-14E0-4A35-8552-0D0111146846}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/doc/D4_ドキュメント/予実管理表(最新版)_D4.xlsx
+++ b/doc/D4_ドキュメント/予実管理表(最新版)_D4.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9CCE9FF4-5409-44A0-A3A4-ACA0898F81E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{223752E9-8035-4922-ADF3-B9F589E4D326}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -420,19 +420,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>目標達成画面用</t>
-    <rPh sb="0" eb="2">
-      <t>モクヒョウ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>タッセイ</t>
-    </rPh>
-    <rPh sb="4" eb="7">
-      <t>ガメンヨウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>タスク記入画面用</t>
     <rPh sb="3" eb="8">
       <t>キニュウガメンヨウ</t>
@@ -933,6 +920,19 @@
   </si>
   <si>
     <t>User.java</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>目標入力画面用</t>
+    <rPh sb="0" eb="2">
+      <t>モクヒョウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="4" eb="7">
+      <t>ガメンヨウ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1638,7 +1638,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="165">
+  <cellXfs count="168">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1981,6 +1981,81 @@
     <xf numFmtId="0" fontId="0" fillId="17" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="178" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2041,18 +2116,6 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="16" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
@@ -2062,77 +2125,23 @@
     <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="178" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2368,19 +2377,19 @@
                 <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="12"/>
                 <c:pt idx="3" formatCode="0.0%">
-                  <c:v>0.28428571428571425</c:v>
+                  <c:v>0.27832167832167831</c:v>
                 </c:pt>
                 <c:pt idx="4" formatCode="0.0%">
-                  <c:v>0.43892857142857145</c:v>
+                  <c:v>0.42972027972027976</c:v>
                 </c:pt>
                 <c:pt idx="5" formatCode="0.0%">
-                  <c:v>0.43892857142857145</c:v>
+                  <c:v>0.42972027972027976</c:v>
                 </c:pt>
                 <c:pt idx="6" formatCode="0.0%">
-                  <c:v>0.43892857142857145</c:v>
+                  <c:v>0.42972027972027976</c:v>
                 </c:pt>
                 <c:pt idx="7" formatCode="0.0%">
-                  <c:v>0.54142857142857137</c:v>
+                  <c:v>0.53006993006993008</c:v>
                 </c:pt>
                 <c:pt idx="8" formatCode="0.0%">
                   <c:v>0</c:v>
@@ -3594,8 +3603,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA4A6EF2-62B9-43FE-BFFD-0A328B128D1B}">
   <dimension ref="A1:BL111"/>
   <sheetViews>
-    <sheetView topLeftCell="E51" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="Y64" sqref="Y64"/>
+    <sheetView topLeftCell="E91" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AB102" sqref="AB102"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
@@ -3629,54 +3638,54 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:64" ht="16" x14ac:dyDescent="0.3">
-      <c r="A1" s="124" t="s">
+      <c r="A1" s="149" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="125"/>
-      <c r="C1" s="125"/>
-      <c r="D1" s="125"/>
-      <c r="E1" s="125"/>
-      <c r="F1" s="125"/>
-      <c r="G1" s="125"/>
-      <c r="H1" s="128" t="s">
+      <c r="B1" s="150"/>
+      <c r="C1" s="150"/>
+      <c r="D1" s="150"/>
+      <c r="E1" s="150"/>
+      <c r="F1" s="150"/>
+      <c r="G1" s="150"/>
+      <c r="H1" s="153" t="s">
         <v>1</v>
       </c>
-      <c r="I1" s="129"/>
-      <c r="J1" s="129"/>
-      <c r="K1" s="129"/>
-      <c r="L1" s="129"/>
-      <c r="M1" s="129"/>
-      <c r="N1" s="129"/>
-      <c r="O1" s="129"/>
-      <c r="P1" s="129"/>
-      <c r="Q1" s="129"/>
-      <c r="R1" s="129"/>
-      <c r="S1" s="129"/>
-      <c r="T1" s="129"/>
-      <c r="U1" s="129"/>
-      <c r="V1" s="129"/>
-      <c r="W1" s="129"/>
-      <c r="X1" s="129"/>
-      <c r="Y1" s="129"/>
-      <c r="Z1" s="129"/>
-      <c r="AA1" s="129"/>
-      <c r="AB1" s="129"/>
-      <c r="AC1" s="130"/>
-      <c r="AD1" s="143" t="s">
+      <c r="I1" s="154"/>
+      <c r="J1" s="154"/>
+      <c r="K1" s="154"/>
+      <c r="L1" s="154"/>
+      <c r="M1" s="154"/>
+      <c r="N1" s="154"/>
+      <c r="O1" s="154"/>
+      <c r="P1" s="154"/>
+      <c r="Q1" s="154"/>
+      <c r="R1" s="154"/>
+      <c r="S1" s="154"/>
+      <c r="T1" s="154"/>
+      <c r="U1" s="154"/>
+      <c r="V1" s="154"/>
+      <c r="W1" s="154"/>
+      <c r="X1" s="154"/>
+      <c r="Y1" s="154"/>
+      <c r="Z1" s="154"/>
+      <c r="AA1" s="154"/>
+      <c r="AB1" s="154"/>
+      <c r="AC1" s="155"/>
+      <c r="AD1" s="123" t="s">
         <v>2</v>
       </c>
-      <c r="AE1" s="144"/>
-      <c r="AF1" s="144"/>
-      <c r="AG1" s="145"/>
-      <c r="AH1" s="146">
+      <c r="AE1" s="124"/>
+      <c r="AF1" s="124"/>
+      <c r="AG1" s="125"/>
+      <c r="AH1" s="126">
         <v>45078</v>
       </c>
-      <c r="AI1" s="147"/>
-      <c r="AJ1" s="147"/>
-      <c r="AK1" s="147"/>
-      <c r="AL1" s="147"/>
-      <c r="AM1" s="147"/>
-      <c r="AN1" s="148"/>
+      <c r="AI1" s="127"/>
+      <c r="AJ1" s="127"/>
+      <c r="AK1" s="127"/>
+      <c r="AL1" s="127"/>
+      <c r="AM1" s="127"/>
+      <c r="AN1" s="128"/>
       <c r="AO1" s="1"/>
       <c r="AP1" s="1"/>
       <c r="AQ1" s="1"/>
@@ -3698,50 +3707,50 @@
       <c r="BG1" s="1"/>
     </row>
     <row r="2" spans="1:64" ht="16" x14ac:dyDescent="0.3">
-      <c r="A2" s="126"/>
-      <c r="B2" s="127"/>
-      <c r="C2" s="127"/>
-      <c r="D2" s="127"/>
-      <c r="E2" s="127"/>
-      <c r="F2" s="127"/>
-      <c r="G2" s="127"/>
-      <c r="H2" s="131"/>
-      <c r="I2" s="132"/>
-      <c r="J2" s="132"/>
-      <c r="K2" s="132"/>
-      <c r="L2" s="132"/>
-      <c r="M2" s="132"/>
-      <c r="N2" s="132"/>
-      <c r="O2" s="132"/>
-      <c r="P2" s="132"/>
-      <c r="Q2" s="132"/>
-      <c r="R2" s="132"/>
-      <c r="S2" s="132"/>
-      <c r="T2" s="132"/>
-      <c r="U2" s="132"/>
-      <c r="V2" s="132"/>
-      <c r="W2" s="132"/>
-      <c r="X2" s="132"/>
-      <c r="Y2" s="132"/>
-      <c r="Z2" s="132"/>
-      <c r="AA2" s="132"/>
-      <c r="AB2" s="132"/>
-      <c r="AC2" s="133"/>
-      <c r="AD2" s="143" t="s">
+      <c r="A2" s="151"/>
+      <c r="B2" s="152"/>
+      <c r="C2" s="152"/>
+      <c r="D2" s="152"/>
+      <c r="E2" s="152"/>
+      <c r="F2" s="152"/>
+      <c r="G2" s="152"/>
+      <c r="H2" s="156"/>
+      <c r="I2" s="157"/>
+      <c r="J2" s="157"/>
+      <c r="K2" s="157"/>
+      <c r="L2" s="157"/>
+      <c r="M2" s="157"/>
+      <c r="N2" s="157"/>
+      <c r="O2" s="157"/>
+      <c r="P2" s="157"/>
+      <c r="Q2" s="157"/>
+      <c r="R2" s="157"/>
+      <c r="S2" s="157"/>
+      <c r="T2" s="157"/>
+      <c r="U2" s="157"/>
+      <c r="V2" s="157"/>
+      <c r="W2" s="157"/>
+      <c r="X2" s="157"/>
+      <c r="Y2" s="157"/>
+      <c r="Z2" s="157"/>
+      <c r="AA2" s="157"/>
+      <c r="AB2" s="157"/>
+      <c r="AC2" s="158"/>
+      <c r="AD2" s="123" t="s">
         <v>3</v>
       </c>
-      <c r="AE2" s="144"/>
-      <c r="AF2" s="144"/>
-      <c r="AG2" s="145"/>
-      <c r="AH2" s="146">
+      <c r="AE2" s="124"/>
+      <c r="AF2" s="124"/>
+      <c r="AG2" s="125"/>
+      <c r="AH2" s="126">
         <v>45107</v>
       </c>
-      <c r="AI2" s="147"/>
-      <c r="AJ2" s="147"/>
-      <c r="AK2" s="147"/>
-      <c r="AL2" s="147"/>
-      <c r="AM2" s="147"/>
-      <c r="AN2" s="148"/>
+      <c r="AI2" s="127"/>
+      <c r="AJ2" s="127"/>
+      <c r="AK2" s="127"/>
+      <c r="AL2" s="127"/>
+      <c r="AM2" s="127"/>
+      <c r="AN2" s="128"/>
       <c r="AO2" s="1"/>
       <c r="AP2" s="1"/>
       <c r="AQ2" s="1"/>
@@ -3824,43 +3833,43 @@
       <c r="BG3" s="1"/>
     </row>
     <row r="4" spans="1:64" ht="16" x14ac:dyDescent="0.3">
-      <c r="A4" s="149" t="s">
+      <c r="A4" s="129" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="150"/>
-      <c r="C4" s="153" t="s">
+      <c r="B4" s="130"/>
+      <c r="C4" s="133" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="153"/>
-      <c r="E4" s="153"/>
-      <c r="F4" s="153"/>
-      <c r="G4" s="153"/>
-      <c r="H4" s="153"/>
-      <c r="I4" s="153"/>
-      <c r="J4" s="153"/>
-      <c r="K4" s="153"/>
-      <c r="L4" s="153"/>
-      <c r="M4" s="153"/>
-      <c r="N4" s="153"/>
-      <c r="O4" s="153"/>
-      <c r="P4" s="150" t="s">
+      <c r="D4" s="133"/>
+      <c r="E4" s="133"/>
+      <c r="F4" s="133"/>
+      <c r="G4" s="133"/>
+      <c r="H4" s="133"/>
+      <c r="I4" s="133"/>
+      <c r="J4" s="133"/>
+      <c r="K4" s="133"/>
+      <c r="L4" s="133"/>
+      <c r="M4" s="133"/>
+      <c r="N4" s="133"/>
+      <c r="O4" s="133"/>
+      <c r="P4" s="130" t="s">
         <v>6</v>
       </c>
-      <c r="Q4" s="150"/>
-      <c r="R4" s="150"/>
-      <c r="S4" s="150" t="s">
+      <c r="Q4" s="130"/>
+      <c r="R4" s="130"/>
+      <c r="S4" s="130" t="s">
         <v>7</v>
       </c>
-      <c r="T4" s="150"/>
-      <c r="U4" s="150"/>
-      <c r="V4" s="150"/>
-      <c r="W4" s="150"/>
-      <c r="X4" s="158"/>
-      <c r="Y4" s="154" t="s">
+      <c r="T4" s="130"/>
+      <c r="U4" s="130"/>
+      <c r="V4" s="130"/>
+      <c r="W4" s="130"/>
+      <c r="X4" s="138"/>
+      <c r="Y4" s="134" t="s">
         <v>8</v>
       </c>
-      <c r="Z4" s="154"/>
-      <c r="AA4" s="155"/>
+      <c r="Z4" s="134"/>
+      <c r="AA4" s="135"/>
       <c r="AB4" s="49"/>
       <c r="AC4" s="49"/>
       <c r="AD4" s="5">
@@ -3985,43 +3994,43 @@
       </c>
     </row>
     <row r="5" spans="1:64" ht="16" x14ac:dyDescent="0.3">
-      <c r="A5" s="151"/>
-      <c r="B5" s="152"/>
-      <c r="C5" s="152" t="s">
+      <c r="A5" s="131"/>
+      <c r="B5" s="132"/>
+      <c r="C5" s="132" t="s">
         <v>9</v>
       </c>
-      <c r="D5" s="152"/>
-      <c r="E5" s="152"/>
-      <c r="F5" s="152"/>
-      <c r="G5" s="152"/>
-      <c r="H5" s="120" t="s">
-        <v>116</v>
-      </c>
-      <c r="I5" s="121"/>
-      <c r="J5" s="120" t="s">
+      <c r="D5" s="132"/>
+      <c r="E5" s="132"/>
+      <c r="F5" s="132"/>
+      <c r="G5" s="132"/>
+      <c r="H5" s="145" t="s">
+        <v>115</v>
+      </c>
+      <c r="I5" s="146"/>
+      <c r="J5" s="145" t="s">
         <v>89</v>
       </c>
-      <c r="K5" s="121"/>
+      <c r="K5" s="146"/>
       <c r="L5" s="53"/>
       <c r="M5" s="53"/>
       <c r="N5" s="53"/>
       <c r="O5" s="53"/>
-      <c r="P5" s="152"/>
-      <c r="Q5" s="152"/>
-      <c r="R5" s="152"/>
-      <c r="S5" s="152" t="s">
+      <c r="P5" s="132"/>
+      <c r="Q5" s="132"/>
+      <c r="R5" s="132"/>
+      <c r="S5" s="132" t="s">
         <v>2</v>
       </c>
-      <c r="T5" s="152"/>
-      <c r="U5" s="152"/>
-      <c r="V5" s="152" t="s">
+      <c r="T5" s="132"/>
+      <c r="U5" s="132"/>
+      <c r="V5" s="132" t="s">
         <v>3</v>
       </c>
-      <c r="W5" s="152"/>
-      <c r="X5" s="143"/>
-      <c r="Y5" s="156"/>
-      <c r="Z5" s="156"/>
-      <c r="AA5" s="157"/>
+      <c r="W5" s="132"/>
+      <c r="X5" s="123"/>
+      <c r="Y5" s="136"/>
+      <c r="Z5" s="136"/>
+      <c r="AA5" s="137"/>
       <c r="AB5" s="45" t="s">
         <v>87</v>
       </c>
@@ -4156,33 +4165,33 @@
       </c>
     </row>
     <row r="6" spans="1:64" ht="16" x14ac:dyDescent="0.3">
-      <c r="A6" s="151"/>
-      <c r="B6" s="152"/>
-      <c r="C6" s="152"/>
-      <c r="D6" s="152"/>
-      <c r="E6" s="152"/>
-      <c r="F6" s="152"/>
-      <c r="G6" s="152"/>
-      <c r="H6" s="122"/>
-      <c r="I6" s="123"/>
-      <c r="J6" s="122"/>
-      <c r="K6" s="123"/>
+      <c r="A6" s="131"/>
+      <c r="B6" s="132"/>
+      <c r="C6" s="132"/>
+      <c r="D6" s="132"/>
+      <c r="E6" s="132"/>
+      <c r="F6" s="132"/>
+      <c r="G6" s="132"/>
+      <c r="H6" s="147"/>
+      <c r="I6" s="148"/>
+      <c r="J6" s="147"/>
+      <c r="K6" s="148"/>
       <c r="L6" s="53"/>
       <c r="M6" s="53"/>
       <c r="N6" s="53"/>
       <c r="O6" s="53"/>
-      <c r="P6" s="152"/>
-      <c r="Q6" s="152"/>
-      <c r="R6" s="152"/>
-      <c r="S6" s="152"/>
-      <c r="T6" s="152"/>
-      <c r="U6" s="152"/>
-      <c r="V6" s="152"/>
-      <c r="W6" s="152"/>
-      <c r="X6" s="143"/>
-      <c r="Y6" s="156"/>
-      <c r="Z6" s="156"/>
-      <c r="AA6" s="157"/>
+      <c r="P6" s="132"/>
+      <c r="Q6" s="132"/>
+      <c r="R6" s="132"/>
+      <c r="S6" s="132"/>
+      <c r="T6" s="132"/>
+      <c r="U6" s="132"/>
+      <c r="V6" s="132"/>
+      <c r="W6" s="132"/>
+      <c r="X6" s="123"/>
+      <c r="Y6" s="136"/>
+      <c r="Z6" s="136"/>
+      <c r="AA6" s="137"/>
       <c r="AB6" s="45"/>
       <c r="AC6" s="45"/>
       <c r="AD6" s="11" t="str">
@@ -4306,7 +4315,7 @@
         <v>金</v>
       </c>
       <c r="BI6" s="110" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="BJ6" s="111">
         <v>1</v>
@@ -4378,7 +4387,7 @@
       <c r="BF7" s="2"/>
       <c r="BG7" s="9"/>
       <c r="BI7" s="80" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="BJ7" s="112">
         <v>0</v>
@@ -4636,7 +4645,7 @@
       <c r="F11" s="19"/>
       <c r="G11" s="19"/>
       <c r="H11" s="19" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="I11" s="19"/>
       <c r="J11" s="19" t="s">
@@ -4888,7 +4897,7 @@
       <c r="F14" s="19"/>
       <c r="G14" s="19"/>
       <c r="H14" s="19" t="s">
-        <v>94</v>
+        <v>154</v>
       </c>
       <c r="I14" s="19"/>
       <c r="J14" s="19" t="s">
@@ -4972,7 +4981,7 @@
       <c r="F15" s="19"/>
       <c r="G15" s="19"/>
       <c r="H15" s="19" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="I15" s="19"/>
       <c r="J15" s="19" t="s">
@@ -5056,7 +5065,7 @@
       <c r="F16" s="19"/>
       <c r="G16" s="19"/>
       <c r="H16" s="19" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="I16" s="19"/>
       <c r="J16" s="19" t="s">
@@ -5140,7 +5149,7 @@
       <c r="F17" s="19"/>
       <c r="G17" s="19"/>
       <c r="H17" s="19" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="I17" s="19"/>
       <c r="J17" s="19" t="s">
@@ -5226,7 +5235,7 @@
       <c r="F18" s="30"/>
       <c r="G18" s="30"/>
       <c r="H18" s="30" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="I18" s="30"/>
       <c r="J18" s="30" t="s">
@@ -5312,7 +5321,7 @@
       <c r="F19" s="30"/>
       <c r="G19" s="30"/>
       <c r="H19" s="30" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="I19" s="30"/>
       <c r="J19" s="30" t="s">
@@ -5396,7 +5405,7 @@
       <c r="F20" s="19"/>
       <c r="G20" s="19"/>
       <c r="H20" s="19" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="I20" s="19"/>
       <c r="J20" s="19" t="s">
@@ -5480,7 +5489,7 @@
       <c r="F21" s="19"/>
       <c r="G21" s="19"/>
       <c r="H21" s="19" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="I21" s="19"/>
       <c r="J21" s="19" t="s">
@@ -5564,7 +5573,7 @@
       <c r="F22" s="19"/>
       <c r="G22" s="19"/>
       <c r="H22" s="19" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="I22" s="19"/>
       <c r="J22" s="19" t="s">
@@ -5648,7 +5657,7 @@
       <c r="F23" s="19"/>
       <c r="G23" s="19"/>
       <c r="H23" s="19" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="I23" s="19"/>
       <c r="J23" s="19" t="s">
@@ -5732,7 +5741,7 @@
       <c r="F24" s="19"/>
       <c r="G24" s="19"/>
       <c r="H24" s="23" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="I24" s="23"/>
       <c r="J24" s="23" t="s">
@@ -5816,7 +5825,7 @@
       <c r="F25" s="19"/>
       <c r="G25" s="19"/>
       <c r="H25" s="19" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="I25" s="19"/>
       <c r="J25" s="19" t="s">
@@ -5900,7 +5909,7 @@
       <c r="F26" s="19"/>
       <c r="G26" s="19"/>
       <c r="H26" s="19" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="I26" s="19"/>
       <c r="J26" s="19" t="s">
@@ -5983,11 +5992,11 @@
       <c r="E27" s="19"/>
       <c r="F27" s="19"/>
       <c r="G27" s="19"/>
-      <c r="H27" s="108" t="s">
-        <v>106</v>
-      </c>
-      <c r="I27" s="108"/>
-      <c r="J27" s="108" t="s">
+      <c r="H27" s="165" t="s">
+        <v>105</v>
+      </c>
+      <c r="I27" s="165"/>
+      <c r="J27" s="165" t="s">
         <v>38</v>
       </c>
       <c r="K27" s="19"/>
@@ -6067,11 +6076,11 @@
       <c r="E28" s="19"/>
       <c r="F28" s="19"/>
       <c r="G28" s="19"/>
-      <c r="H28" s="108" t="s">
-        <v>100</v>
-      </c>
-      <c r="I28" s="108"/>
-      <c r="J28" s="108" t="s">
+      <c r="H28" s="165" t="s">
+        <v>99</v>
+      </c>
+      <c r="I28" s="165"/>
+      <c r="J28" s="165" t="s">
         <v>39</v>
       </c>
       <c r="K28" s="19"/>
@@ -6151,11 +6160,11 @@
       <c r="E29" s="19"/>
       <c r="F29" s="19"/>
       <c r="G29" s="19"/>
-      <c r="H29" s="108" t="s">
-        <v>101</v>
-      </c>
-      <c r="I29" s="108"/>
-      <c r="J29" s="108" t="s">
+      <c r="H29" s="165" t="s">
+        <v>100</v>
+      </c>
+      <c r="I29" s="165"/>
+      <c r="J29" s="165" t="s">
         <v>40</v>
       </c>
       <c r="K29" s="19"/>
@@ -6235,11 +6244,11 @@
       <c r="E30" s="19"/>
       <c r="F30" s="19"/>
       <c r="G30" s="19"/>
-      <c r="H30" s="108" t="s">
-        <v>102</v>
-      </c>
-      <c r="I30" s="108"/>
-      <c r="J30" s="108" t="s">
+      <c r="H30" s="165" t="s">
+        <v>101</v>
+      </c>
+      <c r="I30" s="165"/>
+      <c r="J30" s="165" t="s">
         <v>41</v>
       </c>
       <c r="K30" s="19"/>
@@ -6319,11 +6328,11 @@
       <c r="E31" s="19"/>
       <c r="F31" s="19"/>
       <c r="G31" s="19"/>
-      <c r="H31" s="108" t="s">
-        <v>97</v>
-      </c>
-      <c r="I31" s="108"/>
-      <c r="J31" s="108" t="s">
+      <c r="H31" s="165" t="s">
+        <v>96</v>
+      </c>
+      <c r="I31" s="165"/>
+      <c r="J31" s="165" t="s">
         <v>42</v>
       </c>
       <c r="K31" s="19"/>
@@ -6403,11 +6412,11 @@
       <c r="E32" s="19"/>
       <c r="F32" s="19"/>
       <c r="G32" s="19"/>
-      <c r="H32" s="108" t="s">
-        <v>107</v>
-      </c>
-      <c r="I32" s="108"/>
-      <c r="J32" s="108" t="s">
+      <c r="H32" s="165" t="s">
+        <v>106</v>
+      </c>
+      <c r="I32" s="165"/>
+      <c r="J32" s="165" t="s">
         <v>43</v>
       </c>
       <c r="K32" s="19"/>
@@ -6487,12 +6496,12 @@
       <c r="E33" s="19"/>
       <c r="F33" s="19"/>
       <c r="G33" s="19"/>
-      <c r="H33" s="108" t="s">
-        <v>108</v>
-      </c>
-      <c r="I33" s="108"/>
-      <c r="J33" s="108" t="s">
-        <v>153</v>
+      <c r="H33" s="165" t="s">
+        <v>107</v>
+      </c>
+      <c r="I33" s="165"/>
+      <c r="J33" s="165" t="s">
+        <v>152</v>
       </c>
       <c r="K33" s="19"/>
       <c r="L33" s="19"/>
@@ -6571,12 +6580,12 @@
       <c r="E34" s="19"/>
       <c r="F34" s="19"/>
       <c r="G34" s="19"/>
-      <c r="H34" s="108" t="s">
-        <v>109</v>
-      </c>
-      <c r="I34" s="108"/>
-      <c r="J34" s="108" t="s">
-        <v>154</v>
+      <c r="H34" s="165" t="s">
+        <v>108</v>
+      </c>
+      <c r="I34" s="165"/>
+      <c r="J34" s="165" t="s">
+        <v>153</v>
       </c>
       <c r="K34" s="19"/>
       <c r="L34" s="19"/>
@@ -6655,11 +6664,11 @@
       <c r="E35" s="19"/>
       <c r="F35" s="19"/>
       <c r="G35" s="19"/>
-      <c r="H35" s="108" t="s">
-        <v>124</v>
-      </c>
-      <c r="I35" s="108"/>
-      <c r="J35" s="108" t="s">
+      <c r="H35" s="165" t="s">
+        <v>123</v>
+      </c>
+      <c r="I35" s="165"/>
+      <c r="J35" s="165" t="s">
         <v>46</v>
       </c>
       <c r="K35" s="19"/>
@@ -6739,11 +6748,11 @@
       <c r="E36" s="19"/>
       <c r="F36" s="19"/>
       <c r="G36" s="19"/>
-      <c r="H36" s="108" t="s">
-        <v>110</v>
-      </c>
-      <c r="I36" s="108"/>
-      <c r="J36" s="108" t="s">
+      <c r="H36" s="165" t="s">
+        <v>109</v>
+      </c>
+      <c r="I36" s="165"/>
+      <c r="J36" s="165" t="s">
         <v>47</v>
       </c>
       <c r="K36" s="19"/>
@@ -6823,11 +6832,11 @@
       <c r="E37" s="19"/>
       <c r="F37" s="19"/>
       <c r="G37" s="19"/>
-      <c r="H37" s="19" t="s">
+      <c r="H37" s="108" t="s">
         <v>90</v>
       </c>
-      <c r="I37" s="19"/>
-      <c r="J37" s="19" t="s">
+      <c r="I37" s="108"/>
+      <c r="J37" s="108" t="s">
         <v>49</v>
       </c>
       <c r="K37" s="19"/>
@@ -6851,7 +6860,7 @@
       <c r="W37" s="21"/>
       <c r="X37" s="21"/>
       <c r="Y37" s="55" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="Z37" s="4"/>
       <c r="AA37" s="43"/>
@@ -6907,11 +6916,11 @@
       <c r="E38" s="19"/>
       <c r="F38" s="19"/>
       <c r="G38" s="19"/>
-      <c r="H38" s="19" t="s">
+      <c r="H38" s="108" t="s">
         <v>91</v>
       </c>
-      <c r="I38" s="19"/>
-      <c r="J38" s="19" t="s">
+      <c r="I38" s="108"/>
+      <c r="J38" s="108" t="s">
         <v>50</v>
       </c>
       <c r="K38" s="19"/>
@@ -6991,11 +7000,11 @@
       <c r="E39" s="19"/>
       <c r="F39" s="19"/>
       <c r="G39" s="19"/>
-      <c r="H39" s="19" t="s">
-        <v>111</v>
-      </c>
-      <c r="I39" s="19"/>
-      <c r="J39" s="19" t="s">
+      <c r="H39" s="108" t="s">
+        <v>110</v>
+      </c>
+      <c r="I39" s="108"/>
+      <c r="J39" s="108" t="s">
         <v>51</v>
       </c>
       <c r="K39" s="19"/>
@@ -7075,11 +7084,11 @@
       <c r="E40" s="19"/>
       <c r="F40" s="19"/>
       <c r="G40" s="19"/>
-      <c r="H40" s="19" t="s">
-        <v>112</v>
-      </c>
-      <c r="I40" s="19"/>
-      <c r="J40" s="19" t="s">
+      <c r="H40" s="108" t="s">
+        <v>111</v>
+      </c>
+      <c r="I40" s="108"/>
+      <c r="J40" s="108" t="s">
         <v>52</v>
       </c>
       <c r="K40" s="19"/>
@@ -7159,11 +7168,11 @@
       <c r="E41" s="19"/>
       <c r="F41" s="19"/>
       <c r="G41" s="19"/>
-      <c r="H41" s="23" t="s">
+      <c r="H41" s="108" t="s">
         <v>93</v>
       </c>
-      <c r="I41" s="23"/>
-      <c r="J41" s="23" t="s">
+      <c r="I41" s="108"/>
+      <c r="J41" s="108" t="s">
         <v>53</v>
       </c>
       <c r="K41" s="23"/>
@@ -7243,11 +7252,11 @@
       <c r="E42" s="19"/>
       <c r="F42" s="19"/>
       <c r="G42" s="19"/>
-      <c r="H42" s="19" t="s">
-        <v>125</v>
-      </c>
-      <c r="I42" s="19"/>
-      <c r="J42" s="19" t="s">
+      <c r="H42" s="108" t="s">
+        <v>124</v>
+      </c>
+      <c r="I42" s="108"/>
+      <c r="J42" s="108" t="s">
         <v>54</v>
       </c>
       <c r="K42" s="19"/>
@@ -7327,11 +7336,11 @@
       <c r="E43" s="19"/>
       <c r="F43" s="19"/>
       <c r="G43" s="19"/>
-      <c r="H43" s="28" t="s">
-        <v>107</v>
-      </c>
-      <c r="I43" s="28"/>
-      <c r="J43" s="27" t="s">
+      <c r="H43" s="166" t="s">
+        <v>106</v>
+      </c>
+      <c r="I43" s="166"/>
+      <c r="J43" s="167" t="s">
         <v>55</v>
       </c>
       <c r="K43" s="28"/>
@@ -7355,7 +7364,7 @@
       <c r="W43" s="21"/>
       <c r="X43" s="21"/>
       <c r="Y43" s="55" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="Z43" s="4"/>
       <c r="AA43" s="43"/>
@@ -7411,11 +7420,11 @@
       <c r="E44" s="19"/>
       <c r="F44" s="19"/>
       <c r="G44" s="19"/>
-      <c r="H44" s="19" t="s">
-        <v>126</v>
-      </c>
-      <c r="I44" s="19"/>
-      <c r="J44" s="19" t="s">
+      <c r="H44" s="108" t="s">
+        <v>125</v>
+      </c>
+      <c r="I44" s="108"/>
+      <c r="J44" s="108" t="s">
         <v>56</v>
       </c>
       <c r="K44" s="19"/>
@@ -7495,11 +7504,11 @@
       <c r="E45" s="19"/>
       <c r="F45" s="19"/>
       <c r="G45" s="19"/>
-      <c r="H45" s="28" t="s">
-        <v>96</v>
-      </c>
-      <c r="I45" s="28"/>
-      <c r="J45" s="27" t="s">
+      <c r="H45" s="166" t="s">
+        <v>95</v>
+      </c>
+      <c r="I45" s="166"/>
+      <c r="J45" s="167" t="s">
         <v>57</v>
       </c>
       <c r="K45" s="28"/>
@@ -7581,11 +7590,11 @@
       <c r="E46" s="19"/>
       <c r="F46" s="19"/>
       <c r="G46" s="19"/>
-      <c r="H46" s="28" t="s">
-        <v>113</v>
-      </c>
-      <c r="I46" s="28"/>
-      <c r="J46" s="27" t="s">
+      <c r="H46" s="166" t="s">
+        <v>112</v>
+      </c>
+      <c r="I46" s="166"/>
+      <c r="J46" s="167" t="s">
         <v>81</v>
       </c>
       <c r="K46" s="41"/>
@@ -7667,11 +7676,11 @@
       <c r="E47" s="19"/>
       <c r="F47" s="19"/>
       <c r="G47" s="19"/>
-      <c r="H47" s="28" t="s">
-        <v>114</v>
-      </c>
-      <c r="I47" s="28"/>
-      <c r="J47" s="27" t="s">
+      <c r="H47" s="166" t="s">
+        <v>113</v>
+      </c>
+      <c r="I47" s="166"/>
+      <c r="J47" s="167" t="s">
         <v>82</v>
       </c>
       <c r="K47" s="41"/>
@@ -7752,7 +7761,7 @@
       <c r="F48" s="19"/>
       <c r="G48" s="19"/>
       <c r="H48" s="19" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="I48" s="19"/>
       <c r="J48" s="19" t="s">
@@ -7779,7 +7788,7 @@
       <c r="W48" s="21"/>
       <c r="X48" s="21"/>
       <c r="Y48" s="55" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="Z48" s="4"/>
       <c r="AA48" s="43"/>
@@ -7863,7 +7872,7 @@
       <c r="W49" s="21"/>
       <c r="X49" s="21"/>
       <c r="Y49" s="55" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="Z49" s="4"/>
       <c r="AA49" s="43"/>
@@ -8004,7 +8013,7 @@
       <c r="F51" s="19"/>
       <c r="G51" s="19"/>
       <c r="H51" s="19" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="I51" s="19"/>
       <c r="J51" s="19" t="s">
@@ -8088,7 +8097,7 @@
       <c r="F52" s="19"/>
       <c r="G52" s="19"/>
       <c r="H52" s="19" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="I52" s="19"/>
       <c r="J52" s="19" t="s">
@@ -8199,7 +8208,7 @@
       <c r="W53" s="21"/>
       <c r="X53" s="21"/>
       <c r="Y53" s="55" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="Z53" s="4"/>
       <c r="AA53" s="43"/>
@@ -8256,7 +8265,7 @@
       <c r="F54" s="19"/>
       <c r="G54" s="19"/>
       <c r="H54" s="23" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="I54" s="23"/>
       <c r="J54" s="23" t="s">
@@ -8340,7 +8349,7 @@
       <c r="F55" s="19"/>
       <c r="G55" s="19"/>
       <c r="H55" s="23" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="I55" s="23"/>
       <c r="J55" s="23" t="s">
@@ -8424,7 +8433,7 @@
       <c r="F56" s="19"/>
       <c r="G56" s="19"/>
       <c r="H56" s="19" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="I56" s="19"/>
       <c r="J56" s="19" t="s">
@@ -8451,7 +8460,7 @@
       <c r="W56" s="21"/>
       <c r="X56" s="21"/>
       <c r="Y56" s="55" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="Z56" s="4"/>
       <c r="AA56" s="43"/>
@@ -8508,7 +8517,7 @@
       <c r="F57" s="19"/>
       <c r="G57" s="19"/>
       <c r="H57" s="23" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="I57" s="23"/>
       <c r="J57" s="23" t="s">
@@ -8594,7 +8603,7 @@
       <c r="F58" s="30"/>
       <c r="G58" s="30"/>
       <c r="H58" s="30" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="I58" s="30"/>
       <c r="J58" s="30" t="s">
@@ -8678,7 +8687,7 @@
       <c r="F59" s="19"/>
       <c r="G59" s="19"/>
       <c r="H59" s="19" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="I59" s="19"/>
       <c r="J59" s="19" t="s">
@@ -8930,7 +8939,7 @@
       <c r="F62" s="19"/>
       <c r="G62" s="19"/>
       <c r="H62" s="19" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="I62" s="19"/>
       <c r="J62" s="19" t="s">
@@ -9174,15 +9183,15 @@
       </c>
     </row>
     <row r="65" spans="1:62" ht="16" x14ac:dyDescent="0.3">
-      <c r="A65" s="137"/>
-      <c r="B65" s="135"/>
-      <c r="C65" s="159"/>
-      <c r="D65" s="159"/>
-      <c r="E65" s="159"/>
-      <c r="F65" s="159"/>
-      <c r="G65" s="160"/>
+      <c r="A65" s="116"/>
+      <c r="B65" s="114"/>
+      <c r="C65" s="117"/>
+      <c r="D65" s="117"/>
+      <c r="E65" s="117"/>
+      <c r="F65" s="117"/>
+      <c r="G65" s="118"/>
       <c r="H65" s="69" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="I65" s="44"/>
       <c r="J65" s="2" t="s">
@@ -9193,26 +9202,26 @@
       <c r="M65" s="2"/>
       <c r="N65" s="2"/>
       <c r="O65" s="2"/>
-      <c r="P65" s="162" t="s">
+      <c r="P65" s="119" t="s">
         <v>11</v>
       </c>
-      <c r="Q65" s="162"/>
-      <c r="R65" s="162"/>
-      <c r="S65" s="141">
+      <c r="Q65" s="119"/>
+      <c r="R65" s="119"/>
+      <c r="S65" s="120">
         <v>45092</v>
       </c>
-      <c r="T65" s="141"/>
-      <c r="U65" s="141"/>
-      <c r="V65" s="141">
+      <c r="T65" s="120"/>
+      <c r="U65" s="120"/>
+      <c r="V65" s="120">
         <v>45100</v>
       </c>
-      <c r="W65" s="141"/>
-      <c r="X65" s="141"/>
-      <c r="Y65" s="135" t="s">
-        <v>118</v>
-      </c>
-      <c r="Z65" s="135"/>
-      <c r="AA65" s="136"/>
+      <c r="W65" s="120"/>
+      <c r="X65" s="120"/>
+      <c r="Y65" s="114" t="s">
+        <v>117</v>
+      </c>
+      <c r="Z65" s="114"/>
+      <c r="AA65" s="115"/>
       <c r="AB65" s="45">
         <v>7</v>
       </c>
@@ -9258,15 +9267,15 @@
       </c>
     </row>
     <row r="66" spans="1:62" ht="16" x14ac:dyDescent="0.3">
-      <c r="A66" s="137"/>
-      <c r="B66" s="135"/>
-      <c r="C66" s="159"/>
-      <c r="D66" s="159"/>
-      <c r="E66" s="159"/>
-      <c r="F66" s="159"/>
-      <c r="G66" s="160"/>
+      <c r="A66" s="116"/>
+      <c r="B66" s="114"/>
+      <c r="C66" s="117"/>
+      <c r="D66" s="117"/>
+      <c r="E66" s="117"/>
+      <c r="F66" s="117"/>
+      <c r="G66" s="118"/>
       <c r="H66" s="69" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="I66" s="44"/>
       <c r="J66" s="2" t="s">
@@ -9277,29 +9286,29 @@
       <c r="M66" s="2"/>
       <c r="N66" s="2"/>
       <c r="O66" s="2"/>
-      <c r="P66" s="162" t="s">
+      <c r="P66" s="119" t="s">
         <v>11</v>
       </c>
-      <c r="Q66" s="162"/>
-      <c r="R66" s="162"/>
-      <c r="S66" s="141">
+      <c r="Q66" s="119"/>
+      <c r="R66" s="119"/>
+      <c r="S66" s="120">
         <v>45092</v>
       </c>
-      <c r="T66" s="141"/>
-      <c r="U66" s="141"/>
-      <c r="V66" s="141">
+      <c r="T66" s="120"/>
+      <c r="U66" s="120"/>
+      <c r="V66" s="120">
         <v>45100</v>
       </c>
-      <c r="W66" s="141"/>
-      <c r="X66" s="141"/>
+      <c r="W66" s="120"/>
+      <c r="X66" s="120"/>
       <c r="Y66" s="55" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="Z66" s="55" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="AA66" s="55" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="AB66" s="45">
         <v>7</v>
@@ -9346,15 +9355,15 @@
       </c>
     </row>
     <row r="67" spans="1:62" ht="16" x14ac:dyDescent="0.3">
-      <c r="A67" s="137"/>
-      <c r="B67" s="135"/>
-      <c r="C67" s="159"/>
-      <c r="D67" s="159"/>
-      <c r="E67" s="159"/>
-      <c r="F67" s="159"/>
-      <c r="G67" s="160"/>
+      <c r="A67" s="116"/>
+      <c r="B67" s="114"/>
+      <c r="C67" s="117"/>
+      <c r="D67" s="117"/>
+      <c r="E67" s="117"/>
+      <c r="F67" s="117"/>
+      <c r="G67" s="118"/>
       <c r="H67" s="69" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="I67" s="44"/>
       <c r="J67" s="2" t="s">
@@ -9365,29 +9374,29 @@
       <c r="M67" s="2"/>
       <c r="N67" s="2"/>
       <c r="O67" s="2"/>
-      <c r="P67" s="161" t="s">
+      <c r="P67" s="122" t="s">
         <v>19</v>
       </c>
-      <c r="Q67" s="161"/>
-      <c r="R67" s="161"/>
-      <c r="S67" s="141">
+      <c r="Q67" s="122"/>
+      <c r="R67" s="122"/>
+      <c r="S67" s="120">
         <v>45096</v>
       </c>
-      <c r="T67" s="141"/>
-      <c r="U67" s="141"/>
-      <c r="V67" s="141">
+      <c r="T67" s="120"/>
+      <c r="U67" s="120"/>
+      <c r="V67" s="120">
         <v>45100</v>
       </c>
-      <c r="W67" s="141"/>
-      <c r="X67" s="141"/>
+      <c r="W67" s="120"/>
+      <c r="X67" s="120"/>
       <c r="Y67" s="55" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="Z67" s="55" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="AA67" s="55" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="AB67" s="45">
         <v>5</v>
@@ -9434,17 +9443,17 @@
       </c>
     </row>
     <row r="68" spans="1:62" ht="16" x14ac:dyDescent="0.3">
-      <c r="A68" s="137"/>
-      <c r="B68" s="135"/>
-      <c r="C68" s="138" t="s">
+      <c r="A68" s="116"/>
+      <c r="B68" s="114"/>
+      <c r="C68" s="159" t="s">
         <v>83</v>
       </c>
-      <c r="D68" s="138"/>
-      <c r="E68" s="138"/>
-      <c r="F68" s="138"/>
-      <c r="G68" s="139"/>
+      <c r="D68" s="159"/>
+      <c r="E68" s="159"/>
+      <c r="F68" s="159"/>
+      <c r="G68" s="160"/>
       <c r="H68" s="69" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="I68" s="72"/>
       <c r="J68" s="71" t="s">
@@ -9455,26 +9464,26 @@
       <c r="M68" s="71"/>
       <c r="N68" s="71"/>
       <c r="O68" s="71"/>
-      <c r="P68" s="142" t="s">
+      <c r="P68" s="162" t="s">
         <v>30</v>
       </c>
-      <c r="Q68" s="142"/>
-      <c r="R68" s="142"/>
-      <c r="S68" s="141">
+      <c r="Q68" s="162"/>
+      <c r="R68" s="162"/>
+      <c r="S68" s="120">
         <v>45091</v>
       </c>
-      <c r="T68" s="141"/>
-      <c r="U68" s="141"/>
-      <c r="V68" s="141">
+      <c r="T68" s="120"/>
+      <c r="U68" s="120"/>
+      <c r="V68" s="120">
         <v>45100</v>
       </c>
-      <c r="W68" s="141"/>
-      <c r="X68" s="141"/>
-      <c r="Y68" s="134" t="s">
-        <v>118</v>
-      </c>
-      <c r="Z68" s="135"/>
-      <c r="AA68" s="136"/>
+      <c r="W68" s="120"/>
+      <c r="X68" s="120"/>
+      <c r="Y68" s="121" t="s">
+        <v>117</v>
+      </c>
+      <c r="Z68" s="114"/>
+      <c r="AA68" s="115"/>
       <c r="AB68" s="45">
         <v>8</v>
       </c>
@@ -9520,17 +9529,17 @@
       </c>
     </row>
     <row r="69" spans="1:62" ht="16" x14ac:dyDescent="0.3">
-      <c r="A69" s="137"/>
-      <c r="B69" s="135"/>
-      <c r="C69" s="138" t="s">
+      <c r="A69" s="116"/>
+      <c r="B69" s="114"/>
+      <c r="C69" s="159" t="s">
         <v>83</v>
       </c>
-      <c r="D69" s="138"/>
-      <c r="E69" s="138"/>
-      <c r="F69" s="138"/>
-      <c r="G69" s="139"/>
+      <c r="D69" s="159"/>
+      <c r="E69" s="159"/>
+      <c r="F69" s="159"/>
+      <c r="G69" s="160"/>
       <c r="H69" s="77" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="I69" s="78"/>
       <c r="J69" s="79" t="s">
@@ -9541,26 +9550,26 @@
       <c r="M69" s="71"/>
       <c r="N69" s="71"/>
       <c r="O69" s="71"/>
-      <c r="P69" s="140" t="s">
+      <c r="P69" s="161" t="s">
         <v>29</v>
       </c>
-      <c r="Q69" s="140"/>
-      <c r="R69" s="140"/>
-      <c r="S69" s="141">
+      <c r="Q69" s="161"/>
+      <c r="R69" s="161"/>
+      <c r="S69" s="120">
         <v>45091</v>
       </c>
-      <c r="T69" s="141"/>
-      <c r="U69" s="141"/>
-      <c r="V69" s="141">
+      <c r="T69" s="120"/>
+      <c r="U69" s="120"/>
+      <c r="V69" s="120">
         <v>45100</v>
       </c>
-      <c r="W69" s="141"/>
-      <c r="X69" s="141"/>
-      <c r="Y69" s="134">
+      <c r="W69" s="120"/>
+      <c r="X69" s="120"/>
+      <c r="Y69" s="121">
         <v>0.6</v>
       </c>
-      <c r="Z69" s="135"/>
-      <c r="AA69" s="136"/>
+      <c r="Z69" s="114"/>
+      <c r="AA69" s="115"/>
       <c r="AB69" s="45">
         <v>8</v>
       </c>
@@ -9608,13 +9617,13 @@
     <row r="70" spans="1:62" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A70" s="18"/>
       <c r="B70" s="4"/>
-      <c r="C70" s="114" t="s">
+      <c r="C70" s="139" t="s">
         <v>15</v>
       </c>
-      <c r="D70" s="114"/>
-      <c r="E70" s="114"/>
-      <c r="F70" s="114"/>
-      <c r="G70" s="115"/>
+      <c r="D70" s="139"/>
+      <c r="E70" s="139"/>
+      <c r="F70" s="139"/>
+      <c r="G70" s="140"/>
       <c r="H70" s="76" t="s">
         <v>20</v>
       </c>
@@ -9701,11 +9710,11 @@
     <row r="71" spans="1:62" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A71" s="18"/>
       <c r="B71" s="43"/>
-      <c r="C71" s="116"/>
-      <c r="D71" s="116"/>
-      <c r="E71" s="116"/>
-      <c r="F71" s="116"/>
-      <c r="G71" s="117"/>
+      <c r="C71" s="141"/>
+      <c r="D71" s="141"/>
+      <c r="E71" s="141"/>
+      <c r="F71" s="141"/>
+      <c r="G71" s="142"/>
       <c r="H71" s="76" t="s">
         <v>21</v>
       </c>
@@ -9792,11 +9801,11 @@
     <row r="72" spans="1:62" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A72" s="18"/>
       <c r="B72" s="43"/>
-      <c r="C72" s="116"/>
-      <c r="D72" s="116"/>
-      <c r="E72" s="116"/>
-      <c r="F72" s="116"/>
-      <c r="G72" s="117"/>
+      <c r="C72" s="141"/>
+      <c r="D72" s="141"/>
+      <c r="E72" s="141"/>
+      <c r="F72" s="141"/>
+      <c r="G72" s="142"/>
       <c r="H72" s="76" t="s">
         <v>22</v>
       </c>
@@ -9883,11 +9892,11 @@
     <row r="73" spans="1:62" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A73" s="18"/>
       <c r="B73" s="43"/>
-      <c r="C73" s="116"/>
-      <c r="D73" s="116"/>
-      <c r="E73" s="116"/>
-      <c r="F73" s="116"/>
-      <c r="G73" s="117"/>
+      <c r="C73" s="141"/>
+      <c r="D73" s="141"/>
+      <c r="E73" s="141"/>
+      <c r="F73" s="141"/>
+      <c r="G73" s="142"/>
       <c r="H73" s="76" t="s">
         <v>23</v>
       </c>
@@ -9974,11 +9983,11 @@
     <row r="74" spans="1:62" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A74" s="18"/>
       <c r="B74" s="43"/>
-      <c r="C74" s="116"/>
-      <c r="D74" s="116"/>
-      <c r="E74" s="116"/>
-      <c r="F74" s="116"/>
-      <c r="G74" s="117"/>
+      <c r="C74" s="141"/>
+      <c r="D74" s="141"/>
+      <c r="E74" s="141"/>
+      <c r="F74" s="141"/>
+      <c r="G74" s="142"/>
       <c r="H74" s="76" t="s">
         <v>24</v>
       </c>
@@ -10065,11 +10074,11 @@
     <row r="75" spans="1:62" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A75" s="18"/>
       <c r="B75" s="43"/>
-      <c r="C75" s="116"/>
-      <c r="D75" s="116"/>
-      <c r="E75" s="116"/>
-      <c r="F75" s="116"/>
-      <c r="G75" s="117"/>
+      <c r="C75" s="141"/>
+      <c r="D75" s="141"/>
+      <c r="E75" s="141"/>
+      <c r="F75" s="141"/>
+      <c r="G75" s="142"/>
       <c r="H75" s="76" t="s">
         <v>25</v>
       </c>
@@ -10156,11 +10165,11 @@
     <row r="76" spans="1:62" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A76" s="18"/>
       <c r="B76" s="43"/>
-      <c r="C76" s="116"/>
-      <c r="D76" s="116"/>
-      <c r="E76" s="116"/>
-      <c r="F76" s="116"/>
-      <c r="G76" s="117"/>
+      <c r="C76" s="141"/>
+      <c r="D76" s="141"/>
+      <c r="E76" s="141"/>
+      <c r="F76" s="141"/>
+      <c r="G76" s="142"/>
       <c r="H76" s="76" t="s">
         <v>26</v>
       </c>
@@ -10247,11 +10256,11 @@
     <row r="77" spans="1:62" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A77" s="18"/>
       <c r="B77" s="43"/>
-      <c r="C77" s="116"/>
-      <c r="D77" s="116"/>
-      <c r="E77" s="116"/>
-      <c r="F77" s="116"/>
-      <c r="G77" s="117"/>
+      <c r="C77" s="141"/>
+      <c r="D77" s="141"/>
+      <c r="E77" s="141"/>
+      <c r="F77" s="141"/>
+      <c r="G77" s="142"/>
       <c r="H77" s="76" t="s">
         <v>27</v>
       </c>
@@ -10338,11 +10347,11 @@
     <row r="78" spans="1:62" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A78" s="38"/>
       <c r="B78" s="52"/>
-      <c r="C78" s="116"/>
-      <c r="D78" s="116"/>
-      <c r="E78" s="116"/>
-      <c r="F78" s="116"/>
-      <c r="G78" s="117"/>
+      <c r="C78" s="141"/>
+      <c r="D78" s="141"/>
+      <c r="E78" s="141"/>
+      <c r="F78" s="141"/>
+      <c r="G78" s="142"/>
       <c r="H78" s="76" t="s">
         <v>28</v>
       </c>
@@ -10427,11 +10436,11 @@
       </c>
     </row>
     <row r="79" spans="1:62" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C79" s="116"/>
-      <c r="D79" s="116"/>
-      <c r="E79" s="116"/>
-      <c r="F79" s="116"/>
-      <c r="G79" s="117"/>
+      <c r="C79" s="141"/>
+      <c r="D79" s="141"/>
+      <c r="E79" s="141"/>
+      <c r="F79" s="141"/>
+      <c r="G79" s="142"/>
       <c r="H79" s="76" t="s">
         <v>79</v>
       </c>
@@ -10513,11 +10522,11 @@
       </c>
     </row>
     <row r="80" spans="1:62" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C80" s="116"/>
-      <c r="D80" s="116"/>
-      <c r="E80" s="116"/>
-      <c r="F80" s="116"/>
-      <c r="G80" s="117"/>
+      <c r="C80" s="141"/>
+      <c r="D80" s="141"/>
+      <c r="E80" s="141"/>
+      <c r="F80" s="141"/>
+      <c r="G80" s="142"/>
       <c r="H80" s="76" t="s">
         <v>80</v>
       </c>
@@ -10598,11 +10607,11 @@
       </c>
     </row>
     <row r="81" spans="3:62" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C81" s="116"/>
-      <c r="D81" s="116"/>
-      <c r="E81" s="116"/>
-      <c r="F81" s="116"/>
-      <c r="G81" s="117"/>
+      <c r="C81" s="141"/>
+      <c r="D81" s="141"/>
+      <c r="E81" s="141"/>
+      <c r="F81" s="141"/>
+      <c r="G81" s="142"/>
       <c r="H81" s="76" t="s">
         <v>31</v>
       </c>
@@ -10662,11 +10671,11 @@
       </c>
     </row>
     <row r="82" spans="3:62" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C82" s="116"/>
-      <c r="D82" s="116"/>
-      <c r="E82" s="116"/>
-      <c r="F82" s="116"/>
-      <c r="G82" s="117"/>
+      <c r="C82" s="141"/>
+      <c r="D82" s="141"/>
+      <c r="E82" s="141"/>
+      <c r="F82" s="141"/>
+      <c r="G82" s="142"/>
       <c r="H82" s="76" t="s">
         <v>32</v>
       </c>
@@ -10726,11 +10735,11 @@
       </c>
     </row>
     <row r="83" spans="3:62" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C83" s="116"/>
-      <c r="D83" s="116"/>
-      <c r="E83" s="116"/>
-      <c r="F83" s="116"/>
-      <c r="G83" s="117"/>
+      <c r="C83" s="141"/>
+      <c r="D83" s="141"/>
+      <c r="E83" s="141"/>
+      <c r="F83" s="141"/>
+      <c r="G83" s="142"/>
       <c r="H83" s="75" t="s">
         <v>33</v>
       </c>
@@ -10790,11 +10799,11 @@
       </c>
     </row>
     <row r="84" spans="3:62" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C84" s="116"/>
-      <c r="D84" s="116"/>
-      <c r="E84" s="116"/>
-      <c r="F84" s="116"/>
-      <c r="G84" s="117"/>
+      <c r="C84" s="141"/>
+      <c r="D84" s="141"/>
+      <c r="E84" s="141"/>
+      <c r="F84" s="141"/>
+      <c r="G84" s="142"/>
       <c r="H84" s="76" t="s">
         <v>34</v>
       </c>
@@ -10854,11 +10863,11 @@
       </c>
     </row>
     <row r="85" spans="3:62" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C85" s="116"/>
-      <c r="D85" s="116"/>
-      <c r="E85" s="116"/>
-      <c r="F85" s="116"/>
-      <c r="G85" s="117"/>
+      <c r="C85" s="141"/>
+      <c r="D85" s="141"/>
+      <c r="E85" s="141"/>
+      <c r="F85" s="141"/>
+      <c r="G85" s="142"/>
       <c r="H85" s="76" t="s">
         <v>35</v>
       </c>
@@ -10918,11 +10927,11 @@
       </c>
     </row>
     <row r="86" spans="3:62" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C86" s="116"/>
-      <c r="D86" s="116"/>
-      <c r="E86" s="116"/>
-      <c r="F86" s="116"/>
-      <c r="G86" s="117"/>
+      <c r="C86" s="141"/>
+      <c r="D86" s="141"/>
+      <c r="E86" s="141"/>
+      <c r="F86" s="141"/>
+      <c r="G86" s="142"/>
       <c r="H86" s="75" t="s">
         <v>36</v>
       </c>
@@ -10982,11 +10991,11 @@
       </c>
     </row>
     <row r="87" spans="3:62" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C87" s="116"/>
-      <c r="D87" s="116"/>
-      <c r="E87" s="116"/>
-      <c r="F87" s="116"/>
-      <c r="G87" s="117"/>
+      <c r="C87" s="141"/>
+      <c r="D87" s="141"/>
+      <c r="E87" s="141"/>
+      <c r="F87" s="141"/>
+      <c r="G87" s="142"/>
       <c r="H87" s="76" t="s">
         <v>37</v>
       </c>
@@ -11046,13 +11055,13 @@
       </c>
     </row>
     <row r="88" spans="3:62" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C88" s="118" t="s">
+      <c r="C88" s="143" t="s">
         <v>16</v>
       </c>
-      <c r="D88" s="118"/>
-      <c r="E88" s="118"/>
-      <c r="F88" s="118"/>
-      <c r="G88" s="118"/>
+      <c r="D88" s="143"/>
+      <c r="E88" s="143"/>
+      <c r="F88" s="143"/>
+      <c r="G88" s="143"/>
       <c r="H88" s="61" t="s">
         <v>49</v>
       </c>
@@ -11112,11 +11121,11 @@
       </c>
     </row>
     <row r="89" spans="3:62" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C89" s="116"/>
-      <c r="D89" s="116"/>
-      <c r="E89" s="116"/>
-      <c r="F89" s="116"/>
-      <c r="G89" s="116"/>
+      <c r="C89" s="141"/>
+      <c r="D89" s="141"/>
+      <c r="E89" s="141"/>
+      <c r="F89" s="141"/>
+      <c r="G89" s="141"/>
       <c r="H89" s="61" t="s">
         <v>50</v>
       </c>
@@ -11176,11 +11185,11 @@
       </c>
     </row>
     <row r="90" spans="3:62" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C90" s="116"/>
-      <c r="D90" s="116"/>
-      <c r="E90" s="116"/>
-      <c r="F90" s="116"/>
-      <c r="G90" s="116"/>
+      <c r="C90" s="141"/>
+      <c r="D90" s="141"/>
+      <c r="E90" s="141"/>
+      <c r="F90" s="141"/>
+      <c r="G90" s="141"/>
       <c r="H90" s="61" t="s">
         <v>51</v>
       </c>
@@ -11240,11 +11249,11 @@
       </c>
     </row>
     <row r="91" spans="3:62" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C91" s="116"/>
-      <c r="D91" s="116"/>
-      <c r="E91" s="116"/>
-      <c r="F91" s="116"/>
-      <c r="G91" s="116"/>
+      <c r="C91" s="141"/>
+      <c r="D91" s="141"/>
+      <c r="E91" s="141"/>
+      <c r="F91" s="141"/>
+      <c r="G91" s="141"/>
       <c r="H91" s="61" t="s">
         <v>52</v>
       </c>
@@ -11304,11 +11313,11 @@
       </c>
     </row>
     <row r="92" spans="3:62" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C92" s="116"/>
-      <c r="D92" s="116"/>
-      <c r="E92" s="116"/>
-      <c r="F92" s="116"/>
-      <c r="G92" s="116"/>
+      <c r="C92" s="141"/>
+      <c r="D92" s="141"/>
+      <c r="E92" s="141"/>
+      <c r="F92" s="141"/>
+      <c r="G92" s="141"/>
       <c r="H92" s="103" t="s">
         <v>53</v>
       </c>
@@ -11368,11 +11377,11 @@
       </c>
     </row>
     <row r="93" spans="3:62" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C93" s="116"/>
-      <c r="D93" s="116"/>
-      <c r="E93" s="116"/>
-      <c r="F93" s="116"/>
-      <c r="G93" s="116"/>
+      <c r="C93" s="141"/>
+      <c r="D93" s="141"/>
+      <c r="E93" s="141"/>
+      <c r="F93" s="141"/>
+      <c r="G93" s="141"/>
       <c r="H93" s="61" t="s">
         <v>54</v>
       </c>
@@ -11432,11 +11441,11 @@
       </c>
     </row>
     <row r="94" spans="3:62" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C94" s="116"/>
-      <c r="D94" s="116"/>
-      <c r="E94" s="116"/>
-      <c r="F94" s="116"/>
-      <c r="G94" s="116"/>
+      <c r="C94" s="141"/>
+      <c r="D94" s="141"/>
+      <c r="E94" s="141"/>
+      <c r="F94" s="141"/>
+      <c r="G94" s="141"/>
       <c r="H94" s="61" t="s">
         <v>55</v>
       </c>
@@ -11496,11 +11505,11 @@
       </c>
     </row>
     <row r="95" spans="3:62" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C95" s="116"/>
-      <c r="D95" s="116"/>
-      <c r="E95" s="116"/>
-      <c r="F95" s="116"/>
-      <c r="G95" s="116"/>
+      <c r="C95" s="141"/>
+      <c r="D95" s="141"/>
+      <c r="E95" s="141"/>
+      <c r="F95" s="141"/>
+      <c r="G95" s="141"/>
       <c r="H95" s="61" t="s">
         <v>56</v>
       </c>
@@ -11560,11 +11569,11 @@
       </c>
     </row>
     <row r="96" spans="3:62" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C96" s="116"/>
-      <c r="D96" s="116"/>
-      <c r="E96" s="116"/>
-      <c r="F96" s="116"/>
-      <c r="G96" s="116"/>
+      <c r="C96" s="141"/>
+      <c r="D96" s="141"/>
+      <c r="E96" s="141"/>
+      <c r="F96" s="141"/>
+      <c r="G96" s="141"/>
       <c r="H96" s="61" t="s">
         <v>57</v>
       </c>
@@ -11624,11 +11633,11 @@
       </c>
     </row>
     <row r="97" spans="3:62" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C97" s="116"/>
-      <c r="D97" s="116"/>
-      <c r="E97" s="116"/>
-      <c r="F97" s="116"/>
-      <c r="G97" s="116"/>
+      <c r="C97" s="141"/>
+      <c r="D97" s="141"/>
+      <c r="E97" s="141"/>
+      <c r="F97" s="141"/>
+      <c r="G97" s="141"/>
       <c r="H97" s="61" t="s">
         <v>81</v>
       </c>
@@ -11688,11 +11697,11 @@
       </c>
     </row>
     <row r="98" spans="3:62" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C98" s="119"/>
-      <c r="D98" s="119"/>
-      <c r="E98" s="119"/>
-      <c r="F98" s="119"/>
-      <c r="G98" s="119"/>
+      <c r="C98" s="144"/>
+      <c r="D98" s="144"/>
+      <c r="E98" s="144"/>
+      <c r="F98" s="144"/>
+      <c r="G98" s="144"/>
       <c r="H98" s="61" t="s">
         <v>82</v>
       </c>
@@ -11760,7 +11769,7 @@
       <c r="F99" s="59"/>
       <c r="G99" s="59"/>
       <c r="H99" s="105" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="I99" s="61"/>
       <c r="J99" s="74"/>
@@ -11816,7 +11825,7 @@
     </row>
     <row r="100" spans="3:62" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C100" s="60" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D100" s="60"/>
       <c r="E100" s="60"/>
@@ -11871,7 +11880,7 @@
     </row>
     <row r="101" spans="3:62" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C101" s="76" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D101" s="76"/>
       <c r="E101" s="76"/>
@@ -11993,36 +12002,6 @@
     </row>
   </sheetData>
   <mergeCells count="46">
-    <mergeCell ref="Y65:AA65"/>
-    <mergeCell ref="A66:B66"/>
-    <mergeCell ref="C66:G66"/>
-    <mergeCell ref="P66:R66"/>
-    <mergeCell ref="S66:U66"/>
-    <mergeCell ref="V66:X66"/>
-    <mergeCell ref="A65:B65"/>
-    <mergeCell ref="C65:G65"/>
-    <mergeCell ref="P65:R65"/>
-    <mergeCell ref="S65:U65"/>
-    <mergeCell ref="V65:X65"/>
-    <mergeCell ref="V68:X68"/>
-    <mergeCell ref="Y68:AA68"/>
-    <mergeCell ref="A67:B67"/>
-    <mergeCell ref="C67:G67"/>
-    <mergeCell ref="P67:R67"/>
-    <mergeCell ref="S67:U67"/>
-    <mergeCell ref="V67:X67"/>
-    <mergeCell ref="AD1:AG1"/>
-    <mergeCell ref="AH1:AN1"/>
-    <mergeCell ref="AD2:AG2"/>
-    <mergeCell ref="AH2:AN2"/>
-    <mergeCell ref="A4:B6"/>
-    <mergeCell ref="C4:O4"/>
-    <mergeCell ref="P4:R6"/>
-    <mergeCell ref="Y4:AA6"/>
-    <mergeCell ref="C5:G6"/>
-    <mergeCell ref="S5:U6"/>
-    <mergeCell ref="V5:X6"/>
-    <mergeCell ref="S4:X4"/>
     <mergeCell ref="C70:G87"/>
     <mergeCell ref="C88:G98"/>
     <mergeCell ref="H5:I6"/>
@@ -12039,6 +12018,36 @@
     <mergeCell ref="C68:G68"/>
     <mergeCell ref="P68:R68"/>
     <mergeCell ref="S68:U68"/>
+    <mergeCell ref="AD1:AG1"/>
+    <mergeCell ref="AH1:AN1"/>
+    <mergeCell ref="AD2:AG2"/>
+    <mergeCell ref="AH2:AN2"/>
+    <mergeCell ref="A4:B6"/>
+    <mergeCell ref="C4:O4"/>
+    <mergeCell ref="P4:R6"/>
+    <mergeCell ref="Y4:AA6"/>
+    <mergeCell ref="C5:G6"/>
+    <mergeCell ref="S5:U6"/>
+    <mergeCell ref="V5:X6"/>
+    <mergeCell ref="S4:X4"/>
+    <mergeCell ref="V68:X68"/>
+    <mergeCell ref="Y68:AA68"/>
+    <mergeCell ref="A67:B67"/>
+    <mergeCell ref="C67:G67"/>
+    <mergeCell ref="P67:R67"/>
+    <mergeCell ref="S67:U67"/>
+    <mergeCell ref="V67:X67"/>
+    <mergeCell ref="Y65:AA65"/>
+    <mergeCell ref="A66:B66"/>
+    <mergeCell ref="C66:G66"/>
+    <mergeCell ref="P66:R66"/>
+    <mergeCell ref="S66:U66"/>
+    <mergeCell ref="V66:X66"/>
+    <mergeCell ref="A65:B65"/>
+    <mergeCell ref="C65:G65"/>
+    <mergeCell ref="P65:R65"/>
+    <mergeCell ref="S65:U65"/>
+    <mergeCell ref="V65:X65"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="AD5:AD6">
@@ -12072,7 +12081,7 @@
   <dimension ref="A1:T21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J6" sqref="J6"/>
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
@@ -12087,61 +12096,61 @@
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.3">
       <c r="B1" s="84" t="s">
+        <v>131</v>
+      </c>
+      <c r="C1" s="84" t="s">
         <v>132</v>
       </c>
-      <c r="C1" s="84" t="s">
+      <c r="D1" s="84" t="s">
         <v>133</v>
       </c>
-      <c r="D1" s="84" t="s">
+      <c r="E1" s="84" t="s">
         <v>134</v>
       </c>
-      <c r="E1" s="84" t="s">
+      <c r="F1" s="84" t="s">
         <v>135</v>
       </c>
-      <c r="F1" s="84" t="s">
+      <c r="G1" s="84" t="s">
         <v>136</v>
       </c>
-      <c r="G1" s="84" t="s">
+      <c r="H1" s="85" t="s">
         <v>137</v>
       </c>
-      <c r="H1" s="85" t="s">
+      <c r="I1" s="85" t="s">
         <v>138</v>
       </c>
-      <c r="I1" s="85" t="s">
+      <c r="J1" s="84" t="s">
         <v>139</v>
       </c>
-      <c r="J1" s="84" t="s">
-        <v>140</v>
-      </c>
       <c r="K1" s="84" t="s">
+        <v>133</v>
+      </c>
+      <c r="L1" s="84" t="s">
         <v>134</v>
       </c>
-      <c r="L1" s="84" t="s">
+      <c r="M1" s="84" t="s">
         <v>135</v>
       </c>
-      <c r="M1" s="84" t="s">
+      <c r="N1" s="85" t="s">
         <v>136</v>
       </c>
-      <c r="N1" s="85" t="s">
+      <c r="O1" s="85" t="s">
         <v>137</v>
       </c>
-      <c r="O1" s="85" t="s">
+      <c r="P1" s="84" t="s">
         <v>138</v>
       </c>
-      <c r="P1" s="84" t="s">
+      <c r="Q1" s="84" t="s">
         <v>139</v>
       </c>
-      <c r="Q1" s="84" t="s">
-        <v>140</v>
-      </c>
       <c r="R1" s="84" t="s">
+        <v>133</v>
+      </c>
+      <c r="S1" s="84" t="s">
         <v>134</v>
       </c>
-      <c r="S1" s="84" t="s">
+      <c r="T1" s="84" t="s">
         <v>135</v>
-      </c>
-      <c r="T1" s="84" t="s">
-        <v>136</v>
       </c>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.3">
@@ -12212,23 +12221,23 @@
       <c r="D3" s="88"/>
       <c r="E3" s="88">
         <f>E7/E5</f>
-        <v>0.28428571428571425</v>
+        <v>0.27832167832167831</v>
       </c>
       <c r="F3" s="88">
         <f>F7/F5</f>
-        <v>0.43892857142857145</v>
+        <v>0.42972027972027976</v>
       </c>
       <c r="G3" s="88">
         <f>G7/G5</f>
-        <v>0.43892857142857145</v>
+        <v>0.42972027972027976</v>
       </c>
       <c r="H3" s="88">
         <f t="shared" ref="H3:T3" si="0">H7/H5</f>
-        <v>0.43892857142857145</v>
+        <v>0.42972027972027976</v>
       </c>
       <c r="I3" s="88">
         <f t="shared" si="0"/>
-        <v>0.54142857142857137</v>
+        <v>0.53006993006993008</v>
       </c>
       <c r="J3" s="88">
         <f t="shared" si="0"/>
@@ -12277,7 +12286,7 @@
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A4" s="57" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B4" s="87">
         <v>0.1</v>
@@ -12325,69 +12334,69 @@
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A5" s="57" t="s">
-        <v>142</v>
-      </c>
-      <c r="B5" s="91">
-        <v>280</v>
-      </c>
-      <c r="C5" s="91">
-        <v>280</v>
-      </c>
-      <c r="D5" s="91">
-        <v>280</v>
-      </c>
-      <c r="E5" s="91">
-        <v>280</v>
-      </c>
-      <c r="F5" s="91">
-        <v>280</v>
-      </c>
-      <c r="G5" s="91">
-        <v>280</v>
-      </c>
-      <c r="H5" s="91">
-        <v>280</v>
-      </c>
-      <c r="I5" s="91">
-        <v>280</v>
-      </c>
-      <c r="J5" s="91">
-        <v>280</v>
-      </c>
-      <c r="K5" s="91">
-        <v>280</v>
-      </c>
-      <c r="L5" s="91">
-        <v>280</v>
-      </c>
-      <c r="M5" s="91">
-        <v>280</v>
-      </c>
-      <c r="N5" s="91">
-        <v>280</v>
-      </c>
-      <c r="O5" s="91">
-        <v>280</v>
-      </c>
-      <c r="P5" s="91">
-        <v>280</v>
-      </c>
-      <c r="Q5" s="91">
-        <v>280</v>
-      </c>
-      <c r="R5" s="91">
-        <v>280</v>
-      </c>
-      <c r="S5" s="91">
-        <v>280</v>
-      </c>
-      <c r="T5" s="91">
-        <v>280</v>
+        <v>141</v>
+      </c>
+      <c r="B5" s="57">
+        <v>286</v>
+      </c>
+      <c r="C5" s="57">
+        <v>286</v>
+      </c>
+      <c r="D5" s="57">
+        <v>286</v>
+      </c>
+      <c r="E5" s="57">
+        <v>286</v>
+      </c>
+      <c r="F5" s="57">
+        <v>286</v>
+      </c>
+      <c r="G5" s="57">
+        <v>286</v>
+      </c>
+      <c r="H5" s="57">
+        <v>286</v>
+      </c>
+      <c r="I5" s="57">
+        <v>286</v>
+      </c>
+      <c r="J5" s="57">
+        <v>286</v>
+      </c>
+      <c r="K5" s="57">
+        <v>286</v>
+      </c>
+      <c r="L5" s="57">
+        <v>286</v>
+      </c>
+      <c r="M5" s="57">
+        <v>286</v>
+      </c>
+      <c r="N5" s="57">
+        <v>286</v>
+      </c>
+      <c r="O5" s="57">
+        <v>286</v>
+      </c>
+      <c r="P5" s="57">
+        <v>286</v>
+      </c>
+      <c r="Q5" s="57">
+        <v>286</v>
+      </c>
+      <c r="R5" s="57">
+        <v>286</v>
+      </c>
+      <c r="S5" s="57">
+        <v>286</v>
+      </c>
+      <c r="T5" s="57">
+        <v>286</v>
       </c>
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A6" s="57" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B6" s="91">
         <v>11</v>
@@ -12449,7 +12458,7 @@
     </row>
     <row r="7" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A7" s="57" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B7" s="91"/>
       <c r="C7" s="91"/>
@@ -12551,37 +12560,37 @@
     </row>
     <row r="12" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="13" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="14" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="15" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.3">
@@ -12611,10 +12620,10 @@
   <sheetData>
     <row r="2" spans="4:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D2" s="1"/>
-      <c r="E2" s="120" t="s">
+      <c r="E2" s="145" t="s">
         <v>89</v>
       </c>
-      <c r="F2" s="121"/>
+      <c r="F2" s="146"/>
     </row>
     <row r="3" spans="4:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D3" s="1"/>
@@ -12962,8 +12971,8 @@
       </c>
     </row>
     <row r="38" spans="3:6" ht="16" x14ac:dyDescent="0.3">
-      <c r="C38" s="116"/>
-      <c r="D38" s="116"/>
+      <c r="C38" s="141"/>
+      <c r="D38" s="141"/>
       <c r="E38" s="69" t="s">
         <v>55</v>
       </c>
@@ -12973,8 +12982,8 @@
       </c>
     </row>
     <row r="39" spans="3:6" ht="16" x14ac:dyDescent="0.3">
-      <c r="C39" s="116"/>
-      <c r="D39" s="116"/>
+      <c r="C39" s="141"/>
+      <c r="D39" s="141"/>
       <c r="E39" s="69" t="s">
         <v>56</v>
       </c>
@@ -13581,7 +13590,7 @@
       <c r="C94" s="68"/>
       <c r="D94" s="68"/>
       <c r="E94" s="105" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="F94" s="69">
         <f>工数予実管理表!AB99*工数予実管理表!AC99</f>
@@ -13628,6 +13637,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x010100364AEC801DCCFF4C9A7CD82776573E34" ma:contentTypeVersion="0" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="9a90bd606c73e53fbdca164192b510d5">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="86e6f6c817e23f4348afe6a544d017da">
     <xsd:element name="properties">
@@ -13741,32 +13765,10 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E8C7E73E-37A8-4119-AD2E-81AFBFD39544}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{658D790C-F48A-4541-BBAC-37C510A1270D}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
@@ -13781,9 +13783,16 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{658D790C-F48A-4541-BBAC-37C510A1270D}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E8C7E73E-37A8-4119-AD2E-81AFBFD39544}">
   <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>

--- a/doc/D4_ドキュメント/予実管理表(最新版)_D4.xlsx
+++ b/doc/D4_ドキュメント/予実管理表(最新版)_D4.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{223752E9-8035-4922-ADF3-B9F589E4D326}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EFC968F2-D077-49E9-AD36-F884605D414B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="529" uniqueCount="155">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="551" uniqueCount="155">
   <si>
     <t>プロジェクト名</t>
     <rPh sb="6" eb="7">
@@ -1149,7 +1149,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="39">
+  <borders count="38">
     <border>
       <left/>
       <right/>
@@ -1464,19 +1464,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right style="thin">
-        <color theme="0" tint="-0.499984740745262"/>
-      </right>
-      <top style="thin">
-        <color theme="0" tint="-0.499984740745262"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color indexed="64"/>
       </left>
@@ -1638,7 +1625,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="168">
+  <cellXfs count="165">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1783,203 +1770,266 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="22" xfId="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="178" fontId="2" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="2" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="22" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="11" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="180" fontId="11" fillId="0" borderId="22" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="11" fillId="2" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1">
+    <xf numFmtId="178" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="2" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1">
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="12" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="22" xfId="1" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="0" fillId="17" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="17" borderId="22" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="178" fontId="2" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="2" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="22" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="11" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="11" fillId="0" borderId="22" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="11" fillId="2" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="2" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="12" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="17" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="17" borderId="22" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1990,158 +2040,86 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="178" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="178" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2377,22 +2355,22 @@
                 <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="12"/>
                 <c:pt idx="3" formatCode="0.0%">
-                  <c:v>0.27832167832167831</c:v>
+                  <c:v>0.28428571428571425</c:v>
                 </c:pt>
                 <c:pt idx="4" formatCode="0.0%">
-                  <c:v>0.42972027972027976</c:v>
+                  <c:v>0.43892857142857145</c:v>
                 </c:pt>
                 <c:pt idx="5" formatCode="0.0%">
-                  <c:v>0.42972027972027976</c:v>
+                  <c:v>0.43892857142857145</c:v>
                 </c:pt>
                 <c:pt idx="6" formatCode="0.0%">
-                  <c:v>0.42972027972027976</c:v>
+                  <c:v>0.43892857142857145</c:v>
                 </c:pt>
                 <c:pt idx="7" formatCode="0.0%">
-                  <c:v>0.53006993006993008</c:v>
+                  <c:v>0.54142857142857137</c:v>
                 </c:pt>
                 <c:pt idx="8" formatCode="0.0%">
-                  <c:v>0</c:v>
+                  <c:v>0.62</c:v>
                 </c:pt>
                 <c:pt idx="9" formatCode="0.0%">
                   <c:v>0</c:v>
@@ -3603,8 +3581,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA4A6EF2-62B9-43FE-BFFD-0A328B128D1B}">
   <dimension ref="A1:BL111"/>
   <sheetViews>
-    <sheetView topLeftCell="E91" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AB102" sqref="AB102"/>
+    <sheetView topLeftCell="E65" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="P82" sqref="P82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
@@ -3631,61 +3609,61 @@
     <col min="25" max="25" width="8.58203125" customWidth="1"/>
     <col min="26" max="26" width="0.83203125" hidden="1" customWidth="1"/>
     <col min="27" max="27" width="8.6640625" hidden="1" customWidth="1"/>
-    <col min="28" max="28" width="6" customWidth="1"/>
+    <col min="28" max="28" width="8.25" bestFit="1" customWidth="1"/>
     <col min="29" max="29" width="6.9140625" bestFit="1" customWidth="1"/>
     <col min="30" max="38" width="2.83203125" bestFit="1" customWidth="1"/>
     <col min="39" max="59" width="3" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:64" ht="16" x14ac:dyDescent="0.3">
-      <c r="A1" s="149" t="s">
+      <c r="A1" s="124" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="150"/>
-      <c r="C1" s="150"/>
-      <c r="D1" s="150"/>
-      <c r="E1" s="150"/>
-      <c r="F1" s="150"/>
-      <c r="G1" s="150"/>
-      <c r="H1" s="153" t="s">
+      <c r="B1" s="125"/>
+      <c r="C1" s="125"/>
+      <c r="D1" s="125"/>
+      <c r="E1" s="125"/>
+      <c r="F1" s="125"/>
+      <c r="G1" s="125"/>
+      <c r="H1" s="128" t="s">
         <v>1</v>
       </c>
-      <c r="I1" s="154"/>
-      <c r="J1" s="154"/>
-      <c r="K1" s="154"/>
-      <c r="L1" s="154"/>
-      <c r="M1" s="154"/>
-      <c r="N1" s="154"/>
-      <c r="O1" s="154"/>
-      <c r="P1" s="154"/>
-      <c r="Q1" s="154"/>
-      <c r="R1" s="154"/>
-      <c r="S1" s="154"/>
-      <c r="T1" s="154"/>
-      <c r="U1" s="154"/>
-      <c r="V1" s="154"/>
-      <c r="W1" s="154"/>
-      <c r="X1" s="154"/>
-      <c r="Y1" s="154"/>
-      <c r="Z1" s="154"/>
-      <c r="AA1" s="154"/>
-      <c r="AB1" s="154"/>
-      <c r="AC1" s="155"/>
-      <c r="AD1" s="123" t="s">
+      <c r="I1" s="129"/>
+      <c r="J1" s="129"/>
+      <c r="K1" s="129"/>
+      <c r="L1" s="129"/>
+      <c r="M1" s="129"/>
+      <c r="N1" s="129"/>
+      <c r="O1" s="129"/>
+      <c r="P1" s="129"/>
+      <c r="Q1" s="129"/>
+      <c r="R1" s="129"/>
+      <c r="S1" s="129"/>
+      <c r="T1" s="129"/>
+      <c r="U1" s="129"/>
+      <c r="V1" s="129"/>
+      <c r="W1" s="129"/>
+      <c r="X1" s="129"/>
+      <c r="Y1" s="129"/>
+      <c r="Z1" s="129"/>
+      <c r="AA1" s="129"/>
+      <c r="AB1" s="129"/>
+      <c r="AC1" s="130"/>
+      <c r="AD1" s="143" t="s">
         <v>2</v>
       </c>
-      <c r="AE1" s="124"/>
-      <c r="AF1" s="124"/>
-      <c r="AG1" s="125"/>
-      <c r="AH1" s="126">
+      <c r="AE1" s="144"/>
+      <c r="AF1" s="144"/>
+      <c r="AG1" s="145"/>
+      <c r="AH1" s="146">
         <v>45078</v>
       </c>
-      <c r="AI1" s="127"/>
-      <c r="AJ1" s="127"/>
-      <c r="AK1" s="127"/>
-      <c r="AL1" s="127"/>
-      <c r="AM1" s="127"/>
-      <c r="AN1" s="128"/>
+      <c r="AI1" s="147"/>
+      <c r="AJ1" s="147"/>
+      <c r="AK1" s="147"/>
+      <c r="AL1" s="147"/>
+      <c r="AM1" s="147"/>
+      <c r="AN1" s="148"/>
       <c r="AO1" s="1"/>
       <c r="AP1" s="1"/>
       <c r="AQ1" s="1"/>
@@ -3707,50 +3685,50 @@
       <c r="BG1" s="1"/>
     </row>
     <row r="2" spans="1:64" ht="16" x14ac:dyDescent="0.3">
-      <c r="A2" s="151"/>
-      <c r="B2" s="152"/>
-      <c r="C2" s="152"/>
-      <c r="D2" s="152"/>
-      <c r="E2" s="152"/>
-      <c r="F2" s="152"/>
-      <c r="G2" s="152"/>
-      <c r="H2" s="156"/>
-      <c r="I2" s="157"/>
-      <c r="J2" s="157"/>
-      <c r="K2" s="157"/>
-      <c r="L2" s="157"/>
-      <c r="M2" s="157"/>
-      <c r="N2" s="157"/>
-      <c r="O2" s="157"/>
-      <c r="P2" s="157"/>
-      <c r="Q2" s="157"/>
-      <c r="R2" s="157"/>
-      <c r="S2" s="157"/>
-      <c r="T2" s="157"/>
-      <c r="U2" s="157"/>
-      <c r="V2" s="157"/>
-      <c r="W2" s="157"/>
-      <c r="X2" s="157"/>
-      <c r="Y2" s="157"/>
-      <c r="Z2" s="157"/>
-      <c r="AA2" s="157"/>
-      <c r="AB2" s="157"/>
-      <c r="AC2" s="158"/>
-      <c r="AD2" s="123" t="s">
+      <c r="A2" s="126"/>
+      <c r="B2" s="127"/>
+      <c r="C2" s="127"/>
+      <c r="D2" s="127"/>
+      <c r="E2" s="127"/>
+      <c r="F2" s="127"/>
+      <c r="G2" s="127"/>
+      <c r="H2" s="131"/>
+      <c r="I2" s="132"/>
+      <c r="J2" s="132"/>
+      <c r="K2" s="132"/>
+      <c r="L2" s="132"/>
+      <c r="M2" s="132"/>
+      <c r="N2" s="132"/>
+      <c r="O2" s="132"/>
+      <c r="P2" s="132"/>
+      <c r="Q2" s="132"/>
+      <c r="R2" s="132"/>
+      <c r="S2" s="132"/>
+      <c r="T2" s="132"/>
+      <c r="U2" s="132"/>
+      <c r="V2" s="132"/>
+      <c r="W2" s="132"/>
+      <c r="X2" s="132"/>
+      <c r="Y2" s="132"/>
+      <c r="Z2" s="132"/>
+      <c r="AA2" s="132"/>
+      <c r="AB2" s="132"/>
+      <c r="AC2" s="133"/>
+      <c r="AD2" s="143" t="s">
         <v>3</v>
       </c>
-      <c r="AE2" s="124"/>
-      <c r="AF2" s="124"/>
-      <c r="AG2" s="125"/>
-      <c r="AH2" s="126">
+      <c r="AE2" s="144"/>
+      <c r="AF2" s="144"/>
+      <c r="AG2" s="145"/>
+      <c r="AH2" s="146">
         <v>45107</v>
       </c>
-      <c r="AI2" s="127"/>
-      <c r="AJ2" s="127"/>
-      <c r="AK2" s="127"/>
-      <c r="AL2" s="127"/>
-      <c r="AM2" s="127"/>
-      <c r="AN2" s="128"/>
+      <c r="AI2" s="147"/>
+      <c r="AJ2" s="147"/>
+      <c r="AK2" s="147"/>
+      <c r="AL2" s="147"/>
+      <c r="AM2" s="147"/>
+      <c r="AN2" s="148"/>
       <c r="AO2" s="1"/>
       <c r="AP2" s="1"/>
       <c r="AQ2" s="1"/>
@@ -3833,43 +3811,43 @@
       <c r="BG3" s="1"/>
     </row>
     <row r="4" spans="1:64" ht="16" x14ac:dyDescent="0.3">
-      <c r="A4" s="129" t="s">
+      <c r="A4" s="149" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="130"/>
-      <c r="C4" s="133" t="s">
+      <c r="B4" s="150"/>
+      <c r="C4" s="153" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="133"/>
-      <c r="E4" s="133"/>
-      <c r="F4" s="133"/>
-      <c r="G4" s="133"/>
-      <c r="H4" s="133"/>
-      <c r="I4" s="133"/>
-      <c r="J4" s="133"/>
-      <c r="K4" s="133"/>
-      <c r="L4" s="133"/>
-      <c r="M4" s="133"/>
-      <c r="N4" s="133"/>
-      <c r="O4" s="133"/>
-      <c r="P4" s="130" t="s">
+      <c r="D4" s="153"/>
+      <c r="E4" s="153"/>
+      <c r="F4" s="153"/>
+      <c r="G4" s="153"/>
+      <c r="H4" s="153"/>
+      <c r="I4" s="153"/>
+      <c r="J4" s="153"/>
+      <c r="K4" s="153"/>
+      <c r="L4" s="153"/>
+      <c r="M4" s="153"/>
+      <c r="N4" s="153"/>
+      <c r="O4" s="153"/>
+      <c r="P4" s="150" t="s">
         <v>6</v>
       </c>
-      <c r="Q4" s="130"/>
-      <c r="R4" s="130"/>
-      <c r="S4" s="130" t="s">
+      <c r="Q4" s="150"/>
+      <c r="R4" s="150"/>
+      <c r="S4" s="150" t="s">
         <v>7</v>
       </c>
-      <c r="T4" s="130"/>
-      <c r="U4" s="130"/>
-      <c r="V4" s="130"/>
-      <c r="W4" s="130"/>
-      <c r="X4" s="138"/>
-      <c r="Y4" s="134" t="s">
+      <c r="T4" s="150"/>
+      <c r="U4" s="150"/>
+      <c r="V4" s="150"/>
+      <c r="W4" s="150"/>
+      <c r="X4" s="158"/>
+      <c r="Y4" s="154" t="s">
         <v>8</v>
       </c>
-      <c r="Z4" s="134"/>
-      <c r="AA4" s="135"/>
+      <c r="Z4" s="154"/>
+      <c r="AA4" s="155"/>
       <c r="AB4" s="49"/>
       <c r="AC4" s="49"/>
       <c r="AD4" s="5">
@@ -3994,43 +3972,43 @@
       </c>
     </row>
     <row r="5" spans="1:64" ht="16" x14ac:dyDescent="0.3">
-      <c r="A5" s="131"/>
-      <c r="B5" s="132"/>
-      <c r="C5" s="132" t="s">
+      <c r="A5" s="151"/>
+      <c r="B5" s="152"/>
+      <c r="C5" s="152" t="s">
         <v>9</v>
       </c>
-      <c r="D5" s="132"/>
-      <c r="E5" s="132"/>
-      <c r="F5" s="132"/>
-      <c r="G5" s="132"/>
-      <c r="H5" s="145" t="s">
+      <c r="D5" s="152"/>
+      <c r="E5" s="152"/>
+      <c r="F5" s="152"/>
+      <c r="G5" s="152"/>
+      <c r="H5" s="120" t="s">
         <v>115</v>
       </c>
-      <c r="I5" s="146"/>
-      <c r="J5" s="145" t="s">
+      <c r="I5" s="121"/>
+      <c r="J5" s="120" t="s">
         <v>89</v>
       </c>
-      <c r="K5" s="146"/>
+      <c r="K5" s="121"/>
       <c r="L5" s="53"/>
       <c r="M5" s="53"/>
       <c r="N5" s="53"/>
       <c r="O5" s="53"/>
-      <c r="P5" s="132"/>
-      <c r="Q5" s="132"/>
-      <c r="R5" s="132"/>
-      <c r="S5" s="132" t="s">
+      <c r="P5" s="152"/>
+      <c r="Q5" s="152"/>
+      <c r="R5" s="152"/>
+      <c r="S5" s="152" t="s">
         <v>2</v>
       </c>
-      <c r="T5" s="132"/>
-      <c r="U5" s="132"/>
-      <c r="V5" s="132" t="s">
+      <c r="T5" s="152"/>
+      <c r="U5" s="152"/>
+      <c r="V5" s="152" t="s">
         <v>3</v>
       </c>
-      <c r="W5" s="132"/>
-      <c r="X5" s="123"/>
-      <c r="Y5" s="136"/>
-      <c r="Z5" s="136"/>
-      <c r="AA5" s="137"/>
+      <c r="W5" s="152"/>
+      <c r="X5" s="143"/>
+      <c r="Y5" s="156"/>
+      <c r="Z5" s="156"/>
+      <c r="AA5" s="157"/>
       <c r="AB5" s="45" t="s">
         <v>87</v>
       </c>
@@ -4165,33 +4143,33 @@
       </c>
     </row>
     <row r="6" spans="1:64" ht="16" x14ac:dyDescent="0.3">
-      <c r="A6" s="131"/>
-      <c r="B6" s="132"/>
-      <c r="C6" s="132"/>
-      <c r="D6" s="132"/>
-      <c r="E6" s="132"/>
-      <c r="F6" s="132"/>
-      <c r="G6" s="132"/>
-      <c r="H6" s="147"/>
-      <c r="I6" s="148"/>
-      <c r="J6" s="147"/>
-      <c r="K6" s="148"/>
+      <c r="A6" s="151"/>
+      <c r="B6" s="152"/>
+      <c r="C6" s="152"/>
+      <c r="D6" s="152"/>
+      <c r="E6" s="152"/>
+      <c r="F6" s="152"/>
+      <c r="G6" s="152"/>
+      <c r="H6" s="122"/>
+      <c r="I6" s="123"/>
+      <c r="J6" s="122"/>
+      <c r="K6" s="123"/>
       <c r="L6" s="53"/>
       <c r="M6" s="53"/>
       <c r="N6" s="53"/>
       <c r="O6" s="53"/>
-      <c r="P6" s="132"/>
-      <c r="Q6" s="132"/>
-      <c r="R6" s="132"/>
-      <c r="S6" s="132"/>
-      <c r="T6" s="132"/>
-      <c r="U6" s="132"/>
-      <c r="V6" s="132"/>
-      <c r="W6" s="132"/>
-      <c r="X6" s="123"/>
-      <c r="Y6" s="136"/>
-      <c r="Z6" s="136"/>
-      <c r="AA6" s="137"/>
+      <c r="P6" s="152"/>
+      <c r="Q6" s="152"/>
+      <c r="R6" s="152"/>
+      <c r="S6" s="152"/>
+      <c r="T6" s="152"/>
+      <c r="U6" s="152"/>
+      <c r="V6" s="152"/>
+      <c r="W6" s="152"/>
+      <c r="X6" s="143"/>
+      <c r="Y6" s="156"/>
+      <c r="Z6" s="156"/>
+      <c r="AA6" s="157"/>
       <c r="AB6" s="45"/>
       <c r="AC6" s="45"/>
       <c r="AD6" s="11" t="str">
@@ -4314,10 +4292,10 @@
         <f t="shared" si="3"/>
         <v>金</v>
       </c>
-      <c r="BI6" s="110" t="s">
+      <c r="BI6" s="108" t="s">
         <v>116</v>
       </c>
-      <c r="BJ6" s="111">
+      <c r="BJ6" s="109">
         <v>1</v>
       </c>
       <c r="BL6" t="s">
@@ -4389,7 +4367,7 @@
       <c r="BI7" s="80" t="s">
         <v>117</v>
       </c>
-      <c r="BJ7" s="112">
+      <c r="BJ7" s="110">
         <v>0</v>
       </c>
       <c r="BL7" s="56">
@@ -4458,10 +4436,10 @@
       <c r="BE8" s="2"/>
       <c r="BF8" s="2"/>
       <c r="BG8" s="9"/>
-      <c r="BI8" s="112">
+      <c r="BI8" s="110">
         <v>0.01</v>
       </c>
-      <c r="BJ8" s="112">
+      <c r="BJ8" s="110">
         <v>0.01</v>
       </c>
       <c r="BL8" s="54">
@@ -4511,7 +4489,7 @@
       <c r="AB9" s="45">
         <v>1</v>
       </c>
-      <c r="AC9" s="109">
+      <c r="AC9" s="107">
         <f>VLOOKUP(Y9,$BI$6:$BJ$107,2,FALSE)</f>
         <v>1</v>
       </c>
@@ -4545,10 +4523,10 @@
       <c r="BE9" s="2"/>
       <c r="BF9" s="2"/>
       <c r="BG9" s="9"/>
-      <c r="BI9" s="112">
+      <c r="BI9" s="110">
         <v>0.02</v>
       </c>
-      <c r="BJ9" s="112">
+      <c r="BJ9" s="110">
         <v>0.02</v>
       </c>
     </row>
@@ -4595,8 +4573,8 @@
       <c r="AB10" s="45">
         <v>1</v>
       </c>
-      <c r="AC10" s="109">
-        <f t="shared" ref="AC10:AC69" si="4">VLOOKUP(Y10,$BI$6:$BJ$107,2,FALSE)</f>
+      <c r="AC10" s="107">
+        <f t="shared" ref="AC10:AC73" si="4">VLOOKUP(Y10,$BI$6:$BJ$107,2,FALSE)</f>
         <v>1</v>
       </c>
       <c r="AD10" s="44"/>
@@ -4629,10 +4607,10 @@
       <c r="BE10" s="2"/>
       <c r="BF10" s="2"/>
       <c r="BG10" s="9"/>
-      <c r="BI10" s="112">
+      <c r="BI10" s="110">
         <v>0.03</v>
       </c>
-      <c r="BJ10" s="112">
+      <c r="BJ10" s="110">
         <v>0.03</v>
       </c>
     </row>
@@ -4679,7 +4657,7 @@
       <c r="AB11" s="45">
         <v>1</v>
       </c>
-      <c r="AC11" s="109">
+      <c r="AC11" s="107">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
@@ -4713,10 +4691,10 @@
       <c r="BE11" s="2"/>
       <c r="BF11" s="2"/>
       <c r="BG11" s="9"/>
-      <c r="BI11" s="112">
+      <c r="BI11" s="110">
         <v>0.04</v>
       </c>
-      <c r="BJ11" s="112">
+      <c r="BJ11" s="110">
         <v>0.04</v>
       </c>
     </row>
@@ -4763,7 +4741,7 @@
       <c r="AB12" s="45">
         <v>2</v>
       </c>
-      <c r="AC12" s="109">
+      <c r="AC12" s="107">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
@@ -4797,10 +4775,10 @@
       <c r="BE12" s="2"/>
       <c r="BF12" s="2"/>
       <c r="BG12" s="9"/>
-      <c r="BI12" s="112">
+      <c r="BI12" s="110">
         <v>0.05</v>
       </c>
-      <c r="BJ12" s="112">
+      <c r="BJ12" s="110">
         <v>0.05</v>
       </c>
     </row>
@@ -4847,7 +4825,7 @@
       <c r="AB13" s="45">
         <v>2</v>
       </c>
-      <c r="AC13" s="109">
+      <c r="AC13" s="107">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
@@ -4881,10 +4859,10 @@
       <c r="BE13" s="2"/>
       <c r="BF13" s="2"/>
       <c r="BG13" s="9"/>
-      <c r="BI13" s="112">
+      <c r="BI13" s="110">
         <v>0.06</v>
       </c>
-      <c r="BJ13" s="112">
+      <c r="BJ13" s="110">
         <v>0.06</v>
       </c>
     </row>
@@ -4931,7 +4909,7 @@
       <c r="AB14" s="45">
         <v>2</v>
       </c>
-      <c r="AC14" s="109">
+      <c r="AC14" s="107">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
@@ -4965,10 +4943,10 @@
       <c r="BE14" s="2"/>
       <c r="BF14" s="2"/>
       <c r="BG14" s="9"/>
-      <c r="BI14" s="112">
+      <c r="BI14" s="110">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="BJ14" s="112">
+      <c r="BJ14" s="110">
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
@@ -5015,7 +4993,7 @@
       <c r="AB15" s="45">
         <v>2</v>
       </c>
-      <c r="AC15" s="109">
+      <c r="AC15" s="107">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
@@ -5049,10 +5027,10 @@
       <c r="BE15" s="2"/>
       <c r="BF15" s="2"/>
       <c r="BG15" s="9"/>
-      <c r="BI15" s="112">
+      <c r="BI15" s="110">
         <v>0.08</v>
       </c>
-      <c r="BJ15" s="112">
+      <c r="BJ15" s="110">
         <v>0.08</v>
       </c>
     </row>
@@ -5099,7 +5077,7 @@
       <c r="AB16" s="45">
         <v>2</v>
       </c>
-      <c r="AC16" s="109">
+      <c r="AC16" s="107">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
@@ -5133,10 +5111,10 @@
       <c r="BE16" s="2"/>
       <c r="BF16" s="2"/>
       <c r="BG16" s="9"/>
-      <c r="BI16" s="112">
+      <c r="BI16" s="110">
         <v>0.09</v>
       </c>
-      <c r="BJ16" s="112">
+      <c r="BJ16" s="110">
         <v>0.09</v>
       </c>
     </row>
@@ -5183,7 +5161,7 @@
       <c r="AB17" s="45">
         <v>1</v>
       </c>
-      <c r="AC17" s="109">
+      <c r="AC17" s="107">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
@@ -5217,10 +5195,10 @@
       <c r="BE17" s="2"/>
       <c r="BF17" s="2"/>
       <c r="BG17" s="9"/>
-      <c r="BI17" s="112">
+      <c r="BI17" s="110">
         <v>0.1</v>
       </c>
-      <c r="BJ17" s="112">
+      <c r="BJ17" s="110">
         <v>0.1</v>
       </c>
     </row>
@@ -5269,7 +5247,7 @@
       <c r="AB18" s="45">
         <v>2</v>
       </c>
-      <c r="AC18" s="109">
+      <c r="AC18" s="107">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
@@ -5303,10 +5281,10 @@
       <c r="BE18" s="2"/>
       <c r="BF18" s="2"/>
       <c r="BG18" s="9"/>
-      <c r="BI18" s="112">
+      <c r="BI18" s="110">
         <v>0.11</v>
       </c>
-      <c r="BJ18" s="112">
+      <c r="BJ18" s="110">
         <v>0.11</v>
       </c>
     </row>
@@ -5355,7 +5333,7 @@
       <c r="AB19" s="45">
         <v>1</v>
       </c>
-      <c r="AC19" s="109">
+      <c r="AC19" s="107">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
@@ -5389,10 +5367,10 @@
       <c r="BE19" s="2"/>
       <c r="BF19" s="2"/>
       <c r="BG19" s="9"/>
-      <c r="BI19" s="112">
+      <c r="BI19" s="110">
         <v>0.12</v>
       </c>
-      <c r="BJ19" s="112">
+      <c r="BJ19" s="110">
         <v>0.12</v>
       </c>
     </row>
@@ -5439,7 +5417,7 @@
       <c r="AB20" s="45">
         <v>1</v>
       </c>
-      <c r="AC20" s="109">
+      <c r="AC20" s="107">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
@@ -5473,10 +5451,10 @@
       <c r="BE20" s="2"/>
       <c r="BF20" s="2"/>
       <c r="BG20" s="9"/>
-      <c r="BI20" s="112">
+      <c r="BI20" s="110">
         <v>0.13</v>
       </c>
-      <c r="BJ20" s="112">
+      <c r="BJ20" s="110">
         <v>0.13</v>
       </c>
     </row>
@@ -5523,7 +5501,7 @@
       <c r="AB21" s="45">
         <v>1</v>
       </c>
-      <c r="AC21" s="109">
+      <c r="AC21" s="107">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
@@ -5557,10 +5535,10 @@
       <c r="BE21" s="2"/>
       <c r="BF21" s="2"/>
       <c r="BG21" s="9"/>
-      <c r="BI21" s="112">
+      <c r="BI21" s="110">
         <v>0.14000000000000001</v>
       </c>
-      <c r="BJ21" s="112">
+      <c r="BJ21" s="110">
         <v>0.14000000000000001</v>
       </c>
     </row>
@@ -5607,7 +5585,7 @@
       <c r="AB22" s="45">
         <v>1</v>
       </c>
-      <c r="AC22" s="109">
+      <c r="AC22" s="107">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
@@ -5641,10 +5619,10 @@
       <c r="BE22" s="2"/>
       <c r="BF22" s="2"/>
       <c r="BG22" s="9"/>
-      <c r="BI22" s="112">
+      <c r="BI22" s="110">
         <v>0.15</v>
       </c>
-      <c r="BJ22" s="112">
+      <c r="BJ22" s="110">
         <v>0.15</v>
       </c>
     </row>
@@ -5691,7 +5669,7 @@
       <c r="AB23" s="45">
         <v>1</v>
       </c>
-      <c r="AC23" s="109">
+      <c r="AC23" s="107">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
@@ -5725,10 +5703,10 @@
       <c r="BE23" s="2"/>
       <c r="BF23" s="2"/>
       <c r="BG23" s="9"/>
-      <c r="BI23" s="112">
+      <c r="BI23" s="110">
         <v>0.16</v>
       </c>
-      <c r="BJ23" s="112">
+      <c r="BJ23" s="110">
         <v>0.16</v>
       </c>
     </row>
@@ -5768,16 +5746,16 @@
       <c r="W24" s="21"/>
       <c r="X24" s="21"/>
       <c r="Y24" s="25">
-        <v>0.5</v>
+        <v>0.9</v>
       </c>
       <c r="Z24" s="4"/>
       <c r="AA24" s="43"/>
       <c r="AB24" s="45">
         <v>1</v>
       </c>
-      <c r="AC24" s="109">
+      <c r="AC24" s="107">
         <f t="shared" si="4"/>
-        <v>0.5</v>
+        <v>0.9</v>
       </c>
       <c r="AD24" s="44"/>
       <c r="AE24" s="2"/>
@@ -5809,10 +5787,10 @@
       <c r="BE24" s="2"/>
       <c r="BF24" s="2"/>
       <c r="BG24" s="9"/>
-      <c r="BI24" s="112">
+      <c r="BI24" s="110">
         <v>0.17</v>
       </c>
-      <c r="BJ24" s="112">
+      <c r="BJ24" s="110">
         <v>0.17</v>
       </c>
     </row>
@@ -5859,7 +5837,7 @@
       <c r="AB25" s="45">
         <v>1</v>
       </c>
-      <c r="AC25" s="109">
+      <c r="AC25" s="107">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
@@ -5893,10 +5871,10 @@
       <c r="BE25" s="2"/>
       <c r="BF25" s="2"/>
       <c r="BG25" s="9"/>
-      <c r="BI25" s="112">
+      <c r="BI25" s="110">
         <v>0.18</v>
       </c>
-      <c r="BJ25" s="112">
+      <c r="BJ25" s="110">
         <v>0.18</v>
       </c>
     </row>
@@ -5943,7 +5921,7 @@
       <c r="AB26" s="45">
         <v>1</v>
       </c>
-      <c r="AC26" s="109">
+      <c r="AC26" s="107">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
@@ -5977,10 +5955,10 @@
       <c r="BE26" s="2"/>
       <c r="BF26" s="2"/>
       <c r="BG26" s="9"/>
-      <c r="BI26" s="112">
+      <c r="BI26" s="110">
         <v>0.19</v>
       </c>
-      <c r="BJ26" s="112">
+      <c r="BJ26" s="110">
         <v>0.19</v>
       </c>
     </row>
@@ -5992,11 +5970,11 @@
       <c r="E27" s="19"/>
       <c r="F27" s="19"/>
       <c r="G27" s="19"/>
-      <c r="H27" s="165" t="s">
+      <c r="H27" s="19" t="s">
         <v>105</v>
       </c>
-      <c r="I27" s="165"/>
-      <c r="J27" s="165" t="s">
+      <c r="I27" s="19"/>
+      <c r="J27" s="19" t="s">
         <v>38</v>
       </c>
       <c r="K27" s="19"/>
@@ -6027,7 +6005,7 @@
       <c r="AB27" s="45">
         <v>1</v>
       </c>
-      <c r="AC27" s="109">
+      <c r="AC27" s="107">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
@@ -6061,10 +6039,10 @@
       <c r="BE27" s="2"/>
       <c r="BF27" s="2"/>
       <c r="BG27" s="9"/>
-      <c r="BI27" s="112">
+      <c r="BI27" s="110">
         <v>0.2</v>
       </c>
-      <c r="BJ27" s="112">
+      <c r="BJ27" s="110">
         <v>0.2</v>
       </c>
     </row>
@@ -6076,11 +6054,11 @@
       <c r="E28" s="19"/>
       <c r="F28" s="19"/>
       <c r="G28" s="19"/>
-      <c r="H28" s="165" t="s">
+      <c r="H28" s="19" t="s">
         <v>99</v>
       </c>
-      <c r="I28" s="165"/>
-      <c r="J28" s="165" t="s">
+      <c r="I28" s="19"/>
+      <c r="J28" s="19" t="s">
         <v>39</v>
       </c>
       <c r="K28" s="19"/>
@@ -6111,7 +6089,7 @@
       <c r="AB28" s="47">
         <v>1</v>
       </c>
-      <c r="AC28" s="109">
+      <c r="AC28" s="107">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
@@ -6145,10 +6123,10 @@
       <c r="BE28" s="2"/>
       <c r="BF28" s="2"/>
       <c r="BG28" s="9"/>
-      <c r="BI28" s="112">
+      <c r="BI28" s="110">
         <v>0.21</v>
       </c>
-      <c r="BJ28" s="112">
+      <c r="BJ28" s="110">
         <v>0.21</v>
       </c>
     </row>
@@ -6160,11 +6138,11 @@
       <c r="E29" s="19"/>
       <c r="F29" s="19"/>
       <c r="G29" s="19"/>
-      <c r="H29" s="165" t="s">
+      <c r="H29" s="19" t="s">
         <v>100</v>
       </c>
-      <c r="I29" s="165"/>
-      <c r="J29" s="165" t="s">
+      <c r="I29" s="19"/>
+      <c r="J29" s="19" t="s">
         <v>40</v>
       </c>
       <c r="K29" s="19"/>
@@ -6195,7 +6173,7 @@
       <c r="AB29" s="47">
         <v>1</v>
       </c>
-      <c r="AC29" s="109">
+      <c r="AC29" s="107">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
@@ -6229,10 +6207,10 @@
       <c r="BE29" s="2"/>
       <c r="BF29" s="2"/>
       <c r="BG29" s="9"/>
-      <c r="BI29" s="112">
+      <c r="BI29" s="110">
         <v>0.22</v>
       </c>
-      <c r="BJ29" s="112">
+      <c r="BJ29" s="110">
         <v>0.22</v>
       </c>
     </row>
@@ -6244,11 +6222,11 @@
       <c r="E30" s="19"/>
       <c r="F30" s="19"/>
       <c r="G30" s="19"/>
-      <c r="H30" s="165" t="s">
+      <c r="H30" s="19" t="s">
         <v>101</v>
       </c>
-      <c r="I30" s="165"/>
-      <c r="J30" s="165" t="s">
+      <c r="I30" s="19"/>
+      <c r="J30" s="19" t="s">
         <v>41</v>
       </c>
       <c r="K30" s="19"/>
@@ -6279,7 +6257,7 @@
       <c r="AB30" s="47">
         <v>1</v>
       </c>
-      <c r="AC30" s="109">
+      <c r="AC30" s="107">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
@@ -6313,10 +6291,10 @@
       <c r="BE30" s="2"/>
       <c r="BF30" s="2"/>
       <c r="BG30" s="9"/>
-      <c r="BI30" s="112">
+      <c r="BI30" s="110">
         <v>0.23</v>
       </c>
-      <c r="BJ30" s="112">
+      <c r="BJ30" s="110">
         <v>0.23</v>
       </c>
     </row>
@@ -6328,11 +6306,11 @@
       <c r="E31" s="19"/>
       <c r="F31" s="19"/>
       <c r="G31" s="19"/>
-      <c r="H31" s="165" t="s">
+      <c r="H31" s="19" t="s">
         <v>96</v>
       </c>
-      <c r="I31" s="165"/>
-      <c r="J31" s="165" t="s">
+      <c r="I31" s="19"/>
+      <c r="J31" s="19" t="s">
         <v>42</v>
       </c>
       <c r="K31" s="19"/>
@@ -6363,7 +6341,7 @@
       <c r="AB31" s="47">
         <v>1</v>
       </c>
-      <c r="AC31" s="109">
+      <c r="AC31" s="107">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
@@ -6397,10 +6375,10 @@
       <c r="BE31" s="2"/>
       <c r="BF31" s="2"/>
       <c r="BG31" s="9"/>
-      <c r="BI31" s="112">
+      <c r="BI31" s="110">
         <v>0.24</v>
       </c>
-      <c r="BJ31" s="112">
+      <c r="BJ31" s="110">
         <v>0.24</v>
       </c>
     </row>
@@ -6412,11 +6390,11 @@
       <c r="E32" s="19"/>
       <c r="F32" s="19"/>
       <c r="G32" s="19"/>
-      <c r="H32" s="165" t="s">
+      <c r="H32" s="19" t="s">
         <v>106</v>
       </c>
-      <c r="I32" s="165"/>
-      <c r="J32" s="165" t="s">
+      <c r="I32" s="19"/>
+      <c r="J32" s="19" t="s">
         <v>43</v>
       </c>
       <c r="K32" s="19"/>
@@ -6447,7 +6425,7 @@
       <c r="AB32" s="47">
         <v>1</v>
       </c>
-      <c r="AC32" s="109">
+      <c r="AC32" s="107">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
@@ -6481,10 +6459,10 @@
       <c r="BE32" s="2"/>
       <c r="BF32" s="2"/>
       <c r="BG32" s="9"/>
-      <c r="BI32" s="112">
+      <c r="BI32" s="110">
         <v>0.25</v>
       </c>
-      <c r="BJ32" s="112">
+      <c r="BJ32" s="110">
         <v>0.25</v>
       </c>
     </row>
@@ -6496,11 +6474,11 @@
       <c r="E33" s="19"/>
       <c r="F33" s="19"/>
       <c r="G33" s="19"/>
-      <c r="H33" s="165" t="s">
+      <c r="H33" s="19" t="s">
         <v>107</v>
       </c>
-      <c r="I33" s="165"/>
-      <c r="J33" s="165" t="s">
+      <c r="I33" s="19"/>
+      <c r="J33" s="19" t="s">
         <v>152</v>
       </c>
       <c r="K33" s="19"/>
@@ -6531,7 +6509,7 @@
       <c r="AB33" s="47">
         <v>1</v>
       </c>
-      <c r="AC33" s="109">
+      <c r="AC33" s="107">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
@@ -6565,10 +6543,10 @@
       <c r="BE33" s="2"/>
       <c r="BF33" s="2"/>
       <c r="BG33" s="9"/>
-      <c r="BI33" s="112">
+      <c r="BI33" s="110">
         <v>0.26</v>
       </c>
-      <c r="BJ33" s="112">
+      <c r="BJ33" s="110">
         <v>0.26</v>
       </c>
     </row>
@@ -6580,11 +6558,11 @@
       <c r="E34" s="19"/>
       <c r="F34" s="19"/>
       <c r="G34" s="19"/>
-      <c r="H34" s="165" t="s">
+      <c r="H34" s="19" t="s">
         <v>108</v>
       </c>
-      <c r="I34" s="165"/>
-      <c r="J34" s="165" t="s">
+      <c r="I34" s="19"/>
+      <c r="J34" s="19" t="s">
         <v>153</v>
       </c>
       <c r="K34" s="19"/>
@@ -6615,7 +6593,7 @@
       <c r="AB34" s="47">
         <v>1</v>
       </c>
-      <c r="AC34" s="109">
+      <c r="AC34" s="107">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
@@ -6649,10 +6627,10 @@
       <c r="BE34" s="2"/>
       <c r="BF34" s="2"/>
       <c r="BG34" s="9"/>
-      <c r="BI34" s="112">
+      <c r="BI34" s="110">
         <v>0.27</v>
       </c>
-      <c r="BJ34" s="112">
+      <c r="BJ34" s="110">
         <v>0.27</v>
       </c>
     </row>
@@ -6664,11 +6642,11 @@
       <c r="E35" s="19"/>
       <c r="F35" s="19"/>
       <c r="G35" s="19"/>
-      <c r="H35" s="165" t="s">
+      <c r="H35" s="19" t="s">
         <v>123</v>
       </c>
-      <c r="I35" s="165"/>
-      <c r="J35" s="165" t="s">
+      <c r="I35" s="19"/>
+      <c r="J35" s="19" t="s">
         <v>46</v>
       </c>
       <c r="K35" s="19"/>
@@ -6699,7 +6677,7 @@
       <c r="AB35" s="45">
         <v>1</v>
       </c>
-      <c r="AC35" s="109">
+      <c r="AC35" s="107">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
@@ -6733,10 +6711,10 @@
       <c r="BE35" s="2"/>
       <c r="BF35" s="2"/>
       <c r="BG35" s="9"/>
-      <c r="BI35" s="112">
+      <c r="BI35" s="110">
         <v>0.28000000000000003</v>
       </c>
-      <c r="BJ35" s="112">
+      <c r="BJ35" s="110">
         <v>0.28000000000000003</v>
       </c>
     </row>
@@ -6748,11 +6726,11 @@
       <c r="E36" s="19"/>
       <c r="F36" s="19"/>
       <c r="G36" s="19"/>
-      <c r="H36" s="165" t="s">
+      <c r="H36" s="19" t="s">
         <v>109</v>
       </c>
-      <c r="I36" s="165"/>
-      <c r="J36" s="165" t="s">
+      <c r="I36" s="19"/>
+      <c r="J36" s="19" t="s">
         <v>47</v>
       </c>
       <c r="K36" s="19"/>
@@ -6783,7 +6761,7 @@
       <c r="AB36" s="45">
         <v>1</v>
       </c>
-      <c r="AC36" s="109">
+      <c r="AC36" s="107">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
@@ -6817,10 +6795,10 @@
       <c r="BE36" s="2"/>
       <c r="BF36" s="2"/>
       <c r="BG36" s="9"/>
-      <c r="BI36" s="112">
+      <c r="BI36" s="110">
         <v>0.28999999999999998</v>
       </c>
-      <c r="BJ36" s="112">
+      <c r="BJ36" s="110">
         <v>0.28999999999999998</v>
       </c>
     </row>
@@ -6832,11 +6810,11 @@
       <c r="E37" s="19"/>
       <c r="F37" s="19"/>
       <c r="G37" s="19"/>
-      <c r="H37" s="108" t="s">
+      <c r="H37" s="106" t="s">
         <v>90</v>
       </c>
-      <c r="I37" s="108"/>
-      <c r="J37" s="108" t="s">
+      <c r="I37" s="106"/>
+      <c r="J37" s="106" t="s">
         <v>49</v>
       </c>
       <c r="K37" s="19"/>
@@ -6860,16 +6838,16 @@
       <c r="W37" s="21"/>
       <c r="X37" s="21"/>
       <c r="Y37" s="55" t="s">
-        <v>117</v>
+        <v>76</v>
       </c>
       <c r="Z37" s="4"/>
       <c r="AA37" s="43"/>
       <c r="AB37" s="45">
         <v>3</v>
       </c>
-      <c r="AC37" s="109">
+      <c r="AC37" s="107">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD37" s="44"/>
       <c r="AE37" s="2"/>
@@ -6901,10 +6879,10 @@
       <c r="BE37" s="2"/>
       <c r="BF37" s="2"/>
       <c r="BG37" s="9"/>
-      <c r="BI37" s="112">
+      <c r="BI37" s="110">
         <v>0.3</v>
       </c>
-      <c r="BJ37" s="112">
+      <c r="BJ37" s="110">
         <v>0.3</v>
       </c>
     </row>
@@ -6916,11 +6894,11 @@
       <c r="E38" s="19"/>
       <c r="F38" s="19"/>
       <c r="G38" s="19"/>
-      <c r="H38" s="108" t="s">
+      <c r="H38" s="106" t="s">
         <v>91</v>
       </c>
-      <c r="I38" s="108"/>
-      <c r="J38" s="108" t="s">
+      <c r="I38" s="106"/>
+      <c r="J38" s="106" t="s">
         <v>50</v>
       </c>
       <c r="K38" s="19"/>
@@ -6951,7 +6929,7 @@
       <c r="AB38" s="45">
         <v>3</v>
       </c>
-      <c r="AC38" s="109">
+      <c r="AC38" s="107">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
@@ -6985,10 +6963,10 @@
       <c r="BE38" s="2"/>
       <c r="BF38" s="2"/>
       <c r="BG38" s="9"/>
-      <c r="BI38" s="112">
+      <c r="BI38" s="110">
         <v>0.31</v>
       </c>
-      <c r="BJ38" s="112">
+      <c r="BJ38" s="110">
         <v>0.31</v>
       </c>
     </row>
@@ -7000,11 +6978,11 @@
       <c r="E39" s="19"/>
       <c r="F39" s="19"/>
       <c r="G39" s="19"/>
-      <c r="H39" s="108" t="s">
+      <c r="H39" s="106" t="s">
         <v>110</v>
       </c>
-      <c r="I39" s="108"/>
-      <c r="J39" s="108" t="s">
+      <c r="I39" s="106"/>
+      <c r="J39" s="106" t="s">
         <v>51</v>
       </c>
       <c r="K39" s="19"/>
@@ -7035,7 +7013,7 @@
       <c r="AB39" s="45">
         <v>3</v>
       </c>
-      <c r="AC39" s="109">
+      <c r="AC39" s="107">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
@@ -7069,10 +7047,10 @@
       <c r="BE39" s="2"/>
       <c r="BF39" s="2"/>
       <c r="BG39" s="9"/>
-      <c r="BI39" s="112">
+      <c r="BI39" s="110">
         <v>0.32</v>
       </c>
-      <c r="BJ39" s="112">
+      <c r="BJ39" s="110">
         <v>0.32</v>
       </c>
     </row>
@@ -7084,11 +7062,11 @@
       <c r="E40" s="19"/>
       <c r="F40" s="19"/>
       <c r="G40" s="19"/>
-      <c r="H40" s="108" t="s">
+      <c r="H40" s="106" t="s">
         <v>111</v>
       </c>
-      <c r="I40" s="108"/>
-      <c r="J40" s="108" t="s">
+      <c r="I40" s="106"/>
+      <c r="J40" s="106" t="s">
         <v>52</v>
       </c>
       <c r="K40" s="19"/>
@@ -7119,7 +7097,7 @@
       <c r="AB40" s="45">
         <v>3</v>
       </c>
-      <c r="AC40" s="109">
+      <c r="AC40" s="107">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
@@ -7153,10 +7131,10 @@
       <c r="BE40" s="2"/>
       <c r="BF40" s="2"/>
       <c r="BG40" s="9"/>
-      <c r="BI40" s="112">
+      <c r="BI40" s="110">
         <v>0.33</v>
       </c>
-      <c r="BJ40" s="112">
+      <c r="BJ40" s="110">
         <v>0.33</v>
       </c>
     </row>
@@ -7168,11 +7146,11 @@
       <c r="E41" s="19"/>
       <c r="F41" s="19"/>
       <c r="G41" s="19"/>
-      <c r="H41" s="108" t="s">
+      <c r="H41" s="106" t="s">
         <v>93</v>
       </c>
-      <c r="I41" s="108"/>
-      <c r="J41" s="108" t="s">
+      <c r="I41" s="106"/>
+      <c r="J41" s="106" t="s">
         <v>53</v>
       </c>
       <c r="K41" s="23"/>
@@ -7203,7 +7181,7 @@
       <c r="AB41" s="45">
         <v>3</v>
       </c>
-      <c r="AC41" s="109">
+      <c r="AC41" s="107">
         <f t="shared" si="4"/>
         <v>0.8</v>
       </c>
@@ -7237,10 +7215,10 @@
       <c r="BE41" s="2"/>
       <c r="BF41" s="2"/>
       <c r="BG41" s="9"/>
-      <c r="BI41" s="112">
+      <c r="BI41" s="110">
         <v>0.34</v>
       </c>
-      <c r="BJ41" s="112">
+      <c r="BJ41" s="110">
         <v>0.34</v>
       </c>
     </row>
@@ -7252,11 +7230,11 @@
       <c r="E42" s="19"/>
       <c r="F42" s="19"/>
       <c r="G42" s="19"/>
-      <c r="H42" s="108" t="s">
+      <c r="H42" s="106" t="s">
         <v>124</v>
       </c>
-      <c r="I42" s="108"/>
-      <c r="J42" s="108" t="s">
+      <c r="I42" s="106"/>
+      <c r="J42" s="106" t="s">
         <v>54</v>
       </c>
       <c r="K42" s="19"/>
@@ -7279,17 +7257,17 @@
       </c>
       <c r="W42" s="21"/>
       <c r="X42" s="21"/>
-      <c r="Y42" s="55" t="s">
-        <v>76</v>
+      <c r="Y42" s="40">
+        <v>0.7</v>
       </c>
       <c r="Z42" s="4"/>
       <c r="AA42" s="43"/>
       <c r="AB42" s="45">
         <v>3</v>
       </c>
-      <c r="AC42" s="109">
+      <c r="AC42" s="107">
         <f t="shared" si="4"/>
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="AD42" s="44"/>
       <c r="AE42" s="2"/>
@@ -7321,10 +7299,10 @@
       <c r="BE42" s="2"/>
       <c r="BF42" s="2"/>
       <c r="BG42" s="9"/>
-      <c r="BI42" s="112">
+      <c r="BI42" s="110">
         <v>0.35</v>
       </c>
-      <c r="BJ42" s="112">
+      <c r="BJ42" s="110">
         <v>0.35</v>
       </c>
     </row>
@@ -7336,11 +7314,11 @@
       <c r="E43" s="19"/>
       <c r="F43" s="19"/>
       <c r="G43" s="19"/>
-      <c r="H43" s="166" t="s">
+      <c r="H43" s="112" t="s">
         <v>106</v>
       </c>
-      <c r="I43" s="166"/>
-      <c r="J43" s="167" t="s">
+      <c r="I43" s="112"/>
+      <c r="J43" s="113" t="s">
         <v>55</v>
       </c>
       <c r="K43" s="28"/>
@@ -7363,17 +7341,17 @@
       </c>
       <c r="W43" s="21"/>
       <c r="X43" s="21"/>
-      <c r="Y43" s="55" t="s">
-        <v>117</v>
+      <c r="Y43" s="40">
+        <v>0.3</v>
       </c>
       <c r="Z43" s="4"/>
       <c r="AA43" s="43"/>
       <c r="AB43" s="45">
         <v>3</v>
       </c>
-      <c r="AC43" s="109">
+      <c r="AC43" s="107">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="AD43" s="44"/>
       <c r="AE43" s="2"/>
@@ -7405,10 +7383,10 @@
       <c r="BE43" s="2"/>
       <c r="BF43" s="2"/>
       <c r="BG43" s="9"/>
-      <c r="BI43" s="112">
+      <c r="BI43" s="110">
         <v>0.36</v>
       </c>
-      <c r="BJ43" s="112">
+      <c r="BJ43" s="110">
         <v>0.36</v>
       </c>
     </row>
@@ -7420,11 +7398,11 @@
       <c r="E44" s="19"/>
       <c r="F44" s="19"/>
       <c r="G44" s="19"/>
-      <c r="H44" s="108" t="s">
+      <c r="H44" s="106" t="s">
         <v>125</v>
       </c>
-      <c r="I44" s="108"/>
-      <c r="J44" s="108" t="s">
+      <c r="I44" s="106"/>
+      <c r="J44" s="106" t="s">
         <v>56</v>
       </c>
       <c r="K44" s="19"/>
@@ -7455,7 +7433,7 @@
       <c r="AB44" s="45">
         <v>3</v>
       </c>
-      <c r="AC44" s="109">
+      <c r="AC44" s="107">
         <f t="shared" si="4"/>
         <v>0.5</v>
       </c>
@@ -7489,10 +7467,10 @@
       <c r="BE44" s="2"/>
       <c r="BF44" s="2"/>
       <c r="BG44" s="9"/>
-      <c r="BI44" s="112">
+      <c r="BI44" s="110">
         <v>0.37</v>
       </c>
-      <c r="BJ44" s="112">
+      <c r="BJ44" s="110">
         <v>0.37</v>
       </c>
     </row>
@@ -7504,11 +7482,11 @@
       <c r="E45" s="19"/>
       <c r="F45" s="19"/>
       <c r="G45" s="19"/>
-      <c r="H45" s="166" t="s">
+      <c r="H45" s="112" t="s">
         <v>95</v>
       </c>
-      <c r="I45" s="166"/>
-      <c r="J45" s="167" t="s">
+      <c r="I45" s="112"/>
+      <c r="J45" s="113" t="s">
         <v>57</v>
       </c>
       <c r="K45" s="28"/>
@@ -7539,7 +7517,7 @@
       <c r="AB45" s="45">
         <v>3</v>
       </c>
-      <c r="AC45" s="109">
+      <c r="AC45" s="107">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
@@ -7573,10 +7551,10 @@
       <c r="BE45" s="2"/>
       <c r="BF45" s="2"/>
       <c r="BG45" s="9"/>
-      <c r="BI45" s="112">
+      <c r="BI45" s="110">
         <v>0.38</v>
       </c>
-      <c r="BJ45" s="112">
+      <c r="BJ45" s="110">
         <v>0.38</v>
       </c>
     </row>
@@ -7590,11 +7568,11 @@
       <c r="E46" s="19"/>
       <c r="F46" s="19"/>
       <c r="G46" s="19"/>
-      <c r="H46" s="166" t="s">
+      <c r="H46" s="112" t="s">
         <v>112</v>
       </c>
-      <c r="I46" s="166"/>
-      <c r="J46" s="167" t="s">
+      <c r="I46" s="112"/>
+      <c r="J46" s="113" t="s">
         <v>81</v>
       </c>
       <c r="K46" s="41"/>
@@ -7623,9 +7601,9 @@
       <c r="Z46" s="4"/>
       <c r="AA46" s="43"/>
       <c r="AB46" s="45">
-        <v>6</v>
-      </c>
-      <c r="AC46" s="109">
+        <v>3</v>
+      </c>
+      <c r="AC46" s="107">
         <f t="shared" si="4"/>
         <v>0.8</v>
       </c>
@@ -7659,10 +7637,10 @@
       <c r="BE46" s="2"/>
       <c r="BF46" s="2"/>
       <c r="BG46" s="9"/>
-      <c r="BI46" s="112">
+      <c r="BI46" s="110">
         <v>0.39</v>
       </c>
-      <c r="BJ46" s="112">
+      <c r="BJ46" s="110">
         <v>0.39</v>
       </c>
     </row>
@@ -7676,11 +7654,11 @@
       <c r="E47" s="19"/>
       <c r="F47" s="19"/>
       <c r="G47" s="19"/>
-      <c r="H47" s="166" t="s">
+      <c r="H47" s="112" t="s">
         <v>113</v>
       </c>
-      <c r="I47" s="166"/>
-      <c r="J47" s="167" t="s">
+      <c r="I47" s="112"/>
+      <c r="J47" s="113" t="s">
         <v>82</v>
       </c>
       <c r="K47" s="41"/>
@@ -7709,9 +7687,9 @@
       <c r="Z47" s="4"/>
       <c r="AA47" s="43"/>
       <c r="AB47" s="45">
-        <v>6</v>
-      </c>
-      <c r="AC47" s="109">
+        <v>3</v>
+      </c>
+      <c r="AC47" s="107">
         <f t="shared" si="4"/>
         <v>0.8</v>
       </c>
@@ -7745,10 +7723,10 @@
       <c r="BE47" s="2"/>
       <c r="BF47" s="2"/>
       <c r="BG47" s="9"/>
-      <c r="BI47" s="112">
+      <c r="BI47" s="110">
         <v>0.4</v>
       </c>
-      <c r="BJ47" s="112">
+      <c r="BJ47" s="110">
         <v>0.4</v>
       </c>
     </row>
@@ -7788,16 +7766,16 @@
       <c r="W48" s="21"/>
       <c r="X48" s="21"/>
       <c r="Y48" s="55" t="s">
-        <v>117</v>
+        <v>76</v>
       </c>
       <c r="Z48" s="4"/>
       <c r="AA48" s="43"/>
       <c r="AB48" s="45">
         <v>4</v>
       </c>
-      <c r="AC48" s="109">
+      <c r="AC48" s="107">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD48" s="44"/>
       <c r="AE48" s="2"/>
@@ -7829,10 +7807,10 @@
       <c r="BE48" s="2"/>
       <c r="BF48" s="2"/>
       <c r="BG48" s="9"/>
-      <c r="BI48" s="112">
+      <c r="BI48" s="110">
         <v>0.41</v>
       </c>
-      <c r="BJ48" s="112">
+      <c r="BJ48" s="110">
         <v>0.41</v>
       </c>
     </row>
@@ -7872,16 +7850,16 @@
       <c r="W49" s="21"/>
       <c r="X49" s="21"/>
       <c r="Y49" s="55" t="s">
-        <v>117</v>
+        <v>76</v>
       </c>
       <c r="Z49" s="4"/>
       <c r="AA49" s="43"/>
       <c r="AB49" s="45">
         <v>7</v>
       </c>
-      <c r="AC49" s="109">
+      <c r="AC49" s="107">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD49" s="44"/>
       <c r="AE49" s="2"/>
@@ -7913,10 +7891,10 @@
       <c r="BE49" s="2"/>
       <c r="BF49" s="2"/>
       <c r="BG49" s="9"/>
-      <c r="BI49" s="112">
+      <c r="BI49" s="110">
         <v>0.42</v>
       </c>
-      <c r="BJ49" s="112">
+      <c r="BJ49" s="110">
         <v>0.42</v>
       </c>
     </row>
@@ -7963,7 +7941,7 @@
       <c r="AB50" s="45">
         <v>7</v>
       </c>
-      <c r="AC50" s="109">
+      <c r="AC50" s="107">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
@@ -7997,10 +7975,10 @@
       <c r="BE50" s="2"/>
       <c r="BF50" s="2"/>
       <c r="BG50" s="9"/>
-      <c r="BI50" s="112">
+      <c r="BI50" s="110">
         <v>0.43</v>
       </c>
-      <c r="BJ50" s="112">
+      <c r="BJ50" s="110">
         <v>0.43</v>
       </c>
     </row>
@@ -8047,7 +8025,7 @@
       <c r="AB51" s="45">
         <v>7</v>
       </c>
-      <c r="AC51" s="109">
+      <c r="AC51" s="107">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
@@ -8081,10 +8059,10 @@
       <c r="BE51" s="2"/>
       <c r="BF51" s="2"/>
       <c r="BG51" s="9"/>
-      <c r="BI51" s="112">
+      <c r="BI51" s="110">
         <v>0.44</v>
       </c>
-      <c r="BJ51" s="112">
+      <c r="BJ51" s="110">
         <v>0.44</v>
       </c>
     </row>
@@ -8131,7 +8109,7 @@
       <c r="AB52" s="45">
         <v>10</v>
       </c>
-      <c r="AC52" s="109">
+      <c r="AC52" s="107">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
@@ -8165,10 +8143,10 @@
       <c r="BE52" s="2"/>
       <c r="BF52" s="2"/>
       <c r="BG52" s="9"/>
-      <c r="BI52" s="112">
+      <c r="BI52" s="110">
         <v>0.45</v>
       </c>
-      <c r="BJ52" s="112">
+      <c r="BJ52" s="110">
         <v>0.45</v>
       </c>
     </row>
@@ -8215,7 +8193,7 @@
       <c r="AB53" s="45">
         <v>7</v>
       </c>
-      <c r="AC53" s="109">
+      <c r="AC53" s="107">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
@@ -8249,10 +8227,10 @@
       <c r="BE53" s="2"/>
       <c r="BF53" s="2"/>
       <c r="BG53" s="9"/>
-      <c r="BI53" s="112">
+      <c r="BI53" s="110">
         <v>0.46</v>
       </c>
-      <c r="BJ53" s="112">
+      <c r="BJ53" s="110">
         <v>0.46</v>
       </c>
     </row>
@@ -8299,7 +8277,7 @@
       <c r="AB54" s="45">
         <v>10</v>
       </c>
-      <c r="AC54" s="109">
+      <c r="AC54" s="107">
         <f t="shared" si="4"/>
         <v>0.8</v>
       </c>
@@ -8333,10 +8311,10 @@
       <c r="BE54" s="2"/>
       <c r="BF54" s="2"/>
       <c r="BG54" s="9"/>
-      <c r="BI54" s="112">
+      <c r="BI54" s="110">
         <v>0.47</v>
       </c>
-      <c r="BJ54" s="112">
+      <c r="BJ54" s="110">
         <v>0.47</v>
       </c>
     </row>
@@ -8383,7 +8361,7 @@
       <c r="AB55" s="45">
         <v>10</v>
       </c>
-      <c r="AC55" s="109">
+      <c r="AC55" s="107">
         <f t="shared" si="4"/>
         <v>0.7</v>
       </c>
@@ -8417,10 +8395,10 @@
       <c r="BE55" s="2"/>
       <c r="BF55" s="2"/>
       <c r="BG55" s="9"/>
-      <c r="BI55" s="112">
+      <c r="BI55" s="110">
         <v>0.48</v>
       </c>
-      <c r="BJ55" s="112">
+      <c r="BJ55" s="110">
         <v>0.48</v>
       </c>
     </row>
@@ -8467,7 +8445,7 @@
       <c r="AB56" s="45">
         <v>7</v>
       </c>
-      <c r="AC56" s="109">
+      <c r="AC56" s="107">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
@@ -8501,10 +8479,10 @@
       <c r="BE56" s="2"/>
       <c r="BF56" s="2"/>
       <c r="BG56" s="9"/>
-      <c r="BI56" s="112">
+      <c r="BI56" s="110">
         <v>0.49</v>
       </c>
-      <c r="BJ56" s="112">
+      <c r="BJ56" s="110">
         <v>0.49</v>
       </c>
     </row>
@@ -8551,7 +8529,7 @@
       <c r="AB57" s="45">
         <v>7</v>
       </c>
-      <c r="AC57" s="109">
+      <c r="AC57" s="107">
         <f t="shared" si="4"/>
         <v>0.9</v>
       </c>
@@ -8585,10 +8563,10 @@
       <c r="BE57" s="2"/>
       <c r="BF57" s="2"/>
       <c r="BG57" s="9"/>
-      <c r="BI57" s="112">
+      <c r="BI57" s="110">
         <v>0.5</v>
       </c>
-      <c r="BJ57" s="112">
+      <c r="BJ57" s="110">
         <v>0.5</v>
       </c>
     </row>
@@ -8637,7 +8615,7 @@
       <c r="AB58" s="45">
         <v>7</v>
       </c>
-      <c r="AC58" s="109">
+      <c r="AC58" s="107">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
@@ -8671,10 +8649,10 @@
       <c r="BE58" s="2"/>
       <c r="BF58" s="2"/>
       <c r="BG58" s="9"/>
-      <c r="BI58" s="112">
+      <c r="BI58" s="110">
         <v>0.51</v>
       </c>
-      <c r="BJ58" s="112">
+      <c r="BJ58" s="110">
         <v>0.51</v>
       </c>
     </row>
@@ -8721,7 +8699,7 @@
       <c r="AB59" s="45">
         <v>4</v>
       </c>
-      <c r="AC59" s="109">
+      <c r="AC59" s="107">
         <f t="shared" si="4"/>
         <v>0.9</v>
       </c>
@@ -8755,10 +8733,10 @@
       <c r="BE59" s="2"/>
       <c r="BF59" s="2"/>
       <c r="BG59" s="9"/>
-      <c r="BI59" s="112">
+      <c r="BI59" s="110">
         <v>0.52</v>
       </c>
-      <c r="BJ59" s="112">
+      <c r="BJ59" s="110">
         <v>0.52</v>
       </c>
     </row>
@@ -8805,7 +8783,7 @@
       <c r="AB60" s="45">
         <v>8</v>
       </c>
-      <c r="AC60" s="109">
+      <c r="AC60" s="107">
         <f t="shared" si="4"/>
         <v>0.7</v>
       </c>
@@ -8839,10 +8817,10 @@
       <c r="BE60" s="2"/>
       <c r="BF60" s="2"/>
       <c r="BG60" s="9"/>
-      <c r="BI60" s="112">
+      <c r="BI60" s="110">
         <v>0.53</v>
       </c>
-      <c r="BJ60" s="112">
+      <c r="BJ60" s="110">
         <v>0.53</v>
       </c>
     </row>
@@ -8889,7 +8867,7 @@
       <c r="AB61" s="45">
         <v>6</v>
       </c>
-      <c r="AC61" s="109">
+      <c r="AC61" s="107">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
@@ -8923,10 +8901,10 @@
       <c r="BE61" s="2"/>
       <c r="BF61" s="2"/>
       <c r="BG61" s="9"/>
-      <c r="BI61" s="112">
+      <c r="BI61" s="110">
         <v>0.54</v>
       </c>
-      <c r="BJ61" s="112">
+      <c r="BJ61" s="110">
         <v>0.54</v>
       </c>
     </row>
@@ -8973,7 +8951,7 @@
       <c r="AB62" s="45">
         <v>6</v>
       </c>
-      <c r="AC62" s="109">
+      <c r="AC62" s="107">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
@@ -9007,10 +8985,10 @@
       <c r="BE62" s="2"/>
       <c r="BF62" s="2"/>
       <c r="BG62" s="9"/>
-      <c r="BI62" s="112">
+      <c r="BI62" s="110">
         <v>0.55000000000000004</v>
       </c>
-      <c r="BJ62" s="112">
+      <c r="BJ62" s="110">
         <v>0.55000000000000004</v>
       </c>
     </row>
@@ -9057,7 +9035,7 @@
       <c r="AB63" s="45">
         <v>8</v>
       </c>
-      <c r="AC63" s="109">
+      <c r="AC63" s="107">
         <f t="shared" si="4"/>
         <v>0.8</v>
       </c>
@@ -9091,10 +9069,10 @@
       <c r="BE63" s="2"/>
       <c r="BF63" s="2"/>
       <c r="BG63" s="9"/>
-      <c r="BI63" s="112">
+      <c r="BI63" s="110">
         <v>0.56000000000000005</v>
       </c>
-      <c r="BJ63" s="112">
+      <c r="BJ63" s="110">
         <v>0.56000000000000005</v>
       </c>
     </row>
@@ -9141,7 +9119,7 @@
       <c r="AB64" s="45">
         <v>7</v>
       </c>
-      <c r="AC64" s="109">
+      <c r="AC64" s="107">
         <f t="shared" si="4"/>
         <v>0.7</v>
       </c>
@@ -9175,21 +9153,21 @@
       <c r="BE64" s="2"/>
       <c r="BF64" s="2"/>
       <c r="BG64" s="9"/>
-      <c r="BI64" s="112">
+      <c r="BI64" s="110">
         <v>0.56999999999999995</v>
       </c>
-      <c r="BJ64" s="112">
+      <c r="BJ64" s="110">
         <v>0.56999999999999995</v>
       </c>
     </row>
     <row r="65" spans="1:62" ht="16" x14ac:dyDescent="0.3">
-      <c r="A65" s="116"/>
-      <c r="B65" s="114"/>
-      <c r="C65" s="117"/>
-      <c r="D65" s="117"/>
-      <c r="E65" s="117"/>
-      <c r="F65" s="117"/>
-      <c r="G65" s="118"/>
+      <c r="A65" s="137"/>
+      <c r="B65" s="135"/>
+      <c r="C65" s="159"/>
+      <c r="D65" s="159"/>
+      <c r="E65" s="159"/>
+      <c r="F65" s="159"/>
+      <c r="G65" s="160"/>
       <c r="H65" s="69" t="s">
         <v>129</v>
       </c>
@@ -9202,30 +9180,30 @@
       <c r="M65" s="2"/>
       <c r="N65" s="2"/>
       <c r="O65" s="2"/>
-      <c r="P65" s="119" t="s">
+      <c r="P65" s="162" t="s">
         <v>11</v>
       </c>
-      <c r="Q65" s="119"/>
-      <c r="R65" s="119"/>
-      <c r="S65" s="120">
+      <c r="Q65" s="162"/>
+      <c r="R65" s="162"/>
+      <c r="S65" s="141">
         <v>45092</v>
       </c>
-      <c r="T65" s="120"/>
-      <c r="U65" s="120"/>
-      <c r="V65" s="120">
+      <c r="T65" s="141"/>
+      <c r="U65" s="141"/>
+      <c r="V65" s="141">
         <v>45100</v>
       </c>
-      <c r="W65" s="120"/>
-      <c r="X65" s="120"/>
-      <c r="Y65" s="114" t="s">
+      <c r="W65" s="141"/>
+      <c r="X65" s="141"/>
+      <c r="Y65" s="135" t="s">
         <v>117</v>
       </c>
-      <c r="Z65" s="114"/>
-      <c r="AA65" s="115"/>
+      <c r="Z65" s="135"/>
+      <c r="AA65" s="136"/>
       <c r="AB65" s="45">
         <v>7</v>
       </c>
-      <c r="AC65" s="109">
+      <c r="AC65" s="107">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
@@ -9259,21 +9237,21 @@
       <c r="BE65" s="2"/>
       <c r="BF65" s="2"/>
       <c r="BG65" s="9"/>
-      <c r="BI65" s="112">
+      <c r="BI65" s="110">
         <v>0.57999999999999996</v>
       </c>
-      <c r="BJ65" s="112">
+      <c r="BJ65" s="110">
         <v>0.57999999999999996</v>
       </c>
     </row>
     <row r="66" spans="1:62" ht="16" x14ac:dyDescent="0.3">
-      <c r="A66" s="116"/>
-      <c r="B66" s="114"/>
-      <c r="C66" s="117"/>
-      <c r="D66" s="117"/>
-      <c r="E66" s="117"/>
-      <c r="F66" s="117"/>
-      <c r="G66" s="118"/>
+      <c r="A66" s="137"/>
+      <c r="B66" s="135"/>
+      <c r="C66" s="159"/>
+      <c r="D66" s="159"/>
+      <c r="E66" s="159"/>
+      <c r="F66" s="159"/>
+      <c r="G66" s="160"/>
       <c r="H66" s="69" t="s">
         <v>128</v>
       </c>
@@ -9286,23 +9264,23 @@
       <c r="M66" s="2"/>
       <c r="N66" s="2"/>
       <c r="O66" s="2"/>
-      <c r="P66" s="119" t="s">
+      <c r="P66" s="162" t="s">
         <v>11</v>
       </c>
-      <c r="Q66" s="119"/>
-      <c r="R66" s="119"/>
-      <c r="S66" s="120">
+      <c r="Q66" s="162"/>
+      <c r="R66" s="162"/>
+      <c r="S66" s="141">
         <v>45092</v>
       </c>
-      <c r="T66" s="120"/>
-      <c r="U66" s="120"/>
-      <c r="V66" s="120">
+      <c r="T66" s="141"/>
+      <c r="U66" s="141"/>
+      <c r="V66" s="141">
         <v>45100</v>
       </c>
-      <c r="W66" s="120"/>
-      <c r="X66" s="120"/>
-      <c r="Y66" s="55" t="s">
-        <v>117</v>
+      <c r="W66" s="141"/>
+      <c r="X66" s="141"/>
+      <c r="Y66" s="40">
+        <v>0.2</v>
       </c>
       <c r="Z66" s="55" t="s">
         <v>117</v>
@@ -9313,9 +9291,9 @@
       <c r="AB66" s="45">
         <v>7</v>
       </c>
-      <c r="AC66" s="109">
+      <c r="AC66" s="107">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="AD66" s="44"/>
       <c r="AE66" s="2"/>
@@ -9347,21 +9325,21 @@
       <c r="BE66" s="2"/>
       <c r="BF66" s="2"/>
       <c r="BG66" s="9"/>
-      <c r="BI66" s="112">
+      <c r="BI66" s="110">
         <v>0.59</v>
       </c>
-      <c r="BJ66" s="112">
+      <c r="BJ66" s="110">
         <v>0.59</v>
       </c>
     </row>
     <row r="67" spans="1:62" ht="16" x14ac:dyDescent="0.3">
-      <c r="A67" s="116"/>
-      <c r="B67" s="114"/>
-      <c r="C67" s="117"/>
-      <c r="D67" s="117"/>
-      <c r="E67" s="117"/>
-      <c r="F67" s="117"/>
-      <c r="G67" s="118"/>
+      <c r="A67" s="137"/>
+      <c r="B67" s="135"/>
+      <c r="C67" s="159"/>
+      <c r="D67" s="159"/>
+      <c r="E67" s="159"/>
+      <c r="F67" s="159"/>
+      <c r="G67" s="160"/>
       <c r="H67" s="69" t="s">
         <v>125</v>
       </c>
@@ -9374,23 +9352,23 @@
       <c r="M67" s="2"/>
       <c r="N67" s="2"/>
       <c r="O67" s="2"/>
-      <c r="P67" s="122" t="s">
+      <c r="P67" s="161" t="s">
         <v>19</v>
       </c>
-      <c r="Q67" s="122"/>
-      <c r="R67" s="122"/>
-      <c r="S67" s="120">
+      <c r="Q67" s="161"/>
+      <c r="R67" s="161"/>
+      <c r="S67" s="141">
         <v>45096</v>
       </c>
-      <c r="T67" s="120"/>
-      <c r="U67" s="120"/>
-      <c r="V67" s="120">
+      <c r="T67" s="141"/>
+      <c r="U67" s="141"/>
+      <c r="V67" s="141">
         <v>45100</v>
       </c>
-      <c r="W67" s="120"/>
-      <c r="X67" s="120"/>
-      <c r="Y67" s="55" t="s">
-        <v>117</v>
+      <c r="W67" s="141"/>
+      <c r="X67" s="141"/>
+      <c r="Y67" s="40">
+        <v>0.4</v>
       </c>
       <c r="Z67" s="55" t="s">
         <v>117</v>
@@ -9401,9 +9379,9 @@
       <c r="AB67" s="45">
         <v>5</v>
       </c>
-      <c r="AC67" s="109">
+      <c r="AC67" s="107">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="AD67" s="44"/>
       <c r="AE67" s="2"/>
@@ -9435,23 +9413,23 @@
       <c r="BE67" s="2"/>
       <c r="BF67" s="2"/>
       <c r="BG67" s="9"/>
-      <c r="BI67" s="112">
+      <c r="BI67" s="110">
         <v>0.6</v>
       </c>
-      <c r="BJ67" s="112">
+      <c r="BJ67" s="110">
         <v>0.6</v>
       </c>
     </row>
     <row r="68" spans="1:62" ht="16" x14ac:dyDescent="0.3">
-      <c r="A68" s="116"/>
-      <c r="B68" s="114"/>
-      <c r="C68" s="159" t="s">
+      <c r="A68" s="137"/>
+      <c r="B68" s="135"/>
+      <c r="C68" s="138" t="s">
         <v>83</v>
       </c>
-      <c r="D68" s="159"/>
-      <c r="E68" s="159"/>
-      <c r="F68" s="159"/>
-      <c r="G68" s="160"/>
+      <c r="D68" s="138"/>
+      <c r="E68" s="138"/>
+      <c r="F68" s="138"/>
+      <c r="G68" s="139"/>
       <c r="H68" s="69" t="s">
         <v>114</v>
       </c>
@@ -9464,30 +9442,30 @@
       <c r="M68" s="71"/>
       <c r="N68" s="71"/>
       <c r="O68" s="71"/>
-      <c r="P68" s="162" t="s">
+      <c r="P68" s="142" t="s">
         <v>30</v>
       </c>
-      <c r="Q68" s="162"/>
-      <c r="R68" s="162"/>
-      <c r="S68" s="120">
+      <c r="Q68" s="142"/>
+      <c r="R68" s="142"/>
+      <c r="S68" s="141">
         <v>45091</v>
       </c>
-      <c r="T68" s="120"/>
-      <c r="U68" s="120"/>
-      <c r="V68" s="120">
+      <c r="T68" s="141"/>
+      <c r="U68" s="141"/>
+      <c r="V68" s="141">
         <v>45100</v>
       </c>
-      <c r="W68" s="120"/>
-      <c r="X68" s="120"/>
-      <c r="Y68" s="121" t="s">
+      <c r="W68" s="141"/>
+      <c r="X68" s="141"/>
+      <c r="Y68" s="134" t="s">
         <v>117</v>
       </c>
-      <c r="Z68" s="114"/>
-      <c r="AA68" s="115"/>
+      <c r="Z68" s="135"/>
+      <c r="AA68" s="136"/>
       <c r="AB68" s="45">
         <v>8</v>
       </c>
-      <c r="AC68" s="109">
+      <c r="AC68" s="107">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
@@ -9521,23 +9499,23 @@
       <c r="BE68" s="2"/>
       <c r="BF68" s="2"/>
       <c r="BG68" s="9"/>
-      <c r="BI68" s="112">
+      <c r="BI68" s="110">
         <v>0.61</v>
       </c>
-      <c r="BJ68" s="112">
+      <c r="BJ68" s="110">
         <v>0.61</v>
       </c>
     </row>
     <row r="69" spans="1:62" ht="16" x14ac:dyDescent="0.3">
-      <c r="A69" s="116"/>
-      <c r="B69" s="114"/>
-      <c r="C69" s="159" t="s">
+      <c r="A69" s="137"/>
+      <c r="B69" s="135"/>
+      <c r="C69" s="138" t="s">
         <v>83</v>
       </c>
-      <c r="D69" s="159"/>
-      <c r="E69" s="159"/>
-      <c r="F69" s="159"/>
-      <c r="G69" s="160"/>
+      <c r="D69" s="138"/>
+      <c r="E69" s="138"/>
+      <c r="F69" s="138"/>
+      <c r="G69" s="139"/>
       <c r="H69" s="77" t="s">
         <v>130</v>
       </c>
@@ -9550,35 +9528,35 @@
       <c r="M69" s="71"/>
       <c r="N69" s="71"/>
       <c r="O69" s="71"/>
-      <c r="P69" s="161" t="s">
+      <c r="P69" s="140" t="s">
         <v>29</v>
       </c>
-      <c r="Q69" s="161"/>
-      <c r="R69" s="161"/>
-      <c r="S69" s="120">
+      <c r="Q69" s="140"/>
+      <c r="R69" s="140"/>
+      <c r="S69" s="141">
         <v>45091</v>
       </c>
-      <c r="T69" s="120"/>
-      <c r="U69" s="120"/>
-      <c r="V69" s="120">
+      <c r="T69" s="141"/>
+      <c r="U69" s="141"/>
+      <c r="V69" s="141">
         <v>45100</v>
       </c>
-      <c r="W69" s="120"/>
-      <c r="X69" s="120"/>
-      <c r="Y69" s="121">
+      <c r="W69" s="141"/>
+      <c r="X69" s="141"/>
+      <c r="Y69" s="134">
         <v>0.6</v>
       </c>
-      <c r="Z69" s="114"/>
-      <c r="AA69" s="115"/>
+      <c r="Z69" s="135"/>
+      <c r="AA69" s="136"/>
       <c r="AB69" s="45">
         <v>8</v>
       </c>
-      <c r="AC69" s="109">
+      <c r="AC69" s="107">
         <f t="shared" si="4"/>
         <v>0.6</v>
       </c>
       <c r="AD69" s="2"/>
-      <c r="AE69" s="107"/>
+      <c r="AE69" s="105"/>
       <c r="AF69" s="2"/>
       <c r="AG69" s="2"/>
       <c r="AH69" s="2"/>
@@ -9607,23 +9585,23 @@
       <c r="BE69" s="2"/>
       <c r="BF69" s="2"/>
       <c r="BG69" s="9"/>
-      <c r="BI69" s="112">
+      <c r="BI69" s="110">
         <v>0.62</v>
       </c>
-      <c r="BJ69" s="112">
+      <c r="BJ69" s="110">
         <v>0.62</v>
       </c>
     </row>
     <row r="70" spans="1:62" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A70" s="18"/>
       <c r="B70" s="4"/>
-      <c r="C70" s="139" t="s">
+      <c r="C70" s="114" t="s">
         <v>15</v>
       </c>
-      <c r="D70" s="139"/>
-      <c r="E70" s="139"/>
-      <c r="F70" s="139"/>
-      <c r="G70" s="140"/>
+      <c r="D70" s="114"/>
+      <c r="E70" s="114"/>
+      <c r="F70" s="114"/>
+      <c r="G70" s="115"/>
       <c r="H70" s="76" t="s">
         <v>20</v>
       </c>
@@ -9663,13 +9641,18 @@
       </c>
       <c r="W70" s="35"/>
       <c r="X70" s="36"/>
-      <c r="Y70" s="4"/>
+      <c r="Y70" s="4" t="s">
+        <v>117</v>
+      </c>
       <c r="Z70" s="4"/>
       <c r="AA70" s="43"/>
       <c r="AB70" s="45">
         <v>1</v>
       </c>
-      <c r="AC70" s="106"/>
+      <c r="AC70" s="107">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
       <c r="AD70" s="44"/>
       <c r="AE70" s="2"/>
       <c r="AF70" s="2"/>
@@ -9700,21 +9683,21 @@
       <c r="BE70" s="2"/>
       <c r="BF70" s="2"/>
       <c r="BG70" s="9"/>
-      <c r="BI70" s="112">
+      <c r="BI70" s="110">
         <v>0.63</v>
       </c>
-      <c r="BJ70" s="112">
+      <c r="BJ70" s="110">
         <v>0.63</v>
       </c>
     </row>
     <row r="71" spans="1:62" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A71" s="18"/>
       <c r="B71" s="43"/>
-      <c r="C71" s="141"/>
-      <c r="D71" s="141"/>
-      <c r="E71" s="141"/>
-      <c r="F71" s="141"/>
-      <c r="G71" s="142"/>
+      <c r="C71" s="116"/>
+      <c r="D71" s="116"/>
+      <c r="E71" s="116"/>
+      <c r="F71" s="116"/>
+      <c r="G71" s="117"/>
       <c r="H71" s="76" t="s">
         <v>21</v>
       </c>
@@ -9754,13 +9737,18 @@
       </c>
       <c r="W71" s="35"/>
       <c r="X71" s="36"/>
-      <c r="Y71" s="4"/>
+      <c r="Y71" s="4" t="s">
+        <v>117</v>
+      </c>
       <c r="Z71" s="4"/>
       <c r="AA71" s="43"/>
       <c r="AB71" s="45">
         <v>1</v>
       </c>
-      <c r="AC71" s="45"/>
+      <c r="AC71" s="107">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
       <c r="AD71" s="44"/>
       <c r="AE71" s="2"/>
       <c r="AF71" s="2"/>
@@ -9791,21 +9779,21 @@
       <c r="BE71" s="2"/>
       <c r="BF71" s="2"/>
       <c r="BG71" s="9"/>
-      <c r="BI71" s="112">
+      <c r="BI71" s="110">
         <v>0.64</v>
       </c>
-      <c r="BJ71" s="112">
+      <c r="BJ71" s="110">
         <v>0.64</v>
       </c>
     </row>
     <row r="72" spans="1:62" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A72" s="18"/>
       <c r="B72" s="43"/>
-      <c r="C72" s="141"/>
-      <c r="D72" s="141"/>
-      <c r="E72" s="141"/>
-      <c r="F72" s="141"/>
-      <c r="G72" s="142"/>
+      <c r="C72" s="116"/>
+      <c r="D72" s="116"/>
+      <c r="E72" s="116"/>
+      <c r="F72" s="116"/>
+      <c r="G72" s="117"/>
       <c r="H72" s="76" t="s">
         <v>22</v>
       </c>
@@ -9845,13 +9833,18 @@
       </c>
       <c r="W72" s="35"/>
       <c r="X72" s="36"/>
-      <c r="Y72" s="4"/>
+      <c r="Y72" s="4" t="s">
+        <v>117</v>
+      </c>
       <c r="Z72" s="4"/>
       <c r="AA72" s="43"/>
       <c r="AB72" s="45">
         <v>1</v>
       </c>
-      <c r="AC72" s="45"/>
+      <c r="AC72" s="107">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
       <c r="AD72" s="44"/>
       <c r="AE72" s="2"/>
       <c r="AF72" s="2"/>
@@ -9882,21 +9875,21 @@
       <c r="BE72" s="2"/>
       <c r="BF72" s="2"/>
       <c r="BG72" s="9"/>
-      <c r="BI72" s="112">
+      <c r="BI72" s="110">
         <v>0.65</v>
       </c>
-      <c r="BJ72" s="112">
+      <c r="BJ72" s="110">
         <v>0.65</v>
       </c>
     </row>
     <row r="73" spans="1:62" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A73" s="18"/>
       <c r="B73" s="43"/>
-      <c r="C73" s="141"/>
-      <c r="D73" s="141"/>
-      <c r="E73" s="141"/>
-      <c r="F73" s="141"/>
-      <c r="G73" s="142"/>
+      <c r="C73" s="116"/>
+      <c r="D73" s="116"/>
+      <c r="E73" s="116"/>
+      <c r="F73" s="116"/>
+      <c r="G73" s="117"/>
       <c r="H73" s="76" t="s">
         <v>23</v>
       </c>
@@ -9936,13 +9929,18 @@
       </c>
       <c r="W73" s="35"/>
       <c r="X73" s="36"/>
-      <c r="Y73" s="4"/>
+      <c r="Y73" s="4" t="s">
+        <v>117</v>
+      </c>
       <c r="Z73" s="4"/>
       <c r="AA73" s="43"/>
       <c r="AB73" s="45">
         <v>1</v>
       </c>
-      <c r="AC73" s="45"/>
+      <c r="AC73" s="107">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
       <c r="AD73" s="44"/>
       <c r="AE73" s="2"/>
       <c r="AF73" s="2"/>
@@ -9973,21 +9971,21 @@
       <c r="BE73" s="2"/>
       <c r="BF73" s="2"/>
       <c r="BG73" s="9"/>
-      <c r="BI73" s="112">
+      <c r="BI73" s="110">
         <v>0.66</v>
       </c>
-      <c r="BJ73" s="112">
+      <c r="BJ73" s="110">
         <v>0.66</v>
       </c>
     </row>
     <row r="74" spans="1:62" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A74" s="18"/>
       <c r="B74" s="43"/>
-      <c r="C74" s="141"/>
-      <c r="D74" s="141"/>
-      <c r="E74" s="141"/>
-      <c r="F74" s="141"/>
-      <c r="G74" s="142"/>
+      <c r="C74" s="116"/>
+      <c r="D74" s="116"/>
+      <c r="E74" s="116"/>
+      <c r="F74" s="116"/>
+      <c r="G74" s="117"/>
       <c r="H74" s="76" t="s">
         <v>24</v>
       </c>
@@ -10027,13 +10025,18 @@
       </c>
       <c r="W74" s="35"/>
       <c r="X74" s="36"/>
-      <c r="Y74" s="4"/>
+      <c r="Y74" s="4" t="s">
+        <v>117</v>
+      </c>
       <c r="Z74" s="4"/>
       <c r="AA74" s="43"/>
       <c r="AB74" s="45">
         <v>1</v>
       </c>
-      <c r="AC74" s="45"/>
+      <c r="AC74" s="107">
+        <f t="shared" ref="AC74:AC99" si="5">VLOOKUP(Y74,$BI$6:$BJ$107,2,FALSE)</f>
+        <v>0</v>
+      </c>
       <c r="AD74" s="44"/>
       <c r="AE74" s="2"/>
       <c r="AF74" s="2"/>
@@ -10064,21 +10067,21 @@
       <c r="BE74" s="2"/>
       <c r="BF74" s="2"/>
       <c r="BG74" s="9"/>
-      <c r="BI74" s="112">
+      <c r="BI74" s="110">
         <v>0.67</v>
       </c>
-      <c r="BJ74" s="112">
+      <c r="BJ74" s="110">
         <v>0.67</v>
       </c>
     </row>
     <row r="75" spans="1:62" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A75" s="18"/>
       <c r="B75" s="43"/>
-      <c r="C75" s="141"/>
-      <c r="D75" s="141"/>
-      <c r="E75" s="141"/>
-      <c r="F75" s="141"/>
-      <c r="G75" s="142"/>
+      <c r="C75" s="116"/>
+      <c r="D75" s="116"/>
+      <c r="E75" s="116"/>
+      <c r="F75" s="116"/>
+      <c r="G75" s="117"/>
       <c r="H75" s="76" t="s">
         <v>25</v>
       </c>
@@ -10118,13 +10121,18 @@
       </c>
       <c r="W75" s="35"/>
       <c r="X75" s="36"/>
-      <c r="Y75" s="4"/>
+      <c r="Y75" s="4" t="s">
+        <v>117</v>
+      </c>
       <c r="Z75" s="4"/>
       <c r="AA75" s="43"/>
       <c r="AB75" s="45">
         <v>1</v>
       </c>
-      <c r="AC75" s="45"/>
+      <c r="AC75" s="107">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
       <c r="AD75" s="44"/>
       <c r="AE75" s="2"/>
       <c r="AF75" s="2"/>
@@ -10155,21 +10163,21 @@
       <c r="BE75" s="2"/>
       <c r="BF75" s="2"/>
       <c r="BG75" s="9"/>
-      <c r="BI75" s="112">
+      <c r="BI75" s="110">
         <v>0.68</v>
       </c>
-      <c r="BJ75" s="112">
+      <c r="BJ75" s="110">
         <v>0.68</v>
       </c>
     </row>
     <row r="76" spans="1:62" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A76" s="18"/>
       <c r="B76" s="43"/>
-      <c r="C76" s="141"/>
-      <c r="D76" s="141"/>
-      <c r="E76" s="141"/>
-      <c r="F76" s="141"/>
-      <c r="G76" s="142"/>
+      <c r="C76" s="116"/>
+      <c r="D76" s="116"/>
+      <c r="E76" s="116"/>
+      <c r="F76" s="116"/>
+      <c r="G76" s="117"/>
       <c r="H76" s="76" t="s">
         <v>26</v>
       </c>
@@ -10209,13 +10217,18 @@
       </c>
       <c r="W76" s="35"/>
       <c r="X76" s="36"/>
-      <c r="Y76" s="4"/>
+      <c r="Y76" s="4" t="s">
+        <v>117</v>
+      </c>
       <c r="Z76" s="4"/>
       <c r="AA76" s="43"/>
       <c r="AB76" s="45">
         <v>1</v>
       </c>
-      <c r="AC76" s="45"/>
+      <c r="AC76" s="107">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
       <c r="AD76" s="44"/>
       <c r="AE76" s="2"/>
       <c r="AF76" s="2"/>
@@ -10246,21 +10259,21 @@
       <c r="BE76" s="2"/>
       <c r="BF76" s="2"/>
       <c r="BG76" s="9"/>
-      <c r="BI76" s="112">
+      <c r="BI76" s="110">
         <v>0.69</v>
       </c>
-      <c r="BJ76" s="112">
+      <c r="BJ76" s="110">
         <v>0.69</v>
       </c>
     </row>
     <row r="77" spans="1:62" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A77" s="18"/>
       <c r="B77" s="43"/>
-      <c r="C77" s="141"/>
-      <c r="D77" s="141"/>
-      <c r="E77" s="141"/>
-      <c r="F77" s="141"/>
-      <c r="G77" s="142"/>
+      <c r="C77" s="116"/>
+      <c r="D77" s="116"/>
+      <c r="E77" s="116"/>
+      <c r="F77" s="116"/>
+      <c r="G77" s="117"/>
       <c r="H77" s="76" t="s">
         <v>27</v>
       </c>
@@ -10300,13 +10313,18 @@
       </c>
       <c r="W77" s="99"/>
       <c r="X77" s="100"/>
-      <c r="Y77" s="4"/>
+      <c r="Y77" s="4" t="s">
+        <v>117</v>
+      </c>
       <c r="Z77" s="4"/>
       <c r="AA77" s="43"/>
       <c r="AB77" s="45">
         <v>1</v>
       </c>
-      <c r="AC77" s="45"/>
+      <c r="AC77" s="107">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
       <c r="AD77" s="44"/>
       <c r="AE77" s="2"/>
       <c r="AF77" s="2"/>
@@ -10337,21 +10355,21 @@
       <c r="BE77" s="2"/>
       <c r="BF77" s="2"/>
       <c r="BG77" s="9"/>
-      <c r="BI77" s="112">
+      <c r="BI77" s="110">
         <v>0.7</v>
       </c>
-      <c r="BJ77" s="112">
+      <c r="BJ77" s="110">
         <v>0.7</v>
       </c>
     </row>
     <row r="78" spans="1:62" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A78" s="38"/>
       <c r="B78" s="52"/>
-      <c r="C78" s="141"/>
-      <c r="D78" s="141"/>
-      <c r="E78" s="141"/>
-      <c r="F78" s="141"/>
-      <c r="G78" s="142"/>
+      <c r="C78" s="116"/>
+      <c r="D78" s="116"/>
+      <c r="E78" s="116"/>
+      <c r="F78" s="116"/>
+      <c r="G78" s="117"/>
       <c r="H78" s="76" t="s">
         <v>28</v>
       </c>
@@ -10391,13 +10409,18 @@
       </c>
       <c r="W78" s="65"/>
       <c r="X78" s="65"/>
-      <c r="Y78" s="101"/>
+      <c r="Y78" s="4" t="s">
+        <v>117</v>
+      </c>
       <c r="Z78" s="39"/>
       <c r="AA78" s="52"/>
       <c r="AB78" s="48">
         <v>1</v>
       </c>
-      <c r="AC78" s="48"/>
+      <c r="AC78" s="107">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
       <c r="AD78" s="82"/>
       <c r="AE78" s="81"/>
       <c r="AF78" s="81"/>
@@ -10428,19 +10451,19 @@
       <c r="BE78" s="81"/>
       <c r="BF78" s="81"/>
       <c r="BG78" s="83"/>
-      <c r="BI78" s="112">
+      <c r="BI78" s="110">
         <v>0.71</v>
       </c>
-      <c r="BJ78" s="112">
+      <c r="BJ78" s="110">
         <v>0.71</v>
       </c>
     </row>
     <row r="79" spans="1:62" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C79" s="141"/>
-      <c r="D79" s="141"/>
-      <c r="E79" s="141"/>
-      <c r="F79" s="141"/>
-      <c r="G79" s="142"/>
+      <c r="C79" s="116"/>
+      <c r="D79" s="116"/>
+      <c r="E79" s="116"/>
+      <c r="F79" s="116"/>
+      <c r="G79" s="117"/>
       <c r="H79" s="76" t="s">
         <v>79</v>
       </c>
@@ -10480,10 +10503,16 @@
       </c>
       <c r="W79" s="65"/>
       <c r="X79" s="65"/>
+      <c r="Y79" t="s">
+        <v>117</v>
+      </c>
       <c r="AB79">
         <v>1</v>
       </c>
-      <c r="AC79" s="54"/>
+      <c r="AC79" s="107">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
       <c r="AD79" s="57"/>
       <c r="AE79" s="57"/>
       <c r="AF79" s="57"/>
@@ -10514,19 +10543,19 @@
       <c r="BE79" s="57"/>
       <c r="BF79" s="57"/>
       <c r="BG79" s="57"/>
-      <c r="BI79" s="112">
+      <c r="BI79" s="110">
         <v>0.72</v>
       </c>
-      <c r="BJ79" s="112">
+      <c r="BJ79" s="110">
         <v>0.72</v>
       </c>
     </row>
     <row r="80" spans="1:62" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C80" s="141"/>
-      <c r="D80" s="141"/>
-      <c r="E80" s="141"/>
-      <c r="F80" s="141"/>
-      <c r="G80" s="142"/>
+      <c r="C80" s="116"/>
+      <c r="D80" s="116"/>
+      <c r="E80" s="116"/>
+      <c r="F80" s="116"/>
+      <c r="G80" s="117"/>
       <c r="H80" s="76" t="s">
         <v>80</v>
       </c>
@@ -10566,8 +10595,15 @@
       </c>
       <c r="W80" s="65"/>
       <c r="X80" s="65"/>
+      <c r="Y80" t="s">
+        <v>117</v>
+      </c>
       <c r="AB80">
         <v>1</v>
+      </c>
+      <c r="AC80" s="107">
+        <f t="shared" si="5"/>
+        <v>0</v>
       </c>
       <c r="AD80" s="57"/>
       <c r="AE80" s="57"/>
@@ -10599,19 +10635,19 @@
       <c r="BE80" s="57"/>
       <c r="BF80" s="57"/>
       <c r="BG80" s="57"/>
-      <c r="BI80" s="112">
+      <c r="BI80" s="110">
         <v>0.73</v>
       </c>
-      <c r="BJ80" s="112">
+      <c r="BJ80" s="110">
         <v>0.73</v>
       </c>
     </row>
     <row r="81" spans="3:62" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C81" s="141"/>
-      <c r="D81" s="141"/>
-      <c r="E81" s="141"/>
-      <c r="F81" s="141"/>
-      <c r="G81" s="142"/>
+      <c r="C81" s="116"/>
+      <c r="D81" s="116"/>
+      <c r="E81" s="116"/>
+      <c r="F81" s="116"/>
+      <c r="G81" s="117"/>
       <c r="H81" s="76" t="s">
         <v>31</v>
       </c>
@@ -10630,8 +10666,15 @@
       </c>
       <c r="W81" s="67"/>
       <c r="X81" s="67"/>
+      <c r="Y81" t="s">
+        <v>116</v>
+      </c>
       <c r="AB81">
         <v>3</v>
+      </c>
+      <c r="AC81" s="107">
+        <f t="shared" si="5"/>
+        <v>1</v>
       </c>
       <c r="AD81" s="57"/>
       <c r="AE81" s="57"/>
@@ -10663,19 +10706,19 @@
       <c r="BE81" s="57"/>
       <c r="BF81" s="57"/>
       <c r="BG81" s="57"/>
-      <c r="BI81" s="112">
+      <c r="BI81" s="110">
         <v>0.74</v>
       </c>
-      <c r="BJ81" s="112">
+      <c r="BJ81" s="110">
         <v>0.74</v>
       </c>
     </row>
     <row r="82" spans="3:62" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C82" s="141"/>
-      <c r="D82" s="141"/>
-      <c r="E82" s="141"/>
-      <c r="F82" s="141"/>
-      <c r="G82" s="142"/>
+      <c r="C82" s="116"/>
+      <c r="D82" s="116"/>
+      <c r="E82" s="116"/>
+      <c r="F82" s="116"/>
+      <c r="G82" s="117"/>
       <c r="H82" s="76" t="s">
         <v>32</v>
       </c>
@@ -10694,8 +10737,15 @@
       </c>
       <c r="W82" s="65"/>
       <c r="X82" s="65"/>
+      <c r="Y82" s="54">
+        <v>0.5</v>
+      </c>
       <c r="AB82">
         <v>3</v>
+      </c>
+      <c r="AC82" s="107">
+        <f t="shared" si="5"/>
+        <v>0.5</v>
       </c>
       <c r="AD82" s="57"/>
       <c r="AE82" s="57"/>
@@ -10727,19 +10777,19 @@
       <c r="BE82" s="57"/>
       <c r="BF82" s="57"/>
       <c r="BG82" s="57"/>
-      <c r="BI82" s="112">
+      <c r="BI82" s="110">
         <v>0.75</v>
       </c>
-      <c r="BJ82" s="112">
+      <c r="BJ82" s="110">
         <v>0.75</v>
       </c>
     </row>
     <row r="83" spans="3:62" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C83" s="141"/>
-      <c r="D83" s="141"/>
-      <c r="E83" s="141"/>
-      <c r="F83" s="141"/>
-      <c r="G83" s="142"/>
+      <c r="C83" s="116"/>
+      <c r="D83" s="116"/>
+      <c r="E83" s="116"/>
+      <c r="F83" s="116"/>
+      <c r="G83" s="117"/>
       <c r="H83" s="75" t="s">
         <v>33</v>
       </c>
@@ -10758,8 +10808,15 @@
       </c>
       <c r="W83" s="65"/>
       <c r="X83" s="65"/>
+      <c r="Y83" s="54">
+        <v>0.5</v>
+      </c>
       <c r="AB83">
         <v>3</v>
+      </c>
+      <c r="AC83" s="107">
+        <f t="shared" si="5"/>
+        <v>0.5</v>
       </c>
       <c r="AD83" s="57"/>
       <c r="AE83" s="57"/>
@@ -10791,19 +10848,19 @@
       <c r="BE83" s="57"/>
       <c r="BF83" s="57"/>
       <c r="BG83" s="57"/>
-      <c r="BI83" s="112">
+      <c r="BI83" s="110">
         <v>0.76</v>
       </c>
-      <c r="BJ83" s="112">
+      <c r="BJ83" s="110">
         <v>0.76</v>
       </c>
     </row>
     <row r="84" spans="3:62" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C84" s="141"/>
-      <c r="D84" s="141"/>
-      <c r="E84" s="141"/>
-      <c r="F84" s="141"/>
-      <c r="G84" s="142"/>
+      <c r="C84" s="116"/>
+      <c r="D84" s="116"/>
+      <c r="E84" s="116"/>
+      <c r="F84" s="116"/>
+      <c r="G84" s="117"/>
       <c r="H84" s="76" t="s">
         <v>34</v>
       </c>
@@ -10822,8 +10879,15 @@
       </c>
       <c r="W84" s="65"/>
       <c r="X84" s="65"/>
+      <c r="Y84" s="54">
+        <v>0.5</v>
+      </c>
       <c r="AB84">
         <v>3</v>
+      </c>
+      <c r="AC84" s="107">
+        <f t="shared" si="5"/>
+        <v>0.5</v>
       </c>
       <c r="AD84" s="57"/>
       <c r="AE84" s="57"/>
@@ -10855,19 +10919,19 @@
       <c r="BE84" s="57"/>
       <c r="BF84" s="57"/>
       <c r="BG84" s="57"/>
-      <c r="BI84" s="112">
+      <c r="BI84" s="110">
         <v>0.77</v>
       </c>
-      <c r="BJ84" s="112">
+      <c r="BJ84" s="110">
         <v>0.77</v>
       </c>
     </row>
     <row r="85" spans="3:62" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C85" s="141"/>
-      <c r="D85" s="141"/>
-      <c r="E85" s="141"/>
-      <c r="F85" s="141"/>
-      <c r="G85" s="142"/>
+      <c r="C85" s="116"/>
+      <c r="D85" s="116"/>
+      <c r="E85" s="116"/>
+      <c r="F85" s="116"/>
+      <c r="G85" s="117"/>
       <c r="H85" s="76" t="s">
         <v>35</v>
       </c>
@@ -10886,8 +10950,15 @@
       </c>
       <c r="W85" s="65"/>
       <c r="X85" s="65"/>
+      <c r="Y85" s="54">
+        <v>0.5</v>
+      </c>
       <c r="AB85">
         <v>3</v>
+      </c>
+      <c r="AC85" s="107">
+        <f t="shared" si="5"/>
+        <v>0.5</v>
       </c>
       <c r="AD85" s="57"/>
       <c r="AE85" s="57"/>
@@ -10919,19 +10990,19 @@
       <c r="BE85" s="57"/>
       <c r="BF85" s="57"/>
       <c r="BG85" s="57"/>
-      <c r="BI85" s="112">
+      <c r="BI85" s="110">
         <v>0.78</v>
       </c>
-      <c r="BJ85" s="112">
+      <c r="BJ85" s="110">
         <v>0.78</v>
       </c>
     </row>
     <row r="86" spans="3:62" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C86" s="141"/>
-      <c r="D86" s="141"/>
-      <c r="E86" s="141"/>
-      <c r="F86" s="141"/>
-      <c r="G86" s="142"/>
+      <c r="C86" s="116"/>
+      <c r="D86" s="116"/>
+      <c r="E86" s="116"/>
+      <c r="F86" s="116"/>
+      <c r="G86" s="117"/>
       <c r="H86" s="75" t="s">
         <v>36</v>
       </c>
@@ -10950,8 +11021,15 @@
       </c>
       <c r="W86" s="65"/>
       <c r="X86" s="65"/>
+      <c r="Y86" t="s">
+        <v>117</v>
+      </c>
       <c r="AB86">
         <v>3</v>
+      </c>
+      <c r="AC86" s="107">
+        <f t="shared" si="5"/>
+        <v>0</v>
       </c>
       <c r="AD86" s="57"/>
       <c r="AE86" s="57"/>
@@ -10983,19 +11061,19 @@
       <c r="BE86" s="57"/>
       <c r="BF86" s="57"/>
       <c r="BG86" s="57"/>
-      <c r="BI86" s="112">
+      <c r="BI86" s="110">
         <v>0.79</v>
       </c>
-      <c r="BJ86" s="112">
+      <c r="BJ86" s="110">
         <v>0.79</v>
       </c>
     </row>
     <row r="87" spans="3:62" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C87" s="141"/>
-      <c r="D87" s="141"/>
-      <c r="E87" s="141"/>
-      <c r="F87" s="141"/>
-      <c r="G87" s="142"/>
+      <c r="C87" s="116"/>
+      <c r="D87" s="116"/>
+      <c r="E87" s="116"/>
+      <c r="F87" s="116"/>
+      <c r="G87" s="117"/>
       <c r="H87" s="76" t="s">
         <v>37</v>
       </c>
@@ -11004,18 +11082,25 @@
       <c r="P87" s="31" t="s">
         <v>14</v>
       </c>
-      <c r="S87" s="102">
+      <c r="S87" s="101">
         <v>45096</v>
       </c>
-      <c r="T87" s="102"/>
-      <c r="U87" s="102"/>
+      <c r="T87" s="101"/>
+      <c r="U87" s="101"/>
       <c r="V87" s="65">
         <v>45098</v>
       </c>
       <c r="W87" s="65"/>
       <c r="X87" s="65"/>
+      <c r="Y87" t="s">
+        <v>117</v>
+      </c>
       <c r="AB87">
         <v>3</v>
+      </c>
+      <c r="AC87" s="107">
+        <f t="shared" si="5"/>
+        <v>0</v>
       </c>
       <c r="AD87" s="57"/>
       <c r="AE87" s="57"/>
@@ -11047,21 +11132,21 @@
       <c r="BE87" s="57"/>
       <c r="BF87" s="57"/>
       <c r="BG87" s="57"/>
-      <c r="BI87" s="112">
+      <c r="BI87" s="110">
         <v>0.8</v>
       </c>
-      <c r="BJ87" s="112">
+      <c r="BJ87" s="110">
         <v>0.8</v>
       </c>
     </row>
     <row r="88" spans="3:62" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C88" s="143" t="s">
+      <c r="C88" s="118" t="s">
         <v>16</v>
       </c>
-      <c r="D88" s="143"/>
-      <c r="E88" s="143"/>
-      <c r="F88" s="143"/>
-      <c r="G88" s="143"/>
+      <c r="D88" s="118"/>
+      <c r="E88" s="118"/>
+      <c r="F88" s="118"/>
+      <c r="G88" s="118"/>
       <c r="H88" s="61" t="s">
         <v>49</v>
       </c>
@@ -11080,8 +11165,15 @@
       </c>
       <c r="W88" s="67"/>
       <c r="X88" s="67"/>
+      <c r="Y88" t="s">
+        <v>117</v>
+      </c>
       <c r="AB88">
         <v>2</v>
+      </c>
+      <c r="AC88" s="107">
+        <f t="shared" si="5"/>
+        <v>0</v>
       </c>
       <c r="AD88" s="57"/>
       <c r="AE88" s="57"/>
@@ -11113,19 +11205,19 @@
       <c r="BE88" s="57"/>
       <c r="BF88" s="57"/>
       <c r="BG88" s="57"/>
-      <c r="BI88" s="112">
+      <c r="BI88" s="110">
         <v>0.81</v>
       </c>
-      <c r="BJ88" s="112">
+      <c r="BJ88" s="110">
         <v>0.81</v>
       </c>
     </row>
     <row r="89" spans="3:62" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C89" s="141"/>
-      <c r="D89" s="141"/>
-      <c r="E89" s="141"/>
-      <c r="F89" s="141"/>
-      <c r="G89" s="141"/>
+      <c r="C89" s="116"/>
+      <c r="D89" s="116"/>
+      <c r="E89" s="116"/>
+      <c r="F89" s="116"/>
+      <c r="G89" s="116"/>
       <c r="H89" s="61" t="s">
         <v>50</v>
       </c>
@@ -11144,8 +11236,15 @@
       </c>
       <c r="W89" s="67"/>
       <c r="X89" s="67"/>
+      <c r="Y89" t="s">
+        <v>117</v>
+      </c>
       <c r="AB89">
         <v>2</v>
+      </c>
+      <c r="AC89" s="107">
+        <f t="shared" si="5"/>
+        <v>0</v>
       </c>
       <c r="AD89" s="57"/>
       <c r="AE89" s="57"/>
@@ -11177,19 +11276,19 @@
       <c r="BE89" s="57"/>
       <c r="BF89" s="57"/>
       <c r="BG89" s="57"/>
-      <c r="BI89" s="112">
+      <c r="BI89" s="110">
         <v>0.82</v>
       </c>
-      <c r="BJ89" s="112">
+      <c r="BJ89" s="110">
         <v>0.82</v>
       </c>
     </row>
     <row r="90" spans="3:62" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C90" s="141"/>
-      <c r="D90" s="141"/>
-      <c r="E90" s="141"/>
-      <c r="F90" s="141"/>
-      <c r="G90" s="141"/>
+      <c r="C90" s="116"/>
+      <c r="D90" s="116"/>
+      <c r="E90" s="116"/>
+      <c r="F90" s="116"/>
+      <c r="G90" s="116"/>
       <c r="H90" s="61" t="s">
         <v>51</v>
       </c>
@@ -11208,8 +11307,15 @@
       </c>
       <c r="W90" s="67"/>
       <c r="X90" s="67"/>
+      <c r="Y90" t="s">
+        <v>117</v>
+      </c>
       <c r="AB90">
         <v>2</v>
+      </c>
+      <c r="AC90" s="107">
+        <f t="shared" si="5"/>
+        <v>0</v>
       </c>
       <c r="AD90" s="57"/>
       <c r="AE90" s="57"/>
@@ -11241,19 +11347,19 @@
       <c r="BE90" s="57"/>
       <c r="BF90" s="57"/>
       <c r="BG90" s="57"/>
-      <c r="BI90" s="112">
+      <c r="BI90" s="110">
         <v>0.83</v>
       </c>
-      <c r="BJ90" s="112">
+      <c r="BJ90" s="110">
         <v>0.83</v>
       </c>
     </row>
     <row r="91" spans="3:62" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C91" s="141"/>
-      <c r="D91" s="141"/>
-      <c r="E91" s="141"/>
-      <c r="F91" s="141"/>
-      <c r="G91" s="141"/>
+      <c r="C91" s="116"/>
+      <c r="D91" s="116"/>
+      <c r="E91" s="116"/>
+      <c r="F91" s="116"/>
+      <c r="G91" s="116"/>
       <c r="H91" s="61" t="s">
         <v>52</v>
       </c>
@@ -11272,8 +11378,15 @@
       </c>
       <c r="W91" s="67"/>
       <c r="X91" s="67"/>
+      <c r="Y91" t="s">
+        <v>117</v>
+      </c>
       <c r="AB91">
         <v>2</v>
+      </c>
+      <c r="AC91" s="107">
+        <f t="shared" si="5"/>
+        <v>0</v>
       </c>
       <c r="AD91" s="57"/>
       <c r="AE91" s="57"/>
@@ -11305,24 +11418,24 @@
       <c r="BE91" s="57"/>
       <c r="BF91" s="57"/>
       <c r="BG91" s="57"/>
-      <c r="BI91" s="112">
+      <c r="BI91" s="110">
         <v>0.84</v>
       </c>
-      <c r="BJ91" s="112">
+      <c r="BJ91" s="110">
         <v>0.84</v>
       </c>
     </row>
     <row r="92" spans="3:62" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C92" s="141"/>
-      <c r="D92" s="141"/>
-      <c r="E92" s="141"/>
-      <c r="F92" s="141"/>
-      <c r="G92" s="141"/>
-      <c r="H92" s="103" t="s">
+      <c r="C92" s="116"/>
+      <c r="D92" s="116"/>
+      <c r="E92" s="116"/>
+      <c r="F92" s="116"/>
+      <c r="G92" s="116"/>
+      <c r="H92" s="102" t="s">
         <v>53</v>
       </c>
-      <c r="I92" s="103"/>
-      <c r="J92" s="104"/>
+      <c r="I92" s="102"/>
+      <c r="J92" s="103"/>
       <c r="P92" s="20" t="s">
         <v>19</v>
       </c>
@@ -11336,8 +11449,15 @@
       </c>
       <c r="W92" s="67"/>
       <c r="X92" s="67"/>
+      <c r="Y92" t="s">
+        <v>117</v>
+      </c>
       <c r="AB92">
         <v>2</v>
+      </c>
+      <c r="AC92" s="107">
+        <f t="shared" si="5"/>
+        <v>0</v>
       </c>
       <c r="AD92" s="57"/>
       <c r="AE92" s="57"/>
@@ -11369,19 +11489,19 @@
       <c r="BE92" s="57"/>
       <c r="BF92" s="57"/>
       <c r="BG92" s="57"/>
-      <c r="BI92" s="112">
+      <c r="BI92" s="110">
         <v>0.85</v>
       </c>
-      <c r="BJ92" s="112">
+      <c r="BJ92" s="110">
         <v>0.85</v>
       </c>
     </row>
     <row r="93" spans="3:62" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C93" s="141"/>
-      <c r="D93" s="141"/>
-      <c r="E93" s="141"/>
-      <c r="F93" s="141"/>
-      <c r="G93" s="141"/>
+      <c r="C93" s="116"/>
+      <c r="D93" s="116"/>
+      <c r="E93" s="116"/>
+      <c r="F93" s="116"/>
+      <c r="G93" s="116"/>
       <c r="H93" s="61" t="s">
         <v>54</v>
       </c>
@@ -11400,8 +11520,15 @@
       </c>
       <c r="W93" s="67"/>
       <c r="X93" s="67"/>
+      <c r="Y93" t="s">
+        <v>117</v>
+      </c>
       <c r="AB93">
         <v>2</v>
+      </c>
+      <c r="AC93" s="107">
+        <f t="shared" si="5"/>
+        <v>0</v>
       </c>
       <c r="AD93" s="57"/>
       <c r="AE93" s="57"/>
@@ -11433,19 +11560,19 @@
       <c r="BE93" s="57"/>
       <c r="BF93" s="57"/>
       <c r="BG93" s="57"/>
-      <c r="BI93" s="112">
+      <c r="BI93" s="110">
         <v>0.86</v>
       </c>
-      <c r="BJ93" s="112">
+      <c r="BJ93" s="110">
         <v>0.86</v>
       </c>
     </row>
     <row r="94" spans="3:62" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C94" s="141"/>
-      <c r="D94" s="141"/>
-      <c r="E94" s="141"/>
-      <c r="F94" s="141"/>
-      <c r="G94" s="141"/>
+      <c r="C94" s="116"/>
+      <c r="D94" s="116"/>
+      <c r="E94" s="116"/>
+      <c r="F94" s="116"/>
+      <c r="G94" s="116"/>
       <c r="H94" s="61" t="s">
         <v>55</v>
       </c>
@@ -11464,8 +11591,15 @@
       </c>
       <c r="W94" s="67"/>
       <c r="X94" s="67"/>
+      <c r="Y94" t="s">
+        <v>117</v>
+      </c>
       <c r="AB94">
         <v>2</v>
+      </c>
+      <c r="AC94" s="107">
+        <f t="shared" si="5"/>
+        <v>0</v>
       </c>
       <c r="AD94" s="57"/>
       <c r="AE94" s="57"/>
@@ -11497,19 +11631,19 @@
       <c r="BE94" s="57"/>
       <c r="BF94" s="57"/>
       <c r="BG94" s="57"/>
-      <c r="BI94" s="112">
+      <c r="BI94" s="110">
         <v>0.87</v>
       </c>
-      <c r="BJ94" s="112">
+      <c r="BJ94" s="110">
         <v>0.87</v>
       </c>
     </row>
     <row r="95" spans="3:62" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C95" s="141"/>
-      <c r="D95" s="141"/>
-      <c r="E95" s="141"/>
-      <c r="F95" s="141"/>
-      <c r="G95" s="141"/>
+      <c r="C95" s="116"/>
+      <c r="D95" s="116"/>
+      <c r="E95" s="116"/>
+      <c r="F95" s="116"/>
+      <c r="G95" s="116"/>
       <c r="H95" s="61" t="s">
         <v>56</v>
       </c>
@@ -11528,8 +11662,15 @@
       </c>
       <c r="W95" s="67"/>
       <c r="X95" s="67"/>
+      <c r="Y95" t="s">
+        <v>117</v>
+      </c>
       <c r="AB95">
         <v>2</v>
+      </c>
+      <c r="AC95" s="107">
+        <f t="shared" si="5"/>
+        <v>0</v>
       </c>
       <c r="AD95" s="57"/>
       <c r="AE95" s="57"/>
@@ -11561,19 +11702,19 @@
       <c r="BE95" s="57"/>
       <c r="BF95" s="57"/>
       <c r="BG95" s="57"/>
-      <c r="BI95" s="112">
+      <c r="BI95" s="110">
         <v>0.88</v>
       </c>
-      <c r="BJ95" s="112">
+      <c r="BJ95" s="110">
         <v>0.88</v>
       </c>
     </row>
     <row r="96" spans="3:62" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C96" s="141"/>
-      <c r="D96" s="141"/>
-      <c r="E96" s="141"/>
-      <c r="F96" s="141"/>
-      <c r="G96" s="141"/>
+      <c r="C96" s="116"/>
+      <c r="D96" s="116"/>
+      <c r="E96" s="116"/>
+      <c r="F96" s="116"/>
+      <c r="G96" s="116"/>
       <c r="H96" s="61" t="s">
         <v>57</v>
       </c>
@@ -11592,8 +11733,15 @@
       </c>
       <c r="W96" s="67"/>
       <c r="X96" s="67"/>
+      <c r="Y96" t="s">
+        <v>117</v>
+      </c>
       <c r="AB96">
         <v>2</v>
+      </c>
+      <c r="AC96" s="107">
+        <f t="shared" si="5"/>
+        <v>0</v>
       </c>
       <c r="AD96" s="57"/>
       <c r="AE96" s="57"/>
@@ -11625,19 +11773,19 @@
       <c r="BE96" s="57"/>
       <c r="BF96" s="57"/>
       <c r="BG96" s="57"/>
-      <c r="BI96" s="112">
+      <c r="BI96" s="110">
         <v>0.89</v>
       </c>
-      <c r="BJ96" s="112">
+      <c r="BJ96" s="110">
         <v>0.89</v>
       </c>
     </row>
     <row r="97" spans="3:62" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C97" s="141"/>
-      <c r="D97" s="141"/>
-      <c r="E97" s="141"/>
-      <c r="F97" s="141"/>
-      <c r="G97" s="141"/>
+      <c r="C97" s="116"/>
+      <c r="D97" s="116"/>
+      <c r="E97" s="116"/>
+      <c r="F97" s="116"/>
+      <c r="G97" s="116"/>
       <c r="H97" s="61" t="s">
         <v>81</v>
       </c>
@@ -11656,8 +11804,15 @@
       </c>
       <c r="W97" s="67"/>
       <c r="X97" s="67"/>
+      <c r="Y97" t="s">
+        <v>117</v>
+      </c>
       <c r="AB97">
         <v>2</v>
+      </c>
+      <c r="AC97" s="107">
+        <f t="shared" si="5"/>
+        <v>0</v>
       </c>
       <c r="AD97" s="57"/>
       <c r="AE97" s="57"/>
@@ -11689,19 +11844,19 @@
       <c r="BE97" s="57"/>
       <c r="BF97" s="57"/>
       <c r="BG97" s="57"/>
-      <c r="BI97" s="112">
+      <c r="BI97" s="110">
         <v>0.9</v>
       </c>
-      <c r="BJ97" s="112">
+      <c r="BJ97" s="110">
         <v>0.9</v>
       </c>
     </row>
     <row r="98" spans="3:62" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C98" s="144"/>
-      <c r="D98" s="144"/>
-      <c r="E98" s="144"/>
-      <c r="F98" s="144"/>
-      <c r="G98" s="144"/>
+      <c r="C98" s="119"/>
+      <c r="D98" s="119"/>
+      <c r="E98" s="119"/>
+      <c r="F98" s="119"/>
+      <c r="G98" s="119"/>
       <c r="H98" s="61" t="s">
         <v>82</v>
       </c>
@@ -11720,8 +11875,15 @@
       </c>
       <c r="W98" s="67"/>
       <c r="X98" s="67"/>
+      <c r="Y98" t="s">
+        <v>117</v>
+      </c>
       <c r="AB98">
         <v>2</v>
+      </c>
+      <c r="AC98" s="107">
+        <f t="shared" si="5"/>
+        <v>0</v>
       </c>
       <c r="AD98" s="57"/>
       <c r="AE98" s="57"/>
@@ -11753,10 +11915,10 @@
       <c r="BE98" s="57"/>
       <c r="BF98" s="57"/>
       <c r="BG98" s="57"/>
-      <c r="BI98" s="112">
+      <c r="BI98" s="110">
         <v>0.91</v>
       </c>
-      <c r="BJ98" s="112">
+      <c r="BJ98" s="110">
         <v>0.91</v>
       </c>
     </row>
@@ -11768,7 +11930,7 @@
       <c r="E99" s="59"/>
       <c r="F99" s="59"/>
       <c r="G99" s="59"/>
-      <c r="H99" s="105" t="s">
+      <c r="H99" s="104" t="s">
         <v>118</v>
       </c>
       <c r="I99" s="61"/>
@@ -11783,8 +11945,15 @@
       </c>
       <c r="W99" s="67"/>
       <c r="X99" s="67"/>
+      <c r="Y99" t="s">
+        <v>117</v>
+      </c>
       <c r="AB99">
         <v>2</v>
+      </c>
+      <c r="AC99" s="107">
+        <f t="shared" si="5"/>
+        <v>0</v>
       </c>
       <c r="AD99" s="57"/>
       <c r="AE99" s="57"/>
@@ -11816,10 +11985,10 @@
       <c r="BE99" s="80"/>
       <c r="BF99" s="57"/>
       <c r="BG99" s="57"/>
-      <c r="BI99" s="112">
+      <c r="BI99" s="110">
         <v>0.92</v>
       </c>
-      <c r="BJ99" s="112">
+      <c r="BJ99" s="110">
         <v>0.92</v>
       </c>
     </row>
@@ -11871,10 +12040,10 @@
       <c r="BE100" s="57"/>
       <c r="BF100" s="57"/>
       <c r="BG100" s="57"/>
-      <c r="BI100" s="112">
+      <c r="BI100" s="110">
         <v>0.93</v>
       </c>
-      <c r="BJ100" s="112">
+      <c r="BJ100" s="110">
         <v>0.93</v>
       </c>
     </row>
@@ -11924,10 +12093,10 @@
       <c r="BE101" s="57"/>
       <c r="BF101" s="57"/>
       <c r="BG101" s="57"/>
-      <c r="BI101" s="112">
+      <c r="BI101" s="110">
         <v>0.94</v>
       </c>
-      <c r="BJ101" s="112">
+      <c r="BJ101" s="110">
         <v>0.94</v>
       </c>
     </row>
@@ -11938,44 +12107,44 @@
       <c r="G102" s="68"/>
       <c r="AB102">
         <f>SUM(AB9:AB100)</f>
-        <v>286</v>
-      </c>
-      <c r="BI102" s="112">
+        <v>280</v>
+      </c>
+      <c r="BI102" s="110">
         <v>0.95</v>
       </c>
-      <c r="BJ102" s="112">
+      <c r="BJ102" s="110">
         <v>0.95</v>
       </c>
     </row>
     <row r="103" spans="3:62" x14ac:dyDescent="0.3">
-      <c r="BI103" s="112">
+      <c r="BI103" s="110">
         <v>0.96</v>
       </c>
-      <c r="BJ103" s="112">
+      <c r="BJ103" s="110">
         <v>0.96</v>
       </c>
     </row>
     <row r="104" spans="3:62" x14ac:dyDescent="0.3">
-      <c r="BI104" s="112">
+      <c r="BI104" s="110">
         <v>0.97</v>
       </c>
-      <c r="BJ104" s="112">
+      <c r="BJ104" s="110">
         <v>0.97</v>
       </c>
     </row>
     <row r="105" spans="3:62" x14ac:dyDescent="0.3">
-      <c r="BI105" s="112">
+      <c r="BI105" s="110">
         <v>0.98</v>
       </c>
-      <c r="BJ105" s="112">
+      <c r="BJ105" s="110">
         <v>0.98</v>
       </c>
     </row>
     <row r="106" spans="3:62" x14ac:dyDescent="0.3">
-      <c r="BI106" s="112">
+      <c r="BI106" s="110">
         <v>0.99</v>
       </c>
-      <c r="BJ106" s="112">
+      <c r="BJ106" s="110">
         <v>0.99</v>
       </c>
     </row>
@@ -12002,6 +12171,36 @@
     </row>
   </sheetData>
   <mergeCells count="46">
+    <mergeCell ref="Y65:AA65"/>
+    <mergeCell ref="A66:B66"/>
+    <mergeCell ref="C66:G66"/>
+    <mergeCell ref="P66:R66"/>
+    <mergeCell ref="S66:U66"/>
+    <mergeCell ref="V66:X66"/>
+    <mergeCell ref="A65:B65"/>
+    <mergeCell ref="C65:G65"/>
+    <mergeCell ref="P65:R65"/>
+    <mergeCell ref="S65:U65"/>
+    <mergeCell ref="V65:X65"/>
+    <mergeCell ref="V68:X68"/>
+    <mergeCell ref="Y68:AA68"/>
+    <mergeCell ref="A67:B67"/>
+    <mergeCell ref="C67:G67"/>
+    <mergeCell ref="P67:R67"/>
+    <mergeCell ref="S67:U67"/>
+    <mergeCell ref="V67:X67"/>
+    <mergeCell ref="AD1:AG1"/>
+    <mergeCell ref="AH1:AN1"/>
+    <mergeCell ref="AD2:AG2"/>
+    <mergeCell ref="AH2:AN2"/>
+    <mergeCell ref="A4:B6"/>
+    <mergeCell ref="C4:O4"/>
+    <mergeCell ref="P4:R6"/>
+    <mergeCell ref="Y4:AA6"/>
+    <mergeCell ref="C5:G6"/>
+    <mergeCell ref="S5:U6"/>
+    <mergeCell ref="V5:X6"/>
+    <mergeCell ref="S4:X4"/>
     <mergeCell ref="C70:G87"/>
     <mergeCell ref="C88:G98"/>
     <mergeCell ref="H5:I6"/>
@@ -12018,36 +12217,6 @@
     <mergeCell ref="C68:G68"/>
     <mergeCell ref="P68:R68"/>
     <mergeCell ref="S68:U68"/>
-    <mergeCell ref="AD1:AG1"/>
-    <mergeCell ref="AH1:AN1"/>
-    <mergeCell ref="AD2:AG2"/>
-    <mergeCell ref="AH2:AN2"/>
-    <mergeCell ref="A4:B6"/>
-    <mergeCell ref="C4:O4"/>
-    <mergeCell ref="P4:R6"/>
-    <mergeCell ref="Y4:AA6"/>
-    <mergeCell ref="C5:G6"/>
-    <mergeCell ref="S5:U6"/>
-    <mergeCell ref="V5:X6"/>
-    <mergeCell ref="S4:X4"/>
-    <mergeCell ref="V68:X68"/>
-    <mergeCell ref="Y68:AA68"/>
-    <mergeCell ref="A67:B67"/>
-    <mergeCell ref="C67:G67"/>
-    <mergeCell ref="P67:R67"/>
-    <mergeCell ref="S67:U67"/>
-    <mergeCell ref="V67:X67"/>
-    <mergeCell ref="Y65:AA65"/>
-    <mergeCell ref="A66:B66"/>
-    <mergeCell ref="C66:G66"/>
-    <mergeCell ref="P66:R66"/>
-    <mergeCell ref="S66:U66"/>
-    <mergeCell ref="V66:X66"/>
-    <mergeCell ref="A65:B65"/>
-    <mergeCell ref="C65:G65"/>
-    <mergeCell ref="P65:R65"/>
-    <mergeCell ref="S65:U65"/>
-    <mergeCell ref="V65:X65"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="AD5:AD6">
@@ -12081,7 +12250,7 @@
   <dimension ref="A1:T21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+      <selection activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
@@ -12221,27 +12390,27 @@
       <c r="D3" s="88"/>
       <c r="E3" s="88">
         <f>E7/E5</f>
-        <v>0.27832167832167831</v>
+        <v>0.28428571428571425</v>
       </c>
       <c r="F3" s="88">
         <f>F7/F5</f>
-        <v>0.42972027972027976</v>
+        <v>0.43892857142857145</v>
       </c>
       <c r="G3" s="88">
         <f>G7/G5</f>
-        <v>0.42972027972027976</v>
+        <v>0.43892857142857145</v>
       </c>
       <c r="H3" s="88">
         <f t="shared" ref="H3:T3" si="0">H7/H5</f>
-        <v>0.42972027972027976</v>
+        <v>0.43892857142857145</v>
       </c>
       <c r="I3" s="88">
         <f t="shared" si="0"/>
-        <v>0.53006993006993008</v>
+        <v>0.54142857142857137</v>
       </c>
       <c r="J3" s="88">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.62</v>
       </c>
       <c r="K3" s="88">
         <f t="shared" si="0"/>
@@ -12337,61 +12506,61 @@
         <v>141</v>
       </c>
       <c r="B5" s="57">
-        <v>286</v>
+        <v>280</v>
       </c>
       <c r="C5" s="57">
-        <v>286</v>
+        <v>280</v>
       </c>
       <c r="D5" s="57">
-        <v>286</v>
+        <v>280</v>
       </c>
       <c r="E5" s="57">
-        <v>286</v>
+        <v>280</v>
       </c>
       <c r="F5" s="57">
-        <v>286</v>
+        <v>280</v>
       </c>
       <c r="G5" s="57">
-        <v>286</v>
+        <v>280</v>
       </c>
       <c r="H5" s="57">
-        <v>286</v>
+        <v>280</v>
       </c>
       <c r="I5" s="57">
-        <v>286</v>
+        <v>280</v>
       </c>
       <c r="J5" s="57">
-        <v>286</v>
+        <v>280</v>
       </c>
       <c r="K5" s="57">
-        <v>286</v>
+        <v>280</v>
       </c>
       <c r="L5" s="57">
-        <v>286</v>
+        <v>280</v>
       </c>
       <c r="M5" s="57">
-        <v>286</v>
+        <v>280</v>
       </c>
       <c r="N5" s="57">
-        <v>286</v>
+        <v>280</v>
       </c>
       <c r="O5" s="57">
-        <v>286</v>
+        <v>280</v>
       </c>
       <c r="P5" s="57">
-        <v>286</v>
+        <v>280</v>
       </c>
       <c r="Q5" s="57">
-        <v>286</v>
+        <v>280</v>
       </c>
       <c r="R5" s="57">
-        <v>286</v>
+        <v>280</v>
       </c>
       <c r="S5" s="57">
-        <v>286</v>
+        <v>280</v>
       </c>
       <c r="T5" s="57">
-        <v>286</v>
+        <v>280</v>
       </c>
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.3">
@@ -12478,7 +12647,9 @@
       <c r="I7" s="90">
         <v>151.6</v>
       </c>
-      <c r="J7" s="91"/>
+      <c r="J7" s="91">
+        <v>173.6</v>
+      </c>
       <c r="K7" s="91"/>
       <c r="L7" s="91"/>
       <c r="M7" s="91"/>
@@ -12493,63 +12664,63 @@
     <row r="8" spans="1:20" x14ac:dyDescent="0.3">
       <c r="F8">
         <f>Sheet3!$F$95</f>
-        <v>151.60000000000002</v>
+        <v>173.60000000000002</v>
       </c>
       <c r="G8">
         <f>Sheet3!$F$95</f>
-        <v>151.60000000000002</v>
+        <v>173.60000000000002</v>
       </c>
       <c r="H8">
         <f>Sheet3!$F$95</f>
-        <v>151.60000000000002</v>
+        <v>173.60000000000002</v>
       </c>
       <c r="I8">
         <f>Sheet3!$F$95</f>
-        <v>151.60000000000002</v>
+        <v>173.60000000000002</v>
       </c>
       <c r="J8">
         <f>Sheet3!$F$95</f>
-        <v>151.60000000000002</v>
+        <v>173.60000000000002</v>
       </c>
       <c r="K8">
         <f>Sheet3!$F$95</f>
-        <v>151.60000000000002</v>
+        <v>173.60000000000002</v>
       </c>
       <c r="L8">
         <f>Sheet3!$F$95</f>
-        <v>151.60000000000002</v>
+        <v>173.60000000000002</v>
       </c>
       <c r="M8">
         <f>Sheet3!$F$95</f>
-        <v>151.60000000000002</v>
+        <v>173.60000000000002</v>
       </c>
       <c r="N8">
         <f>Sheet3!$F$95</f>
-        <v>151.60000000000002</v>
+        <v>173.60000000000002</v>
       </c>
       <c r="O8">
         <f>Sheet3!$F$95</f>
-        <v>151.60000000000002</v>
+        <v>173.60000000000002</v>
       </c>
       <c r="P8">
         <f>Sheet3!$F$95</f>
-        <v>151.60000000000002</v>
+        <v>173.60000000000002</v>
       </c>
       <c r="Q8">
         <f>Sheet3!$F$95</f>
-        <v>151.60000000000002</v>
+        <v>173.60000000000002</v>
       </c>
       <c r="R8">
         <f>Sheet3!$F$95</f>
-        <v>151.60000000000002</v>
+        <v>173.60000000000002</v>
       </c>
       <c r="S8">
         <f>Sheet3!$F$95</f>
-        <v>151.60000000000002</v>
+        <v>173.60000000000002</v>
       </c>
       <c r="T8">
         <f>Sheet3!$F$95</f>
-        <v>151.60000000000002</v>
+        <v>173.60000000000002</v>
       </c>
     </row>
     <row r="9" spans="1:20" x14ac:dyDescent="0.3">
@@ -12608,7 +12779,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{403F8652-4296-415E-A6A0-53C23B18A84C}">
   <dimension ref="C2:F100"/>
   <sheetViews>
-    <sheetView topLeftCell="A85" workbookViewId="0">
+    <sheetView topLeftCell="A74" workbookViewId="0">
       <selection activeCell="F95" sqref="F95"/>
     </sheetView>
   </sheetViews>
@@ -12620,10 +12791,10 @@
   <sheetData>
     <row r="2" spans="4:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D2" s="1"/>
-      <c r="E2" s="145" t="s">
+      <c r="E2" s="120" t="s">
         <v>89</v>
       </c>
-      <c r="F2" s="146"/>
+      <c r="F2" s="121"/>
     </row>
     <row r="3" spans="4:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D3" s="1"/>
@@ -12787,7 +12958,7 @@
       </c>
       <c r="F19" s="69">
         <f>工数予実管理表!AB24*工数予実管理表!AC24</f>
-        <v>0.5</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="20" spans="4:6" ht="16" x14ac:dyDescent="0.3">
@@ -12917,7 +13088,7 @@
       </c>
       <c r="F32" s="69">
         <f>工数予実管理表!AB37*工数予実管理表!AC37</f>
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="33" spans="3:6" ht="16" x14ac:dyDescent="0.3">
@@ -12967,23 +13138,23 @@
       </c>
       <c r="F37" s="69">
         <f>工数予実管理表!AB42*工数予実管理表!AC42</f>
-        <v>3</v>
+        <v>2.0999999999999996</v>
       </c>
     </row>
     <row r="38" spans="3:6" ht="16" x14ac:dyDescent="0.3">
-      <c r="C38" s="141"/>
-      <c r="D38" s="141"/>
+      <c r="C38" s="116"/>
+      <c r="D38" s="116"/>
       <c r="E38" s="69" t="s">
         <v>55</v>
       </c>
       <c r="F38" s="69">
         <f>工数予実管理表!AB43*工数予実管理表!AC43</f>
-        <v>0</v>
+        <v>0.89999999999999991</v>
       </c>
     </row>
     <row r="39" spans="3:6" ht="16" x14ac:dyDescent="0.3">
-      <c r="C39" s="141"/>
-      <c r="D39" s="141"/>
+      <c r="C39" s="116"/>
+      <c r="D39" s="116"/>
       <c r="E39" s="69" t="s">
         <v>56</v>
       </c>
@@ -13011,7 +13182,7 @@
       </c>
       <c r="F41" s="69">
         <f>工数予実管理表!AB46*工数予実管理表!AC46</f>
-        <v>4.8000000000000007</v>
+        <v>2.4000000000000004</v>
       </c>
     </row>
     <row r="42" spans="3:6" ht="16" x14ac:dyDescent="0.3">
@@ -13022,7 +13193,7 @@
       </c>
       <c r="F42" s="69">
         <f>工数予実管理表!AB47*工数予実管理表!AC47</f>
-        <v>4.8000000000000007</v>
+        <v>2.4000000000000004</v>
       </c>
     </row>
     <row r="43" spans="3:6" ht="16" x14ac:dyDescent="0.3">
@@ -13033,7 +13204,7 @@
       </c>
       <c r="F43" s="69">
         <f>工数予実管理表!AB48*工数予実管理表!AC48</f>
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="44" spans="3:6" ht="16" x14ac:dyDescent="0.3">
@@ -13044,7 +13215,7 @@
       </c>
       <c r="F44" s="69">
         <f>工数予実管理表!AB49*工数予実管理表!AC49</f>
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="45" spans="3:6" ht="16" x14ac:dyDescent="0.3">
@@ -13231,7 +13402,7 @@
       </c>
       <c r="F61" s="69">
         <f>工数予実管理表!AB66*工数予実管理表!AC66</f>
-        <v>0</v>
+        <v>1.4000000000000001</v>
       </c>
     </row>
     <row r="62" spans="3:6" ht="16" x14ac:dyDescent="0.3">
@@ -13242,7 +13413,7 @@
       </c>
       <c r="F62" s="69">
         <f>工数予実管理表!AB67*工数予実管理表!AC67</f>
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="63" spans="3:6" ht="16" x14ac:dyDescent="0.3">
@@ -13396,7 +13567,7 @@
       </c>
       <c r="F76" s="69">
         <f>工数予実管理表!AB81*工数予実管理表!AC81</f>
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="77" spans="3:6" ht="16" x14ac:dyDescent="0.3">
@@ -13407,7 +13578,7 @@
       </c>
       <c r="F77" s="69">
         <f>工数予実管理表!AB82*工数予実管理表!AC82</f>
-        <v>0</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="78" spans="3:6" ht="16" x14ac:dyDescent="0.3">
@@ -13418,7 +13589,7 @@
       </c>
       <c r="F78" s="69">
         <f>工数予実管理表!AB83*工数予実管理表!AC83</f>
-        <v>0</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="79" spans="3:6" ht="16" x14ac:dyDescent="0.3">
@@ -13429,7 +13600,7 @@
       </c>
       <c r="F79" s="69">
         <f>工数予実管理表!AB84*工数予実管理表!AC84</f>
-        <v>0</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="80" spans="3:6" ht="16" x14ac:dyDescent="0.3">
@@ -13440,7 +13611,7 @@
       </c>
       <c r="F80" s="69">
         <f>工数予実管理表!AB85*工数予実管理表!AC85</f>
-        <v>0</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="81" spans="3:6" ht="16" x14ac:dyDescent="0.3">
@@ -13512,7 +13683,7 @@
     <row r="87" spans="3:6" ht="16" x14ac:dyDescent="0.3">
       <c r="C87" s="68"/>
       <c r="D87" s="68"/>
-      <c r="E87" s="103" t="s">
+      <c r="E87" s="102" t="s">
         <v>53</v>
       </c>
       <c r="F87" s="69">
@@ -13589,7 +13760,7 @@
     <row r="94" spans="3:6" ht="16" x14ac:dyDescent="0.3">
       <c r="C94" s="68"/>
       <c r="D94" s="68"/>
-      <c r="E94" s="105" t="s">
+      <c r="E94" s="104" t="s">
         <v>118</v>
       </c>
       <c r="F94" s="69">
@@ -13600,9 +13771,9 @@
     <row r="95" spans="3:6" ht="16" x14ac:dyDescent="0.3">
       <c r="C95" s="68"/>
       <c r="D95" s="68"/>
-      <c r="F95" s="113">
+      <c r="F95" s="111">
         <f>SUM(F4:F94)</f>
-        <v>151.60000000000002</v>
+        <v>173.60000000000002</v>
       </c>
     </row>
     <row r="96" spans="3:6" ht="16" x14ac:dyDescent="0.3">
@@ -13637,21 +13808,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x010100364AEC801DCCFF4C9A7CD82776573E34" ma:contentTypeVersion="0" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="9a90bd606c73e53fbdca164192b510d5">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="86e6f6c817e23f4348afe6a544d017da">
     <xsd:element name="properties">
@@ -13765,10 +13921,32 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{658D790C-F48A-4541-BBAC-37C510A1270D}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E8C7E73E-37A8-4119-AD2E-81AFBFD39544}">
   <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
@@ -13783,16 +13961,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E8C7E73E-37A8-4119-AD2E-81AFBFD39544}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{658D790C-F48A-4541-BBAC-37C510A1270D}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>

--- a/doc/D4_ドキュメント/予実管理表(最新版)_D4.xlsx
+++ b/doc/D4_ドキュメント/予実管理表(最新版)_D4.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17FBDB8B-3E74-4D1D-A3FE-3756DE80AE5E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F34512E1-EA55-4539-83B2-B751D816C9E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-19310" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="工数予実管理表" sheetId="5" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="857" uniqueCount="162">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="856" uniqueCount="162">
   <si>
     <t>プロジェクト名</t>
     <rPh sb="6" eb="7">
@@ -1712,7 +1712,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="199">
+  <cellXfs count="208">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2061,12 +2061,195 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="178" fontId="2" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="12" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="17" borderId="31" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="178" fontId="2" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="12" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="17" borderId="29" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="56" fontId="0" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2118,197 +2301,41 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="22" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="178" fontId="2" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="12" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="17" borderId="31" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="178" fontId="2" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="12" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="17" borderId="29" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="56" fontId="0" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2562,7 +2589,7 @@
                   <c:v>0.61275167785234896</c:v>
                 </c:pt>
                 <c:pt idx="9" formatCode="0.0%">
-                  <c:v>0</c:v>
+                  <c:v>0.65167785234899323</c:v>
                 </c:pt>
                 <c:pt idx="10" formatCode="0.0%">
                   <c:v>0</c:v>
@@ -3770,8 +3797,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA4A6EF2-62B9-43FE-BFFD-0A328B128D1B}">
   <dimension ref="A1:BL111"/>
   <sheetViews>
-    <sheetView topLeftCell="G38" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J48" sqref="J48:P53"/>
+    <sheetView tabSelected="1" topLeftCell="G8" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J29" sqref="J29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
@@ -3805,54 +3832,54 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:64" ht="16" x14ac:dyDescent="0.3">
-      <c r="A1" s="139" t="s">
+      <c r="A1" s="167" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="140"/>
-      <c r="C1" s="140"/>
-      <c r="D1" s="140"/>
-      <c r="E1" s="140"/>
-      <c r="F1" s="140"/>
-      <c r="G1" s="140"/>
-      <c r="H1" s="143" t="s">
+      <c r="B1" s="168"/>
+      <c r="C1" s="168"/>
+      <c r="D1" s="168"/>
+      <c r="E1" s="168"/>
+      <c r="F1" s="168"/>
+      <c r="G1" s="168"/>
+      <c r="H1" s="171" t="s">
         <v>1</v>
       </c>
-      <c r="I1" s="144"/>
-      <c r="J1" s="144"/>
-      <c r="K1" s="144"/>
-      <c r="L1" s="144"/>
-      <c r="M1" s="144"/>
-      <c r="N1" s="144"/>
-      <c r="O1" s="144"/>
-      <c r="P1" s="144"/>
-      <c r="Q1" s="144"/>
-      <c r="R1" s="144"/>
-      <c r="S1" s="144"/>
-      <c r="T1" s="144"/>
-      <c r="U1" s="144"/>
-      <c r="V1" s="144"/>
-      <c r="W1" s="144"/>
-      <c r="X1" s="144"/>
-      <c r="Y1" s="144"/>
-      <c r="Z1" s="144"/>
-      <c r="AA1" s="144"/>
-      <c r="AB1" s="144"/>
-      <c r="AC1" s="145"/>
-      <c r="AD1" s="118" t="s">
+      <c r="I1" s="172"/>
+      <c r="J1" s="172"/>
+      <c r="K1" s="172"/>
+      <c r="L1" s="172"/>
+      <c r="M1" s="172"/>
+      <c r="N1" s="172"/>
+      <c r="O1" s="172"/>
+      <c r="P1" s="172"/>
+      <c r="Q1" s="172"/>
+      <c r="R1" s="172"/>
+      <c r="S1" s="172"/>
+      <c r="T1" s="172"/>
+      <c r="U1" s="172"/>
+      <c r="V1" s="172"/>
+      <c r="W1" s="172"/>
+      <c r="X1" s="172"/>
+      <c r="Y1" s="172"/>
+      <c r="Z1" s="172"/>
+      <c r="AA1" s="172"/>
+      <c r="AB1" s="172"/>
+      <c r="AC1" s="173"/>
+      <c r="AD1" s="179" t="s">
         <v>2</v>
       </c>
-      <c r="AE1" s="119"/>
-      <c r="AF1" s="119"/>
-      <c r="AG1" s="120"/>
-      <c r="AH1" s="121">
+      <c r="AE1" s="180"/>
+      <c r="AF1" s="180"/>
+      <c r="AG1" s="181"/>
+      <c r="AH1" s="182">
         <v>45078</v>
       </c>
-      <c r="AI1" s="122"/>
-      <c r="AJ1" s="122"/>
-      <c r="AK1" s="122"/>
-      <c r="AL1" s="122"/>
-      <c r="AM1" s="122"/>
-      <c r="AN1" s="123"/>
+      <c r="AI1" s="183"/>
+      <c r="AJ1" s="183"/>
+      <c r="AK1" s="183"/>
+      <c r="AL1" s="183"/>
+      <c r="AM1" s="183"/>
+      <c r="AN1" s="184"/>
       <c r="AO1" s="1"/>
       <c r="AP1" s="1"/>
       <c r="AQ1" s="1"/>
@@ -3874,50 +3901,50 @@
       <c r="BG1" s="1"/>
     </row>
     <row r="2" spans="1:64" ht="16" x14ac:dyDescent="0.3">
-      <c r="A2" s="141"/>
-      <c r="B2" s="142"/>
-      <c r="C2" s="142"/>
-      <c r="D2" s="142"/>
-      <c r="E2" s="142"/>
-      <c r="F2" s="142"/>
-      <c r="G2" s="142"/>
-      <c r="H2" s="146"/>
-      <c r="I2" s="147"/>
-      <c r="J2" s="147"/>
-      <c r="K2" s="147"/>
-      <c r="L2" s="147"/>
-      <c r="M2" s="147"/>
-      <c r="N2" s="147"/>
-      <c r="O2" s="147"/>
-      <c r="P2" s="147"/>
-      <c r="Q2" s="147"/>
-      <c r="R2" s="147"/>
-      <c r="S2" s="147"/>
-      <c r="T2" s="147"/>
-      <c r="U2" s="147"/>
-      <c r="V2" s="147"/>
-      <c r="W2" s="147"/>
-      <c r="X2" s="147"/>
-      <c r="Y2" s="147"/>
-      <c r="Z2" s="147"/>
-      <c r="AA2" s="147"/>
-      <c r="AB2" s="147"/>
-      <c r="AC2" s="148"/>
-      <c r="AD2" s="118" t="s">
+      <c r="A2" s="169"/>
+      <c r="B2" s="170"/>
+      <c r="C2" s="170"/>
+      <c r="D2" s="170"/>
+      <c r="E2" s="170"/>
+      <c r="F2" s="170"/>
+      <c r="G2" s="170"/>
+      <c r="H2" s="174"/>
+      <c r="I2" s="175"/>
+      <c r="J2" s="175"/>
+      <c r="K2" s="175"/>
+      <c r="L2" s="175"/>
+      <c r="M2" s="175"/>
+      <c r="N2" s="175"/>
+      <c r="O2" s="175"/>
+      <c r="P2" s="175"/>
+      <c r="Q2" s="175"/>
+      <c r="R2" s="175"/>
+      <c r="S2" s="175"/>
+      <c r="T2" s="175"/>
+      <c r="U2" s="175"/>
+      <c r="V2" s="175"/>
+      <c r="W2" s="175"/>
+      <c r="X2" s="175"/>
+      <c r="Y2" s="175"/>
+      <c r="Z2" s="175"/>
+      <c r="AA2" s="175"/>
+      <c r="AB2" s="175"/>
+      <c r="AC2" s="176"/>
+      <c r="AD2" s="179" t="s">
         <v>3</v>
       </c>
-      <c r="AE2" s="119"/>
-      <c r="AF2" s="119"/>
-      <c r="AG2" s="120"/>
-      <c r="AH2" s="121">
+      <c r="AE2" s="180"/>
+      <c r="AF2" s="180"/>
+      <c r="AG2" s="181"/>
+      <c r="AH2" s="182">
         <v>45107</v>
       </c>
-      <c r="AI2" s="122"/>
-      <c r="AJ2" s="122"/>
-      <c r="AK2" s="122"/>
-      <c r="AL2" s="122"/>
-      <c r="AM2" s="122"/>
-      <c r="AN2" s="123"/>
+      <c r="AI2" s="183"/>
+      <c r="AJ2" s="183"/>
+      <c r="AK2" s="183"/>
+      <c r="AL2" s="183"/>
+      <c r="AM2" s="183"/>
+      <c r="AN2" s="184"/>
       <c r="AO2" s="1"/>
       <c r="AP2" s="1"/>
       <c r="AQ2" s="1"/>
@@ -4000,43 +4027,43 @@
       <c r="BG3" s="1"/>
     </row>
     <row r="4" spans="1:64" ht="16" x14ac:dyDescent="0.3">
-      <c r="A4" s="124" t="s">
+      <c r="A4" s="185" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="125"/>
-      <c r="C4" s="128" t="s">
+      <c r="B4" s="186"/>
+      <c r="C4" s="189" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="128"/>
-      <c r="E4" s="128"/>
-      <c r="F4" s="128"/>
-      <c r="G4" s="128"/>
-      <c r="H4" s="128"/>
-      <c r="I4" s="128"/>
-      <c r="J4" s="128"/>
-      <c r="K4" s="128"/>
-      <c r="L4" s="128"/>
-      <c r="M4" s="128"/>
-      <c r="N4" s="128"/>
-      <c r="O4" s="128"/>
-      <c r="P4" s="125" t="s">
+      <c r="D4" s="189"/>
+      <c r="E4" s="189"/>
+      <c r="F4" s="189"/>
+      <c r="G4" s="189"/>
+      <c r="H4" s="189"/>
+      <c r="I4" s="189"/>
+      <c r="J4" s="189"/>
+      <c r="K4" s="189"/>
+      <c r="L4" s="189"/>
+      <c r="M4" s="189"/>
+      <c r="N4" s="189"/>
+      <c r="O4" s="189"/>
+      <c r="P4" s="186" t="s">
         <v>6</v>
       </c>
-      <c r="Q4" s="125"/>
-      <c r="R4" s="125"/>
-      <c r="S4" s="125" t="s">
+      <c r="Q4" s="186"/>
+      <c r="R4" s="186"/>
+      <c r="S4" s="186" t="s">
         <v>7</v>
       </c>
-      <c r="T4" s="125"/>
-      <c r="U4" s="125"/>
-      <c r="V4" s="125"/>
-      <c r="W4" s="125"/>
-      <c r="X4" s="133"/>
-      <c r="Y4" s="129" t="s">
+      <c r="T4" s="186"/>
+      <c r="U4" s="186"/>
+      <c r="V4" s="186"/>
+      <c r="W4" s="186"/>
+      <c r="X4" s="194"/>
+      <c r="Y4" s="190" t="s">
         <v>8</v>
       </c>
-      <c r="Z4" s="129"/>
-      <c r="AA4" s="130"/>
+      <c r="Z4" s="190"/>
+      <c r="AA4" s="191"/>
       <c r="AB4" s="49"/>
       <c r="AC4" s="49"/>
       <c r="AD4" s="5">
@@ -4161,43 +4188,43 @@
       </c>
     </row>
     <row r="5" spans="1:64" ht="16" x14ac:dyDescent="0.3">
-      <c r="A5" s="126"/>
-      <c r="B5" s="127"/>
-      <c r="C5" s="127" t="s">
+      <c r="A5" s="187"/>
+      <c r="B5" s="188"/>
+      <c r="C5" s="188" t="s">
         <v>9</v>
       </c>
-      <c r="D5" s="127"/>
-      <c r="E5" s="127"/>
-      <c r="F5" s="127"/>
-      <c r="G5" s="127"/>
-      <c r="H5" s="135" t="s">
+      <c r="D5" s="188"/>
+      <c r="E5" s="188"/>
+      <c r="F5" s="188"/>
+      <c r="G5" s="188"/>
+      <c r="H5" s="163" t="s">
         <v>115</v>
       </c>
-      <c r="I5" s="136"/>
-      <c r="J5" s="135" t="s">
+      <c r="I5" s="164"/>
+      <c r="J5" s="163" t="s">
         <v>89</v>
       </c>
-      <c r="K5" s="136"/>
+      <c r="K5" s="164"/>
       <c r="L5" s="53"/>
       <c r="M5" s="53"/>
       <c r="N5" s="53"/>
       <c r="O5" s="53"/>
-      <c r="P5" s="127"/>
-      <c r="Q5" s="127"/>
-      <c r="R5" s="127"/>
-      <c r="S5" s="127" t="s">
+      <c r="P5" s="188"/>
+      <c r="Q5" s="188"/>
+      <c r="R5" s="188"/>
+      <c r="S5" s="188" t="s">
         <v>2</v>
       </c>
-      <c r="T5" s="127"/>
-      <c r="U5" s="127"/>
-      <c r="V5" s="127" t="s">
+      <c r="T5" s="188"/>
+      <c r="U5" s="188"/>
+      <c r="V5" s="188" t="s">
         <v>3</v>
       </c>
-      <c r="W5" s="127"/>
-      <c r="X5" s="118"/>
-      <c r="Y5" s="131"/>
-      <c r="Z5" s="131"/>
-      <c r="AA5" s="132"/>
+      <c r="W5" s="188"/>
+      <c r="X5" s="179"/>
+      <c r="Y5" s="192"/>
+      <c r="Z5" s="192"/>
+      <c r="AA5" s="193"/>
       <c r="AB5" s="45" t="s">
         <v>87</v>
       </c>
@@ -4332,33 +4359,33 @@
       </c>
     </row>
     <row r="6" spans="1:64" ht="16" x14ac:dyDescent="0.3">
-      <c r="A6" s="126"/>
-      <c r="B6" s="127"/>
-      <c r="C6" s="127"/>
-      <c r="D6" s="127"/>
-      <c r="E6" s="127"/>
-      <c r="F6" s="127"/>
-      <c r="G6" s="127"/>
-      <c r="H6" s="137"/>
-      <c r="I6" s="138"/>
-      <c r="J6" s="137"/>
-      <c r="K6" s="138"/>
+      <c r="A6" s="187"/>
+      <c r="B6" s="188"/>
+      <c r="C6" s="188"/>
+      <c r="D6" s="188"/>
+      <c r="E6" s="188"/>
+      <c r="F6" s="188"/>
+      <c r="G6" s="188"/>
+      <c r="H6" s="165"/>
+      <c r="I6" s="166"/>
+      <c r="J6" s="165"/>
+      <c r="K6" s="166"/>
       <c r="L6" s="53"/>
       <c r="M6" s="53"/>
       <c r="N6" s="53"/>
       <c r="O6" s="53"/>
-      <c r="P6" s="127"/>
-      <c r="Q6" s="127"/>
-      <c r="R6" s="127"/>
-      <c r="S6" s="127"/>
-      <c r="T6" s="127"/>
-      <c r="U6" s="127"/>
-      <c r="V6" s="127"/>
-      <c r="W6" s="127"/>
-      <c r="X6" s="118"/>
-      <c r="Y6" s="131"/>
-      <c r="Z6" s="131"/>
-      <c r="AA6" s="132"/>
+      <c r="P6" s="188"/>
+      <c r="Q6" s="188"/>
+      <c r="R6" s="188"/>
+      <c r="S6" s="188"/>
+      <c r="T6" s="188"/>
+      <c r="U6" s="188"/>
+      <c r="V6" s="188"/>
+      <c r="W6" s="188"/>
+      <c r="X6" s="179"/>
+      <c r="Y6" s="192"/>
+      <c r="Z6" s="192"/>
+      <c r="AA6" s="193"/>
       <c r="AB6" s="45"/>
       <c r="AC6" s="45"/>
       <c r="AD6" s="11" t="str">
@@ -4679,7 +4706,7 @@
         <v>1</v>
       </c>
       <c r="AC9" s="107">
-        <f>VLOOKUP(Y9,$BI$6:$BJ$107,2,FALSE)</f>
+        <f t="shared" ref="AC9:AC47" si="4">VLOOKUP(Y9,$BI$6:$BJ$107,2,FALSE)</f>
         <v>1</v>
       </c>
       <c r="AD9" s="44"/>
@@ -4763,7 +4790,7 @@
         <v>1</v>
       </c>
       <c r="AC10" s="107">
-        <f>VLOOKUP(Y10,$BI$6:$BJ$107,2,FALSE)</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="AD10" s="44"/>
@@ -4847,7 +4874,7 @@
         <v>1</v>
       </c>
       <c r="AC11" s="107">
-        <f>VLOOKUP(Y11,$BI$6:$BJ$107,2,FALSE)</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="AD11" s="44"/>
@@ -4931,7 +4958,7 @@
         <v>2</v>
       </c>
       <c r="AC12" s="107">
-        <f>VLOOKUP(Y12,$BI$6:$BJ$107,2,FALSE)</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="AD12" s="44"/>
@@ -5015,7 +5042,7 @@
         <v>2</v>
       </c>
       <c r="AC13" s="107">
-        <f>VLOOKUP(Y13,$BI$6:$BJ$107,2,FALSE)</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="AD13" s="44"/>
@@ -5099,7 +5126,7 @@
         <v>2</v>
       </c>
       <c r="AC14" s="107">
-        <f>VLOOKUP(Y14,$BI$6:$BJ$107,2,FALSE)</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="AD14" s="44"/>
@@ -5183,7 +5210,7 @@
         <v>2</v>
       </c>
       <c r="AC15" s="107">
-        <f>VLOOKUP(Y15,$BI$6:$BJ$107,2,FALSE)</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="AD15" s="44"/>
@@ -5267,7 +5294,7 @@
         <v>2</v>
       </c>
       <c r="AC16" s="107">
-        <f>VLOOKUP(Y16,$BI$6:$BJ$107,2,FALSE)</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="AD16" s="44"/>
@@ -5351,7 +5378,7 @@
         <v>1</v>
       </c>
       <c r="AC17" s="107">
-        <f>VLOOKUP(Y17,$BI$6:$BJ$107,2,FALSE)</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="AD17" s="44"/>
@@ -5437,7 +5464,7 @@
         <v>2</v>
       </c>
       <c r="AC18" s="107">
-        <f>VLOOKUP(Y18,$BI$6:$BJ$107,2,FALSE)</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="AD18" s="44"/>
@@ -5523,7 +5550,7 @@
         <v>1</v>
       </c>
       <c r="AC19" s="107">
-        <f>VLOOKUP(Y19,$BI$6:$BJ$107,2,FALSE)</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="AD19" s="44"/>
@@ -5607,7 +5634,7 @@
         <v>1</v>
       </c>
       <c r="AC20" s="107">
-        <f>VLOOKUP(Y20,$BI$6:$BJ$107,2,FALSE)</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="AD20" s="44"/>
@@ -5691,7 +5718,7 @@
         <v>1</v>
       </c>
       <c r="AC21" s="107">
-        <f>VLOOKUP(Y21,$BI$6:$BJ$107,2,FALSE)</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="AD21" s="44"/>
@@ -5775,7 +5802,7 @@
         <v>1</v>
       </c>
       <c r="AC22" s="107">
-        <f>VLOOKUP(Y22,$BI$6:$BJ$107,2,FALSE)</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="AD22" s="44"/>
@@ -5859,7 +5886,7 @@
         <v>1</v>
       </c>
       <c r="AC23" s="107">
-        <f>VLOOKUP(Y23,$BI$6:$BJ$107,2,FALSE)</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="AD23" s="44"/>
@@ -5907,11 +5934,11 @@
       <c r="E24" s="19"/>
       <c r="F24" s="19"/>
       <c r="G24" s="19"/>
-      <c r="H24" s="23" t="s">
+      <c r="H24" s="206" t="s">
         <v>102</v>
       </c>
-      <c r="I24" s="23"/>
-      <c r="J24" s="23" t="s">
+      <c r="I24" s="206"/>
+      <c r="J24" s="206" t="s">
         <v>35</v>
       </c>
       <c r="K24" s="19"/>
@@ -5934,8 +5961,8 @@
       </c>
       <c r="W24" s="21"/>
       <c r="X24" s="21"/>
-      <c r="Y24" s="25">
-        <v>0.9</v>
+      <c r="Y24" s="25" t="s">
+        <v>116</v>
       </c>
       <c r="Z24" s="4"/>
       <c r="AA24" s="43"/>
@@ -5943,8 +5970,8 @@
         <v>1</v>
       </c>
       <c r="AC24" s="107">
-        <f>VLOOKUP(Y24,$BI$6:$BJ$107,2,FALSE)</f>
-        <v>0.9</v>
+        <f t="shared" si="4"/>
+        <v>1</v>
       </c>
       <c r="AD24" s="44"/>
       <c r="AE24" s="2"/>
@@ -6027,7 +6054,7 @@
         <v>1</v>
       </c>
       <c r="AC25" s="107">
-        <f>VLOOKUP(Y25,$BI$6:$BJ$107,2,FALSE)</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="AD25" s="44"/>
@@ -6111,7 +6138,7 @@
         <v>1</v>
       </c>
       <c r="AC26" s="107">
-        <f>VLOOKUP(Y26,$BI$6:$BJ$107,2,FALSE)</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="AD26" s="44"/>
@@ -6195,7 +6222,7 @@
         <v>1</v>
       </c>
       <c r="AC27" s="107">
-        <f>VLOOKUP(Y27,$BI$6:$BJ$107,2,FALSE)</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="AD27" s="44"/>
@@ -6279,7 +6306,7 @@
         <v>1</v>
       </c>
       <c r="AC28" s="107">
-        <f>VLOOKUP(Y28,$BI$6:$BJ$107,2,FALSE)</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="AD28" s="44"/>
@@ -6363,7 +6390,7 @@
         <v>1</v>
       </c>
       <c r="AC29" s="107">
-        <f>VLOOKUP(Y29,$BI$6:$BJ$107,2,FALSE)</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="AD29" s="44"/>
@@ -6447,7 +6474,7 @@
         <v>1</v>
       </c>
       <c r="AC30" s="107">
-        <f>VLOOKUP(Y30,$BI$6:$BJ$107,2,FALSE)</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="AD30" s="44"/>
@@ -6531,7 +6558,7 @@
         <v>1</v>
       </c>
       <c r="AC31" s="107">
-        <f>VLOOKUP(Y31,$BI$6:$BJ$107,2,FALSE)</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="AD31" s="44"/>
@@ -6615,7 +6642,7 @@
         <v>1</v>
       </c>
       <c r="AC32" s="107">
-        <f>VLOOKUP(Y32,$BI$6:$BJ$107,2,FALSE)</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="AD32" s="44"/>
@@ -6699,7 +6726,7 @@
         <v>1</v>
       </c>
       <c r="AC33" s="107">
-        <f>VLOOKUP(Y33,$BI$6:$BJ$107,2,FALSE)</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="AD33" s="44"/>
@@ -6783,7 +6810,7 @@
         <v>1</v>
       </c>
       <c r="AC34" s="107">
-        <f>VLOOKUP(Y34,$BI$6:$BJ$107,2,FALSE)</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="AD34" s="44"/>
@@ -6867,7 +6894,7 @@
         <v>1</v>
       </c>
       <c r="AC35" s="107">
-        <f>VLOOKUP(Y35,$BI$6:$BJ$107,2,FALSE)</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="AD35" s="44"/>
@@ -6951,7 +6978,7 @@
         <v>1</v>
       </c>
       <c r="AC36" s="107">
-        <f>VLOOKUP(Y36,$BI$6:$BJ$107,2,FALSE)</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="AD36" s="44"/>
@@ -6999,11 +7026,11 @@
       <c r="E37" s="19"/>
       <c r="F37" s="19"/>
       <c r="G37" s="19"/>
-      <c r="H37" s="106" t="s">
+      <c r="H37" s="198" t="s">
         <v>90</v>
       </c>
-      <c r="I37" s="106"/>
-      <c r="J37" s="106" t="s">
+      <c r="I37" s="198"/>
+      <c r="J37" s="198" t="s">
         <v>49</v>
       </c>
       <c r="K37" s="19"/>
@@ -7035,7 +7062,7 @@
         <v>3</v>
       </c>
       <c r="AC37" s="107">
-        <f>VLOOKUP(Y37,$BI$6:$BJ$107,2,FALSE)</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="AD37" s="44"/>
@@ -7083,11 +7110,11 @@
       <c r="E38" s="19"/>
       <c r="F38" s="19"/>
       <c r="G38" s="19"/>
-      <c r="H38" s="106" t="s">
+      <c r="H38" s="198" t="s">
         <v>91</v>
       </c>
-      <c r="I38" s="106"/>
-      <c r="J38" s="106" t="s">
+      <c r="I38" s="198"/>
+      <c r="J38" s="198" t="s">
         <v>50</v>
       </c>
       <c r="K38" s="19"/>
@@ -7119,7 +7146,7 @@
         <v>3</v>
       </c>
       <c r="AC38" s="107">
-        <f>VLOOKUP(Y38,$BI$6:$BJ$107,2,FALSE)</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="AD38" s="44"/>
@@ -7167,11 +7194,11 @@
       <c r="E39" s="19"/>
       <c r="F39" s="19"/>
       <c r="G39" s="19"/>
-      <c r="H39" s="106" t="s">
+      <c r="H39" s="198" t="s">
         <v>110</v>
       </c>
-      <c r="I39" s="106"/>
-      <c r="J39" s="106" t="s">
+      <c r="I39" s="198"/>
+      <c r="J39" s="198" t="s">
         <v>51</v>
       </c>
       <c r="K39" s="19"/>
@@ -7203,7 +7230,7 @@
         <v>3</v>
       </c>
       <c r="AC39" s="107">
-        <f>VLOOKUP(Y39,$BI$6:$BJ$107,2,FALSE)</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="AD39" s="44"/>
@@ -7251,11 +7278,11 @@
       <c r="E40" s="19"/>
       <c r="F40" s="19"/>
       <c r="G40" s="19"/>
-      <c r="H40" s="106" t="s">
+      <c r="H40" s="198" t="s">
         <v>111</v>
       </c>
-      <c r="I40" s="106"/>
-      <c r="J40" s="106" t="s">
+      <c r="I40" s="198"/>
+      <c r="J40" s="198" t="s">
         <v>52</v>
       </c>
       <c r="K40" s="19"/>
@@ -7287,7 +7314,7 @@
         <v>3</v>
       </c>
       <c r="AC40" s="107">
-        <f>VLOOKUP(Y40,$BI$6:$BJ$107,2,FALSE)</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="AD40" s="44"/>
@@ -7335,11 +7362,11 @@
       <c r="E41" s="19"/>
       <c r="F41" s="19"/>
       <c r="G41" s="19"/>
-      <c r="H41" s="106" t="s">
+      <c r="H41" s="198" t="s">
         <v>93</v>
       </c>
-      <c r="I41" s="106"/>
-      <c r="J41" s="106" t="s">
+      <c r="I41" s="198"/>
+      <c r="J41" s="198" t="s">
         <v>53</v>
       </c>
       <c r="K41" s="23"/>
@@ -7371,7 +7398,7 @@
         <v>3</v>
       </c>
       <c r="AC41" s="107">
-        <f>VLOOKUP(Y41,$BI$6:$BJ$107,2,FALSE)</f>
+        <f t="shared" si="4"/>
         <v>0.8</v>
       </c>
       <c r="AD41" s="44"/>
@@ -7419,11 +7446,11 @@
       <c r="E42" s="19"/>
       <c r="F42" s="19"/>
       <c r="G42" s="19"/>
-      <c r="H42" s="106" t="s">
+      <c r="H42" s="206" t="s">
         <v>124</v>
       </c>
-      <c r="I42" s="106"/>
-      <c r="J42" s="106" t="s">
+      <c r="I42" s="206"/>
+      <c r="J42" s="206" t="s">
         <v>54</v>
       </c>
       <c r="K42" s="19"/>
@@ -7455,7 +7482,7 @@
         <v>3</v>
       </c>
       <c r="AC42" s="107">
-        <f>VLOOKUP(Y42,$BI$6:$BJ$107,2,FALSE)</f>
+        <f t="shared" si="4"/>
         <v>0.7</v>
       </c>
       <c r="AD42" s="44"/>
@@ -7503,11 +7530,11 @@
       <c r="E43" s="19"/>
       <c r="F43" s="19"/>
       <c r="G43" s="19"/>
-      <c r="H43" s="112" t="s">
+      <c r="H43" s="204" t="s">
         <v>106</v>
       </c>
-      <c r="I43" s="112"/>
-      <c r="J43" s="113" t="s">
+      <c r="I43" s="204"/>
+      <c r="J43" s="205" t="s">
         <v>55</v>
       </c>
       <c r="K43" s="28"/>
@@ -7531,7 +7558,7 @@
       <c r="W43" s="21"/>
       <c r="X43" s="21"/>
       <c r="Y43" s="40">
-        <v>0.3</v>
+        <v>0.5</v>
       </c>
       <c r="Z43" s="4"/>
       <c r="AA43" s="43"/>
@@ -7539,8 +7566,8 @@
         <v>3</v>
       </c>
       <c r="AC43" s="107">
-        <f>VLOOKUP(Y43,$BI$6:$BJ$107,2,FALSE)</f>
-        <v>0.3</v>
+        <f t="shared" si="4"/>
+        <v>0.5</v>
       </c>
       <c r="AD43" s="44"/>
       <c r="AE43" s="2"/>
@@ -7587,11 +7614,11 @@
       <c r="E44" s="19"/>
       <c r="F44" s="19"/>
       <c r="G44" s="19"/>
-      <c r="H44" s="106" t="s">
+      <c r="H44" s="198" t="s">
         <v>125</v>
       </c>
-      <c r="I44" s="106"/>
-      <c r="J44" s="106" t="s">
+      <c r="I44" s="198"/>
+      <c r="J44" s="198" t="s">
         <v>159</v>
       </c>
       <c r="K44" s="19"/>
@@ -7623,7 +7650,7 @@
         <v>3</v>
       </c>
       <c r="AC44" s="107">
-        <f>VLOOKUP(Y44,$BI$6:$BJ$107,2,FALSE)</f>
+        <f t="shared" si="4"/>
         <v>0.5</v>
       </c>
       <c r="AD44" s="44"/>
@@ -7671,11 +7698,11 @@
       <c r="E45" s="19"/>
       <c r="F45" s="19"/>
       <c r="G45" s="19"/>
-      <c r="H45" s="112" t="s">
+      <c r="H45" s="199" t="s">
         <v>95</v>
       </c>
-      <c r="I45" s="112"/>
-      <c r="J45" s="113" t="s">
+      <c r="I45" s="199"/>
+      <c r="J45" s="200" t="s">
         <v>57</v>
       </c>
       <c r="K45" s="28"/>
@@ -7707,7 +7734,7 @@
         <v>3</v>
       </c>
       <c r="AC45" s="107">
-        <f>VLOOKUP(Y45,$BI$6:$BJ$107,2,FALSE)</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="AD45" s="44"/>
@@ -7757,11 +7784,11 @@
       <c r="E46" s="19"/>
       <c r="F46" s="19"/>
       <c r="G46" s="19"/>
-      <c r="H46" s="112" t="s">
+      <c r="H46" s="199" t="s">
         <v>112</v>
       </c>
-      <c r="I46" s="112"/>
-      <c r="J46" s="113" t="s">
+      <c r="I46" s="199"/>
+      <c r="J46" s="200" t="s">
         <v>81</v>
       </c>
       <c r="K46" s="41"/>
@@ -7793,7 +7820,7 @@
         <v>3</v>
       </c>
       <c r="AC46" s="107">
-        <f>VLOOKUP(Y46,$BI$6:$BJ$107,2,FALSE)</f>
+        <f t="shared" si="4"/>
         <v>0.8</v>
       </c>
       <c r="AD46" s="44"/>
@@ -7836,50 +7863,50 @@
     <row r="47" spans="1:62" ht="16" x14ac:dyDescent="0.3">
       <c r="A47" s="18"/>
       <c r="B47" s="4"/>
-      <c r="C47" s="157" t="s">
+      <c r="C47" s="121" t="s">
         <v>83</v>
       </c>
-      <c r="D47" s="157"/>
-      <c r="E47" s="157"/>
-      <c r="F47" s="157"/>
-      <c r="G47" s="157"/>
-      <c r="H47" s="158" t="s">
+      <c r="D47" s="121"/>
+      <c r="E47" s="121"/>
+      <c r="F47" s="121"/>
+      <c r="G47" s="121"/>
+      <c r="H47" s="201" t="s">
         <v>113</v>
       </c>
-      <c r="I47" s="158"/>
-      <c r="J47" s="159" t="s">
+      <c r="I47" s="201"/>
+      <c r="J47" s="202" t="s">
         <v>82</v>
       </c>
-      <c r="K47" s="160"/>
-      <c r="L47" s="160"/>
-      <c r="M47" s="160"/>
-      <c r="N47" s="160"/>
-      <c r="O47" s="161"/>
-      <c r="P47" s="162" t="s">
+      <c r="K47" s="124"/>
+      <c r="L47" s="124"/>
+      <c r="M47" s="124"/>
+      <c r="N47" s="124"/>
+      <c r="O47" s="125"/>
+      <c r="P47" s="126" t="s">
         <v>19</v>
       </c>
-      <c r="Q47" s="162"/>
-      <c r="R47" s="162"/>
-      <c r="S47" s="163">
+      <c r="Q47" s="126"/>
+      <c r="R47" s="126"/>
+      <c r="S47" s="127">
         <v>45091</v>
       </c>
-      <c r="T47" s="163"/>
-      <c r="U47" s="163"/>
-      <c r="V47" s="163">
+      <c r="T47" s="127"/>
+      <c r="U47" s="127"/>
+      <c r="V47" s="127">
         <v>45093</v>
       </c>
-      <c r="W47" s="163"/>
-      <c r="X47" s="163"/>
-      <c r="Y47" s="164">
+      <c r="W47" s="127"/>
+      <c r="X47" s="127"/>
+      <c r="Y47" s="128">
         <v>0.8</v>
       </c>
       <c r="Z47" s="59"/>
-      <c r="AA47" s="165"/>
-      <c r="AB47" s="166">
+      <c r="AA47" s="129"/>
+      <c r="AB47" s="130">
         <v>3</v>
       </c>
-      <c r="AC47" s="167">
-        <f>VLOOKUP(Y47,$BI$6:$BJ$107,2,FALSE)</f>
+      <c r="AC47" s="131">
+        <f t="shared" si="4"/>
         <v>0.8</v>
       </c>
       <c r="AD47" s="82"/>
@@ -7895,14 +7922,14 @@
       <c r="AN47" s="81"/>
       <c r="AO47" s="81"/>
       <c r="AP47" s="81"/>
-      <c r="AQ47" s="168"/>
-      <c r="AR47" s="168"/>
-      <c r="AS47" s="168"/>
+      <c r="AQ47" s="132"/>
+      <c r="AR47" s="132"/>
+      <c r="AS47" s="132"/>
       <c r="AT47" s="81"/>
       <c r="AU47" s="81"/>
-      <c r="AV47" s="168"/>
-      <c r="AW47" s="168"/>
-      <c r="AX47" s="168"/>
+      <c r="AV47" s="132"/>
+      <c r="AW47" s="132"/>
+      <c r="AX47" s="132"/>
       <c r="AY47" s="81"/>
       <c r="AZ47" s="81"/>
       <c r="BA47" s="81"/>
@@ -7912,10 +7939,10 @@
       <c r="BE47" s="81"/>
       <c r="BF47" s="81"/>
       <c r="BG47" s="83"/>
-      <c r="BI47" s="169">
+      <c r="BI47" s="133">
         <v>0.4</v>
       </c>
-      <c r="BJ47" s="169">
+      <c r="BJ47" s="133">
         <v>0.4</v>
       </c>
     </row>
@@ -7927,9 +7954,9 @@
       <c r="E48" s="57"/>
       <c r="F48" s="57"/>
       <c r="G48" s="57"/>
-      <c r="H48" s="57"/>
-      <c r="I48" s="57"/>
-      <c r="J48" s="57" t="s">
+      <c r="H48" s="203"/>
+      <c r="I48" s="203"/>
+      <c r="J48" s="203" t="s">
         <v>155</v>
       </c>
       <c r="K48" s="57"/>
@@ -7937,31 +7964,31 @@
       <c r="M48" s="57"/>
       <c r="N48" s="57"/>
       <c r="O48" s="57"/>
-      <c r="P48" s="162" t="s">
+      <c r="P48" s="126" t="s">
         <v>19</v>
       </c>
       <c r="Q48" s="57"/>
       <c r="R48" s="57"/>
-      <c r="S48" s="185">
+      <c r="S48" s="149">
         <v>45097</v>
       </c>
       <c r="T48" s="57"/>
       <c r="U48" s="57"/>
-      <c r="V48" s="185">
+      <c r="V48" s="149">
         <v>45099</v>
       </c>
       <c r="W48" s="57"/>
       <c r="X48" s="57"/>
-      <c r="Y48" s="186">
+      <c r="Y48" s="150">
         <v>0.5</v>
       </c>
       <c r="Z48" s="57"/>
       <c r="AA48" s="57"/>
-      <c r="AB48" s="166">
+      <c r="AB48" s="130">
         <v>3</v>
       </c>
-      <c r="AC48" s="167">
-        <f t="shared" ref="AC48:AC53" si="4">VLOOKUP(Y48,$BI$6:$BJ$107,2,FALSE)</f>
+      <c r="AC48" s="131">
+        <f t="shared" ref="AC48:AC53" si="5">VLOOKUP(Y48,$BI$6:$BJ$107,2,FALSE)</f>
         <v>0.5</v>
       </c>
       <c r="AD48" s="57"/>
@@ -8006,9 +8033,9 @@
       <c r="E49" s="57"/>
       <c r="F49" s="57"/>
       <c r="G49" s="57"/>
-      <c r="H49" s="57"/>
-      <c r="I49" s="57"/>
-      <c r="J49" s="57" t="s">
+      <c r="H49" s="203"/>
+      <c r="I49" s="203"/>
+      <c r="J49" s="203" t="s">
         <v>156</v>
       </c>
       <c r="K49" s="57"/>
@@ -8016,31 +8043,31 @@
       <c r="M49" s="57"/>
       <c r="N49" s="57"/>
       <c r="O49" s="57"/>
-      <c r="P49" s="162" t="s">
+      <c r="P49" s="126" t="s">
         <v>19</v>
       </c>
       <c r="Q49" s="57"/>
       <c r="R49" s="57"/>
-      <c r="S49" s="185">
+      <c r="S49" s="149">
         <v>45097</v>
       </c>
       <c r="T49" s="57"/>
       <c r="U49" s="57"/>
-      <c r="V49" s="185">
+      <c r="V49" s="149">
         <v>45099</v>
       </c>
       <c r="W49" s="57"/>
       <c r="X49" s="57"/>
-      <c r="Y49" s="186">
+      <c r="Y49" s="150">
         <v>0.5</v>
       </c>
       <c r="Z49" s="57"/>
       <c r="AA49" s="57"/>
-      <c r="AB49" s="166">
+      <c r="AB49" s="130">
         <v>3</v>
       </c>
-      <c r="AC49" s="167">
-        <f t="shared" si="4"/>
+      <c r="AC49" s="131">
+        <f t="shared" si="5"/>
         <v>0.5</v>
       </c>
       <c r="AD49" s="57"/>
@@ -8085,9 +8112,9 @@
       <c r="E50" s="57"/>
       <c r="F50" s="57"/>
       <c r="G50" s="57"/>
-      <c r="H50" s="57"/>
-      <c r="I50" s="57"/>
-      <c r="J50" s="57" t="s">
+      <c r="H50" s="203"/>
+      <c r="I50" s="203"/>
+      <c r="J50" s="203" t="s">
         <v>157</v>
       </c>
       <c r="K50" s="57"/>
@@ -8095,31 +8122,31 @@
       <c r="M50" s="57"/>
       <c r="N50" s="57"/>
       <c r="O50" s="57"/>
-      <c r="P50" s="162" t="s">
+      <c r="P50" s="126" t="s">
         <v>19</v>
       </c>
       <c r="Q50" s="57"/>
       <c r="R50" s="57"/>
-      <c r="S50" s="185">
+      <c r="S50" s="149">
         <v>45097</v>
       </c>
       <c r="T50" s="57"/>
       <c r="U50" s="57"/>
-      <c r="V50" s="185">
+      <c r="V50" s="149">
         <v>45099</v>
       </c>
       <c r="W50" s="57"/>
       <c r="X50" s="57"/>
-      <c r="Y50" s="186">
+      <c r="Y50" s="150">
         <v>0.5</v>
       </c>
       <c r="Z50" s="57"/>
       <c r="AA50" s="57"/>
-      <c r="AB50" s="166">
+      <c r="AB50" s="130">
         <v>3</v>
       </c>
-      <c r="AC50" s="167">
-        <f t="shared" si="4"/>
+      <c r="AC50" s="131">
+        <f t="shared" si="5"/>
         <v>0.5</v>
       </c>
       <c r="AD50" s="57"/>
@@ -8164,9 +8191,9 @@
       <c r="E51" s="57"/>
       <c r="F51" s="57"/>
       <c r="G51" s="57"/>
-      <c r="H51" s="57"/>
-      <c r="I51" s="57"/>
-      <c r="J51" s="57" t="s">
+      <c r="H51" s="203"/>
+      <c r="I51" s="203"/>
+      <c r="J51" s="203" t="s">
         <v>158</v>
       </c>
       <c r="K51" s="57"/>
@@ -8174,31 +8201,31 @@
       <c r="M51" s="57"/>
       <c r="N51" s="57"/>
       <c r="O51" s="57"/>
-      <c r="P51" s="162" t="s">
+      <c r="P51" s="126" t="s">
         <v>19</v>
       </c>
       <c r="Q51" s="57"/>
       <c r="R51" s="57"/>
-      <c r="S51" s="185">
+      <c r="S51" s="149">
         <v>45097</v>
       </c>
       <c r="T51" s="57"/>
       <c r="U51" s="57"/>
-      <c r="V51" s="185">
+      <c r="V51" s="149">
         <v>45099</v>
       </c>
       <c r="W51" s="57"/>
       <c r="X51" s="57"/>
-      <c r="Y51" s="186">
+      <c r="Y51" s="150">
         <v>0.5</v>
       </c>
       <c r="Z51" s="57"/>
       <c r="AA51" s="57"/>
-      <c r="AB51" s="166">
+      <c r="AB51" s="130">
         <v>3</v>
       </c>
-      <c r="AC51" s="167">
-        <f t="shared" si="4"/>
+      <c r="AC51" s="131">
+        <f t="shared" si="5"/>
         <v>0.5</v>
       </c>
       <c r="AD51" s="57"/>
@@ -8243,9 +8270,9 @@
       <c r="E52" s="57"/>
       <c r="F52" s="57"/>
       <c r="G52" s="57"/>
-      <c r="H52" s="57"/>
-      <c r="I52" s="57"/>
-      <c r="J52" s="57" t="s">
+      <c r="H52" s="203"/>
+      <c r="I52" s="203"/>
+      <c r="J52" s="203" t="s">
         <v>160</v>
       </c>
       <c r="K52" s="57"/>
@@ -8253,31 +8280,31 @@
       <c r="M52" s="57"/>
       <c r="N52" s="57"/>
       <c r="O52" s="57"/>
-      <c r="P52" s="162" t="s">
+      <c r="P52" s="126" t="s">
         <v>19</v>
       </c>
       <c r="Q52" s="57"/>
       <c r="R52" s="57"/>
-      <c r="S52" s="185">
+      <c r="S52" s="149">
         <v>45097</v>
       </c>
       <c r="T52" s="57"/>
       <c r="U52" s="57"/>
-      <c r="V52" s="185">
+      <c r="V52" s="149">
         <v>45099</v>
       </c>
       <c r="W52" s="57"/>
       <c r="X52" s="57"/>
-      <c r="Y52" s="186">
+      <c r="Y52" s="150">
         <v>0.5</v>
       </c>
       <c r="Z52" s="57"/>
       <c r="AA52" s="57"/>
-      <c r="AB52" s="166">
+      <c r="AB52" s="130">
         <v>3</v>
       </c>
-      <c r="AC52" s="167">
-        <f t="shared" si="4"/>
+      <c r="AC52" s="131">
+        <f t="shared" si="5"/>
         <v>0.5</v>
       </c>
       <c r="AD52" s="57"/>
@@ -8322,9 +8349,9 @@
       <c r="E53" s="57"/>
       <c r="F53" s="57"/>
       <c r="G53" s="57"/>
-      <c r="H53" s="57"/>
-      <c r="I53" s="57"/>
-      <c r="J53" s="57" t="s">
+      <c r="H53" s="203"/>
+      <c r="I53" s="203"/>
+      <c r="J53" s="203" t="s">
         <v>161</v>
       </c>
       <c r="K53" s="57"/>
@@ -8332,31 +8359,31 @@
       <c r="M53" s="57"/>
       <c r="N53" s="57"/>
       <c r="O53" s="57"/>
-      <c r="P53" s="184" t="s">
+      <c r="P53" s="148" t="s">
         <v>19</v>
       </c>
       <c r="Q53" s="57"/>
       <c r="R53" s="57"/>
-      <c r="S53" s="185">
+      <c r="S53" s="149">
         <v>45097</v>
       </c>
       <c r="T53" s="57"/>
       <c r="U53" s="57"/>
-      <c r="V53" s="185">
+      <c r="V53" s="149">
         <v>45099</v>
       </c>
       <c r="W53" s="57"/>
       <c r="X53" s="57"/>
-      <c r="Y53" s="186">
+      <c r="Y53" s="150">
         <v>0.5</v>
       </c>
       <c r="Z53" s="57"/>
       <c r="AA53" s="57"/>
-      <c r="AB53" s="166">
+      <c r="AB53" s="130">
         <v>3</v>
       </c>
-      <c r="AC53" s="167">
-        <f t="shared" si="4"/>
+      <c r="AC53" s="131">
+        <f t="shared" si="5"/>
         <v>0.5</v>
       </c>
       <c r="AD53" s="57"/>
@@ -8396,84 +8423,84 @@
     <row r="54" spans="1:62" ht="16" x14ac:dyDescent="0.3">
       <c r="A54" s="18"/>
       <c r="B54" s="4"/>
-      <c r="C54" s="170"/>
-      <c r="D54" s="170"/>
-      <c r="E54" s="170"/>
-      <c r="F54" s="170"/>
-      <c r="G54" s="170"/>
-      <c r="H54" s="170" t="s">
+      <c r="C54" s="134"/>
+      <c r="D54" s="134"/>
+      <c r="E54" s="134"/>
+      <c r="F54" s="134"/>
+      <c r="G54" s="134"/>
+      <c r="H54" s="134" t="s">
         <v>126</v>
       </c>
-      <c r="I54" s="170"/>
-      <c r="J54" s="170" t="s">
+      <c r="I54" s="134"/>
+      <c r="J54" s="134" t="s">
         <v>58</v>
       </c>
-      <c r="K54" s="170"/>
-      <c r="L54" s="170"/>
-      <c r="M54" s="170"/>
-      <c r="N54" s="170"/>
-      <c r="O54" s="170"/>
-      <c r="P54" s="171" t="s">
+      <c r="K54" s="134"/>
+      <c r="L54" s="134"/>
+      <c r="M54" s="134"/>
+      <c r="N54" s="134"/>
+      <c r="O54" s="134"/>
+      <c r="P54" s="135" t="s">
         <v>30</v>
       </c>
-      <c r="Q54" s="172"/>
-      <c r="R54" s="173"/>
-      <c r="S54" s="174">
+      <c r="Q54" s="136"/>
+      <c r="R54" s="137"/>
+      <c r="S54" s="138">
         <v>45097</v>
       </c>
-      <c r="T54" s="174"/>
-      <c r="U54" s="174"/>
-      <c r="V54" s="174">
+      <c r="T54" s="138"/>
+      <c r="U54" s="138"/>
+      <c r="V54" s="138">
         <v>45100</v>
       </c>
-      <c r="W54" s="174"/>
-      <c r="X54" s="174"/>
-      <c r="Y54" s="175" t="s">
+      <c r="W54" s="138"/>
+      <c r="X54" s="138"/>
+      <c r="Y54" s="139" t="s">
         <v>76</v>
       </c>
-      <c r="Z54" s="176"/>
-      <c r="AA54" s="177"/>
+      <c r="Z54" s="140"/>
+      <c r="AA54" s="141"/>
       <c r="AB54" s="49">
         <v>4</v>
       </c>
-      <c r="AC54" s="178">
-        <f>VLOOKUP(Y54,$BI$6:$BJ$107,2,FALSE)</f>
+      <c r="AC54" s="142">
+        <f t="shared" ref="AC54:AC85" si="6">VLOOKUP(Y54,$BI$6:$BJ$107,2,FALSE)</f>
         <v>1</v>
       </c>
-      <c r="AD54" s="179"/>
-      <c r="AE54" s="180"/>
-      <c r="AF54" s="180"/>
-      <c r="AG54" s="180"/>
-      <c r="AH54" s="180"/>
-      <c r="AI54" s="180"/>
-      <c r="AJ54" s="180"/>
-      <c r="AK54" s="180"/>
-      <c r="AL54" s="180"/>
-      <c r="AM54" s="180"/>
-      <c r="AN54" s="180"/>
-      <c r="AO54" s="180"/>
-      <c r="AP54" s="180"/>
-      <c r="AQ54" s="180"/>
-      <c r="AR54" s="180"/>
-      <c r="AS54" s="180"/>
-      <c r="AT54" s="180"/>
-      <c r="AU54" s="180"/>
-      <c r="AV54" s="180"/>
-      <c r="AW54" s="181"/>
-      <c r="AX54" s="181"/>
-      <c r="AY54" s="181"/>
-      <c r="AZ54" s="181"/>
-      <c r="BA54" s="180"/>
-      <c r="BB54" s="180"/>
-      <c r="BC54" s="180"/>
-      <c r="BD54" s="180"/>
-      <c r="BE54" s="180"/>
-      <c r="BF54" s="180"/>
-      <c r="BG54" s="182"/>
-      <c r="BI54" s="183">
+      <c r="AD54" s="143"/>
+      <c r="AE54" s="144"/>
+      <c r="AF54" s="144"/>
+      <c r="AG54" s="144"/>
+      <c r="AH54" s="144"/>
+      <c r="AI54" s="144"/>
+      <c r="AJ54" s="144"/>
+      <c r="AK54" s="144"/>
+      <c r="AL54" s="144"/>
+      <c r="AM54" s="144"/>
+      <c r="AN54" s="144"/>
+      <c r="AO54" s="144"/>
+      <c r="AP54" s="144"/>
+      <c r="AQ54" s="144"/>
+      <c r="AR54" s="144"/>
+      <c r="AS54" s="144"/>
+      <c r="AT54" s="144"/>
+      <c r="AU54" s="144"/>
+      <c r="AV54" s="144"/>
+      <c r="AW54" s="145"/>
+      <c r="AX54" s="145"/>
+      <c r="AY54" s="145"/>
+      <c r="AZ54" s="145"/>
+      <c r="BA54" s="144"/>
+      <c r="BB54" s="144"/>
+      <c r="BC54" s="144"/>
+      <c r="BD54" s="144"/>
+      <c r="BE54" s="144"/>
+      <c r="BF54" s="144"/>
+      <c r="BG54" s="146"/>
+      <c r="BI54" s="147">
         <v>0.41</v>
       </c>
-      <c r="BJ54" s="183">
+      <c r="BJ54" s="147">
         <v>0.41</v>
       </c>
     </row>
@@ -8521,7 +8548,7 @@
         <v>7</v>
       </c>
       <c r="AC55" s="107">
-        <f>VLOOKUP(Y55,$BI$6:$BJ$107,2,FALSE)</f>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="AD55" s="44"/>
@@ -8605,7 +8632,7 @@
         <v>7</v>
       </c>
       <c r="AC56" s="107">
-        <f>VLOOKUP(Y56,$BI$6:$BJ$107,2,FALSE)</f>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="AD56" s="44"/>
@@ -8689,7 +8716,7 @@
         <v>7</v>
       </c>
       <c r="AC57" s="107">
-        <f>VLOOKUP(Y57,$BI$6:$BJ$107,2,FALSE)</f>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="AD57" s="44"/>
@@ -8773,7 +8800,7 @@
         <v>10</v>
       </c>
       <c r="AC58" s="107">
-        <f>VLOOKUP(Y58,$BI$6:$BJ$107,2,FALSE)</f>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="AD58" s="44"/>
@@ -8857,7 +8884,7 @@
         <v>7</v>
       </c>
       <c r="AC59" s="107">
-        <f>VLOOKUP(Y59,$BI$6:$BJ$107,2,FALSE)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="AD59" s="44"/>
@@ -8941,7 +8968,7 @@
         <v>10</v>
       </c>
       <c r="AC60" s="107">
-        <f>VLOOKUP(Y60,$BI$6:$BJ$107,2,FALSE)</f>
+        <f t="shared" si="6"/>
         <v>0.8</v>
       </c>
       <c r="AD60" s="44"/>
@@ -9025,7 +9052,7 @@
         <v>10</v>
       </c>
       <c r="AC61" s="107">
-        <f>VLOOKUP(Y61,$BI$6:$BJ$107,2,FALSE)</f>
+        <f t="shared" si="6"/>
         <v>0.7</v>
       </c>
       <c r="AD61" s="44"/>
@@ -9109,7 +9136,7 @@
         <v>7</v>
       </c>
       <c r="AC62" s="107">
-        <f>VLOOKUP(Y62,$BI$6:$BJ$107,2,FALSE)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="AD62" s="44"/>
@@ -9193,7 +9220,7 @@
         <v>7</v>
       </c>
       <c r="AC63" s="107">
-        <f>VLOOKUP(Y63,$BI$6:$BJ$107,2,FALSE)</f>
+        <f t="shared" si="6"/>
         <v>0.9</v>
       </c>
       <c r="AD63" s="44"/>
@@ -9279,7 +9306,7 @@
         <v>7</v>
       </c>
       <c r="AC64" s="107">
-        <f>VLOOKUP(Y64,$BI$6:$BJ$107,2,FALSE)</f>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="AD64" s="44"/>
@@ -9320,8 +9347,8 @@
       </c>
     </row>
     <row r="65" spans="1:62" ht="16" x14ac:dyDescent="0.3">
-      <c r="A65" s="117"/>
-      <c r="B65" s="116"/>
+      <c r="A65" s="177"/>
+      <c r="B65" s="178"/>
       <c r="C65" s="19"/>
       <c r="D65" s="19"/>
       <c r="E65" s="19"/>
@@ -9363,7 +9390,7 @@
         <v>4</v>
       </c>
       <c r="AC65" s="107">
-        <f>VLOOKUP(Y65,$BI$6:$BJ$107,2,FALSE)</f>
+        <f t="shared" si="6"/>
         <v>0.9</v>
       </c>
       <c r="AD65" s="44"/>
@@ -9404,8 +9431,8 @@
       </c>
     </row>
     <row r="66" spans="1:62" ht="16" x14ac:dyDescent="0.3">
-      <c r="A66" s="117"/>
-      <c r="B66" s="116"/>
+      <c r="A66" s="177"/>
+      <c r="B66" s="178"/>
       <c r="C66" s="19"/>
       <c r="D66" s="19"/>
       <c r="E66" s="19"/>
@@ -9447,7 +9474,7 @@
         <v>8</v>
       </c>
       <c r="AC66" s="107">
-        <f>VLOOKUP(Y66,$BI$6:$BJ$107,2,FALSE)</f>
+        <f t="shared" si="6"/>
         <v>0.7</v>
       </c>
       <c r="AD66" s="44"/>
@@ -9488,8 +9515,8 @@
       </c>
     </row>
     <row r="67" spans="1:62" ht="16" x14ac:dyDescent="0.3">
-      <c r="A67" s="117"/>
-      <c r="B67" s="116"/>
+      <c r="A67" s="177"/>
+      <c r="B67" s="178"/>
       <c r="C67" s="19"/>
       <c r="D67" s="19"/>
       <c r="E67" s="19"/>
@@ -9531,7 +9558,7 @@
         <v>6</v>
       </c>
       <c r="AC67" s="107">
-        <f>VLOOKUP(Y67,$BI$6:$BJ$107,2,FALSE)</f>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="AD67" s="44"/>
@@ -9572,8 +9599,8 @@
       </c>
     </row>
     <row r="68" spans="1:62" ht="16" x14ac:dyDescent="0.3">
-      <c r="A68" s="117"/>
-      <c r="B68" s="116"/>
+      <c r="A68" s="177"/>
+      <c r="B68" s="178"/>
       <c r="C68" s="19"/>
       <c r="D68" s="19"/>
       <c r="E68" s="19"/>
@@ -9615,7 +9642,7 @@
         <v>6</v>
       </c>
       <c r="AC68" s="107">
-        <f>VLOOKUP(Y68,$BI$6:$BJ$107,2,FALSE)</f>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="AD68" s="44"/>
@@ -9656,8 +9683,8 @@
       </c>
     </row>
     <row r="69" spans="1:62" ht="16" x14ac:dyDescent="0.3">
-      <c r="A69" s="117"/>
-      <c r="B69" s="116"/>
+      <c r="A69" s="177"/>
+      <c r="B69" s="178"/>
       <c r="C69" s="19"/>
       <c r="D69" s="19"/>
       <c r="E69" s="19"/>
@@ -9699,7 +9726,7 @@
         <v>8</v>
       </c>
       <c r="AC69" s="107">
-        <f>VLOOKUP(Y69,$BI$6:$BJ$107,2,FALSE)</f>
+        <f t="shared" si="6"/>
         <v>0.8</v>
       </c>
       <c r="AD69" s="44"/>
@@ -9783,7 +9810,7 @@
         <v>7</v>
       </c>
       <c r="AC70" s="107">
-        <f>VLOOKUP(Y70,$BI$6:$BJ$107,2,FALSE)</f>
+        <f t="shared" si="6"/>
         <v>0.7</v>
       </c>
       <c r="AD70" s="44"/>
@@ -9858,8 +9885,8 @@
       </c>
       <c r="W71" s="21"/>
       <c r="X71" s="21"/>
-      <c r="Y71" s="4" t="s">
-        <v>117</v>
+      <c r="Y71" s="25">
+        <v>0.2</v>
       </c>
       <c r="Z71" s="4"/>
       <c r="AA71" s="43"/>
@@ -9867,8 +9894,8 @@
         <v>7</v>
       </c>
       <c r="AC71" s="107">
-        <f>VLOOKUP(Y71,$BI$6:$BJ$107,2,FALSE)</f>
-        <v>0</v>
+        <f t="shared" si="6"/>
+        <v>0.2</v>
       </c>
       <c r="AD71" s="44"/>
       <c r="AE71" s="2"/>
@@ -9955,7 +9982,7 @@
         <v>7</v>
       </c>
       <c r="AC72" s="107">
-        <f>VLOOKUP(Y72,$BI$6:$BJ$107,2,FALSE)</f>
+        <f t="shared" si="6"/>
         <v>0.2</v>
       </c>
       <c r="AD72" s="44"/>
@@ -10043,7 +10070,7 @@
         <v>5</v>
       </c>
       <c r="AC73" s="107">
-        <f>VLOOKUP(Y73,$BI$6:$BJ$107,2,FALSE)</f>
+        <f t="shared" si="6"/>
         <v>0.4</v>
       </c>
       <c r="AD73" s="44"/>
@@ -10121,7 +10148,7 @@
       <c r="W74" s="21"/>
       <c r="X74" s="21"/>
       <c r="Y74" s="25" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="Z74" s="4"/>
       <c r="AA74" s="43"/>
@@ -10129,8 +10156,8 @@
         <v>8</v>
       </c>
       <c r="AC74" s="107">
-        <f>VLOOKUP(Y74,$BI$6:$BJ$107,2,FALSE)</f>
-        <v>0</v>
+        <f t="shared" si="6"/>
+        <v>1</v>
       </c>
       <c r="AD74" s="44"/>
       <c r="AE74" s="2"/>
@@ -10215,7 +10242,7 @@
         <v>8</v>
       </c>
       <c r="AC75" s="107">
-        <f>VLOOKUP(Y75,$BI$6:$BJ$107,2,FALSE)</f>
+        <f t="shared" si="6"/>
         <v>0.6</v>
       </c>
       <c r="AD75" s="2"/>
@@ -10258,13 +10285,13 @@
     <row r="76" spans="1:62" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A76" s="18"/>
       <c r="B76" s="43"/>
-      <c r="C76" s="151" t="s">
+      <c r="C76" s="116" t="s">
         <v>15</v>
       </c>
-      <c r="D76" s="151"/>
-      <c r="E76" s="151"/>
-      <c r="F76" s="151"/>
-      <c r="G76" s="152"/>
+      <c r="D76" s="116"/>
+      <c r="E76" s="116"/>
+      <c r="F76" s="116"/>
+      <c r="G76" s="117"/>
       <c r="H76" s="76" t="s">
         <v>20</v>
       </c>
@@ -10313,7 +10340,7 @@
         <v>1</v>
       </c>
       <c r="AC76" s="107">
-        <f>VLOOKUP(Y76,$BI$6:$BJ$107,2,FALSE)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="AD76" s="44"/>
@@ -10356,11 +10383,11 @@
     <row r="77" spans="1:62" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A77" s="18"/>
       <c r="B77" s="43"/>
-      <c r="C77" s="153"/>
-      <c r="D77" s="153"/>
-      <c r="E77" s="153"/>
-      <c r="F77" s="153"/>
-      <c r="G77" s="154"/>
+      <c r="C77" s="1"/>
+      <c r="D77" s="1"/>
+      <c r="E77" s="1"/>
+      <c r="F77" s="1"/>
+      <c r="G77" s="118"/>
       <c r="H77" s="76" t="s">
         <v>21</v>
       </c>
@@ -10409,7 +10436,7 @@
         <v>1</v>
       </c>
       <c r="AC77" s="107">
-        <f>VLOOKUP(Y77,$BI$6:$BJ$107,2,FALSE)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="AD77" s="44"/>
@@ -10452,11 +10479,11 @@
     <row r="78" spans="1:62" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A78" s="38"/>
       <c r="B78" s="52"/>
-      <c r="C78" s="153"/>
-      <c r="D78" s="153"/>
-      <c r="E78" s="153"/>
-      <c r="F78" s="153"/>
-      <c r="G78" s="154"/>
+      <c r="C78" s="1"/>
+      <c r="D78" s="1"/>
+      <c r="E78" s="1"/>
+      <c r="F78" s="1"/>
+      <c r="G78" s="118"/>
       <c r="H78" s="76" t="s">
         <v>22</v>
       </c>
@@ -10505,7 +10532,7 @@
         <v>1</v>
       </c>
       <c r="AC78" s="107">
-        <f>VLOOKUP(Y78,$BI$6:$BJ$107,2,FALSE)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="AD78" s="44"/>
@@ -10546,11 +10573,11 @@
       </c>
     </row>
     <row r="79" spans="1:62" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C79" s="153"/>
-      <c r="D79" s="153"/>
-      <c r="E79" s="153"/>
-      <c r="F79" s="153"/>
-      <c r="G79" s="154"/>
+      <c r="C79" s="1"/>
+      <c r="D79" s="1"/>
+      <c r="E79" s="1"/>
+      <c r="F79" s="1"/>
+      <c r="G79" s="118"/>
       <c r="H79" s="76" t="s">
         <v>23</v>
       </c>
@@ -10599,7 +10626,7 @@
         <v>1</v>
       </c>
       <c r="AC79" s="107">
-        <f>VLOOKUP(Y79,$BI$6:$BJ$107,2,FALSE)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="AD79" s="44"/>
@@ -10640,11 +10667,11 @@
       </c>
     </row>
     <row r="80" spans="1:62" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C80" s="153"/>
-      <c r="D80" s="153"/>
-      <c r="E80" s="153"/>
-      <c r="F80" s="153"/>
-      <c r="G80" s="154"/>
+      <c r="C80" s="1"/>
+      <c r="D80" s="1"/>
+      <c r="E80" s="1"/>
+      <c r="F80" s="1"/>
+      <c r="G80" s="118"/>
       <c r="H80" s="76" t="s">
         <v>24</v>
       </c>
@@ -10693,7 +10720,7 @@
         <v>1</v>
       </c>
       <c r="AC80" s="107">
-        <f>VLOOKUP(Y80,$BI$6:$BJ$107,2,FALSE)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="AD80" s="44"/>
@@ -10734,11 +10761,11 @@
       </c>
     </row>
     <row r="81" spans="3:62" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C81" s="153"/>
-      <c r="D81" s="153"/>
-      <c r="E81" s="153"/>
-      <c r="F81" s="153"/>
-      <c r="G81" s="154"/>
+      <c r="C81" s="1"/>
+      <c r="D81" s="1"/>
+      <c r="E81" s="1"/>
+      <c r="F81" s="1"/>
+      <c r="G81" s="118"/>
       <c r="H81" s="76" t="s">
         <v>25</v>
       </c>
@@ -10787,7 +10814,7 @@
         <v>1</v>
       </c>
       <c r="AC81" s="107">
-        <f>VLOOKUP(Y81,$BI$6:$BJ$107,2,FALSE)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="AD81" s="44"/>
@@ -10828,11 +10855,11 @@
       </c>
     </row>
     <row r="82" spans="3:62" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C82" s="153"/>
-      <c r="D82" s="153"/>
-      <c r="E82" s="153"/>
-      <c r="F82" s="153"/>
-      <c r="G82" s="154"/>
+      <c r="C82" s="1"/>
+      <c r="D82" s="1"/>
+      <c r="E82" s="1"/>
+      <c r="F82" s="1"/>
+      <c r="G82" s="118"/>
       <c r="H82" s="76" t="s">
         <v>26</v>
       </c>
@@ -10881,7 +10908,7 @@
         <v>1</v>
       </c>
       <c r="AC82" s="107">
-        <f>VLOOKUP(Y82,$BI$6:$BJ$107,2,FALSE)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="AD82" s="44"/>
@@ -10922,11 +10949,11 @@
       </c>
     </row>
     <row r="83" spans="3:62" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C83" s="153"/>
-      <c r="D83" s="153"/>
-      <c r="E83" s="153"/>
-      <c r="F83" s="153"/>
-      <c r="G83" s="154"/>
+      <c r="C83" s="1"/>
+      <c r="D83" s="1"/>
+      <c r="E83" s="1"/>
+      <c r="F83" s="1"/>
+      <c r="G83" s="118"/>
       <c r="H83" s="76" t="s">
         <v>27</v>
       </c>
@@ -10975,7 +11002,7 @@
         <v>1</v>
       </c>
       <c r="AC83" s="107">
-        <f>VLOOKUP(Y83,$BI$6:$BJ$107,2,FALSE)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="AD83" s="44"/>
@@ -11016,11 +11043,11 @@
       </c>
     </row>
     <row r="84" spans="3:62" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C84" s="153"/>
-      <c r="D84" s="153"/>
-      <c r="E84" s="153"/>
-      <c r="F84" s="153"/>
-      <c r="G84" s="154"/>
+      <c r="C84" s="1"/>
+      <c r="D84" s="1"/>
+      <c r="E84" s="1"/>
+      <c r="F84" s="1"/>
+      <c r="G84" s="118"/>
       <c r="H84" s="76" t="s">
         <v>28</v>
       </c>
@@ -11069,7 +11096,7 @@
         <v>1</v>
       </c>
       <c r="AC84" s="107">
-        <f>VLOOKUP(Y84,$BI$6:$BJ$107,2,FALSE)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="AD84" s="82"/>
@@ -11110,11 +11137,11 @@
       </c>
     </row>
     <row r="85" spans="3:62" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C85" s="153"/>
-      <c r="D85" s="153"/>
-      <c r="E85" s="153"/>
-      <c r="F85" s="153"/>
-      <c r="G85" s="154"/>
+      <c r="C85" s="1"/>
+      <c r="D85" s="1"/>
+      <c r="E85" s="1"/>
+      <c r="F85" s="1"/>
+      <c r="G85" s="118"/>
       <c r="H85" s="76" t="s">
         <v>79</v>
       </c>
@@ -11161,7 +11188,7 @@
         <v>1</v>
       </c>
       <c r="AC85" s="107">
-        <f>VLOOKUP(Y85,$BI$6:$BJ$107,2,FALSE)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="AD85" s="57"/>
@@ -11202,11 +11229,11 @@
       </c>
     </row>
     <row r="86" spans="3:62" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C86" s="153"/>
-      <c r="D86" s="153"/>
-      <c r="E86" s="153"/>
-      <c r="F86" s="153"/>
-      <c r="G86" s="154"/>
+      <c r="C86" s="1"/>
+      <c r="D86" s="1"/>
+      <c r="E86" s="1"/>
+      <c r="F86" s="1"/>
+      <c r="G86" s="118"/>
       <c r="H86" s="76" t="s">
         <v>80</v>
       </c>
@@ -11253,7 +11280,7 @@
         <v>1</v>
       </c>
       <c r="AC86" s="107">
-        <f>VLOOKUP(Y86,$BI$6:$BJ$107,2,FALSE)</f>
+        <f t="shared" ref="AC86:AC105" si="7">VLOOKUP(Y86,$BI$6:$BJ$107,2,FALSE)</f>
         <v>0</v>
       </c>
       <c r="AD86" s="57"/>
@@ -11294,11 +11321,11 @@
       </c>
     </row>
     <row r="87" spans="3:62" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C87" s="153"/>
-      <c r="D87" s="153"/>
-      <c r="E87" s="153"/>
-      <c r="F87" s="153"/>
-      <c r="G87" s="154"/>
+      <c r="C87" s="1"/>
+      <c r="D87" s="1"/>
+      <c r="E87" s="1"/>
+      <c r="F87" s="1"/>
+      <c r="G87" s="118"/>
       <c r="H87" s="76" t="s">
         <v>31</v>
       </c>
@@ -11324,7 +11351,7 @@
         <v>3</v>
       </c>
       <c r="AC87" s="107">
-        <f>VLOOKUP(Y87,$BI$6:$BJ$107,2,FALSE)</f>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="AD87" s="57"/>
@@ -11365,11 +11392,11 @@
       </c>
     </row>
     <row r="88" spans="3:62" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C88" s="153"/>
-      <c r="D88" s="153"/>
-      <c r="E88" s="153"/>
-      <c r="F88" s="153"/>
-      <c r="G88" s="154"/>
+      <c r="C88" s="1"/>
+      <c r="D88" s="1"/>
+      <c r="E88" s="1"/>
+      <c r="F88" s="1"/>
+      <c r="G88" s="118"/>
       <c r="H88" s="76" t="s">
         <v>32</v>
       </c>
@@ -11395,7 +11422,7 @@
         <v>3</v>
       </c>
       <c r="AC88" s="107">
-        <f>VLOOKUP(Y88,$BI$6:$BJ$107,2,FALSE)</f>
+        <f t="shared" si="7"/>
         <v>0.5</v>
       </c>
       <c r="AD88" s="57"/>
@@ -11436,16 +11463,16 @@
       </c>
     </row>
     <row r="89" spans="3:62" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C89" s="153"/>
-      <c r="D89" s="153"/>
-      <c r="E89" s="153"/>
-      <c r="F89" s="153"/>
-      <c r="G89" s="154"/>
-      <c r="H89" s="75" t="s">
+      <c r="C89" s="1"/>
+      <c r="D89" s="1"/>
+      <c r="E89" s="1"/>
+      <c r="F89" s="1"/>
+      <c r="G89" s="118"/>
+      <c r="H89" s="207" t="s">
         <v>33</v>
       </c>
-      <c r="I89" s="75"/>
-      <c r="J89" s="75"/>
+      <c r="I89" s="207"/>
+      <c r="J89" s="207"/>
       <c r="P89" s="31" t="s">
         <v>14</v>
       </c>
@@ -11466,7 +11493,7 @@
         <v>3</v>
       </c>
       <c r="AC89" s="107">
-        <f>VLOOKUP(Y89,$BI$6:$BJ$107,2,FALSE)</f>
+        <f t="shared" si="7"/>
         <v>0.5</v>
       </c>
       <c r="AD89" s="57"/>
@@ -11507,16 +11534,16 @@
       </c>
     </row>
     <row r="90" spans="3:62" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C90" s="153"/>
-      <c r="D90" s="153"/>
-      <c r="E90" s="153"/>
-      <c r="F90" s="153"/>
-      <c r="G90" s="154"/>
-      <c r="H90" s="76" t="s">
+      <c r="C90" s="1"/>
+      <c r="D90" s="1"/>
+      <c r="E90" s="1"/>
+      <c r="F90" s="1"/>
+      <c r="G90" s="118"/>
+      <c r="H90" s="207" t="s">
         <v>34</v>
       </c>
-      <c r="I90" s="76"/>
-      <c r="J90" s="76"/>
+      <c r="I90" s="207"/>
+      <c r="J90" s="207"/>
       <c r="P90" s="31" t="s">
         <v>14</v>
       </c>
@@ -11537,7 +11564,7 @@
         <v>3</v>
       </c>
       <c r="AC90" s="107">
-        <f>VLOOKUP(Y90,$BI$6:$BJ$107,2,FALSE)</f>
+        <f t="shared" si="7"/>
         <v>0.5</v>
       </c>
       <c r="AD90" s="57"/>
@@ -11578,11 +11605,11 @@
       </c>
     </row>
     <row r="91" spans="3:62" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C91" s="153"/>
-      <c r="D91" s="153"/>
-      <c r="E91" s="153"/>
-      <c r="F91" s="153"/>
-      <c r="G91" s="154"/>
+      <c r="C91" s="1"/>
+      <c r="D91" s="1"/>
+      <c r="E91" s="1"/>
+      <c r="F91" s="1"/>
+      <c r="G91" s="118"/>
       <c r="H91" s="76" t="s">
         <v>35</v>
       </c>
@@ -11608,7 +11635,7 @@
         <v>3</v>
       </c>
       <c r="AC91" s="107">
-        <f>VLOOKUP(Y91,$BI$6:$BJ$107,2,FALSE)</f>
+        <f t="shared" si="7"/>
         <v>0.5</v>
       </c>
       <c r="AD91" s="57"/>
@@ -11649,11 +11676,11 @@
       </c>
     </row>
     <row r="92" spans="3:62" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C92" s="153"/>
-      <c r="D92" s="153"/>
-      <c r="E92" s="153"/>
-      <c r="F92" s="153"/>
-      <c r="G92" s="154"/>
+      <c r="C92" s="1"/>
+      <c r="D92" s="1"/>
+      <c r="E92" s="1"/>
+      <c r="F92" s="1"/>
+      <c r="G92" s="118"/>
       <c r="H92" s="75" t="s">
         <v>36</v>
       </c>
@@ -11672,15 +11699,15 @@
       </c>
       <c r="W92" s="65"/>
       <c r="X92" s="65"/>
-      <c r="Y92" t="s">
-        <v>117</v>
+      <c r="Y92" s="54">
+        <v>0.5</v>
       </c>
       <c r="AB92">
         <v>3</v>
       </c>
       <c r="AC92" s="107">
-        <f>VLOOKUP(Y92,$BI$6:$BJ$107,2,FALSE)</f>
-        <v>0</v>
+        <f t="shared" si="7"/>
+        <v>0.5</v>
       </c>
       <c r="AD92" s="57"/>
       <c r="AE92" s="57"/>
@@ -11720,11 +11747,11 @@
       </c>
     </row>
     <row r="93" spans="3:62" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C93" s="153"/>
-      <c r="D93" s="153"/>
-      <c r="E93" s="153"/>
-      <c r="F93" s="153"/>
-      <c r="G93" s="154"/>
+      <c r="C93" s="1"/>
+      <c r="D93" s="1"/>
+      <c r="E93" s="1"/>
+      <c r="F93" s="1"/>
+      <c r="G93" s="118"/>
       <c r="H93" s="76" t="s">
         <v>37</v>
       </c>
@@ -11750,7 +11777,7 @@
         <v>3</v>
       </c>
       <c r="AC93" s="107">
-        <f>VLOOKUP(Y93,$BI$6:$BJ$107,2,FALSE)</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="AD93" s="57"/>
@@ -11791,13 +11818,13 @@
       </c>
     </row>
     <row r="94" spans="3:62" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C94" s="155" t="s">
+      <c r="C94" s="119" t="s">
         <v>16</v>
       </c>
-      <c r="D94" s="155"/>
-      <c r="E94" s="155"/>
-      <c r="F94" s="155"/>
-      <c r="G94" s="155"/>
+      <c r="D94" s="119"/>
+      <c r="E94" s="119"/>
+      <c r="F94" s="119"/>
+      <c r="G94" s="119"/>
       <c r="H94" s="61" t="s">
         <v>49</v>
       </c>
@@ -11823,7 +11850,7 @@
         <v>2</v>
       </c>
       <c r="AC94" s="107">
-        <f>VLOOKUP(Y94,$BI$6:$BJ$107,2,FALSE)</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="AD94" s="57"/>
@@ -11864,11 +11891,11 @@
       </c>
     </row>
     <row r="95" spans="3:62" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C95" s="153"/>
-      <c r="D95" s="153"/>
-      <c r="E95" s="153"/>
-      <c r="F95" s="153"/>
-      <c r="G95" s="153"/>
+      <c r="C95" s="1"/>
+      <c r="D95" s="1"/>
+      <c r="E95" s="1"/>
+      <c r="F95" s="1"/>
+      <c r="G95" s="1"/>
       <c r="H95" s="61" t="s">
         <v>50</v>
       </c>
@@ -11894,7 +11921,7 @@
         <v>2</v>
       </c>
       <c r="AC95" s="107">
-        <f>VLOOKUP(Y95,$BI$6:$BJ$107,2,FALSE)</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="AD95" s="57"/>
@@ -11935,11 +11962,11 @@
       </c>
     </row>
     <row r="96" spans="3:62" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C96" s="153"/>
-      <c r="D96" s="153"/>
-      <c r="E96" s="153"/>
-      <c r="F96" s="153"/>
-      <c r="G96" s="153"/>
+      <c r="C96" s="1"/>
+      <c r="D96" s="1"/>
+      <c r="E96" s="1"/>
+      <c r="F96" s="1"/>
+      <c r="G96" s="1"/>
       <c r="H96" s="61" t="s">
         <v>51</v>
       </c>
@@ -11965,7 +11992,7 @@
         <v>2</v>
       </c>
       <c r="AC96" s="107">
-        <f>VLOOKUP(Y96,$BI$6:$BJ$107,2,FALSE)</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="AD96" s="57"/>
@@ -12006,11 +12033,11 @@
       </c>
     </row>
     <row r="97" spans="3:62" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C97" s="153"/>
-      <c r="D97" s="153"/>
-      <c r="E97" s="153"/>
-      <c r="F97" s="153"/>
-      <c r="G97" s="153"/>
+      <c r="C97" s="1"/>
+      <c r="D97" s="1"/>
+      <c r="E97" s="1"/>
+      <c r="F97" s="1"/>
+      <c r="G97" s="1"/>
       <c r="H97" s="61" t="s">
         <v>52</v>
       </c>
@@ -12036,7 +12063,7 @@
         <v>2</v>
       </c>
       <c r="AC97" s="107">
-        <f>VLOOKUP(Y97,$BI$6:$BJ$107,2,FALSE)</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="AD97" s="57"/>
@@ -12077,11 +12104,11 @@
       </c>
     </row>
     <row r="98" spans="3:62" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C98" s="153"/>
-      <c r="D98" s="153"/>
-      <c r="E98" s="153"/>
-      <c r="F98" s="153"/>
-      <c r="G98" s="153"/>
+      <c r="C98" s="1"/>
+      <c r="D98" s="1"/>
+      <c r="E98" s="1"/>
+      <c r="F98" s="1"/>
+      <c r="G98" s="1"/>
       <c r="H98" s="102" t="s">
         <v>53</v>
       </c>
@@ -12107,7 +12134,7 @@
         <v>2</v>
       </c>
       <c r="AC98" s="107">
-        <f>VLOOKUP(Y98,$BI$6:$BJ$107,2,FALSE)</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="AD98" s="57"/>
@@ -12148,11 +12175,11 @@
       </c>
     </row>
     <row r="99" spans="3:62" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C99" s="153"/>
-      <c r="D99" s="153"/>
-      <c r="E99" s="153"/>
-      <c r="F99" s="153"/>
-      <c r="G99" s="153"/>
+      <c r="C99" s="1"/>
+      <c r="D99" s="1"/>
+      <c r="E99" s="1"/>
+      <c r="F99" s="1"/>
+      <c r="G99" s="1"/>
       <c r="H99" s="61" t="s">
         <v>54</v>
       </c>
@@ -12178,7 +12205,7 @@
         <v>2</v>
       </c>
       <c r="AC99" s="107">
-        <f>VLOOKUP(Y99,$BI$6:$BJ$107,2,FALSE)</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="AD99" s="57"/>
@@ -12219,11 +12246,11 @@
       </c>
     </row>
     <row r="100" spans="3:62" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C100" s="153"/>
-      <c r="D100" s="153"/>
-      <c r="E100" s="153"/>
-      <c r="F100" s="153"/>
-      <c r="G100" s="153"/>
+      <c r="C100" s="1"/>
+      <c r="D100" s="1"/>
+      <c r="E100" s="1"/>
+      <c r="F100" s="1"/>
+      <c r="G100" s="1"/>
       <c r="H100" s="61" t="s">
         <v>55</v>
       </c>
@@ -12249,7 +12276,7 @@
         <v>2</v>
       </c>
       <c r="AC100" s="107">
-        <f>VLOOKUP(Y100,$BI$6:$BJ$107,2,FALSE)</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="AD100" s="57"/>
@@ -12290,11 +12317,11 @@
       </c>
     </row>
     <row r="101" spans="3:62" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C101" s="153"/>
-      <c r="D101" s="153"/>
-      <c r="E101" s="153"/>
-      <c r="F101" s="153"/>
-      <c r="G101" s="153"/>
+      <c r="C101" s="1"/>
+      <c r="D101" s="1"/>
+      <c r="E101" s="1"/>
+      <c r="F101" s="1"/>
+      <c r="G101" s="1"/>
       <c r="H101" s="61" t="s">
         <v>56</v>
       </c>
@@ -12320,7 +12347,7 @@
         <v>2</v>
       </c>
       <c r="AC101" s="107">
-        <f>VLOOKUP(Y101,$BI$6:$BJ$107,2,FALSE)</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="AD101" s="57"/>
@@ -12361,11 +12388,11 @@
       </c>
     </row>
     <row r="102" spans="3:62" ht="16" x14ac:dyDescent="0.3">
-      <c r="C102" s="153"/>
-      <c r="D102" s="153"/>
-      <c r="E102" s="153"/>
-      <c r="F102" s="153"/>
-      <c r="G102" s="153"/>
+      <c r="C102" s="1"/>
+      <c r="D102" s="1"/>
+      <c r="E102" s="1"/>
+      <c r="F102" s="1"/>
+      <c r="G102" s="1"/>
       <c r="H102" s="61" t="s">
         <v>57</v>
       </c>
@@ -12391,7 +12418,7 @@
         <v>2</v>
       </c>
       <c r="AC102" s="107">
-        <f>VLOOKUP(Y102,$BI$6:$BJ$107,2,FALSE)</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="AD102" s="57"/>
@@ -12432,11 +12459,11 @@
       </c>
     </row>
     <row r="103" spans="3:62" ht="16" x14ac:dyDescent="0.3">
-      <c r="C103" s="153"/>
-      <c r="D103" s="153"/>
-      <c r="E103" s="153"/>
-      <c r="F103" s="153"/>
-      <c r="G103" s="153"/>
+      <c r="C103" s="1"/>
+      <c r="D103" s="1"/>
+      <c r="E103" s="1"/>
+      <c r="F103" s="1"/>
+      <c r="G103" s="1"/>
       <c r="H103" s="61" t="s">
         <v>81</v>
       </c>
@@ -12462,7 +12489,7 @@
         <v>2</v>
       </c>
       <c r="AC103" s="107">
-        <f>VLOOKUP(Y103,$BI$6:$BJ$107,2,FALSE)</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="AD103" s="57"/>
@@ -12503,11 +12530,11 @@
       </c>
     </row>
     <row r="104" spans="3:62" ht="16" x14ac:dyDescent="0.3">
-      <c r="C104" s="156"/>
-      <c r="D104" s="156"/>
-      <c r="E104" s="156"/>
-      <c r="F104" s="156"/>
-      <c r="G104" s="156"/>
+      <c r="C104" s="120"/>
+      <c r="D104" s="120"/>
+      <c r="E104" s="120"/>
+      <c r="F104" s="120"/>
+      <c r="G104" s="120"/>
       <c r="H104" s="61" t="s">
         <v>82</v>
       </c>
@@ -12533,7 +12560,7 @@
         <v>2</v>
       </c>
       <c r="AC104" s="107">
-        <f>VLOOKUP(Y104,$BI$6:$BJ$107,2,FALSE)</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="AD104" s="57"/>
@@ -12603,7 +12630,7 @@
         <v>2</v>
       </c>
       <c r="AC105" s="107">
-        <f>VLOOKUP(Y105,$BI$6:$BJ$107,2,FALSE)</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="AD105" s="57"/>
@@ -12780,12 +12807,6 @@
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="H5:I6"/>
-    <mergeCell ref="J5:K6"/>
-    <mergeCell ref="A1:G2"/>
-    <mergeCell ref="H1:AC2"/>
-    <mergeCell ref="A69:B69"/>
-    <mergeCell ref="A68:B68"/>
     <mergeCell ref="AD1:AG1"/>
     <mergeCell ref="AH1:AN1"/>
     <mergeCell ref="AD2:AG2"/>
@@ -12798,6 +12819,12 @@
     <mergeCell ref="S5:U6"/>
     <mergeCell ref="V5:X6"/>
     <mergeCell ref="S4:X4"/>
+    <mergeCell ref="H5:I6"/>
+    <mergeCell ref="J5:K6"/>
+    <mergeCell ref="A1:G2"/>
+    <mergeCell ref="H1:AC2"/>
+    <mergeCell ref="A69:B69"/>
+    <mergeCell ref="A68:B68"/>
     <mergeCell ref="A67:B67"/>
     <mergeCell ref="A66:B66"/>
     <mergeCell ref="A65:B65"/>
@@ -12834,7 +12861,7 @@
   <dimension ref="A1:T21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L10" sqref="L10"/>
+      <selection activeCell="L7" sqref="L7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
@@ -12998,7 +13025,7 @@
       </c>
       <c r="K3" s="88">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.65167785234899323</v>
       </c>
       <c r="L3" s="88">
         <f t="shared" si="0"/>
@@ -13234,7 +13261,9 @@
       <c r="J7" s="91">
         <v>182.6</v>
       </c>
-      <c r="K7" s="91"/>
+      <c r="K7" s="91">
+        <v>194.2</v>
+      </c>
       <c r="L7" s="91"/>
       <c r="M7" s="91"/>
       <c r="N7" s="90"/>
@@ -13248,63 +13277,63 @@
     <row r="8" spans="1:20" x14ac:dyDescent="0.3">
       <c r="F8">
         <f>Sheet3!$F$101</f>
-        <v>182.6</v>
+        <v>194.20000000000002</v>
       </c>
       <c r="G8">
         <f>Sheet3!$F$101</f>
-        <v>182.6</v>
+        <v>194.20000000000002</v>
       </c>
       <c r="H8">
         <f>Sheet3!$F$101</f>
-        <v>182.6</v>
+        <v>194.20000000000002</v>
       </c>
       <c r="I8">
         <f>Sheet3!$F$101</f>
-        <v>182.6</v>
+        <v>194.20000000000002</v>
       </c>
       <c r="J8">
         <f>Sheet3!$F$101</f>
-        <v>182.6</v>
+        <v>194.20000000000002</v>
       </c>
       <c r="K8">
         <f>Sheet3!$F$101</f>
-        <v>182.6</v>
+        <v>194.20000000000002</v>
       </c>
       <c r="L8">
         <f>Sheet3!$F$101</f>
-        <v>182.6</v>
+        <v>194.20000000000002</v>
       </c>
       <c r="M8">
         <f>Sheet3!$F$101</f>
-        <v>182.6</v>
+        <v>194.20000000000002</v>
       </c>
       <c r="N8">
         <f>Sheet3!$F$101</f>
-        <v>182.6</v>
+        <v>194.20000000000002</v>
       </c>
       <c r="O8">
         <f>Sheet3!$F$101</f>
-        <v>182.6</v>
+        <v>194.20000000000002</v>
       </c>
       <c r="P8">
         <f>Sheet3!$F$101</f>
-        <v>182.6</v>
+        <v>194.20000000000002</v>
       </c>
       <c r="Q8">
         <f>Sheet3!$F$101</f>
-        <v>182.6</v>
+        <v>194.20000000000002</v>
       </c>
       <c r="R8">
         <f>Sheet3!$F$101</f>
-        <v>182.6</v>
+        <v>194.20000000000002</v>
       </c>
       <c r="S8">
         <f>Sheet3!$F$101</f>
-        <v>182.6</v>
+        <v>194.20000000000002</v>
       </c>
       <c r="T8">
         <f>Sheet3!$F$101</f>
-        <v>182.6</v>
+        <v>194.20000000000002</v>
       </c>
     </row>
     <row r="9" spans="1:20" x14ac:dyDescent="0.3">
@@ -13363,7 +13392,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{403F8652-4296-415E-A6A0-53C23B18A84C}">
   <dimension ref="C2:F101"/>
   <sheetViews>
-    <sheetView topLeftCell="A81" workbookViewId="0">
+    <sheetView topLeftCell="A75" workbookViewId="0">
       <selection activeCell="F101" sqref="F101"/>
     </sheetView>
   </sheetViews>
@@ -13375,15 +13404,15 @@
   <sheetData>
     <row r="2" spans="4:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D2" s="1"/>
-      <c r="E2" s="135" t="s">
+      <c r="E2" s="163" t="s">
         <v>89</v>
       </c>
-      <c r="F2" s="136"/>
+      <c r="F2" s="164"/>
     </row>
     <row r="3" spans="4:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D3" s="1"/>
-      <c r="E3" s="149"/>
-      <c r="F3" s="150"/>
+      <c r="E3" s="196"/>
+      <c r="F3" s="197"/>
     </row>
     <row r="4" spans="4:6" ht="16" x14ac:dyDescent="0.3">
       <c r="D4" s="68"/>
@@ -13542,7 +13571,7 @@
       </c>
       <c r="F19" s="69">
         <f>工数予実管理表!AB24*工数予実管理表!AC24</f>
-        <v>0.9</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20" spans="4:6" ht="16" x14ac:dyDescent="0.3">
@@ -13726,19 +13755,19 @@
       </c>
     </row>
     <row r="38" spans="3:6" ht="16" x14ac:dyDescent="0.3">
-      <c r="C38" s="134"/>
-      <c r="D38" s="134"/>
+      <c r="C38" s="195"/>
+      <c r="D38" s="195"/>
       <c r="E38" s="69" t="s">
         <v>55</v>
       </c>
       <c r="F38" s="69">
         <f>工数予実管理表!AB43*工数予実管理表!AC43</f>
-        <v>0.89999999999999991</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="39" spans="3:6" ht="16" x14ac:dyDescent="0.3">
-      <c r="C39" s="134"/>
-      <c r="D39" s="134"/>
+      <c r="C39" s="195"/>
+      <c r="D39" s="195"/>
       <c r="E39" s="69" t="s">
         <v>56</v>
       </c>
@@ -14029,7 +14058,7 @@
       </c>
       <c r="F66" s="69">
         <f>工数予実管理表!AB71*工数予実管理表!AC71</f>
-        <v>0</v>
+        <v>1.4000000000000001</v>
       </c>
     </row>
     <row r="67" spans="3:6" ht="16" x14ac:dyDescent="0.3">
@@ -14062,7 +14091,7 @@
       </c>
       <c r="F69" s="69">
         <f>工数予実管理表!AB74*工数予実管理表!AC74</f>
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="70" spans="3:6" ht="16" x14ac:dyDescent="0.3">
@@ -14260,7 +14289,7 @@
       </c>
       <c r="F87" s="69">
         <f>工数予実管理表!AB92*工数予実管理表!AC92</f>
-        <v>0</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="88" spans="3:6" ht="16" x14ac:dyDescent="0.3">
@@ -14409,7 +14438,7 @@
     <row r="101" spans="3:6" x14ac:dyDescent="0.3">
       <c r="F101" s="111">
         <f>SUM(F4:F100)</f>
-        <v>182.6</v>
+        <v>194.20000000000002</v>
       </c>
     </row>
   </sheetData>
@@ -14428,32 +14457,32 @@
   <sheetPr filterMode="1"/>
   <dimension ref="C2:L104"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+    <sheetView topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="2" spans="3:12" ht="14" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="3" spans="3:12" ht="16" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D3" s="188"/>
-      <c r="F3" s="188"/>
-      <c r="H3" s="192"/>
-      <c r="I3" s="193"/>
-      <c r="K3" s="195"/>
-      <c r="L3" s="196"/>
+      <c r="D3" s="152"/>
+      <c r="F3" s="152"/>
+      <c r="H3" s="156"/>
+      <c r="I3" s="157"/>
+      <c r="K3" s="159"/>
+      <c r="L3" s="160"/>
     </row>
     <row r="4" spans="3:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C4" s="189"/>
-      <c r="D4" s="190"/>
-      <c r="E4" s="189"/>
-      <c r="F4" s="190"/>
-      <c r="G4" s="189"/>
-      <c r="H4" s="194"/>
-      <c r="I4" s="190"/>
-      <c r="J4" s="197"/>
-      <c r="K4" s="197"/>
-      <c r="L4" s="198"/>
+      <c r="C4" s="153"/>
+      <c r="D4" s="154"/>
+      <c r="E4" s="153"/>
+      <c r="F4" s="154"/>
+      <c r="G4" s="153"/>
+      <c r="H4" s="158"/>
+      <c r="I4" s="154"/>
+      <c r="J4" s="161"/>
+      <c r="K4" s="161"/>
+      <c r="L4" s="162"/>
     </row>
     <row r="5" spans="3:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C5" s="19"/>
@@ -14463,31 +14492,31 @@
       <c r="G5" s="115"/>
       <c r="H5" s="115"/>
       <c r="I5" s="115"/>
-      <c r="J5" s="197"/>
-      <c r="K5" s="197"/>
-      <c r="L5" s="198"/>
+      <c r="J5" s="161"/>
+      <c r="K5" s="161"/>
+      <c r="L5" s="162"/>
     </row>
     <row r="6" spans="3:12" ht="16" x14ac:dyDescent="0.3">
-      <c r="C6" s="187" t="s">
+      <c r="C6" s="151" t="s">
         <v>115</v>
       </c>
       <c r="D6" s="37"/>
-      <c r="E6" s="187" t="s">
+      <c r="E6" s="151" t="s">
         <v>89</v>
       </c>
       <c r="F6" s="37"/>
-      <c r="G6" s="191" t="s">
+      <c r="G6" s="155" t="s">
         <v>6</v>
       </c>
       <c r="H6" s="19"/>
       <c r="I6" s="19"/>
-      <c r="J6" s="195" t="s">
+      <c r="J6" s="159" t="s">
         <v>8</v>
       </c>
       <c r="K6" s="4"/>
       <c r="L6" s="43"/>
     </row>
-    <row r="7" spans="3:12" ht="16" x14ac:dyDescent="0.3">
+    <row r="7" spans="3:12" ht="16" hidden="1" x14ac:dyDescent="0.3">
       <c r="C7" s="19" t="s">
         <v>90</v>
       </c>
@@ -14571,7 +14600,7 @@
       <c r="K10" s="32"/>
       <c r="L10" s="51"/>
     </row>
-    <row r="11" spans="3:12" ht="16" x14ac:dyDescent="0.3">
+    <row r="11" spans="3:12" ht="16" hidden="1" x14ac:dyDescent="0.3">
       <c r="C11" s="19" t="s">
         <v>93</v>
       </c>
@@ -14655,7 +14684,7 @@
       <c r="K14" s="32"/>
       <c r="L14" s="51"/>
     </row>
-    <row r="15" spans="3:12" ht="16" x14ac:dyDescent="0.3">
+    <row r="15" spans="3:12" ht="16" hidden="1" x14ac:dyDescent="0.3">
       <c r="C15" s="19" t="s">
         <v>95</v>
       </c>
@@ -14718,7 +14747,7 @@
       <c r="K17" s="32"/>
       <c r="L17" s="51"/>
     </row>
-    <row r="18" spans="3:12" ht="16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="3:12" ht="16" x14ac:dyDescent="0.3">
       <c r="C18" s="19" t="s">
         <v>98</v>
       </c>
@@ -14739,7 +14768,7 @@
       <c r="K18" s="32"/>
       <c r="L18" s="51"/>
     </row>
-    <row r="19" spans="3:12" ht="16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="3:12" ht="16" x14ac:dyDescent="0.3">
       <c r="C19" s="19" t="s">
         <v>99</v>
       </c>
@@ -14760,7 +14789,7 @@
       <c r="K19" s="32"/>
       <c r="L19" s="51"/>
     </row>
-    <row r="20" spans="3:12" ht="16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="3:12" ht="16" x14ac:dyDescent="0.3">
       <c r="C20" s="19" t="s">
         <v>100</v>
       </c>
@@ -14781,7 +14810,7 @@
       <c r="K20" s="32"/>
       <c r="L20" s="51"/>
     </row>
-    <row r="21" spans="3:12" ht="16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="3:12" ht="16" x14ac:dyDescent="0.3">
       <c r="C21" s="19" t="s">
         <v>101</v>
       </c>
@@ -14802,7 +14831,7 @@
       <c r="K21" s="32"/>
       <c r="L21" s="51"/>
     </row>
-    <row r="22" spans="3:12" ht="16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="3:12" ht="16" x14ac:dyDescent="0.3">
       <c r="C22" s="23" t="s">
         <v>102</v>
       </c>
@@ -14816,14 +14845,14 @@
       </c>
       <c r="H22" s="31"/>
       <c r="I22" s="31"/>
-      <c r="J22" s="33">
+      <c r="J22" s="33" t="str">
         <f>工数予実管理表!Y24</f>
-        <v>0.9</v>
+        <v>完了</v>
       </c>
       <c r="K22" s="4"/>
       <c r="L22" s="43"/>
     </row>
-    <row r="23" spans="3:12" ht="16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="3:12" ht="16" x14ac:dyDescent="0.3">
       <c r="C23" s="19" t="s">
         <v>103</v>
       </c>
@@ -14844,7 +14873,7 @@
       <c r="K23" s="4"/>
       <c r="L23" s="43"/>
     </row>
-    <row r="24" spans="3:12" ht="16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="3:12" ht="16" x14ac:dyDescent="0.3">
       <c r="C24" s="19" t="s">
         <v>104</v>
       </c>
@@ -14907,7 +14936,7 @@
       <c r="K26" s="4"/>
       <c r="L26" s="43"/>
     </row>
-    <row r="27" spans="3:12" ht="16" x14ac:dyDescent="0.3">
+    <row r="27" spans="3:12" ht="16" hidden="1" x14ac:dyDescent="0.3">
       <c r="C27" s="19" t="s">
         <v>100</v>
       </c>
@@ -14928,7 +14957,7 @@
       <c r="K27" s="4"/>
       <c r="L27" s="43"/>
     </row>
-    <row r="28" spans="3:12" ht="16" x14ac:dyDescent="0.3">
+    <row r="28" spans="3:12" ht="16" hidden="1" x14ac:dyDescent="0.3">
       <c r="C28" s="19" t="s">
         <v>101</v>
       </c>
@@ -15033,7 +15062,7 @@
       <c r="K32" s="4"/>
       <c r="L32" s="43"/>
     </row>
-    <row r="33" spans="3:12" ht="16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="3:12" ht="16" x14ac:dyDescent="0.3">
       <c r="C33" s="19" t="s">
         <v>123</v>
       </c>
@@ -15054,7 +15083,7 @@
       <c r="K33" s="4"/>
       <c r="L33" s="43"/>
     </row>
-    <row r="34" spans="3:12" ht="16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="3:12" ht="16" x14ac:dyDescent="0.3">
       <c r="C34" s="19" t="s">
         <v>109</v>
       </c>
@@ -15096,7 +15125,7 @@
       <c r="K35" s="4"/>
       <c r="L35" s="43"/>
     </row>
-    <row r="36" spans="3:12" ht="16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="3:12" ht="16" x14ac:dyDescent="0.3">
       <c r="C36" s="106" t="s">
         <v>91</v>
       </c>
@@ -15117,7 +15146,7 @@
       <c r="K36" s="4"/>
       <c r="L36" s="43"/>
     </row>
-    <row r="37" spans="3:12" ht="16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="3:12" ht="16" x14ac:dyDescent="0.3">
       <c r="C37" s="106" t="s">
         <v>110</v>
       </c>
@@ -15217,7 +15246,7 @@
       <c r="I41" s="22"/>
       <c r="J41" s="33">
         <f>工数予実管理表!Y43</f>
-        <v>0.3</v>
+        <v>0.5</v>
       </c>
       <c r="K41" s="4"/>
       <c r="L41" s="43"/>
@@ -15243,7 +15272,7 @@
       <c r="K42" s="4"/>
       <c r="L42" s="43"/>
     </row>
-    <row r="43" spans="3:12" ht="16" x14ac:dyDescent="0.3">
+    <row r="43" spans="3:12" ht="16" hidden="1" x14ac:dyDescent="0.3">
       <c r="C43" s="112" t="s">
         <v>95</v>
       </c>
@@ -15286,19 +15315,19 @@
       <c r="L44" s="43"/>
     </row>
     <row r="45" spans="3:12" ht="16" hidden="1" x14ac:dyDescent="0.3">
-      <c r="C45" s="158" t="s">
+      <c r="C45" s="122" t="s">
         <v>113</v>
       </c>
-      <c r="D45" s="158"/>
-      <c r="E45" s="159" t="s">
+      <c r="D45" s="122"/>
+      <c r="E45" s="123" t="s">
         <v>82</v>
       </c>
-      <c r="F45" s="160"/>
-      <c r="G45" s="162" t="s">
+      <c r="F45" s="124"/>
+      <c r="G45" s="126" t="s">
         <v>19</v>
       </c>
-      <c r="H45" s="162"/>
-      <c r="I45" s="162"/>
+      <c r="H45" s="126"/>
+      <c r="I45" s="126"/>
       <c r="J45" s="33">
         <f>工数予実管理表!Y47</f>
         <v>0.8</v>
@@ -15313,7 +15342,7 @@
         <v>155</v>
       </c>
       <c r="F46" s="57"/>
-      <c r="G46" s="162" t="s">
+      <c r="G46" s="126" t="s">
         <v>19</v>
       </c>
       <c r="I46" s="57"/>
@@ -15321,7 +15350,7 @@
         <f>工数予実管理表!Y48</f>
         <v>0.5</v>
       </c>
-      <c r="L46" s="165"/>
+      <c r="L46" s="129"/>
     </row>
     <row r="47" spans="3:12" ht="16" hidden="1" x14ac:dyDescent="0.3">
       <c r="C47" s="57"/>
@@ -15330,7 +15359,7 @@
         <v>156</v>
       </c>
       <c r="F47" s="57"/>
-      <c r="G47" s="162" t="s">
+      <c r="G47" s="126" t="s">
         <v>19</v>
       </c>
       <c r="I47" s="57"/>
@@ -15347,7 +15376,7 @@
         <v>157</v>
       </c>
       <c r="F48" s="57"/>
-      <c r="G48" s="162" t="s">
+      <c r="G48" s="126" t="s">
         <v>19</v>
       </c>
       <c r="I48" s="57"/>
@@ -15364,7 +15393,7 @@
         <v>158</v>
       </c>
       <c r="F49" s="57"/>
-      <c r="G49" s="162" t="s">
+      <c r="G49" s="126" t="s">
         <v>19</v>
       </c>
       <c r="I49" s="57"/>
@@ -15381,7 +15410,7 @@
         <v>160</v>
       </c>
       <c r="F50" s="57"/>
-      <c r="G50" s="162" t="s">
+      <c r="G50" s="126" t="s">
         <v>19</v>
       </c>
       <c r="I50" s="57"/>
@@ -15398,7 +15427,7 @@
         <v>161</v>
       </c>
       <c r="F51" s="57"/>
-      <c r="G51" s="184" t="s">
+      <c r="G51" s="148" t="s">
         <v>19</v>
       </c>
       <c r="I51" s="57"/>
@@ -15408,20 +15437,20 @@
       </c>
       <c r="L51" s="57"/>
     </row>
-    <row r="52" spans="3:12" ht="16" x14ac:dyDescent="0.3">
-      <c r="C52" s="170" t="s">
+    <row r="52" spans="3:12" ht="16" hidden="1" x14ac:dyDescent="0.3">
+      <c r="C52" s="134" t="s">
         <v>126</v>
       </c>
-      <c r="D52" s="170"/>
-      <c r="E52" s="170" t="s">
+      <c r="D52" s="134"/>
+      <c r="E52" s="134" t="s">
         <v>58</v>
       </c>
-      <c r="F52" s="170"/>
-      <c r="G52" s="171" t="s">
+      <c r="F52" s="134"/>
+      <c r="G52" s="135" t="s">
         <v>30</v>
       </c>
-      <c r="H52" s="172"/>
-      <c r="I52" s="173"/>
+      <c r="H52" s="136"/>
+      <c r="I52" s="137"/>
       <c r="J52" s="33" t="str">
         <f>工数予実管理表!Y54</f>
         <v>完了</v>
@@ -15429,7 +15458,7 @@
       <c r="K52" s="57"/>
       <c r="L52" s="57"/>
     </row>
-    <row r="53" spans="3:12" ht="16" x14ac:dyDescent="0.3">
+    <row r="53" spans="3:12" ht="16" hidden="1" x14ac:dyDescent="0.3">
       <c r="C53" s="19" t="s">
         <v>90</v>
       </c>
@@ -15447,8 +15476,8 @@
         <f>工数予実管理表!Y55</f>
         <v>完了</v>
       </c>
-      <c r="K53" s="176"/>
-      <c r="L53" s="177"/>
+      <c r="K53" s="140"/>
+      <c r="L53" s="141"/>
     </row>
     <row r="54" spans="3:12" ht="16" hidden="1" x14ac:dyDescent="0.3">
       <c r="C54" s="19" t="s">
@@ -15597,7 +15626,7 @@
       <c r="K60" s="4"/>
       <c r="L60" s="43"/>
     </row>
-    <row r="61" spans="3:12" ht="16" x14ac:dyDescent="0.3">
+    <row r="61" spans="3:12" ht="16" hidden="1" x14ac:dyDescent="0.3">
       <c r="C61" s="23" t="s">
         <v>95</v>
       </c>
@@ -15639,7 +15668,7 @@
       <c r="K62" s="4"/>
       <c r="L62" s="43"/>
     </row>
-    <row r="63" spans="3:12" ht="16" x14ac:dyDescent="0.3">
+    <row r="63" spans="3:12" ht="16" hidden="1" x14ac:dyDescent="0.3">
       <c r="C63" s="19" t="s">
         <v>127</v>
       </c>
@@ -15660,7 +15689,7 @@
       <c r="K63" s="4"/>
       <c r="L63" s="43"/>
     </row>
-    <row r="64" spans="3:12" ht="16" x14ac:dyDescent="0.3">
+    <row r="64" spans="3:12" ht="16" hidden="1" x14ac:dyDescent="0.3">
       <c r="C64" s="23" t="s">
         <v>90</v>
       </c>
@@ -15779,9 +15808,9 @@
       </c>
       <c r="H69" s="22"/>
       <c r="I69" s="22"/>
-      <c r="J69" s="33" t="str">
+      <c r="J69" s="33">
         <f>工数予実管理表!Y71</f>
-        <v>未着手</v>
+        <v>0.2</v>
       </c>
       <c r="K69" s="4"/>
       <c r="L69" s="43"/>
@@ -15832,7 +15861,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="72" spans="3:12" ht="16" x14ac:dyDescent="0.3">
+    <row r="72" spans="3:12" ht="16" hidden="1" x14ac:dyDescent="0.3">
       <c r="C72" s="69" t="s">
         <v>114</v>
       </c>
@@ -15848,7 +15877,7 @@
       <c r="I72" s="26"/>
       <c r="J72" s="33" t="str">
         <f>工数予実管理表!Y74</f>
-        <v>未着手</v>
+        <v>完了</v>
       </c>
       <c r="K72" s="55" t="s">
         <v>117</v>
@@ -15878,7 +15907,7 @@
       <c r="K73" s="4"/>
       <c r="L73" s="43"/>
     </row>
-    <row r="74" spans="3:12" ht="16" x14ac:dyDescent="0.3">
+    <row r="74" spans="3:12" ht="16" hidden="1" x14ac:dyDescent="0.3">
       <c r="C74" s="76" t="s">
         <v>20</v>
       </c>
@@ -16078,7 +16107,7 @@
       <c r="K81" s="4"/>
       <c r="L81" s="43"/>
     </row>
-    <row r="82" spans="3:12" ht="16" x14ac:dyDescent="0.3">
+    <row r="82" spans="3:12" ht="16" hidden="1" x14ac:dyDescent="0.3">
       <c r="C82" s="76" t="s">
         <v>28</v>
       </c>
@@ -16151,7 +16180,7 @@
         <v>未着手</v>
       </c>
     </row>
-    <row r="85" spans="3:12" ht="16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="85" spans="3:12" ht="16" x14ac:dyDescent="0.3">
       <c r="C85" s="76" t="s">
         <v>31</v>
       </c>
@@ -16165,7 +16194,7 @@
         <v>完了</v>
       </c>
     </row>
-    <row r="86" spans="3:12" ht="16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="86" spans="3:12" ht="16" x14ac:dyDescent="0.3">
       <c r="C86" s="76" t="s">
         <v>32</v>
       </c>
@@ -16179,7 +16208,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="87" spans="3:12" ht="16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="87" spans="3:12" ht="16" x14ac:dyDescent="0.3">
       <c r="C87" s="75" t="s">
         <v>33</v>
       </c>
@@ -16193,7 +16222,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="88" spans="3:12" ht="16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="88" spans="3:12" ht="16" x14ac:dyDescent="0.3">
       <c r="C88" s="76" t="s">
         <v>34</v>
       </c>
@@ -16207,7 +16236,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="89" spans="3:12" ht="16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="89" spans="3:12" ht="16" x14ac:dyDescent="0.3">
       <c r="C89" s="76" t="s">
         <v>35</v>
       </c>
@@ -16221,7 +16250,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="90" spans="3:12" ht="16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="90" spans="3:12" ht="16" x14ac:dyDescent="0.3">
       <c r="C90" s="75" t="s">
         <v>36</v>
       </c>
@@ -16230,12 +16259,12 @@
       <c r="G90" s="31" t="s">
         <v>14</v>
       </c>
-      <c r="J90" s="33" t="str">
+      <c r="J90" s="33">
         <f>工数予実管理表!Y92</f>
-        <v>未着手</v>
-      </c>
-    </row>
-    <row r="91" spans="3:12" ht="16" hidden="1" x14ac:dyDescent="0.3">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="91" spans="3:12" ht="16" x14ac:dyDescent="0.3">
       <c r="C91" s="76" t="s">
         <v>37</v>
       </c>
@@ -16263,7 +16292,7 @@
         <v>未着手</v>
       </c>
     </row>
-    <row r="93" spans="3:12" ht="16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="93" spans="3:12" ht="16" x14ac:dyDescent="0.3">
       <c r="C93" s="61" t="s">
         <v>50</v>
       </c>
@@ -16277,7 +16306,7 @@
         <v>未着手</v>
       </c>
     </row>
-    <row r="94" spans="3:12" ht="16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="94" spans="3:12" ht="16" x14ac:dyDescent="0.3">
       <c r="C94" s="61" t="s">
         <v>51</v>
       </c>
@@ -16361,7 +16390,7 @@
         <v>未着手</v>
       </c>
     </row>
-    <row r="100" spans="3:10" ht="16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="100" spans="3:10" ht="16" x14ac:dyDescent="0.3">
       <c r="C100" s="61" t="s">
         <v>57</v>
       </c>
@@ -16419,7 +16448,7 @@
   <autoFilter ref="C6:J102" xr:uid="{F28E51FA-184A-4C06-B805-6476AA8FA733}">
     <filterColumn colId="4">
       <filters>
-        <filter val="勝又"/>
+        <filter val="永田"/>
       </filters>
     </filterColumn>
   </autoFilter>
@@ -16429,18 +16458,18 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -16558,18 +16587,18 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{658D790C-F48A-4541-BBAC-37C510A1270D}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4F999A99-14E0-4A35-8552-0D0111146846}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4F999A99-14E0-4A35-8552-0D0111146846}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{658D790C-F48A-4541-BBAC-37C510A1270D}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/doc/D4_ドキュメント/予実管理表(最新版)_D4.xlsx
+++ b/doc/D4_ドキュメント/予実管理表(最新版)_D4.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F34512E1-EA55-4539-83B2-B751D816C9E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9CD34A31-2034-4C25-9A13-4AB90A96F5B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-19310" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="工数予実管理表" sheetId="5" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="856" uniqueCount="162">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="861" uniqueCount="162">
   <si>
     <t>プロジェクト名</t>
     <rPh sb="6" eb="7">
@@ -1712,7 +1712,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="208">
+  <cellXfs count="205">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2202,6 +2202,75 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" shrinkToFit="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="22" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2250,54 +2319,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2305,36 +2326,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="22" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2589,7 +2580,7 @@
                   <c:v>0.61275167785234896</c:v>
                 </c:pt>
                 <c:pt idx="9" formatCode="0.0%">
-                  <c:v>0.65167785234899323</c:v>
+                  <c:v>0.69731543624161074</c:v>
                 </c:pt>
                 <c:pt idx="10" formatCode="0.0%">
                   <c:v>0</c:v>
@@ -3797,8 +3788,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA4A6EF2-62B9-43FE-BFFD-0A328B128D1B}">
   <dimension ref="A1:BL111"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G8" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J29" sqref="J29"/>
+    <sheetView tabSelected="1" topLeftCell="G34" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AH87" sqref="AH87"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
@@ -3832,54 +3823,54 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:64" ht="16" x14ac:dyDescent="0.3">
-      <c r="A1" s="167" t="s">
+      <c r="A1" s="190" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="168"/>
-      <c r="C1" s="168"/>
-      <c r="D1" s="168"/>
-      <c r="E1" s="168"/>
-      <c r="F1" s="168"/>
-      <c r="G1" s="168"/>
-      <c r="H1" s="171" t="s">
+      <c r="B1" s="191"/>
+      <c r="C1" s="191"/>
+      <c r="D1" s="191"/>
+      <c r="E1" s="191"/>
+      <c r="F1" s="191"/>
+      <c r="G1" s="191"/>
+      <c r="H1" s="194" t="s">
         <v>1</v>
       </c>
-      <c r="I1" s="172"/>
-      <c r="J1" s="172"/>
-      <c r="K1" s="172"/>
-      <c r="L1" s="172"/>
-      <c r="M1" s="172"/>
-      <c r="N1" s="172"/>
-      <c r="O1" s="172"/>
-      <c r="P1" s="172"/>
-      <c r="Q1" s="172"/>
-      <c r="R1" s="172"/>
-      <c r="S1" s="172"/>
-      <c r="T1" s="172"/>
-      <c r="U1" s="172"/>
-      <c r="V1" s="172"/>
-      <c r="W1" s="172"/>
-      <c r="X1" s="172"/>
-      <c r="Y1" s="172"/>
-      <c r="Z1" s="172"/>
-      <c r="AA1" s="172"/>
-      <c r="AB1" s="172"/>
-      <c r="AC1" s="173"/>
-      <c r="AD1" s="179" t="s">
+      <c r="I1" s="195"/>
+      <c r="J1" s="195"/>
+      <c r="K1" s="195"/>
+      <c r="L1" s="195"/>
+      <c r="M1" s="195"/>
+      <c r="N1" s="195"/>
+      <c r="O1" s="195"/>
+      <c r="P1" s="195"/>
+      <c r="Q1" s="195"/>
+      <c r="R1" s="195"/>
+      <c r="S1" s="195"/>
+      <c r="T1" s="195"/>
+      <c r="U1" s="195"/>
+      <c r="V1" s="195"/>
+      <c r="W1" s="195"/>
+      <c r="X1" s="195"/>
+      <c r="Y1" s="195"/>
+      <c r="Z1" s="195"/>
+      <c r="AA1" s="195"/>
+      <c r="AB1" s="195"/>
+      <c r="AC1" s="196"/>
+      <c r="AD1" s="170" t="s">
         <v>2</v>
       </c>
-      <c r="AE1" s="180"/>
-      <c r="AF1" s="180"/>
-      <c r="AG1" s="181"/>
-      <c r="AH1" s="182">
+      <c r="AE1" s="171"/>
+      <c r="AF1" s="171"/>
+      <c r="AG1" s="172"/>
+      <c r="AH1" s="173">
         <v>45078</v>
       </c>
-      <c r="AI1" s="183"/>
-      <c r="AJ1" s="183"/>
-      <c r="AK1" s="183"/>
-      <c r="AL1" s="183"/>
-      <c r="AM1" s="183"/>
-      <c r="AN1" s="184"/>
+      <c r="AI1" s="174"/>
+      <c r="AJ1" s="174"/>
+      <c r="AK1" s="174"/>
+      <c r="AL1" s="174"/>
+      <c r="AM1" s="174"/>
+      <c r="AN1" s="175"/>
       <c r="AO1" s="1"/>
       <c r="AP1" s="1"/>
       <c r="AQ1" s="1"/>
@@ -3901,50 +3892,50 @@
       <c r="BG1" s="1"/>
     </row>
     <row r="2" spans="1:64" ht="16" x14ac:dyDescent="0.3">
-      <c r="A2" s="169"/>
-      <c r="B2" s="170"/>
-      <c r="C2" s="170"/>
-      <c r="D2" s="170"/>
-      <c r="E2" s="170"/>
-      <c r="F2" s="170"/>
-      <c r="G2" s="170"/>
-      <c r="H2" s="174"/>
-      <c r="I2" s="175"/>
-      <c r="J2" s="175"/>
-      <c r="K2" s="175"/>
-      <c r="L2" s="175"/>
-      <c r="M2" s="175"/>
-      <c r="N2" s="175"/>
-      <c r="O2" s="175"/>
-      <c r="P2" s="175"/>
-      <c r="Q2" s="175"/>
-      <c r="R2" s="175"/>
-      <c r="S2" s="175"/>
-      <c r="T2" s="175"/>
-      <c r="U2" s="175"/>
-      <c r="V2" s="175"/>
-      <c r="W2" s="175"/>
-      <c r="X2" s="175"/>
-      <c r="Y2" s="175"/>
-      <c r="Z2" s="175"/>
-      <c r="AA2" s="175"/>
-      <c r="AB2" s="175"/>
-      <c r="AC2" s="176"/>
-      <c r="AD2" s="179" t="s">
+      <c r="A2" s="192"/>
+      <c r="B2" s="193"/>
+      <c r="C2" s="193"/>
+      <c r="D2" s="193"/>
+      <c r="E2" s="193"/>
+      <c r="F2" s="193"/>
+      <c r="G2" s="193"/>
+      <c r="H2" s="197"/>
+      <c r="I2" s="198"/>
+      <c r="J2" s="198"/>
+      <c r="K2" s="198"/>
+      <c r="L2" s="198"/>
+      <c r="M2" s="198"/>
+      <c r="N2" s="198"/>
+      <c r="O2" s="198"/>
+      <c r="P2" s="198"/>
+      <c r="Q2" s="198"/>
+      <c r="R2" s="198"/>
+      <c r="S2" s="198"/>
+      <c r="T2" s="198"/>
+      <c r="U2" s="198"/>
+      <c r="V2" s="198"/>
+      <c r="W2" s="198"/>
+      <c r="X2" s="198"/>
+      <c r="Y2" s="198"/>
+      <c r="Z2" s="198"/>
+      <c r="AA2" s="198"/>
+      <c r="AB2" s="198"/>
+      <c r="AC2" s="199"/>
+      <c r="AD2" s="170" t="s">
         <v>3</v>
       </c>
-      <c r="AE2" s="180"/>
-      <c r="AF2" s="180"/>
-      <c r="AG2" s="181"/>
-      <c r="AH2" s="182">
+      <c r="AE2" s="171"/>
+      <c r="AF2" s="171"/>
+      <c r="AG2" s="172"/>
+      <c r="AH2" s="173">
         <v>45107</v>
       </c>
-      <c r="AI2" s="183"/>
-      <c r="AJ2" s="183"/>
-      <c r="AK2" s="183"/>
-      <c r="AL2" s="183"/>
-      <c r="AM2" s="183"/>
-      <c r="AN2" s="184"/>
+      <c r="AI2" s="174"/>
+      <c r="AJ2" s="174"/>
+      <c r="AK2" s="174"/>
+      <c r="AL2" s="174"/>
+      <c r="AM2" s="174"/>
+      <c r="AN2" s="175"/>
       <c r="AO2" s="1"/>
       <c r="AP2" s="1"/>
       <c r="AQ2" s="1"/>
@@ -4027,43 +4018,43 @@
       <c r="BG3" s="1"/>
     </row>
     <row r="4" spans="1:64" ht="16" x14ac:dyDescent="0.3">
-      <c r="A4" s="185" t="s">
+      <c r="A4" s="176" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="186"/>
-      <c r="C4" s="189" t="s">
+      <c r="B4" s="177"/>
+      <c r="C4" s="180" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="189"/>
-      <c r="E4" s="189"/>
-      <c r="F4" s="189"/>
-      <c r="G4" s="189"/>
-      <c r="H4" s="189"/>
-      <c r="I4" s="189"/>
-      <c r="J4" s="189"/>
-      <c r="K4" s="189"/>
-      <c r="L4" s="189"/>
-      <c r="M4" s="189"/>
-      <c r="N4" s="189"/>
-      <c r="O4" s="189"/>
-      <c r="P4" s="186" t="s">
+      <c r="D4" s="180"/>
+      <c r="E4" s="180"/>
+      <c r="F4" s="180"/>
+      <c r="G4" s="180"/>
+      <c r="H4" s="180"/>
+      <c r="I4" s="180"/>
+      <c r="J4" s="180"/>
+      <c r="K4" s="180"/>
+      <c r="L4" s="180"/>
+      <c r="M4" s="180"/>
+      <c r="N4" s="180"/>
+      <c r="O4" s="180"/>
+      <c r="P4" s="177" t="s">
         <v>6</v>
       </c>
-      <c r="Q4" s="186"/>
-      <c r="R4" s="186"/>
-      <c r="S4" s="186" t="s">
+      <c r="Q4" s="177"/>
+      <c r="R4" s="177"/>
+      <c r="S4" s="177" t="s">
         <v>7</v>
       </c>
-      <c r="T4" s="186"/>
-      <c r="U4" s="186"/>
-      <c r="V4" s="186"/>
-      <c r="W4" s="186"/>
-      <c r="X4" s="194"/>
-      <c r="Y4" s="190" t="s">
+      <c r="T4" s="177"/>
+      <c r="U4" s="177"/>
+      <c r="V4" s="177"/>
+      <c r="W4" s="177"/>
+      <c r="X4" s="185"/>
+      <c r="Y4" s="181" t="s">
         <v>8</v>
       </c>
-      <c r="Z4" s="190"/>
-      <c r="AA4" s="191"/>
+      <c r="Z4" s="181"/>
+      <c r="AA4" s="182"/>
       <c r="AB4" s="49"/>
       <c r="AC4" s="49"/>
       <c r="AD4" s="5">
@@ -4188,43 +4179,43 @@
       </c>
     </row>
     <row r="5" spans="1:64" ht="16" x14ac:dyDescent="0.3">
-      <c r="A5" s="187"/>
-      <c r="B5" s="188"/>
-      <c r="C5" s="188" t="s">
+      <c r="A5" s="178"/>
+      <c r="B5" s="179"/>
+      <c r="C5" s="179" t="s">
         <v>9</v>
       </c>
-      <c r="D5" s="188"/>
-      <c r="E5" s="188"/>
-      <c r="F5" s="188"/>
-      <c r="G5" s="188"/>
-      <c r="H5" s="163" t="s">
+      <c r="D5" s="179"/>
+      <c r="E5" s="179"/>
+      <c r="F5" s="179"/>
+      <c r="G5" s="179"/>
+      <c r="H5" s="186" t="s">
         <v>115</v>
       </c>
-      <c r="I5" s="164"/>
-      <c r="J5" s="163" t="s">
+      <c r="I5" s="187"/>
+      <c r="J5" s="186" t="s">
         <v>89</v>
       </c>
-      <c r="K5" s="164"/>
+      <c r="K5" s="187"/>
       <c r="L5" s="53"/>
       <c r="M5" s="53"/>
       <c r="N5" s="53"/>
       <c r="O5" s="53"/>
-      <c r="P5" s="188"/>
-      <c r="Q5" s="188"/>
-      <c r="R5" s="188"/>
-      <c r="S5" s="188" t="s">
+      <c r="P5" s="179"/>
+      <c r="Q5" s="179"/>
+      <c r="R5" s="179"/>
+      <c r="S5" s="179" t="s">
         <v>2</v>
       </c>
-      <c r="T5" s="188"/>
-      <c r="U5" s="188"/>
-      <c r="V5" s="188" t="s">
+      <c r="T5" s="179"/>
+      <c r="U5" s="179"/>
+      <c r="V5" s="179" t="s">
         <v>3</v>
       </c>
-      <c r="W5" s="188"/>
-      <c r="X5" s="179"/>
-      <c r="Y5" s="192"/>
-      <c r="Z5" s="192"/>
-      <c r="AA5" s="193"/>
+      <c r="W5" s="179"/>
+      <c r="X5" s="170"/>
+      <c r="Y5" s="183"/>
+      <c r="Z5" s="183"/>
+      <c r="AA5" s="184"/>
       <c r="AB5" s="45" t="s">
         <v>87</v>
       </c>
@@ -4359,33 +4350,33 @@
       </c>
     </row>
     <row r="6" spans="1:64" ht="16" x14ac:dyDescent="0.3">
-      <c r="A6" s="187"/>
-      <c r="B6" s="188"/>
-      <c r="C6" s="188"/>
-      <c r="D6" s="188"/>
-      <c r="E6" s="188"/>
-      <c r="F6" s="188"/>
-      <c r="G6" s="188"/>
-      <c r="H6" s="165"/>
-      <c r="I6" s="166"/>
-      <c r="J6" s="165"/>
-      <c r="K6" s="166"/>
+      <c r="A6" s="178"/>
+      <c r="B6" s="179"/>
+      <c r="C6" s="179"/>
+      <c r="D6" s="179"/>
+      <c r="E6" s="179"/>
+      <c r="F6" s="179"/>
+      <c r="G6" s="179"/>
+      <c r="H6" s="188"/>
+      <c r="I6" s="189"/>
+      <c r="J6" s="188"/>
+      <c r="K6" s="189"/>
       <c r="L6" s="53"/>
       <c r="M6" s="53"/>
       <c r="N6" s="53"/>
       <c r="O6" s="53"/>
-      <c r="P6" s="188"/>
-      <c r="Q6" s="188"/>
-      <c r="R6" s="188"/>
-      <c r="S6" s="188"/>
-      <c r="T6" s="188"/>
-      <c r="U6" s="188"/>
-      <c r="V6" s="188"/>
-      <c r="W6" s="188"/>
-      <c r="X6" s="179"/>
-      <c r="Y6" s="192"/>
-      <c r="Z6" s="192"/>
-      <c r="AA6" s="193"/>
+      <c r="P6" s="179"/>
+      <c r="Q6" s="179"/>
+      <c r="R6" s="179"/>
+      <c r="S6" s="179"/>
+      <c r="T6" s="179"/>
+      <c r="U6" s="179"/>
+      <c r="V6" s="179"/>
+      <c r="W6" s="179"/>
+      <c r="X6" s="170"/>
+      <c r="Y6" s="183"/>
+      <c r="Z6" s="183"/>
+      <c r="AA6" s="184"/>
       <c r="AB6" s="45"/>
       <c r="AC6" s="45"/>
       <c r="AD6" s="11" t="str">
@@ -5934,11 +5925,11 @@
       <c r="E24" s="19"/>
       <c r="F24" s="19"/>
       <c r="G24" s="19"/>
-      <c r="H24" s="206" t="s">
+      <c r="H24" s="168" t="s">
         <v>102</v>
       </c>
-      <c r="I24" s="206"/>
-      <c r="J24" s="206" t="s">
+      <c r="I24" s="168"/>
+      <c r="J24" s="168" t="s">
         <v>35</v>
       </c>
       <c r="K24" s="19"/>
@@ -7026,11 +7017,11 @@
       <c r="E37" s="19"/>
       <c r="F37" s="19"/>
       <c r="G37" s="19"/>
-      <c r="H37" s="198" t="s">
+      <c r="H37" s="19" t="s">
         <v>90</v>
       </c>
-      <c r="I37" s="198"/>
-      <c r="J37" s="198" t="s">
+      <c r="I37" s="19"/>
+      <c r="J37" s="19" t="s">
         <v>49</v>
       </c>
       <c r="K37" s="19"/>
@@ -7110,11 +7101,11 @@
       <c r="E38" s="19"/>
       <c r="F38" s="19"/>
       <c r="G38" s="19"/>
-      <c r="H38" s="198" t="s">
+      <c r="H38" s="19" t="s">
         <v>91</v>
       </c>
-      <c r="I38" s="198"/>
-      <c r="J38" s="198" t="s">
+      <c r="I38" s="19"/>
+      <c r="J38" s="19" t="s">
         <v>50</v>
       </c>
       <c r="K38" s="19"/>
@@ -7194,11 +7185,11 @@
       <c r="E39" s="19"/>
       <c r="F39" s="19"/>
       <c r="G39" s="19"/>
-      <c r="H39" s="198" t="s">
+      <c r="H39" s="19" t="s">
         <v>110</v>
       </c>
-      <c r="I39" s="198"/>
-      <c r="J39" s="198" t="s">
+      <c r="I39" s="19"/>
+      <c r="J39" s="19" t="s">
         <v>51</v>
       </c>
       <c r="K39" s="19"/>
@@ -7278,11 +7269,11 @@
       <c r="E40" s="19"/>
       <c r="F40" s="19"/>
       <c r="G40" s="19"/>
-      <c r="H40" s="198" t="s">
+      <c r="H40" s="19" t="s">
         <v>111</v>
       </c>
-      <c r="I40" s="198"/>
-      <c r="J40" s="198" t="s">
+      <c r="I40" s="19"/>
+      <c r="J40" s="19" t="s">
         <v>52</v>
       </c>
       <c r="K40" s="19"/>
@@ -7362,11 +7353,11 @@
       <c r="E41" s="19"/>
       <c r="F41" s="19"/>
       <c r="G41" s="19"/>
-      <c r="H41" s="198" t="s">
+      <c r="H41" s="19" t="s">
         <v>93</v>
       </c>
-      <c r="I41" s="198"/>
-      <c r="J41" s="198" t="s">
+      <c r="I41" s="19"/>
+      <c r="J41" s="19" t="s">
         <v>53</v>
       </c>
       <c r="K41" s="23"/>
@@ -7446,11 +7437,11 @@
       <c r="E42" s="19"/>
       <c r="F42" s="19"/>
       <c r="G42" s="19"/>
-      <c r="H42" s="206" t="s">
+      <c r="H42" s="168" t="s">
         <v>124</v>
       </c>
-      <c r="I42" s="206"/>
-      <c r="J42" s="206" t="s">
+      <c r="I42" s="168"/>
+      <c r="J42" s="168" t="s">
         <v>54</v>
       </c>
       <c r="K42" s="19"/>
@@ -7474,7 +7465,7 @@
       <c r="W42" s="21"/>
       <c r="X42" s="21"/>
       <c r="Y42" s="40">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="Z42" s="4"/>
       <c r="AA42" s="43"/>
@@ -7483,7 +7474,7 @@
       </c>
       <c r="AC42" s="107">
         <f t="shared" si="4"/>
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="AD42" s="44"/>
       <c r="AE42" s="2"/>
@@ -7530,11 +7521,11 @@
       <c r="E43" s="19"/>
       <c r="F43" s="19"/>
       <c r="G43" s="19"/>
-      <c r="H43" s="204" t="s">
+      <c r="H43" s="166" t="s">
         <v>106</v>
       </c>
-      <c r="I43" s="204"/>
-      <c r="J43" s="205" t="s">
+      <c r="I43" s="166"/>
+      <c r="J43" s="167" t="s">
         <v>55</v>
       </c>
       <c r="K43" s="28"/>
@@ -7614,11 +7605,11 @@
       <c r="E44" s="19"/>
       <c r="F44" s="19"/>
       <c r="G44" s="19"/>
-      <c r="H44" s="198" t="s">
+      <c r="H44" s="19" t="s">
         <v>125</v>
       </c>
-      <c r="I44" s="198"/>
-      <c r="J44" s="198" t="s">
+      <c r="I44" s="19"/>
+      <c r="J44" s="19" t="s">
         <v>159</v>
       </c>
       <c r="K44" s="19"/>
@@ -7642,7 +7633,7 @@
       <c r="W44" s="21"/>
       <c r="X44" s="21"/>
       <c r="Y44" s="40">
-        <v>0.5</v>
+        <v>0.8</v>
       </c>
       <c r="Z44" s="4"/>
       <c r="AA44" s="43"/>
@@ -7651,7 +7642,7 @@
       </c>
       <c r="AC44" s="107">
         <f t="shared" si="4"/>
-        <v>0.5</v>
+        <v>0.8</v>
       </c>
       <c r="AD44" s="44"/>
       <c r="AE44" s="2"/>
@@ -7698,11 +7689,11 @@
       <c r="E45" s="19"/>
       <c r="F45" s="19"/>
       <c r="G45" s="19"/>
-      <c r="H45" s="199" t="s">
+      <c r="H45" s="28" t="s">
         <v>95</v>
       </c>
-      <c r="I45" s="199"/>
-      <c r="J45" s="200" t="s">
+      <c r="I45" s="28"/>
+      <c r="J45" s="27" t="s">
         <v>57</v>
       </c>
       <c r="K45" s="28"/>
@@ -7784,11 +7775,11 @@
       <c r="E46" s="19"/>
       <c r="F46" s="19"/>
       <c r="G46" s="19"/>
-      <c r="H46" s="199" t="s">
+      <c r="H46" s="28" t="s">
         <v>112</v>
       </c>
-      <c r="I46" s="199"/>
-      <c r="J46" s="200" t="s">
+      <c r="I46" s="28"/>
+      <c r="J46" s="27" t="s">
         <v>81</v>
       </c>
       <c r="K46" s="41"/>
@@ -7870,11 +7861,11 @@
       <c r="E47" s="121"/>
       <c r="F47" s="121"/>
       <c r="G47" s="121"/>
-      <c r="H47" s="201" t="s">
+      <c r="H47" s="163" t="s">
         <v>113</v>
       </c>
-      <c r="I47" s="201"/>
-      <c r="J47" s="202" t="s">
+      <c r="I47" s="163"/>
+      <c r="J47" s="164" t="s">
         <v>82</v>
       </c>
       <c r="K47" s="124"/>
@@ -7954,9 +7945,9 @@
       <c r="E48" s="57"/>
       <c r="F48" s="57"/>
       <c r="G48" s="57"/>
-      <c r="H48" s="203"/>
-      <c r="I48" s="203"/>
-      <c r="J48" s="203" t="s">
+      <c r="H48" s="165"/>
+      <c r="I48" s="165"/>
+      <c r="J48" s="165" t="s">
         <v>155</v>
       </c>
       <c r="K48" s="57"/>
@@ -8033,9 +8024,9 @@
       <c r="E49" s="57"/>
       <c r="F49" s="57"/>
       <c r="G49" s="57"/>
-      <c r="H49" s="203"/>
-      <c r="I49" s="203"/>
-      <c r="J49" s="203" t="s">
+      <c r="H49" s="165"/>
+      <c r="I49" s="165"/>
+      <c r="J49" s="165" t="s">
         <v>156</v>
       </c>
       <c r="K49" s="57"/>
@@ -8112,9 +8103,9 @@
       <c r="E50" s="57"/>
       <c r="F50" s="57"/>
       <c r="G50" s="57"/>
-      <c r="H50" s="203"/>
-      <c r="I50" s="203"/>
-      <c r="J50" s="203" t="s">
+      <c r="H50" s="165"/>
+      <c r="I50" s="165"/>
+      <c r="J50" s="165" t="s">
         <v>157</v>
       </c>
       <c r="K50" s="57"/>
@@ -8191,9 +8182,9 @@
       <c r="E51" s="57"/>
       <c r="F51" s="57"/>
       <c r="G51" s="57"/>
-      <c r="H51" s="203"/>
-      <c r="I51" s="203"/>
-      <c r="J51" s="203" t="s">
+      <c r="H51" s="165"/>
+      <c r="I51" s="165"/>
+      <c r="J51" s="165" t="s">
         <v>158</v>
       </c>
       <c r="K51" s="57"/>
@@ -8270,9 +8261,9 @@
       <c r="E52" s="57"/>
       <c r="F52" s="57"/>
       <c r="G52" s="57"/>
-      <c r="H52" s="203"/>
-      <c r="I52" s="203"/>
-      <c r="J52" s="203" t="s">
+      <c r="H52" s="165"/>
+      <c r="I52" s="165"/>
+      <c r="J52" s="165" t="s">
         <v>160</v>
       </c>
       <c r="K52" s="57"/>
@@ -8296,7 +8287,7 @@
       <c r="W52" s="57"/>
       <c r="X52" s="57"/>
       <c r="Y52" s="150">
-        <v>0.5</v>
+        <v>0.8</v>
       </c>
       <c r="Z52" s="57"/>
       <c r="AA52" s="57"/>
@@ -8305,7 +8296,7 @@
       </c>
       <c r="AC52" s="131">
         <f t="shared" si="5"/>
-        <v>0.5</v>
+        <v>0.8</v>
       </c>
       <c r="AD52" s="57"/>
       <c r="AE52" s="57"/>
@@ -8349,9 +8340,9 @@
       <c r="E53" s="57"/>
       <c r="F53" s="57"/>
       <c r="G53" s="57"/>
-      <c r="H53" s="203"/>
-      <c r="I53" s="203"/>
-      <c r="J53" s="203" t="s">
+      <c r="H53" s="165"/>
+      <c r="I53" s="165"/>
+      <c r="J53" s="165" t="s">
         <v>161</v>
       </c>
       <c r="K53" s="57"/>
@@ -8375,7 +8366,7 @@
       <c r="W53" s="57"/>
       <c r="X53" s="57"/>
       <c r="Y53" s="150">
-        <v>0.5</v>
+        <v>0.8</v>
       </c>
       <c r="Z53" s="57"/>
       <c r="AA53" s="57"/>
@@ -8384,7 +8375,7 @@
       </c>
       <c r="AC53" s="131">
         <f t="shared" si="5"/>
-        <v>0.5</v>
+        <v>0.8</v>
       </c>
       <c r="AD53" s="57"/>
       <c r="AE53" s="57"/>
@@ -9347,8 +9338,8 @@
       </c>
     </row>
     <row r="65" spans="1:62" ht="16" x14ac:dyDescent="0.3">
-      <c r="A65" s="177"/>
-      <c r="B65" s="178"/>
+      <c r="A65" s="200"/>
+      <c r="B65" s="201"/>
       <c r="C65" s="19"/>
       <c r="D65" s="19"/>
       <c r="E65" s="19"/>
@@ -9431,8 +9422,8 @@
       </c>
     </row>
     <row r="66" spans="1:62" ht="16" x14ac:dyDescent="0.3">
-      <c r="A66" s="177"/>
-      <c r="B66" s="178"/>
+      <c r="A66" s="200"/>
+      <c r="B66" s="201"/>
       <c r="C66" s="19"/>
       <c r="D66" s="19"/>
       <c r="E66" s="19"/>
@@ -9515,8 +9506,8 @@
       </c>
     </row>
     <row r="67" spans="1:62" ht="16" x14ac:dyDescent="0.3">
-      <c r="A67" s="177"/>
-      <c r="B67" s="178"/>
+      <c r="A67" s="200"/>
+      <c r="B67" s="201"/>
       <c r="C67" s="19"/>
       <c r="D67" s="19"/>
       <c r="E67" s="19"/>
@@ -9599,8 +9590,8 @@
       </c>
     </row>
     <row r="68" spans="1:62" ht="16" x14ac:dyDescent="0.3">
-      <c r="A68" s="177"/>
-      <c r="B68" s="178"/>
+      <c r="A68" s="200"/>
+      <c r="B68" s="201"/>
       <c r="C68" s="19"/>
       <c r="D68" s="19"/>
       <c r="E68" s="19"/>
@@ -9683,8 +9674,8 @@
       </c>
     </row>
     <row r="69" spans="1:62" ht="16" x14ac:dyDescent="0.3">
-      <c r="A69" s="177"/>
-      <c r="B69" s="178"/>
+      <c r="A69" s="200"/>
+      <c r="B69" s="201"/>
       <c r="C69" s="19"/>
       <c r="D69" s="19"/>
       <c r="E69" s="19"/>
@@ -9717,8 +9708,8 @@
       </c>
       <c r="W69" s="21"/>
       <c r="X69" s="21"/>
-      <c r="Y69" s="25">
-        <v>0.8</v>
+      <c r="Y69" s="25" t="s">
+        <v>116</v>
       </c>
       <c r="Z69" s="4"/>
       <c r="AA69" s="43"/>
@@ -9727,7 +9718,7 @@
       </c>
       <c r="AC69" s="107">
         <f t="shared" si="6"/>
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="AD69" s="44"/>
       <c r="AE69" s="2"/>
@@ -11468,11 +11459,11 @@
       <c r="E89" s="1"/>
       <c r="F89" s="1"/>
       <c r="G89" s="118"/>
-      <c r="H89" s="207" t="s">
+      <c r="H89" s="169" t="s">
         <v>33</v>
       </c>
-      <c r="I89" s="207"/>
-      <c r="J89" s="207"/>
+      <c r="I89" s="169"/>
+      <c r="J89" s="169"/>
       <c r="P89" s="31" t="s">
         <v>14</v>
       </c>
@@ -11486,15 +11477,15 @@
       </c>
       <c r="W89" s="65"/>
       <c r="X89" s="65"/>
-      <c r="Y89" s="54">
-        <v>0.5</v>
+      <c r="Y89" s="54" t="s">
+        <v>116</v>
       </c>
       <c r="AB89">
         <v>3</v>
       </c>
       <c r="AC89" s="107">
         <f t="shared" si="7"/>
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="AD89" s="57"/>
       <c r="AE89" s="57"/>
@@ -11539,11 +11530,11 @@
       <c r="E90" s="1"/>
       <c r="F90" s="1"/>
       <c r="G90" s="118"/>
-      <c r="H90" s="207" t="s">
+      <c r="H90" s="169" t="s">
         <v>34</v>
       </c>
-      <c r="I90" s="207"/>
-      <c r="J90" s="207"/>
+      <c r="I90" s="169"/>
+      <c r="J90" s="169"/>
       <c r="P90" s="31" t="s">
         <v>14</v>
       </c>
@@ -11557,15 +11548,15 @@
       </c>
       <c r="W90" s="65"/>
       <c r="X90" s="65"/>
-      <c r="Y90" s="54">
-        <v>0.5</v>
+      <c r="Y90" s="54" t="s">
+        <v>116</v>
       </c>
       <c r="AB90">
         <v>3</v>
       </c>
       <c r="AC90" s="107">
         <f t="shared" si="7"/>
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="AD90" s="57"/>
       <c r="AE90" s="57"/>
@@ -11628,15 +11619,15 @@
       </c>
       <c r="W91" s="65"/>
       <c r="X91" s="65"/>
-      <c r="Y91" s="54">
-        <v>0.5</v>
+      <c r="Y91" s="54" t="s">
+        <v>116</v>
       </c>
       <c r="AB91">
         <v>3</v>
       </c>
       <c r="AC91" s="107">
         <f t="shared" si="7"/>
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="AD91" s="57"/>
       <c r="AE91" s="57"/>
@@ -11699,15 +11690,15 @@
       </c>
       <c r="W92" s="65"/>
       <c r="X92" s="65"/>
-      <c r="Y92" s="54">
-        <v>0.5</v>
+      <c r="Y92" s="54" t="s">
+        <v>116</v>
       </c>
       <c r="AB92">
         <v>3</v>
       </c>
       <c r="AC92" s="107">
         <f t="shared" si="7"/>
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="AD92" s="57"/>
       <c r="AE92" s="57"/>
@@ -11771,14 +11762,14 @@
       <c r="W93" s="65"/>
       <c r="X93" s="65"/>
       <c r="Y93" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="AB93">
         <v>3</v>
       </c>
       <c r="AC93" s="107">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD93" s="57"/>
       <c r="AE93" s="57"/>
@@ -12807,6 +12798,11 @@
     </row>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="A69:B69"/>
+    <mergeCell ref="A68:B68"/>
+    <mergeCell ref="A67:B67"/>
+    <mergeCell ref="A66:B66"/>
+    <mergeCell ref="A65:B65"/>
     <mergeCell ref="AD1:AG1"/>
     <mergeCell ref="AH1:AN1"/>
     <mergeCell ref="AD2:AG2"/>
@@ -12823,11 +12819,6 @@
     <mergeCell ref="J5:K6"/>
     <mergeCell ref="A1:G2"/>
     <mergeCell ref="H1:AC2"/>
-    <mergeCell ref="A69:B69"/>
-    <mergeCell ref="A68:B68"/>
-    <mergeCell ref="A67:B67"/>
-    <mergeCell ref="A66:B66"/>
-    <mergeCell ref="A65:B65"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="AD5:AD6">
@@ -12861,7 +12852,7 @@
   <dimension ref="A1:T21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L7" sqref="L7"/>
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
@@ -13025,7 +13016,7 @@
       </c>
       <c r="K3" s="88">
         <f t="shared" si="0"/>
-        <v>0.65167785234899323</v>
+        <v>0.69731543624161074</v>
       </c>
       <c r="L3" s="88">
         <f t="shared" si="0"/>
@@ -13262,7 +13253,7 @@
         <v>182.6</v>
       </c>
       <c r="K7" s="91">
-        <v>194.2</v>
+        <v>207.8</v>
       </c>
       <c r="L7" s="91"/>
       <c r="M7" s="91"/>
@@ -13277,63 +13268,63 @@
     <row r="8" spans="1:20" x14ac:dyDescent="0.3">
       <c r="F8">
         <f>Sheet3!$F$101</f>
-        <v>194.20000000000002</v>
+        <v>207.80000000000004</v>
       </c>
       <c r="G8">
         <f>Sheet3!$F$101</f>
-        <v>194.20000000000002</v>
+        <v>207.80000000000004</v>
       </c>
       <c r="H8">
         <f>Sheet3!$F$101</f>
-        <v>194.20000000000002</v>
+        <v>207.80000000000004</v>
       </c>
       <c r="I8">
         <f>Sheet3!$F$101</f>
-        <v>194.20000000000002</v>
+        <v>207.80000000000004</v>
       </c>
       <c r="J8">
         <f>Sheet3!$F$101</f>
-        <v>194.20000000000002</v>
+        <v>207.80000000000004</v>
       </c>
       <c r="K8">
         <f>Sheet3!$F$101</f>
-        <v>194.20000000000002</v>
+        <v>207.80000000000004</v>
       </c>
       <c r="L8">
         <f>Sheet3!$F$101</f>
-        <v>194.20000000000002</v>
+        <v>207.80000000000004</v>
       </c>
       <c r="M8">
         <f>Sheet3!$F$101</f>
-        <v>194.20000000000002</v>
+        <v>207.80000000000004</v>
       </c>
       <c r="N8">
         <f>Sheet3!$F$101</f>
-        <v>194.20000000000002</v>
+        <v>207.80000000000004</v>
       </c>
       <c r="O8">
         <f>Sheet3!$F$101</f>
-        <v>194.20000000000002</v>
+        <v>207.80000000000004</v>
       </c>
       <c r="P8">
         <f>Sheet3!$F$101</f>
-        <v>194.20000000000002</v>
+        <v>207.80000000000004</v>
       </c>
       <c r="Q8">
         <f>Sheet3!$F$101</f>
-        <v>194.20000000000002</v>
+        <v>207.80000000000004</v>
       </c>
       <c r="R8">
         <f>Sheet3!$F$101</f>
-        <v>194.20000000000002</v>
+        <v>207.80000000000004</v>
       </c>
       <c r="S8">
         <f>Sheet3!$F$101</f>
-        <v>194.20000000000002</v>
+        <v>207.80000000000004</v>
       </c>
       <c r="T8">
         <f>Sheet3!$F$101</f>
-        <v>194.20000000000002</v>
+        <v>207.80000000000004</v>
       </c>
     </row>
     <row r="9" spans="1:20" x14ac:dyDescent="0.3">
@@ -13404,15 +13395,15 @@
   <sheetData>
     <row r="2" spans="4:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D2" s="1"/>
-      <c r="E2" s="163" t="s">
+      <c r="E2" s="186" t="s">
         <v>89</v>
       </c>
-      <c r="F2" s="164"/>
+      <c r="F2" s="187"/>
     </row>
     <row r="3" spans="4:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D3" s="1"/>
-      <c r="E3" s="196"/>
-      <c r="F3" s="197"/>
+      <c r="E3" s="203"/>
+      <c r="F3" s="204"/>
     </row>
     <row r="4" spans="4:6" ht="16" x14ac:dyDescent="0.3">
       <c r="D4" s="68"/>
@@ -13751,12 +13742,12 @@
       </c>
       <c r="F37" s="69">
         <f>工数予実管理表!AB42*工数予実管理表!AC42</f>
-        <v>2.0999999999999996</v>
+        <v>2.4000000000000004</v>
       </c>
     </row>
     <row r="38" spans="3:6" ht="16" x14ac:dyDescent="0.3">
-      <c r="C38" s="195"/>
-      <c r="D38" s="195"/>
+      <c r="C38" s="202"/>
+      <c r="D38" s="202"/>
       <c r="E38" s="69" t="s">
         <v>55</v>
       </c>
@@ -13766,14 +13757,14 @@
       </c>
     </row>
     <row r="39" spans="3:6" ht="16" x14ac:dyDescent="0.3">
-      <c r="C39" s="195"/>
-      <c r="D39" s="195"/>
+      <c r="C39" s="202"/>
+      <c r="D39" s="202"/>
       <c r="E39" s="69" t="s">
         <v>56</v>
       </c>
       <c r="F39" s="69">
         <f>工数予実管理表!AB44*工数予実管理表!AC44</f>
-        <v>1.5</v>
+        <v>2.4000000000000004</v>
       </c>
     </row>
     <row r="40" spans="3:6" ht="16" x14ac:dyDescent="0.3">
@@ -13851,7 +13842,7 @@
       <c r="E47" s="57"/>
       <c r="F47" s="69">
         <f>工数予実管理表!AB52*工数予実管理表!AC52</f>
-        <v>1.5</v>
+        <v>2.4000000000000004</v>
       </c>
     </row>
     <row r="48" spans="3:6" ht="16" x14ac:dyDescent="0.3">
@@ -13860,7 +13851,7 @@
       <c r="E48" s="57"/>
       <c r="F48" s="69">
         <f>工数予実管理表!AB53*工数予実管理表!AC53</f>
-        <v>1.5</v>
+        <v>2.4000000000000004</v>
       </c>
     </row>
     <row r="49" spans="3:6" ht="16" x14ac:dyDescent="0.3">
@@ -14036,7 +14027,7 @@
       </c>
       <c r="F64" s="69">
         <f>工数予実管理表!AB69*工数予実管理表!AC69</f>
-        <v>6.4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="65" spans="3:6" ht="16" x14ac:dyDescent="0.3">
@@ -14256,7 +14247,7 @@
       </c>
       <c r="F84" s="69">
         <f>工数予実管理表!AB89*工数予実管理表!AC89</f>
-        <v>1.5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="85" spans="3:6" ht="16" x14ac:dyDescent="0.3">
@@ -14267,7 +14258,7 @@
       </c>
       <c r="F85" s="69">
         <f>工数予実管理表!AB90*工数予実管理表!AC90</f>
-        <v>1.5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="86" spans="3:6" ht="16" x14ac:dyDescent="0.3">
@@ -14278,7 +14269,7 @@
       </c>
       <c r="F86" s="69">
         <f>工数予実管理表!AB91*工数予実管理表!AC91</f>
-        <v>1.5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="87" spans="3:6" ht="16" x14ac:dyDescent="0.3">
@@ -14289,7 +14280,7 @@
       </c>
       <c r="F87" s="69">
         <f>工数予実管理表!AB92*工数予実管理表!AC92</f>
-        <v>1.5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="88" spans="3:6" ht="16" x14ac:dyDescent="0.3">
@@ -14300,7 +14291,7 @@
       </c>
       <c r="F88" s="69">
         <f>工数予実管理表!AB93*工数予実管理表!AC93</f>
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="89" spans="3:6" ht="16" x14ac:dyDescent="0.3">
@@ -14438,7 +14429,7 @@
     <row r="101" spans="3:6" x14ac:dyDescent="0.3">
       <c r="F101" s="111">
         <f>SUM(F4:F100)</f>
-        <v>194.20000000000002</v>
+        <v>207.80000000000004</v>
       </c>
     </row>
   </sheetData>
@@ -15225,7 +15216,7 @@
       <c r="I40" s="20"/>
       <c r="J40" s="33">
         <f>工数予実管理表!Y42</f>
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="K40" s="4"/>
       <c r="L40" s="43"/>
@@ -15267,7 +15258,7 @@
       <c r="I42" s="22"/>
       <c r="J42" s="33">
         <f>工数予実管理表!Y44</f>
-        <v>0.5</v>
+        <v>0.8</v>
       </c>
       <c r="K42" s="4"/>
       <c r="L42" s="43"/>
@@ -15416,7 +15407,7 @@
       <c r="I50" s="57"/>
       <c r="J50" s="33">
         <f>工数予実管理表!Y52</f>
-        <v>0.5</v>
+        <v>0.8</v>
       </c>
       <c r="L50" s="57"/>
     </row>
@@ -15433,7 +15424,7 @@
       <c r="I51" s="57"/>
       <c r="J51" s="33">
         <f>工数予実管理表!Y53</f>
-        <v>0.5</v>
+        <v>0.8</v>
       </c>
       <c r="L51" s="57"/>
     </row>
@@ -15766,9 +15757,9 @@
       </c>
       <c r="H67" s="24"/>
       <c r="I67" s="24"/>
-      <c r="J67" s="33">
+      <c r="J67" s="33" t="str">
         <f>工数予実管理表!Y69</f>
-        <v>0.8</v>
+        <v>完了</v>
       </c>
       <c r="K67" s="4"/>
       <c r="L67" s="43"/>
@@ -16217,9 +16208,9 @@
       <c r="G87" s="31" t="s">
         <v>14</v>
       </c>
-      <c r="J87" s="33">
+      <c r="J87" s="33" t="str">
         <f>工数予実管理表!Y89</f>
-        <v>0.5</v>
+        <v>完了</v>
       </c>
     </row>
     <row r="88" spans="3:12" ht="16" x14ac:dyDescent="0.3">
@@ -16231,9 +16222,9 @@
       <c r="G88" s="31" t="s">
         <v>14</v>
       </c>
-      <c r="J88" s="33">
+      <c r="J88" s="33" t="str">
         <f>工数予実管理表!Y90</f>
-        <v>0.5</v>
+        <v>完了</v>
       </c>
     </row>
     <row r="89" spans="3:12" ht="16" x14ac:dyDescent="0.3">
@@ -16245,9 +16236,9 @@
       <c r="G89" s="31" t="s">
         <v>14</v>
       </c>
-      <c r="J89" s="33">
+      <c r="J89" s="33" t="str">
         <f>工数予実管理表!Y91</f>
-        <v>0.5</v>
+        <v>完了</v>
       </c>
     </row>
     <row r="90" spans="3:12" ht="16" x14ac:dyDescent="0.3">
@@ -16259,9 +16250,9 @@
       <c r="G90" s="31" t="s">
         <v>14</v>
       </c>
-      <c r="J90" s="33">
+      <c r="J90" s="33" t="str">
         <f>工数予実管理表!Y92</f>
-        <v>0.5</v>
+        <v>完了</v>
       </c>
     </row>
     <row r="91" spans="3:12" ht="16" x14ac:dyDescent="0.3">
@@ -16275,7 +16266,7 @@
       </c>
       <c r="J91" s="33" t="str">
         <f>工数予実管理表!Y93</f>
-        <v>未着手</v>
+        <v>完了</v>
       </c>
     </row>
     <row r="92" spans="3:12" ht="16" hidden="1" x14ac:dyDescent="0.3">
@@ -16458,21 +16449,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x010100364AEC801DCCFF4C9A7CD82776573E34" ma:contentTypeVersion="0" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="9a90bd606c73e53fbdca164192b510d5">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="86e6f6c817e23f4348afe6a544d017da">
     <xsd:element name="properties">
@@ -16586,10 +16562,33 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4F999A99-14E0-4A35-8552-0D0111146846}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E8C7E73E-37A8-4119-AD2E-81AFBFD39544}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -16604,17 +16603,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E8C7E73E-37A8-4119-AD2E-81AFBFD39544}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4F999A99-14E0-4A35-8552-0D0111146846}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/doc/D4_ドキュメント/予実管理表(最新版)_D4.xlsx
+++ b/doc/D4_ドキュメント/予実管理表(最新版)_D4.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9CD34A31-2034-4C25-9A13-4AB90A96F5B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A99EAFE2-9294-4CC2-81F7-6FF2623D1D66}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-19310" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="工数予実管理表" sheetId="5" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="861" uniqueCount="162">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="869" uniqueCount="162">
   <si>
     <t>プロジェクト名</t>
     <rPh sb="6" eb="7">
@@ -1712,7 +1712,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="205">
+  <cellXfs count="228">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2079,12 +2079,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="16" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
@@ -2223,6 +2217,12 @@
     <xf numFmtId="0" fontId="2" fillId="5" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2313,12 +2313,6 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2327,6 +2321,81 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2583,7 +2652,7 @@
                   <c:v>0.69731543624161074</c:v>
                 </c:pt>
                 <c:pt idx="10" formatCode="0.0%">
-                  <c:v>0</c:v>
+                  <c:v>0.77114093959731544</c:v>
                 </c:pt>
                 <c:pt idx="11" formatCode="0.0%">
                   <c:v>0</c:v>
@@ -2721,7 +2790,7 @@
                   <c:v>0.8</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1</c:v>
+                  <c:v>0.85</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3788,8 +3857,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA4A6EF2-62B9-43FE-BFFD-0A328B128D1B}">
   <dimension ref="A1:BL111"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G34" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AH87" sqref="AH87"/>
+    <sheetView tabSelected="1" topLeftCell="G54" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="U73" sqref="U73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
@@ -5925,11 +5994,11 @@
       <c r="E24" s="19"/>
       <c r="F24" s="19"/>
       <c r="G24" s="19"/>
-      <c r="H24" s="168" t="s">
+      <c r="H24" s="166" t="s">
         <v>102</v>
       </c>
-      <c r="I24" s="168"/>
-      <c r="J24" s="168" t="s">
+      <c r="I24" s="166"/>
+      <c r="J24" s="166" t="s">
         <v>35</v>
       </c>
       <c r="K24" s="19"/>
@@ -7380,8 +7449,8 @@
       </c>
       <c r="W41" s="21"/>
       <c r="X41" s="21"/>
-      <c r="Y41" s="25">
-        <v>0.8</v>
+      <c r="Y41" s="25" t="s">
+        <v>116</v>
       </c>
       <c r="Z41" s="4"/>
       <c r="AA41" s="43"/>
@@ -7390,7 +7459,7 @@
       </c>
       <c r="AC41" s="107">
         <f t="shared" si="4"/>
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="AD41" s="44"/>
       <c r="AE41" s="2"/>
@@ -7437,11 +7506,11 @@
       <c r="E42" s="19"/>
       <c r="F42" s="19"/>
       <c r="G42" s="19"/>
-      <c r="H42" s="168" t="s">
+      <c r="H42" s="166" t="s">
         <v>124</v>
       </c>
-      <c r="I42" s="168"/>
-      <c r="J42" s="168" t="s">
+      <c r="I42" s="166"/>
+      <c r="J42" s="166" t="s">
         <v>54</v>
       </c>
       <c r="K42" s="19"/>
@@ -7465,7 +7534,7 @@
       <c r="W42" s="21"/>
       <c r="X42" s="21"/>
       <c r="Y42" s="40">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="Z42" s="4"/>
       <c r="AA42" s="43"/>
@@ -7474,7 +7543,7 @@
       </c>
       <c r="AC42" s="107">
         <f t="shared" si="4"/>
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="AD42" s="44"/>
       <c r="AE42" s="2"/>
@@ -7521,11 +7590,11 @@
       <c r="E43" s="19"/>
       <c r="F43" s="19"/>
       <c r="G43" s="19"/>
-      <c r="H43" s="166" t="s">
+      <c r="H43" s="164" t="s">
         <v>106</v>
       </c>
-      <c r="I43" s="166"/>
-      <c r="J43" s="167" t="s">
+      <c r="I43" s="164"/>
+      <c r="J43" s="165" t="s">
         <v>55</v>
       </c>
       <c r="K43" s="28"/>
@@ -7548,8 +7617,8 @@
       </c>
       <c r="W43" s="21"/>
       <c r="X43" s="21"/>
-      <c r="Y43" s="40">
-        <v>0.5</v>
+      <c r="Y43" s="40" t="s">
+        <v>116</v>
       </c>
       <c r="Z43" s="4"/>
       <c r="AA43" s="43"/>
@@ -7558,7 +7627,7 @@
       </c>
       <c r="AC43" s="107">
         <f t="shared" si="4"/>
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="AD43" s="44"/>
       <c r="AE43" s="2"/>
@@ -7632,8 +7701,8 @@
       </c>
       <c r="W44" s="21"/>
       <c r="X44" s="21"/>
-      <c r="Y44" s="40">
-        <v>0.8</v>
+      <c r="Y44" s="40" t="s">
+        <v>116</v>
       </c>
       <c r="Z44" s="4"/>
       <c r="AA44" s="43"/>
@@ -7642,7 +7711,7 @@
       </c>
       <c r="AC44" s="107">
         <f t="shared" si="4"/>
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="AD44" s="44"/>
       <c r="AE44" s="2"/>
@@ -7802,8 +7871,8 @@
       </c>
       <c r="W46" s="21"/>
       <c r="X46" s="21"/>
-      <c r="Y46" s="25">
-        <v>0.8</v>
+      <c r="Y46" s="25" t="s">
+        <v>116</v>
       </c>
       <c r="Z46" s="4"/>
       <c r="AA46" s="43"/>
@@ -7812,7 +7881,7 @@
       </c>
       <c r="AC46" s="107">
         <f t="shared" si="4"/>
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="AD46" s="44"/>
       <c r="AE46" s="2"/>
@@ -7861,44 +7930,44 @@
       <c r="E47" s="121"/>
       <c r="F47" s="121"/>
       <c r="G47" s="121"/>
-      <c r="H47" s="163" t="s">
+      <c r="H47" s="161" t="s">
         <v>113</v>
       </c>
-      <c r="I47" s="163"/>
-      <c r="J47" s="164" t="s">
+      <c r="I47" s="161"/>
+      <c r="J47" s="162" t="s">
         <v>82</v>
       </c>
-      <c r="K47" s="124"/>
-      <c r="L47" s="124"/>
-      <c r="M47" s="124"/>
-      <c r="N47" s="124"/>
-      <c r="O47" s="125"/>
-      <c r="P47" s="126" t="s">
+      <c r="K47" s="122"/>
+      <c r="L47" s="122"/>
+      <c r="M47" s="122"/>
+      <c r="N47" s="122"/>
+      <c r="O47" s="123"/>
+      <c r="P47" s="124" t="s">
         <v>19</v>
       </c>
-      <c r="Q47" s="126"/>
-      <c r="R47" s="126"/>
-      <c r="S47" s="127">
+      <c r="Q47" s="124"/>
+      <c r="R47" s="124"/>
+      <c r="S47" s="125">
         <v>45091</v>
       </c>
-      <c r="T47" s="127"/>
-      <c r="U47" s="127"/>
-      <c r="V47" s="127">
+      <c r="T47" s="125"/>
+      <c r="U47" s="125"/>
+      <c r="V47" s="125">
         <v>45093</v>
       </c>
-      <c r="W47" s="127"/>
-      <c r="X47" s="127"/>
-      <c r="Y47" s="128">
-        <v>0.8</v>
+      <c r="W47" s="125"/>
+      <c r="X47" s="125"/>
+      <c r="Y47" s="126" t="s">
+        <v>116</v>
       </c>
       <c r="Z47" s="59"/>
-      <c r="AA47" s="129"/>
-      <c r="AB47" s="130">
+      <c r="AA47" s="127"/>
+      <c r="AB47" s="128">
         <v>3</v>
       </c>
-      <c r="AC47" s="131">
+      <c r="AC47" s="129">
         <f t="shared" si="4"/>
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="AD47" s="82"/>
       <c r="AE47" s="81"/>
@@ -7913,14 +7982,14 @@
       <c r="AN47" s="81"/>
       <c r="AO47" s="81"/>
       <c r="AP47" s="81"/>
-      <c r="AQ47" s="132"/>
-      <c r="AR47" s="132"/>
-      <c r="AS47" s="132"/>
+      <c r="AQ47" s="130"/>
+      <c r="AR47" s="130"/>
+      <c r="AS47" s="130"/>
       <c r="AT47" s="81"/>
       <c r="AU47" s="81"/>
-      <c r="AV47" s="132"/>
-      <c r="AW47" s="132"/>
-      <c r="AX47" s="132"/>
+      <c r="AV47" s="130"/>
+      <c r="AW47" s="130"/>
+      <c r="AX47" s="130"/>
       <c r="AY47" s="81"/>
       <c r="AZ47" s="81"/>
       <c r="BA47" s="81"/>
@@ -7930,10 +7999,10 @@
       <c r="BE47" s="81"/>
       <c r="BF47" s="81"/>
       <c r="BG47" s="83"/>
-      <c r="BI47" s="133">
+      <c r="BI47" s="131">
         <v>0.4</v>
       </c>
-      <c r="BJ47" s="133">
+      <c r="BJ47" s="131">
         <v>0.4</v>
       </c>
     </row>
@@ -7945,9 +8014,9 @@
       <c r="E48" s="57"/>
       <c r="F48" s="57"/>
       <c r="G48" s="57"/>
-      <c r="H48" s="165"/>
-      <c r="I48" s="165"/>
-      <c r="J48" s="165" t="s">
+      <c r="H48" s="163"/>
+      <c r="I48" s="163"/>
+      <c r="J48" s="163" t="s">
         <v>155</v>
       </c>
       <c r="K48" s="57"/>
@@ -7955,32 +8024,32 @@
       <c r="M48" s="57"/>
       <c r="N48" s="57"/>
       <c r="O48" s="57"/>
-      <c r="P48" s="126" t="s">
+      <c r="P48" s="124" t="s">
         <v>19</v>
       </c>
       <c r="Q48" s="57"/>
       <c r="R48" s="57"/>
-      <c r="S48" s="149">
+      <c r="S48" s="147">
         <v>45097</v>
       </c>
       <c r="T48" s="57"/>
       <c r="U48" s="57"/>
-      <c r="V48" s="149">
+      <c r="V48" s="147">
         <v>45099</v>
       </c>
       <c r="W48" s="57"/>
       <c r="X48" s="57"/>
-      <c r="Y48" s="150">
-        <v>0.5</v>
+      <c r="Y48" s="148" t="s">
+        <v>116</v>
       </c>
       <c r="Z48" s="57"/>
       <c r="AA48" s="57"/>
-      <c r="AB48" s="130">
+      <c r="AB48" s="128">
         <v>3</v>
       </c>
-      <c r="AC48" s="131">
+      <c r="AC48" s="129">
         <f t="shared" ref="AC48:AC53" si="5">VLOOKUP(Y48,$BI$6:$BJ$107,2,FALSE)</f>
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="AD48" s="57"/>
       <c r="AE48" s="57"/>
@@ -8024,9 +8093,9 @@
       <c r="E49" s="57"/>
       <c r="F49" s="57"/>
       <c r="G49" s="57"/>
-      <c r="H49" s="165"/>
-      <c r="I49" s="165"/>
-      <c r="J49" s="165" t="s">
+      <c r="H49" s="163"/>
+      <c r="I49" s="163"/>
+      <c r="J49" s="163" t="s">
         <v>156</v>
       </c>
       <c r="K49" s="57"/>
@@ -8034,32 +8103,32 @@
       <c r="M49" s="57"/>
       <c r="N49" s="57"/>
       <c r="O49" s="57"/>
-      <c r="P49" s="126" t="s">
+      <c r="P49" s="124" t="s">
         <v>19</v>
       </c>
       <c r="Q49" s="57"/>
       <c r="R49" s="57"/>
-      <c r="S49" s="149">
+      <c r="S49" s="147">
         <v>45097</v>
       </c>
       <c r="T49" s="57"/>
       <c r="U49" s="57"/>
-      <c r="V49" s="149">
+      <c r="V49" s="147">
         <v>45099</v>
       </c>
       <c r="W49" s="57"/>
       <c r="X49" s="57"/>
-      <c r="Y49" s="150">
-        <v>0.5</v>
+      <c r="Y49" s="148" t="s">
+        <v>116</v>
       </c>
       <c r="Z49" s="57"/>
       <c r="AA49" s="57"/>
-      <c r="AB49" s="130">
+      <c r="AB49" s="128">
         <v>3</v>
       </c>
-      <c r="AC49" s="131">
+      <c r="AC49" s="129">
         <f t="shared" si="5"/>
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="AD49" s="57"/>
       <c r="AE49" s="57"/>
@@ -8103,9 +8172,9 @@
       <c r="E50" s="57"/>
       <c r="F50" s="57"/>
       <c r="G50" s="57"/>
-      <c r="H50" s="165"/>
-      <c r="I50" s="165"/>
-      <c r="J50" s="165" t="s">
+      <c r="H50" s="163"/>
+      <c r="I50" s="163"/>
+      <c r="J50" s="163" t="s">
         <v>157</v>
       </c>
       <c r="K50" s="57"/>
@@ -8113,32 +8182,32 @@
       <c r="M50" s="57"/>
       <c r="N50" s="57"/>
       <c r="O50" s="57"/>
-      <c r="P50" s="126" t="s">
+      <c r="P50" s="124" t="s">
         <v>19</v>
       </c>
       <c r="Q50" s="57"/>
       <c r="R50" s="57"/>
-      <c r="S50" s="149">
+      <c r="S50" s="147">
         <v>45097</v>
       </c>
       <c r="T50" s="57"/>
       <c r="U50" s="57"/>
-      <c r="V50" s="149">
+      <c r="V50" s="147">
         <v>45099</v>
       </c>
       <c r="W50" s="57"/>
       <c r="X50" s="57"/>
-      <c r="Y50" s="150">
-        <v>0.5</v>
+      <c r="Y50" s="148">
+        <v>0.7</v>
       </c>
       <c r="Z50" s="57"/>
       <c r="AA50" s="57"/>
-      <c r="AB50" s="130">
+      <c r="AB50" s="128">
         <v>3</v>
       </c>
-      <c r="AC50" s="131">
+      <c r="AC50" s="129">
         <f t="shared" si="5"/>
-        <v>0.5</v>
+        <v>0.7</v>
       </c>
       <c r="AD50" s="57"/>
       <c r="AE50" s="57"/>
@@ -8182,9 +8251,9 @@
       <c r="E51" s="57"/>
       <c r="F51" s="57"/>
       <c r="G51" s="57"/>
-      <c r="H51" s="165"/>
-      <c r="I51" s="165"/>
-      <c r="J51" s="165" t="s">
+      <c r="H51" s="163"/>
+      <c r="I51" s="163"/>
+      <c r="J51" s="163" t="s">
         <v>158</v>
       </c>
       <c r="K51" s="57"/>
@@ -8192,32 +8261,32 @@
       <c r="M51" s="57"/>
       <c r="N51" s="57"/>
       <c r="O51" s="57"/>
-      <c r="P51" s="126" t="s">
+      <c r="P51" s="124" t="s">
         <v>19</v>
       </c>
       <c r="Q51" s="57"/>
       <c r="R51" s="57"/>
-      <c r="S51" s="149">
+      <c r="S51" s="147">
         <v>45097</v>
       </c>
       <c r="T51" s="57"/>
       <c r="U51" s="57"/>
-      <c r="V51" s="149">
+      <c r="V51" s="147">
         <v>45099</v>
       </c>
       <c r="W51" s="57"/>
       <c r="X51" s="57"/>
-      <c r="Y51" s="150">
-        <v>0.5</v>
+      <c r="Y51" s="148">
+        <v>0.7</v>
       </c>
       <c r="Z51" s="57"/>
       <c r="AA51" s="57"/>
-      <c r="AB51" s="130">
+      <c r="AB51" s="128">
         <v>3</v>
       </c>
-      <c r="AC51" s="131">
+      <c r="AC51" s="129">
         <f t="shared" si="5"/>
-        <v>0.5</v>
+        <v>0.7</v>
       </c>
       <c r="AD51" s="57"/>
       <c r="AE51" s="57"/>
@@ -8261,9 +8330,9 @@
       <c r="E52" s="57"/>
       <c r="F52" s="57"/>
       <c r="G52" s="57"/>
-      <c r="H52" s="165"/>
-      <c r="I52" s="165"/>
-      <c r="J52" s="165" t="s">
+      <c r="H52" s="163"/>
+      <c r="I52" s="163"/>
+      <c r="J52" s="163" t="s">
         <v>160</v>
       </c>
       <c r="K52" s="57"/>
@@ -8271,32 +8340,32 @@
       <c r="M52" s="57"/>
       <c r="N52" s="57"/>
       <c r="O52" s="57"/>
-      <c r="P52" s="126" t="s">
+      <c r="P52" s="124" t="s">
         <v>19</v>
       </c>
       <c r="Q52" s="57"/>
       <c r="R52" s="57"/>
-      <c r="S52" s="149">
+      <c r="S52" s="147">
         <v>45097</v>
       </c>
       <c r="T52" s="57"/>
       <c r="U52" s="57"/>
-      <c r="V52" s="149">
+      <c r="V52" s="147">
         <v>45099</v>
       </c>
       <c r="W52" s="57"/>
       <c r="X52" s="57"/>
-      <c r="Y52" s="150">
-        <v>0.8</v>
+      <c r="Y52" s="148" t="s">
+        <v>116</v>
       </c>
       <c r="Z52" s="57"/>
       <c r="AA52" s="57"/>
-      <c r="AB52" s="130">
+      <c r="AB52" s="128">
         <v>3</v>
       </c>
-      <c r="AC52" s="131">
+      <c r="AC52" s="129">
         <f t="shared" si="5"/>
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="AD52" s="57"/>
       <c r="AE52" s="57"/>
@@ -8340,9 +8409,9 @@
       <c r="E53" s="57"/>
       <c r="F53" s="57"/>
       <c r="G53" s="57"/>
-      <c r="H53" s="165"/>
-      <c r="I53" s="165"/>
-      <c r="J53" s="165" t="s">
+      <c r="H53" s="163"/>
+      <c r="I53" s="163"/>
+      <c r="J53" s="163" t="s">
         <v>161</v>
       </c>
       <c r="K53" s="57"/>
@@ -8350,32 +8419,32 @@
       <c r="M53" s="57"/>
       <c r="N53" s="57"/>
       <c r="O53" s="57"/>
-      <c r="P53" s="148" t="s">
+      <c r="P53" s="146" t="s">
         <v>19</v>
       </c>
       <c r="Q53" s="57"/>
       <c r="R53" s="57"/>
-      <c r="S53" s="149">
+      <c r="S53" s="147">
         <v>45097</v>
       </c>
       <c r="T53" s="57"/>
       <c r="U53" s="57"/>
-      <c r="V53" s="149">
+      <c r="V53" s="147">
         <v>45099</v>
       </c>
       <c r="W53" s="57"/>
       <c r="X53" s="57"/>
-      <c r="Y53" s="150">
-        <v>0.8</v>
+      <c r="Y53" s="148" t="s">
+        <v>116</v>
       </c>
       <c r="Z53" s="57"/>
       <c r="AA53" s="57"/>
-      <c r="AB53" s="130">
+      <c r="AB53" s="128">
         <v>3</v>
       </c>
-      <c r="AC53" s="131">
+      <c r="AC53" s="129">
         <f t="shared" si="5"/>
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="AD53" s="57"/>
       <c r="AE53" s="57"/>
@@ -8414,84 +8483,84 @@
     <row r="54" spans="1:62" ht="16" x14ac:dyDescent="0.3">
       <c r="A54" s="18"/>
       <c r="B54" s="4"/>
-      <c r="C54" s="134"/>
-      <c r="D54" s="134"/>
-      <c r="E54" s="134"/>
-      <c r="F54" s="134"/>
-      <c r="G54" s="134"/>
-      <c r="H54" s="134" t="s">
+      <c r="C54" s="132"/>
+      <c r="D54" s="132"/>
+      <c r="E54" s="132"/>
+      <c r="F54" s="132"/>
+      <c r="G54" s="132"/>
+      <c r="H54" s="132" t="s">
         <v>126</v>
       </c>
-      <c r="I54" s="134"/>
-      <c r="J54" s="134" t="s">
+      <c r="I54" s="132"/>
+      <c r="J54" s="132" t="s">
         <v>58</v>
       </c>
-      <c r="K54" s="134"/>
-      <c r="L54" s="134"/>
-      <c r="M54" s="134"/>
-      <c r="N54" s="134"/>
-      <c r="O54" s="134"/>
-      <c r="P54" s="135" t="s">
+      <c r="K54" s="132"/>
+      <c r="L54" s="132"/>
+      <c r="M54" s="132"/>
+      <c r="N54" s="132"/>
+      <c r="O54" s="132"/>
+      <c r="P54" s="133" t="s">
         <v>30</v>
       </c>
-      <c r="Q54" s="136"/>
-      <c r="R54" s="137"/>
-      <c r="S54" s="138">
+      <c r="Q54" s="134"/>
+      <c r="R54" s="135"/>
+      <c r="S54" s="136">
         <v>45097</v>
       </c>
-      <c r="T54" s="138"/>
-      <c r="U54" s="138"/>
-      <c r="V54" s="138">
+      <c r="T54" s="136"/>
+      <c r="U54" s="136"/>
+      <c r="V54" s="136">
         <v>45100</v>
       </c>
-      <c r="W54" s="138"/>
-      <c r="X54" s="138"/>
-      <c r="Y54" s="139" t="s">
+      <c r="W54" s="136"/>
+      <c r="X54" s="136"/>
+      <c r="Y54" s="137" t="s">
         <v>76</v>
       </c>
-      <c r="Z54" s="140"/>
-      <c r="AA54" s="141"/>
+      <c r="Z54" s="138"/>
+      <c r="AA54" s="139"/>
       <c r="AB54" s="49">
         <v>4</v>
       </c>
-      <c r="AC54" s="142">
+      <c r="AC54" s="140">
         <f t="shared" ref="AC54:AC85" si="6">VLOOKUP(Y54,$BI$6:$BJ$107,2,FALSE)</f>
         <v>1</v>
       </c>
-      <c r="AD54" s="143"/>
-      <c r="AE54" s="144"/>
-      <c r="AF54" s="144"/>
-      <c r="AG54" s="144"/>
-      <c r="AH54" s="144"/>
-      <c r="AI54" s="144"/>
-      <c r="AJ54" s="144"/>
-      <c r="AK54" s="144"/>
-      <c r="AL54" s="144"/>
-      <c r="AM54" s="144"/>
-      <c r="AN54" s="144"/>
-      <c r="AO54" s="144"/>
-      <c r="AP54" s="144"/>
-      <c r="AQ54" s="144"/>
-      <c r="AR54" s="144"/>
-      <c r="AS54" s="144"/>
-      <c r="AT54" s="144"/>
-      <c r="AU54" s="144"/>
-      <c r="AV54" s="144"/>
-      <c r="AW54" s="145"/>
-      <c r="AX54" s="145"/>
-      <c r="AY54" s="145"/>
-      <c r="AZ54" s="145"/>
-      <c r="BA54" s="144"/>
-      <c r="BB54" s="144"/>
-      <c r="BC54" s="144"/>
-      <c r="BD54" s="144"/>
-      <c r="BE54" s="144"/>
-      <c r="BF54" s="144"/>
-      <c r="BG54" s="146"/>
-      <c r="BI54" s="147">
+      <c r="AD54" s="141"/>
+      <c r="AE54" s="142"/>
+      <c r="AF54" s="142"/>
+      <c r="AG54" s="142"/>
+      <c r="AH54" s="142"/>
+      <c r="AI54" s="142"/>
+      <c r="AJ54" s="142"/>
+      <c r="AK54" s="142"/>
+      <c r="AL54" s="142"/>
+      <c r="AM54" s="142"/>
+      <c r="AN54" s="142"/>
+      <c r="AO54" s="142"/>
+      <c r="AP54" s="142"/>
+      <c r="AQ54" s="142"/>
+      <c r="AR54" s="142"/>
+      <c r="AS54" s="142"/>
+      <c r="AT54" s="142"/>
+      <c r="AU54" s="142"/>
+      <c r="AV54" s="142"/>
+      <c r="AW54" s="143"/>
+      <c r="AX54" s="143"/>
+      <c r="AY54" s="143"/>
+      <c r="AZ54" s="143"/>
+      <c r="BA54" s="142"/>
+      <c r="BB54" s="142"/>
+      <c r="BC54" s="142"/>
+      <c r="BD54" s="142"/>
+      <c r="BE54" s="142"/>
+      <c r="BF54" s="142"/>
+      <c r="BG54" s="144"/>
+      <c r="BI54" s="145">
         <v>0.41</v>
       </c>
-      <c r="BJ54" s="147">
+      <c r="BJ54" s="145">
         <v>0.41</v>
       </c>
     </row>
@@ -9118,8 +9187,8 @@
       </c>
       <c r="W62" s="21"/>
       <c r="X62" s="21"/>
-      <c r="Y62" s="55" t="s">
-        <v>117</v>
+      <c r="Y62" s="40">
+        <v>0.7</v>
       </c>
       <c r="Z62" s="4"/>
       <c r="AA62" s="43"/>
@@ -9128,7 +9197,7 @@
       </c>
       <c r="AC62" s="107">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>0.7</v>
       </c>
       <c r="AD62" s="44"/>
       <c r="AE62" s="2"/>
@@ -9338,8 +9407,8 @@
       </c>
     </row>
     <row r="65" spans="1:62" ht="16" x14ac:dyDescent="0.3">
-      <c r="A65" s="200"/>
-      <c r="B65" s="201"/>
+      <c r="A65" s="168"/>
+      <c r="B65" s="169"/>
       <c r="C65" s="19"/>
       <c r="D65" s="19"/>
       <c r="E65" s="19"/>
@@ -9422,8 +9491,8 @@
       </c>
     </row>
     <row r="66" spans="1:62" ht="16" x14ac:dyDescent="0.3">
-      <c r="A66" s="200"/>
-      <c r="B66" s="201"/>
+      <c r="A66" s="168"/>
+      <c r="B66" s="169"/>
       <c r="C66" s="19"/>
       <c r="D66" s="19"/>
       <c r="E66" s="19"/>
@@ -9506,8 +9575,8 @@
       </c>
     </row>
     <row r="67" spans="1:62" ht="16" x14ac:dyDescent="0.3">
-      <c r="A67" s="200"/>
-      <c r="B67" s="201"/>
+      <c r="A67" s="168"/>
+      <c r="B67" s="169"/>
       <c r="C67" s="19"/>
       <c r="D67" s="19"/>
       <c r="E67" s="19"/>
@@ -9590,8 +9659,8 @@
       </c>
     </row>
     <row r="68" spans="1:62" ht="16" x14ac:dyDescent="0.3">
-      <c r="A68" s="200"/>
-      <c r="B68" s="201"/>
+      <c r="A68" s="168"/>
+      <c r="B68" s="169"/>
       <c r="C68" s="19"/>
       <c r="D68" s="19"/>
       <c r="E68" s="19"/>
@@ -9674,8 +9743,8 @@
       </c>
     </row>
     <row r="69" spans="1:62" ht="16" x14ac:dyDescent="0.3">
-      <c r="A69" s="200"/>
-      <c r="B69" s="201"/>
+      <c r="A69" s="168"/>
+      <c r="B69" s="169"/>
       <c r="C69" s="19"/>
       <c r="D69" s="19"/>
       <c r="E69" s="19"/>
@@ -9877,7 +9946,7 @@
       <c r="W71" s="21"/>
       <c r="X71" s="21"/>
       <c r="Y71" s="25">
-        <v>0.2</v>
+        <v>0.8</v>
       </c>
       <c r="Z71" s="4"/>
       <c r="AA71" s="43"/>
@@ -9886,7 +9955,7 @@
       </c>
       <c r="AC71" s="107">
         <f t="shared" si="6"/>
-        <v>0.2</v>
+        <v>0.8</v>
       </c>
       <c r="AD71" s="44"/>
       <c r="AE71" s="2"/>
@@ -10049,7 +10118,7 @@
       <c r="W73" s="21"/>
       <c r="X73" s="21"/>
       <c r="Y73" s="40">
-        <v>0.4</v>
+        <v>0.7</v>
       </c>
       <c r="Z73" s="55" t="s">
         <v>117</v>
@@ -10062,7 +10131,7 @@
       </c>
       <c r="AC73" s="107">
         <f t="shared" si="6"/>
-        <v>0.4</v>
+        <v>0.7</v>
       </c>
       <c r="AD73" s="44"/>
       <c r="AE73" s="2"/>
@@ -10225,7 +10294,7 @@
       <c r="W75" s="21"/>
       <c r="X75" s="21"/>
       <c r="Y75" s="25">
-        <v>0.6</v>
+        <v>0.9</v>
       </c>
       <c r="Z75" s="4"/>
       <c r="AA75" s="43"/>
@@ -10234,7 +10303,7 @@
       </c>
       <c r="AC75" s="107">
         <f t="shared" si="6"/>
-        <v>0.6</v>
+        <v>0.9</v>
       </c>
       <c r="AD75" s="2"/>
       <c r="AE75" s="105"/>
@@ -11459,11 +11528,11 @@
       <c r="E89" s="1"/>
       <c r="F89" s="1"/>
       <c r="G89" s="118"/>
-      <c r="H89" s="169" t="s">
+      <c r="H89" s="167" t="s">
         <v>33</v>
       </c>
-      <c r="I89" s="169"/>
-      <c r="J89" s="169"/>
+      <c r="I89" s="167"/>
+      <c r="J89" s="167"/>
       <c r="P89" s="31" t="s">
         <v>14</v>
       </c>
@@ -11530,11 +11599,11 @@
       <c r="E90" s="1"/>
       <c r="F90" s="1"/>
       <c r="G90" s="118"/>
-      <c r="H90" s="169" t="s">
+      <c r="H90" s="167" t="s">
         <v>34</v>
       </c>
-      <c r="I90" s="169"/>
-      <c r="J90" s="169"/>
+      <c r="I90" s="167"/>
+      <c r="J90" s="167"/>
       <c r="P90" s="31" t="s">
         <v>14</v>
       </c>
@@ -12798,11 +12867,6 @@
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="A69:B69"/>
-    <mergeCell ref="A68:B68"/>
-    <mergeCell ref="A67:B67"/>
-    <mergeCell ref="A66:B66"/>
-    <mergeCell ref="A65:B65"/>
     <mergeCell ref="AD1:AG1"/>
     <mergeCell ref="AH1:AN1"/>
     <mergeCell ref="AD2:AG2"/>
@@ -12819,6 +12883,11 @@
     <mergeCell ref="J5:K6"/>
     <mergeCell ref="A1:G2"/>
     <mergeCell ref="H1:AC2"/>
+    <mergeCell ref="A69:B69"/>
+    <mergeCell ref="A68:B68"/>
+    <mergeCell ref="A67:B67"/>
+    <mergeCell ref="A66:B66"/>
+    <mergeCell ref="A65:B65"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="AD5:AD6">
@@ -12852,7 +12921,7 @@
   <dimension ref="A1:T21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+      <selection activeCell="K10" sqref="K10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
@@ -13020,7 +13089,7 @@
       </c>
       <c r="L3" s="88">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.77114093959731544</v>
       </c>
       <c r="M3" s="88">
         <f t="shared" si="0"/>
@@ -13093,13 +13162,23 @@
         <v>0.8</v>
       </c>
       <c r="M4" s="87">
+        <v>0.85</v>
+      </c>
+      <c r="N4" s="87">
+        <v>0.85</v>
+      </c>
+      <c r="O4" s="87">
+        <v>0.85</v>
+      </c>
+      <c r="P4" s="87">
+        <v>0.9</v>
+      </c>
+      <c r="Q4" s="87">
+        <v>0.95</v>
+      </c>
+      <c r="R4" s="87">
         <v>1</v>
       </c>
-      <c r="N4" s="90"/>
-      <c r="O4" s="90"/>
-      <c r="P4" s="91"/>
-      <c r="Q4" s="91"/>
-      <c r="R4" s="91"/>
       <c r="S4" s="91"/>
       <c r="T4" s="91"/>
     </row>
@@ -13255,7 +13334,9 @@
       <c r="K7" s="91">
         <v>207.8</v>
       </c>
-      <c r="L7" s="91"/>
+      <c r="L7" s="91">
+        <v>229.8</v>
+      </c>
       <c r="M7" s="91"/>
       <c r="N7" s="90"/>
       <c r="O7" s="90"/>
@@ -13268,63 +13349,63 @@
     <row r="8" spans="1:20" x14ac:dyDescent="0.3">
       <c r="F8">
         <f>Sheet3!$F$101</f>
-        <v>207.80000000000004</v>
+        <v>229.79999999999998</v>
       </c>
       <c r="G8">
         <f>Sheet3!$F$101</f>
-        <v>207.80000000000004</v>
+        <v>229.79999999999998</v>
       </c>
       <c r="H8">
         <f>Sheet3!$F$101</f>
-        <v>207.80000000000004</v>
+        <v>229.79999999999998</v>
       </c>
       <c r="I8">
         <f>Sheet3!$F$101</f>
-        <v>207.80000000000004</v>
+        <v>229.79999999999998</v>
       </c>
       <c r="J8">
         <f>Sheet3!$F$101</f>
-        <v>207.80000000000004</v>
+        <v>229.79999999999998</v>
       </c>
       <c r="K8">
         <f>Sheet3!$F$101</f>
-        <v>207.80000000000004</v>
+        <v>229.79999999999998</v>
       </c>
       <c r="L8">
         <f>Sheet3!$F$101</f>
-        <v>207.80000000000004</v>
+        <v>229.79999999999998</v>
       </c>
       <c r="M8">
         <f>Sheet3!$F$101</f>
-        <v>207.80000000000004</v>
+        <v>229.79999999999998</v>
       </c>
       <c r="N8">
         <f>Sheet3!$F$101</f>
-        <v>207.80000000000004</v>
+        <v>229.79999999999998</v>
       </c>
       <c r="O8">
         <f>Sheet3!$F$101</f>
-        <v>207.80000000000004</v>
+        <v>229.79999999999998</v>
       </c>
       <c r="P8">
         <f>Sheet3!$F$101</f>
-        <v>207.80000000000004</v>
+        <v>229.79999999999998</v>
       </c>
       <c r="Q8">
         <f>Sheet3!$F$101</f>
-        <v>207.80000000000004</v>
+        <v>229.79999999999998</v>
       </c>
       <c r="R8">
         <f>Sheet3!$F$101</f>
-        <v>207.80000000000004</v>
+        <v>229.79999999999998</v>
       </c>
       <c r="S8">
         <f>Sheet3!$F$101</f>
-        <v>207.80000000000004</v>
+        <v>229.79999999999998</v>
       </c>
       <c r="T8">
         <f>Sheet3!$F$101</f>
-        <v>207.80000000000004</v>
+        <v>229.79999999999998</v>
       </c>
     </row>
     <row r="9" spans="1:20" x14ac:dyDescent="0.3">
@@ -13402,8 +13483,8 @@
     </row>
     <row r="3" spans="4:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D3" s="1"/>
-      <c r="E3" s="203"/>
-      <c r="F3" s="204"/>
+      <c r="E3" s="201"/>
+      <c r="F3" s="202"/>
     </row>
     <row r="4" spans="4:6" ht="16" x14ac:dyDescent="0.3">
       <c r="D4" s="68"/>
@@ -13732,7 +13813,7 @@
       </c>
       <c r="F36" s="69">
         <f>工数予実管理表!AB41*工数予実管理表!AC41</f>
-        <v>2.4000000000000004</v>
+        <v>3</v>
       </c>
     </row>
     <row r="37" spans="3:6" ht="16" x14ac:dyDescent="0.3">
@@ -13742,29 +13823,29 @@
       </c>
       <c r="F37" s="69">
         <f>工数予実管理表!AB42*工数予実管理表!AC42</f>
-        <v>2.4000000000000004</v>
+        <v>2.0999999999999996</v>
       </c>
     </row>
     <row r="38" spans="3:6" ht="16" x14ac:dyDescent="0.3">
-      <c r="C38" s="202"/>
-      <c r="D38" s="202"/>
+      <c r="C38" s="200"/>
+      <c r="D38" s="200"/>
       <c r="E38" s="69" t="s">
         <v>55</v>
       </c>
       <c r="F38" s="69">
         <f>工数予実管理表!AB43*工数予実管理表!AC43</f>
-        <v>1.5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="39" spans="3:6" ht="16" x14ac:dyDescent="0.3">
-      <c r="C39" s="202"/>
-      <c r="D39" s="202"/>
+      <c r="C39" s="200"/>
+      <c r="D39" s="200"/>
       <c r="E39" s="69" t="s">
         <v>56</v>
       </c>
       <c r="F39" s="69">
         <f>工数予実管理表!AB44*工数予実管理表!AC44</f>
-        <v>2.4000000000000004</v>
+        <v>3</v>
       </c>
     </row>
     <row r="40" spans="3:6" ht="16" x14ac:dyDescent="0.3">
@@ -13786,7 +13867,7 @@
       </c>
       <c r="F41" s="69">
         <f>工数予実管理表!AB46*工数予実管理表!AC46</f>
-        <v>2.4000000000000004</v>
+        <v>3</v>
       </c>
     </row>
     <row r="42" spans="3:6" ht="16" x14ac:dyDescent="0.3">
@@ -13797,7 +13878,7 @@
       </c>
       <c r="F42" s="69">
         <f>工数予実管理表!AB47*工数予実管理表!AC47</f>
-        <v>2.4000000000000004</v>
+        <v>3</v>
       </c>
     </row>
     <row r="43" spans="3:6" ht="16" x14ac:dyDescent="0.3">
@@ -13806,7 +13887,7 @@
       <c r="E43" s="57"/>
       <c r="F43" s="69">
         <f>工数予実管理表!AB48*工数予実管理表!AC48</f>
-        <v>1.5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="44" spans="3:6" ht="16" x14ac:dyDescent="0.3">
@@ -13815,7 +13896,7 @@
       <c r="E44" s="57"/>
       <c r="F44" s="69">
         <f>工数予実管理表!AB49*工数予実管理表!AC49</f>
-        <v>1.5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="45" spans="3:6" ht="16" x14ac:dyDescent="0.3">
@@ -13824,7 +13905,7 @@
       <c r="E45" s="57"/>
       <c r="F45" s="69">
         <f>工数予実管理表!AB50*工数予実管理表!AC50</f>
-        <v>1.5</v>
+        <v>2.0999999999999996</v>
       </c>
     </row>
     <row r="46" spans="3:6" ht="16" x14ac:dyDescent="0.3">
@@ -13833,7 +13914,7 @@
       <c r="E46" s="57"/>
       <c r="F46" s="69">
         <f>工数予実管理表!AB51*工数予実管理表!AC51</f>
-        <v>1.5</v>
+        <v>2.0999999999999996</v>
       </c>
     </row>
     <row r="47" spans="3:6" ht="16" x14ac:dyDescent="0.3">
@@ -13842,7 +13923,7 @@
       <c r="E47" s="57"/>
       <c r="F47" s="69">
         <f>工数予実管理表!AB52*工数予実管理表!AC52</f>
-        <v>2.4000000000000004</v>
+        <v>3</v>
       </c>
     </row>
     <row r="48" spans="3:6" ht="16" x14ac:dyDescent="0.3">
@@ -13851,7 +13932,7 @@
       <c r="E48" s="57"/>
       <c r="F48" s="69">
         <f>工数予実管理表!AB53*工数予実管理表!AC53</f>
-        <v>2.4000000000000004</v>
+        <v>3</v>
       </c>
     </row>
     <row r="49" spans="3:6" ht="16" x14ac:dyDescent="0.3">
@@ -13950,7 +14031,7 @@
       </c>
       <c r="F57" s="69">
         <f>工数予実管理表!AB62*工数予実管理表!AC62</f>
-        <v>0</v>
+        <v>4.8999999999999995</v>
       </c>
     </row>
     <row r="58" spans="3:6" ht="16" x14ac:dyDescent="0.3">
@@ -14049,7 +14130,7 @@
       </c>
       <c r="F66" s="69">
         <f>工数予実管理表!AB71*工数予実管理表!AC71</f>
-        <v>1.4000000000000001</v>
+        <v>5.6000000000000005</v>
       </c>
     </row>
     <row r="67" spans="3:6" ht="16" x14ac:dyDescent="0.3">
@@ -14071,7 +14152,7 @@
       </c>
       <c r="F68" s="69">
         <f>工数予実管理表!AB73*工数予実管理表!AC73</f>
-        <v>2</v>
+        <v>3.5</v>
       </c>
     </row>
     <row r="69" spans="3:6" ht="16" x14ac:dyDescent="0.3">
@@ -14093,7 +14174,7 @@
       </c>
       <c r="F70" s="69">
         <f>工数予実管理表!AB75*工数予実管理表!AC75</f>
-        <v>4.8</v>
+        <v>7.2</v>
       </c>
     </row>
     <row r="71" spans="3:6" ht="16" x14ac:dyDescent="0.3">
@@ -14429,7 +14510,7 @@
     <row r="101" spans="3:6" x14ac:dyDescent="0.3">
       <c r="F101" s="111">
         <f>SUM(F4:F100)</f>
-        <v>207.80000000000004</v>
+        <v>229.79999999999998</v>
       </c>
     </row>
   </sheetData>
@@ -14448,32 +14529,32 @@
   <sheetPr filterMode="1"/>
   <dimension ref="C2:L104"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+    <sheetView topLeftCell="A68" workbookViewId="0">
+      <selection activeCell="J68" sqref="J68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="2" spans="3:12" ht="14" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="3" spans="3:12" ht="16" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D3" s="152"/>
-      <c r="F3" s="152"/>
-      <c r="H3" s="156"/>
-      <c r="I3" s="157"/>
-      <c r="K3" s="159"/>
-      <c r="L3" s="160"/>
+      <c r="D3" s="150"/>
+      <c r="F3" s="150"/>
+      <c r="H3" s="154"/>
+      <c r="I3" s="155"/>
+      <c r="K3" s="157"/>
+      <c r="L3" s="158"/>
     </row>
     <row r="4" spans="3:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C4" s="153"/>
-      <c r="D4" s="154"/>
-      <c r="E4" s="153"/>
-      <c r="F4" s="154"/>
-      <c r="G4" s="153"/>
-      <c r="H4" s="158"/>
-      <c r="I4" s="154"/>
-      <c r="J4" s="161"/>
-      <c r="K4" s="161"/>
-      <c r="L4" s="162"/>
+      <c r="C4" s="151"/>
+      <c r="D4" s="152"/>
+      <c r="E4" s="151"/>
+      <c r="F4" s="152"/>
+      <c r="G4" s="151"/>
+      <c r="H4" s="156"/>
+      <c r="I4" s="152"/>
+      <c r="J4" s="159"/>
+      <c r="K4" s="159"/>
+      <c r="L4" s="160"/>
     </row>
     <row r="5" spans="3:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C5" s="19"/>
@@ -14483,25 +14564,25 @@
       <c r="G5" s="115"/>
       <c r="H5" s="115"/>
       <c r="I5" s="115"/>
-      <c r="J5" s="161"/>
-      <c r="K5" s="161"/>
-      <c r="L5" s="162"/>
+      <c r="J5" s="159"/>
+      <c r="K5" s="159"/>
+      <c r="L5" s="160"/>
     </row>
     <row r="6" spans="3:12" ht="16" x14ac:dyDescent="0.3">
-      <c r="C6" s="151" t="s">
+      <c r="C6" s="149" t="s">
         <v>115</v>
       </c>
       <c r="D6" s="37"/>
-      <c r="E6" s="151" t="s">
+      <c r="E6" s="149" t="s">
         <v>89</v>
       </c>
       <c r="F6" s="37"/>
-      <c r="G6" s="155" t="s">
+      <c r="G6" s="153" t="s">
         <v>6</v>
       </c>
       <c r="H6" s="19"/>
       <c r="I6" s="19"/>
-      <c r="J6" s="159" t="s">
+      <c r="J6" s="157" t="s">
         <v>8</v>
       </c>
       <c r="K6" s="4"/>
@@ -14738,7 +14819,7 @@
       <c r="K17" s="32"/>
       <c r="L17" s="51"/>
     </row>
-    <row r="18" spans="3:12" ht="16" x14ac:dyDescent="0.3">
+    <row r="18" spans="3:12" ht="16" hidden="1" x14ac:dyDescent="0.3">
       <c r="C18" s="19" t="s">
         <v>98</v>
       </c>
@@ -14759,7 +14840,7 @@
       <c r="K18" s="32"/>
       <c r="L18" s="51"/>
     </row>
-    <row r="19" spans="3:12" ht="16" x14ac:dyDescent="0.3">
+    <row r="19" spans="3:12" ht="16" hidden="1" x14ac:dyDescent="0.3">
       <c r="C19" s="19" t="s">
         <v>99</v>
       </c>
@@ -14780,7 +14861,7 @@
       <c r="K19" s="32"/>
       <c r="L19" s="51"/>
     </row>
-    <row r="20" spans="3:12" ht="16" x14ac:dyDescent="0.3">
+    <row r="20" spans="3:12" ht="16" hidden="1" x14ac:dyDescent="0.3">
       <c r="C20" s="19" t="s">
         <v>100</v>
       </c>
@@ -14801,7 +14882,7 @@
       <c r="K20" s="32"/>
       <c r="L20" s="51"/>
     </row>
-    <row r="21" spans="3:12" ht="16" x14ac:dyDescent="0.3">
+    <row r="21" spans="3:12" ht="16" hidden="1" x14ac:dyDescent="0.3">
       <c r="C21" s="19" t="s">
         <v>101</v>
       </c>
@@ -14822,7 +14903,7 @@
       <c r="K21" s="32"/>
       <c r="L21" s="51"/>
     </row>
-    <row r="22" spans="3:12" ht="16" x14ac:dyDescent="0.3">
+    <row r="22" spans="3:12" ht="16" hidden="1" x14ac:dyDescent="0.3">
       <c r="C22" s="23" t="s">
         <v>102</v>
       </c>
@@ -14843,7 +14924,7 @@
       <c r="K22" s="4"/>
       <c r="L22" s="43"/>
     </row>
-    <row r="23" spans="3:12" ht="16" x14ac:dyDescent="0.3">
+    <row r="23" spans="3:12" ht="16" hidden="1" x14ac:dyDescent="0.3">
       <c r="C23" s="19" t="s">
         <v>103</v>
       </c>
@@ -14864,7 +14945,7 @@
       <c r="K23" s="4"/>
       <c r="L23" s="43"/>
     </row>
-    <row r="24" spans="3:12" ht="16" x14ac:dyDescent="0.3">
+    <row r="24" spans="3:12" ht="16" hidden="1" x14ac:dyDescent="0.3">
       <c r="C24" s="19" t="s">
         <v>104</v>
       </c>
@@ -15053,7 +15134,7 @@
       <c r="K32" s="4"/>
       <c r="L32" s="43"/>
     </row>
-    <row r="33" spans="3:12" ht="16" x14ac:dyDescent="0.3">
+    <row r="33" spans="3:12" ht="16" hidden="1" x14ac:dyDescent="0.3">
       <c r="C33" s="19" t="s">
         <v>123</v>
       </c>
@@ -15074,7 +15155,7 @@
       <c r="K33" s="4"/>
       <c r="L33" s="43"/>
     </row>
-    <row r="34" spans="3:12" ht="16" x14ac:dyDescent="0.3">
+    <row r="34" spans="3:12" ht="16" hidden="1" x14ac:dyDescent="0.3">
       <c r="C34" s="19" t="s">
         <v>109</v>
       </c>
@@ -15116,7 +15197,7 @@
       <c r="K35" s="4"/>
       <c r="L35" s="43"/>
     </row>
-    <row r="36" spans="3:12" ht="16" x14ac:dyDescent="0.3">
+    <row r="36" spans="3:12" ht="16" hidden="1" x14ac:dyDescent="0.3">
       <c r="C36" s="106" t="s">
         <v>91</v>
       </c>
@@ -15137,7 +15218,7 @@
       <c r="K36" s="4"/>
       <c r="L36" s="43"/>
     </row>
-    <row r="37" spans="3:12" ht="16" x14ac:dyDescent="0.3">
+    <row r="37" spans="3:12" ht="16" hidden="1" x14ac:dyDescent="0.3">
       <c r="C37" s="106" t="s">
         <v>110</v>
       </c>
@@ -15193,30 +15274,30 @@
       </c>
       <c r="H39" s="24"/>
       <c r="I39" s="24"/>
-      <c r="J39" s="33">
+      <c r="J39" s="33" t="str">
         <f>工数予実管理表!Y41</f>
-        <v>0.8</v>
+        <v>完了</v>
       </c>
       <c r="K39" s="4"/>
       <c r="L39" s="43"/>
     </row>
-    <row r="40" spans="3:12" ht="16" hidden="1" x14ac:dyDescent="0.3">
-      <c r="C40" s="106" t="s">
-        <v>124</v>
-      </c>
-      <c r="D40" s="106"/>
-      <c r="E40" s="106" t="s">
-        <v>54</v>
+    <row r="40" spans="3:12" ht="16" x14ac:dyDescent="0.3">
+      <c r="C40" s="19" t="s">
+        <v>93</v>
+      </c>
+      <c r="D40" s="19"/>
+      <c r="E40" s="19" t="s">
+        <v>77</v>
       </c>
       <c r="F40" s="19"/>
-      <c r="G40" s="22" t="s">
-        <v>48</v>
-      </c>
-      <c r="H40" s="20"/>
-      <c r="I40" s="20"/>
-      <c r="J40" s="33">
-        <f>工数予実管理表!Y42</f>
-        <v>0.8</v>
+      <c r="G40" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="H40" s="26"/>
+      <c r="I40" s="26"/>
+      <c r="J40" s="33" t="str">
+        <f>工数予実管理表!Y59</f>
+        <v>未着手</v>
       </c>
       <c r="K40" s="4"/>
       <c r="L40" s="43"/>
@@ -15235,9 +15316,9 @@
       </c>
       <c r="H41" s="22"/>
       <c r="I41" s="22"/>
-      <c r="J41" s="33">
+      <c r="J41" s="33" t="str">
         <f>工数予実管理表!Y43</f>
-        <v>0.5</v>
+        <v>完了</v>
       </c>
       <c r="K41" s="4"/>
       <c r="L41" s="43"/>
@@ -15256,9 +15337,9 @@
       </c>
       <c r="H42" s="22"/>
       <c r="I42" s="22"/>
-      <c r="J42" s="33">
+      <c r="J42" s="33" t="str">
         <f>工数予実管理表!Y44</f>
-        <v>0.8</v>
+        <v>完了</v>
       </c>
       <c r="K42" s="4"/>
       <c r="L42" s="43"/>
@@ -15284,44 +15365,52 @@
       <c r="K43" s="4"/>
       <c r="L43" s="43"/>
     </row>
-    <row r="44" spans="3:12" ht="16" hidden="1" x14ac:dyDescent="0.3">
-      <c r="C44" s="112" t="s">
-        <v>112</v>
-      </c>
-      <c r="D44" s="112"/>
-      <c r="E44" s="113" t="s">
-        <v>81</v>
-      </c>
-      <c r="F44" s="41"/>
-      <c r="G44" s="20" t="s">
-        <v>19</v>
-      </c>
-      <c r="H44" s="26"/>
-      <c r="I44" s="26"/>
-      <c r="J44" s="33">
-        <f>工数予実管理表!Y46</f>
-        <v>0.8</v>
+    <row r="44" spans="3:12" ht="16" x14ac:dyDescent="0.3">
+      <c r="C44" s="203" t="s">
+        <v>20</v>
+      </c>
+      <c r="D44" s="203"/>
+      <c r="E44" s="43"/>
+      <c r="F44" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="G44" s="26" t="s">
+        <v>30</v>
+      </c>
+      <c r="H44" s="26" t="s">
+        <v>30</v>
+      </c>
+      <c r="I44" s="26" t="s">
+        <v>30</v>
+      </c>
+      <c r="J44" s="33" t="str">
+        <f>工数予実管理表!Y76</f>
+        <v>未着手</v>
       </c>
       <c r="K44" s="4"/>
       <c r="L44" s="43"/>
     </row>
-    <row r="45" spans="3:12" ht="16" hidden="1" x14ac:dyDescent="0.3">
-      <c r="C45" s="122" t="s">
-        <v>113</v>
-      </c>
-      <c r="D45" s="122"/>
-      <c r="E45" s="123" t="s">
-        <v>82</v>
-      </c>
-      <c r="F45" s="124"/>
-      <c r="G45" s="126" t="s">
+    <row r="45" spans="3:12" ht="16" x14ac:dyDescent="0.3">
+      <c r="C45" s="209" t="s">
+        <v>21</v>
+      </c>
+      <c r="D45" s="209"/>
+      <c r="E45" s="127"/>
+      <c r="F45" s="161" t="s">
+        <v>21</v>
+      </c>
+      <c r="G45" s="124" t="s">
         <v>19</v>
       </c>
-      <c r="H45" s="126"/>
-      <c r="I45" s="126"/>
-      <c r="J45" s="33">
-        <f>工数予実管理表!Y47</f>
-        <v>0.8</v>
+      <c r="H45" s="124" t="s">
+        <v>19</v>
+      </c>
+      <c r="I45" s="124" t="s">
+        <v>19</v>
+      </c>
+      <c r="J45" s="33" t="str">
+        <f>工数予実管理表!Y77</f>
+        <v>未着手</v>
       </c>
       <c r="K45" s="4"/>
       <c r="L45" s="43"/>
@@ -15333,15 +15422,15 @@
         <v>155</v>
       </c>
       <c r="F46" s="57"/>
-      <c r="G46" s="126" t="s">
+      <c r="G46" s="124" t="s">
         <v>19</v>
       </c>
       <c r="I46" s="57"/>
-      <c r="J46" s="33">
+      <c r="J46" s="33" t="str">
         <f>工数予実管理表!Y48</f>
-        <v>0.5</v>
-      </c>
-      <c r="L46" s="129"/>
+        <v>完了</v>
+      </c>
+      <c r="L46" s="127"/>
     </row>
     <row r="47" spans="3:12" ht="16" hidden="1" x14ac:dyDescent="0.3">
       <c r="C47" s="57"/>
@@ -15350,47 +15439,61 @@
         <v>156</v>
       </c>
       <c r="F47" s="57"/>
-      <c r="G47" s="126" t="s">
+      <c r="G47" s="124" t="s">
         <v>19</v>
       </c>
       <c r="I47" s="57"/>
-      <c r="J47" s="33">
+      <c r="J47" s="33" t="str">
         <f>工数予実管理表!Y49</f>
-        <v>0.5</v>
+        <v>完了</v>
       </c>
       <c r="L47" s="57"/>
     </row>
-    <row r="48" spans="3:12" ht="16" hidden="1" x14ac:dyDescent="0.3">
-      <c r="C48" s="57"/>
-      <c r="D48" s="57"/>
-      <c r="E48" s="57" t="s">
-        <v>157</v>
-      </c>
-      <c r="F48" s="57"/>
-      <c r="G48" s="126" t="s">
+    <row r="48" spans="3:12" ht="16" x14ac:dyDescent="0.3">
+      <c r="C48" s="76" t="s">
+        <v>22</v>
+      </c>
+      <c r="D48" s="76"/>
+      <c r="E48" s="76"/>
+      <c r="F48" s="69" t="s">
+        <v>22</v>
+      </c>
+      <c r="G48" s="124" t="s">
         <v>19</v>
       </c>
-      <c r="I48" s="57"/>
-      <c r="J48" s="33">
-        <f>工数予実管理表!Y50</f>
-        <v>0.5</v>
+      <c r="H48" s="224" t="s">
+        <v>19</v>
+      </c>
+      <c r="I48" s="146" t="s">
+        <v>19</v>
+      </c>
+      <c r="J48" s="33" t="str">
+        <f>工数予実管理表!Y78</f>
+        <v>未着手</v>
       </c>
       <c r="L48" s="57"/>
     </row>
-    <row r="49" spans="3:12" ht="16" hidden="1" x14ac:dyDescent="0.3">
-      <c r="C49" s="57"/>
-      <c r="D49" s="57"/>
-      <c r="E49" s="57" t="s">
-        <v>158</v>
-      </c>
-      <c r="F49" s="57"/>
-      <c r="G49" s="126" t="s">
-        <v>19</v>
-      </c>
-      <c r="I49" s="57"/>
-      <c r="J49" s="33">
-        <f>工数予実管理表!Y51</f>
-        <v>0.5</v>
+    <row r="49" spans="3:12" ht="16" x14ac:dyDescent="0.3">
+      <c r="C49" s="76" t="s">
+        <v>23</v>
+      </c>
+      <c r="D49" s="76"/>
+      <c r="E49" s="76"/>
+      <c r="F49" s="69" t="s">
+        <v>23</v>
+      </c>
+      <c r="G49" s="222" t="s">
+        <v>29</v>
+      </c>
+      <c r="H49" s="226" t="s">
+        <v>29</v>
+      </c>
+      <c r="I49" s="227" t="s">
+        <v>29</v>
+      </c>
+      <c r="J49" s="33" t="str">
+        <f>工数予実管理表!Y79</f>
+        <v>未着手</v>
       </c>
       <c r="L49" s="57"/>
     </row>
@@ -15401,13 +15504,13 @@
         <v>160</v>
       </c>
       <c r="F50" s="57"/>
-      <c r="G50" s="126" t="s">
+      <c r="G50" s="124" t="s">
         <v>19</v>
       </c>
       <c r="I50" s="57"/>
-      <c r="J50" s="33">
+      <c r="J50" s="33" t="str">
         <f>工数予実管理表!Y52</f>
-        <v>0.8</v>
+        <v>完了</v>
       </c>
       <c r="L50" s="57"/>
     </row>
@@ -15418,30 +15521,30 @@
         <v>161</v>
       </c>
       <c r="F51" s="57"/>
-      <c r="G51" s="148" t="s">
+      <c r="G51" s="146" t="s">
         <v>19</v>
       </c>
       <c r="I51" s="57"/>
-      <c r="J51" s="33">
+      <c r="J51" s="33" t="str">
         <f>工数予実管理表!Y53</f>
-        <v>0.8</v>
+        <v>完了</v>
       </c>
       <c r="L51" s="57"/>
     </row>
     <row r="52" spans="3:12" ht="16" hidden="1" x14ac:dyDescent="0.3">
-      <c r="C52" s="134" t="s">
+      <c r="C52" s="132" t="s">
         <v>126</v>
       </c>
-      <c r="D52" s="134"/>
-      <c r="E52" s="134" t="s">
+      <c r="D52" s="132"/>
+      <c r="E52" s="132" t="s">
         <v>58</v>
       </c>
-      <c r="F52" s="134"/>
-      <c r="G52" s="135" t="s">
+      <c r="F52" s="132"/>
+      <c r="G52" s="133" t="s">
         <v>30</v>
       </c>
-      <c r="H52" s="136"/>
-      <c r="I52" s="137"/>
+      <c r="H52" s="134"/>
+      <c r="I52" s="135"/>
       <c r="J52" s="33" t="str">
         <f>工数予実管理表!Y54</f>
         <v>完了</v>
@@ -15467,8 +15570,8 @@
         <f>工数予実管理表!Y55</f>
         <v>完了</v>
       </c>
-      <c r="K53" s="140"/>
-      <c r="L53" s="141"/>
+      <c r="K53" s="138"/>
+      <c r="L53" s="139"/>
     </row>
     <row r="54" spans="3:12" ht="16" hidden="1" x14ac:dyDescent="0.3">
       <c r="C54" s="19" t="s">
@@ -15533,107 +15636,127 @@
       <c r="K56" s="4"/>
       <c r="L56" s="43"/>
     </row>
-    <row r="57" spans="3:12" ht="16" hidden="1" x14ac:dyDescent="0.3">
-      <c r="C57" s="28" t="s">
-        <v>93</v>
-      </c>
-      <c r="D57" s="28"/>
-      <c r="E57" s="27" t="s">
-        <v>77</v>
-      </c>
-      <c r="F57" s="28"/>
+    <row r="57" spans="3:12" ht="16" x14ac:dyDescent="0.3">
+      <c r="C57" s="203" t="s">
+        <v>24</v>
+      </c>
+      <c r="D57" s="203"/>
+      <c r="E57" s="43"/>
+      <c r="F57" s="28" t="s">
+        <v>24</v>
+      </c>
       <c r="G57" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="H57" s="26"/>
-      <c r="I57" s="26"/>
+      <c r="H57" s="26" t="s">
+        <v>30</v>
+      </c>
+      <c r="I57" s="26" t="s">
+        <v>30</v>
+      </c>
       <c r="J57" s="33" t="str">
-        <f>工数予実管理表!Y59</f>
+        <f>工数予実管理表!Y80</f>
         <v>未着手</v>
       </c>
       <c r="K57" s="4"/>
       <c r="L57" s="43"/>
     </row>
-    <row r="58" spans="3:12" ht="16" hidden="1" x14ac:dyDescent="0.3">
-      <c r="C58" s="23" t="s">
-        <v>151</v>
-      </c>
-      <c r="D58" s="23"/>
-      <c r="E58" s="23" t="s">
-        <v>63</v>
-      </c>
-      <c r="F58" s="23"/>
+    <row r="58" spans="3:12" ht="16" x14ac:dyDescent="0.3">
+      <c r="C58" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D58" s="4"/>
+      <c r="E58" s="4"/>
+      <c r="F58" s="19" t="s">
+        <v>25</v>
+      </c>
       <c r="G58" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="H58" s="22"/>
-      <c r="I58" s="22"/>
-      <c r="J58" s="33">
-        <f>工数予実管理表!Y60</f>
-        <v>0.8</v>
+      <c r="H58" s="22" t="s">
+        <v>11</v>
+      </c>
+      <c r="I58" s="22" t="s">
+        <v>11</v>
+      </c>
+      <c r="J58" s="33" t="str">
+        <f>工数予実管理表!Y81</f>
+        <v>未着手</v>
       </c>
       <c r="K58" s="4"/>
       <c r="L58" s="43"/>
     </row>
-    <row r="59" spans="3:12" ht="16" hidden="1" x14ac:dyDescent="0.3">
-      <c r="C59" s="23" t="s">
-        <v>128</v>
-      </c>
-      <c r="D59" s="23"/>
-      <c r="E59" s="23" t="s">
-        <v>64</v>
-      </c>
-      <c r="F59" s="23"/>
+    <row r="59" spans="3:12" ht="16" x14ac:dyDescent="0.3">
+      <c r="C59" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D59" s="4"/>
+      <c r="E59" s="4"/>
+      <c r="F59" s="19" t="s">
+        <v>26</v>
+      </c>
       <c r="G59" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="H59" s="22"/>
-      <c r="I59" s="22"/>
-      <c r="J59" s="33">
-        <f>工数予実管理表!Y61</f>
-        <v>0.7</v>
+      <c r="H59" s="22" t="s">
+        <v>11</v>
+      </c>
+      <c r="I59" s="22" t="s">
+        <v>11</v>
+      </c>
+      <c r="J59" s="33" t="str">
+        <f>工数予実管理表!Y82</f>
+        <v>未着手</v>
       </c>
       <c r="K59" s="4"/>
       <c r="L59" s="43"/>
     </row>
-    <row r="60" spans="3:12" ht="16" hidden="1" x14ac:dyDescent="0.3">
-      <c r="C60" s="19" t="s">
-        <v>125</v>
-      </c>
-      <c r="D60" s="19"/>
-      <c r="E60" s="19" t="s">
-        <v>65</v>
-      </c>
-      <c r="F60" s="19"/>
+    <row r="60" spans="3:12" ht="16" x14ac:dyDescent="0.3">
+      <c r="C60" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="D60" s="4"/>
+      <c r="E60" s="4"/>
+      <c r="F60" s="19" t="s">
+        <v>27</v>
+      </c>
       <c r="G60" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="H60" s="20"/>
-      <c r="I60" s="20"/>
+      <c r="H60" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="I60" s="20" t="s">
+        <v>19</v>
+      </c>
       <c r="J60" s="33" t="str">
-        <f>工数予実管理表!Y62</f>
+        <f>工数予実管理表!Y83</f>
         <v>未着手</v>
       </c>
       <c r="K60" s="4"/>
       <c r="L60" s="43"/>
     </row>
-    <row r="61" spans="3:12" ht="16" hidden="1" x14ac:dyDescent="0.3">
-      <c r="C61" s="23" t="s">
-        <v>95</v>
-      </c>
-      <c r="D61" s="23"/>
-      <c r="E61" s="23" t="s">
-        <v>66</v>
-      </c>
-      <c r="F61" s="23"/>
+    <row r="61" spans="3:12" ht="16" x14ac:dyDescent="0.3">
+      <c r="C61" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="D61" s="4"/>
+      <c r="E61" s="4"/>
+      <c r="F61" s="19" t="s">
+        <v>28</v>
+      </c>
       <c r="G61" s="26" t="s">
         <v>30</v>
       </c>
-      <c r="H61" s="26"/>
-      <c r="I61" s="26"/>
-      <c r="J61" s="33">
-        <f>工数予実管理表!Y63</f>
-        <v>0.9</v>
+      <c r="H61" s="26" t="s">
+        <v>30</v>
+      </c>
+      <c r="I61" s="26" t="s">
+        <v>30</v>
+      </c>
+      <c r="J61" s="33" t="str">
+        <f>工数予実管理表!Y84</f>
+        <v>未着手</v>
       </c>
       <c r="K61" s="4"/>
       <c r="L61" s="43"/>
@@ -15659,44 +15782,52 @@
       <c r="K62" s="4"/>
       <c r="L62" s="43"/>
     </row>
-    <row r="63" spans="3:12" ht="16" hidden="1" x14ac:dyDescent="0.3">
-      <c r="C63" s="19" t="s">
-        <v>127</v>
-      </c>
-      <c r="D63" s="19"/>
-      <c r="E63" s="19" t="s">
-        <v>67</v>
-      </c>
-      <c r="F63" s="19"/>
-      <c r="G63" s="26" t="s">
-        <v>30</v>
-      </c>
-      <c r="H63" s="19"/>
-      <c r="I63" s="19"/>
-      <c r="J63" s="33">
-        <f>工数予実管理表!Y65</f>
-        <v>0.9</v>
+    <row r="63" spans="3:12" ht="16" x14ac:dyDescent="0.3">
+      <c r="C63" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="D63" s="4"/>
+      <c r="E63" s="4"/>
+      <c r="F63" s="30" t="s">
+        <v>79</v>
+      </c>
+      <c r="G63" s="22" t="s">
+        <v>11</v>
+      </c>
+      <c r="H63" s="22" t="s">
+        <v>11</v>
+      </c>
+      <c r="I63" s="22" t="s">
+        <v>11</v>
+      </c>
+      <c r="J63" s="33" t="str">
+        <f>工数予実管理表!Y85</f>
+        <v>未着手</v>
       </c>
       <c r="K63" s="4"/>
       <c r="L63" s="43"/>
     </row>
-    <row r="64" spans="3:12" ht="16" hidden="1" x14ac:dyDescent="0.3">
-      <c r="C64" s="23" t="s">
-        <v>90</v>
-      </c>
-      <c r="D64" s="23"/>
-      <c r="E64" s="23" t="s">
-        <v>68</v>
-      </c>
-      <c r="F64" s="23"/>
-      <c r="G64" s="26" t="s">
-        <v>30</v>
-      </c>
-      <c r="H64" s="26"/>
-      <c r="I64" s="26"/>
-      <c r="J64" s="33">
-        <f>工数予実管理表!Y66</f>
-        <v>0.7</v>
+    <row r="64" spans="3:12" ht="16" x14ac:dyDescent="0.3">
+      <c r="C64" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="D64" s="4"/>
+      <c r="E64" s="4"/>
+      <c r="F64" s="30" t="s">
+        <v>80</v>
+      </c>
+      <c r="G64" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="H64" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="I64" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="J64" s="33" t="str">
+        <f>工数予実管理表!Y86</f>
+        <v>未着手</v>
       </c>
       <c r="K64" s="4"/>
       <c r="L64" s="43"/>
@@ -15764,86 +15895,78 @@
       <c r="K67" s="4"/>
       <c r="L67" s="43"/>
     </row>
-    <row r="68" spans="3:12" ht="16" hidden="1" x14ac:dyDescent="0.3">
-      <c r="C68" s="69" t="s">
-        <v>93</v>
-      </c>
-      <c r="D68" s="29"/>
-      <c r="E68" s="19" t="s">
-        <v>72</v>
-      </c>
-      <c r="F68" s="19"/>
+    <row r="68" spans="3:12" ht="16" x14ac:dyDescent="0.3">
+      <c r="C68" s="76" t="s">
+        <v>49</v>
+      </c>
+      <c r="D68" s="11"/>
+      <c r="E68" s="4"/>
+      <c r="F68" s="220"/>
       <c r="G68" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="H68" s="20"/>
-      <c r="I68" s="20"/>
-      <c r="J68" s="33">
-        <f>工数予実管理表!Y70</f>
-        <v>0.7</v>
+      <c r="H68" s="220"/>
+      <c r="I68" s="220"/>
+      <c r="J68" s="33" t="str">
+        <f>工数予実管理表!Y94</f>
+        <v>未着手</v>
       </c>
       <c r="K68" s="4"/>
       <c r="L68" s="43"/>
     </row>
-    <row r="69" spans="3:12" ht="16" hidden="1" x14ac:dyDescent="0.3">
-      <c r="C69" s="69" t="s">
-        <v>129</v>
-      </c>
-      <c r="D69" s="44"/>
-      <c r="E69" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="F69" s="2"/>
-      <c r="G69" s="22" t="s">
-        <v>11</v>
-      </c>
-      <c r="H69" s="22"/>
-      <c r="I69" s="22"/>
-      <c r="J69" s="33">
-        <f>工数予実管理表!Y71</f>
-        <v>0.2</v>
+    <row r="69" spans="3:12" ht="16" x14ac:dyDescent="0.3">
+      <c r="C69" s="76" t="s">
+        <v>50</v>
+      </c>
+      <c r="D69" s="11"/>
+      <c r="E69" s="4"/>
+      <c r="F69" s="220"/>
+      <c r="G69" s="31" t="s">
+        <v>14</v>
+      </c>
+      <c r="H69" s="220"/>
+      <c r="I69" s="220"/>
+      <c r="J69" s="33" t="str">
+        <f>工数予実管理表!Y95</f>
+        <v>未着手</v>
       </c>
       <c r="K69" s="4"/>
       <c r="L69" s="43"/>
     </row>
-    <row r="70" spans="3:12" ht="16" hidden="1" x14ac:dyDescent="0.3">
-      <c r="C70" s="69" t="s">
-        <v>128</v>
-      </c>
-      <c r="D70" s="44"/>
-      <c r="E70" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="F70" s="2"/>
-      <c r="G70" s="22" t="s">
-        <v>11</v>
-      </c>
-      <c r="H70" s="22"/>
-      <c r="I70" s="22"/>
-      <c r="J70" s="33">
-        <f>工数予実管理表!Y72</f>
-        <v>0.2</v>
+    <row r="70" spans="3:12" ht="16" x14ac:dyDescent="0.3">
+      <c r="C70" s="76" t="s">
+        <v>51</v>
+      </c>
+      <c r="D70" s="11"/>
+      <c r="E70" s="4"/>
+      <c r="F70" s="220"/>
+      <c r="G70" s="31" t="s">
+        <v>14</v>
+      </c>
+      <c r="H70" s="220"/>
+      <c r="I70" s="220"/>
+      <c r="J70" s="33" t="str">
+        <f>工数予実管理表!Y96</f>
+        <v>未着手</v>
       </c>
       <c r="K70" s="4"/>
       <c r="L70" s="43"/>
     </row>
-    <row r="71" spans="3:12" ht="16" hidden="1" x14ac:dyDescent="0.3">
-      <c r="C71" s="69" t="s">
-        <v>125</v>
-      </c>
-      <c r="D71" s="44"/>
-      <c r="E71" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="F71" s="2"/>
-      <c r="G71" s="20" t="s">
-        <v>19</v>
-      </c>
-      <c r="H71" s="20"/>
-      <c r="I71" s="20"/>
-      <c r="J71" s="33">
-        <f>工数予実管理表!Y73</f>
-        <v>0.4</v>
+    <row r="71" spans="3:12" ht="16" x14ac:dyDescent="0.3">
+      <c r="C71" s="76" t="s">
+        <v>52</v>
+      </c>
+      <c r="D71" s="11"/>
+      <c r="E71" s="4"/>
+      <c r="F71" s="220"/>
+      <c r="G71" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="H71" s="220"/>
+      <c r="I71" s="220"/>
+      <c r="J71" s="33" t="str">
+        <f>工数予実管理表!Y97</f>
+        <v>未着手</v>
       </c>
       <c r="K71" s="55" t="s">
         <v>117</v>
@@ -15877,301 +16000,243 @@
         <v>117</v>
       </c>
     </row>
-    <row r="73" spans="3:12" ht="16" hidden="1" x14ac:dyDescent="0.3">
-      <c r="C73" s="77" t="s">
-        <v>130</v>
-      </c>
-      <c r="D73" s="78"/>
-      <c r="E73" s="79" t="s">
-        <v>86</v>
-      </c>
-      <c r="F73" s="71"/>
-      <c r="G73" s="24" t="s">
-        <v>29</v>
-      </c>
-      <c r="H73" s="24"/>
-      <c r="I73" s="24"/>
-      <c r="J73" s="33">
-        <f>工数予実管理表!Y75</f>
-        <v>0.6</v>
+    <row r="73" spans="3:12" ht="16" x14ac:dyDescent="0.3">
+      <c r="C73" s="211" t="s">
+        <v>53</v>
+      </c>
+      <c r="D73" s="213"/>
+      <c r="E73" s="218"/>
+      <c r="F73" s="220"/>
+      <c r="G73" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="H73" s="220"/>
+      <c r="I73" s="220"/>
+      <c r="J73" s="33" t="str">
+        <f>工数予実管理表!Y98</f>
+        <v>未着手</v>
       </c>
       <c r="K73" s="4"/>
       <c r="L73" s="43"/>
     </row>
-    <row r="74" spans="3:12" ht="16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="74" spans="3:12" ht="16" x14ac:dyDescent="0.3">
       <c r="C74" s="76" t="s">
-        <v>20</v>
+        <v>54</v>
       </c>
       <c r="D74" s="76"/>
       <c r="E74" s="76"/>
-      <c r="F74" s="29" t="s">
-        <v>20</v>
-      </c>
-      <c r="G74" s="26" t="s">
-        <v>30</v>
-      </c>
-      <c r="H74" s="26" t="s">
-        <v>30</v>
-      </c>
-      <c r="I74" s="26" t="s">
-        <v>30</v>
-      </c>
+      <c r="F74" s="219"/>
+      <c r="G74" s="22" t="s">
+        <v>48</v>
+      </c>
+      <c r="H74" s="220"/>
+      <c r="I74" s="220"/>
       <c r="J74" s="33" t="str">
-        <f>工数予実管理表!Y76</f>
+        <f>工数予実管理表!Y99</f>
         <v>未着手</v>
       </c>
       <c r="K74" s="4"/>
       <c r="L74" s="43"/>
     </row>
-    <row r="75" spans="3:12" ht="16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="75" spans="3:12" ht="16" x14ac:dyDescent="0.3">
       <c r="C75" s="76" t="s">
-        <v>21</v>
+        <v>55</v>
       </c>
       <c r="D75" s="76"/>
       <c r="E75" s="76"/>
-      <c r="F75" s="29" t="s">
-        <v>21</v>
-      </c>
-      <c r="G75" s="20" t="s">
-        <v>19</v>
-      </c>
-      <c r="H75" s="20" t="s">
-        <v>19</v>
-      </c>
-      <c r="I75" s="20" t="s">
-        <v>19</v>
-      </c>
+      <c r="F75" s="219"/>
+      <c r="G75" s="22" t="s">
+        <v>48</v>
+      </c>
+      <c r="H75" s="220"/>
+      <c r="I75" s="220"/>
       <c r="J75" s="33" t="str">
-        <f>工数予実管理表!Y77</f>
+        <f>工数予実管理表!Y100</f>
         <v>未着手</v>
       </c>
       <c r="K75" s="4"/>
       <c r="L75" s="43"/>
     </row>
-    <row r="76" spans="3:12" ht="16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="76" spans="3:12" ht="16" x14ac:dyDescent="0.3">
       <c r="C76" s="76" t="s">
-        <v>22</v>
+        <v>56</v>
       </c>
       <c r="D76" s="76"/>
       <c r="E76" s="76"/>
-      <c r="F76" s="29" t="s">
-        <v>22</v>
-      </c>
+      <c r="F76" s="219"/>
       <c r="G76" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="H76" s="20" t="s">
-        <v>19</v>
-      </c>
-      <c r="I76" s="20" t="s">
-        <v>19</v>
-      </c>
+      <c r="H76" s="220"/>
+      <c r="I76" s="220"/>
       <c r="J76" s="33" t="str">
-        <f>工数予実管理表!Y78</f>
+        <f>工数予実管理表!Y101</f>
         <v>未着手</v>
       </c>
       <c r="K76" s="4"/>
       <c r="L76" s="43"/>
     </row>
-    <row r="77" spans="3:12" ht="16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="77" spans="3:12" ht="16" x14ac:dyDescent="0.3">
       <c r="C77" s="76" t="s">
-        <v>23</v>
+        <v>57</v>
       </c>
       <c r="D77" s="76"/>
       <c r="E77" s="76"/>
-      <c r="F77" s="29" t="s">
-        <v>23</v>
-      </c>
-      <c r="G77" s="24" t="s">
-        <v>29</v>
-      </c>
-      <c r="H77" s="24" t="s">
-        <v>29</v>
-      </c>
-      <c r="I77" s="24" t="s">
-        <v>29</v>
-      </c>
+      <c r="F77" s="219"/>
+      <c r="G77" s="31" t="s">
+        <v>14</v>
+      </c>
+      <c r="H77" s="220"/>
+      <c r="I77" s="220"/>
       <c r="J77" s="33" t="str">
-        <f>工数予実管理表!Y79</f>
+        <f>工数予実管理表!Y102</f>
         <v>未着手</v>
       </c>
       <c r="K77" s="4"/>
       <c r="L77" s="43"/>
     </row>
-    <row r="78" spans="3:12" ht="16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="78" spans="3:12" ht="16" x14ac:dyDescent="0.3">
       <c r="C78" s="76" t="s">
-        <v>24</v>
+        <v>81</v>
       </c>
       <c r="D78" s="76"/>
       <c r="E78" s="76"/>
-      <c r="F78" s="29" t="s">
-        <v>24</v>
-      </c>
+      <c r="F78" s="219"/>
       <c r="G78" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="H78" s="26" t="s">
-        <v>30</v>
-      </c>
-      <c r="I78" s="26" t="s">
-        <v>30</v>
-      </c>
+      <c r="H78" s="220"/>
+      <c r="I78" s="220"/>
       <c r="J78" s="33" t="str">
-        <f>工数予実管理表!Y80</f>
+        <f>工数予実管理表!Y103</f>
         <v>未着手</v>
       </c>
       <c r="K78" s="4"/>
       <c r="L78" s="43"/>
     </row>
-    <row r="79" spans="3:12" ht="16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="79" spans="3:12" ht="16" x14ac:dyDescent="0.3">
       <c r="C79" s="76" t="s">
-        <v>25</v>
+        <v>82</v>
       </c>
       <c r="D79" s="76"/>
       <c r="E79" s="76"/>
-      <c r="F79" s="29" t="s">
-        <v>25</v>
-      </c>
-      <c r="G79" s="22" t="s">
-        <v>11</v>
-      </c>
-      <c r="H79" s="22" t="s">
-        <v>11</v>
-      </c>
-      <c r="I79" s="22" t="s">
-        <v>11</v>
-      </c>
+      <c r="F79" s="219"/>
+      <c r="G79" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="H79" s="220"/>
+      <c r="I79" s="220"/>
       <c r="J79" s="33" t="str">
-        <f>工数予実管理表!Y81</f>
+        <f>工数予実管理表!Y104</f>
         <v>未着手</v>
       </c>
       <c r="K79" s="4"/>
       <c r="L79" s="43"/>
     </row>
-    <row r="80" spans="3:12" ht="16" hidden="1" x14ac:dyDescent="0.3">
-      <c r="C80" s="76" t="s">
-        <v>26</v>
-      </c>
-      <c r="D80" s="76"/>
-      <c r="E80" s="76"/>
-      <c r="F80" s="29" t="s">
-        <v>26</v>
-      </c>
-      <c r="G80" s="22" t="s">
-        <v>11</v>
-      </c>
-      <c r="H80" s="22" t="s">
-        <v>11</v>
-      </c>
-      <c r="I80" s="22" t="s">
-        <v>11</v>
-      </c>
+    <row r="80" spans="3:12" ht="16" x14ac:dyDescent="0.3">
+      <c r="C80" s="208" t="s">
+        <v>112</v>
+      </c>
+      <c r="D80" s="208"/>
+      <c r="E80" s="208" t="s">
+        <v>81</v>
+      </c>
+      <c r="F80" s="42"/>
+      <c r="G80" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="H80" s="26"/>
+      <c r="I80" s="26"/>
       <c r="J80" s="33" t="str">
-        <f>工数予実管理表!Y82</f>
-        <v>未着手</v>
+        <f>工数予実管理表!Y46</f>
+        <v>完了</v>
       </c>
       <c r="K80" s="4"/>
       <c r="L80" s="43"/>
     </row>
-    <row r="81" spans="3:12" ht="16" hidden="1" x14ac:dyDescent="0.3">
-      <c r="C81" s="76" t="s">
-        <v>27</v>
-      </c>
-      <c r="D81" s="76"/>
-      <c r="E81" s="76"/>
-      <c r="F81" s="29" t="s">
-        <v>27</v>
-      </c>
+    <row r="81" spans="3:12" ht="16" x14ac:dyDescent="0.3">
+      <c r="C81" s="208" t="s">
+        <v>113</v>
+      </c>
+      <c r="D81" s="208"/>
+      <c r="E81" s="208" t="s">
+        <v>82</v>
+      </c>
+      <c r="F81" s="42"/>
       <c r="G81" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="H81" s="20" t="s">
-        <v>19</v>
-      </c>
-      <c r="I81" s="20" t="s">
-        <v>19</v>
-      </c>
+      <c r="H81" s="20"/>
+      <c r="I81" s="20"/>
       <c r="J81" s="33" t="str">
-        <f>工数予実管理表!Y83</f>
-        <v>未着手</v>
+        <f>工数予実管理表!Y47</f>
+        <v>完了</v>
       </c>
       <c r="K81" s="4"/>
       <c r="L81" s="43"/>
     </row>
-    <row r="82" spans="3:12" ht="16" hidden="1" x14ac:dyDescent="0.3">
-      <c r="C82" s="76" t="s">
-        <v>28</v>
-      </c>
-      <c r="D82" s="76"/>
-      <c r="E82" s="76"/>
-      <c r="F82" s="29" t="s">
-        <v>28</v>
-      </c>
+    <row r="82" spans="3:12" ht="16" x14ac:dyDescent="0.3">
+      <c r="C82" s="70" t="s">
+        <v>95</v>
+      </c>
+      <c r="D82" s="70"/>
+      <c r="E82" s="70" t="s">
+        <v>66</v>
+      </c>
+      <c r="F82" s="221"/>
       <c r="G82" s="26" t="s">
         <v>30</v>
       </c>
-      <c r="H82" s="26" t="s">
-        <v>30</v>
-      </c>
-      <c r="I82" s="62" t="s">
-        <v>30</v>
-      </c>
-      <c r="J82" s="33" t="str">
-        <f>工数予実管理表!Y84</f>
-        <v>未着手</v>
+      <c r="H82" s="26"/>
+      <c r="I82" s="62"/>
+      <c r="J82" s="33">
+        <f>工数予実管理表!Y63</f>
+        <v>0.9</v>
       </c>
       <c r="K82" s="4"/>
       <c r="L82" s="43"/>
     </row>
-    <row r="83" spans="3:12" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C83" s="76" t="s">
-        <v>79</v>
-      </c>
-      <c r="D83" s="76"/>
-      <c r="E83" s="76"/>
-      <c r="F83" s="42" t="s">
-        <v>79</v>
-      </c>
-      <c r="G83" s="22" t="s">
-        <v>11</v>
-      </c>
-      <c r="H83" s="22" t="s">
-        <v>11</v>
-      </c>
-      <c r="I83" s="64" t="s">
-        <v>11</v>
-      </c>
-      <c r="J83" s="33" t="str">
-        <f>工数予実管理表!Y85</f>
-        <v>未着手</v>
+    <row r="83" spans="3:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C83" s="69" t="s">
+        <v>127</v>
+      </c>
+      <c r="D83" s="69"/>
+      <c r="E83" s="69" t="s">
+        <v>67</v>
+      </c>
+      <c r="F83" s="29"/>
+      <c r="G83" s="26" t="s">
+        <v>30</v>
+      </c>
+      <c r="H83" s="19"/>
+      <c r="I83" s="27"/>
+      <c r="J83" s="33">
+        <f>工数予実管理表!Y65</f>
+        <v>0.9</v>
       </c>
       <c r="K83" s="39"/>
       <c r="L83" s="52"/>
     </row>
-    <row r="84" spans="3:12" ht="16" hidden="1" x14ac:dyDescent="0.3">
-      <c r="C84" s="76" t="s">
-        <v>80</v>
-      </c>
-      <c r="D84" s="76"/>
-      <c r="E84" s="76"/>
-      <c r="F84" s="42" t="s">
-        <v>80</v>
-      </c>
+    <row r="84" spans="3:12" ht="16" x14ac:dyDescent="0.3">
+      <c r="C84" s="69" t="s">
+        <v>130</v>
+      </c>
+      <c r="D84" s="95"/>
+      <c r="E84" s="95" t="s">
+        <v>86</v>
+      </c>
+      <c r="F84" s="72"/>
       <c r="G84" s="24" t="s">
         <v>29</v>
       </c>
-      <c r="H84" s="24" t="s">
-        <v>29</v>
-      </c>
-      <c r="I84" s="63" t="s">
-        <v>29</v>
-      </c>
-      <c r="J84" s="33" t="str">
-        <f>工数予実管理表!Y86</f>
-        <v>未着手</v>
-      </c>
-    </row>
-    <row r="85" spans="3:12" ht="16" x14ac:dyDescent="0.3">
+      <c r="H84" s="24"/>
+      <c r="I84" s="63"/>
+      <c r="J84" s="33">
+        <f>工数予実管理表!Y75</f>
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="85" spans="3:12" ht="16" hidden="1" x14ac:dyDescent="0.3">
       <c r="C85" s="76" t="s">
         <v>31</v>
       </c>
@@ -16186,20 +16251,25 @@
       </c>
     </row>
     <row r="86" spans="3:12" ht="16" x14ac:dyDescent="0.3">
-      <c r="C86" s="76" t="s">
-        <v>32</v>
-      </c>
-      <c r="D86" s="76"/>
-      <c r="E86" s="76"/>
-      <c r="G86" s="31" t="s">
-        <v>14</v>
-      </c>
+      <c r="C86" s="70" t="s">
+        <v>151</v>
+      </c>
+      <c r="D86" s="70"/>
+      <c r="E86" s="70" t="s">
+        <v>63</v>
+      </c>
+      <c r="F86" s="210"/>
+      <c r="G86" s="22" t="s">
+        <v>11</v>
+      </c>
+      <c r="H86" s="223"/>
+      <c r="I86" s="223"/>
       <c r="J86" s="33">
-        <f>工数予実管理表!Y88</f>
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="87" spans="3:12" ht="16" x14ac:dyDescent="0.3">
+        <f>工数予実管理表!Y60</f>
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="87" spans="3:12" ht="16" hidden="1" x14ac:dyDescent="0.3">
       <c r="C87" s="75" t="s">
         <v>33</v>
       </c>
@@ -16213,7 +16283,7 @@
         <v>完了</v>
       </c>
     </row>
-    <row r="88" spans="3:12" ht="16" x14ac:dyDescent="0.3">
+    <row r="88" spans="3:12" ht="16" hidden="1" x14ac:dyDescent="0.3">
       <c r="C88" s="76" t="s">
         <v>34</v>
       </c>
@@ -16227,7 +16297,7 @@
         <v>完了</v>
       </c>
     </row>
-    <row r="89" spans="3:12" ht="16" x14ac:dyDescent="0.3">
+    <row r="89" spans="3:12" ht="16" hidden="1" x14ac:dyDescent="0.3">
       <c r="C89" s="76" t="s">
         <v>35</v>
       </c>
@@ -16241,7 +16311,7 @@
         <v>完了</v>
       </c>
     </row>
-    <row r="90" spans="3:12" ht="16" x14ac:dyDescent="0.3">
+    <row r="90" spans="3:12" ht="16" hidden="1" x14ac:dyDescent="0.3">
       <c r="C90" s="75" t="s">
         <v>36</v>
       </c>
@@ -16255,7 +16325,7 @@
         <v>完了</v>
       </c>
     </row>
-    <row r="91" spans="3:12" ht="16" x14ac:dyDescent="0.3">
+    <row r="91" spans="3:12" ht="16" hidden="1" x14ac:dyDescent="0.3">
       <c r="C91" s="76" t="s">
         <v>37</v>
       </c>
@@ -16269,158 +16339,202 @@
         <v>完了</v>
       </c>
     </row>
-    <row r="92" spans="3:12" ht="16" hidden="1" x14ac:dyDescent="0.3">
-      <c r="C92" s="61" t="s">
-        <v>49</v>
-      </c>
-      <c r="D92" s="61"/>
-      <c r="E92" s="74"/>
-      <c r="G92" s="20" t="s">
+    <row r="92" spans="3:12" ht="16" x14ac:dyDescent="0.3">
+      <c r="C92" s="205" t="s">
+        <v>129</v>
+      </c>
+      <c r="D92" s="212"/>
+      <c r="E92" s="118" t="s">
+        <v>73</v>
+      </c>
+      <c r="F92" s="212"/>
+      <c r="G92" s="22" t="s">
+        <v>11</v>
+      </c>
+      <c r="H92" s="223"/>
+      <c r="I92" s="223"/>
+      <c r="J92" s="33">
+        <f>工数予実管理表!Y71</f>
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="93" spans="3:12" ht="16" x14ac:dyDescent="0.3">
+      <c r="C93" s="207" t="s">
+        <v>124</v>
+      </c>
+      <c r="D93" s="207"/>
+      <c r="E93" s="216" t="s">
+        <v>54</v>
+      </c>
+      <c r="F93" s="205"/>
+      <c r="G93" s="22" t="s">
+        <v>48</v>
+      </c>
+      <c r="H93" s="224"/>
+      <c r="I93" s="224"/>
+      <c r="J93" s="33">
+        <f>工数予実管理表!Y42</f>
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="94" spans="3:12" ht="16" x14ac:dyDescent="0.3">
+      <c r="C94" s="206"/>
+      <c r="D94" s="206"/>
+      <c r="E94" s="214" t="s">
+        <v>157</v>
+      </c>
+      <c r="F94" s="206"/>
+      <c r="G94" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="J92" s="33" t="str">
-        <f>工数予実管理表!Y94</f>
-        <v>未着手</v>
-      </c>
-    </row>
-    <row r="93" spans="3:12" ht="16" x14ac:dyDescent="0.3">
-      <c r="C93" s="61" t="s">
-        <v>50</v>
-      </c>
-      <c r="D93" s="61"/>
-      <c r="E93" s="74"/>
-      <c r="G93" s="31" t="s">
-        <v>14</v>
-      </c>
-      <c r="J93" s="33" t="str">
-        <f>工数予実管理表!Y95</f>
-        <v>未着手</v>
-      </c>
-    </row>
-    <row r="94" spans="3:12" ht="16" x14ac:dyDescent="0.3">
-      <c r="C94" s="61" t="s">
-        <v>51</v>
-      </c>
-      <c r="D94" s="61"/>
-      <c r="E94" s="74"/>
-      <c r="G94" s="31" t="s">
-        <v>14</v>
-      </c>
-      <c r="J94" s="33" t="str">
-        <f>工数予実管理表!Y96</f>
-        <v>未着手</v>
-      </c>
-    </row>
-    <row r="95" spans="3:12" ht="16" hidden="1" x14ac:dyDescent="0.3">
-      <c r="C95" s="61" t="s">
-        <v>52</v>
-      </c>
-      <c r="D95" s="61"/>
-      <c r="E95" s="74"/>
-      <c r="G95" s="24" t="s">
-        <v>29</v>
-      </c>
-      <c r="J95" s="33" t="str">
-        <f>工数予実管理表!Y97</f>
-        <v>未着手</v>
-      </c>
-    </row>
-    <row r="96" spans="3:12" ht="16" hidden="1" x14ac:dyDescent="0.3">
-      <c r="C96" s="102" t="s">
-        <v>53</v>
-      </c>
-      <c r="D96" s="102"/>
-      <c r="E96" s="103"/>
-      <c r="G96" s="20" t="s">
+      <c r="I94" s="206"/>
+      <c r="J94" s="33">
+        <f>工数予実管理表!Y50</f>
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="95" spans="3:12" ht="16" x14ac:dyDescent="0.3">
+      <c r="C95" s="206"/>
+      <c r="D95" s="206"/>
+      <c r="E95" s="214" t="s">
+        <v>158</v>
+      </c>
+      <c r="F95" s="206"/>
+      <c r="G95" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="J96" s="33" t="str">
-        <f>工数予実管理表!Y98</f>
-        <v>未着手</v>
-      </c>
-    </row>
-    <row r="97" spans="3:10" ht="16" hidden="1" x14ac:dyDescent="0.3">
-      <c r="C97" s="61" t="s">
-        <v>54</v>
-      </c>
-      <c r="D97" s="61"/>
-      <c r="E97" s="74"/>
-      <c r="G97" s="22" t="s">
-        <v>48</v>
-      </c>
-      <c r="J97" s="33" t="str">
-        <f>工数予実管理表!Y99</f>
-        <v>未着手</v>
-      </c>
-    </row>
-    <row r="98" spans="3:10" ht="16" hidden="1" x14ac:dyDescent="0.3">
-      <c r="C98" s="61" t="s">
-        <v>55</v>
-      </c>
-      <c r="D98" s="61"/>
-      <c r="E98" s="74"/>
-      <c r="G98" s="22" t="s">
-        <v>48</v>
-      </c>
-      <c r="J98" s="33" t="str">
-        <f>工数予実管理表!Y100</f>
-        <v>未着手</v>
-      </c>
-    </row>
-    <row r="99" spans="3:10" ht="16" hidden="1" x14ac:dyDescent="0.3">
-      <c r="C99" s="61" t="s">
-        <v>56</v>
-      </c>
-      <c r="D99" s="61"/>
-      <c r="E99" s="74"/>
+      <c r="I95" s="206"/>
+      <c r="J95" s="33">
+        <f>工数予実管理表!Y51</f>
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="96" spans="3:12" ht="16" x14ac:dyDescent="0.3">
+      <c r="C96" s="210" t="s">
+        <v>128</v>
+      </c>
+      <c r="D96" s="210"/>
+      <c r="E96" s="217" t="s">
+        <v>64</v>
+      </c>
+      <c r="F96" s="210"/>
+      <c r="G96" s="22" t="s">
+        <v>11</v>
+      </c>
+      <c r="H96" s="223"/>
+      <c r="I96" s="223"/>
+      <c r="J96" s="33">
+        <f>工数予実管理表!Y61</f>
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="97" spans="3:10" ht="16" x14ac:dyDescent="0.3">
+      <c r="C97" s="205" t="s">
+        <v>125</v>
+      </c>
+      <c r="D97" s="205"/>
+      <c r="E97" s="215" t="s">
+        <v>65</v>
+      </c>
+      <c r="F97" s="205"/>
+      <c r="G97" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="H97" s="224"/>
+      <c r="I97" s="224"/>
+      <c r="J97" s="33">
+        <f>工数予実管理表!Y62</f>
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="98" spans="3:10" ht="16" x14ac:dyDescent="0.3">
+      <c r="C98" s="210" t="s">
+        <v>90</v>
+      </c>
+      <c r="D98" s="210"/>
+      <c r="E98" s="217" t="s">
+        <v>68</v>
+      </c>
+      <c r="F98" s="210"/>
+      <c r="G98" s="26" t="s">
+        <v>30</v>
+      </c>
+      <c r="H98" s="225"/>
+      <c r="I98" s="225"/>
+      <c r="J98" s="33">
+        <f>工数予実管理表!Y66</f>
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="99" spans="3:10" ht="16" x14ac:dyDescent="0.3">
+      <c r="C99" s="205" t="s">
+        <v>93</v>
+      </c>
+      <c r="D99" s="205"/>
+      <c r="E99" s="215" t="s">
+        <v>72</v>
+      </c>
+      <c r="F99" s="205"/>
       <c r="G99" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="J99" s="33" t="str">
-        <f>工数予実管理表!Y101</f>
-        <v>未着手</v>
+      <c r="H99" s="224"/>
+      <c r="I99" s="224"/>
+      <c r="J99" s="33">
+        <f>工数予実管理表!Y70</f>
+        <v>0.7</v>
       </c>
     </row>
     <row r="100" spans="3:10" ht="16" x14ac:dyDescent="0.3">
-      <c r="C100" s="61" t="s">
-        <v>57</v>
-      </c>
-      <c r="D100" s="61"/>
-      <c r="E100" s="74"/>
-      <c r="G100" s="31" t="s">
+      <c r="C100" s="205" t="s">
+        <v>125</v>
+      </c>
+      <c r="D100" s="212"/>
+      <c r="E100" s="118" t="s">
+        <v>75</v>
+      </c>
+      <c r="F100" s="212"/>
+      <c r="G100" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="H100" s="224"/>
+      <c r="I100" s="224"/>
+      <c r="J100" s="33">
+        <f>工数予実管理表!Y73</f>
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="101" spans="3:10" ht="16" x14ac:dyDescent="0.3">
+      <c r="C101" s="204" t="s">
+        <v>32</v>
+      </c>
+      <c r="D101" s="204"/>
+      <c r="E101" s="74"/>
+      <c r="G101" s="31" t="s">
         <v>14</v>
       </c>
-      <c r="J100" s="33" t="str">
-        <f>工数予実管理表!Y102</f>
-        <v>未着手</v>
-      </c>
-    </row>
-    <row r="101" spans="3:10" ht="16" hidden="1" x14ac:dyDescent="0.3">
-      <c r="C101" s="61" t="s">
-        <v>81</v>
-      </c>
-      <c r="D101" s="61"/>
-      <c r="E101" s="74"/>
-      <c r="G101" s="20" t="s">
-        <v>19</v>
-      </c>
-      <c r="J101" s="33" t="str">
-        <f>工数予実管理表!Y103</f>
-        <v>未着手</v>
-      </c>
-    </row>
-    <row r="102" spans="3:10" ht="16" hidden="1" x14ac:dyDescent="0.3">
-      <c r="C102" s="61" t="s">
-        <v>82</v>
-      </c>
-      <c r="D102" s="61"/>
-      <c r="E102" s="74"/>
-      <c r="G102" s="20" t="s">
-        <v>19</v>
-      </c>
-      <c r="J102" s="33" t="str">
-        <f>工数予実管理表!Y104</f>
-        <v>未着手</v>
+      <c r="J101" s="33">
+        <f>工数予実管理表!Y88</f>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="102" spans="3:10" ht="16" x14ac:dyDescent="0.3">
+      <c r="C102" s="205" t="s">
+        <v>128</v>
+      </c>
+      <c r="D102" s="212"/>
+      <c r="E102" s="118" t="s">
+        <v>74</v>
+      </c>
+      <c r="F102" s="212"/>
+      <c r="G102" s="22" t="s">
+        <v>11</v>
+      </c>
+      <c r="H102" s="223"/>
+      <c r="I102" s="223"/>
+      <c r="J102" s="33">
+        <f>工数予実管理表!Y72</f>
+        <v>0.2</v>
       </c>
     </row>
     <row r="103" spans="3:10" ht="16" x14ac:dyDescent="0.3">
@@ -16437,11 +16551,20 @@
     </row>
   </sheetData>
   <autoFilter ref="C6:J102" xr:uid="{F28E51FA-184A-4C06-B805-6476AA8FA733}">
-    <filterColumn colId="4">
+    <filterColumn colId="7">
       <filters>
-        <filter val="永田"/>
+        <filter val="20%"/>
+        <filter val="50%"/>
+        <filter val="60%"/>
+        <filter val="70%"/>
+        <filter val="80%"/>
+        <filter val="90%"/>
+        <filter val="未着手"/>
       </filters>
     </filterColumn>
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="C40:J102">
+      <sortCondition descending="1" ref="J6:J102"/>
+    </sortState>
   </autoFilter>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -16449,6 +16572,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x010100364AEC801DCCFF4C9A7CD82776573E34" ma:contentTypeVersion="0" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="9a90bd606c73e53fbdca164192b510d5">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="86e6f6c817e23f4348afe6a544d017da">
     <xsd:element name="properties">
@@ -16562,33 +16700,10 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E8C7E73E-37A8-4119-AD2E-81AFBFD39544}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4F999A99-14E0-4A35-8552-0D0111146846}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -16603,9 +16718,17 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4F999A99-14E0-4A35-8552-0D0111146846}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E8C7E73E-37A8-4119-AD2E-81AFBFD39544}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/doc/D4_ドキュメント/予実管理表(最新版)_D4.xlsx
+++ b/doc/D4_ドキュメント/予実管理表(最新版)_D4.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A99EAFE2-9294-4CC2-81F7-6FF2623D1D66}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{312AA825-C03E-4FB6-B24F-4DFE6C4A9E4E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-19310" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="工数予実管理表" sheetId="5" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="869" uniqueCount="162">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="873" uniqueCount="162">
   <si>
     <t>プロジェクト名</t>
     <rPh sb="6" eb="7">
@@ -1712,7 +1712,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="228">
+  <cellXfs count="224">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2217,102 +2217,165 @@
     <xf numFmtId="0" fontId="2" fillId="5" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2321,81 +2384,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2655,7 +2643,7 @@
                   <c:v>0.77114093959731544</c:v>
                 </c:pt>
                 <c:pt idx="11" formatCode="0.0%">
-                  <c:v>0</c:v>
+                  <c:v>0.8375838926174497</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3857,8 +3845,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA4A6EF2-62B9-43FE-BFFD-0A328B128D1B}">
   <dimension ref="A1:BL111"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G54" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="U73" sqref="U73"/>
+    <sheetView topLeftCell="G96" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="V106" sqref="V106"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
@@ -3892,54 +3880,54 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:64" ht="16" x14ac:dyDescent="0.3">
-      <c r="A1" s="190" t="s">
+      <c r="A1" s="209" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="191"/>
-      <c r="C1" s="191"/>
-      <c r="D1" s="191"/>
-      <c r="E1" s="191"/>
-      <c r="F1" s="191"/>
-      <c r="G1" s="191"/>
-      <c r="H1" s="194" t="s">
+      <c r="B1" s="210"/>
+      <c r="C1" s="210"/>
+      <c r="D1" s="210"/>
+      <c r="E1" s="210"/>
+      <c r="F1" s="210"/>
+      <c r="G1" s="210"/>
+      <c r="H1" s="213" t="s">
         <v>1</v>
       </c>
-      <c r="I1" s="195"/>
-      <c r="J1" s="195"/>
-      <c r="K1" s="195"/>
-      <c r="L1" s="195"/>
-      <c r="M1" s="195"/>
-      <c r="N1" s="195"/>
-      <c r="O1" s="195"/>
-      <c r="P1" s="195"/>
-      <c r="Q1" s="195"/>
-      <c r="R1" s="195"/>
-      <c r="S1" s="195"/>
-      <c r="T1" s="195"/>
-      <c r="U1" s="195"/>
-      <c r="V1" s="195"/>
-      <c r="W1" s="195"/>
-      <c r="X1" s="195"/>
-      <c r="Y1" s="195"/>
-      <c r="Z1" s="195"/>
-      <c r="AA1" s="195"/>
-      <c r="AB1" s="195"/>
-      <c r="AC1" s="196"/>
-      <c r="AD1" s="170" t="s">
+      <c r="I1" s="214"/>
+      <c r="J1" s="214"/>
+      <c r="K1" s="214"/>
+      <c r="L1" s="214"/>
+      <c r="M1" s="214"/>
+      <c r="N1" s="214"/>
+      <c r="O1" s="214"/>
+      <c r="P1" s="214"/>
+      <c r="Q1" s="214"/>
+      <c r="R1" s="214"/>
+      <c r="S1" s="214"/>
+      <c r="T1" s="214"/>
+      <c r="U1" s="214"/>
+      <c r="V1" s="214"/>
+      <c r="W1" s="214"/>
+      <c r="X1" s="214"/>
+      <c r="Y1" s="214"/>
+      <c r="Z1" s="214"/>
+      <c r="AA1" s="214"/>
+      <c r="AB1" s="214"/>
+      <c r="AC1" s="215"/>
+      <c r="AD1" s="189" t="s">
         <v>2</v>
       </c>
-      <c r="AE1" s="171"/>
-      <c r="AF1" s="171"/>
-      <c r="AG1" s="172"/>
-      <c r="AH1" s="173">
+      <c r="AE1" s="190"/>
+      <c r="AF1" s="190"/>
+      <c r="AG1" s="191"/>
+      <c r="AH1" s="192">
         <v>45078</v>
       </c>
-      <c r="AI1" s="174"/>
-      <c r="AJ1" s="174"/>
-      <c r="AK1" s="174"/>
-      <c r="AL1" s="174"/>
-      <c r="AM1" s="174"/>
-      <c r="AN1" s="175"/>
+      <c r="AI1" s="193"/>
+      <c r="AJ1" s="193"/>
+      <c r="AK1" s="193"/>
+      <c r="AL1" s="193"/>
+      <c r="AM1" s="193"/>
+      <c r="AN1" s="194"/>
       <c r="AO1" s="1"/>
       <c r="AP1" s="1"/>
       <c r="AQ1" s="1"/>
@@ -3961,50 +3949,50 @@
       <c r="BG1" s="1"/>
     </row>
     <row r="2" spans="1:64" ht="16" x14ac:dyDescent="0.3">
-      <c r="A2" s="192"/>
-      <c r="B2" s="193"/>
-      <c r="C2" s="193"/>
-      <c r="D2" s="193"/>
-      <c r="E2" s="193"/>
-      <c r="F2" s="193"/>
-      <c r="G2" s="193"/>
-      <c r="H2" s="197"/>
-      <c r="I2" s="198"/>
-      <c r="J2" s="198"/>
-      <c r="K2" s="198"/>
-      <c r="L2" s="198"/>
-      <c r="M2" s="198"/>
-      <c r="N2" s="198"/>
-      <c r="O2" s="198"/>
-      <c r="P2" s="198"/>
-      <c r="Q2" s="198"/>
-      <c r="R2" s="198"/>
-      <c r="S2" s="198"/>
-      <c r="T2" s="198"/>
-      <c r="U2" s="198"/>
-      <c r="V2" s="198"/>
-      <c r="W2" s="198"/>
-      <c r="X2" s="198"/>
-      <c r="Y2" s="198"/>
-      <c r="Z2" s="198"/>
-      <c r="AA2" s="198"/>
-      <c r="AB2" s="198"/>
-      <c r="AC2" s="199"/>
-      <c r="AD2" s="170" t="s">
+      <c r="A2" s="211"/>
+      <c r="B2" s="212"/>
+      <c r="C2" s="212"/>
+      <c r="D2" s="212"/>
+      <c r="E2" s="212"/>
+      <c r="F2" s="212"/>
+      <c r="G2" s="212"/>
+      <c r="H2" s="216"/>
+      <c r="I2" s="217"/>
+      <c r="J2" s="217"/>
+      <c r="K2" s="217"/>
+      <c r="L2" s="217"/>
+      <c r="M2" s="217"/>
+      <c r="N2" s="217"/>
+      <c r="O2" s="217"/>
+      <c r="P2" s="217"/>
+      <c r="Q2" s="217"/>
+      <c r="R2" s="217"/>
+      <c r="S2" s="217"/>
+      <c r="T2" s="217"/>
+      <c r="U2" s="217"/>
+      <c r="V2" s="217"/>
+      <c r="W2" s="217"/>
+      <c r="X2" s="217"/>
+      <c r="Y2" s="217"/>
+      <c r="Z2" s="217"/>
+      <c r="AA2" s="217"/>
+      <c r="AB2" s="217"/>
+      <c r="AC2" s="218"/>
+      <c r="AD2" s="189" t="s">
         <v>3</v>
       </c>
-      <c r="AE2" s="171"/>
-      <c r="AF2" s="171"/>
-      <c r="AG2" s="172"/>
-      <c r="AH2" s="173">
+      <c r="AE2" s="190"/>
+      <c r="AF2" s="190"/>
+      <c r="AG2" s="191"/>
+      <c r="AH2" s="192">
         <v>45107</v>
       </c>
-      <c r="AI2" s="174"/>
-      <c r="AJ2" s="174"/>
-      <c r="AK2" s="174"/>
-      <c r="AL2" s="174"/>
-      <c r="AM2" s="174"/>
-      <c r="AN2" s="175"/>
+      <c r="AI2" s="193"/>
+      <c r="AJ2" s="193"/>
+      <c r="AK2" s="193"/>
+      <c r="AL2" s="193"/>
+      <c r="AM2" s="193"/>
+      <c r="AN2" s="194"/>
       <c r="AO2" s="1"/>
       <c r="AP2" s="1"/>
       <c r="AQ2" s="1"/>
@@ -4087,43 +4075,43 @@
       <c r="BG3" s="1"/>
     </row>
     <row r="4" spans="1:64" ht="16" x14ac:dyDescent="0.3">
-      <c r="A4" s="176" t="s">
+      <c r="A4" s="195" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="177"/>
-      <c r="C4" s="180" t="s">
+      <c r="B4" s="196"/>
+      <c r="C4" s="199" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="180"/>
-      <c r="E4" s="180"/>
-      <c r="F4" s="180"/>
-      <c r="G4" s="180"/>
-      <c r="H4" s="180"/>
-      <c r="I4" s="180"/>
-      <c r="J4" s="180"/>
-      <c r="K4" s="180"/>
-      <c r="L4" s="180"/>
-      <c r="M4" s="180"/>
-      <c r="N4" s="180"/>
-      <c r="O4" s="180"/>
-      <c r="P4" s="177" t="s">
+      <c r="D4" s="199"/>
+      <c r="E4" s="199"/>
+      <c r="F4" s="199"/>
+      <c r="G4" s="199"/>
+      <c r="H4" s="199"/>
+      <c r="I4" s="199"/>
+      <c r="J4" s="199"/>
+      <c r="K4" s="199"/>
+      <c r="L4" s="199"/>
+      <c r="M4" s="199"/>
+      <c r="N4" s="199"/>
+      <c r="O4" s="199"/>
+      <c r="P4" s="196" t="s">
         <v>6</v>
       </c>
-      <c r="Q4" s="177"/>
-      <c r="R4" s="177"/>
-      <c r="S4" s="177" t="s">
+      <c r="Q4" s="196"/>
+      <c r="R4" s="196"/>
+      <c r="S4" s="196" t="s">
         <v>7</v>
       </c>
-      <c r="T4" s="177"/>
-      <c r="U4" s="177"/>
-      <c r="V4" s="177"/>
-      <c r="W4" s="177"/>
-      <c r="X4" s="185"/>
-      <c r="Y4" s="181" t="s">
+      <c r="T4" s="196"/>
+      <c r="U4" s="196"/>
+      <c r="V4" s="196"/>
+      <c r="W4" s="196"/>
+      <c r="X4" s="204"/>
+      <c r="Y4" s="200" t="s">
         <v>8</v>
       </c>
-      <c r="Z4" s="181"/>
-      <c r="AA4" s="182"/>
+      <c r="Z4" s="200"/>
+      <c r="AA4" s="201"/>
       <c r="AB4" s="49"/>
       <c r="AC4" s="49"/>
       <c r="AD4" s="5">
@@ -4248,43 +4236,43 @@
       </c>
     </row>
     <row r="5" spans="1:64" ht="16" x14ac:dyDescent="0.3">
-      <c r="A5" s="178"/>
-      <c r="B5" s="179"/>
-      <c r="C5" s="179" t="s">
+      <c r="A5" s="197"/>
+      <c r="B5" s="198"/>
+      <c r="C5" s="198" t="s">
         <v>9</v>
       </c>
-      <c r="D5" s="179"/>
-      <c r="E5" s="179"/>
-      <c r="F5" s="179"/>
-      <c r="G5" s="179"/>
-      <c r="H5" s="186" t="s">
+      <c r="D5" s="198"/>
+      <c r="E5" s="198"/>
+      <c r="F5" s="198"/>
+      <c r="G5" s="198"/>
+      <c r="H5" s="205" t="s">
         <v>115</v>
       </c>
-      <c r="I5" s="187"/>
-      <c r="J5" s="186" t="s">
+      <c r="I5" s="206"/>
+      <c r="J5" s="205" t="s">
         <v>89</v>
       </c>
-      <c r="K5" s="187"/>
+      <c r="K5" s="206"/>
       <c r="L5" s="53"/>
       <c r="M5" s="53"/>
       <c r="N5" s="53"/>
       <c r="O5" s="53"/>
-      <c r="P5" s="179"/>
-      <c r="Q5" s="179"/>
-      <c r="R5" s="179"/>
-      <c r="S5" s="179" t="s">
+      <c r="P5" s="198"/>
+      <c r="Q5" s="198"/>
+      <c r="R5" s="198"/>
+      <c r="S5" s="198" t="s">
         <v>2</v>
       </c>
-      <c r="T5" s="179"/>
-      <c r="U5" s="179"/>
-      <c r="V5" s="179" t="s">
+      <c r="T5" s="198"/>
+      <c r="U5" s="198"/>
+      <c r="V5" s="198" t="s">
         <v>3</v>
       </c>
-      <c r="W5" s="179"/>
-      <c r="X5" s="170"/>
-      <c r="Y5" s="183"/>
-      <c r="Z5" s="183"/>
-      <c r="AA5" s="184"/>
+      <c r="W5" s="198"/>
+      <c r="X5" s="189"/>
+      <c r="Y5" s="202"/>
+      <c r="Z5" s="202"/>
+      <c r="AA5" s="203"/>
       <c r="AB5" s="45" t="s">
         <v>87</v>
       </c>
@@ -4419,33 +4407,33 @@
       </c>
     </row>
     <row r="6" spans="1:64" ht="16" x14ac:dyDescent="0.3">
-      <c r="A6" s="178"/>
-      <c r="B6" s="179"/>
-      <c r="C6" s="179"/>
-      <c r="D6" s="179"/>
-      <c r="E6" s="179"/>
-      <c r="F6" s="179"/>
-      <c r="G6" s="179"/>
-      <c r="H6" s="188"/>
-      <c r="I6" s="189"/>
-      <c r="J6" s="188"/>
-      <c r="K6" s="189"/>
+      <c r="A6" s="197"/>
+      <c r="B6" s="198"/>
+      <c r="C6" s="198"/>
+      <c r="D6" s="198"/>
+      <c r="E6" s="198"/>
+      <c r="F6" s="198"/>
+      <c r="G6" s="198"/>
+      <c r="H6" s="207"/>
+      <c r="I6" s="208"/>
+      <c r="J6" s="207"/>
+      <c r="K6" s="208"/>
       <c r="L6" s="53"/>
       <c r="M6" s="53"/>
       <c r="N6" s="53"/>
       <c r="O6" s="53"/>
-      <c r="P6" s="179"/>
-      <c r="Q6" s="179"/>
-      <c r="R6" s="179"/>
-      <c r="S6" s="179"/>
-      <c r="T6" s="179"/>
-      <c r="U6" s="179"/>
-      <c r="V6" s="179"/>
-      <c r="W6" s="179"/>
-      <c r="X6" s="170"/>
-      <c r="Y6" s="183"/>
-      <c r="Z6" s="183"/>
-      <c r="AA6" s="184"/>
+      <c r="P6" s="198"/>
+      <c r="Q6" s="198"/>
+      <c r="R6" s="198"/>
+      <c r="S6" s="198"/>
+      <c r="T6" s="198"/>
+      <c r="U6" s="198"/>
+      <c r="V6" s="198"/>
+      <c r="W6" s="198"/>
+      <c r="X6" s="189"/>
+      <c r="Y6" s="202"/>
+      <c r="Z6" s="202"/>
+      <c r="AA6" s="203"/>
       <c r="AB6" s="45"/>
       <c r="AC6" s="45"/>
       <c r="AD6" s="11" t="str">
@@ -7534,7 +7522,7 @@
       <c r="W42" s="21"/>
       <c r="X42" s="21"/>
       <c r="Y42" s="40">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="Z42" s="4"/>
       <c r="AA42" s="43"/>
@@ -7543,7 +7531,7 @@
       </c>
       <c r="AC42" s="107">
         <f t="shared" si="4"/>
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="AD42" s="44"/>
       <c r="AE42" s="2"/>
@@ -8197,8 +8185,8 @@
       </c>
       <c r="W50" s="57"/>
       <c r="X50" s="57"/>
-      <c r="Y50" s="148">
-        <v>0.7</v>
+      <c r="Y50" s="148" t="s">
+        <v>116</v>
       </c>
       <c r="Z50" s="57"/>
       <c r="AA50" s="57"/>
@@ -8207,7 +8195,7 @@
       </c>
       <c r="AC50" s="129">
         <f t="shared" si="5"/>
-        <v>0.7</v>
+        <v>1</v>
       </c>
       <c r="AD50" s="57"/>
       <c r="AE50" s="57"/>
@@ -8276,8 +8264,8 @@
       </c>
       <c r="W51" s="57"/>
       <c r="X51" s="57"/>
-      <c r="Y51" s="148">
-        <v>0.7</v>
+      <c r="Y51" s="148" t="s">
+        <v>116</v>
       </c>
       <c r="Z51" s="57"/>
       <c r="AA51" s="57"/>
@@ -8286,7 +8274,7 @@
       </c>
       <c r="AC51" s="129">
         <f t="shared" si="5"/>
-        <v>0.7</v>
+        <v>1</v>
       </c>
       <c r="AD51" s="57"/>
       <c r="AE51" s="57"/>
@@ -9188,7 +9176,7 @@
       <c r="W62" s="21"/>
       <c r="X62" s="21"/>
       <c r="Y62" s="40">
-        <v>0.7</v>
+        <v>0.85</v>
       </c>
       <c r="Z62" s="4"/>
       <c r="AA62" s="43"/>
@@ -9197,7 +9185,7 @@
       </c>
       <c r="AC62" s="107">
         <f t="shared" si="6"/>
-        <v>0.7</v>
+        <v>0.85</v>
       </c>
       <c r="AD62" s="44"/>
       <c r="AE62" s="2"/>
@@ -9407,8 +9395,8 @@
       </c>
     </row>
     <row r="65" spans="1:62" ht="16" x14ac:dyDescent="0.3">
-      <c r="A65" s="168"/>
-      <c r="B65" s="169"/>
+      <c r="A65" s="219"/>
+      <c r="B65" s="220"/>
       <c r="C65" s="19"/>
       <c r="D65" s="19"/>
       <c r="E65" s="19"/>
@@ -9441,8 +9429,8 @@
       </c>
       <c r="W65" s="21"/>
       <c r="X65" s="21"/>
-      <c r="Y65" s="40">
-        <v>0.9</v>
+      <c r="Y65" s="40" t="s">
+        <v>116</v>
       </c>
       <c r="Z65" s="4"/>
       <c r="AA65" s="43"/>
@@ -9451,7 +9439,7 @@
       </c>
       <c r="AC65" s="107">
         <f t="shared" si="6"/>
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="AD65" s="44"/>
       <c r="AE65" s="2"/>
@@ -9491,8 +9479,8 @@
       </c>
     </row>
     <row r="66" spans="1:62" ht="16" x14ac:dyDescent="0.3">
-      <c r="A66" s="168"/>
-      <c r="B66" s="169"/>
+      <c r="A66" s="219"/>
+      <c r="B66" s="220"/>
       <c r="C66" s="19"/>
       <c r="D66" s="19"/>
       <c r="E66" s="19"/>
@@ -9526,7 +9514,7 @@
       <c r="W66" s="21"/>
       <c r="X66" s="21"/>
       <c r="Y66" s="25">
-        <v>0.7</v>
+        <v>0.9</v>
       </c>
       <c r="Z66" s="4"/>
       <c r="AA66" s="43"/>
@@ -9535,7 +9523,7 @@
       </c>
       <c r="AC66" s="107">
         <f t="shared" si="6"/>
-        <v>0.7</v>
+        <v>0.9</v>
       </c>
       <c r="AD66" s="44"/>
       <c r="AE66" s="2"/>
@@ -9575,8 +9563,8 @@
       </c>
     </row>
     <row r="67" spans="1:62" ht="16" x14ac:dyDescent="0.3">
-      <c r="A67" s="168"/>
-      <c r="B67" s="169"/>
+      <c r="A67" s="219"/>
+      <c r="B67" s="220"/>
       <c r="C67" s="19"/>
       <c r="D67" s="19"/>
       <c r="E67" s="19"/>
@@ -9659,8 +9647,8 @@
       </c>
     </row>
     <row r="68" spans="1:62" ht="16" x14ac:dyDescent="0.3">
-      <c r="A68" s="168"/>
-      <c r="B68" s="169"/>
+      <c r="A68" s="219"/>
+      <c r="B68" s="220"/>
       <c r="C68" s="19"/>
       <c r="D68" s="19"/>
       <c r="E68" s="19"/>
@@ -9743,8 +9731,8 @@
       </c>
     </row>
     <row r="69" spans="1:62" ht="16" x14ac:dyDescent="0.3">
-      <c r="A69" s="168"/>
-      <c r="B69" s="169"/>
+      <c r="A69" s="219"/>
+      <c r="B69" s="220"/>
       <c r="C69" s="19"/>
       <c r="D69" s="19"/>
       <c r="E69" s="19"/>
@@ -10030,7 +10018,7 @@
       <c r="W72" s="21"/>
       <c r="X72" s="21"/>
       <c r="Y72" s="40">
-        <v>0.2</v>
+        <v>0.5</v>
       </c>
       <c r="Z72" s="55" t="s">
         <v>117</v>
@@ -10043,7 +10031,7 @@
       </c>
       <c r="AC72" s="107">
         <f t="shared" si="6"/>
-        <v>0.2</v>
+        <v>0.5</v>
       </c>
       <c r="AD72" s="44"/>
       <c r="AE72" s="2"/>
@@ -10118,7 +10106,7 @@
       <c r="W73" s="21"/>
       <c r="X73" s="21"/>
       <c r="Y73" s="40">
-        <v>0.7</v>
+        <v>0.9</v>
       </c>
       <c r="Z73" s="55" t="s">
         <v>117</v>
@@ -10131,7 +10119,7 @@
       </c>
       <c r="AC73" s="107">
         <f t="shared" si="6"/>
-        <v>0.7</v>
+        <v>0.9</v>
       </c>
       <c r="AD73" s="44"/>
       <c r="AE73" s="2"/>
@@ -11475,15 +11463,15 @@
       </c>
       <c r="W88" s="65"/>
       <c r="X88" s="65"/>
-      <c r="Y88" s="54">
-        <v>0.5</v>
+      <c r="Y88" s="54" t="s">
+        <v>116</v>
       </c>
       <c r="AB88">
         <v>3</v>
       </c>
       <c r="AC88" s="107">
         <f t="shared" si="7"/>
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="AD88" s="57"/>
       <c r="AE88" s="57"/>
@@ -11904,14 +11892,14 @@
       <c r="W94" s="67"/>
       <c r="X94" s="67"/>
       <c r="Y94" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="AB94">
         <v>2</v>
       </c>
       <c r="AC94" s="107">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD94" s="57"/>
       <c r="AE94" s="57"/>
@@ -11975,14 +11963,14 @@
       <c r="W95" s="67"/>
       <c r="X95" s="67"/>
       <c r="Y95" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="AB95">
         <v>2</v>
       </c>
       <c r="AC95" s="107">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD95" s="57"/>
       <c r="AE95" s="57"/>
@@ -12472,14 +12460,14 @@
       <c r="W102" s="67"/>
       <c r="X102" s="67"/>
       <c r="Y102" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="AB102">
         <v>2</v>
       </c>
       <c r="AC102" s="107">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD102" s="57"/>
       <c r="AE102" s="57"/>
@@ -12543,14 +12531,14 @@
       <c r="W103" s="67"/>
       <c r="X103" s="67"/>
       <c r="Y103" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="AB103">
         <v>2</v>
       </c>
       <c r="AC103" s="107">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD103" s="57"/>
       <c r="AE103" s="57"/>
@@ -12614,14 +12602,14 @@
       <c r="W104" s="67"/>
       <c r="X104" s="67"/>
       <c r="Y104" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="AB104">
         <v>2</v>
       </c>
       <c r="AC104" s="107">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD104" s="57"/>
       <c r="AE104" s="57"/>
@@ -12867,6 +12855,11 @@
     </row>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="A69:B69"/>
+    <mergeCell ref="A68:B68"/>
+    <mergeCell ref="A67:B67"/>
+    <mergeCell ref="A66:B66"/>
+    <mergeCell ref="A65:B65"/>
     <mergeCell ref="AD1:AG1"/>
     <mergeCell ref="AH1:AN1"/>
     <mergeCell ref="AD2:AG2"/>
@@ -12883,11 +12876,6 @@
     <mergeCell ref="J5:K6"/>
     <mergeCell ref="A1:G2"/>
     <mergeCell ref="H1:AC2"/>
-    <mergeCell ref="A69:B69"/>
-    <mergeCell ref="A68:B68"/>
-    <mergeCell ref="A67:B67"/>
-    <mergeCell ref="A66:B66"/>
-    <mergeCell ref="A65:B65"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="AD5:AD6">
@@ -12920,8 +12908,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7BC30043-DC99-4AC1-B9B7-184E5B4C9BD6}">
   <dimension ref="A1:T21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K10" sqref="K10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L9" sqref="L9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
@@ -13093,7 +13081,7 @@
       </c>
       <c r="M3" s="88">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.8375838926174497</v>
       </c>
       <c r="N3" s="88">
         <f t="shared" si="0"/>
@@ -13337,7 +13325,9 @@
       <c r="L7" s="91">
         <v>229.8</v>
       </c>
-      <c r="M7" s="91"/>
+      <c r="M7" s="91">
+        <v>249.6</v>
+      </c>
       <c r="N7" s="90"/>
       <c r="O7" s="90"/>
       <c r="P7" s="91"/>
@@ -13349,63 +13339,63 @@
     <row r="8" spans="1:20" x14ac:dyDescent="0.3">
       <c r="F8">
         <f>Sheet3!$F$101</f>
-        <v>229.79999999999998</v>
+        <v>249.54999999999998</v>
       </c>
       <c r="G8">
         <f>Sheet3!$F$101</f>
-        <v>229.79999999999998</v>
+        <v>249.54999999999998</v>
       </c>
       <c r="H8">
         <f>Sheet3!$F$101</f>
-        <v>229.79999999999998</v>
+        <v>249.54999999999998</v>
       </c>
       <c r="I8">
         <f>Sheet3!$F$101</f>
-        <v>229.79999999999998</v>
+        <v>249.54999999999998</v>
       </c>
       <c r="J8">
         <f>Sheet3!$F$101</f>
-        <v>229.79999999999998</v>
+        <v>249.54999999999998</v>
       </c>
       <c r="K8">
         <f>Sheet3!$F$101</f>
-        <v>229.79999999999998</v>
+        <v>249.54999999999998</v>
       </c>
       <c r="L8">
         <f>Sheet3!$F$101</f>
-        <v>229.79999999999998</v>
+        <v>249.54999999999998</v>
       </c>
       <c r="M8">
         <f>Sheet3!$F$101</f>
-        <v>229.79999999999998</v>
+        <v>249.54999999999998</v>
       </c>
       <c r="N8">
         <f>Sheet3!$F$101</f>
-        <v>229.79999999999998</v>
+        <v>249.54999999999998</v>
       </c>
       <c r="O8">
         <f>Sheet3!$F$101</f>
-        <v>229.79999999999998</v>
+        <v>249.54999999999998</v>
       </c>
       <c r="P8">
         <f>Sheet3!$F$101</f>
-        <v>229.79999999999998</v>
+        <v>249.54999999999998</v>
       </c>
       <c r="Q8">
         <f>Sheet3!$F$101</f>
-        <v>229.79999999999998</v>
+        <v>249.54999999999998</v>
       </c>
       <c r="R8">
         <f>Sheet3!$F$101</f>
-        <v>229.79999999999998</v>
+        <v>249.54999999999998</v>
       </c>
       <c r="S8">
         <f>Sheet3!$F$101</f>
-        <v>229.79999999999998</v>
+        <v>249.54999999999998</v>
       </c>
       <c r="T8">
         <f>Sheet3!$F$101</f>
-        <v>229.79999999999998</v>
+        <v>249.54999999999998</v>
       </c>
     </row>
     <row r="9" spans="1:20" x14ac:dyDescent="0.3">
@@ -13476,15 +13466,15 @@
   <sheetData>
     <row r="2" spans="4:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D2" s="1"/>
-      <c r="E2" s="186" t="s">
+      <c r="E2" s="205" t="s">
         <v>89</v>
       </c>
-      <c r="F2" s="187"/>
+      <c r="F2" s="206"/>
     </row>
     <row r="3" spans="4:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D3" s="1"/>
-      <c r="E3" s="201"/>
-      <c r="F3" s="202"/>
+      <c r="E3" s="222"/>
+      <c r="F3" s="223"/>
     </row>
     <row r="4" spans="4:6" ht="16" x14ac:dyDescent="0.3">
       <c r="D4" s="68"/>
@@ -13823,12 +13813,12 @@
       </c>
       <c r="F37" s="69">
         <f>工数予実管理表!AB42*工数予実管理表!AC42</f>
-        <v>2.0999999999999996</v>
+        <v>2.4000000000000004</v>
       </c>
     </row>
     <row r="38" spans="3:6" ht="16" x14ac:dyDescent="0.3">
-      <c r="C38" s="200"/>
-      <c r="D38" s="200"/>
+      <c r="C38" s="221"/>
+      <c r="D38" s="221"/>
       <c r="E38" s="69" t="s">
         <v>55</v>
       </c>
@@ -13838,8 +13828,8 @@
       </c>
     </row>
     <row r="39" spans="3:6" ht="16" x14ac:dyDescent="0.3">
-      <c r="C39" s="200"/>
-      <c r="D39" s="200"/>
+      <c r="C39" s="221"/>
+      <c r="D39" s="221"/>
       <c r="E39" s="69" t="s">
         <v>56</v>
       </c>
@@ -13905,7 +13895,7 @@
       <c r="E45" s="57"/>
       <c r="F45" s="69">
         <f>工数予実管理表!AB50*工数予実管理表!AC50</f>
-        <v>2.0999999999999996</v>
+        <v>3</v>
       </c>
     </row>
     <row r="46" spans="3:6" ht="16" x14ac:dyDescent="0.3">
@@ -13914,7 +13904,7 @@
       <c r="E46" s="57"/>
       <c r="F46" s="69">
         <f>工数予実管理表!AB51*工数予実管理表!AC51</f>
-        <v>2.0999999999999996</v>
+        <v>3</v>
       </c>
     </row>
     <row r="47" spans="3:6" ht="16" x14ac:dyDescent="0.3">
@@ -14031,7 +14021,7 @@
       </c>
       <c r="F57" s="69">
         <f>工数予実管理表!AB62*工数予実管理表!AC62</f>
-        <v>4.8999999999999995</v>
+        <v>5.95</v>
       </c>
     </row>
     <row r="58" spans="3:6" ht="16" x14ac:dyDescent="0.3">
@@ -14064,7 +14054,7 @@
       </c>
       <c r="F60" s="69">
         <f>工数予実管理表!AB65*工数予実管理表!AC65</f>
-        <v>3.6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="61" spans="3:6" ht="16" x14ac:dyDescent="0.3">
@@ -14075,7 +14065,7 @@
       </c>
       <c r="F61" s="69">
         <f>工数予実管理表!AB66*工数予実管理表!AC66</f>
-        <v>5.6</v>
+        <v>7.2</v>
       </c>
     </row>
     <row r="62" spans="3:6" ht="16" x14ac:dyDescent="0.3">
@@ -14141,7 +14131,7 @@
       </c>
       <c r="F67" s="69">
         <f>工数予実管理表!AB72*工数予実管理表!AC72</f>
-        <v>1.4000000000000001</v>
+        <v>3.5</v>
       </c>
     </row>
     <row r="68" spans="3:6" ht="16" x14ac:dyDescent="0.3">
@@ -14152,7 +14142,7 @@
       </c>
       <c r="F68" s="69">
         <f>工数予実管理表!AB73*工数予実管理表!AC73</f>
-        <v>3.5</v>
+        <v>4.5</v>
       </c>
     </row>
     <row r="69" spans="3:6" ht="16" x14ac:dyDescent="0.3">
@@ -14317,7 +14307,7 @@
       </c>
       <c r="F83" s="69">
         <f>工数予実管理表!AB88*工数予実管理表!AC88</f>
-        <v>1.5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="84" spans="3:6" ht="16" x14ac:dyDescent="0.3">
@@ -14383,7 +14373,7 @@
       </c>
       <c r="F89" s="69">
         <f>工数予実管理表!AB94*工数予実管理表!AC94</f>
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="90" spans="3:6" ht="16" x14ac:dyDescent="0.3">
@@ -14394,7 +14384,7 @@
       </c>
       <c r="F90" s="69">
         <f>工数予実管理表!AB95*工数予実管理表!AC95</f>
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="91" spans="3:6" ht="16" x14ac:dyDescent="0.3">
@@ -14471,7 +14461,7 @@
       </c>
       <c r="F97" s="69">
         <f>工数予実管理表!AB102*工数予実管理表!AC102</f>
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="98" spans="3:6" ht="16" x14ac:dyDescent="0.3">
@@ -14482,7 +14472,7 @@
       </c>
       <c r="F98" s="69">
         <f>工数予実管理表!AB103*工数予実管理表!AC103</f>
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="99" spans="3:6" ht="16" x14ac:dyDescent="0.3">
@@ -14493,7 +14483,7 @@
       </c>
       <c r="F99" s="69">
         <f>工数予実管理表!AB104*工数予実管理表!AC104</f>
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="100" spans="3:6" ht="16" x14ac:dyDescent="0.3">
@@ -14510,7 +14500,7 @@
     <row r="101" spans="3:6" x14ac:dyDescent="0.3">
       <c r="F101" s="111">
         <f>SUM(F4:F100)</f>
-        <v>229.79999999999998</v>
+        <v>249.54999999999998</v>
       </c>
     </row>
   </sheetData>
@@ -15366,10 +15356,10 @@
       <c r="L43" s="43"/>
     </row>
     <row r="44" spans="3:12" ht="16" x14ac:dyDescent="0.3">
-      <c r="C44" s="203" t="s">
+      <c r="C44" s="168" t="s">
         <v>20</v>
       </c>
-      <c r="D44" s="203"/>
+      <c r="D44" s="168"/>
       <c r="E44" s="43"/>
       <c r="F44" s="28" t="s">
         <v>20</v>
@@ -15391,10 +15381,10 @@
       <c r="L44" s="43"/>
     </row>
     <row r="45" spans="3:12" ht="16" x14ac:dyDescent="0.3">
-      <c r="C45" s="209" t="s">
+      <c r="C45" s="171" t="s">
         <v>21</v>
       </c>
-      <c r="D45" s="209"/>
+      <c r="D45" s="171"/>
       <c r="E45" s="127"/>
       <c r="F45" s="161" t="s">
         <v>21</v>
@@ -15461,7 +15451,7 @@
       <c r="G48" s="124" t="s">
         <v>19</v>
       </c>
-      <c r="H48" s="224" t="s">
+      <c r="H48" s="185" t="s">
         <v>19</v>
       </c>
       <c r="I48" s="146" t="s">
@@ -15482,13 +15472,13 @@
       <c r="F49" s="69" t="s">
         <v>23</v>
       </c>
-      <c r="G49" s="222" t="s">
+      <c r="G49" s="183" t="s">
         <v>29</v>
       </c>
-      <c r="H49" s="226" t="s">
+      <c r="H49" s="187" t="s">
         <v>29</v>
       </c>
-      <c r="I49" s="227" t="s">
+      <c r="I49" s="188" t="s">
         <v>29</v>
       </c>
       <c r="J49" s="33" t="str">
@@ -15637,10 +15627,10 @@
       <c r="L56" s="43"/>
     </row>
     <row r="57" spans="3:12" ht="16" x14ac:dyDescent="0.3">
-      <c r="C57" s="203" t="s">
+      <c r="C57" s="168" t="s">
         <v>24</v>
       </c>
-      <c r="D57" s="203"/>
+      <c r="D57" s="168"/>
       <c r="E57" s="43"/>
       <c r="F57" s="28" t="s">
         <v>24</v>
@@ -15901,15 +15891,15 @@
       </c>
       <c r="D68" s="11"/>
       <c r="E68" s="4"/>
-      <c r="F68" s="220"/>
+      <c r="F68" s="181"/>
       <c r="G68" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="H68" s="220"/>
-      <c r="I68" s="220"/>
+      <c r="H68" s="181"/>
+      <c r="I68" s="181"/>
       <c r="J68" s="33" t="str">
         <f>工数予実管理表!Y94</f>
-        <v>未着手</v>
+        <v>完了</v>
       </c>
       <c r="K68" s="4"/>
       <c r="L68" s="43"/>
@@ -15920,15 +15910,15 @@
       </c>
       <c r="D69" s="11"/>
       <c r="E69" s="4"/>
-      <c r="F69" s="220"/>
+      <c r="F69" s="181"/>
       <c r="G69" s="31" t="s">
         <v>14</v>
       </c>
-      <c r="H69" s="220"/>
-      <c r="I69" s="220"/>
+      <c r="H69" s="181"/>
+      <c r="I69" s="181"/>
       <c r="J69" s="33" t="str">
         <f>工数予実管理表!Y95</f>
-        <v>未着手</v>
+        <v>完了</v>
       </c>
       <c r="K69" s="4"/>
       <c r="L69" s="43"/>
@@ -15939,12 +15929,12 @@
       </c>
       <c r="D70" s="11"/>
       <c r="E70" s="4"/>
-      <c r="F70" s="220"/>
+      <c r="F70" s="181"/>
       <c r="G70" s="31" t="s">
         <v>14</v>
       </c>
-      <c r="H70" s="220"/>
-      <c r="I70" s="220"/>
+      <c r="H70" s="181"/>
+      <c r="I70" s="181"/>
       <c r="J70" s="33" t="str">
         <f>工数予実管理表!Y96</f>
         <v>未着手</v>
@@ -15958,12 +15948,12 @@
       </c>
       <c r="D71" s="11"/>
       <c r="E71" s="4"/>
-      <c r="F71" s="220"/>
+      <c r="F71" s="181"/>
       <c r="G71" s="24" t="s">
         <v>29</v>
       </c>
-      <c r="H71" s="220"/>
-      <c r="I71" s="220"/>
+      <c r="H71" s="181"/>
+      <c r="I71" s="181"/>
       <c r="J71" s="33" t="str">
         <f>工数予実管理表!Y97</f>
         <v>未着手</v>
@@ -16001,17 +15991,17 @@
       </c>
     </row>
     <row r="73" spans="3:12" ht="16" x14ac:dyDescent="0.3">
-      <c r="C73" s="211" t="s">
+      <c r="C73" s="173" t="s">
         <v>53</v>
       </c>
-      <c r="D73" s="213"/>
-      <c r="E73" s="218"/>
-      <c r="F73" s="220"/>
+      <c r="D73" s="174"/>
+      <c r="E73" s="179"/>
+      <c r="F73" s="181"/>
       <c r="G73" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="H73" s="220"/>
-      <c r="I73" s="220"/>
+      <c r="H73" s="181"/>
+      <c r="I73" s="181"/>
       <c r="J73" s="33" t="str">
         <f>工数予実管理表!Y98</f>
         <v>未着手</v>
@@ -16025,12 +16015,12 @@
       </c>
       <c r="D74" s="76"/>
       <c r="E74" s="76"/>
-      <c r="F74" s="219"/>
+      <c r="F74" s="180"/>
       <c r="G74" s="22" t="s">
         <v>48</v>
       </c>
-      <c r="H74" s="220"/>
-      <c r="I74" s="220"/>
+      <c r="H74" s="181"/>
+      <c r="I74" s="181"/>
       <c r="J74" s="33" t="str">
         <f>工数予実管理表!Y99</f>
         <v>未着手</v>
@@ -16044,12 +16034,12 @@
       </c>
       <c r="D75" s="76"/>
       <c r="E75" s="76"/>
-      <c r="F75" s="219"/>
+      <c r="F75" s="180"/>
       <c r="G75" s="22" t="s">
         <v>48</v>
       </c>
-      <c r="H75" s="220"/>
-      <c r="I75" s="220"/>
+      <c r="H75" s="181"/>
+      <c r="I75" s="181"/>
       <c r="J75" s="33" t="str">
         <f>工数予実管理表!Y100</f>
         <v>未着手</v>
@@ -16063,12 +16053,12 @@
       </c>
       <c r="D76" s="76"/>
       <c r="E76" s="76"/>
-      <c r="F76" s="219"/>
+      <c r="F76" s="180"/>
       <c r="G76" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="H76" s="220"/>
-      <c r="I76" s="220"/>
+      <c r="H76" s="181"/>
+      <c r="I76" s="181"/>
       <c r="J76" s="33" t="str">
         <f>工数予実管理表!Y101</f>
         <v>未着手</v>
@@ -16082,15 +16072,15 @@
       </c>
       <c r="D77" s="76"/>
       <c r="E77" s="76"/>
-      <c r="F77" s="219"/>
+      <c r="F77" s="180"/>
       <c r="G77" s="31" t="s">
         <v>14</v>
       </c>
-      <c r="H77" s="220"/>
-      <c r="I77" s="220"/>
+      <c r="H77" s="181"/>
+      <c r="I77" s="181"/>
       <c r="J77" s="33" t="str">
         <f>工数予実管理表!Y102</f>
-        <v>未着手</v>
+        <v>完了</v>
       </c>
       <c r="K77" s="4"/>
       <c r="L77" s="43"/>
@@ -16101,15 +16091,15 @@
       </c>
       <c r="D78" s="76"/>
       <c r="E78" s="76"/>
-      <c r="F78" s="219"/>
+      <c r="F78" s="180"/>
       <c r="G78" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="H78" s="220"/>
-      <c r="I78" s="220"/>
+      <c r="H78" s="181"/>
+      <c r="I78" s="181"/>
       <c r="J78" s="33" t="str">
         <f>工数予実管理表!Y103</f>
-        <v>未着手</v>
+        <v>完了</v>
       </c>
       <c r="K78" s="4"/>
       <c r="L78" s="43"/>
@@ -16120,25 +16110,25 @@
       </c>
       <c r="D79" s="76"/>
       <c r="E79" s="76"/>
-      <c r="F79" s="219"/>
+      <c r="F79" s="180"/>
       <c r="G79" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="H79" s="220"/>
-      <c r="I79" s="220"/>
+      <c r="H79" s="181"/>
+      <c r="I79" s="181"/>
       <c r="J79" s="33" t="str">
         <f>工数予実管理表!Y104</f>
-        <v>未着手</v>
+        <v>完了</v>
       </c>
       <c r="K79" s="4"/>
       <c r="L79" s="43"/>
     </row>
     <row r="80" spans="3:12" ht="16" x14ac:dyDescent="0.3">
-      <c r="C80" s="208" t="s">
+      <c r="C80" s="170" t="s">
         <v>112</v>
       </c>
-      <c r="D80" s="208"/>
-      <c r="E80" s="208" t="s">
+      <c r="D80" s="170"/>
+      <c r="E80" s="170" t="s">
         <v>81</v>
       </c>
       <c r="F80" s="42"/>
@@ -16155,11 +16145,11 @@
       <c r="L80" s="43"/>
     </row>
     <row r="81" spans="3:12" ht="16" x14ac:dyDescent="0.3">
-      <c r="C81" s="208" t="s">
+      <c r="C81" s="170" t="s">
         <v>113</v>
       </c>
-      <c r="D81" s="208"/>
-      <c r="E81" s="208" t="s">
+      <c r="D81" s="170"/>
+      <c r="E81" s="170" t="s">
         <v>82</v>
       </c>
       <c r="F81" s="42"/>
@@ -16183,7 +16173,7 @@
       <c r="E82" s="70" t="s">
         <v>66</v>
       </c>
-      <c r="F82" s="221"/>
+      <c r="F82" s="182"/>
       <c r="G82" s="26" t="s">
         <v>30</v>
       </c>
@@ -16210,9 +16200,9 @@
       </c>
       <c r="H83" s="19"/>
       <c r="I83" s="27"/>
-      <c r="J83" s="33">
+      <c r="J83" s="33" t="str">
         <f>工数予実管理表!Y65</f>
-        <v>0.9</v>
+        <v>完了</v>
       </c>
       <c r="K83" s="39"/>
       <c r="L83" s="52"/>
@@ -16258,12 +16248,12 @@
       <c r="E86" s="70" t="s">
         <v>63</v>
       </c>
-      <c r="F86" s="210"/>
+      <c r="F86" s="172"/>
       <c r="G86" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="H86" s="223"/>
-      <c r="I86" s="223"/>
+      <c r="H86" s="184"/>
+      <c r="I86" s="184"/>
       <c r="J86" s="33">
         <f>工数予実管理表!Y60</f>
         <v>0.8</v>
@@ -16340,201 +16330,193 @@
       </c>
     </row>
     <row r="92" spans="3:12" ht="16" x14ac:dyDescent="0.3">
-      <c r="C92" s="205" t="s">
+      <c r="C92" s="68" t="s">
         <v>129</v>
       </c>
-      <c r="D92" s="212"/>
+      <c r="D92" s="1"/>
       <c r="E92" s="118" t="s">
         <v>73</v>
       </c>
-      <c r="F92" s="212"/>
+      <c r="F92" s="1"/>
       <c r="G92" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="H92" s="223"/>
-      <c r="I92" s="223"/>
+      <c r="H92" s="184"/>
+      <c r="I92" s="184"/>
       <c r="J92" s="33">
         <f>工数予実管理表!Y71</f>
         <v>0.8</v>
       </c>
     </row>
     <row r="93" spans="3:12" ht="16" x14ac:dyDescent="0.3">
-      <c r="C93" s="207" t="s">
+      <c r="C93" s="169" t="s">
         <v>124</v>
       </c>
-      <c r="D93" s="207"/>
-      <c r="E93" s="216" t="s">
+      <c r="D93" s="169"/>
+      <c r="E93" s="177" t="s">
         <v>54</v>
       </c>
-      <c r="F93" s="205"/>
+      <c r="F93" s="68"/>
       <c r="G93" s="22" t="s">
         <v>48</v>
       </c>
-      <c r="H93" s="224"/>
-      <c r="I93" s="224"/>
+      <c r="H93" s="185"/>
+      <c r="I93" s="185"/>
       <c r="J93" s="33">
         <f>工数予実管理表!Y42</f>
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="94" spans="3:12" ht="16" x14ac:dyDescent="0.3">
-      <c r="C94" s="206"/>
-      <c r="D94" s="206"/>
-      <c r="E94" s="214" t="s">
+      <c r="E94" s="175" t="s">
         <v>157</v>
       </c>
-      <c r="F94" s="206"/>
       <c r="G94" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="I94" s="206"/>
-      <c r="J94" s="33">
+      <c r="J94" s="33" t="str">
         <f>工数予実管理表!Y50</f>
-        <v>0.7</v>
+        <v>完了</v>
       </c>
     </row>
     <row r="95" spans="3:12" ht="16" x14ac:dyDescent="0.3">
-      <c r="C95" s="206"/>
-      <c r="D95" s="206"/>
-      <c r="E95" s="214" t="s">
+      <c r="E95" s="175" t="s">
         <v>158</v>
       </c>
-      <c r="F95" s="206"/>
       <c r="G95" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="I95" s="206"/>
-      <c r="J95" s="33">
+      <c r="J95" s="33" t="str">
         <f>工数予実管理表!Y51</f>
-        <v>0.7</v>
+        <v>完了</v>
       </c>
     </row>
     <row r="96" spans="3:12" ht="16" x14ac:dyDescent="0.3">
-      <c r="C96" s="210" t="s">
+      <c r="C96" s="172" t="s">
         <v>128</v>
       </c>
-      <c r="D96" s="210"/>
-      <c r="E96" s="217" t="s">
+      <c r="D96" s="172"/>
+      <c r="E96" s="178" t="s">
         <v>64</v>
       </c>
-      <c r="F96" s="210"/>
+      <c r="F96" s="172"/>
       <c r="G96" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="H96" s="223"/>
-      <c r="I96" s="223"/>
+      <c r="H96" s="184"/>
+      <c r="I96" s="184"/>
       <c r="J96" s="33">
         <f>工数予実管理表!Y61</f>
         <v>0.7</v>
       </c>
     </row>
     <row r="97" spans="3:10" ht="16" x14ac:dyDescent="0.3">
-      <c r="C97" s="205" t="s">
+      <c r="C97" s="68" t="s">
         <v>125</v>
       </c>
-      <c r="D97" s="205"/>
-      <c r="E97" s="215" t="s">
+      <c r="D97" s="68"/>
+      <c r="E97" s="176" t="s">
         <v>65</v>
       </c>
-      <c r="F97" s="205"/>
+      <c r="F97" s="68"/>
       <c r="G97" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="H97" s="224"/>
-      <c r="I97" s="224"/>
+      <c r="H97" s="185"/>
+      <c r="I97" s="185"/>
       <c r="J97" s="33">
         <f>工数予実管理表!Y62</f>
-        <v>0.7</v>
+        <v>0.85</v>
       </c>
     </row>
     <row r="98" spans="3:10" ht="16" x14ac:dyDescent="0.3">
-      <c r="C98" s="210" t="s">
+      <c r="C98" s="172" t="s">
         <v>90</v>
       </c>
-      <c r="D98" s="210"/>
-      <c r="E98" s="217" t="s">
+      <c r="D98" s="172"/>
+      <c r="E98" s="178" t="s">
         <v>68</v>
       </c>
-      <c r="F98" s="210"/>
+      <c r="F98" s="172"/>
       <c r="G98" s="26" t="s">
         <v>30</v>
       </c>
-      <c r="H98" s="225"/>
-      <c r="I98" s="225"/>
+      <c r="H98" s="186"/>
+      <c r="I98" s="186"/>
       <c r="J98" s="33">
         <f>工数予実管理表!Y66</f>
-        <v>0.7</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="99" spans="3:10" ht="16" x14ac:dyDescent="0.3">
-      <c r="C99" s="205" t="s">
+      <c r="C99" s="68" t="s">
         <v>93</v>
       </c>
-      <c r="D99" s="205"/>
-      <c r="E99" s="215" t="s">
+      <c r="D99" s="68"/>
+      <c r="E99" s="176" t="s">
         <v>72</v>
       </c>
-      <c r="F99" s="205"/>
+      <c r="F99" s="68"/>
       <c r="G99" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="H99" s="224"/>
-      <c r="I99" s="224"/>
+      <c r="H99" s="185"/>
+      <c r="I99" s="185"/>
       <c r="J99" s="33">
         <f>工数予実管理表!Y70</f>
         <v>0.7</v>
       </c>
     </row>
     <row r="100" spans="3:10" ht="16" x14ac:dyDescent="0.3">
-      <c r="C100" s="205" t="s">
+      <c r="C100" s="68" t="s">
         <v>125</v>
       </c>
-      <c r="D100" s="212"/>
+      <c r="D100" s="1"/>
       <c r="E100" s="118" t="s">
         <v>75</v>
       </c>
-      <c r="F100" s="212"/>
+      <c r="F100" s="1"/>
       <c r="G100" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="H100" s="224"/>
-      <c r="I100" s="224"/>
+      <c r="H100" s="185"/>
+      <c r="I100" s="185"/>
       <c r="J100" s="33">
         <f>工数予実管理表!Y73</f>
-        <v>0.7</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="101" spans="3:10" ht="16" x14ac:dyDescent="0.3">
-      <c r="C101" s="204" t="s">
+      <c r="C101" s="61" t="s">
         <v>32</v>
       </c>
-      <c r="D101" s="204"/>
+      <c r="D101" s="61"/>
       <c r="E101" s="74"/>
       <c r="G101" s="31" t="s">
         <v>14</v>
       </c>
-      <c r="J101" s="33">
+      <c r="J101" s="33" t="str">
         <f>工数予実管理表!Y88</f>
-        <v>0.5</v>
+        <v>完了</v>
       </c>
     </row>
     <row r="102" spans="3:10" ht="16" x14ac:dyDescent="0.3">
-      <c r="C102" s="205" t="s">
+      <c r="C102" s="68" t="s">
         <v>128</v>
       </c>
-      <c r="D102" s="212"/>
+      <c r="D102" s="1"/>
       <c r="E102" s="118" t="s">
         <v>74</v>
       </c>
-      <c r="F102" s="212"/>
+      <c r="F102" s="1"/>
       <c r="G102" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="H102" s="223"/>
-      <c r="I102" s="223"/>
+      <c r="H102" s="184"/>
+      <c r="I102" s="184"/>
       <c r="J102" s="33">
         <f>工数予実管理表!Y72</f>
-        <v>0.2</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="103" spans="3:10" ht="16" x14ac:dyDescent="0.3">
@@ -16572,21 +16554,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x010100364AEC801DCCFF4C9A7CD82776573E34" ma:contentTypeVersion="0" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="9a90bd606c73e53fbdca164192b510d5">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="86e6f6c817e23f4348afe6a544d017da">
     <xsd:element name="properties">
@@ -16700,10 +16667,33 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4F999A99-14E0-4A35-8552-0D0111146846}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E8C7E73E-37A8-4119-AD2E-81AFBFD39544}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -16718,17 +16708,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E8C7E73E-37A8-4119-AD2E-81AFBFD39544}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4F999A99-14E0-4A35-8552-0D0111146846}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/doc/D4_ドキュメント/予実管理表(最新版)_D4.xlsx
+++ b/doc/D4_ドキュメント/予実管理表(最新版)_D4.xlsx
@@ -3,15 +3,16 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{312AA825-C03E-4FB6-B24F-4DFE6C4A9E4E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37905C0A-A767-43D1-A167-8774765DABE5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-19310" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="工数予実管理表" sheetId="5" r:id="rId1"/>
     <sheet name="予実グラフ" sheetId="7" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="6" r:id="rId3"/>
     <sheet name="Sheet1" sheetId="8" r:id="rId4"/>
+    <sheet name="Sheet2" sheetId="9" r:id="rId5"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">Sheet1!$C$6:$J$102</definedName>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="873" uniqueCount="162">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="885" uniqueCount="175">
   <si>
     <t>プロジェクト名</t>
     <rPh sb="6" eb="7">
@@ -963,6 +964,148 @@
   </si>
   <si>
     <t>AchieveLastMonthServlet.java</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>やっていないことリスト</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>やれたらいいよねリスト</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>HTMLの共通部分を全ページで統一させる</t>
+    <rPh sb="5" eb="9">
+      <t>キョウツウブブン</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>ゼン</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>トウイツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ログアウトサーブレットの作成</t>
+    <rPh sb="12" eb="14">
+      <t>サクセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ログアウト前に達成度入力の確認</t>
+    <rPh sb="5" eb="6">
+      <t>マエ</t>
+    </rPh>
+    <rPh sb="7" eb="12">
+      <t>タッセイドニュウリョク</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>カクニン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>達成度に応じて成長するなにか</t>
+    <rPh sb="0" eb="3">
+      <t>タッセイド</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>オウ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>セイチョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>新規登録を試す</t>
+    <rPh sb="0" eb="4">
+      <t>シンキトウロク</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>タメ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ユーザー名、ログイン日数の表示</t>
+    <rPh sb="4" eb="5">
+      <t>メイ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ニッスウ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>webアプリの色味の統一</t>
+    <rPh sb="7" eb="9">
+      <t>イロミ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>トウイツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>タイトルはあれで確定ですか？</t>
+    <rPh sb="8" eb="10">
+      <t>カクテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>「登録しました」とか、「この内容でいいですか」的なポップアップ表示</t>
+    <rPh sb="1" eb="3">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>ナイヨウ</t>
+    </rPh>
+    <rPh sb="23" eb="24">
+      <t>テキ</t>
+    </rPh>
+    <rPh sb="31" eb="33">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ログイン日数に応じてログイン時の言葉変化</t>
+    <rPh sb="4" eb="6">
+      <t>ニッスウ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>オウ</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>ジ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>コトバ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>ヘンカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>使っている動画を撮影する</t>
+    <rPh sb="0" eb="1">
+      <t>ツカ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ドウガ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>サツエイ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1069,7 +1212,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="19">
+  <fills count="20">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1178,8 +1321,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="43">
+  <borders count="44">
     <border>
       <left/>
       <right/>
@@ -1703,6 +1852,17 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1712,7 +1872,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="224">
+  <cellXfs count="228">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2280,6 +2440,12 @@
     <xf numFmtId="0" fontId="2" fillId="7" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2370,12 +2536,6 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2384,6 +2544,18 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="22" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -3845,8 +4017,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA4A6EF2-62B9-43FE-BFFD-0A328B128D1B}">
   <dimension ref="A1:BL111"/>
   <sheetViews>
-    <sheetView topLeftCell="G96" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="V106" sqref="V106"/>
+    <sheetView topLeftCell="G93" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AB63" sqref="AB63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
@@ -3880,54 +4052,54 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:64" ht="16" x14ac:dyDescent="0.3">
-      <c r="A1" s="209" t="s">
+      <c r="A1" s="211" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="210"/>
-      <c r="C1" s="210"/>
-      <c r="D1" s="210"/>
-      <c r="E1" s="210"/>
-      <c r="F1" s="210"/>
-      <c r="G1" s="210"/>
-      <c r="H1" s="213" t="s">
+      <c r="B1" s="212"/>
+      <c r="C1" s="212"/>
+      <c r="D1" s="212"/>
+      <c r="E1" s="212"/>
+      <c r="F1" s="212"/>
+      <c r="G1" s="212"/>
+      <c r="H1" s="215" t="s">
         <v>1</v>
       </c>
-      <c r="I1" s="214"/>
-      <c r="J1" s="214"/>
-      <c r="K1" s="214"/>
-      <c r="L1" s="214"/>
-      <c r="M1" s="214"/>
-      <c r="N1" s="214"/>
-      <c r="O1" s="214"/>
-      <c r="P1" s="214"/>
-      <c r="Q1" s="214"/>
-      <c r="R1" s="214"/>
-      <c r="S1" s="214"/>
-      <c r="T1" s="214"/>
-      <c r="U1" s="214"/>
-      <c r="V1" s="214"/>
-      <c r="W1" s="214"/>
-      <c r="X1" s="214"/>
-      <c r="Y1" s="214"/>
-      <c r="Z1" s="214"/>
-      <c r="AA1" s="214"/>
-      <c r="AB1" s="214"/>
-      <c r="AC1" s="215"/>
-      <c r="AD1" s="189" t="s">
+      <c r="I1" s="216"/>
+      <c r="J1" s="216"/>
+      <c r="K1" s="216"/>
+      <c r="L1" s="216"/>
+      <c r="M1" s="216"/>
+      <c r="N1" s="216"/>
+      <c r="O1" s="216"/>
+      <c r="P1" s="216"/>
+      <c r="Q1" s="216"/>
+      <c r="R1" s="216"/>
+      <c r="S1" s="216"/>
+      <c r="T1" s="216"/>
+      <c r="U1" s="216"/>
+      <c r="V1" s="216"/>
+      <c r="W1" s="216"/>
+      <c r="X1" s="216"/>
+      <c r="Y1" s="216"/>
+      <c r="Z1" s="216"/>
+      <c r="AA1" s="216"/>
+      <c r="AB1" s="216"/>
+      <c r="AC1" s="217"/>
+      <c r="AD1" s="191" t="s">
         <v>2</v>
       </c>
-      <c r="AE1" s="190"/>
-      <c r="AF1" s="190"/>
-      <c r="AG1" s="191"/>
-      <c r="AH1" s="192">
+      <c r="AE1" s="192"/>
+      <c r="AF1" s="192"/>
+      <c r="AG1" s="193"/>
+      <c r="AH1" s="194">
         <v>45078</v>
       </c>
-      <c r="AI1" s="193"/>
-      <c r="AJ1" s="193"/>
-      <c r="AK1" s="193"/>
-      <c r="AL1" s="193"/>
-      <c r="AM1" s="193"/>
-      <c r="AN1" s="194"/>
+      <c r="AI1" s="195"/>
+      <c r="AJ1" s="195"/>
+      <c r="AK1" s="195"/>
+      <c r="AL1" s="195"/>
+      <c r="AM1" s="195"/>
+      <c r="AN1" s="196"/>
       <c r="AO1" s="1"/>
       <c r="AP1" s="1"/>
       <c r="AQ1" s="1"/>
@@ -3949,50 +4121,50 @@
       <c r="BG1" s="1"/>
     </row>
     <row r="2" spans="1:64" ht="16" x14ac:dyDescent="0.3">
-      <c r="A2" s="211"/>
-      <c r="B2" s="212"/>
-      <c r="C2" s="212"/>
-      <c r="D2" s="212"/>
-      <c r="E2" s="212"/>
-      <c r="F2" s="212"/>
-      <c r="G2" s="212"/>
-      <c r="H2" s="216"/>
-      <c r="I2" s="217"/>
-      <c r="J2" s="217"/>
-      <c r="K2" s="217"/>
-      <c r="L2" s="217"/>
-      <c r="M2" s="217"/>
-      <c r="N2" s="217"/>
-      <c r="O2" s="217"/>
-      <c r="P2" s="217"/>
-      <c r="Q2" s="217"/>
-      <c r="R2" s="217"/>
-      <c r="S2" s="217"/>
-      <c r="T2" s="217"/>
-      <c r="U2" s="217"/>
-      <c r="V2" s="217"/>
-      <c r="W2" s="217"/>
-      <c r="X2" s="217"/>
-      <c r="Y2" s="217"/>
-      <c r="Z2" s="217"/>
-      <c r="AA2" s="217"/>
-      <c r="AB2" s="217"/>
-      <c r="AC2" s="218"/>
-      <c r="AD2" s="189" t="s">
+      <c r="A2" s="213"/>
+      <c r="B2" s="214"/>
+      <c r="C2" s="214"/>
+      <c r="D2" s="214"/>
+      <c r="E2" s="214"/>
+      <c r="F2" s="214"/>
+      <c r="G2" s="214"/>
+      <c r="H2" s="218"/>
+      <c r="I2" s="219"/>
+      <c r="J2" s="219"/>
+      <c r="K2" s="219"/>
+      <c r="L2" s="219"/>
+      <c r="M2" s="219"/>
+      <c r="N2" s="219"/>
+      <c r="O2" s="219"/>
+      <c r="P2" s="219"/>
+      <c r="Q2" s="219"/>
+      <c r="R2" s="219"/>
+      <c r="S2" s="219"/>
+      <c r="T2" s="219"/>
+      <c r="U2" s="219"/>
+      <c r="V2" s="219"/>
+      <c r="W2" s="219"/>
+      <c r="X2" s="219"/>
+      <c r="Y2" s="219"/>
+      <c r="Z2" s="219"/>
+      <c r="AA2" s="219"/>
+      <c r="AB2" s="219"/>
+      <c r="AC2" s="220"/>
+      <c r="AD2" s="191" t="s">
         <v>3</v>
       </c>
-      <c r="AE2" s="190"/>
-      <c r="AF2" s="190"/>
-      <c r="AG2" s="191"/>
-      <c r="AH2" s="192">
+      <c r="AE2" s="192"/>
+      <c r="AF2" s="192"/>
+      <c r="AG2" s="193"/>
+      <c r="AH2" s="194">
         <v>45107</v>
       </c>
-      <c r="AI2" s="193"/>
-      <c r="AJ2" s="193"/>
-      <c r="AK2" s="193"/>
-      <c r="AL2" s="193"/>
-      <c r="AM2" s="193"/>
-      <c r="AN2" s="194"/>
+      <c r="AI2" s="195"/>
+      <c r="AJ2" s="195"/>
+      <c r="AK2" s="195"/>
+      <c r="AL2" s="195"/>
+      <c r="AM2" s="195"/>
+      <c r="AN2" s="196"/>
       <c r="AO2" s="1"/>
       <c r="AP2" s="1"/>
       <c r="AQ2" s="1"/>
@@ -4075,43 +4247,43 @@
       <c r="BG3" s="1"/>
     </row>
     <row r="4" spans="1:64" ht="16" x14ac:dyDescent="0.3">
-      <c r="A4" s="195" t="s">
+      <c r="A4" s="197" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="196"/>
-      <c r="C4" s="199" t="s">
+      <c r="B4" s="198"/>
+      <c r="C4" s="201" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="199"/>
-      <c r="E4" s="199"/>
-      <c r="F4" s="199"/>
-      <c r="G4" s="199"/>
-      <c r="H4" s="199"/>
-      <c r="I4" s="199"/>
-      <c r="J4" s="199"/>
-      <c r="K4" s="199"/>
-      <c r="L4" s="199"/>
-      <c r="M4" s="199"/>
-      <c r="N4" s="199"/>
-      <c r="O4" s="199"/>
-      <c r="P4" s="196" t="s">
+      <c r="D4" s="201"/>
+      <c r="E4" s="201"/>
+      <c r="F4" s="201"/>
+      <c r="G4" s="201"/>
+      <c r="H4" s="201"/>
+      <c r="I4" s="201"/>
+      <c r="J4" s="201"/>
+      <c r="K4" s="201"/>
+      <c r="L4" s="201"/>
+      <c r="M4" s="201"/>
+      <c r="N4" s="201"/>
+      <c r="O4" s="201"/>
+      <c r="P4" s="198" t="s">
         <v>6</v>
       </c>
-      <c r="Q4" s="196"/>
-      <c r="R4" s="196"/>
-      <c r="S4" s="196" t="s">
+      <c r="Q4" s="198"/>
+      <c r="R4" s="198"/>
+      <c r="S4" s="198" t="s">
         <v>7</v>
       </c>
-      <c r="T4" s="196"/>
-      <c r="U4" s="196"/>
-      <c r="V4" s="196"/>
-      <c r="W4" s="196"/>
-      <c r="X4" s="204"/>
-      <c r="Y4" s="200" t="s">
+      <c r="T4" s="198"/>
+      <c r="U4" s="198"/>
+      <c r="V4" s="198"/>
+      <c r="W4" s="198"/>
+      <c r="X4" s="206"/>
+      <c r="Y4" s="202" t="s">
         <v>8</v>
       </c>
-      <c r="Z4" s="200"/>
-      <c r="AA4" s="201"/>
+      <c r="Z4" s="202"/>
+      <c r="AA4" s="203"/>
       <c r="AB4" s="49"/>
       <c r="AC4" s="49"/>
       <c r="AD4" s="5">
@@ -4236,43 +4408,43 @@
       </c>
     </row>
     <row r="5" spans="1:64" ht="16" x14ac:dyDescent="0.3">
-      <c r="A5" s="197"/>
-      <c r="B5" s="198"/>
-      <c r="C5" s="198" t="s">
+      <c r="A5" s="199"/>
+      <c r="B5" s="200"/>
+      <c r="C5" s="200" t="s">
         <v>9</v>
       </c>
-      <c r="D5" s="198"/>
-      <c r="E5" s="198"/>
-      <c r="F5" s="198"/>
-      <c r="G5" s="198"/>
-      <c r="H5" s="205" t="s">
+      <c r="D5" s="200"/>
+      <c r="E5" s="200"/>
+      <c r="F5" s="200"/>
+      <c r="G5" s="200"/>
+      <c r="H5" s="207" t="s">
         <v>115</v>
       </c>
-      <c r="I5" s="206"/>
-      <c r="J5" s="205" t="s">
+      <c r="I5" s="208"/>
+      <c r="J5" s="207" t="s">
         <v>89</v>
       </c>
-      <c r="K5" s="206"/>
+      <c r="K5" s="208"/>
       <c r="L5" s="53"/>
       <c r="M5" s="53"/>
       <c r="N5" s="53"/>
       <c r="O5" s="53"/>
-      <c r="P5" s="198"/>
-      <c r="Q5" s="198"/>
-      <c r="R5" s="198"/>
-      <c r="S5" s="198" t="s">
+      <c r="P5" s="200"/>
+      <c r="Q5" s="200"/>
+      <c r="R5" s="200"/>
+      <c r="S5" s="200" t="s">
         <v>2</v>
       </c>
-      <c r="T5" s="198"/>
-      <c r="U5" s="198"/>
-      <c r="V5" s="198" t="s">
+      <c r="T5" s="200"/>
+      <c r="U5" s="200"/>
+      <c r="V5" s="200" t="s">
         <v>3</v>
       </c>
-      <c r="W5" s="198"/>
-      <c r="X5" s="189"/>
-      <c r="Y5" s="202"/>
-      <c r="Z5" s="202"/>
-      <c r="AA5" s="203"/>
+      <c r="W5" s="200"/>
+      <c r="X5" s="191"/>
+      <c r="Y5" s="204"/>
+      <c r="Z5" s="204"/>
+      <c r="AA5" s="205"/>
       <c r="AB5" s="45" t="s">
         <v>87</v>
       </c>
@@ -4407,33 +4579,33 @@
       </c>
     </row>
     <row r="6" spans="1:64" ht="16" x14ac:dyDescent="0.3">
-      <c r="A6" s="197"/>
-      <c r="B6" s="198"/>
-      <c r="C6" s="198"/>
-      <c r="D6" s="198"/>
-      <c r="E6" s="198"/>
-      <c r="F6" s="198"/>
-      <c r="G6" s="198"/>
-      <c r="H6" s="207"/>
-      <c r="I6" s="208"/>
-      <c r="J6" s="207"/>
-      <c r="K6" s="208"/>
+      <c r="A6" s="199"/>
+      <c r="B6" s="200"/>
+      <c r="C6" s="200"/>
+      <c r="D6" s="200"/>
+      <c r="E6" s="200"/>
+      <c r="F6" s="200"/>
+      <c r="G6" s="200"/>
+      <c r="H6" s="209"/>
+      <c r="I6" s="210"/>
+      <c r="J6" s="209"/>
+      <c r="K6" s="210"/>
       <c r="L6" s="53"/>
       <c r="M6" s="53"/>
       <c r="N6" s="53"/>
       <c r="O6" s="53"/>
-      <c r="P6" s="198"/>
-      <c r="Q6" s="198"/>
-      <c r="R6" s="198"/>
-      <c r="S6" s="198"/>
-      <c r="T6" s="198"/>
-      <c r="U6" s="198"/>
-      <c r="V6" s="198"/>
-      <c r="W6" s="198"/>
-      <c r="X6" s="189"/>
-      <c r="Y6" s="202"/>
-      <c r="Z6" s="202"/>
-      <c r="AA6" s="203"/>
+      <c r="P6" s="200"/>
+      <c r="Q6" s="200"/>
+      <c r="R6" s="200"/>
+      <c r="S6" s="200"/>
+      <c r="T6" s="200"/>
+      <c r="U6" s="200"/>
+      <c r="V6" s="200"/>
+      <c r="W6" s="200"/>
+      <c r="X6" s="191"/>
+      <c r="Y6" s="204"/>
+      <c r="Z6" s="204"/>
+      <c r="AA6" s="205"/>
       <c r="AB6" s="45"/>
       <c r="AC6" s="45"/>
       <c r="AD6" s="11" t="str">
@@ -8923,8 +9095,8 @@
       </c>
       <c r="W59" s="21"/>
       <c r="X59" s="21"/>
-      <c r="Y59" s="55" t="s">
-        <v>117</v>
+      <c r="Y59" s="40">
+        <v>0.8</v>
       </c>
       <c r="Z59" s="4"/>
       <c r="AA59" s="43"/>
@@ -8933,7 +9105,7 @@
       </c>
       <c r="AC59" s="107">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="AD59" s="44"/>
       <c r="AE59" s="2"/>
@@ -9395,8 +9567,8 @@
       </c>
     </row>
     <row r="65" spans="1:62" ht="16" x14ac:dyDescent="0.3">
-      <c r="A65" s="219"/>
-      <c r="B65" s="220"/>
+      <c r="A65" s="189"/>
+      <c r="B65" s="190"/>
       <c r="C65" s="19"/>
       <c r="D65" s="19"/>
       <c r="E65" s="19"/>
@@ -9479,8 +9651,8 @@
       </c>
     </row>
     <row r="66" spans="1:62" ht="16" x14ac:dyDescent="0.3">
-      <c r="A66" s="219"/>
-      <c r="B66" s="220"/>
+      <c r="A66" s="189"/>
+      <c r="B66" s="190"/>
       <c r="C66" s="19"/>
       <c r="D66" s="19"/>
       <c r="E66" s="19"/>
@@ -9563,8 +9735,8 @@
       </c>
     </row>
     <row r="67" spans="1:62" ht="16" x14ac:dyDescent="0.3">
-      <c r="A67" s="219"/>
-      <c r="B67" s="220"/>
+      <c r="A67" s="189"/>
+      <c r="B67" s="190"/>
       <c r="C67" s="19"/>
       <c r="D67" s="19"/>
       <c r="E67" s="19"/>
@@ -9647,8 +9819,8 @@
       </c>
     </row>
     <row r="68" spans="1:62" ht="16" x14ac:dyDescent="0.3">
-      <c r="A68" s="219"/>
-      <c r="B68" s="220"/>
+      <c r="A68" s="189"/>
+      <c r="B68" s="190"/>
       <c r="C68" s="19"/>
       <c r="D68" s="19"/>
       <c r="E68" s="19"/>
@@ -9731,8 +9903,8 @@
       </c>
     </row>
     <row r="69" spans="1:62" ht="16" x14ac:dyDescent="0.3">
-      <c r="A69" s="219"/>
-      <c r="B69" s="220"/>
+      <c r="A69" s="189"/>
+      <c r="B69" s="190"/>
       <c r="C69" s="19"/>
       <c r="D69" s="19"/>
       <c r="E69" s="19"/>
@@ -12855,11 +13027,6 @@
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="A69:B69"/>
-    <mergeCell ref="A68:B68"/>
-    <mergeCell ref="A67:B67"/>
-    <mergeCell ref="A66:B66"/>
-    <mergeCell ref="A65:B65"/>
     <mergeCell ref="AD1:AG1"/>
     <mergeCell ref="AH1:AN1"/>
     <mergeCell ref="AD2:AG2"/>
@@ -12876,6 +13043,11 @@
     <mergeCell ref="J5:K6"/>
     <mergeCell ref="A1:G2"/>
     <mergeCell ref="H1:AC2"/>
+    <mergeCell ref="A69:B69"/>
+    <mergeCell ref="A68:B68"/>
+    <mergeCell ref="A67:B67"/>
+    <mergeCell ref="A66:B66"/>
+    <mergeCell ref="A65:B65"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="AD5:AD6">
@@ -12909,7 +13081,7 @@
   <dimension ref="A1:T21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L9" sqref="L9"/>
+      <selection activeCell="P7" sqref="P7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
@@ -13089,7 +13261,7 @@
       </c>
       <c r="O3" s="88">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.85637583892617442</v>
       </c>
       <c r="P3" s="88">
         <f t="shared" si="0"/>
@@ -13329,7 +13501,9 @@
         <v>249.6</v>
       </c>
       <c r="N7" s="90"/>
-      <c r="O7" s="90"/>
+      <c r="O7" s="90">
+        <v>255.2</v>
+      </c>
       <c r="P7" s="91"/>
       <c r="Q7" s="91"/>
       <c r="R7" s="91"/>
@@ -13339,63 +13513,63 @@
     <row r="8" spans="1:20" x14ac:dyDescent="0.3">
       <c r="F8">
         <f>Sheet3!$F$101</f>
-        <v>249.54999999999998</v>
+        <v>255.14999999999998</v>
       </c>
       <c r="G8">
         <f>Sheet3!$F$101</f>
-        <v>249.54999999999998</v>
+        <v>255.14999999999998</v>
       </c>
       <c r="H8">
         <f>Sheet3!$F$101</f>
-        <v>249.54999999999998</v>
+        <v>255.14999999999998</v>
       </c>
       <c r="I8">
         <f>Sheet3!$F$101</f>
-        <v>249.54999999999998</v>
+        <v>255.14999999999998</v>
       </c>
       <c r="J8">
         <f>Sheet3!$F$101</f>
-        <v>249.54999999999998</v>
+        <v>255.14999999999998</v>
       </c>
       <c r="K8">
         <f>Sheet3!$F$101</f>
-        <v>249.54999999999998</v>
+        <v>255.14999999999998</v>
       </c>
       <c r="L8">
         <f>Sheet3!$F$101</f>
-        <v>249.54999999999998</v>
+        <v>255.14999999999998</v>
       </c>
       <c r="M8">
         <f>Sheet3!$F$101</f>
-        <v>249.54999999999998</v>
+        <v>255.14999999999998</v>
       </c>
       <c r="N8">
         <f>Sheet3!$F$101</f>
-        <v>249.54999999999998</v>
+        <v>255.14999999999998</v>
       </c>
       <c r="O8">
         <f>Sheet3!$F$101</f>
-        <v>249.54999999999998</v>
+        <v>255.14999999999998</v>
       </c>
       <c r="P8">
         <f>Sheet3!$F$101</f>
-        <v>249.54999999999998</v>
+        <v>255.14999999999998</v>
       </c>
       <c r="Q8">
         <f>Sheet3!$F$101</f>
-        <v>249.54999999999998</v>
+        <v>255.14999999999998</v>
       </c>
       <c r="R8">
         <f>Sheet3!$F$101</f>
-        <v>249.54999999999998</v>
+        <v>255.14999999999998</v>
       </c>
       <c r="S8">
         <f>Sheet3!$F$101</f>
-        <v>249.54999999999998</v>
+        <v>255.14999999999998</v>
       </c>
       <c r="T8">
         <f>Sheet3!$F$101</f>
-        <v>249.54999999999998</v>
+        <v>255.14999999999998</v>
       </c>
     </row>
     <row r="9" spans="1:20" x14ac:dyDescent="0.3">
@@ -13466,10 +13640,10 @@
   <sheetData>
     <row r="2" spans="4:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D2" s="1"/>
-      <c r="E2" s="205" t="s">
+      <c r="E2" s="207" t="s">
         <v>89</v>
       </c>
-      <c r="F2" s="206"/>
+      <c r="F2" s="208"/>
     </row>
     <row r="3" spans="4:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D3" s="1"/>
@@ -13988,7 +14162,7 @@
       </c>
       <c r="F54" s="69">
         <f>工数予実管理表!AB59*工数予実管理表!AC59</f>
-        <v>0</v>
+        <v>5.6000000000000005</v>
       </c>
     </row>
     <row r="55" spans="3:6" ht="16" x14ac:dyDescent="0.3">
@@ -14500,7 +14674,7 @@
     <row r="101" spans="3:6" x14ac:dyDescent="0.3">
       <c r="F101" s="111">
         <f>SUM(F4:F100)</f>
-        <v>249.54999999999998</v>
+        <v>255.14999999999998</v>
       </c>
     </row>
   </sheetData>
@@ -14519,8 +14693,8 @@
   <sheetPr filterMode="1"/>
   <dimension ref="C2:L104"/>
   <sheetViews>
-    <sheetView topLeftCell="A68" workbookViewId="0">
-      <selection activeCell="J68" sqref="J68"/>
+    <sheetView topLeftCell="A32" workbookViewId="0">
+      <selection activeCell="D57" sqref="D57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
@@ -14599,7 +14773,7 @@
       <c r="K7" s="4"/>
       <c r="L7" s="43"/>
     </row>
-    <row r="8" spans="3:12" ht="16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="3:12" ht="16" x14ac:dyDescent="0.3">
       <c r="C8" s="19" t="s">
         <v>91</v>
       </c>
@@ -14620,7 +14794,7 @@
       <c r="K8" s="32"/>
       <c r="L8" s="51"/>
     </row>
-    <row r="9" spans="3:12" ht="16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="3:12" ht="16" x14ac:dyDescent="0.3">
       <c r="C9" s="19" t="s">
         <v>121</v>
       </c>
@@ -14725,7 +14899,7 @@
       <c r="K13" s="32"/>
       <c r="L13" s="51"/>
     </row>
-    <row r="14" spans="3:12" ht="16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="3:12" ht="16" x14ac:dyDescent="0.3">
       <c r="C14" s="19" t="s">
         <v>122</v>
       </c>
@@ -15082,7 +15256,7 @@
       <c r="K30" s="4"/>
       <c r="L30" s="43"/>
     </row>
-    <row r="31" spans="3:12" ht="16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="3:12" ht="16" x14ac:dyDescent="0.3">
       <c r="C31" s="19" t="s">
         <v>107</v>
       </c>
@@ -15103,7 +15277,7 @@
       <c r="K31" s="4"/>
       <c r="L31" s="43"/>
     </row>
-    <row r="32" spans="3:12" ht="16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="3:12" ht="16" x14ac:dyDescent="0.3">
       <c r="C32" s="19" t="s">
         <v>108</v>
       </c>
@@ -15166,7 +15340,7 @@
       <c r="K34" s="4"/>
       <c r="L34" s="43"/>
     </row>
-    <row r="35" spans="3:12" ht="16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="3:12" ht="16" x14ac:dyDescent="0.3">
       <c r="C35" s="106" t="s">
         <v>90</v>
       </c>
@@ -15250,7 +15424,7 @@
       <c r="K38" s="4"/>
       <c r="L38" s="43"/>
     </row>
-    <row r="39" spans="3:12" ht="16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="3:12" ht="16" x14ac:dyDescent="0.3">
       <c r="C39" s="106" t="s">
         <v>93</v>
       </c>
@@ -15285,9 +15459,9 @@
       </c>
       <c r="H40" s="26"/>
       <c r="I40" s="26"/>
-      <c r="J40" s="33" t="str">
+      <c r="J40" s="33">
         <f>工数予実管理表!Y59</f>
-        <v>未着手</v>
+        <v>0.8</v>
       </c>
       <c r="K40" s="4"/>
       <c r="L40" s="43"/>
@@ -15313,7 +15487,7 @@
       <c r="K41" s="4"/>
       <c r="L41" s="43"/>
     </row>
-    <row r="42" spans="3:12" ht="16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="3:12" ht="16" x14ac:dyDescent="0.3">
       <c r="C42" s="106" t="s">
         <v>125</v>
       </c>
@@ -15355,7 +15529,7 @@
       <c r="K43" s="4"/>
       <c r="L43" s="43"/>
     </row>
-    <row r="44" spans="3:12" ht="16" x14ac:dyDescent="0.3">
+    <row r="44" spans="3:12" ht="16" hidden="1" x14ac:dyDescent="0.3">
       <c r="C44" s="168" t="s">
         <v>20</v>
       </c>
@@ -15405,7 +15579,7 @@
       <c r="K45" s="4"/>
       <c r="L45" s="43"/>
     </row>
-    <row r="46" spans="3:12" ht="16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="3:12" ht="16" x14ac:dyDescent="0.3">
       <c r="C46" s="57"/>
       <c r="D46" s="57"/>
       <c r="E46" s="57" t="s">
@@ -15422,7 +15596,7 @@
       </c>
       <c r="L46" s="127"/>
     </row>
-    <row r="47" spans="3:12" ht="16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="3:12" ht="16" x14ac:dyDescent="0.3">
       <c r="C47" s="57"/>
       <c r="D47" s="57"/>
       <c r="E47" s="57" t="s">
@@ -15463,7 +15637,7 @@
       </c>
       <c r="L48" s="57"/>
     </row>
-    <row r="49" spans="3:12" ht="16" x14ac:dyDescent="0.3">
+    <row r="49" spans="3:12" ht="16" hidden="1" x14ac:dyDescent="0.3">
       <c r="C49" s="76" t="s">
         <v>23</v>
       </c>
@@ -15487,7 +15661,7 @@
       </c>
       <c r="L49" s="57"/>
     </row>
-    <row r="50" spans="3:12" ht="16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="3:12" ht="16" x14ac:dyDescent="0.3">
       <c r="C50" s="57"/>
       <c r="D50" s="57"/>
       <c r="E50" s="57" t="s">
@@ -15504,7 +15678,7 @@
       </c>
       <c r="L50" s="57"/>
     </row>
-    <row r="51" spans="3:12" ht="16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="3:12" ht="16" x14ac:dyDescent="0.3">
       <c r="C51" s="57"/>
       <c r="D51" s="57"/>
       <c r="E51" s="57" t="s">
@@ -15651,7 +15825,7 @@
       <c r="K57" s="4"/>
       <c r="L57" s="43"/>
     </row>
-    <row r="58" spans="3:12" ht="16" x14ac:dyDescent="0.3">
+    <row r="58" spans="3:12" ht="16" hidden="1" x14ac:dyDescent="0.3">
       <c r="C58" s="4" t="s">
         <v>25</v>
       </c>
@@ -15676,7 +15850,7 @@
       <c r="K58" s="4"/>
       <c r="L58" s="43"/>
     </row>
-    <row r="59" spans="3:12" ht="16" x14ac:dyDescent="0.3">
+    <row r="59" spans="3:12" ht="16" hidden="1" x14ac:dyDescent="0.3">
       <c r="C59" s="4" t="s">
         <v>26</v>
       </c>
@@ -15726,7 +15900,7 @@
       <c r="K60" s="4"/>
       <c r="L60" s="43"/>
     </row>
-    <row r="61" spans="3:12" ht="16" x14ac:dyDescent="0.3">
+    <row r="61" spans="3:12" ht="16" hidden="1" x14ac:dyDescent="0.3">
       <c r="C61" s="4" t="s">
         <v>28</v>
       </c>
@@ -15772,7 +15946,7 @@
       <c r="K62" s="4"/>
       <c r="L62" s="43"/>
     </row>
-    <row r="63" spans="3:12" ht="16" x14ac:dyDescent="0.3">
+    <row r="63" spans="3:12" ht="16" hidden="1" x14ac:dyDescent="0.3">
       <c r="C63" s="4" t="s">
         <v>79</v>
       </c>
@@ -15797,7 +15971,7 @@
       <c r="K63" s="4"/>
       <c r="L63" s="43"/>
     </row>
-    <row r="64" spans="3:12" ht="16" x14ac:dyDescent="0.3">
+    <row r="64" spans="3:12" ht="16" hidden="1" x14ac:dyDescent="0.3">
       <c r="C64" s="4" t="s">
         <v>80</v>
       </c>
@@ -15822,7 +15996,7 @@
       <c r="K64" s="4"/>
       <c r="L64" s="43"/>
     </row>
-    <row r="65" spans="3:12" ht="16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="3:12" ht="16" x14ac:dyDescent="0.3">
       <c r="C65" s="19" t="s">
         <v>91</v>
       </c>
@@ -15843,7 +16017,7 @@
       <c r="K65" s="4"/>
       <c r="L65" s="43"/>
     </row>
-    <row r="66" spans="3:12" ht="16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="3:12" ht="16" x14ac:dyDescent="0.3">
       <c r="C66" s="19" t="s">
         <v>110</v>
       </c>
@@ -15904,7 +16078,7 @@
       <c r="K68" s="4"/>
       <c r="L68" s="43"/>
     </row>
-    <row r="69" spans="3:12" ht="16" x14ac:dyDescent="0.3">
+    <row r="69" spans="3:12" ht="16" hidden="1" x14ac:dyDescent="0.3">
       <c r="C69" s="76" t="s">
         <v>50</v>
       </c>
@@ -15923,7 +16097,7 @@
       <c r="K69" s="4"/>
       <c r="L69" s="43"/>
     </row>
-    <row r="70" spans="3:12" ht="16" x14ac:dyDescent="0.3">
+    <row r="70" spans="3:12" ht="16" hidden="1" x14ac:dyDescent="0.3">
       <c r="C70" s="76" t="s">
         <v>51</v>
       </c>
@@ -15942,7 +16116,7 @@
       <c r="K70" s="4"/>
       <c r="L70" s="43"/>
     </row>
-    <row r="71" spans="3:12" ht="16" x14ac:dyDescent="0.3">
+    <row r="71" spans="3:12" ht="16" hidden="1" x14ac:dyDescent="0.3">
       <c r="C71" s="76" t="s">
         <v>52</v>
       </c>
@@ -16009,7 +16183,7 @@
       <c r="K73" s="4"/>
       <c r="L73" s="43"/>
     </row>
-    <row r="74" spans="3:12" ht="16" x14ac:dyDescent="0.3">
+    <row r="74" spans="3:12" ht="16" hidden="1" x14ac:dyDescent="0.3">
       <c r="C74" s="76" t="s">
         <v>54</v>
       </c>
@@ -16028,7 +16202,7 @@
       <c r="K74" s="4"/>
       <c r="L74" s="43"/>
     </row>
-    <row r="75" spans="3:12" ht="16" x14ac:dyDescent="0.3">
+    <row r="75" spans="3:12" ht="16" hidden="1" x14ac:dyDescent="0.3">
       <c r="C75" s="76" t="s">
         <v>55</v>
       </c>
@@ -16066,7 +16240,7 @@
       <c r="K76" s="4"/>
       <c r="L76" s="43"/>
     </row>
-    <row r="77" spans="3:12" ht="16" x14ac:dyDescent="0.3">
+    <row r="77" spans="3:12" ht="16" hidden="1" x14ac:dyDescent="0.3">
       <c r="C77" s="76" t="s">
         <v>57</v>
       </c>
@@ -16165,7 +16339,7 @@
       <c r="K81" s="4"/>
       <c r="L81" s="43"/>
     </row>
-    <row r="82" spans="3:12" ht="16" x14ac:dyDescent="0.3">
+    <row r="82" spans="3:12" ht="16" hidden="1" x14ac:dyDescent="0.3">
       <c r="C82" s="70" t="s">
         <v>95</v>
       </c>
@@ -16186,7 +16360,7 @@
       <c r="K82" s="4"/>
       <c r="L82" s="43"/>
     </row>
-    <row r="83" spans="3:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="83" spans="3:12" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C83" s="69" t="s">
         <v>127</v>
       </c>
@@ -16207,7 +16381,7 @@
       <c r="K83" s="39"/>
       <c r="L83" s="52"/>
     </row>
-    <row r="84" spans="3:12" ht="16" x14ac:dyDescent="0.3">
+    <row r="84" spans="3:12" ht="16" hidden="1" x14ac:dyDescent="0.3">
       <c r="C84" s="69" t="s">
         <v>130</v>
       </c>
@@ -16240,7 +16414,7 @@
         <v>完了</v>
       </c>
     </row>
-    <row r="86" spans="3:12" ht="16" x14ac:dyDescent="0.3">
+    <row r="86" spans="3:12" ht="16" hidden="1" x14ac:dyDescent="0.3">
       <c r="C86" s="70" t="s">
         <v>151</v>
       </c>
@@ -16329,7 +16503,7 @@
         <v>完了</v>
       </c>
     </row>
-    <row r="92" spans="3:12" ht="16" x14ac:dyDescent="0.3">
+    <row r="92" spans="3:12" ht="16" hidden="1" x14ac:dyDescent="0.3">
       <c r="C92" s="68" t="s">
         <v>129</v>
       </c>
@@ -16348,7 +16522,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="93" spans="3:12" ht="16" x14ac:dyDescent="0.3">
+    <row r="93" spans="3:12" ht="16" hidden="1" x14ac:dyDescent="0.3">
       <c r="C93" s="169" t="s">
         <v>124</v>
       </c>
@@ -16391,7 +16565,7 @@
         <v>完了</v>
       </c>
     </row>
-    <row r="96" spans="3:12" ht="16" x14ac:dyDescent="0.3">
+    <row r="96" spans="3:12" ht="16" hidden="1" x14ac:dyDescent="0.3">
       <c r="C96" s="172" t="s">
         <v>128</v>
       </c>
@@ -16429,7 +16603,7 @@
         <v>0.85</v>
       </c>
     </row>
-    <row r="98" spans="3:10" ht="16" x14ac:dyDescent="0.3">
+    <row r="98" spans="3:10" ht="16" hidden="1" x14ac:dyDescent="0.3">
       <c r="C98" s="172" t="s">
         <v>90</v>
       </c>
@@ -16486,7 +16660,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="101" spans="3:10" ht="16" x14ac:dyDescent="0.3">
+    <row r="101" spans="3:10" ht="16" hidden="1" x14ac:dyDescent="0.3">
       <c r="C101" s="61" t="s">
         <v>32</v>
       </c>
@@ -16500,7 +16674,7 @@
         <v>完了</v>
       </c>
     </row>
-    <row r="102" spans="3:10" ht="16" x14ac:dyDescent="0.3">
+    <row r="102" spans="3:10" ht="16" hidden="1" x14ac:dyDescent="0.3">
       <c r="C102" s="68" t="s">
         <v>128</v>
       </c>
@@ -16533,15 +16707,9 @@
     </row>
   </sheetData>
   <autoFilter ref="C6:J102" xr:uid="{F28E51FA-184A-4C06-B805-6476AA8FA733}">
-    <filterColumn colId="7">
+    <filterColumn colId="4">
       <filters>
-        <filter val="20%"/>
-        <filter val="50%"/>
-        <filter val="60%"/>
-        <filter val="70%"/>
-        <filter val="80%"/>
-        <filter val="90%"/>
-        <filter val="未着手"/>
+        <filter val="斎藤"/>
       </filters>
     </filterColumn>
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="C40:J102">
@@ -16553,7 +16721,112 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6371F3CB-A9B5-45B9-91A2-5506E8B8FC22}">
+  <dimension ref="C2:H9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="3" max="3" width="29.33203125" customWidth="1"/>
+    <col min="5" max="5" width="10.1640625" customWidth="1"/>
+    <col min="6" max="6" width="23" customWidth="1"/>
+    <col min="8" max="8" width="10.83203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C2" s="225" t="s">
+        <v>162</v>
+      </c>
+      <c r="D2" s="225"/>
+      <c r="F2" s="224" t="s">
+        <v>163</v>
+      </c>
+      <c r="G2" s="224"/>
+      <c r="H2" s="224"/>
+    </row>
+    <row r="3" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C3" s="57" t="s">
+        <v>164</v>
+      </c>
+      <c r="D3" s="57"/>
+      <c r="F3" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="4" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C4" s="57" t="s">
+        <v>165</v>
+      </c>
+      <c r="D4" s="57"/>
+      <c r="F4" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="5" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C5" s="57" t="s">
+        <v>168</v>
+      </c>
+      <c r="D5" s="57"/>
+      <c r="E5" s="226"/>
+      <c r="F5" s="226" t="s">
+        <v>172</v>
+      </c>
+      <c r="G5" s="226"/>
+    </row>
+    <row r="6" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C6" s="57" t="s">
+        <v>169</v>
+      </c>
+      <c r="D6" s="57"/>
+      <c r="E6" s="226"/>
+      <c r="F6" s="226" t="s">
+        <v>173</v>
+      </c>
+      <c r="G6" s="226"/>
+    </row>
+    <row r="7" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C7" s="57" t="s">
+        <v>170</v>
+      </c>
+      <c r="D7" s="57"/>
+    </row>
+    <row r="8" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C8" s="57" t="s">
+        <v>171</v>
+      </c>
+      <c r="D8" s="57"/>
+    </row>
+    <row r="9" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C9" s="227" t="s">
+        <v>174</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x010100364AEC801DCCFF4C9A7CD82776573E34" ma:contentTypeVersion="0" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="9a90bd606c73e53fbdca164192b510d5">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="86e6f6c817e23f4348afe6a544d017da">
     <xsd:element name="properties">
@@ -16667,33 +16940,10 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E8C7E73E-37A8-4119-AD2E-81AFBFD39544}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4F999A99-14E0-4A35-8552-0D0111146846}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -16708,9 +16958,17 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4F999A99-14E0-4A35-8552-0D0111146846}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E8C7E73E-37A8-4119-AD2E-81AFBFD39544}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/doc/D4_ドキュメント/予実管理表(最新版)_D4.xlsx
+++ b/doc/D4_ドキュメント/予実管理表(最新版)_D4.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37905C0A-A767-43D1-A167-8774765DABE5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12B898A7-5513-4D6F-86E6-E8457183685D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-19310" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="工数予実管理表" sheetId="5" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="885" uniqueCount="175">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="889" uniqueCount="175">
   <si>
     <t>プロジェクト名</t>
     <rPh sb="6" eb="7">
@@ -2440,102 +2440,114 @@
     <xf numFmtId="0" fontId="2" fillId="7" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="22" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2544,18 +2556,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="22" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -4017,8 +4017,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA4A6EF2-62B9-43FE-BFFD-0A328B128D1B}">
   <dimension ref="A1:BL111"/>
   <sheetViews>
-    <sheetView topLeftCell="G93" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AB63" sqref="AB63"/>
+    <sheetView tabSelected="1" topLeftCell="G65" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="Y84" sqref="Y84"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
@@ -4052,54 +4052,54 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:64" ht="16" x14ac:dyDescent="0.3">
-      <c r="A1" s="211" t="s">
+      <c r="A1" s="213" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="212"/>
-      <c r="C1" s="212"/>
-      <c r="D1" s="212"/>
-      <c r="E1" s="212"/>
-      <c r="F1" s="212"/>
-      <c r="G1" s="212"/>
-      <c r="H1" s="215" t="s">
+      <c r="B1" s="214"/>
+      <c r="C1" s="214"/>
+      <c r="D1" s="214"/>
+      <c r="E1" s="214"/>
+      <c r="F1" s="214"/>
+      <c r="G1" s="214"/>
+      <c r="H1" s="217" t="s">
         <v>1</v>
       </c>
-      <c r="I1" s="216"/>
-      <c r="J1" s="216"/>
-      <c r="K1" s="216"/>
-      <c r="L1" s="216"/>
-      <c r="M1" s="216"/>
-      <c r="N1" s="216"/>
-      <c r="O1" s="216"/>
-      <c r="P1" s="216"/>
-      <c r="Q1" s="216"/>
-      <c r="R1" s="216"/>
-      <c r="S1" s="216"/>
-      <c r="T1" s="216"/>
-      <c r="U1" s="216"/>
-      <c r="V1" s="216"/>
-      <c r="W1" s="216"/>
-      <c r="X1" s="216"/>
-      <c r="Y1" s="216"/>
-      <c r="Z1" s="216"/>
-      <c r="AA1" s="216"/>
-      <c r="AB1" s="216"/>
-      <c r="AC1" s="217"/>
-      <c r="AD1" s="191" t="s">
+      <c r="I1" s="218"/>
+      <c r="J1" s="218"/>
+      <c r="K1" s="218"/>
+      <c r="L1" s="218"/>
+      <c r="M1" s="218"/>
+      <c r="N1" s="218"/>
+      <c r="O1" s="218"/>
+      <c r="P1" s="218"/>
+      <c r="Q1" s="218"/>
+      <c r="R1" s="218"/>
+      <c r="S1" s="218"/>
+      <c r="T1" s="218"/>
+      <c r="U1" s="218"/>
+      <c r="V1" s="218"/>
+      <c r="W1" s="218"/>
+      <c r="X1" s="218"/>
+      <c r="Y1" s="218"/>
+      <c r="Z1" s="218"/>
+      <c r="AA1" s="218"/>
+      <c r="AB1" s="218"/>
+      <c r="AC1" s="219"/>
+      <c r="AD1" s="193" t="s">
         <v>2</v>
       </c>
-      <c r="AE1" s="192"/>
-      <c r="AF1" s="192"/>
-      <c r="AG1" s="193"/>
-      <c r="AH1" s="194">
+      <c r="AE1" s="194"/>
+      <c r="AF1" s="194"/>
+      <c r="AG1" s="195"/>
+      <c r="AH1" s="196">
         <v>45078</v>
       </c>
-      <c r="AI1" s="195"/>
-      <c r="AJ1" s="195"/>
-      <c r="AK1" s="195"/>
-      <c r="AL1" s="195"/>
-      <c r="AM1" s="195"/>
-      <c r="AN1" s="196"/>
+      <c r="AI1" s="197"/>
+      <c r="AJ1" s="197"/>
+      <c r="AK1" s="197"/>
+      <c r="AL1" s="197"/>
+      <c r="AM1" s="197"/>
+      <c r="AN1" s="198"/>
       <c r="AO1" s="1"/>
       <c r="AP1" s="1"/>
       <c r="AQ1" s="1"/>
@@ -4121,50 +4121,50 @@
       <c r="BG1" s="1"/>
     </row>
     <row r="2" spans="1:64" ht="16" x14ac:dyDescent="0.3">
-      <c r="A2" s="213"/>
-      <c r="B2" s="214"/>
-      <c r="C2" s="214"/>
-      <c r="D2" s="214"/>
-      <c r="E2" s="214"/>
-      <c r="F2" s="214"/>
-      <c r="G2" s="214"/>
-      <c r="H2" s="218"/>
-      <c r="I2" s="219"/>
-      <c r="J2" s="219"/>
-      <c r="K2" s="219"/>
-      <c r="L2" s="219"/>
-      <c r="M2" s="219"/>
-      <c r="N2" s="219"/>
-      <c r="O2" s="219"/>
-      <c r="P2" s="219"/>
-      <c r="Q2" s="219"/>
-      <c r="R2" s="219"/>
-      <c r="S2" s="219"/>
-      <c r="T2" s="219"/>
-      <c r="U2" s="219"/>
-      <c r="V2" s="219"/>
-      <c r="W2" s="219"/>
-      <c r="X2" s="219"/>
-      <c r="Y2" s="219"/>
-      <c r="Z2" s="219"/>
-      <c r="AA2" s="219"/>
-      <c r="AB2" s="219"/>
-      <c r="AC2" s="220"/>
-      <c r="AD2" s="191" t="s">
+      <c r="A2" s="215"/>
+      <c r="B2" s="216"/>
+      <c r="C2" s="216"/>
+      <c r="D2" s="216"/>
+      <c r="E2" s="216"/>
+      <c r="F2" s="216"/>
+      <c r="G2" s="216"/>
+      <c r="H2" s="220"/>
+      <c r="I2" s="221"/>
+      <c r="J2" s="221"/>
+      <c r="K2" s="221"/>
+      <c r="L2" s="221"/>
+      <c r="M2" s="221"/>
+      <c r="N2" s="221"/>
+      <c r="O2" s="221"/>
+      <c r="P2" s="221"/>
+      <c r="Q2" s="221"/>
+      <c r="R2" s="221"/>
+      <c r="S2" s="221"/>
+      <c r="T2" s="221"/>
+      <c r="U2" s="221"/>
+      <c r="V2" s="221"/>
+      <c r="W2" s="221"/>
+      <c r="X2" s="221"/>
+      <c r="Y2" s="221"/>
+      <c r="Z2" s="221"/>
+      <c r="AA2" s="221"/>
+      <c r="AB2" s="221"/>
+      <c r="AC2" s="222"/>
+      <c r="AD2" s="193" t="s">
         <v>3</v>
       </c>
-      <c r="AE2" s="192"/>
-      <c r="AF2" s="192"/>
-      <c r="AG2" s="193"/>
-      <c r="AH2" s="194">
+      <c r="AE2" s="194"/>
+      <c r="AF2" s="194"/>
+      <c r="AG2" s="195"/>
+      <c r="AH2" s="196">
         <v>45107</v>
       </c>
-      <c r="AI2" s="195"/>
-      <c r="AJ2" s="195"/>
-      <c r="AK2" s="195"/>
-      <c r="AL2" s="195"/>
-      <c r="AM2" s="195"/>
-      <c r="AN2" s="196"/>
+      <c r="AI2" s="197"/>
+      <c r="AJ2" s="197"/>
+      <c r="AK2" s="197"/>
+      <c r="AL2" s="197"/>
+      <c r="AM2" s="197"/>
+      <c r="AN2" s="198"/>
       <c r="AO2" s="1"/>
       <c r="AP2" s="1"/>
       <c r="AQ2" s="1"/>
@@ -4247,43 +4247,43 @@
       <c r="BG3" s="1"/>
     </row>
     <row r="4" spans="1:64" ht="16" x14ac:dyDescent="0.3">
-      <c r="A4" s="197" t="s">
+      <c r="A4" s="199" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="198"/>
-      <c r="C4" s="201" t="s">
+      <c r="B4" s="200"/>
+      <c r="C4" s="203" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="201"/>
-      <c r="E4" s="201"/>
-      <c r="F4" s="201"/>
-      <c r="G4" s="201"/>
-      <c r="H4" s="201"/>
-      <c r="I4" s="201"/>
-      <c r="J4" s="201"/>
-      <c r="K4" s="201"/>
-      <c r="L4" s="201"/>
-      <c r="M4" s="201"/>
-      <c r="N4" s="201"/>
-      <c r="O4" s="201"/>
-      <c r="P4" s="198" t="s">
+      <c r="D4" s="203"/>
+      <c r="E4" s="203"/>
+      <c r="F4" s="203"/>
+      <c r="G4" s="203"/>
+      <c r="H4" s="203"/>
+      <c r="I4" s="203"/>
+      <c r="J4" s="203"/>
+      <c r="K4" s="203"/>
+      <c r="L4" s="203"/>
+      <c r="M4" s="203"/>
+      <c r="N4" s="203"/>
+      <c r="O4" s="203"/>
+      <c r="P4" s="200" t="s">
         <v>6</v>
       </c>
-      <c r="Q4" s="198"/>
-      <c r="R4" s="198"/>
-      <c r="S4" s="198" t="s">
+      <c r="Q4" s="200"/>
+      <c r="R4" s="200"/>
+      <c r="S4" s="200" t="s">
         <v>7</v>
       </c>
-      <c r="T4" s="198"/>
-      <c r="U4" s="198"/>
-      <c r="V4" s="198"/>
-      <c r="W4" s="198"/>
-      <c r="X4" s="206"/>
-      <c r="Y4" s="202" t="s">
+      <c r="T4" s="200"/>
+      <c r="U4" s="200"/>
+      <c r="V4" s="200"/>
+      <c r="W4" s="200"/>
+      <c r="X4" s="208"/>
+      <c r="Y4" s="204" t="s">
         <v>8</v>
       </c>
-      <c r="Z4" s="202"/>
-      <c r="AA4" s="203"/>
+      <c r="Z4" s="204"/>
+      <c r="AA4" s="205"/>
       <c r="AB4" s="49"/>
       <c r="AC4" s="49"/>
       <c r="AD4" s="5">
@@ -4408,43 +4408,43 @@
       </c>
     </row>
     <row r="5" spans="1:64" ht="16" x14ac:dyDescent="0.3">
-      <c r="A5" s="199"/>
-      <c r="B5" s="200"/>
-      <c r="C5" s="200" t="s">
+      <c r="A5" s="201"/>
+      <c r="B5" s="202"/>
+      <c r="C5" s="202" t="s">
         <v>9</v>
       </c>
-      <c r="D5" s="200"/>
-      <c r="E5" s="200"/>
-      <c r="F5" s="200"/>
-      <c r="G5" s="200"/>
-      <c r="H5" s="207" t="s">
+      <c r="D5" s="202"/>
+      <c r="E5" s="202"/>
+      <c r="F5" s="202"/>
+      <c r="G5" s="202"/>
+      <c r="H5" s="209" t="s">
         <v>115</v>
       </c>
-      <c r="I5" s="208"/>
-      <c r="J5" s="207" t="s">
+      <c r="I5" s="210"/>
+      <c r="J5" s="209" t="s">
         <v>89</v>
       </c>
-      <c r="K5" s="208"/>
+      <c r="K5" s="210"/>
       <c r="L5" s="53"/>
       <c r="M5" s="53"/>
       <c r="N5" s="53"/>
       <c r="O5" s="53"/>
-      <c r="P5" s="200"/>
-      <c r="Q5" s="200"/>
-      <c r="R5" s="200"/>
-      <c r="S5" s="200" t="s">
+      <c r="P5" s="202"/>
+      <c r="Q5" s="202"/>
+      <c r="R5" s="202"/>
+      <c r="S5" s="202" t="s">
         <v>2</v>
       </c>
-      <c r="T5" s="200"/>
-      <c r="U5" s="200"/>
-      <c r="V5" s="200" t="s">
+      <c r="T5" s="202"/>
+      <c r="U5" s="202"/>
+      <c r="V5" s="202" t="s">
         <v>3</v>
       </c>
-      <c r="W5" s="200"/>
-      <c r="X5" s="191"/>
-      <c r="Y5" s="204"/>
-      <c r="Z5" s="204"/>
-      <c r="AA5" s="205"/>
+      <c r="W5" s="202"/>
+      <c r="X5" s="193"/>
+      <c r="Y5" s="206"/>
+      <c r="Z5" s="206"/>
+      <c r="AA5" s="207"/>
       <c r="AB5" s="45" t="s">
         <v>87</v>
       </c>
@@ -4579,33 +4579,33 @@
       </c>
     </row>
     <row r="6" spans="1:64" ht="16" x14ac:dyDescent="0.3">
-      <c r="A6" s="199"/>
-      <c r="B6" s="200"/>
-      <c r="C6" s="200"/>
-      <c r="D6" s="200"/>
-      <c r="E6" s="200"/>
-      <c r="F6" s="200"/>
-      <c r="G6" s="200"/>
-      <c r="H6" s="209"/>
-      <c r="I6" s="210"/>
-      <c r="J6" s="209"/>
-      <c r="K6" s="210"/>
+      <c r="A6" s="201"/>
+      <c r="B6" s="202"/>
+      <c r="C6" s="202"/>
+      <c r="D6" s="202"/>
+      <c r="E6" s="202"/>
+      <c r="F6" s="202"/>
+      <c r="G6" s="202"/>
+      <c r="H6" s="211"/>
+      <c r="I6" s="212"/>
+      <c r="J6" s="211"/>
+      <c r="K6" s="212"/>
       <c r="L6" s="53"/>
       <c r="M6" s="53"/>
       <c r="N6" s="53"/>
       <c r="O6" s="53"/>
-      <c r="P6" s="200"/>
-      <c r="Q6" s="200"/>
-      <c r="R6" s="200"/>
-      <c r="S6" s="200"/>
-      <c r="T6" s="200"/>
-      <c r="U6" s="200"/>
-      <c r="V6" s="200"/>
-      <c r="W6" s="200"/>
-      <c r="X6" s="191"/>
-      <c r="Y6" s="204"/>
-      <c r="Z6" s="204"/>
-      <c r="AA6" s="205"/>
+      <c r="P6" s="202"/>
+      <c r="Q6" s="202"/>
+      <c r="R6" s="202"/>
+      <c r="S6" s="202"/>
+      <c r="T6" s="202"/>
+      <c r="U6" s="202"/>
+      <c r="V6" s="202"/>
+      <c r="W6" s="202"/>
+      <c r="X6" s="193"/>
+      <c r="Y6" s="206"/>
+      <c r="Z6" s="206"/>
+      <c r="AA6" s="207"/>
       <c r="AB6" s="45"/>
       <c r="AC6" s="45"/>
       <c r="AD6" s="11" t="str">
@@ -9096,7 +9096,7 @@
       <c r="W59" s="21"/>
       <c r="X59" s="21"/>
       <c r="Y59" s="40">
-        <v>0.8</v>
+        <v>0.9</v>
       </c>
       <c r="Z59" s="4"/>
       <c r="AA59" s="43"/>
@@ -9105,7 +9105,7 @@
       </c>
       <c r="AC59" s="107">
         <f t="shared" si="6"/>
-        <v>0.8</v>
+        <v>0.9</v>
       </c>
       <c r="AD59" s="44"/>
       <c r="AE59" s="2"/>
@@ -9179,8 +9179,8 @@
       </c>
       <c r="W60" s="21"/>
       <c r="X60" s="21"/>
-      <c r="Y60" s="25">
-        <v>0.8</v>
+      <c r="Y60" s="25" t="s">
+        <v>116</v>
       </c>
       <c r="Z60" s="4"/>
       <c r="AA60" s="43"/>
@@ -9189,7 +9189,7 @@
       </c>
       <c r="AC60" s="107">
         <f t="shared" si="6"/>
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="AD60" s="44"/>
       <c r="AE60" s="2"/>
@@ -9264,7 +9264,7 @@
       <c r="W61" s="21"/>
       <c r="X61" s="21"/>
       <c r="Y61" s="25">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="Z61" s="4"/>
       <c r="AA61" s="43"/>
@@ -9273,7 +9273,7 @@
       </c>
       <c r="AC61" s="107">
         <f t="shared" si="6"/>
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="AD61" s="44"/>
       <c r="AE61" s="2"/>
@@ -9431,8 +9431,8 @@
       </c>
       <c r="W63" s="21"/>
       <c r="X63" s="21"/>
-      <c r="Y63" s="25">
-        <v>0.9</v>
+      <c r="Y63" s="25" t="s">
+        <v>116</v>
       </c>
       <c r="Z63" s="4"/>
       <c r="AA63" s="43"/>
@@ -9441,7 +9441,7 @@
       </c>
       <c r="AC63" s="107">
         <f t="shared" si="6"/>
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="AD63" s="44"/>
       <c r="AE63" s="2"/>
@@ -9567,8 +9567,8 @@
       </c>
     </row>
     <row r="65" spans="1:62" ht="16" x14ac:dyDescent="0.3">
-      <c r="A65" s="189"/>
-      <c r="B65" s="190"/>
+      <c r="A65" s="223"/>
+      <c r="B65" s="224"/>
       <c r="C65" s="19"/>
       <c r="D65" s="19"/>
       <c r="E65" s="19"/>
@@ -9651,8 +9651,8 @@
       </c>
     </row>
     <row r="66" spans="1:62" ht="16" x14ac:dyDescent="0.3">
-      <c r="A66" s="189"/>
-      <c r="B66" s="190"/>
+      <c r="A66" s="223"/>
+      <c r="B66" s="224"/>
       <c r="C66" s="19"/>
       <c r="D66" s="19"/>
       <c r="E66" s="19"/>
@@ -9685,8 +9685,8 @@
       </c>
       <c r="W66" s="21"/>
       <c r="X66" s="21"/>
-      <c r="Y66" s="25">
-        <v>0.9</v>
+      <c r="Y66" s="25" t="s">
+        <v>116</v>
       </c>
       <c r="Z66" s="4"/>
       <c r="AA66" s="43"/>
@@ -9695,7 +9695,7 @@
       </c>
       <c r="AC66" s="107">
         <f t="shared" si="6"/>
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="AD66" s="44"/>
       <c r="AE66" s="2"/>
@@ -9735,8 +9735,8 @@
       </c>
     </row>
     <row r="67" spans="1:62" ht="16" x14ac:dyDescent="0.3">
-      <c r="A67" s="189"/>
-      <c r="B67" s="190"/>
+      <c r="A67" s="223"/>
+      <c r="B67" s="224"/>
       <c r="C67" s="19"/>
       <c r="D67" s="19"/>
       <c r="E67" s="19"/>
@@ -9819,8 +9819,8 @@
       </c>
     </row>
     <row r="68" spans="1:62" ht="16" x14ac:dyDescent="0.3">
-      <c r="A68" s="189"/>
-      <c r="B68" s="190"/>
+      <c r="A68" s="223"/>
+      <c r="B68" s="224"/>
       <c r="C68" s="19"/>
       <c r="D68" s="19"/>
       <c r="E68" s="19"/>
@@ -9903,8 +9903,8 @@
       </c>
     </row>
     <row r="69" spans="1:62" ht="16" x14ac:dyDescent="0.3">
-      <c r="A69" s="189"/>
-      <c r="B69" s="190"/>
+      <c r="A69" s="223"/>
+      <c r="B69" s="224"/>
       <c r="C69" s="19"/>
       <c r="D69" s="19"/>
       <c r="E69" s="19"/>
@@ -10105,8 +10105,8 @@
       </c>
       <c r="W71" s="21"/>
       <c r="X71" s="21"/>
-      <c r="Y71" s="25">
-        <v>0.8</v>
+      <c r="Y71" s="25" t="s">
+        <v>116</v>
       </c>
       <c r="Z71" s="4"/>
       <c r="AA71" s="43"/>
@@ -10115,7 +10115,7 @@
       </c>
       <c r="AC71" s="107">
         <f t="shared" si="6"/>
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="AD71" s="44"/>
       <c r="AE71" s="2"/>
@@ -13027,6 +13027,11 @@
     </row>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="A69:B69"/>
+    <mergeCell ref="A68:B68"/>
+    <mergeCell ref="A67:B67"/>
+    <mergeCell ref="A66:B66"/>
+    <mergeCell ref="A65:B65"/>
     <mergeCell ref="AD1:AG1"/>
     <mergeCell ref="AH1:AN1"/>
     <mergeCell ref="AD2:AG2"/>
@@ -13043,11 +13048,6 @@
     <mergeCell ref="J5:K6"/>
     <mergeCell ref="A1:G2"/>
     <mergeCell ref="H1:AC2"/>
-    <mergeCell ref="A69:B69"/>
-    <mergeCell ref="A68:B68"/>
-    <mergeCell ref="A67:B67"/>
-    <mergeCell ref="A66:B66"/>
-    <mergeCell ref="A65:B65"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="AD5:AD6">
@@ -13080,8 +13080,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7BC30043-DC99-4AC1-B9B7-184E5B4C9BD6}">
   <dimension ref="A1:T21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P7" sqref="P7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="P9" sqref="P9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
@@ -13261,11 +13261,11 @@
       </c>
       <c r="O3" s="88">
         <f t="shared" si="0"/>
-        <v>0.85637583892617442</v>
+        <v>0.87852348993288598</v>
       </c>
       <c r="P3" s="88">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.87852348993288598</v>
       </c>
       <c r="Q3" s="88">
         <f t="shared" si="0"/>
@@ -13502,9 +13502,11 @@
       </c>
       <c r="N7" s="90"/>
       <c r="O7" s="90">
-        <v>255.2</v>
-      </c>
-      <c r="P7" s="91"/>
+        <v>261.8</v>
+      </c>
+      <c r="P7" s="91">
+        <v>261.8</v>
+      </c>
       <c r="Q7" s="91"/>
       <c r="R7" s="91"/>
       <c r="S7" s="91"/>
@@ -13513,63 +13515,63 @@
     <row r="8" spans="1:20" x14ac:dyDescent="0.3">
       <c r="F8">
         <f>Sheet3!$F$101</f>
-        <v>255.14999999999998</v>
+        <v>261.75</v>
       </c>
       <c r="G8">
         <f>Sheet3!$F$101</f>
-        <v>255.14999999999998</v>
+        <v>261.75</v>
       </c>
       <c r="H8">
         <f>Sheet3!$F$101</f>
-        <v>255.14999999999998</v>
+        <v>261.75</v>
       </c>
       <c r="I8">
         <f>Sheet3!$F$101</f>
-        <v>255.14999999999998</v>
+        <v>261.75</v>
       </c>
       <c r="J8">
         <f>Sheet3!$F$101</f>
-        <v>255.14999999999998</v>
+        <v>261.75</v>
       </c>
       <c r="K8">
         <f>Sheet3!$F$101</f>
-        <v>255.14999999999998</v>
+        <v>261.75</v>
       </c>
       <c r="L8">
         <f>Sheet3!$F$101</f>
-        <v>255.14999999999998</v>
+        <v>261.75</v>
       </c>
       <c r="M8">
         <f>Sheet3!$F$101</f>
-        <v>255.14999999999998</v>
+        <v>261.75</v>
       </c>
       <c r="N8">
         <f>Sheet3!$F$101</f>
-        <v>255.14999999999998</v>
+        <v>261.75</v>
       </c>
       <c r="O8">
         <f>Sheet3!$F$101</f>
-        <v>255.14999999999998</v>
+        <v>261.75</v>
       </c>
       <c r="P8">
         <f>Sheet3!$F$101</f>
-        <v>255.14999999999998</v>
+        <v>261.75</v>
       </c>
       <c r="Q8">
         <f>Sheet3!$F$101</f>
-        <v>255.14999999999998</v>
+        <v>261.75</v>
       </c>
       <c r="R8">
         <f>Sheet3!$F$101</f>
-        <v>255.14999999999998</v>
+        <v>261.75</v>
       </c>
       <c r="S8">
         <f>Sheet3!$F$101</f>
-        <v>255.14999999999998</v>
+        <v>261.75</v>
       </c>
       <c r="T8">
         <f>Sheet3!$F$101</f>
-        <v>255.14999999999998</v>
+        <v>261.75</v>
       </c>
     </row>
     <row r="9" spans="1:20" x14ac:dyDescent="0.3">
@@ -13628,7 +13630,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{403F8652-4296-415E-A6A0-53C23B18A84C}">
   <dimension ref="C2:F101"/>
   <sheetViews>
-    <sheetView topLeftCell="A75" workbookViewId="0">
+    <sheetView topLeftCell="A77" workbookViewId="0">
       <selection activeCell="F101" sqref="F101"/>
     </sheetView>
   </sheetViews>
@@ -13640,15 +13642,15 @@
   <sheetData>
     <row r="2" spans="4:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D2" s="1"/>
-      <c r="E2" s="207" t="s">
+      <c r="E2" s="209" t="s">
         <v>89</v>
       </c>
-      <c r="F2" s="208"/>
+      <c r="F2" s="210"/>
     </row>
     <row r="3" spans="4:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D3" s="1"/>
-      <c r="E3" s="222"/>
-      <c r="F3" s="223"/>
+      <c r="E3" s="226"/>
+      <c r="F3" s="227"/>
     </row>
     <row r="4" spans="4:6" ht="16" x14ac:dyDescent="0.3">
       <c r="D4" s="68"/>
@@ -13991,8 +13993,8 @@
       </c>
     </row>
     <row r="38" spans="3:6" ht="16" x14ac:dyDescent="0.3">
-      <c r="C38" s="221"/>
-      <c r="D38" s="221"/>
+      <c r="C38" s="225"/>
+      <c r="D38" s="225"/>
       <c r="E38" s="69" t="s">
         <v>55</v>
       </c>
@@ -14002,8 +14004,8 @@
       </c>
     </row>
     <row r="39" spans="3:6" ht="16" x14ac:dyDescent="0.3">
-      <c r="C39" s="221"/>
-      <c r="D39" s="221"/>
+      <c r="C39" s="225"/>
+      <c r="D39" s="225"/>
       <c r="E39" s="69" t="s">
         <v>56</v>
       </c>
@@ -14162,7 +14164,7 @@
       </c>
       <c r="F54" s="69">
         <f>工数予実管理表!AB59*工数予実管理表!AC59</f>
-        <v>5.6000000000000005</v>
+        <v>6.3</v>
       </c>
     </row>
     <row r="55" spans="3:6" ht="16" x14ac:dyDescent="0.3">
@@ -14173,7 +14175,7 @@
       </c>
       <c r="F55" s="69">
         <f>工数予実管理表!AB60*工数予実管理表!AC60</f>
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="56" spans="3:6" ht="16" x14ac:dyDescent="0.3">
@@ -14184,7 +14186,7 @@
       </c>
       <c r="F56" s="69">
         <f>工数予実管理表!AB61*工数予実管理表!AC61</f>
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="57" spans="3:6" ht="16" x14ac:dyDescent="0.3">
@@ -14206,7 +14208,7 @@
       </c>
       <c r="F58" s="69">
         <f>工数予実管理表!AB63*工数予実管理表!AC63</f>
-        <v>6.3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="59" spans="3:6" ht="16" x14ac:dyDescent="0.3">
@@ -14239,7 +14241,7 @@
       </c>
       <c r="F61" s="69">
         <f>工数予実管理表!AB66*工数予実管理表!AC66</f>
-        <v>7.2</v>
+        <v>8</v>
       </c>
     </row>
     <row r="62" spans="3:6" ht="16" x14ac:dyDescent="0.3">
@@ -14294,7 +14296,7 @@
       </c>
       <c r="F66" s="69">
         <f>工数予実管理表!AB71*工数予実管理表!AC71</f>
-        <v>5.6000000000000005</v>
+        <v>7</v>
       </c>
     </row>
     <row r="67" spans="3:6" ht="16" x14ac:dyDescent="0.3">
@@ -14674,7 +14676,7 @@
     <row r="101" spans="3:6" x14ac:dyDescent="0.3">
       <c r="F101" s="111">
         <f>SUM(F4:F100)</f>
-        <v>255.14999999999998</v>
+        <v>261.75</v>
       </c>
     </row>
   </sheetData>
@@ -15461,7 +15463,7 @@
       <c r="I40" s="26"/>
       <c r="J40" s="33">
         <f>工数予実管理表!Y59</f>
-        <v>0.8</v>
+        <v>0.9</v>
       </c>
       <c r="K40" s="4"/>
       <c r="L40" s="43"/>
@@ -16353,9 +16355,9 @@
       </c>
       <c r="H82" s="26"/>
       <c r="I82" s="62"/>
-      <c r="J82" s="33">
+      <c r="J82" s="33" t="str">
         <f>工数予実管理表!Y63</f>
-        <v>0.9</v>
+        <v>完了</v>
       </c>
       <c r="K82" s="4"/>
       <c r="L82" s="43"/>
@@ -16428,9 +16430,9 @@
       </c>
       <c r="H86" s="184"/>
       <c r="I86" s="184"/>
-      <c r="J86" s="33">
+      <c r="J86" s="33" t="str">
         <f>工数予実管理表!Y60</f>
-        <v>0.8</v>
+        <v>完了</v>
       </c>
     </row>
     <row r="87" spans="3:12" ht="16" hidden="1" x14ac:dyDescent="0.3">
@@ -16517,9 +16519,9 @@
       </c>
       <c r="H92" s="184"/>
       <c r="I92" s="184"/>
-      <c r="J92" s="33">
+      <c r="J92" s="33" t="str">
         <f>工数予実管理表!Y71</f>
-        <v>0.8</v>
+        <v>完了</v>
       </c>
     </row>
     <row r="93" spans="3:12" ht="16" hidden="1" x14ac:dyDescent="0.3">
@@ -16581,7 +16583,7 @@
       <c r="I96" s="184"/>
       <c r="J96" s="33">
         <f>工数予実管理表!Y61</f>
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="97" spans="3:10" ht="16" x14ac:dyDescent="0.3">
@@ -16617,9 +16619,9 @@
       </c>
       <c r="H98" s="186"/>
       <c r="I98" s="186"/>
-      <c r="J98" s="33">
+      <c r="J98" s="33" t="str">
         <f>工数予実管理表!Y66</f>
-        <v>0.9</v>
+        <v>完了</v>
       </c>
     </row>
     <row r="99" spans="3:10" ht="16" x14ac:dyDescent="0.3">
@@ -16738,15 +16740,15 @@
   </cols>
   <sheetData>
     <row r="2" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C2" s="225" t="s">
+      <c r="C2" s="190" t="s">
         <v>162</v>
       </c>
-      <c r="D2" s="225"/>
-      <c r="F2" s="224" t="s">
+      <c r="D2" s="190"/>
+      <c r="F2" s="189" t="s">
         <v>163</v>
       </c>
-      <c r="G2" s="224"/>
-      <c r="H2" s="224"/>
+      <c r="G2" s="189"/>
+      <c r="H2" s="189"/>
     </row>
     <row r="3" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C3" s="57" t="s">
@@ -16771,22 +16773,22 @@
         <v>168</v>
       </c>
       <c r="D5" s="57"/>
-      <c r="E5" s="226"/>
-      <c r="F5" s="226" t="s">
+      <c r="E5" s="191"/>
+      <c r="F5" s="191" t="s">
         <v>172</v>
       </c>
-      <c r="G5" s="226"/>
+      <c r="G5" s="191"/>
     </row>
     <row r="6" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C6" s="57" t="s">
         <v>169</v>
       </c>
       <c r="D6" s="57"/>
-      <c r="E6" s="226"/>
-      <c r="F6" s="226" t="s">
+      <c r="E6" s="191"/>
+      <c r="F6" s="191" t="s">
         <v>173</v>
       </c>
-      <c r="G6" s="226"/>
+      <c r="G6" s="191"/>
     </row>
     <row r="7" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C7" s="57" t="s">
@@ -16801,7 +16803,7 @@
       <c r="D8" s="57"/>
     </row>
     <row r="9" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C9" s="227" t="s">
+      <c r="C9" s="192" t="s">
         <v>174</v>
       </c>
     </row>
@@ -16812,21 +16814,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x010100364AEC801DCCFF4C9A7CD82776573E34" ma:contentTypeVersion="0" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="9a90bd606c73e53fbdca164192b510d5">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="86e6f6c817e23f4348afe6a544d017da">
     <xsd:element name="properties">
@@ -16940,10 +16927,33 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4F999A99-14E0-4A35-8552-0D0111146846}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E8C7E73E-37A8-4119-AD2E-81AFBFD39544}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -16958,17 +16968,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E8C7E73E-37A8-4119-AD2E-81AFBFD39544}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4F999A99-14E0-4A35-8552-0D0111146846}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/doc/D4_ドキュメント/予実管理表(最新版)_D4.xlsx
+++ b/doc/D4_ドキュメント/予実管理表(最新版)_D4.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12B898A7-5513-4D6F-86E6-E8457183685D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25B1C1A3-6087-44EB-80B2-BAC357A63644}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="工数予実管理表" sheetId="5" r:id="rId1"/>
@@ -1328,7 +1328,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="44">
+  <borders count="43">
     <border>
       <left/>
       <right/>
@@ -1852,17 +1852,6 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1872,7 +1861,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="228">
+  <cellXfs count="227">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2449,8 +2438,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2541,12 +2533,6 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -4017,7 +4003,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA4A6EF2-62B9-43FE-BFFD-0A328B128D1B}">
   <dimension ref="A1:BL111"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G65" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="G65" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="Y84" sqref="Y84"/>
     </sheetView>
   </sheetViews>
@@ -4052,54 +4038,54 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:64" ht="16" x14ac:dyDescent="0.3">
-      <c r="A1" s="213" t="s">
+      <c r="A1" s="214" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="214"/>
-      <c r="C1" s="214"/>
-      <c r="D1" s="214"/>
-      <c r="E1" s="214"/>
-      <c r="F1" s="214"/>
-      <c r="G1" s="214"/>
-      <c r="H1" s="217" t="s">
+      <c r="B1" s="215"/>
+      <c r="C1" s="215"/>
+      <c r="D1" s="215"/>
+      <c r="E1" s="215"/>
+      <c r="F1" s="215"/>
+      <c r="G1" s="215"/>
+      <c r="H1" s="218" t="s">
         <v>1</v>
       </c>
-      <c r="I1" s="218"/>
-      <c r="J1" s="218"/>
-      <c r="K1" s="218"/>
-      <c r="L1" s="218"/>
-      <c r="M1" s="218"/>
-      <c r="N1" s="218"/>
-      <c r="O1" s="218"/>
-      <c r="P1" s="218"/>
-      <c r="Q1" s="218"/>
-      <c r="R1" s="218"/>
-      <c r="S1" s="218"/>
-      <c r="T1" s="218"/>
-      <c r="U1" s="218"/>
-      <c r="V1" s="218"/>
-      <c r="W1" s="218"/>
-      <c r="X1" s="218"/>
-      <c r="Y1" s="218"/>
-      <c r="Z1" s="218"/>
-      <c r="AA1" s="218"/>
-      <c r="AB1" s="218"/>
-      <c r="AC1" s="219"/>
-      <c r="AD1" s="193" t="s">
+      <c r="I1" s="219"/>
+      <c r="J1" s="219"/>
+      <c r="K1" s="219"/>
+      <c r="L1" s="219"/>
+      <c r="M1" s="219"/>
+      <c r="N1" s="219"/>
+      <c r="O1" s="219"/>
+      <c r="P1" s="219"/>
+      <c r="Q1" s="219"/>
+      <c r="R1" s="219"/>
+      <c r="S1" s="219"/>
+      <c r="T1" s="219"/>
+      <c r="U1" s="219"/>
+      <c r="V1" s="219"/>
+      <c r="W1" s="219"/>
+      <c r="X1" s="219"/>
+      <c r="Y1" s="219"/>
+      <c r="Z1" s="219"/>
+      <c r="AA1" s="219"/>
+      <c r="AB1" s="219"/>
+      <c r="AC1" s="220"/>
+      <c r="AD1" s="194" t="s">
         <v>2</v>
       </c>
-      <c r="AE1" s="194"/>
-      <c r="AF1" s="194"/>
-      <c r="AG1" s="195"/>
-      <c r="AH1" s="196">
+      <c r="AE1" s="195"/>
+      <c r="AF1" s="195"/>
+      <c r="AG1" s="196"/>
+      <c r="AH1" s="197">
         <v>45078</v>
       </c>
-      <c r="AI1" s="197"/>
-      <c r="AJ1" s="197"/>
-      <c r="AK1" s="197"/>
-      <c r="AL1" s="197"/>
-      <c r="AM1" s="197"/>
-      <c r="AN1" s="198"/>
+      <c r="AI1" s="198"/>
+      <c r="AJ1" s="198"/>
+      <c r="AK1" s="198"/>
+      <c r="AL1" s="198"/>
+      <c r="AM1" s="198"/>
+      <c r="AN1" s="199"/>
       <c r="AO1" s="1"/>
       <c r="AP1" s="1"/>
       <c r="AQ1" s="1"/>
@@ -4121,50 +4107,50 @@
       <c r="BG1" s="1"/>
     </row>
     <row r="2" spans="1:64" ht="16" x14ac:dyDescent="0.3">
-      <c r="A2" s="215"/>
-      <c r="B2" s="216"/>
-      <c r="C2" s="216"/>
-      <c r="D2" s="216"/>
-      <c r="E2" s="216"/>
-      <c r="F2" s="216"/>
-      <c r="G2" s="216"/>
-      <c r="H2" s="220"/>
-      <c r="I2" s="221"/>
-      <c r="J2" s="221"/>
-      <c r="K2" s="221"/>
-      <c r="L2" s="221"/>
-      <c r="M2" s="221"/>
-      <c r="N2" s="221"/>
-      <c r="O2" s="221"/>
-      <c r="P2" s="221"/>
-      <c r="Q2" s="221"/>
-      <c r="R2" s="221"/>
-      <c r="S2" s="221"/>
-      <c r="T2" s="221"/>
-      <c r="U2" s="221"/>
-      <c r="V2" s="221"/>
-      <c r="W2" s="221"/>
-      <c r="X2" s="221"/>
-      <c r="Y2" s="221"/>
-      <c r="Z2" s="221"/>
-      <c r="AA2" s="221"/>
-      <c r="AB2" s="221"/>
-      <c r="AC2" s="222"/>
-      <c r="AD2" s="193" t="s">
+      <c r="A2" s="216"/>
+      <c r="B2" s="217"/>
+      <c r="C2" s="217"/>
+      <c r="D2" s="217"/>
+      <c r="E2" s="217"/>
+      <c r="F2" s="217"/>
+      <c r="G2" s="217"/>
+      <c r="H2" s="221"/>
+      <c r="I2" s="222"/>
+      <c r="J2" s="222"/>
+      <c r="K2" s="222"/>
+      <c r="L2" s="222"/>
+      <c r="M2" s="222"/>
+      <c r="N2" s="222"/>
+      <c r="O2" s="222"/>
+      <c r="P2" s="222"/>
+      <c r="Q2" s="222"/>
+      <c r="R2" s="222"/>
+      <c r="S2" s="222"/>
+      <c r="T2" s="222"/>
+      <c r="U2" s="222"/>
+      <c r="V2" s="222"/>
+      <c r="W2" s="222"/>
+      <c r="X2" s="222"/>
+      <c r="Y2" s="222"/>
+      <c r="Z2" s="222"/>
+      <c r="AA2" s="222"/>
+      <c r="AB2" s="222"/>
+      <c r="AC2" s="223"/>
+      <c r="AD2" s="194" t="s">
         <v>3</v>
       </c>
-      <c r="AE2" s="194"/>
-      <c r="AF2" s="194"/>
-      <c r="AG2" s="195"/>
-      <c r="AH2" s="196">
+      <c r="AE2" s="195"/>
+      <c r="AF2" s="195"/>
+      <c r="AG2" s="196"/>
+      <c r="AH2" s="197">
         <v>45107</v>
       </c>
-      <c r="AI2" s="197"/>
-      <c r="AJ2" s="197"/>
-      <c r="AK2" s="197"/>
-      <c r="AL2" s="197"/>
-      <c r="AM2" s="197"/>
-      <c r="AN2" s="198"/>
+      <c r="AI2" s="198"/>
+      <c r="AJ2" s="198"/>
+      <c r="AK2" s="198"/>
+      <c r="AL2" s="198"/>
+      <c r="AM2" s="198"/>
+      <c r="AN2" s="199"/>
       <c r="AO2" s="1"/>
       <c r="AP2" s="1"/>
       <c r="AQ2" s="1"/>
@@ -4247,43 +4233,43 @@
       <c r="BG3" s="1"/>
     </row>
     <row r="4" spans="1:64" ht="16" x14ac:dyDescent="0.3">
-      <c r="A4" s="199" t="s">
+      <c r="A4" s="200" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="200"/>
-      <c r="C4" s="203" t="s">
+      <c r="B4" s="201"/>
+      <c r="C4" s="204" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="203"/>
-      <c r="E4" s="203"/>
-      <c r="F4" s="203"/>
-      <c r="G4" s="203"/>
-      <c r="H4" s="203"/>
-      <c r="I4" s="203"/>
-      <c r="J4" s="203"/>
-      <c r="K4" s="203"/>
-      <c r="L4" s="203"/>
-      <c r="M4" s="203"/>
-      <c r="N4" s="203"/>
-      <c r="O4" s="203"/>
-      <c r="P4" s="200" t="s">
+      <c r="D4" s="204"/>
+      <c r="E4" s="204"/>
+      <c r="F4" s="204"/>
+      <c r="G4" s="204"/>
+      <c r="H4" s="204"/>
+      <c r="I4" s="204"/>
+      <c r="J4" s="204"/>
+      <c r="K4" s="204"/>
+      <c r="L4" s="204"/>
+      <c r="M4" s="204"/>
+      <c r="N4" s="204"/>
+      <c r="O4" s="204"/>
+      <c r="P4" s="201" t="s">
         <v>6</v>
       </c>
-      <c r="Q4" s="200"/>
-      <c r="R4" s="200"/>
-      <c r="S4" s="200" t="s">
+      <c r="Q4" s="201"/>
+      <c r="R4" s="201"/>
+      <c r="S4" s="201" t="s">
         <v>7</v>
       </c>
-      <c r="T4" s="200"/>
-      <c r="U4" s="200"/>
-      <c r="V4" s="200"/>
-      <c r="W4" s="200"/>
-      <c r="X4" s="208"/>
-      <c r="Y4" s="204" t="s">
+      <c r="T4" s="201"/>
+      <c r="U4" s="201"/>
+      <c r="V4" s="201"/>
+      <c r="W4" s="201"/>
+      <c r="X4" s="209"/>
+      <c r="Y4" s="205" t="s">
         <v>8</v>
       </c>
-      <c r="Z4" s="204"/>
-      <c r="AA4" s="205"/>
+      <c r="Z4" s="205"/>
+      <c r="AA4" s="206"/>
       <c r="AB4" s="49"/>
       <c r="AC4" s="49"/>
       <c r="AD4" s="5">
@@ -4408,43 +4394,43 @@
       </c>
     </row>
     <row r="5" spans="1:64" ht="16" x14ac:dyDescent="0.3">
-      <c r="A5" s="201"/>
-      <c r="B5" s="202"/>
-      <c r="C5" s="202" t="s">
+      <c r="A5" s="202"/>
+      <c r="B5" s="203"/>
+      <c r="C5" s="203" t="s">
         <v>9</v>
       </c>
-      <c r="D5" s="202"/>
-      <c r="E5" s="202"/>
-      <c r="F5" s="202"/>
-      <c r="G5" s="202"/>
-      <c r="H5" s="209" t="s">
+      <c r="D5" s="203"/>
+      <c r="E5" s="203"/>
+      <c r="F5" s="203"/>
+      <c r="G5" s="203"/>
+      <c r="H5" s="210" t="s">
         <v>115</v>
       </c>
-      <c r="I5" s="210"/>
-      <c r="J5" s="209" t="s">
+      <c r="I5" s="211"/>
+      <c r="J5" s="210" t="s">
         <v>89</v>
       </c>
-      <c r="K5" s="210"/>
+      <c r="K5" s="211"/>
       <c r="L5" s="53"/>
       <c r="M5" s="53"/>
       <c r="N5" s="53"/>
       <c r="O5" s="53"/>
-      <c r="P5" s="202"/>
-      <c r="Q5" s="202"/>
-      <c r="R5" s="202"/>
-      <c r="S5" s="202" t="s">
+      <c r="P5" s="203"/>
+      <c r="Q5" s="203"/>
+      <c r="R5" s="203"/>
+      <c r="S5" s="203" t="s">
         <v>2</v>
       </c>
-      <c r="T5" s="202"/>
-      <c r="U5" s="202"/>
-      <c r="V5" s="202" t="s">
+      <c r="T5" s="203"/>
+      <c r="U5" s="203"/>
+      <c r="V5" s="203" t="s">
         <v>3</v>
       </c>
-      <c r="W5" s="202"/>
-      <c r="X5" s="193"/>
-      <c r="Y5" s="206"/>
-      <c r="Z5" s="206"/>
-      <c r="AA5" s="207"/>
+      <c r="W5" s="203"/>
+      <c r="X5" s="194"/>
+      <c r="Y5" s="207"/>
+      <c r="Z5" s="207"/>
+      <c r="AA5" s="208"/>
       <c r="AB5" s="45" t="s">
         <v>87</v>
       </c>
@@ -4579,33 +4565,33 @@
       </c>
     </row>
     <row r="6" spans="1:64" ht="16" x14ac:dyDescent="0.3">
-      <c r="A6" s="201"/>
-      <c r="B6" s="202"/>
-      <c r="C6" s="202"/>
-      <c r="D6" s="202"/>
-      <c r="E6" s="202"/>
-      <c r="F6" s="202"/>
-      <c r="G6" s="202"/>
-      <c r="H6" s="211"/>
-      <c r="I6" s="212"/>
-      <c r="J6" s="211"/>
-      <c r="K6" s="212"/>
+      <c r="A6" s="202"/>
+      <c r="B6" s="203"/>
+      <c r="C6" s="203"/>
+      <c r="D6" s="203"/>
+      <c r="E6" s="203"/>
+      <c r="F6" s="203"/>
+      <c r="G6" s="203"/>
+      <c r="H6" s="212"/>
+      <c r="I6" s="213"/>
+      <c r="J6" s="212"/>
+      <c r="K6" s="213"/>
       <c r="L6" s="53"/>
       <c r="M6" s="53"/>
       <c r="N6" s="53"/>
       <c r="O6" s="53"/>
-      <c r="P6" s="202"/>
-      <c r="Q6" s="202"/>
-      <c r="R6" s="202"/>
-      <c r="S6" s="202"/>
-      <c r="T6" s="202"/>
-      <c r="U6" s="202"/>
-      <c r="V6" s="202"/>
-      <c r="W6" s="202"/>
-      <c r="X6" s="193"/>
-      <c r="Y6" s="206"/>
-      <c r="Z6" s="206"/>
-      <c r="AA6" s="207"/>
+      <c r="P6" s="203"/>
+      <c r="Q6" s="203"/>
+      <c r="R6" s="203"/>
+      <c r="S6" s="203"/>
+      <c r="T6" s="203"/>
+      <c r="U6" s="203"/>
+      <c r="V6" s="203"/>
+      <c r="W6" s="203"/>
+      <c r="X6" s="194"/>
+      <c r="Y6" s="207"/>
+      <c r="Z6" s="207"/>
+      <c r="AA6" s="208"/>
       <c r="AB6" s="45"/>
       <c r="AC6" s="45"/>
       <c r="AD6" s="11" t="str">
@@ -9567,8 +9553,8 @@
       </c>
     </row>
     <row r="65" spans="1:62" ht="16" x14ac:dyDescent="0.3">
-      <c r="A65" s="223"/>
-      <c r="B65" s="224"/>
+      <c r="A65" s="192"/>
+      <c r="B65" s="193"/>
       <c r="C65" s="19"/>
       <c r="D65" s="19"/>
       <c r="E65" s="19"/>
@@ -9651,8 +9637,8 @@
       </c>
     </row>
     <row r="66" spans="1:62" ht="16" x14ac:dyDescent="0.3">
-      <c r="A66" s="223"/>
-      <c r="B66" s="224"/>
+      <c r="A66" s="192"/>
+      <c r="B66" s="193"/>
       <c r="C66" s="19"/>
       <c r="D66" s="19"/>
       <c r="E66" s="19"/>
@@ -9735,8 +9721,8 @@
       </c>
     </row>
     <row r="67" spans="1:62" ht="16" x14ac:dyDescent="0.3">
-      <c r="A67" s="223"/>
-      <c r="B67" s="224"/>
+      <c r="A67" s="192"/>
+      <c r="B67" s="193"/>
       <c r="C67" s="19"/>
       <c r="D67" s="19"/>
       <c r="E67" s="19"/>
@@ -9819,8 +9805,8 @@
       </c>
     </row>
     <row r="68" spans="1:62" ht="16" x14ac:dyDescent="0.3">
-      <c r="A68" s="223"/>
-      <c r="B68" s="224"/>
+      <c r="A68" s="192"/>
+      <c r="B68" s="193"/>
       <c r="C68" s="19"/>
       <c r="D68" s="19"/>
       <c r="E68" s="19"/>
@@ -9903,8 +9889,8 @@
       </c>
     </row>
     <row r="69" spans="1:62" ht="16" x14ac:dyDescent="0.3">
-      <c r="A69" s="223"/>
-      <c r="B69" s="224"/>
+      <c r="A69" s="192"/>
+      <c r="B69" s="193"/>
       <c r="C69" s="19"/>
       <c r="D69" s="19"/>
       <c r="E69" s="19"/>
@@ -13027,11 +13013,6 @@
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="A69:B69"/>
-    <mergeCell ref="A68:B68"/>
-    <mergeCell ref="A67:B67"/>
-    <mergeCell ref="A66:B66"/>
-    <mergeCell ref="A65:B65"/>
     <mergeCell ref="AD1:AG1"/>
     <mergeCell ref="AH1:AN1"/>
     <mergeCell ref="AD2:AG2"/>
@@ -13048,6 +13029,11 @@
     <mergeCell ref="J5:K6"/>
     <mergeCell ref="A1:G2"/>
     <mergeCell ref="H1:AC2"/>
+    <mergeCell ref="A69:B69"/>
+    <mergeCell ref="A68:B68"/>
+    <mergeCell ref="A67:B67"/>
+    <mergeCell ref="A66:B66"/>
+    <mergeCell ref="A65:B65"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="AD5:AD6">
@@ -13642,15 +13628,15 @@
   <sheetData>
     <row r="2" spans="4:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D2" s="1"/>
-      <c r="E2" s="209" t="s">
+      <c r="E2" s="210" t="s">
         <v>89</v>
       </c>
-      <c r="F2" s="210"/>
+      <c r="F2" s="211"/>
     </row>
     <row r="3" spans="4:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D3" s="1"/>
-      <c r="E3" s="226"/>
-      <c r="F3" s="227"/>
+      <c r="E3" s="225"/>
+      <c r="F3" s="226"/>
     </row>
     <row r="4" spans="4:6" ht="16" x14ac:dyDescent="0.3">
       <c r="D4" s="68"/>
@@ -13993,8 +13979,8 @@
       </c>
     </row>
     <row r="38" spans="3:6" ht="16" x14ac:dyDescent="0.3">
-      <c r="C38" s="225"/>
-      <c r="D38" s="225"/>
+      <c r="C38" s="224"/>
+      <c r="D38" s="224"/>
       <c r="E38" s="69" t="s">
         <v>55</v>
       </c>
@@ -14004,8 +13990,8 @@
       </c>
     </row>
     <row r="39" spans="3:6" ht="16" x14ac:dyDescent="0.3">
-      <c r="C39" s="225"/>
-      <c r="D39" s="225"/>
+      <c r="C39" s="224"/>
+      <c r="D39" s="224"/>
       <c r="E39" s="69" t="s">
         <v>56</v>
       </c>
@@ -16727,8 +16713,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6371F3CB-A9B5-45B9-91A2-5506E8B8FC22}">
   <dimension ref="C2:H9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
@@ -16803,9 +16789,10 @@
       <c r="D8" s="57"/>
     </row>
     <row r="9" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C9" s="192" t="s">
+      <c r="C9" s="57" t="s">
         <v>174</v>
       </c>
+      <c r="D9" s="57"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
@@ -16814,6 +16801,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x010100364AEC801DCCFF4C9A7CD82776573E34" ma:contentTypeVersion="0" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="9a90bd606c73e53fbdca164192b510d5">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="86e6f6c817e23f4348afe6a544d017da">
     <xsd:element name="properties">
@@ -16927,33 +16929,10 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E8C7E73E-37A8-4119-AD2E-81AFBFD39544}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4F999A99-14E0-4A35-8552-0D0111146846}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -16968,9 +16947,17 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4F999A99-14E0-4A35-8552-0D0111146846}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E8C7E73E-37A8-4119-AD2E-81AFBFD39544}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/doc/D4_ドキュメント/予実管理表(最新版)_D4.xlsx
+++ b/doc/D4_ドキュメント/予実管理表(最新版)_D4.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25B1C1A3-6087-44EB-80B2-BAC357A63644}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1613142E-C191-45C1-B926-41A4684833AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2438,101 +2438,101 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -4038,54 +4038,54 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:64" ht="16" x14ac:dyDescent="0.3">
-      <c r="A1" s="214" t="s">
+      <c r="A1" s="212" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="215"/>
-      <c r="C1" s="215"/>
-      <c r="D1" s="215"/>
-      <c r="E1" s="215"/>
-      <c r="F1" s="215"/>
-      <c r="G1" s="215"/>
-      <c r="H1" s="218" t="s">
+      <c r="B1" s="213"/>
+      <c r="C1" s="213"/>
+      <c r="D1" s="213"/>
+      <c r="E1" s="213"/>
+      <c r="F1" s="213"/>
+      <c r="G1" s="213"/>
+      <c r="H1" s="216" t="s">
         <v>1</v>
       </c>
-      <c r="I1" s="219"/>
-      <c r="J1" s="219"/>
-      <c r="K1" s="219"/>
-      <c r="L1" s="219"/>
-      <c r="M1" s="219"/>
-      <c r="N1" s="219"/>
-      <c r="O1" s="219"/>
-      <c r="P1" s="219"/>
-      <c r="Q1" s="219"/>
-      <c r="R1" s="219"/>
-      <c r="S1" s="219"/>
-      <c r="T1" s="219"/>
-      <c r="U1" s="219"/>
-      <c r="V1" s="219"/>
-      <c r="W1" s="219"/>
-      <c r="X1" s="219"/>
-      <c r="Y1" s="219"/>
-      <c r="Z1" s="219"/>
-      <c r="AA1" s="219"/>
-      <c r="AB1" s="219"/>
-      <c r="AC1" s="220"/>
-      <c r="AD1" s="194" t="s">
+      <c r="I1" s="217"/>
+      <c r="J1" s="217"/>
+      <c r="K1" s="217"/>
+      <c r="L1" s="217"/>
+      <c r="M1" s="217"/>
+      <c r="N1" s="217"/>
+      <c r="O1" s="217"/>
+      <c r="P1" s="217"/>
+      <c r="Q1" s="217"/>
+      <c r="R1" s="217"/>
+      <c r="S1" s="217"/>
+      <c r="T1" s="217"/>
+      <c r="U1" s="217"/>
+      <c r="V1" s="217"/>
+      <c r="W1" s="217"/>
+      <c r="X1" s="217"/>
+      <c r="Y1" s="217"/>
+      <c r="Z1" s="217"/>
+      <c r="AA1" s="217"/>
+      <c r="AB1" s="217"/>
+      <c r="AC1" s="218"/>
+      <c r="AD1" s="192" t="s">
         <v>2</v>
       </c>
-      <c r="AE1" s="195"/>
-      <c r="AF1" s="195"/>
-      <c r="AG1" s="196"/>
-      <c r="AH1" s="197">
+      <c r="AE1" s="193"/>
+      <c r="AF1" s="193"/>
+      <c r="AG1" s="194"/>
+      <c r="AH1" s="195">
         <v>45078</v>
       </c>
-      <c r="AI1" s="198"/>
-      <c r="AJ1" s="198"/>
-      <c r="AK1" s="198"/>
-      <c r="AL1" s="198"/>
-      <c r="AM1" s="198"/>
-      <c r="AN1" s="199"/>
+      <c r="AI1" s="196"/>
+      <c r="AJ1" s="196"/>
+      <c r="AK1" s="196"/>
+      <c r="AL1" s="196"/>
+      <c r="AM1" s="196"/>
+      <c r="AN1" s="197"/>
       <c r="AO1" s="1"/>
       <c r="AP1" s="1"/>
       <c r="AQ1" s="1"/>
@@ -4107,50 +4107,50 @@
       <c r="BG1" s="1"/>
     </row>
     <row r="2" spans="1:64" ht="16" x14ac:dyDescent="0.3">
-      <c r="A2" s="216"/>
-      <c r="B2" s="217"/>
-      <c r="C2" s="217"/>
-      <c r="D2" s="217"/>
-      <c r="E2" s="217"/>
-      <c r="F2" s="217"/>
-      <c r="G2" s="217"/>
-      <c r="H2" s="221"/>
-      <c r="I2" s="222"/>
-      <c r="J2" s="222"/>
-      <c r="K2" s="222"/>
-      <c r="L2" s="222"/>
-      <c r="M2" s="222"/>
-      <c r="N2" s="222"/>
-      <c r="O2" s="222"/>
-      <c r="P2" s="222"/>
-      <c r="Q2" s="222"/>
-      <c r="R2" s="222"/>
-      <c r="S2" s="222"/>
-      <c r="T2" s="222"/>
-      <c r="U2" s="222"/>
-      <c r="V2" s="222"/>
-      <c r="W2" s="222"/>
-      <c r="X2" s="222"/>
-      <c r="Y2" s="222"/>
-      <c r="Z2" s="222"/>
-      <c r="AA2" s="222"/>
-      <c r="AB2" s="222"/>
-      <c r="AC2" s="223"/>
-      <c r="AD2" s="194" t="s">
+      <c r="A2" s="214"/>
+      <c r="B2" s="215"/>
+      <c r="C2" s="215"/>
+      <c r="D2" s="215"/>
+      <c r="E2" s="215"/>
+      <c r="F2" s="215"/>
+      <c r="G2" s="215"/>
+      <c r="H2" s="219"/>
+      <c r="I2" s="220"/>
+      <c r="J2" s="220"/>
+      <c r="K2" s="220"/>
+      <c r="L2" s="220"/>
+      <c r="M2" s="220"/>
+      <c r="N2" s="220"/>
+      <c r="O2" s="220"/>
+      <c r="P2" s="220"/>
+      <c r="Q2" s="220"/>
+      <c r="R2" s="220"/>
+      <c r="S2" s="220"/>
+      <c r="T2" s="220"/>
+      <c r="U2" s="220"/>
+      <c r="V2" s="220"/>
+      <c r="W2" s="220"/>
+      <c r="X2" s="220"/>
+      <c r="Y2" s="220"/>
+      <c r="Z2" s="220"/>
+      <c r="AA2" s="220"/>
+      <c r="AB2" s="220"/>
+      <c r="AC2" s="221"/>
+      <c r="AD2" s="192" t="s">
         <v>3</v>
       </c>
-      <c r="AE2" s="195"/>
-      <c r="AF2" s="195"/>
-      <c r="AG2" s="196"/>
-      <c r="AH2" s="197">
+      <c r="AE2" s="193"/>
+      <c r="AF2" s="193"/>
+      <c r="AG2" s="194"/>
+      <c r="AH2" s="195">
         <v>45107</v>
       </c>
-      <c r="AI2" s="198"/>
-      <c r="AJ2" s="198"/>
-      <c r="AK2" s="198"/>
-      <c r="AL2" s="198"/>
-      <c r="AM2" s="198"/>
-      <c r="AN2" s="199"/>
+      <c r="AI2" s="196"/>
+      <c r="AJ2" s="196"/>
+      <c r="AK2" s="196"/>
+      <c r="AL2" s="196"/>
+      <c r="AM2" s="196"/>
+      <c r="AN2" s="197"/>
       <c r="AO2" s="1"/>
       <c r="AP2" s="1"/>
       <c r="AQ2" s="1"/>
@@ -4233,43 +4233,43 @@
       <c r="BG3" s="1"/>
     </row>
     <row r="4" spans="1:64" ht="16" x14ac:dyDescent="0.3">
-      <c r="A4" s="200" t="s">
+      <c r="A4" s="198" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="201"/>
-      <c r="C4" s="204" t="s">
+      <c r="B4" s="199"/>
+      <c r="C4" s="202" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="204"/>
-      <c r="E4" s="204"/>
-      <c r="F4" s="204"/>
-      <c r="G4" s="204"/>
-      <c r="H4" s="204"/>
-      <c r="I4" s="204"/>
-      <c r="J4" s="204"/>
-      <c r="K4" s="204"/>
-      <c r="L4" s="204"/>
-      <c r="M4" s="204"/>
-      <c r="N4" s="204"/>
-      <c r="O4" s="204"/>
-      <c r="P4" s="201" t="s">
+      <c r="D4" s="202"/>
+      <c r="E4" s="202"/>
+      <c r="F4" s="202"/>
+      <c r="G4" s="202"/>
+      <c r="H4" s="202"/>
+      <c r="I4" s="202"/>
+      <c r="J4" s="202"/>
+      <c r="K4" s="202"/>
+      <c r="L4" s="202"/>
+      <c r="M4" s="202"/>
+      <c r="N4" s="202"/>
+      <c r="O4" s="202"/>
+      <c r="P4" s="199" t="s">
         <v>6</v>
       </c>
-      <c r="Q4" s="201"/>
-      <c r="R4" s="201"/>
-      <c r="S4" s="201" t="s">
+      <c r="Q4" s="199"/>
+      <c r="R4" s="199"/>
+      <c r="S4" s="199" t="s">
         <v>7</v>
       </c>
-      <c r="T4" s="201"/>
-      <c r="U4" s="201"/>
-      <c r="V4" s="201"/>
-      <c r="W4" s="201"/>
-      <c r="X4" s="209"/>
-      <c r="Y4" s="205" t="s">
+      <c r="T4" s="199"/>
+      <c r="U4" s="199"/>
+      <c r="V4" s="199"/>
+      <c r="W4" s="199"/>
+      <c r="X4" s="207"/>
+      <c r="Y4" s="203" t="s">
         <v>8</v>
       </c>
-      <c r="Z4" s="205"/>
-      <c r="AA4" s="206"/>
+      <c r="Z4" s="203"/>
+      <c r="AA4" s="204"/>
       <c r="AB4" s="49"/>
       <c r="AC4" s="49"/>
       <c r="AD4" s="5">
@@ -4394,43 +4394,43 @@
       </c>
     </row>
     <row r="5" spans="1:64" ht="16" x14ac:dyDescent="0.3">
-      <c r="A5" s="202"/>
-      <c r="B5" s="203"/>
-      <c r="C5" s="203" t="s">
+      <c r="A5" s="200"/>
+      <c r="B5" s="201"/>
+      <c r="C5" s="201" t="s">
         <v>9</v>
       </c>
-      <c r="D5" s="203"/>
-      <c r="E5" s="203"/>
-      <c r="F5" s="203"/>
-      <c r="G5" s="203"/>
-      <c r="H5" s="210" t="s">
+      <c r="D5" s="201"/>
+      <c r="E5" s="201"/>
+      <c r="F5" s="201"/>
+      <c r="G5" s="201"/>
+      <c r="H5" s="208" t="s">
         <v>115</v>
       </c>
-      <c r="I5" s="211"/>
-      <c r="J5" s="210" t="s">
+      <c r="I5" s="209"/>
+      <c r="J5" s="208" t="s">
         <v>89</v>
       </c>
-      <c r="K5" s="211"/>
+      <c r="K5" s="209"/>
       <c r="L5" s="53"/>
       <c r="M5" s="53"/>
       <c r="N5" s="53"/>
       <c r="O5" s="53"/>
-      <c r="P5" s="203"/>
-      <c r="Q5" s="203"/>
-      <c r="R5" s="203"/>
-      <c r="S5" s="203" t="s">
+      <c r="P5" s="201"/>
+      <c r="Q5" s="201"/>
+      <c r="R5" s="201"/>
+      <c r="S5" s="201" t="s">
         <v>2</v>
       </c>
-      <c r="T5" s="203"/>
-      <c r="U5" s="203"/>
-      <c r="V5" s="203" t="s">
+      <c r="T5" s="201"/>
+      <c r="U5" s="201"/>
+      <c r="V5" s="201" t="s">
         <v>3</v>
       </c>
-      <c r="W5" s="203"/>
-      <c r="X5" s="194"/>
-      <c r="Y5" s="207"/>
-      <c r="Z5" s="207"/>
-      <c r="AA5" s="208"/>
+      <c r="W5" s="201"/>
+      <c r="X5" s="192"/>
+      <c r="Y5" s="205"/>
+      <c r="Z5" s="205"/>
+      <c r="AA5" s="206"/>
       <c r="AB5" s="45" t="s">
         <v>87</v>
       </c>
@@ -4565,33 +4565,33 @@
       </c>
     </row>
     <row r="6" spans="1:64" ht="16" x14ac:dyDescent="0.3">
-      <c r="A6" s="202"/>
-      <c r="B6" s="203"/>
-      <c r="C6" s="203"/>
-      <c r="D6" s="203"/>
-      <c r="E6" s="203"/>
-      <c r="F6" s="203"/>
-      <c r="G6" s="203"/>
-      <c r="H6" s="212"/>
-      <c r="I6" s="213"/>
-      <c r="J6" s="212"/>
-      <c r="K6" s="213"/>
+      <c r="A6" s="200"/>
+      <c r="B6" s="201"/>
+      <c r="C6" s="201"/>
+      <c r="D6" s="201"/>
+      <c r="E6" s="201"/>
+      <c r="F6" s="201"/>
+      <c r="G6" s="201"/>
+      <c r="H6" s="210"/>
+      <c r="I6" s="211"/>
+      <c r="J6" s="210"/>
+      <c r="K6" s="211"/>
       <c r="L6" s="53"/>
       <c r="M6" s="53"/>
       <c r="N6" s="53"/>
       <c r="O6" s="53"/>
-      <c r="P6" s="203"/>
-      <c r="Q6" s="203"/>
-      <c r="R6" s="203"/>
-      <c r="S6" s="203"/>
-      <c r="T6" s="203"/>
-      <c r="U6" s="203"/>
-      <c r="V6" s="203"/>
-      <c r="W6" s="203"/>
-      <c r="X6" s="194"/>
-      <c r="Y6" s="207"/>
-      <c r="Z6" s="207"/>
-      <c r="AA6" s="208"/>
+      <c r="P6" s="201"/>
+      <c r="Q6" s="201"/>
+      <c r="R6" s="201"/>
+      <c r="S6" s="201"/>
+      <c r="T6" s="201"/>
+      <c r="U6" s="201"/>
+      <c r="V6" s="201"/>
+      <c r="W6" s="201"/>
+      <c r="X6" s="192"/>
+      <c r="Y6" s="205"/>
+      <c r="Z6" s="205"/>
+      <c r="AA6" s="206"/>
       <c r="AB6" s="45"/>
       <c r="AC6" s="45"/>
       <c r="AD6" s="11" t="str">
@@ -9553,8 +9553,8 @@
       </c>
     </row>
     <row r="65" spans="1:62" ht="16" x14ac:dyDescent="0.3">
-      <c r="A65" s="192"/>
-      <c r="B65" s="193"/>
+      <c r="A65" s="222"/>
+      <c r="B65" s="223"/>
       <c r="C65" s="19"/>
       <c r="D65" s="19"/>
       <c r="E65" s="19"/>
@@ -9637,8 +9637,8 @@
       </c>
     </row>
     <row r="66" spans="1:62" ht="16" x14ac:dyDescent="0.3">
-      <c r="A66" s="192"/>
-      <c r="B66" s="193"/>
+      <c r="A66" s="222"/>
+      <c r="B66" s="223"/>
       <c r="C66" s="19"/>
       <c r="D66" s="19"/>
       <c r="E66" s="19"/>
@@ -9721,8 +9721,8 @@
       </c>
     </row>
     <row r="67" spans="1:62" ht="16" x14ac:dyDescent="0.3">
-      <c r="A67" s="192"/>
-      <c r="B67" s="193"/>
+      <c r="A67" s="222"/>
+      <c r="B67" s="223"/>
       <c r="C67" s="19"/>
       <c r="D67" s="19"/>
       <c r="E67" s="19"/>
@@ -9805,8 +9805,8 @@
       </c>
     </row>
     <row r="68" spans="1:62" ht="16" x14ac:dyDescent="0.3">
-      <c r="A68" s="192"/>
-      <c r="B68" s="193"/>
+      <c r="A68" s="222"/>
+      <c r="B68" s="223"/>
       <c r="C68" s="19"/>
       <c r="D68" s="19"/>
       <c r="E68" s="19"/>
@@ -9889,8 +9889,8 @@
       </c>
     </row>
     <row r="69" spans="1:62" ht="16" x14ac:dyDescent="0.3">
-      <c r="A69" s="192"/>
-      <c r="B69" s="193"/>
+      <c r="A69" s="222"/>
+      <c r="B69" s="223"/>
       <c r="C69" s="19"/>
       <c r="D69" s="19"/>
       <c r="E69" s="19"/>
@@ -13013,6 +13013,11 @@
     </row>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="A69:B69"/>
+    <mergeCell ref="A68:B68"/>
+    <mergeCell ref="A67:B67"/>
+    <mergeCell ref="A66:B66"/>
+    <mergeCell ref="A65:B65"/>
     <mergeCell ref="AD1:AG1"/>
     <mergeCell ref="AH1:AN1"/>
     <mergeCell ref="AD2:AG2"/>
@@ -13029,11 +13034,6 @@
     <mergeCell ref="J5:K6"/>
     <mergeCell ref="A1:G2"/>
     <mergeCell ref="H1:AC2"/>
-    <mergeCell ref="A69:B69"/>
-    <mergeCell ref="A68:B68"/>
-    <mergeCell ref="A67:B67"/>
-    <mergeCell ref="A66:B66"/>
-    <mergeCell ref="A65:B65"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="AD5:AD6">
@@ -13628,10 +13628,10 @@
   <sheetData>
     <row r="2" spans="4:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D2" s="1"/>
-      <c r="E2" s="210" t="s">
+      <c r="E2" s="208" t="s">
         <v>89</v>
       </c>
-      <c r="F2" s="211"/>
+      <c r="F2" s="209"/>
     </row>
     <row r="3" spans="4:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D3" s="1"/>
@@ -16714,7 +16714,7 @@
   <dimension ref="C2:H9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
@@ -16801,21 +16801,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x010100364AEC801DCCFF4C9A7CD82776573E34" ma:contentTypeVersion="0" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="9a90bd606c73e53fbdca164192b510d5">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="86e6f6c817e23f4348afe6a544d017da">
     <xsd:element name="properties">
@@ -16929,10 +16914,33 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4F999A99-14E0-4A35-8552-0D0111146846}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E8C7E73E-37A8-4119-AD2E-81AFBFD39544}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -16947,17 +16955,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E8C7E73E-37A8-4119-AD2E-81AFBFD39544}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4F999A99-14E0-4A35-8552-0D0111146846}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/doc/D4_ドキュメント/予実管理表(最新版)_D4.xlsx
+++ b/doc/D4_ドキュメント/予実管理表(最新版)_D4.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1613142E-C191-45C1-B926-41A4684833AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9031CD5-4386-4E14-ACCE-89E10E8B4B33}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="工数予実管理表" sheetId="5" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="889" uniqueCount="175">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="894" uniqueCount="175">
   <si>
     <t>プロジェクト名</t>
     <rPh sb="6" eb="7">
@@ -2438,6 +2438,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2527,12 +2533,6 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -4003,8 +4003,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA4A6EF2-62B9-43FE-BFFD-0A328B128D1B}">
   <dimension ref="A1:BL111"/>
   <sheetViews>
-    <sheetView topLeftCell="G65" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="Y84" sqref="Y84"/>
+    <sheetView topLeftCell="G96" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="Y85" sqref="Y85"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
@@ -4038,54 +4038,54 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:64" ht="16" x14ac:dyDescent="0.3">
-      <c r="A1" s="212" t="s">
+      <c r="A1" s="214" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="213"/>
-      <c r="C1" s="213"/>
-      <c r="D1" s="213"/>
-      <c r="E1" s="213"/>
-      <c r="F1" s="213"/>
-      <c r="G1" s="213"/>
-      <c r="H1" s="216" t="s">
+      <c r="B1" s="215"/>
+      <c r="C1" s="215"/>
+      <c r="D1" s="215"/>
+      <c r="E1" s="215"/>
+      <c r="F1" s="215"/>
+      <c r="G1" s="215"/>
+      <c r="H1" s="218" t="s">
         <v>1</v>
       </c>
-      <c r="I1" s="217"/>
-      <c r="J1" s="217"/>
-      <c r="K1" s="217"/>
-      <c r="L1" s="217"/>
-      <c r="M1" s="217"/>
-      <c r="N1" s="217"/>
-      <c r="O1" s="217"/>
-      <c r="P1" s="217"/>
-      <c r="Q1" s="217"/>
-      <c r="R1" s="217"/>
-      <c r="S1" s="217"/>
-      <c r="T1" s="217"/>
-      <c r="U1" s="217"/>
-      <c r="V1" s="217"/>
-      <c r="W1" s="217"/>
-      <c r="X1" s="217"/>
-      <c r="Y1" s="217"/>
-      <c r="Z1" s="217"/>
-      <c r="AA1" s="217"/>
-      <c r="AB1" s="217"/>
-      <c r="AC1" s="218"/>
-      <c r="AD1" s="192" t="s">
+      <c r="I1" s="219"/>
+      <c r="J1" s="219"/>
+      <c r="K1" s="219"/>
+      <c r="L1" s="219"/>
+      <c r="M1" s="219"/>
+      <c r="N1" s="219"/>
+      <c r="O1" s="219"/>
+      <c r="P1" s="219"/>
+      <c r="Q1" s="219"/>
+      <c r="R1" s="219"/>
+      <c r="S1" s="219"/>
+      <c r="T1" s="219"/>
+      <c r="U1" s="219"/>
+      <c r="V1" s="219"/>
+      <c r="W1" s="219"/>
+      <c r="X1" s="219"/>
+      <c r="Y1" s="219"/>
+      <c r="Z1" s="219"/>
+      <c r="AA1" s="219"/>
+      <c r="AB1" s="219"/>
+      <c r="AC1" s="220"/>
+      <c r="AD1" s="194" t="s">
         <v>2</v>
       </c>
-      <c r="AE1" s="193"/>
-      <c r="AF1" s="193"/>
-      <c r="AG1" s="194"/>
-      <c r="AH1" s="195">
+      <c r="AE1" s="195"/>
+      <c r="AF1" s="195"/>
+      <c r="AG1" s="196"/>
+      <c r="AH1" s="197">
         <v>45078</v>
       </c>
-      <c r="AI1" s="196"/>
-      <c r="AJ1" s="196"/>
-      <c r="AK1" s="196"/>
-      <c r="AL1" s="196"/>
-      <c r="AM1" s="196"/>
-      <c r="AN1" s="197"/>
+      <c r="AI1" s="198"/>
+      <c r="AJ1" s="198"/>
+      <c r="AK1" s="198"/>
+      <c r="AL1" s="198"/>
+      <c r="AM1" s="198"/>
+      <c r="AN1" s="199"/>
       <c r="AO1" s="1"/>
       <c r="AP1" s="1"/>
       <c r="AQ1" s="1"/>
@@ -4107,50 +4107,50 @@
       <c r="BG1" s="1"/>
     </row>
     <row r="2" spans="1:64" ht="16" x14ac:dyDescent="0.3">
-      <c r="A2" s="214"/>
-      <c r="B2" s="215"/>
-      <c r="C2" s="215"/>
-      <c r="D2" s="215"/>
-      <c r="E2" s="215"/>
-      <c r="F2" s="215"/>
-      <c r="G2" s="215"/>
-      <c r="H2" s="219"/>
-      <c r="I2" s="220"/>
-      <c r="J2" s="220"/>
-      <c r="K2" s="220"/>
-      <c r="L2" s="220"/>
-      <c r="M2" s="220"/>
-      <c r="N2" s="220"/>
-      <c r="O2" s="220"/>
-      <c r="P2" s="220"/>
-      <c r="Q2" s="220"/>
-      <c r="R2" s="220"/>
-      <c r="S2" s="220"/>
-      <c r="T2" s="220"/>
-      <c r="U2" s="220"/>
-      <c r="V2" s="220"/>
-      <c r="W2" s="220"/>
-      <c r="X2" s="220"/>
-      <c r="Y2" s="220"/>
-      <c r="Z2" s="220"/>
-      <c r="AA2" s="220"/>
-      <c r="AB2" s="220"/>
-      <c r="AC2" s="221"/>
-      <c r="AD2" s="192" t="s">
+      <c r="A2" s="216"/>
+      <c r="B2" s="217"/>
+      <c r="C2" s="217"/>
+      <c r="D2" s="217"/>
+      <c r="E2" s="217"/>
+      <c r="F2" s="217"/>
+      <c r="G2" s="217"/>
+      <c r="H2" s="221"/>
+      <c r="I2" s="222"/>
+      <c r="J2" s="222"/>
+      <c r="K2" s="222"/>
+      <c r="L2" s="222"/>
+      <c r="M2" s="222"/>
+      <c r="N2" s="222"/>
+      <c r="O2" s="222"/>
+      <c r="P2" s="222"/>
+      <c r="Q2" s="222"/>
+      <c r="R2" s="222"/>
+      <c r="S2" s="222"/>
+      <c r="T2" s="222"/>
+      <c r="U2" s="222"/>
+      <c r="V2" s="222"/>
+      <c r="W2" s="222"/>
+      <c r="X2" s="222"/>
+      <c r="Y2" s="222"/>
+      <c r="Z2" s="222"/>
+      <c r="AA2" s="222"/>
+      <c r="AB2" s="222"/>
+      <c r="AC2" s="223"/>
+      <c r="AD2" s="194" t="s">
         <v>3</v>
       </c>
-      <c r="AE2" s="193"/>
-      <c r="AF2" s="193"/>
-      <c r="AG2" s="194"/>
-      <c r="AH2" s="195">
+      <c r="AE2" s="195"/>
+      <c r="AF2" s="195"/>
+      <c r="AG2" s="196"/>
+      <c r="AH2" s="197">
         <v>45107</v>
       </c>
-      <c r="AI2" s="196"/>
-      <c r="AJ2" s="196"/>
-      <c r="AK2" s="196"/>
-      <c r="AL2" s="196"/>
-      <c r="AM2" s="196"/>
-      <c r="AN2" s="197"/>
+      <c r="AI2" s="198"/>
+      <c r="AJ2" s="198"/>
+      <c r="AK2" s="198"/>
+      <c r="AL2" s="198"/>
+      <c r="AM2" s="198"/>
+      <c r="AN2" s="199"/>
       <c r="AO2" s="1"/>
       <c r="AP2" s="1"/>
       <c r="AQ2" s="1"/>
@@ -4233,43 +4233,43 @@
       <c r="BG3" s="1"/>
     </row>
     <row r="4" spans="1:64" ht="16" x14ac:dyDescent="0.3">
-      <c r="A4" s="198" t="s">
+      <c r="A4" s="200" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="199"/>
-      <c r="C4" s="202" t="s">
+      <c r="B4" s="201"/>
+      <c r="C4" s="204" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="202"/>
-      <c r="E4" s="202"/>
-      <c r="F4" s="202"/>
-      <c r="G4" s="202"/>
-      <c r="H4" s="202"/>
-      <c r="I4" s="202"/>
-      <c r="J4" s="202"/>
-      <c r="K4" s="202"/>
-      <c r="L4" s="202"/>
-      <c r="M4" s="202"/>
-      <c r="N4" s="202"/>
-      <c r="O4" s="202"/>
-      <c r="P4" s="199" t="s">
+      <c r="D4" s="204"/>
+      <c r="E4" s="204"/>
+      <c r="F4" s="204"/>
+      <c r="G4" s="204"/>
+      <c r="H4" s="204"/>
+      <c r="I4" s="204"/>
+      <c r="J4" s="204"/>
+      <c r="K4" s="204"/>
+      <c r="L4" s="204"/>
+      <c r="M4" s="204"/>
+      <c r="N4" s="204"/>
+      <c r="O4" s="204"/>
+      <c r="P4" s="201" t="s">
         <v>6</v>
       </c>
-      <c r="Q4" s="199"/>
-      <c r="R4" s="199"/>
-      <c r="S4" s="199" t="s">
+      <c r="Q4" s="201"/>
+      <c r="R4" s="201"/>
+      <c r="S4" s="201" t="s">
         <v>7</v>
       </c>
-      <c r="T4" s="199"/>
-      <c r="U4" s="199"/>
-      <c r="V4" s="199"/>
-      <c r="W4" s="199"/>
-      <c r="X4" s="207"/>
-      <c r="Y4" s="203" t="s">
+      <c r="T4" s="201"/>
+      <c r="U4" s="201"/>
+      <c r="V4" s="201"/>
+      <c r="W4" s="201"/>
+      <c r="X4" s="209"/>
+      <c r="Y4" s="205" t="s">
         <v>8</v>
       </c>
-      <c r="Z4" s="203"/>
-      <c r="AA4" s="204"/>
+      <c r="Z4" s="205"/>
+      <c r="AA4" s="206"/>
       <c r="AB4" s="49"/>
       <c r="AC4" s="49"/>
       <c r="AD4" s="5">
@@ -4394,43 +4394,43 @@
       </c>
     </row>
     <row r="5" spans="1:64" ht="16" x14ac:dyDescent="0.3">
-      <c r="A5" s="200"/>
-      <c r="B5" s="201"/>
-      <c r="C5" s="201" t="s">
+      <c r="A5" s="202"/>
+      <c r="B5" s="203"/>
+      <c r="C5" s="203" t="s">
         <v>9</v>
       </c>
-      <c r="D5" s="201"/>
-      <c r="E5" s="201"/>
-      <c r="F5" s="201"/>
-      <c r="G5" s="201"/>
-      <c r="H5" s="208" t="s">
+      <c r="D5" s="203"/>
+      <c r="E5" s="203"/>
+      <c r="F5" s="203"/>
+      <c r="G5" s="203"/>
+      <c r="H5" s="210" t="s">
         <v>115</v>
       </c>
-      <c r="I5" s="209"/>
-      <c r="J5" s="208" t="s">
+      <c r="I5" s="211"/>
+      <c r="J5" s="210" t="s">
         <v>89</v>
       </c>
-      <c r="K5" s="209"/>
+      <c r="K5" s="211"/>
       <c r="L5" s="53"/>
       <c r="M5" s="53"/>
       <c r="N5" s="53"/>
       <c r="O5" s="53"/>
-      <c r="P5" s="201"/>
-      <c r="Q5" s="201"/>
-      <c r="R5" s="201"/>
-      <c r="S5" s="201" t="s">
+      <c r="P5" s="203"/>
+      <c r="Q5" s="203"/>
+      <c r="R5" s="203"/>
+      <c r="S5" s="203" t="s">
         <v>2</v>
       </c>
-      <c r="T5" s="201"/>
-      <c r="U5" s="201"/>
-      <c r="V5" s="201" t="s">
+      <c r="T5" s="203"/>
+      <c r="U5" s="203"/>
+      <c r="V5" s="203" t="s">
         <v>3</v>
       </c>
-      <c r="W5" s="201"/>
-      <c r="X5" s="192"/>
-      <c r="Y5" s="205"/>
-      <c r="Z5" s="205"/>
-      <c r="AA5" s="206"/>
+      <c r="W5" s="203"/>
+      <c r="X5" s="194"/>
+      <c r="Y5" s="207"/>
+      <c r="Z5" s="207"/>
+      <c r="AA5" s="208"/>
       <c r="AB5" s="45" t="s">
         <v>87</v>
       </c>
@@ -4565,33 +4565,33 @@
       </c>
     </row>
     <row r="6" spans="1:64" ht="16" x14ac:dyDescent="0.3">
-      <c r="A6" s="200"/>
-      <c r="B6" s="201"/>
-      <c r="C6" s="201"/>
-      <c r="D6" s="201"/>
-      <c r="E6" s="201"/>
-      <c r="F6" s="201"/>
-      <c r="G6" s="201"/>
-      <c r="H6" s="210"/>
-      <c r="I6" s="211"/>
-      <c r="J6" s="210"/>
-      <c r="K6" s="211"/>
+      <c r="A6" s="202"/>
+      <c r="B6" s="203"/>
+      <c r="C6" s="203"/>
+      <c r="D6" s="203"/>
+      <c r="E6" s="203"/>
+      <c r="F6" s="203"/>
+      <c r="G6" s="203"/>
+      <c r="H6" s="212"/>
+      <c r="I6" s="213"/>
+      <c r="J6" s="212"/>
+      <c r="K6" s="213"/>
       <c r="L6" s="53"/>
       <c r="M6" s="53"/>
       <c r="N6" s="53"/>
       <c r="O6" s="53"/>
-      <c r="P6" s="201"/>
-      <c r="Q6" s="201"/>
-      <c r="R6" s="201"/>
-      <c r="S6" s="201"/>
-      <c r="T6" s="201"/>
-      <c r="U6" s="201"/>
-      <c r="V6" s="201"/>
-      <c r="W6" s="201"/>
-      <c r="X6" s="192"/>
-      <c r="Y6" s="205"/>
-      <c r="Z6" s="205"/>
-      <c r="AA6" s="206"/>
+      <c r="P6" s="203"/>
+      <c r="Q6" s="203"/>
+      <c r="R6" s="203"/>
+      <c r="S6" s="203"/>
+      <c r="T6" s="203"/>
+      <c r="U6" s="203"/>
+      <c r="V6" s="203"/>
+      <c r="W6" s="203"/>
+      <c r="X6" s="194"/>
+      <c r="Y6" s="207"/>
+      <c r="Z6" s="207"/>
+      <c r="AA6" s="208"/>
       <c r="AB6" s="45"/>
       <c r="AC6" s="45"/>
       <c r="AD6" s="11" t="str">
@@ -7679,8 +7679,8 @@
       </c>
       <c r="W42" s="21"/>
       <c r="X42" s="21"/>
-      <c r="Y42" s="40">
-        <v>0.8</v>
+      <c r="Y42" s="40" t="s">
+        <v>116</v>
       </c>
       <c r="Z42" s="4"/>
       <c r="AA42" s="43"/>
@@ -7689,7 +7689,7 @@
       </c>
       <c r="AC42" s="107">
         <f t="shared" si="4"/>
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="AD42" s="44"/>
       <c r="AE42" s="2"/>
@@ -9249,8 +9249,8 @@
       </c>
       <c r="W61" s="21"/>
       <c r="X61" s="21"/>
-      <c r="Y61" s="25">
-        <v>0.8</v>
+      <c r="Y61" s="25" t="s">
+        <v>116</v>
       </c>
       <c r="Z61" s="4"/>
       <c r="AA61" s="43"/>
@@ -9259,7 +9259,7 @@
       </c>
       <c r="AC61" s="107">
         <f t="shared" si="6"/>
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="AD61" s="44"/>
       <c r="AE61" s="2"/>
@@ -9553,8 +9553,8 @@
       </c>
     </row>
     <row r="65" spans="1:62" ht="16" x14ac:dyDescent="0.3">
-      <c r="A65" s="222"/>
-      <c r="B65" s="223"/>
+      <c r="A65" s="192"/>
+      <c r="B65" s="193"/>
       <c r="C65" s="19"/>
       <c r="D65" s="19"/>
       <c r="E65" s="19"/>
@@ -9637,8 +9637,8 @@
       </c>
     </row>
     <row r="66" spans="1:62" ht="16" x14ac:dyDescent="0.3">
-      <c r="A66" s="222"/>
-      <c r="B66" s="223"/>
+      <c r="A66" s="192"/>
+      <c r="B66" s="193"/>
       <c r="C66" s="19"/>
       <c r="D66" s="19"/>
       <c r="E66" s="19"/>
@@ -9721,8 +9721,8 @@
       </c>
     </row>
     <row r="67" spans="1:62" ht="16" x14ac:dyDescent="0.3">
-      <c r="A67" s="222"/>
-      <c r="B67" s="223"/>
+      <c r="A67" s="192"/>
+      <c r="B67" s="193"/>
       <c r="C67" s="19"/>
       <c r="D67" s="19"/>
       <c r="E67" s="19"/>
@@ -9805,8 +9805,8 @@
       </c>
     </row>
     <row r="68" spans="1:62" ht="16" x14ac:dyDescent="0.3">
-      <c r="A68" s="222"/>
-      <c r="B68" s="223"/>
+      <c r="A68" s="192"/>
+      <c r="B68" s="193"/>
       <c r="C68" s="19"/>
       <c r="D68" s="19"/>
       <c r="E68" s="19"/>
@@ -9889,8 +9889,8 @@
       </c>
     </row>
     <row r="69" spans="1:62" ht="16" x14ac:dyDescent="0.3">
-      <c r="A69" s="222"/>
-      <c r="B69" s="223"/>
+      <c r="A69" s="192"/>
+      <c r="B69" s="193"/>
       <c r="C69" s="19"/>
       <c r="D69" s="19"/>
       <c r="E69" s="19"/>
@@ -10007,8 +10007,8 @@
       </c>
       <c r="W70" s="21"/>
       <c r="X70" s="21"/>
-      <c r="Y70" s="40">
-        <v>0.7</v>
+      <c r="Y70" s="40" t="s">
+        <v>116</v>
       </c>
       <c r="Z70" s="4"/>
       <c r="AA70" s="43"/>
@@ -10017,7 +10017,7 @@
       </c>
       <c r="AC70" s="107">
         <f t="shared" si="6"/>
-        <v>0.7</v>
+        <v>1</v>
       </c>
       <c r="AD70" s="44"/>
       <c r="AE70" s="2"/>
@@ -10175,8 +10175,8 @@
       </c>
       <c r="W72" s="21"/>
       <c r="X72" s="21"/>
-      <c r="Y72" s="40">
-        <v>0.5</v>
+      <c r="Y72" s="40" t="s">
+        <v>116</v>
       </c>
       <c r="Z72" s="55" t="s">
         <v>117</v>
@@ -10189,7 +10189,7 @@
       </c>
       <c r="AC72" s="107">
         <f t="shared" si="6"/>
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="AD72" s="44"/>
       <c r="AE72" s="2"/>
@@ -10439,8 +10439,8 @@
       </c>
       <c r="W75" s="21"/>
       <c r="X75" s="21"/>
-      <c r="Y75" s="25">
-        <v>0.9</v>
+      <c r="Y75" s="25" t="s">
+        <v>116</v>
       </c>
       <c r="Z75" s="4"/>
       <c r="AA75" s="43"/>
@@ -10449,7 +10449,7 @@
       </c>
       <c r="AC75" s="107">
         <f t="shared" si="6"/>
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="AD75" s="2"/>
       <c r="AE75" s="105"/>
@@ -10538,7 +10538,7 @@
       <c r="W76" s="35"/>
       <c r="X76" s="36"/>
       <c r="Y76" s="4" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="Z76" s="4"/>
       <c r="AA76" s="43"/>
@@ -10547,7 +10547,7 @@
       </c>
       <c r="AC76" s="107">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD76" s="44"/>
       <c r="AE76" s="2"/>
@@ -10634,7 +10634,7 @@
       <c r="W77" s="35"/>
       <c r="X77" s="36"/>
       <c r="Y77" s="4" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="Z77" s="4"/>
       <c r="AA77" s="43"/>
@@ -10643,7 +10643,7 @@
       </c>
       <c r="AC77" s="107">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD77" s="44"/>
       <c r="AE77" s="2"/>
@@ -10730,7 +10730,7 @@
       <c r="W78" s="35"/>
       <c r="X78" s="36"/>
       <c r="Y78" s="4" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="Z78" s="4"/>
       <c r="AA78" s="43"/>
@@ -10739,7 +10739,7 @@
       </c>
       <c r="AC78" s="107">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD78" s="44"/>
       <c r="AE78" s="2"/>
@@ -10824,7 +10824,7 @@
       <c r="W79" s="35"/>
       <c r="X79" s="36"/>
       <c r="Y79" s="4" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="Z79" s="4"/>
       <c r="AA79" s="43"/>
@@ -10833,7 +10833,7 @@
       </c>
       <c r="AC79" s="107">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD79" s="44"/>
       <c r="AE79" s="2"/>
@@ -10918,7 +10918,7 @@
       <c r="W80" s="35"/>
       <c r="X80" s="36"/>
       <c r="Y80" s="4" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="Z80" s="4"/>
       <c r="AA80" s="43"/>
@@ -10927,7 +10927,7 @@
       </c>
       <c r="AC80" s="107">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD80" s="44"/>
       <c r="AE80" s="2"/>
@@ -11012,7 +11012,7 @@
       <c r="W81" s="35"/>
       <c r="X81" s="36"/>
       <c r="Y81" s="4" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="Z81" s="4"/>
       <c r="AA81" s="43"/>
@@ -11021,7 +11021,7 @@
       </c>
       <c r="AC81" s="107">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD81" s="44"/>
       <c r="AE81" s="2"/>
@@ -11106,7 +11106,7 @@
       <c r="W82" s="35"/>
       <c r="X82" s="36"/>
       <c r="Y82" s="4" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="Z82" s="4"/>
       <c r="AA82" s="43"/>
@@ -11115,7 +11115,7 @@
       </c>
       <c r="AC82" s="107">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD82" s="44"/>
       <c r="AE82" s="2"/>
@@ -11200,7 +11200,7 @@
       <c r="W83" s="99"/>
       <c r="X83" s="100"/>
       <c r="Y83" s="4" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="Z83" s="4"/>
       <c r="AA83" s="43"/>
@@ -11209,7 +11209,7 @@
       </c>
       <c r="AC83" s="107">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD83" s="44"/>
       <c r="AE83" s="2"/>
@@ -11294,7 +11294,7 @@
       <c r="W84" s="65"/>
       <c r="X84" s="65"/>
       <c r="Y84" s="4" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="Z84" s="39"/>
       <c r="AA84" s="52"/>
@@ -11303,7 +11303,7 @@
       </c>
       <c r="AC84" s="107">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD84" s="82"/>
       <c r="AE84" s="81"/>
@@ -12192,14 +12192,14 @@
       <c r="W96" s="67"/>
       <c r="X96" s="67"/>
       <c r="Y96" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="AB96">
         <v>2</v>
       </c>
       <c r="AC96" s="107">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD96" s="57"/>
       <c r="AE96" s="57"/>
@@ -13013,11 +13013,6 @@
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="A69:B69"/>
-    <mergeCell ref="A68:B68"/>
-    <mergeCell ref="A67:B67"/>
-    <mergeCell ref="A66:B66"/>
-    <mergeCell ref="A65:B65"/>
     <mergeCell ref="AD1:AG1"/>
     <mergeCell ref="AH1:AN1"/>
     <mergeCell ref="AD2:AG2"/>
@@ -13034,6 +13029,11 @@
     <mergeCell ref="J5:K6"/>
     <mergeCell ref="A1:G2"/>
     <mergeCell ref="H1:AC2"/>
+    <mergeCell ref="A69:B69"/>
+    <mergeCell ref="A68:B68"/>
+    <mergeCell ref="A67:B67"/>
+    <mergeCell ref="A66:B66"/>
+    <mergeCell ref="A65:B65"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="AD5:AD6">
@@ -13066,8 +13066,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7BC30043-DC99-4AC1-B9B7-184E5B4C9BD6}">
   <dimension ref="A1:T21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="P9" sqref="P9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="Q9" sqref="Q9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
@@ -13255,7 +13255,7 @@
       </c>
       <c r="Q3" s="88">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.94563758389261754</v>
       </c>
       <c r="R3" s="88">
         <f t="shared" si="0"/>
@@ -13493,7 +13493,9 @@
       <c r="P7" s="91">
         <v>261.8</v>
       </c>
-      <c r="Q7" s="91"/>
+      <c r="Q7" s="91">
+        <v>281.8</v>
+      </c>
       <c r="R7" s="91"/>
       <c r="S7" s="91"/>
       <c r="T7" s="91"/>
@@ -13501,63 +13503,63 @@
     <row r="8" spans="1:20" x14ac:dyDescent="0.3">
       <c r="F8">
         <f>Sheet3!$F$101</f>
-        <v>261.75</v>
+        <v>281.75</v>
       </c>
       <c r="G8">
         <f>Sheet3!$F$101</f>
-        <v>261.75</v>
+        <v>281.75</v>
       </c>
       <c r="H8">
         <f>Sheet3!$F$101</f>
-        <v>261.75</v>
+        <v>281.75</v>
       </c>
       <c r="I8">
         <f>Sheet3!$F$101</f>
-        <v>261.75</v>
+        <v>281.75</v>
       </c>
       <c r="J8">
         <f>Sheet3!$F$101</f>
-        <v>261.75</v>
+        <v>281.75</v>
       </c>
       <c r="K8">
         <f>Sheet3!$F$101</f>
-        <v>261.75</v>
+        <v>281.75</v>
       </c>
       <c r="L8">
         <f>Sheet3!$F$101</f>
-        <v>261.75</v>
+        <v>281.75</v>
       </c>
       <c r="M8">
         <f>Sheet3!$F$101</f>
-        <v>261.75</v>
+        <v>281.75</v>
       </c>
       <c r="N8">
         <f>Sheet3!$F$101</f>
-        <v>261.75</v>
+        <v>281.75</v>
       </c>
       <c r="O8">
         <f>Sheet3!$F$101</f>
-        <v>261.75</v>
+        <v>281.75</v>
       </c>
       <c r="P8">
         <f>Sheet3!$F$101</f>
-        <v>261.75</v>
+        <v>281.75</v>
       </c>
       <c r="Q8">
         <f>Sheet3!$F$101</f>
-        <v>261.75</v>
+        <v>281.75</v>
       </c>
       <c r="R8">
         <f>Sheet3!$F$101</f>
-        <v>261.75</v>
+        <v>281.75</v>
       </c>
       <c r="S8">
         <f>Sheet3!$F$101</f>
-        <v>261.75</v>
+        <v>281.75</v>
       </c>
       <c r="T8">
         <f>Sheet3!$F$101</f>
-        <v>261.75</v>
+        <v>281.75</v>
       </c>
     </row>
     <row r="9" spans="1:20" x14ac:dyDescent="0.3">
@@ -13628,10 +13630,10 @@
   <sheetData>
     <row r="2" spans="4:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D2" s="1"/>
-      <c r="E2" s="208" t="s">
+      <c r="E2" s="210" t="s">
         <v>89</v>
       </c>
-      <c r="F2" s="209"/>
+      <c r="F2" s="211"/>
     </row>
     <row r="3" spans="4:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D3" s="1"/>
@@ -13975,7 +13977,7 @@
       </c>
       <c r="F37" s="69">
         <f>工数予実管理表!AB42*工数予実管理表!AC42</f>
-        <v>2.4000000000000004</v>
+        <v>3</v>
       </c>
     </row>
     <row r="38" spans="3:6" ht="16" x14ac:dyDescent="0.3">
@@ -14172,7 +14174,7 @@
       </c>
       <c r="F56" s="69">
         <f>工数予実管理表!AB61*工数予実管理表!AC61</f>
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="57" spans="3:6" ht="16" x14ac:dyDescent="0.3">
@@ -14271,7 +14273,7 @@
       </c>
       <c r="F65" s="69">
         <f>工数予実管理表!AB70*工数予実管理表!AC70</f>
-        <v>4.8999999999999995</v>
+        <v>7</v>
       </c>
     </row>
     <row r="66" spans="3:6" ht="16" x14ac:dyDescent="0.3">
@@ -14293,7 +14295,7 @@
       </c>
       <c r="F67" s="69">
         <f>工数予実管理表!AB72*工数予実管理表!AC72</f>
-        <v>3.5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="68" spans="3:6" ht="16" x14ac:dyDescent="0.3">
@@ -14326,7 +14328,7 @@
       </c>
       <c r="F70" s="69">
         <f>工数予実管理表!AB75*工数予実管理表!AC75</f>
-        <v>7.2</v>
+        <v>8</v>
       </c>
     </row>
     <row r="71" spans="3:6" ht="16" x14ac:dyDescent="0.3">
@@ -14337,7 +14339,7 @@
       </c>
       <c r="F71" s="69">
         <f>工数予実管理表!AB76*工数予実管理表!AC76</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="72" spans="3:6" ht="16" x14ac:dyDescent="0.3">
@@ -14348,7 +14350,7 @@
       </c>
       <c r="F72" s="69">
         <f>工数予実管理表!AB77*工数予実管理表!AC77</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="73" spans="3:6" ht="16" x14ac:dyDescent="0.3">
@@ -14359,7 +14361,7 @@
       </c>
       <c r="F73" s="69">
         <f>工数予実管理表!AB78*工数予実管理表!AC78</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="74" spans="3:6" ht="16" x14ac:dyDescent="0.3">
@@ -14370,7 +14372,7 @@
       </c>
       <c r="F74" s="69">
         <f>工数予実管理表!AB79*工数予実管理表!AC79</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="75" spans="3:6" ht="16" x14ac:dyDescent="0.3">
@@ -14381,7 +14383,7 @@
       </c>
       <c r="F75" s="69">
         <f>工数予実管理表!AB80*工数予実管理表!AC80</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="76" spans="3:6" ht="16" x14ac:dyDescent="0.3">
@@ -14392,7 +14394,7 @@
       </c>
       <c r="F76" s="69">
         <f>工数予実管理表!AB81*工数予実管理表!AC81</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="77" spans="3:6" ht="16" x14ac:dyDescent="0.3">
@@ -14403,7 +14405,7 @@
       </c>
       <c r="F77" s="69">
         <f>工数予実管理表!AB82*工数予実管理表!AC82</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="78" spans="3:6" ht="16" x14ac:dyDescent="0.3">
@@ -14414,7 +14416,7 @@
       </c>
       <c r="F78" s="69">
         <f>工数予実管理表!AB83*工数予実管理表!AC83</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="79" spans="3:6" ht="16" x14ac:dyDescent="0.3">
@@ -14425,7 +14427,7 @@
       </c>
       <c r="F79" s="69">
         <f>工数予実管理表!AB84*工数予実管理表!AC84</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="80" spans="3:6" ht="16" x14ac:dyDescent="0.3">
@@ -14557,7 +14559,7 @@
       </c>
       <c r="F91" s="69">
         <f>工数予実管理表!AB96*工数予実管理表!AC96</f>
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="92" spans="3:6" ht="16" x14ac:dyDescent="0.3">
@@ -14662,7 +14664,7 @@
     <row r="101" spans="3:6" x14ac:dyDescent="0.3">
       <c r="F101" s="111">
         <f>SUM(F4:F100)</f>
-        <v>261.75</v>
+        <v>281.75</v>
       </c>
     </row>
   </sheetData>
@@ -15537,7 +15539,7 @@
       </c>
       <c r="J44" s="33" t="str">
         <f>工数予実管理表!Y76</f>
-        <v>未着手</v>
+        <v>完了</v>
       </c>
       <c r="K44" s="4"/>
       <c r="L44" s="43"/>
@@ -15562,7 +15564,7 @@
       </c>
       <c r="J45" s="33" t="str">
         <f>工数予実管理表!Y77</f>
-        <v>未着手</v>
+        <v>完了</v>
       </c>
       <c r="K45" s="4"/>
       <c r="L45" s="43"/>
@@ -15621,7 +15623,7 @@
       </c>
       <c r="J48" s="33" t="str">
         <f>工数予実管理表!Y78</f>
-        <v>未着手</v>
+        <v>完了</v>
       </c>
       <c r="L48" s="57"/>
     </row>
@@ -15645,7 +15647,7 @@
       </c>
       <c r="J49" s="33" t="str">
         <f>工数予実管理表!Y79</f>
-        <v>未着手</v>
+        <v>完了</v>
       </c>
       <c r="L49" s="57"/>
     </row>
@@ -15808,7 +15810,7 @@
       </c>
       <c r="J57" s="33" t="str">
         <f>工数予実管理表!Y80</f>
-        <v>未着手</v>
+        <v>完了</v>
       </c>
       <c r="K57" s="4"/>
       <c r="L57" s="43"/>
@@ -15833,7 +15835,7 @@
       </c>
       <c r="J58" s="33" t="str">
         <f>工数予実管理表!Y81</f>
-        <v>未着手</v>
+        <v>完了</v>
       </c>
       <c r="K58" s="4"/>
       <c r="L58" s="43"/>
@@ -15858,7 +15860,7 @@
       </c>
       <c r="J59" s="33" t="str">
         <f>工数予実管理表!Y82</f>
-        <v>未着手</v>
+        <v>完了</v>
       </c>
       <c r="K59" s="4"/>
       <c r="L59" s="43"/>
@@ -15883,7 +15885,7 @@
       </c>
       <c r="J60" s="33" t="str">
         <f>工数予実管理表!Y83</f>
-        <v>未着手</v>
+        <v>完了</v>
       </c>
       <c r="K60" s="4"/>
       <c r="L60" s="43"/>
@@ -15908,7 +15910,7 @@
       </c>
       <c r="J61" s="33" t="str">
         <f>工数予実管理表!Y84</f>
-        <v>未着手</v>
+        <v>完了</v>
       </c>
       <c r="K61" s="4"/>
       <c r="L61" s="43"/>
@@ -16099,7 +16101,7 @@
       <c r="I70" s="181"/>
       <c r="J70" s="33" t="str">
         <f>工数予実管理表!Y96</f>
-        <v>未着手</v>
+        <v>完了</v>
       </c>
       <c r="K70" s="4"/>
       <c r="L70" s="43"/>
@@ -16383,9 +16385,9 @@
       </c>
       <c r="H84" s="24"/>
       <c r="I84" s="63"/>
-      <c r="J84" s="33">
+      <c r="J84" s="33" t="str">
         <f>工数予実管理表!Y75</f>
-        <v>0.9</v>
+        <v>完了</v>
       </c>
     </row>
     <row r="85" spans="3:12" ht="16" hidden="1" x14ac:dyDescent="0.3">
@@ -16524,9 +16526,9 @@
       </c>
       <c r="H93" s="185"/>
       <c r="I93" s="185"/>
-      <c r="J93" s="33">
+      <c r="J93" s="33" t="str">
         <f>工数予実管理表!Y42</f>
-        <v>0.8</v>
+        <v>完了</v>
       </c>
     </row>
     <row r="94" spans="3:12" ht="16" x14ac:dyDescent="0.3">
@@ -16567,9 +16569,9 @@
       </c>
       <c r="H96" s="184"/>
       <c r="I96" s="184"/>
-      <c r="J96" s="33">
+      <c r="J96" s="33" t="str">
         <f>工数予実管理表!Y61</f>
-        <v>0.8</v>
+        <v>完了</v>
       </c>
     </row>
     <row r="97" spans="3:10" ht="16" x14ac:dyDescent="0.3">
@@ -16624,9 +16626,9 @@
       </c>
       <c r="H99" s="185"/>
       <c r="I99" s="185"/>
-      <c r="J99" s="33">
+      <c r="J99" s="33" t="str">
         <f>工数予実管理表!Y70</f>
-        <v>0.7</v>
+        <v>完了</v>
       </c>
     </row>
     <row r="100" spans="3:10" ht="16" x14ac:dyDescent="0.3">
@@ -16676,9 +16678,9 @@
       </c>
       <c r="H102" s="184"/>
       <c r="I102" s="184"/>
-      <c r="J102" s="33">
+      <c r="J102" s="33" t="str">
         <f>工数予実管理表!Y72</f>
-        <v>0.5</v>
+        <v>完了</v>
       </c>
     </row>
     <row r="103" spans="3:10" ht="16" x14ac:dyDescent="0.3">
@@ -16713,7 +16715,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6371F3CB-A9B5-45B9-91A2-5506E8B8FC22}">
   <dimension ref="C2:H9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
@@ -16801,6 +16803,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x010100364AEC801DCCFF4C9A7CD82776573E34" ma:contentTypeVersion="0" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="9a90bd606c73e53fbdca164192b510d5">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="86e6f6c817e23f4348afe6a544d017da">
     <xsd:element name="properties">
@@ -16914,33 +16931,10 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E8C7E73E-37A8-4119-AD2E-81AFBFD39544}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4F999A99-14E0-4A35-8552-0D0111146846}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -16955,9 +16949,17 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4F999A99-14E0-4A35-8552-0D0111146846}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E8C7E73E-37A8-4119-AD2E-81AFBFD39544}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/doc/D4_ドキュメント/予実管理表(最新版)_D4.xlsx
+++ b/doc/D4_ドキュメント/予実管理表(最新版)_D4.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9031CD5-4386-4E14-ACCE-89E10E8B4B33}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8714C02-B977-4427-A461-A27BD6062F22}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="894" uniqueCount="175">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="896" uniqueCount="175">
   <si>
     <t>プロジェクト名</t>
     <rPh sb="6" eb="7">
@@ -2438,101 +2438,101 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -4003,8 +4003,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA4A6EF2-62B9-43FE-BFFD-0A328B128D1B}">
   <dimension ref="A1:BL111"/>
   <sheetViews>
-    <sheetView topLeftCell="G96" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="Y85" sqref="Y85"/>
+    <sheetView topLeftCell="G91" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="Y105" sqref="Y105"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
@@ -4038,54 +4038,54 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:64" ht="16" x14ac:dyDescent="0.3">
-      <c r="A1" s="214" t="s">
+      <c r="A1" s="212" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="215"/>
-      <c r="C1" s="215"/>
-      <c r="D1" s="215"/>
-      <c r="E1" s="215"/>
-      <c r="F1" s="215"/>
-      <c r="G1" s="215"/>
-      <c r="H1" s="218" t="s">
+      <c r="B1" s="213"/>
+      <c r="C1" s="213"/>
+      <c r="D1" s="213"/>
+      <c r="E1" s="213"/>
+      <c r="F1" s="213"/>
+      <c r="G1" s="213"/>
+      <c r="H1" s="216" t="s">
         <v>1</v>
       </c>
-      <c r="I1" s="219"/>
-      <c r="J1" s="219"/>
-      <c r="K1" s="219"/>
-      <c r="L1" s="219"/>
-      <c r="M1" s="219"/>
-      <c r="N1" s="219"/>
-      <c r="O1" s="219"/>
-      <c r="P1" s="219"/>
-      <c r="Q1" s="219"/>
-      <c r="R1" s="219"/>
-      <c r="S1" s="219"/>
-      <c r="T1" s="219"/>
-      <c r="U1" s="219"/>
-      <c r="V1" s="219"/>
-      <c r="W1" s="219"/>
-      <c r="X1" s="219"/>
-      <c r="Y1" s="219"/>
-      <c r="Z1" s="219"/>
-      <c r="AA1" s="219"/>
-      <c r="AB1" s="219"/>
-      <c r="AC1" s="220"/>
-      <c r="AD1" s="194" t="s">
+      <c r="I1" s="217"/>
+      <c r="J1" s="217"/>
+      <c r="K1" s="217"/>
+      <c r="L1" s="217"/>
+      <c r="M1" s="217"/>
+      <c r="N1" s="217"/>
+      <c r="O1" s="217"/>
+      <c r="P1" s="217"/>
+      <c r="Q1" s="217"/>
+      <c r="R1" s="217"/>
+      <c r="S1" s="217"/>
+      <c r="T1" s="217"/>
+      <c r="U1" s="217"/>
+      <c r="V1" s="217"/>
+      <c r="W1" s="217"/>
+      <c r="X1" s="217"/>
+      <c r="Y1" s="217"/>
+      <c r="Z1" s="217"/>
+      <c r="AA1" s="217"/>
+      <c r="AB1" s="217"/>
+      <c r="AC1" s="218"/>
+      <c r="AD1" s="192" t="s">
         <v>2</v>
       </c>
-      <c r="AE1" s="195"/>
-      <c r="AF1" s="195"/>
-      <c r="AG1" s="196"/>
-      <c r="AH1" s="197">
+      <c r="AE1" s="193"/>
+      <c r="AF1" s="193"/>
+      <c r="AG1" s="194"/>
+      <c r="AH1" s="195">
         <v>45078</v>
       </c>
-      <c r="AI1" s="198"/>
-      <c r="AJ1" s="198"/>
-      <c r="AK1" s="198"/>
-      <c r="AL1" s="198"/>
-      <c r="AM1" s="198"/>
-      <c r="AN1" s="199"/>
+      <c r="AI1" s="196"/>
+      <c r="AJ1" s="196"/>
+      <c r="AK1" s="196"/>
+      <c r="AL1" s="196"/>
+      <c r="AM1" s="196"/>
+      <c r="AN1" s="197"/>
       <c r="AO1" s="1"/>
       <c r="AP1" s="1"/>
       <c r="AQ1" s="1"/>
@@ -4107,50 +4107,50 @@
       <c r="BG1" s="1"/>
     </row>
     <row r="2" spans="1:64" ht="16" x14ac:dyDescent="0.3">
-      <c r="A2" s="216"/>
-      <c r="B2" s="217"/>
-      <c r="C2" s="217"/>
-      <c r="D2" s="217"/>
-      <c r="E2" s="217"/>
-      <c r="F2" s="217"/>
-      <c r="G2" s="217"/>
-      <c r="H2" s="221"/>
-      <c r="I2" s="222"/>
-      <c r="J2" s="222"/>
-      <c r="K2" s="222"/>
-      <c r="L2" s="222"/>
-      <c r="M2" s="222"/>
-      <c r="N2" s="222"/>
-      <c r="O2" s="222"/>
-      <c r="P2" s="222"/>
-      <c r="Q2" s="222"/>
-      <c r="R2" s="222"/>
-      <c r="S2" s="222"/>
-      <c r="T2" s="222"/>
-      <c r="U2" s="222"/>
-      <c r="V2" s="222"/>
-      <c r="W2" s="222"/>
-      <c r="X2" s="222"/>
-      <c r="Y2" s="222"/>
-      <c r="Z2" s="222"/>
-      <c r="AA2" s="222"/>
-      <c r="AB2" s="222"/>
-      <c r="AC2" s="223"/>
-      <c r="AD2" s="194" t="s">
+      <c r="A2" s="214"/>
+      <c r="B2" s="215"/>
+      <c r="C2" s="215"/>
+      <c r="D2" s="215"/>
+      <c r="E2" s="215"/>
+      <c r="F2" s="215"/>
+      <c r="G2" s="215"/>
+      <c r="H2" s="219"/>
+      <c r="I2" s="220"/>
+      <c r="J2" s="220"/>
+      <c r="K2" s="220"/>
+      <c r="L2" s="220"/>
+      <c r="M2" s="220"/>
+      <c r="N2" s="220"/>
+      <c r="O2" s="220"/>
+      <c r="P2" s="220"/>
+      <c r="Q2" s="220"/>
+      <c r="R2" s="220"/>
+      <c r="S2" s="220"/>
+      <c r="T2" s="220"/>
+      <c r="U2" s="220"/>
+      <c r="V2" s="220"/>
+      <c r="W2" s="220"/>
+      <c r="X2" s="220"/>
+      <c r="Y2" s="220"/>
+      <c r="Z2" s="220"/>
+      <c r="AA2" s="220"/>
+      <c r="AB2" s="220"/>
+      <c r="AC2" s="221"/>
+      <c r="AD2" s="192" t="s">
         <v>3</v>
       </c>
-      <c r="AE2" s="195"/>
-      <c r="AF2" s="195"/>
-      <c r="AG2" s="196"/>
-      <c r="AH2" s="197">
+      <c r="AE2" s="193"/>
+      <c r="AF2" s="193"/>
+      <c r="AG2" s="194"/>
+      <c r="AH2" s="195">
         <v>45107</v>
       </c>
-      <c r="AI2" s="198"/>
-      <c r="AJ2" s="198"/>
-      <c r="AK2" s="198"/>
-      <c r="AL2" s="198"/>
-      <c r="AM2" s="198"/>
-      <c r="AN2" s="199"/>
+      <c r="AI2" s="196"/>
+      <c r="AJ2" s="196"/>
+      <c r="AK2" s="196"/>
+      <c r="AL2" s="196"/>
+      <c r="AM2" s="196"/>
+      <c r="AN2" s="197"/>
       <c r="AO2" s="1"/>
       <c r="AP2" s="1"/>
       <c r="AQ2" s="1"/>
@@ -4233,43 +4233,43 @@
       <c r="BG3" s="1"/>
     </row>
     <row r="4" spans="1:64" ht="16" x14ac:dyDescent="0.3">
-      <c r="A4" s="200" t="s">
+      <c r="A4" s="198" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="201"/>
-      <c r="C4" s="204" t="s">
+      <c r="B4" s="199"/>
+      <c r="C4" s="202" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="204"/>
-      <c r="E4" s="204"/>
-      <c r="F4" s="204"/>
-      <c r="G4" s="204"/>
-      <c r="H4" s="204"/>
-      <c r="I4" s="204"/>
-      <c r="J4" s="204"/>
-      <c r="K4" s="204"/>
-      <c r="L4" s="204"/>
-      <c r="M4" s="204"/>
-      <c r="N4" s="204"/>
-      <c r="O4" s="204"/>
-      <c r="P4" s="201" t="s">
+      <c r="D4" s="202"/>
+      <c r="E4" s="202"/>
+      <c r="F4" s="202"/>
+      <c r="G4" s="202"/>
+      <c r="H4" s="202"/>
+      <c r="I4" s="202"/>
+      <c r="J4" s="202"/>
+      <c r="K4" s="202"/>
+      <c r="L4" s="202"/>
+      <c r="M4" s="202"/>
+      <c r="N4" s="202"/>
+      <c r="O4" s="202"/>
+      <c r="P4" s="199" t="s">
         <v>6</v>
       </c>
-      <c r="Q4" s="201"/>
-      <c r="R4" s="201"/>
-      <c r="S4" s="201" t="s">
+      <c r="Q4" s="199"/>
+      <c r="R4" s="199"/>
+      <c r="S4" s="199" t="s">
         <v>7</v>
       </c>
-      <c r="T4" s="201"/>
-      <c r="U4" s="201"/>
-      <c r="V4" s="201"/>
-      <c r="W4" s="201"/>
-      <c r="X4" s="209"/>
-      <c r="Y4" s="205" t="s">
+      <c r="T4" s="199"/>
+      <c r="U4" s="199"/>
+      <c r="V4" s="199"/>
+      <c r="W4" s="199"/>
+      <c r="X4" s="207"/>
+      <c r="Y4" s="203" t="s">
         <v>8</v>
       </c>
-      <c r="Z4" s="205"/>
-      <c r="AA4" s="206"/>
+      <c r="Z4" s="203"/>
+      <c r="AA4" s="204"/>
       <c r="AB4" s="49"/>
       <c r="AC4" s="49"/>
       <c r="AD4" s="5">
@@ -4394,43 +4394,43 @@
       </c>
     </row>
     <row r="5" spans="1:64" ht="16" x14ac:dyDescent="0.3">
-      <c r="A5" s="202"/>
-      <c r="B5" s="203"/>
-      <c r="C5" s="203" t="s">
+      <c r="A5" s="200"/>
+      <c r="B5" s="201"/>
+      <c r="C5" s="201" t="s">
         <v>9</v>
       </c>
-      <c r="D5" s="203"/>
-      <c r="E5" s="203"/>
-      <c r="F5" s="203"/>
-      <c r="G5" s="203"/>
-      <c r="H5" s="210" t="s">
+      <c r="D5" s="201"/>
+      <c r="E5" s="201"/>
+      <c r="F5" s="201"/>
+      <c r="G5" s="201"/>
+      <c r="H5" s="208" t="s">
         <v>115</v>
       </c>
-      <c r="I5" s="211"/>
-      <c r="J5" s="210" t="s">
+      <c r="I5" s="209"/>
+      <c r="J5" s="208" t="s">
         <v>89</v>
       </c>
-      <c r="K5" s="211"/>
+      <c r="K5" s="209"/>
       <c r="L5" s="53"/>
       <c r="M5" s="53"/>
       <c r="N5" s="53"/>
       <c r="O5" s="53"/>
-      <c r="P5" s="203"/>
-      <c r="Q5" s="203"/>
-      <c r="R5" s="203"/>
-      <c r="S5" s="203" t="s">
+      <c r="P5" s="201"/>
+      <c r="Q5" s="201"/>
+      <c r="R5" s="201"/>
+      <c r="S5" s="201" t="s">
         <v>2</v>
       </c>
-      <c r="T5" s="203"/>
-      <c r="U5" s="203"/>
-      <c r="V5" s="203" t="s">
+      <c r="T5" s="201"/>
+      <c r="U5" s="201"/>
+      <c r="V5" s="201" t="s">
         <v>3</v>
       </c>
-      <c r="W5" s="203"/>
-      <c r="X5" s="194"/>
-      <c r="Y5" s="207"/>
-      <c r="Z5" s="207"/>
-      <c r="AA5" s="208"/>
+      <c r="W5" s="201"/>
+      <c r="X5" s="192"/>
+      <c r="Y5" s="205"/>
+      <c r="Z5" s="205"/>
+      <c r="AA5" s="206"/>
       <c r="AB5" s="45" t="s">
         <v>87</v>
       </c>
@@ -4565,33 +4565,33 @@
       </c>
     </row>
     <row r="6" spans="1:64" ht="16" x14ac:dyDescent="0.3">
-      <c r="A6" s="202"/>
-      <c r="B6" s="203"/>
-      <c r="C6" s="203"/>
-      <c r="D6" s="203"/>
-      <c r="E6" s="203"/>
-      <c r="F6" s="203"/>
-      <c r="G6" s="203"/>
-      <c r="H6" s="212"/>
-      <c r="I6" s="213"/>
-      <c r="J6" s="212"/>
-      <c r="K6" s="213"/>
+      <c r="A6" s="200"/>
+      <c r="B6" s="201"/>
+      <c r="C6" s="201"/>
+      <c r="D6" s="201"/>
+      <c r="E6" s="201"/>
+      <c r="F6" s="201"/>
+      <c r="G6" s="201"/>
+      <c r="H6" s="210"/>
+      <c r="I6" s="211"/>
+      <c r="J6" s="210"/>
+      <c r="K6" s="211"/>
       <c r="L6" s="53"/>
       <c r="M6" s="53"/>
       <c r="N6" s="53"/>
       <c r="O6" s="53"/>
-      <c r="P6" s="203"/>
-      <c r="Q6" s="203"/>
-      <c r="R6" s="203"/>
-      <c r="S6" s="203"/>
-      <c r="T6" s="203"/>
-      <c r="U6" s="203"/>
-      <c r="V6" s="203"/>
-      <c r="W6" s="203"/>
-      <c r="X6" s="194"/>
-      <c r="Y6" s="207"/>
-      <c r="Z6" s="207"/>
-      <c r="AA6" s="208"/>
+      <c r="P6" s="201"/>
+      <c r="Q6" s="201"/>
+      <c r="R6" s="201"/>
+      <c r="S6" s="201"/>
+      <c r="T6" s="201"/>
+      <c r="U6" s="201"/>
+      <c r="V6" s="201"/>
+      <c r="W6" s="201"/>
+      <c r="X6" s="192"/>
+      <c r="Y6" s="205"/>
+      <c r="Z6" s="205"/>
+      <c r="AA6" s="206"/>
       <c r="AB6" s="45"/>
       <c r="AC6" s="45"/>
       <c r="AD6" s="11" t="str">
@@ -9081,8 +9081,8 @@
       </c>
       <c r="W59" s="21"/>
       <c r="X59" s="21"/>
-      <c r="Y59" s="40">
-        <v>0.9</v>
+      <c r="Y59" s="40" t="s">
+        <v>116</v>
       </c>
       <c r="Z59" s="4"/>
       <c r="AA59" s="43"/>
@@ -9091,7 +9091,7 @@
       </c>
       <c r="AC59" s="107">
         <f t="shared" si="6"/>
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="AD59" s="44"/>
       <c r="AE59" s="2"/>
@@ -9333,8 +9333,8 @@
       </c>
       <c r="W62" s="21"/>
       <c r="X62" s="21"/>
-      <c r="Y62" s="40">
-        <v>0.85</v>
+      <c r="Y62" s="40" t="s">
+        <v>116</v>
       </c>
       <c r="Z62" s="4"/>
       <c r="AA62" s="43"/>
@@ -9343,7 +9343,7 @@
       </c>
       <c r="AC62" s="107">
         <f t="shared" si="6"/>
-        <v>0.85</v>
+        <v>1</v>
       </c>
       <c r="AD62" s="44"/>
       <c r="AE62" s="2"/>
@@ -9553,8 +9553,8 @@
       </c>
     </row>
     <row r="65" spans="1:62" ht="16" x14ac:dyDescent="0.3">
-      <c r="A65" s="192"/>
-      <c r="B65" s="193"/>
+      <c r="A65" s="222"/>
+      <c r="B65" s="223"/>
       <c r="C65" s="19"/>
       <c r="D65" s="19"/>
       <c r="E65" s="19"/>
@@ -9637,8 +9637,8 @@
       </c>
     </row>
     <row r="66" spans="1:62" ht="16" x14ac:dyDescent="0.3">
-      <c r="A66" s="192"/>
-      <c r="B66" s="193"/>
+      <c r="A66" s="222"/>
+      <c r="B66" s="223"/>
       <c r="C66" s="19"/>
       <c r="D66" s="19"/>
       <c r="E66" s="19"/>
@@ -9721,8 +9721,8 @@
       </c>
     </row>
     <row r="67" spans="1:62" ht="16" x14ac:dyDescent="0.3">
-      <c r="A67" s="192"/>
-      <c r="B67" s="193"/>
+      <c r="A67" s="222"/>
+      <c r="B67" s="223"/>
       <c r="C67" s="19"/>
       <c r="D67" s="19"/>
       <c r="E67" s="19"/>
@@ -9805,8 +9805,8 @@
       </c>
     </row>
     <row r="68" spans="1:62" ht="16" x14ac:dyDescent="0.3">
-      <c r="A68" s="192"/>
-      <c r="B68" s="193"/>
+      <c r="A68" s="222"/>
+      <c r="B68" s="223"/>
       <c r="C68" s="19"/>
       <c r="D68" s="19"/>
       <c r="E68" s="19"/>
@@ -9889,8 +9889,8 @@
       </c>
     </row>
     <row r="69" spans="1:62" ht="16" x14ac:dyDescent="0.3">
-      <c r="A69" s="192"/>
-      <c r="B69" s="193"/>
+      <c r="A69" s="222"/>
+      <c r="B69" s="223"/>
       <c r="C69" s="19"/>
       <c r="D69" s="19"/>
       <c r="E69" s="19"/>
@@ -10263,8 +10263,8 @@
       </c>
       <c r="W73" s="21"/>
       <c r="X73" s="21"/>
-      <c r="Y73" s="40">
-        <v>0.9</v>
+      <c r="Y73" s="40" t="s">
+        <v>116</v>
       </c>
       <c r="Z73" s="55" t="s">
         <v>117</v>
@@ -10277,7 +10277,7 @@
       </c>
       <c r="AC73" s="107">
         <f t="shared" si="6"/>
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="AD73" s="44"/>
       <c r="AE73" s="2"/>
@@ -11388,14 +11388,14 @@
       <c r="W85" s="65"/>
       <c r="X85" s="65"/>
       <c r="Y85" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="AB85">
         <v>1</v>
       </c>
       <c r="AC85" s="107">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD85" s="57"/>
       <c r="AE85" s="57"/>
@@ -11480,14 +11480,14 @@
       <c r="W86" s="65"/>
       <c r="X86" s="65"/>
       <c r="Y86" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="AB86">
         <v>1</v>
       </c>
       <c r="AC86" s="107">
         <f t="shared" ref="AC86:AC105" si="7">VLOOKUP(Y86,$BI$6:$BJ$107,2,FALSE)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD86" s="57"/>
       <c r="AE86" s="57"/>
@@ -12263,14 +12263,14 @@
       <c r="W97" s="67"/>
       <c r="X97" s="67"/>
       <c r="Y97" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="AB97">
         <v>2</v>
       </c>
       <c r="AC97" s="107">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD97" s="57"/>
       <c r="AE97" s="57"/>
@@ -12334,14 +12334,14 @@
       <c r="W98" s="67"/>
       <c r="X98" s="67"/>
       <c r="Y98" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="AB98">
         <v>2</v>
       </c>
       <c r="AC98" s="107">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD98" s="57"/>
       <c r="AE98" s="57"/>
@@ -12405,14 +12405,14 @@
       <c r="W99" s="67"/>
       <c r="X99" s="67"/>
       <c r="Y99" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="AB99">
         <v>2</v>
       </c>
       <c r="AC99" s="107">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD99" s="57"/>
       <c r="AE99" s="57"/>
@@ -12476,14 +12476,14 @@
       <c r="W100" s="67"/>
       <c r="X100" s="67"/>
       <c r="Y100" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="AB100">
         <v>2</v>
       </c>
       <c r="AC100" s="107">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD100" s="57"/>
       <c r="AE100" s="57"/>
@@ -12547,14 +12547,14 @@
       <c r="W101" s="67"/>
       <c r="X101" s="67"/>
       <c r="Y101" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="AB101">
         <v>2</v>
       </c>
       <c r="AC101" s="107">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD101" s="57"/>
       <c r="AE101" s="57"/>
@@ -12829,15 +12829,15 @@
       </c>
       <c r="W105" s="67"/>
       <c r="X105" s="67"/>
-      <c r="Y105" t="s">
-        <v>117</v>
+      <c r="Y105" s="54">
+        <v>0.7</v>
       </c>
       <c r="AB105">
         <v>2</v>
       </c>
       <c r="AC105" s="107">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>0.7</v>
       </c>
       <c r="AD105" s="57"/>
       <c r="AE105" s="57"/>
@@ -13013,6 +13013,11 @@
     </row>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="A69:B69"/>
+    <mergeCell ref="A68:B68"/>
+    <mergeCell ref="A67:B67"/>
+    <mergeCell ref="A66:B66"/>
+    <mergeCell ref="A65:B65"/>
     <mergeCell ref="AD1:AG1"/>
     <mergeCell ref="AH1:AN1"/>
     <mergeCell ref="AD2:AG2"/>
@@ -13029,11 +13034,6 @@
     <mergeCell ref="J5:K6"/>
     <mergeCell ref="A1:G2"/>
     <mergeCell ref="H1:AC2"/>
-    <mergeCell ref="A69:B69"/>
-    <mergeCell ref="A68:B68"/>
-    <mergeCell ref="A67:B67"/>
-    <mergeCell ref="A66:B66"/>
-    <mergeCell ref="A65:B65"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="AD5:AD6">
@@ -13067,7 +13067,7 @@
   <dimension ref="A1:T21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q9" sqref="Q9"/>
+      <selection activeCell="S7" sqref="S7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
@@ -13259,7 +13259,7 @@
       </c>
       <c r="R3" s="88">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.99798657718120798</v>
       </c>
       <c r="S3" s="88">
         <f t="shared" si="0"/>
@@ -13496,70 +13496,72 @@
       <c r="Q7" s="91">
         <v>281.8</v>
       </c>
-      <c r="R7" s="91"/>
+      <c r="R7" s="91">
+        <v>297.39999999999998</v>
+      </c>
       <c r="S7" s="91"/>
       <c r="T7" s="91"/>
     </row>
     <row r="8" spans="1:20" x14ac:dyDescent="0.3">
       <c r="F8">
         <f>Sheet3!$F$101</f>
-        <v>281.75</v>
+        <v>297.39999999999998</v>
       </c>
       <c r="G8">
         <f>Sheet3!$F$101</f>
-        <v>281.75</v>
+        <v>297.39999999999998</v>
       </c>
       <c r="H8">
         <f>Sheet3!$F$101</f>
-        <v>281.75</v>
+        <v>297.39999999999998</v>
       </c>
       <c r="I8">
         <f>Sheet3!$F$101</f>
-        <v>281.75</v>
+        <v>297.39999999999998</v>
       </c>
       <c r="J8">
         <f>Sheet3!$F$101</f>
-        <v>281.75</v>
+        <v>297.39999999999998</v>
       </c>
       <c r="K8">
         <f>Sheet3!$F$101</f>
-        <v>281.75</v>
+        <v>297.39999999999998</v>
       </c>
       <c r="L8">
         <f>Sheet3!$F$101</f>
-        <v>281.75</v>
+        <v>297.39999999999998</v>
       </c>
       <c r="M8">
         <f>Sheet3!$F$101</f>
-        <v>281.75</v>
+        <v>297.39999999999998</v>
       </c>
       <c r="N8">
         <f>Sheet3!$F$101</f>
-        <v>281.75</v>
+        <v>297.39999999999998</v>
       </c>
       <c r="O8">
         <f>Sheet3!$F$101</f>
-        <v>281.75</v>
+        <v>297.39999999999998</v>
       </c>
       <c r="P8">
         <f>Sheet3!$F$101</f>
-        <v>281.75</v>
+        <v>297.39999999999998</v>
       </c>
       <c r="Q8">
         <f>Sheet3!$F$101</f>
-        <v>281.75</v>
+        <v>297.39999999999998</v>
       </c>
       <c r="R8">
         <f>Sheet3!$F$101</f>
-        <v>281.75</v>
+        <v>297.39999999999998</v>
       </c>
       <c r="S8">
         <f>Sheet3!$F$101</f>
-        <v>281.75</v>
+        <v>297.39999999999998</v>
       </c>
       <c r="T8">
         <f>Sheet3!$F$101</f>
-        <v>281.75</v>
+        <v>297.39999999999998</v>
       </c>
     </row>
     <row r="9" spans="1:20" x14ac:dyDescent="0.3">
@@ -13630,10 +13632,10 @@
   <sheetData>
     <row r="2" spans="4:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D2" s="1"/>
-      <c r="E2" s="210" t="s">
+      <c r="E2" s="208" t="s">
         <v>89</v>
       </c>
-      <c r="F2" s="211"/>
+      <c r="F2" s="209"/>
     </row>
     <row r="3" spans="4:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D3" s="1"/>
@@ -14152,7 +14154,7 @@
       </c>
       <c r="F54" s="69">
         <f>工数予実管理表!AB59*工数予実管理表!AC59</f>
-        <v>6.3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="55" spans="3:6" ht="16" x14ac:dyDescent="0.3">
@@ -14185,7 +14187,7 @@
       </c>
       <c r="F57" s="69">
         <f>工数予実管理表!AB62*工数予実管理表!AC62</f>
-        <v>5.95</v>
+        <v>7</v>
       </c>
     </row>
     <row r="58" spans="3:6" ht="16" x14ac:dyDescent="0.3">
@@ -14306,7 +14308,7 @@
       </c>
       <c r="F68" s="69">
         <f>工数予実管理表!AB73*工数予実管理表!AC73</f>
-        <v>4.5</v>
+        <v>5</v>
       </c>
     </row>
     <row r="69" spans="3:6" ht="16" x14ac:dyDescent="0.3">
@@ -14438,7 +14440,7 @@
       </c>
       <c r="F80" s="69">
         <f>工数予実管理表!AB85*工数予実管理表!AC85</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="81" spans="3:6" ht="16" x14ac:dyDescent="0.3">
@@ -14449,7 +14451,7 @@
       </c>
       <c r="F81" s="69">
         <f>工数予実管理表!AB86*工数予実管理表!AC86</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="82" spans="3:6" ht="16" x14ac:dyDescent="0.3">
@@ -14570,7 +14572,7 @@
       </c>
       <c r="F92" s="69">
         <f>工数予実管理表!AB97*工数予実管理表!AC97</f>
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="93" spans="3:6" ht="16" x14ac:dyDescent="0.3">
@@ -14581,7 +14583,7 @@
       </c>
       <c r="F93" s="69">
         <f>工数予実管理表!AB98*工数予実管理表!AC98</f>
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="94" spans="3:6" ht="16" x14ac:dyDescent="0.3">
@@ -14592,7 +14594,7 @@
       </c>
       <c r="F94" s="69">
         <f>工数予実管理表!AB99*工数予実管理表!AC99</f>
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="95" spans="3:6" ht="16" x14ac:dyDescent="0.3">
@@ -14603,7 +14605,7 @@
       </c>
       <c r="F95" s="69">
         <f>工数予実管理表!AB100*工数予実管理表!AC100</f>
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="96" spans="3:6" ht="16" x14ac:dyDescent="0.3">
@@ -14614,7 +14616,7 @@
       </c>
       <c r="F96" s="69">
         <f>工数予実管理表!AB101*工数予実管理表!AC101</f>
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="97" spans="3:6" ht="16" x14ac:dyDescent="0.3">
@@ -14658,13 +14660,13 @@
       </c>
       <c r="F100" s="69">
         <f>工数予実管理表!AB105*工数予実管理表!AC105</f>
-        <v>0</v>
+        <v>1.4</v>
       </c>
     </row>
     <row r="101" spans="3:6" x14ac:dyDescent="0.3">
       <c r="F101" s="111">
         <f>SUM(F4:F100)</f>
-        <v>281.75</v>
+        <v>297.39999999999998</v>
       </c>
     </row>
   </sheetData>
@@ -15449,9 +15451,9 @@
       </c>
       <c r="H40" s="26"/>
       <c r="I40" s="26"/>
-      <c r="J40" s="33">
+      <c r="J40" s="33" t="str">
         <f>工数予実管理表!Y59</f>
-        <v>0.9</v>
+        <v>完了</v>
       </c>
       <c r="K40" s="4"/>
       <c r="L40" s="43"/>
@@ -15956,7 +15958,7 @@
       </c>
       <c r="J63" s="33" t="str">
         <f>工数予実管理表!Y85</f>
-        <v>未着手</v>
+        <v>完了</v>
       </c>
       <c r="K63" s="4"/>
       <c r="L63" s="43"/>
@@ -15981,7 +15983,7 @@
       </c>
       <c r="J64" s="33" t="str">
         <f>工数予実管理表!Y86</f>
-        <v>未着手</v>
+        <v>完了</v>
       </c>
       <c r="K64" s="4"/>
       <c r="L64" s="43"/>
@@ -16120,7 +16122,7 @@
       <c r="I71" s="181"/>
       <c r="J71" s="33" t="str">
         <f>工数予実管理表!Y97</f>
-        <v>未着手</v>
+        <v>完了</v>
       </c>
       <c r="K71" s="55" t="s">
         <v>117</v>
@@ -16168,7 +16170,7 @@
       <c r="I73" s="181"/>
       <c r="J73" s="33" t="str">
         <f>工数予実管理表!Y98</f>
-        <v>未着手</v>
+        <v>完了</v>
       </c>
       <c r="K73" s="4"/>
       <c r="L73" s="43"/>
@@ -16187,7 +16189,7 @@
       <c r="I74" s="181"/>
       <c r="J74" s="33" t="str">
         <f>工数予実管理表!Y99</f>
-        <v>未着手</v>
+        <v>完了</v>
       </c>
       <c r="K74" s="4"/>
       <c r="L74" s="43"/>
@@ -16206,7 +16208,7 @@
       <c r="I75" s="181"/>
       <c r="J75" s="33" t="str">
         <f>工数予実管理表!Y100</f>
-        <v>未着手</v>
+        <v>完了</v>
       </c>
       <c r="K75" s="4"/>
       <c r="L75" s="43"/>
@@ -16225,7 +16227,7 @@
       <c r="I76" s="181"/>
       <c r="J76" s="33" t="str">
         <f>工数予実管理表!Y101</f>
-        <v>未着手</v>
+        <v>完了</v>
       </c>
       <c r="K76" s="4"/>
       <c r="L76" s="43"/>
@@ -16588,9 +16590,9 @@
       </c>
       <c r="H97" s="185"/>
       <c r="I97" s="185"/>
-      <c r="J97" s="33">
+      <c r="J97" s="33" t="str">
         <f>工数予実管理表!Y62</f>
-        <v>0.85</v>
+        <v>完了</v>
       </c>
     </row>
     <row r="98" spans="3:10" ht="16" hidden="1" x14ac:dyDescent="0.3">
@@ -16645,9 +16647,9 @@
       </c>
       <c r="H100" s="185"/>
       <c r="I100" s="185"/>
-      <c r="J100" s="33">
+      <c r="J100" s="33" t="str">
         <f>工数予実管理表!Y73</f>
-        <v>0.9</v>
+        <v>完了</v>
       </c>
     </row>
     <row r="101" spans="3:10" ht="16" hidden="1" x14ac:dyDescent="0.3">
@@ -16684,9 +16686,9 @@
       </c>
     </row>
     <row r="103" spans="3:10" ht="16" x14ac:dyDescent="0.3">
-      <c r="J103" s="33" t="str">
+      <c r="J103" s="33">
         <f>工数予実管理表!Y105</f>
-        <v>未着手</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="104" spans="3:10" ht="16" x14ac:dyDescent="0.3">
@@ -16803,21 +16805,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x010100364AEC801DCCFF4C9A7CD82776573E34" ma:contentTypeVersion="0" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="9a90bd606c73e53fbdca164192b510d5">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="86e6f6c817e23f4348afe6a544d017da">
     <xsd:element name="properties">
@@ -16931,10 +16918,33 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4F999A99-14E0-4A35-8552-0D0111146846}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E8C7E73E-37A8-4119-AD2E-81AFBFD39544}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -16949,17 +16959,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E8C7E73E-37A8-4119-AD2E-81AFBFD39544}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4F999A99-14E0-4A35-8552-0D0111146846}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>